--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -576,22 +576,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -763,9 +763,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -845,7 +845,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -873,10 +873,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1132,9 +1132,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1422,7 +1422,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1450,10 +1450,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1710,12 +1710,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.0312" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.0078" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.4766" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.0312" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4141,10 +4141,10 @@
         <v>10</v>
       </c>
       <c r="F86" s="7">
+        <v>1</v>
+      </c>
+      <c r="G86" s="7">
         <v>0.2</v>
-      </c>
-      <c r="G86" s="7">
-        <v>1</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -4166,10 +4166,10 @@
         <v>10</v>
       </c>
       <c r="F87" s="7">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7">
         <v>0.2</v>
-      </c>
-      <c r="G87" s="7">
-        <v>1</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -4191,10 +4191,10 @@
         <v>10</v>
       </c>
       <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7">
         <v>0.2</v>
-      </c>
-      <c r="G88" s="7">
-        <v>1</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -4216,10 +4216,10 @@
         <v>10</v>
       </c>
       <c r="F89" s="7">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7">
         <v>0.2</v>
-      </c>
-      <c r="G89" s="7">
-        <v>1</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>timestamp</t>
   </si>
@@ -349,6 +349,12 @@
     <t>L_01211.NC</t>
   </si>
   <si>
+    <t>2024-07-08 09:22:43</t>
+  </si>
+  <si>
+    <t>L_01213.NC</t>
+  </si>
+  <si>
     <t>2024-07-02 15:57:47</t>
   </si>
   <si>
@@ -373,10 +379,22 @@
     <t>L_01441.NC</t>
   </si>
   <si>
+    <t>2024-07-08 15:13:20</t>
+  </si>
+  <si>
+    <t>L_01442.NC</t>
+  </si>
+  <si>
     <t>2024-07-04 15:23:43</t>
   </si>
   <si>
     <t>L_01443.NC</t>
+  </si>
+  <si>
+    <t>2024-07-08 10:43:44</t>
+  </si>
+  <si>
+    <t>L_01444.NC</t>
   </si>
   <si>
     <t>2024-07-05 10:17:09</t>
@@ -576,22 +594,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -763,9 +781,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -845,7 +863,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -873,10 +891,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1132,9 +1150,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
+              <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1422,7 +1440,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1450,10 +1468,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1704,19 +1722,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.4219" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -4082,19 +4097,19 @@
         <v>113</v>
       </c>
       <c r="C84" s="7">
-        <v>25.6</v>
+        <v>24.33</v>
       </c>
       <c r="D84" s="7">
-        <v>24.5</v>
+        <v>211.504</v>
       </c>
       <c r="E84" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F84" s="7">
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -4107,19 +4122,19 @@
         <v>115</v>
       </c>
       <c r="C85" s="7">
-        <v>88.03</v>
+        <v>25.6</v>
       </c>
       <c r="D85" s="7">
-        <v>30.4</v>
+        <v>24.5</v>
       </c>
       <c r="E85" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4132,10 +4147,10 @@
         <v>117</v>
       </c>
       <c r="C86" s="7">
-        <v>25.66</v>
+        <v>88.03</v>
       </c>
       <c r="D86" s="7">
-        <v>135.2</v>
+        <v>30.4</v>
       </c>
       <c r="E86" s="7">
         <v>10</v>
@@ -4144,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -4157,10 +4172,10 @@
         <v>119</v>
       </c>
       <c r="C87" s="7">
-        <v>20.96</v>
+        <v>25.66</v>
       </c>
       <c r="D87" s="7">
-        <v>118.6</v>
+        <v>135.2</v>
       </c>
       <c r="E87" s="7">
         <v>10</v>
@@ -4182,10 +4197,10 @@
         <v>121</v>
       </c>
       <c r="C88" s="7">
-        <v>25.58</v>
+        <v>20.96</v>
       </c>
       <c r="D88" s="7">
-        <v>135.1</v>
+        <v>118.6</v>
       </c>
       <c r="E88" s="7">
         <v>10</v>
@@ -4207,10 +4222,10 @@
         <v>123</v>
       </c>
       <c r="C89" s="7">
-        <v>25.52</v>
+        <v>24.99</v>
       </c>
       <c r="D89" s="7">
-        <v>137</v>
+        <v>135.112</v>
       </c>
       <c r="E89" s="7">
         <v>10</v>
@@ -4232,26 +4247,22 @@
         <v>125</v>
       </c>
       <c r="C90" s="7">
-        <v>167.31</v>
+        <v>25.58</v>
       </c>
       <c r="D90" s="7">
-        <v>485</v>
+        <v>135.1</v>
       </c>
       <c r="E90" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F90" s="7">
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H90" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I90" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
     </row>
     <row r="91" ht="13.55" customHeight="1">
       <c r="A91" t="s" s="6">
@@ -4261,26 +4272,22 @@
         <v>127</v>
       </c>
       <c r="C91" s="7">
-        <v>43.47</v>
+        <v>60.31</v>
       </c>
       <c r="D91" s="7">
-        <v>118.61</v>
+        <v>313.297</v>
       </c>
       <c r="E91" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F91" s="7">
         <v>1</v>
       </c>
       <c r="G91" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H91" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I91" s="7">
-        <v>0.18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
     </row>
     <row r="92" ht="13.55" customHeight="1">
       <c r="A92" t="s" s="6">
@@ -4290,26 +4297,22 @@
         <v>129</v>
       </c>
       <c r="C92" s="7">
-        <v>99.67</v>
+        <v>25.52</v>
       </c>
       <c r="D92" s="7">
-        <v>118.61</v>
+        <v>137</v>
       </c>
       <c r="E92" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F92" s="7">
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H92" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I92" s="7">
-        <v>1.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
     </row>
     <row r="93" ht="13.55" customHeight="1">
       <c r="A93" t="s" s="6">
@@ -4319,10 +4322,10 @@
         <v>131</v>
       </c>
       <c r="C93" s="7">
-        <v>34.58</v>
+        <v>167.31</v>
       </c>
       <c r="D93" s="7">
-        <v>104.31</v>
+        <v>485</v>
       </c>
       <c r="E93" s="7">
         <v>12</v>
@@ -4331,13 +4334,13 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>0.48</v>
+        <v>2.42</v>
       </c>
       <c r="H93" s="7">
-        <v>0.58</v>
+        <v>2.79</v>
       </c>
       <c r="I93" s="7">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="94" ht="13.55" customHeight="1">
@@ -4348,10 +4351,10 @@
         <v>133</v>
       </c>
       <c r="C94" s="7">
-        <v>45.49</v>
+        <v>43.47</v>
       </c>
       <c r="D94" s="7">
-        <v>110</v>
+        <v>118.61</v>
       </c>
       <c r="E94" s="7">
         <v>12</v>
@@ -4360,13 +4363,13 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="H94" s="7">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="I94" s="7">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="95" ht="13.55" customHeight="1">
@@ -4377,10 +4380,10 @@
         <v>135</v>
       </c>
       <c r="C95" s="7">
-        <v>194.66</v>
+        <v>99.67</v>
       </c>
       <c r="D95" s="7">
-        <v>561.2</v>
+        <v>118.61</v>
       </c>
       <c r="E95" s="7">
         <v>12</v>
@@ -4389,13 +4392,13 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>3</v>
+        <v>0.55</v>
       </c>
       <c r="H95" s="7">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="I95" s="7">
-        <v>0.25</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="96" ht="13.55" customHeight="1">
@@ -4406,10 +4409,10 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>321.56</v>
+        <v>34.58</v>
       </c>
       <c r="D96" s="7">
-        <v>850.95</v>
+        <v>104.31</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -4418,13 +4421,13 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>4.24</v>
+        <v>0.48</v>
       </c>
       <c r="H96" s="7">
-        <v>5.36</v>
+        <v>0.58</v>
       </c>
       <c r="I96" s="7">
-        <v>1.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="97" ht="13.55" customHeight="1">
@@ -4435,25 +4438,25 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>28.94</v>
+        <v>45.49</v>
       </c>
       <c r="D97" s="7">
-        <v>24.88</v>
+        <v>110</v>
       </c>
       <c r="E97" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F97" s="7">
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="H97" s="7">
-        <v>0.49</v>
+        <v>0.76</v>
       </c>
       <c r="I97" s="7">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="98" ht="13.55" customHeight="1">
@@ -4464,25 +4467,25 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>43.34</v>
+        <v>194.66</v>
       </c>
       <c r="D98" s="7">
-        <v>24.18</v>
+        <v>561.2</v>
       </c>
       <c r="E98" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F98" s="7">
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="H98" s="7">
-        <v>0.73</v>
+        <v>3.25</v>
       </c>
       <c r="I98" s="7">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="99" ht="13.55" customHeight="1">
@@ -4493,25 +4496,25 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>19.21</v>
+        <v>321.56</v>
       </c>
       <c r="D99" s="7">
-        <v>5</v>
+        <v>850.95</v>
       </c>
       <c r="E99" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F99" s="7">
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>0.3</v>
+        <v>4.24</v>
       </c>
       <c r="H99" s="7">
-        <v>0.33</v>
+        <v>5.36</v>
       </c>
       <c r="I99" s="7">
-        <v>0.03</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="100" ht="13.55" customHeight="1">
@@ -4522,25 +4525,25 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>195.6</v>
+        <v>28.94</v>
       </c>
       <c r="D100" s="7">
-        <v>17</v>
+        <v>24.88</v>
       </c>
       <c r="E100" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F100" s="7">
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="H100" s="7">
-        <v>3.27</v>
+        <v>0.49</v>
       </c>
       <c r="I100" s="7">
-        <v>3.16</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="101" ht="13.55" customHeight="1">
@@ -4551,25 +4554,25 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>31.58</v>
+        <v>43.34</v>
       </c>
       <c r="D101" s="7">
-        <v>145.52</v>
+        <v>24.18</v>
       </c>
       <c r="E101" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>6.83</v>
+        <v>0.15</v>
       </c>
       <c r="H101" s="7">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="I101" s="7">
-        <v>-6.3</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="102" ht="13.55" customHeight="1">
@@ -4580,24 +4583,111 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D102" s="7">
+        <v>5</v>
+      </c>
+      <c r="E102" s="7">
+        <v>32</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H102" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I102" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" ht="13.55" customHeight="1">
+      <c r="A103" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="B103" t="s" s="6">
+        <v>151</v>
+      </c>
+      <c r="C103" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D103" s="7">
+        <v>17</v>
+      </c>
+      <c r="E103" s="7">
+        <v>32</v>
+      </c>
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
+      <c r="G103" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H103" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I103" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="104" ht="13.55" customHeight="1">
+      <c r="A104" t="s" s="6">
+        <v>152</v>
+      </c>
+      <c r="B104" t="s" s="6">
+        <v>153</v>
+      </c>
+      <c r="C104" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D104" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E104" s="7">
+        <v>10</v>
+      </c>
+      <c r="F104" s="7">
+        <v>1</v>
+      </c>
+      <c r="G104" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H104" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I104" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="105" ht="13.55" customHeight="1">
+      <c r="A105" t="s" s="6">
+        <v>154</v>
+      </c>
+      <c r="B105" t="s" s="6">
+        <v>155</v>
+      </c>
+      <c r="C105" s="7">
         <v>34.53</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D105" s="7">
         <v>12.17</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E105" s="7">
         <v>25</v>
       </c>
-      <c r="F102" s="7">
-        <v>1</v>
-      </c>
-      <c r="G102" s="7">
+      <c r="F105" s="7">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7">
         <v>0.86</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H105" s="7">
         <v>0.58</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I105" s="7">
         <v>-0.28</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>timestamp</t>
   </si>
@@ -401,6 +401,24 @@
   </si>
   <si>
     <t>L_01445.NC</t>
+  </si>
+  <si>
+    <t>2024-07-09 07:58:56</t>
+  </si>
+  <si>
+    <t>L_01446.NC</t>
+  </si>
+  <si>
+    <t>2024-07-09 12:34:04</t>
+  </si>
+  <si>
+    <t>L_01485.NC</t>
+  </si>
+  <si>
+    <t>2024-07-09 15:51:52</t>
+  </si>
+  <si>
+    <t>L_01486.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -1722,17 +1740,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.4219" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1641" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5469" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5469" style="1" customWidth="1"/>
+    <col min="5" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4322,26 +4340,22 @@
         <v>131</v>
       </c>
       <c r="C93" s="7">
-        <v>167.31</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D93" s="7">
-        <v>485</v>
+        <v>474.621</v>
       </c>
       <c r="E93" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F93" s="7">
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H93" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I93" s="7">
-        <v>0.37</v>
-      </c>
+        <v>2.2</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" ht="13.55" customHeight="1">
       <c r="A94" t="s" s="6">
@@ -4351,26 +4365,22 @@
         <v>133</v>
       </c>
       <c r="C94" s="7">
-        <v>43.47</v>
+        <v>60.44</v>
       </c>
       <c r="D94" s="7">
-        <v>118.61</v>
+        <v>81.459</v>
       </c>
       <c r="E94" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F94" s="7">
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H94" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I94" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95" ht="13.55" customHeight="1">
       <c r="A95" t="s" s="6">
@@ -4380,26 +4390,22 @@
         <v>135</v>
       </c>
       <c r="C95" s="7">
-        <v>99.67</v>
+        <v>49.26</v>
       </c>
       <c r="D95" s="7">
-        <v>118.61</v>
+        <v>183.288</v>
       </c>
       <c r="E95" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F95" s="7">
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H95" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I95" s="7">
-        <v>1.12</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
     </row>
     <row r="96" ht="13.55" customHeight="1">
       <c r="A96" t="s" s="6">
@@ -4409,10 +4415,10 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>34.58</v>
+        <v>167.31</v>
       </c>
       <c r="D96" s="7">
-        <v>104.31</v>
+        <v>485</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -4421,13 +4427,13 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>0.48</v>
+        <v>2.42</v>
       </c>
       <c r="H96" s="7">
-        <v>0.58</v>
+        <v>2.79</v>
       </c>
       <c r="I96" s="7">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="97" ht="13.55" customHeight="1">
@@ -4438,10 +4444,10 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>45.49</v>
+        <v>43.47</v>
       </c>
       <c r="D97" s="7">
-        <v>110</v>
+        <v>118.61</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -4450,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="H97" s="7">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="I97" s="7">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="98" ht="13.55" customHeight="1">
@@ -4467,10 +4473,10 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>194.66</v>
+        <v>99.67</v>
       </c>
       <c r="D98" s="7">
-        <v>561.2</v>
+        <v>118.61</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -4479,13 +4485,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>3</v>
+        <v>0.55</v>
       </c>
       <c r="H98" s="7">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="I98" s="7">
-        <v>0.25</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="99" ht="13.55" customHeight="1">
@@ -4496,10 +4502,10 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>321.56</v>
+        <v>34.58</v>
       </c>
       <c r="D99" s="7">
-        <v>850.95</v>
+        <v>104.31</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -4508,13 +4514,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>4.24</v>
+        <v>0.48</v>
       </c>
       <c r="H99" s="7">
-        <v>5.36</v>
+        <v>0.58</v>
       </c>
       <c r="I99" s="7">
-        <v>1.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="100" ht="13.55" customHeight="1">
@@ -4525,25 +4531,25 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>28.94</v>
+        <v>45.49</v>
       </c>
       <c r="D100" s="7">
-        <v>24.88</v>
+        <v>110</v>
       </c>
       <c r="E100" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F100" s="7">
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="H100" s="7">
-        <v>0.49</v>
+        <v>0.76</v>
       </c>
       <c r="I100" s="7">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="101" ht="13.55" customHeight="1">
@@ -4554,25 +4560,25 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>43.34</v>
+        <v>194.66</v>
       </c>
       <c r="D101" s="7">
-        <v>24.18</v>
+        <v>561.2</v>
       </c>
       <c r="E101" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>0.15</v>
+        <v>3</v>
       </c>
       <c r="H101" s="7">
-        <v>0.73</v>
+        <v>3.25</v>
       </c>
       <c r="I101" s="7">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102" ht="13.55" customHeight="1">
@@ -4583,25 +4589,25 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
-        <v>19.21</v>
+        <v>321.56</v>
       </c>
       <c r="D102" s="7">
-        <v>5</v>
+        <v>850.95</v>
       </c>
       <c r="E102" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F102" s="7">
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>0.3</v>
+        <v>4.24</v>
       </c>
       <c r="H102" s="7">
-        <v>0.33</v>
+        <v>5.36</v>
       </c>
       <c r="I102" s="7">
-        <v>0.03</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="103" ht="13.55" customHeight="1">
@@ -4612,25 +4618,25 @@
         <v>151</v>
       </c>
       <c r="C103" s="7">
-        <v>195.6</v>
+        <v>28.94</v>
       </c>
       <c r="D103" s="7">
-        <v>17</v>
+        <v>24.88</v>
       </c>
       <c r="E103" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F103" s="7">
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="H103" s="7">
-        <v>3.27</v>
+        <v>0.49</v>
       </c>
       <c r="I103" s="7">
-        <v>3.16</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="104" ht="13.55" customHeight="1">
@@ -4641,25 +4647,25 @@
         <v>153</v>
       </c>
       <c r="C104" s="7">
-        <v>31.58</v>
+        <v>43.34</v>
       </c>
       <c r="D104" s="7">
-        <v>145.52</v>
+        <v>24.18</v>
       </c>
       <c r="E104" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F104" s="7">
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>6.83</v>
+        <v>0.15</v>
       </c>
       <c r="H104" s="7">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="I104" s="7">
-        <v>-6.3</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="105" ht="13.55" customHeight="1">
@@ -4670,24 +4676,111 @@
         <v>155</v>
       </c>
       <c r="C105" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D105" s="7">
+        <v>5</v>
+      </c>
+      <c r="E105" s="7">
+        <v>32</v>
+      </c>
+      <c r="F105" s="7">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I105" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106" ht="13.55" customHeight="1">
+      <c r="A106" t="s" s="6">
+        <v>156</v>
+      </c>
+      <c r="B106" t="s" s="6">
+        <v>157</v>
+      </c>
+      <c r="C106" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D106" s="7">
+        <v>17</v>
+      </c>
+      <c r="E106" s="7">
+        <v>32</v>
+      </c>
+      <c r="F106" s="7">
+        <v>1</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H106" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I106" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="107" ht="13.55" customHeight="1">
+      <c r="A107" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="B107" t="s" s="6">
+        <v>159</v>
+      </c>
+      <c r="C107" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D107" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E107" s="7">
+        <v>10</v>
+      </c>
+      <c r="F107" s="7">
+        <v>1</v>
+      </c>
+      <c r="G107" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H107" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I107" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="108" ht="13.55" customHeight="1">
+      <c r="A108" t="s" s="6">
+        <v>160</v>
+      </c>
+      <c r="B108" t="s" s="6">
+        <v>161</v>
+      </c>
+      <c r="C108" s="7">
         <v>34.53</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D108" s="7">
         <v>12.17</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E108" s="7">
         <v>25</v>
       </c>
-      <c r="F105" s="7">
-        <v>1</v>
-      </c>
-      <c r="G105" s="7">
+      <c r="F108" s="7">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7">
         <v>0.86</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H108" s="7">
         <v>0.58</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I108" s="7">
         <v>-0.28</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>timestamp</t>
   </si>
@@ -419,6 +419,54 @@
   </si>
   <si>
     <t>L_01486.NC</t>
+  </si>
+  <si>
+    <t>2024-07-10 10:53:08</t>
+  </si>
+  <si>
+    <t>L_01557.NC</t>
+  </si>
+  <si>
+    <t>2024-07-10 11:16:03</t>
+  </si>
+  <si>
+    <t>L_01559.NC</t>
+  </si>
+  <si>
+    <t>2024-07-10 11:47:43</t>
+  </si>
+  <si>
+    <t>L_01560.NC</t>
+  </si>
+  <si>
+    <t>2024-07-10 14:16:01</t>
+  </si>
+  <si>
+    <t>L_01561.NC</t>
+  </si>
+  <si>
+    <t>2024-07-10 14:42:53</t>
+  </si>
+  <si>
+    <t>L_01565.NC</t>
+  </si>
+  <si>
+    <t>2024-07-10 17:08:17</t>
+  </si>
+  <si>
+    <t>L_01567.NC</t>
+  </si>
+  <si>
+    <t>2024-07-10 16:36:42</t>
+  </si>
+  <si>
+    <t>L_01569.NC</t>
+  </si>
+  <si>
+    <t>2024-07-10 16:19:38</t>
+  </si>
+  <si>
+    <t>L_01570.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -1740,17 +1788,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1641" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5469" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5469" style="1" customWidth="1"/>
-    <col min="5" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1016" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8672" style="1" customWidth="1"/>
+    <col min="4" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4415,10 +4462,10 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>167.31</v>
+        <v>10.35</v>
       </c>
       <c r="D96" s="7">
-        <v>485</v>
+        <v>35.091</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -4427,14 +4474,10 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H96" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I96" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
     </row>
     <row r="97" ht="13.55" customHeight="1">
       <c r="A97" t="s" s="6">
@@ -4444,10 +4487,10 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>43.47</v>
+        <v>18.06</v>
       </c>
       <c r="D97" s="7">
-        <v>118.61</v>
+        <v>56.867</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -4456,14 +4499,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H97" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I97" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
     </row>
     <row r="98" ht="13.55" customHeight="1">
       <c r="A98" t="s" s="6">
@@ -4473,10 +4512,10 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>99.67</v>
+        <v>10.45</v>
       </c>
       <c r="D98" s="7">
-        <v>118.61</v>
+        <v>35.097</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -4485,14 +4524,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H98" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I98" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
     </row>
     <row r="99" ht="13.55" customHeight="1">
       <c r="A99" t="s" s="6">
@@ -4502,10 +4537,10 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>34.58</v>
+        <v>20.83</v>
       </c>
       <c r="D99" s="7">
-        <v>104.31</v>
+        <v>68.786</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -4514,14 +4549,10 @@
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I99" s="7">
-        <v>0.1</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
     </row>
     <row r="100" ht="13.55" customHeight="1">
       <c r="A100" t="s" s="6">
@@ -4531,10 +4562,10 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>45.49</v>
+        <v>17.9</v>
       </c>
       <c r="D100" s="7">
-        <v>110</v>
+        <v>60.542</v>
       </c>
       <c r="E100" s="7">
         <v>12</v>
@@ -4545,12 +4576,8 @@
       <c r="G100" s="7">
         <v>0.5</v>
       </c>
-      <c r="H100" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I100" s="7">
-        <v>0.26</v>
-      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
     </row>
     <row r="101" ht="13.55" customHeight="1">
       <c r="A101" t="s" s="6">
@@ -4560,10 +4587,10 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>194.66</v>
+        <v>21.3</v>
       </c>
       <c r="D101" s="7">
-        <v>561.2</v>
+        <v>73.223</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -4572,14 +4599,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>3</v>
-      </c>
-      <c r="H101" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I101" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
     </row>
     <row r="102" ht="13.55" customHeight="1">
       <c r="A102" t="s" s="6">
@@ -4589,10 +4612,10 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
-        <v>321.56</v>
+        <v>8.65</v>
       </c>
       <c r="D102" s="7">
-        <v>850.95</v>
+        <v>28.483</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -4601,14 +4624,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H102" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I102" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
     </row>
     <row r="103" ht="13.55" customHeight="1">
       <c r="A103" t="s" s="6">
@@ -4618,26 +4637,22 @@
         <v>151</v>
       </c>
       <c r="C103" s="7">
-        <v>28.94</v>
+        <v>10.25</v>
       </c>
       <c r="D103" s="7">
-        <v>24.88</v>
+        <v>36.532</v>
       </c>
       <c r="E103" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F103" s="7">
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H103" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I103" s="7">
-        <v>0.35</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
     </row>
     <row r="104" ht="13.55" customHeight="1">
       <c r="A104" t="s" s="6">
@@ -4647,25 +4662,25 @@
         <v>153</v>
       </c>
       <c r="C104" s="7">
-        <v>43.34</v>
+        <v>167.31</v>
       </c>
       <c r="D104" s="7">
-        <v>24.18</v>
+        <v>485</v>
       </c>
       <c r="E104" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F104" s="7">
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.15</v>
+        <v>2.42</v>
       </c>
       <c r="H104" s="7">
-        <v>0.73</v>
+        <v>2.79</v>
       </c>
       <c r="I104" s="7">
-        <v>0.58</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="105" ht="13.55" customHeight="1">
@@ -4676,25 +4691,25 @@
         <v>155</v>
       </c>
       <c r="C105" s="7">
-        <v>19.21</v>
+        <v>43.47</v>
       </c>
       <c r="D105" s="7">
-        <v>5</v>
+        <v>118.61</v>
       </c>
       <c r="E105" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F105" s="7">
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="H105" s="7">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="I105" s="7">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="106" ht="13.55" customHeight="1">
@@ -4705,25 +4720,25 @@
         <v>157</v>
       </c>
       <c r="C106" s="7">
-        <v>195.6</v>
+        <v>99.67</v>
       </c>
       <c r="D106" s="7">
-        <v>17</v>
+        <v>118.61</v>
       </c>
       <c r="E106" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F106" s="7">
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.11</v>
+        <v>0.55</v>
       </c>
       <c r="H106" s="7">
-        <v>3.27</v>
+        <v>1.67</v>
       </c>
       <c r="I106" s="7">
-        <v>3.16</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="107" ht="13.55" customHeight="1">
@@ -4734,25 +4749,25 @@
         <v>159</v>
       </c>
       <c r="C107" s="7">
-        <v>31.58</v>
+        <v>34.58</v>
       </c>
       <c r="D107" s="7">
-        <v>145.52</v>
+        <v>104.31</v>
       </c>
       <c r="E107" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F107" s="7">
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>6.83</v>
+        <v>0.48</v>
       </c>
       <c r="H107" s="7">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="I107" s="7">
-        <v>-6.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="108" ht="13.55" customHeight="1">
@@ -4763,24 +4778,256 @@
         <v>161</v>
       </c>
       <c r="C108" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D108" s="7">
+        <v>110</v>
+      </c>
+      <c r="E108" s="7">
+        <v>12</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="109" ht="13.55" customHeight="1">
+      <c r="A109" t="s" s="6">
+        <v>162</v>
+      </c>
+      <c r="B109" t="s" s="6">
+        <v>163</v>
+      </c>
+      <c r="C109" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D109" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E109" s="7">
+        <v>12</v>
+      </c>
+      <c r="F109" s="7">
+        <v>1</v>
+      </c>
+      <c r="G109" s="7">
+        <v>3</v>
+      </c>
+      <c r="H109" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I109" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="110" ht="13.55" customHeight="1">
+      <c r="A110" t="s" s="6">
+        <v>164</v>
+      </c>
+      <c r="B110" t="s" s="6">
+        <v>165</v>
+      </c>
+      <c r="C110" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D110" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E110" s="7">
+        <v>12</v>
+      </c>
+      <c r="F110" s="7">
+        <v>1</v>
+      </c>
+      <c r="G110" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H110" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I110" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="111" ht="13.55" customHeight="1">
+      <c r="A111" t="s" s="6">
+        <v>166</v>
+      </c>
+      <c r="B111" t="s" s="6">
+        <v>167</v>
+      </c>
+      <c r="C111" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D111" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E111" s="7">
+        <v>20</v>
+      </c>
+      <c r="F111" s="7">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H111" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="112" ht="13.55" customHeight="1">
+      <c r="A112" t="s" s="6">
+        <v>168</v>
+      </c>
+      <c r="B112" t="s" s="6">
+        <v>169</v>
+      </c>
+      <c r="C112" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D112" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E112" s="7">
+        <v>25</v>
+      </c>
+      <c r="F112" s="7">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H112" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I112" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="113" ht="13.55" customHeight="1">
+      <c r="A113" t="s" s="6">
+        <v>170</v>
+      </c>
+      <c r="B113" t="s" s="6">
+        <v>171</v>
+      </c>
+      <c r="C113" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D113" s="7">
+        <v>5</v>
+      </c>
+      <c r="E113" s="7">
+        <v>32</v>
+      </c>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" ht="13.55" customHeight="1">
+      <c r="A114" t="s" s="6">
+        <v>172</v>
+      </c>
+      <c r="B114" t="s" s="6">
+        <v>173</v>
+      </c>
+      <c r="C114" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D114" s="7">
+        <v>17</v>
+      </c>
+      <c r="E114" s="7">
+        <v>32</v>
+      </c>
+      <c r="F114" s="7">
+        <v>1</v>
+      </c>
+      <c r="G114" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H114" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I114" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="115" ht="13.55" customHeight="1">
+      <c r="A115" t="s" s="6">
+        <v>174</v>
+      </c>
+      <c r="B115" t="s" s="6">
+        <v>175</v>
+      </c>
+      <c r="C115" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D115" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E115" s="7">
+        <v>10</v>
+      </c>
+      <c r="F115" s="7">
+        <v>1</v>
+      </c>
+      <c r="G115" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I115" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="116" ht="13.55" customHeight="1">
+      <c r="A116" t="s" s="6">
+        <v>176</v>
+      </c>
+      <c r="B116" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="C116" s="7">
         <v>34.53</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D116" s="7">
         <v>12.17</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E116" s="7">
         <v>25</v>
       </c>
-      <c r="F108" s="7">
-        <v>1</v>
-      </c>
-      <c r="G108" s="7">
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7">
         <v>0.86</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H116" s="7">
         <v>0.58</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I116" s="7">
         <v>-0.28</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>timestamp</t>
   </si>
@@ -409,6 +409,12 @@
     <t>L_01446.NC</t>
   </si>
   <si>
+    <t>2024-07-11 14:41:17</t>
+  </si>
+  <si>
+    <t>L_01447.NC</t>
+  </si>
+  <si>
     <t>2024-07-09 12:34:04</t>
   </si>
   <si>
@@ -421,12 +427,24 @@
     <t>L_01486.NC</t>
   </si>
   <si>
+    <t>2024-07-11 12:36:48</t>
+  </si>
+  <si>
+    <t>L_01556.NC</t>
+  </si>
+  <si>
     <t>2024-07-10 10:53:08</t>
   </si>
   <si>
     <t>L_01557.NC</t>
   </si>
   <si>
+    <t>2024-07-11 10:20:08</t>
+  </si>
+  <si>
+    <t>L_01558.NC</t>
+  </si>
+  <si>
     <t>2024-07-10 11:16:03</t>
   </si>
   <si>
@@ -445,6 +463,24 @@
     <t>L_01561.NC</t>
   </si>
   <si>
+    <t>2024-07-11 10:48:30</t>
+  </si>
+  <si>
+    <t>L_01562.NC</t>
+  </si>
+  <si>
+    <t>2024-07-11 11:05:38</t>
+  </si>
+  <si>
+    <t>L_01563.NC</t>
+  </si>
+  <si>
+    <t>2024-07-11 12:23:24</t>
+  </si>
+  <si>
+    <t>L_01564.NC</t>
+  </si>
+  <si>
     <t>2024-07-10 14:42:53</t>
   </si>
   <si>
@@ -467,6 +503,42 @@
   </si>
   <si>
     <t>L_01570.NC</t>
+  </si>
+  <si>
+    <t>2024-07-11 16:12:15</t>
+  </si>
+  <si>
+    <t>L_01572.NC</t>
+  </si>
+  <si>
+    <t>2024-07-11 16:30:40</t>
+  </si>
+  <si>
+    <t>L_01574.NC</t>
+  </si>
+  <si>
+    <t>2024-07-11 16:44:16</t>
+  </si>
+  <si>
+    <t>L_01575.NC</t>
+  </si>
+  <si>
+    <t>2024-07-11 17:00:57</t>
+  </si>
+  <si>
+    <t>L_01576.NC</t>
+  </si>
+  <si>
+    <t>2024-07-11 17:11:36</t>
+  </si>
+  <si>
+    <t>L_01577.NC</t>
+  </si>
+  <si>
+    <t>2024-07-11 15:22:58</t>
+  </si>
+  <si>
+    <t>L_01579.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -1788,16 +1860,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1016" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.8672" style="1" customWidth="1"/>
-    <col min="4" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5547" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4412,10 +4483,10 @@
         <v>133</v>
       </c>
       <c r="C94" s="7">
-        <v>60.44</v>
+        <v>14.13</v>
       </c>
       <c r="D94" s="7">
-        <v>81.459</v>
+        <v>34</v>
       </c>
       <c r="E94" s="7">
         <v>10</v>
@@ -4437,10 +4508,10 @@
         <v>135</v>
       </c>
       <c r="C95" s="7">
-        <v>49.26</v>
+        <v>60.44</v>
       </c>
       <c r="D95" s="7">
-        <v>183.288</v>
+        <v>81.459</v>
       </c>
       <c r="E95" s="7">
         <v>10</v>
@@ -4449,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -4462,19 +4533,19 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>10.35</v>
+        <v>49.26</v>
       </c>
       <c r="D96" s="7">
-        <v>35.091</v>
+        <v>183.288</v>
       </c>
       <c r="E96" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F96" s="7">
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -4487,10 +4558,10 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>18.06</v>
+        <v>20.38</v>
       </c>
       <c r="D97" s="7">
-        <v>56.867</v>
+        <v>74.434</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -4499,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -4512,10 +4583,10 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>10.45</v>
+        <v>10.35</v>
       </c>
       <c r="D98" s="7">
-        <v>35.097</v>
+        <v>35.091</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -4537,10 +4608,10 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>20.83</v>
+        <v>17.77</v>
       </c>
       <c r="D99" s="7">
-        <v>68.786</v>
+        <v>65.682</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -4549,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -4562,10 +4633,10 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>17.9</v>
+        <v>18.06</v>
       </c>
       <c r="D100" s="7">
-        <v>60.542</v>
+        <v>56.867</v>
       </c>
       <c r="E100" s="7">
         <v>12</v>
@@ -4574,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -4587,10 +4658,10 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>21.3</v>
+        <v>10.45</v>
       </c>
       <c r="D101" s="7">
-        <v>73.223</v>
+        <v>35.097</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -4599,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -4612,10 +4683,10 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
-        <v>8.65</v>
+        <v>20.83</v>
       </c>
       <c r="D102" s="7">
-        <v>28.483</v>
+        <v>68.786</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -4624,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -4637,10 +4708,10 @@
         <v>151</v>
       </c>
       <c r="C103" s="7">
-        <v>10.25</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D103" s="7">
-        <v>36.532</v>
+        <v>33</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -4662,10 +4733,10 @@
         <v>153</v>
       </c>
       <c r="C104" s="7">
-        <v>167.31</v>
+        <v>9.24</v>
       </c>
       <c r="D104" s="7">
-        <v>485</v>
+        <v>33.19</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -4674,14 +4745,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H104" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I104" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
     </row>
     <row r="105" ht="13.55" customHeight="1">
       <c r="A105" t="s" s="6">
@@ -4691,10 +4758,10 @@
         <v>155</v>
       </c>
       <c r="C105" s="7">
-        <v>43.47</v>
+        <v>9.18</v>
       </c>
       <c r="D105" s="7">
-        <v>118.61</v>
+        <v>33.19</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -4703,14 +4770,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H105" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I105" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
     </row>
     <row r="106" ht="13.55" customHeight="1">
       <c r="A106" t="s" s="6">
@@ -4720,10 +4783,10 @@
         <v>157</v>
       </c>
       <c r="C106" s="7">
-        <v>99.67</v>
+        <v>17.9</v>
       </c>
       <c r="D106" s="7">
-        <v>118.61</v>
+        <v>60.542</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -4732,14 +4795,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H106" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I106" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
     </row>
     <row r="107" ht="13.55" customHeight="1">
       <c r="A107" t="s" s="6">
@@ -4749,10 +4808,10 @@
         <v>159</v>
       </c>
       <c r="C107" s="7">
-        <v>34.58</v>
+        <v>21.3</v>
       </c>
       <c r="D107" s="7">
-        <v>104.31</v>
+        <v>73.223</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -4761,14 +4820,10 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H107" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I107" s="7">
-        <v>0.1</v>
-      </c>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
     </row>
     <row r="108" ht="13.55" customHeight="1">
       <c r="A108" t="s" s="6">
@@ -4778,10 +4833,10 @@
         <v>161</v>
       </c>
       <c r="C108" s="7">
-        <v>45.49</v>
+        <v>8.65</v>
       </c>
       <c r="D108" s="7">
-        <v>110</v>
+        <v>28.483</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -4790,14 +4845,10 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H108" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I108" s="7">
-        <v>0.26</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
     </row>
     <row r="109" ht="13.55" customHeight="1">
       <c r="A109" t="s" s="6">
@@ -4807,10 +4858,10 @@
         <v>163</v>
       </c>
       <c r="C109" s="7">
-        <v>194.66</v>
+        <v>10.25</v>
       </c>
       <c r="D109" s="7">
-        <v>561.2</v>
+        <v>36.532</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -4819,14 +4870,10 @@
         <v>1</v>
       </c>
       <c r="G109" s="7">
-        <v>3</v>
-      </c>
-      <c r="H109" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I109" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
     </row>
     <row r="110" ht="13.55" customHeight="1">
       <c r="A110" t="s" s="6">
@@ -4836,10 +4883,10 @@
         <v>165</v>
       </c>
       <c r="C110" s="7">
-        <v>321.56</v>
+        <v>12.29</v>
       </c>
       <c r="D110" s="7">
-        <v>850.95</v>
+        <v>38.502</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -4848,14 +4895,10 @@
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H110" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I110" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" ht="13.55" customHeight="1">
       <c r="A111" t="s" s="6">
@@ -4865,26 +4908,22 @@
         <v>167</v>
       </c>
       <c r="C111" s="7">
-        <v>28.94</v>
+        <v>3.32</v>
       </c>
       <c r="D111" s="7">
-        <v>24.88</v>
+        <v>11.6</v>
       </c>
       <c r="E111" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
       </c>
       <c r="G111" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H111" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I111" s="7">
-        <v>0.35</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" ht="13.55" customHeight="1">
       <c r="A112" t="s" s="6">
@@ -4894,26 +4933,22 @@
         <v>169</v>
       </c>
       <c r="C112" s="7">
-        <v>43.34</v>
+        <v>9.5</v>
       </c>
       <c r="D112" s="7">
-        <v>24.18</v>
+        <v>33.457</v>
       </c>
       <c r="E112" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
       </c>
       <c r="G112" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H112" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I112" s="7">
-        <v>0.58</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
     </row>
     <row r="113" ht="13.55" customHeight="1">
       <c r="A113" t="s" s="6">
@@ -4923,26 +4958,22 @@
         <v>171</v>
       </c>
       <c r="C113" s="7">
-        <v>19.21</v>
+        <v>5.32</v>
       </c>
       <c r="D113" s="7">
-        <v>5</v>
+        <v>19.7</v>
       </c>
       <c r="E113" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
       </c>
       <c r="G113" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H113" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I113" s="7">
-        <v>0.03</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114" ht="13.55" customHeight="1">
       <c r="A114" t="s" s="6">
@@ -4952,26 +4983,22 @@
         <v>173</v>
       </c>
       <c r="C114" s="7">
-        <v>195.6</v>
+        <v>10.58</v>
       </c>
       <c r="D114" s="7">
-        <v>17</v>
+        <v>37.2</v>
       </c>
       <c r="E114" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
       </c>
       <c r="G114" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H114" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I114" s="7">
-        <v>3.16</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
     </row>
     <row r="115" ht="13.55" customHeight="1">
       <c r="A115" t="s" s="6">
@@ -4981,26 +5008,22 @@
         <v>175</v>
       </c>
       <c r="C115" s="7">
-        <v>31.58</v>
+        <v>12.29</v>
       </c>
       <c r="D115" s="7">
-        <v>145.52</v>
+        <v>56.8</v>
       </c>
       <c r="E115" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F115" s="7">
         <v>1</v>
       </c>
       <c r="G115" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H115" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I115" s="7">
-        <v>-6.3</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
     </row>
     <row r="116" ht="13.55" customHeight="1">
       <c r="A116" t="s" s="6">
@@ -5010,24 +5033,372 @@
         <v>177</v>
       </c>
       <c r="C116" s="7">
+        <v>167.31</v>
+      </c>
+      <c r="D116" s="7">
+        <v>485</v>
+      </c>
+      <c r="E116" s="7">
+        <v>12</v>
+      </c>
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="H116" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="117" ht="13.55" customHeight="1">
+      <c r="A117" t="s" s="6">
+        <v>178</v>
+      </c>
+      <c r="B117" t="s" s="6">
+        <v>179</v>
+      </c>
+      <c r="C117" s="7">
+        <v>43.47</v>
+      </c>
+      <c r="D117" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E117" s="7">
+        <v>12</v>
+      </c>
+      <c r="F117" s="7">
+        <v>1</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H117" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="118" ht="13.55" customHeight="1">
+      <c r="A118" t="s" s="6">
+        <v>180</v>
+      </c>
+      <c r="B118" t="s" s="6">
+        <v>181</v>
+      </c>
+      <c r="C118" s="7">
+        <v>99.67</v>
+      </c>
+      <c r="D118" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E118" s="7">
+        <v>12</v>
+      </c>
+      <c r="F118" s="7">
+        <v>1</v>
+      </c>
+      <c r="G118" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H118" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I118" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="119" ht="13.55" customHeight="1">
+      <c r="A119" t="s" s="6">
+        <v>182</v>
+      </c>
+      <c r="B119" t="s" s="6">
+        <v>183</v>
+      </c>
+      <c r="C119" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D119" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E119" s="7">
+        <v>12</v>
+      </c>
+      <c r="F119" s="7">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H119" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I119" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="120" ht="13.55" customHeight="1">
+      <c r="A120" t="s" s="6">
+        <v>184</v>
+      </c>
+      <c r="B120" t="s" s="6">
+        <v>185</v>
+      </c>
+      <c r="C120" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D120" s="7">
+        <v>110</v>
+      </c>
+      <c r="E120" s="7">
+        <v>12</v>
+      </c>
+      <c r="F120" s="7">
+        <v>1</v>
+      </c>
+      <c r="G120" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H120" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I120" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="121" ht="13.55" customHeight="1">
+      <c r="A121" t="s" s="6">
+        <v>186</v>
+      </c>
+      <c r="B121" t="s" s="6">
+        <v>187</v>
+      </c>
+      <c r="C121" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D121" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E121" s="7">
+        <v>12</v>
+      </c>
+      <c r="F121" s="7">
+        <v>1</v>
+      </c>
+      <c r="G121" s="7">
+        <v>3</v>
+      </c>
+      <c r="H121" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I121" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" ht="13.55" customHeight="1">
+      <c r="A122" t="s" s="6">
+        <v>188</v>
+      </c>
+      <c r="B122" t="s" s="6">
+        <v>189</v>
+      </c>
+      <c r="C122" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D122" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E122" s="7">
+        <v>12</v>
+      </c>
+      <c r="F122" s="7">
+        <v>1</v>
+      </c>
+      <c r="G122" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H122" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I122" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="123" ht="13.55" customHeight="1">
+      <c r="A123" t="s" s="6">
+        <v>190</v>
+      </c>
+      <c r="B123" t="s" s="6">
+        <v>191</v>
+      </c>
+      <c r="C123" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D123" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E123" s="7">
+        <v>20</v>
+      </c>
+      <c r="F123" s="7">
+        <v>1</v>
+      </c>
+      <c r="G123" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H123" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I123" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="124" ht="13.55" customHeight="1">
+      <c r="A124" t="s" s="6">
+        <v>192</v>
+      </c>
+      <c r="B124" t="s" s="6">
+        <v>193</v>
+      </c>
+      <c r="C124" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D124" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E124" s="7">
+        <v>25</v>
+      </c>
+      <c r="F124" s="7">
+        <v>1</v>
+      </c>
+      <c r="G124" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H124" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I124" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="125" ht="13.55" customHeight="1">
+      <c r="A125" t="s" s="6">
+        <v>194</v>
+      </c>
+      <c r="B125" t="s" s="6">
+        <v>195</v>
+      </c>
+      <c r="C125" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D125" s="7">
+        <v>5</v>
+      </c>
+      <c r="E125" s="7">
+        <v>32</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1</v>
+      </c>
+      <c r="G125" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H125" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I125" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="126" ht="13.55" customHeight="1">
+      <c r="A126" t="s" s="6">
+        <v>196</v>
+      </c>
+      <c r="B126" t="s" s="6">
+        <v>197</v>
+      </c>
+      <c r="C126" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D126" s="7">
+        <v>17</v>
+      </c>
+      <c r="E126" s="7">
+        <v>32</v>
+      </c>
+      <c r="F126" s="7">
+        <v>1</v>
+      </c>
+      <c r="G126" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H126" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I126" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="127" ht="13.55" customHeight="1">
+      <c r="A127" t="s" s="6">
+        <v>198</v>
+      </c>
+      <c r="B127" t="s" s="6">
+        <v>199</v>
+      </c>
+      <c r="C127" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D127" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E127" s="7">
+        <v>10</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1</v>
+      </c>
+      <c r="G127" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H127" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I127" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="128" ht="13.55" customHeight="1">
+      <c r="A128" t="s" s="6">
+        <v>200</v>
+      </c>
+      <c r="B128" t="s" s="6">
+        <v>201</v>
+      </c>
+      <c r="C128" s="7">
         <v>34.53</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D128" s="7">
         <v>12.17</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E128" s="7">
         <v>25</v>
       </c>
-      <c r="F116" s="7">
-        <v>1</v>
-      </c>
-      <c r="G116" s="7">
+      <c r="F128" s="7">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7">
         <v>0.86</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H128" s="7">
         <v>0.58</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I128" s="7">
         <v>-0.28</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>timestamp</t>
   </si>
@@ -415,6 +415,12 @@
     <t>L_01447.NC</t>
   </si>
   <si>
+    <t>2024-07-17 10:15:33</t>
+  </si>
+  <si>
+    <t>L_01453.NC</t>
+  </si>
+  <si>
     <t>2024-07-09 12:34:04</t>
   </si>
   <si>
@@ -427,6 +433,24 @@
     <t>L_01486.NC</t>
   </si>
   <si>
+    <t>2024-07-12 11:43:13</t>
+  </si>
+  <si>
+    <t>L_01497.NC</t>
+  </si>
+  <si>
+    <t>2024-07-12 11:47:53</t>
+  </si>
+  <si>
+    <t>L_01499.NC</t>
+  </si>
+  <si>
+    <t>2024-07-17 08:07:07</t>
+  </si>
+  <si>
+    <t>L_01524.NC</t>
+  </si>
+  <si>
     <t>2024-07-11 12:36:48</t>
   </si>
   <si>
@@ -487,6 +511,12 @@
     <t>L_01565.NC</t>
   </si>
   <si>
+    <t>2024-07-12 10:28:06</t>
+  </si>
+  <si>
+    <t>L_01566.NC</t>
+  </si>
+  <si>
     <t>2024-07-10 17:08:17</t>
   </si>
   <si>
@@ -511,6 +541,12 @@
     <t>L_01572.NC</t>
   </si>
   <si>
+    <t>2024-07-12 10:00:48</t>
+  </si>
+  <si>
+    <t>L_01573.NC</t>
+  </si>
+  <si>
     <t>2024-07-11 16:30:40</t>
   </si>
   <si>
@@ -539,6 +575,30 @@
   </si>
   <si>
     <t>L_01579.NC</t>
+  </si>
+  <si>
+    <t>2024-07-17 17:39:01</t>
+  </si>
+  <si>
+    <t>L_01731.NC</t>
+  </si>
+  <si>
+    <t>2024-07-17 08:38:26</t>
+  </si>
+  <si>
+    <t>L_01732.NC</t>
+  </si>
+  <si>
+    <t>2024-07-17 18:28:55</t>
+  </si>
+  <si>
+    <t>L_01734.NC</t>
+  </si>
+  <si>
+    <t>2024-07-18 08:26:50</t>
+  </si>
+  <si>
+    <t>L_01737.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -1860,14 +1920,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5547" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4922" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.2734" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -4508,10 +4568,10 @@
         <v>135</v>
       </c>
       <c r="C95" s="7">
-        <v>60.44</v>
+        <v>9.57</v>
       </c>
       <c r="D95" s="7">
-        <v>81.459</v>
+        <v>25</v>
       </c>
       <c r="E95" s="7">
         <v>10</v>
@@ -4533,10 +4593,10 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>49.26</v>
+        <v>60.44</v>
       </c>
       <c r="D96" s="7">
-        <v>183.288</v>
+        <v>81.459</v>
       </c>
       <c r="E96" s="7">
         <v>10</v>
@@ -4545,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -4558,19 +4618,19 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>20.38</v>
+        <v>49.26</v>
       </c>
       <c r="D97" s="7">
-        <v>74.434</v>
+        <v>183.288</v>
       </c>
       <c r="E97" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97" s="7">
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -4583,19 +4643,19 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>10.35</v>
+        <v>0.29</v>
       </c>
       <c r="D98" s="7">
-        <v>35.091</v>
+        <v>1.5</v>
       </c>
       <c r="E98" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F98" s="7">
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -4608,19 +4668,19 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>17.77</v>
+        <v>37.15</v>
       </c>
       <c r="D99" s="7">
-        <v>65.682</v>
+        <v>7.5</v>
       </c>
       <c r="E99" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F99" s="7">
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -4633,10 +4693,10 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>18.06</v>
+        <v>12.76</v>
       </c>
       <c r="D100" s="7">
-        <v>56.867</v>
+        <v>24.919</v>
       </c>
       <c r="E100" s="7">
         <v>12</v>
@@ -4645,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -4658,10 +4718,10 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>10.45</v>
+        <v>20.38</v>
       </c>
       <c r="D101" s="7">
-        <v>35.097</v>
+        <v>74.434</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -4683,10 +4743,10 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
-        <v>20.83</v>
+        <v>10.35</v>
       </c>
       <c r="D102" s="7">
-        <v>68.786</v>
+        <v>35.091</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -4695,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -4708,10 +4768,10 @@
         <v>151</v>
       </c>
       <c r="C103" s="7">
-        <v>9.119999999999999</v>
+        <v>17.77</v>
       </c>
       <c r="D103" s="7">
-        <v>33</v>
+        <v>65.682</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -4733,10 +4793,10 @@
         <v>153</v>
       </c>
       <c r="C104" s="7">
-        <v>9.24</v>
+        <v>18.06</v>
       </c>
       <c r="D104" s="7">
-        <v>33.19</v>
+        <v>56.867</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -4745,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -4758,10 +4818,10 @@
         <v>155</v>
       </c>
       <c r="C105" s="7">
-        <v>9.18</v>
+        <v>10.45</v>
       </c>
       <c r="D105" s="7">
-        <v>33.19</v>
+        <v>35.097</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -4783,10 +4843,10 @@
         <v>157</v>
       </c>
       <c r="C106" s="7">
-        <v>17.9</v>
+        <v>20.83</v>
       </c>
       <c r="D106" s="7">
-        <v>60.542</v>
+        <v>68.786</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -4795,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -4808,10 +4868,10 @@
         <v>159</v>
       </c>
       <c r="C107" s="7">
-        <v>21.3</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D107" s="7">
-        <v>73.223</v>
+        <v>33</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -4820,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -4833,10 +4893,10 @@
         <v>161</v>
       </c>
       <c r="C108" s="7">
-        <v>8.65</v>
+        <v>9.24</v>
       </c>
       <c r="D108" s="7">
-        <v>28.483</v>
+        <v>33.19</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -4858,10 +4918,10 @@
         <v>163</v>
       </c>
       <c r="C109" s="7">
-        <v>10.25</v>
+        <v>9.18</v>
       </c>
       <c r="D109" s="7">
-        <v>36.532</v>
+        <v>33.19</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -4883,10 +4943,10 @@
         <v>165</v>
       </c>
       <c r="C110" s="7">
-        <v>12.29</v>
+        <v>17.9</v>
       </c>
       <c r="D110" s="7">
-        <v>38.502</v>
+        <v>60.542</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -4908,10 +4968,10 @@
         <v>167</v>
       </c>
       <c r="C111" s="7">
-        <v>3.32</v>
+        <v>39.59</v>
       </c>
       <c r="D111" s="7">
-        <v>11.6</v>
+        <v>135.375</v>
       </c>
       <c r="E111" s="7">
         <v>12</v>
@@ -4920,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
@@ -4933,10 +4993,10 @@
         <v>169</v>
       </c>
       <c r="C112" s="7">
-        <v>9.5</v>
+        <v>21.3</v>
       </c>
       <c r="D112" s="7">
-        <v>33.457</v>
+        <v>73.223</v>
       </c>
       <c r="E112" s="7">
         <v>12</v>
@@ -4945,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="7">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -4958,10 +5018,10 @@
         <v>171</v>
       </c>
       <c r="C113" s="7">
-        <v>5.32</v>
+        <v>8.65</v>
       </c>
       <c r="D113" s="7">
-        <v>19.7</v>
+        <v>28.483</v>
       </c>
       <c r="E113" s="7">
         <v>12</v>
@@ -4970,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
@@ -4983,10 +5043,10 @@
         <v>173</v>
       </c>
       <c r="C114" s="7">
-        <v>10.58</v>
+        <v>10.25</v>
       </c>
       <c r="D114" s="7">
-        <v>37.2</v>
+        <v>36.532</v>
       </c>
       <c r="E114" s="7">
         <v>12</v>
@@ -5011,7 +5071,7 @@
         <v>12.29</v>
       </c>
       <c r="D115" s="7">
-        <v>56.8</v>
+        <v>38.502</v>
       </c>
       <c r="E115" s="7">
         <v>12</v>
@@ -5020,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -5033,10 +5093,10 @@
         <v>177</v>
       </c>
       <c r="C116" s="7">
-        <v>167.31</v>
+        <v>13.27</v>
       </c>
       <c r="D116" s="7">
-        <v>485</v>
+        <v>46</v>
       </c>
       <c r="E116" s="7">
         <v>12</v>
@@ -5045,14 +5105,10 @@
         <v>1</v>
       </c>
       <c r="G116" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H116" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I116" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117" ht="13.55" customHeight="1">
       <c r="A117" t="s" s="6">
@@ -5062,10 +5118,10 @@
         <v>179</v>
       </c>
       <c r="C117" s="7">
-        <v>43.47</v>
+        <v>3.32</v>
       </c>
       <c r="D117" s="7">
-        <v>118.61</v>
+        <v>11.6</v>
       </c>
       <c r="E117" s="7">
         <v>12</v>
@@ -5074,14 +5130,10 @@
         <v>1</v>
       </c>
       <c r="G117" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H117" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I117" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
     </row>
     <row r="118" ht="13.55" customHeight="1">
       <c r="A118" t="s" s="6">
@@ -5091,10 +5143,10 @@
         <v>181</v>
       </c>
       <c r="C118" s="7">
-        <v>99.67</v>
+        <v>9.5</v>
       </c>
       <c r="D118" s="7">
-        <v>118.61</v>
+        <v>33.457</v>
       </c>
       <c r="E118" s="7">
         <v>12</v>
@@ -5103,14 +5155,10 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H118" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I118" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119" ht="13.55" customHeight="1">
       <c r="A119" t="s" s="6">
@@ -5120,10 +5168,10 @@
         <v>183</v>
       </c>
       <c r="C119" s="7">
-        <v>34.58</v>
+        <v>5.32</v>
       </c>
       <c r="D119" s="7">
-        <v>104.31</v>
+        <v>19.7</v>
       </c>
       <c r="E119" s="7">
         <v>12</v>
@@ -5132,14 +5180,10 @@
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H119" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I119" s="7">
         <v>0.1</v>
       </c>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
     </row>
     <row r="120" ht="13.55" customHeight="1">
       <c r="A120" t="s" s="6">
@@ -5149,10 +5193,10 @@
         <v>185</v>
       </c>
       <c r="C120" s="7">
-        <v>45.49</v>
+        <v>10.58</v>
       </c>
       <c r="D120" s="7">
-        <v>110</v>
+        <v>37.2</v>
       </c>
       <c r="E120" s="7">
         <v>12</v>
@@ -5161,14 +5205,10 @@
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H120" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I120" s="7">
-        <v>0.26</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" ht="13.55" customHeight="1">
       <c r="A121" t="s" s="6">
@@ -5178,10 +5218,10 @@
         <v>187</v>
       </c>
       <c r="C121" s="7">
-        <v>194.66</v>
+        <v>12.29</v>
       </c>
       <c r="D121" s="7">
-        <v>561.2</v>
+        <v>56.8</v>
       </c>
       <c r="E121" s="7">
         <v>12</v>
@@ -5190,14 +5230,10 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>3</v>
-      </c>
-      <c r="H121" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I121" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
     </row>
     <row r="122" ht="13.55" customHeight="1">
       <c r="A122" t="s" s="6">
@@ -5207,10 +5243,10 @@
         <v>189</v>
       </c>
       <c r="C122" s="7">
-        <v>321.56</v>
+        <v>32.67</v>
       </c>
       <c r="D122" s="7">
-        <v>850.95</v>
+        <v>107</v>
       </c>
       <c r="E122" s="7">
         <v>12</v>
@@ -5219,14 +5255,10 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H122" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I122" s="7">
-        <v>1.12</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" ht="13.55" customHeight="1">
       <c r="A123" t="s" s="6">
@@ -5236,26 +5268,22 @@
         <v>191</v>
       </c>
       <c r="C123" s="7">
-        <v>28.94</v>
+        <v>69.61</v>
       </c>
       <c r="D123" s="7">
-        <v>24.88</v>
+        <v>248.201</v>
       </c>
       <c r="E123" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F123" s="7">
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H123" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I123" s="7">
-        <v>0.35</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124" ht="13.55" customHeight="1">
       <c r="A124" t="s" s="6">
@@ -5265,26 +5293,22 @@
         <v>193</v>
       </c>
       <c r="C124" s="7">
-        <v>43.34</v>
+        <v>84.97</v>
       </c>
       <c r="D124" s="7">
-        <v>24.18</v>
+        <v>248.201</v>
       </c>
       <c r="E124" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F124" s="7">
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H124" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I124" s="7">
-        <v>0.58</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
     </row>
     <row r="125" ht="13.55" customHeight="1">
       <c r="A125" t="s" s="6">
@@ -5294,26 +5318,22 @@
         <v>195</v>
       </c>
       <c r="C125" s="7">
-        <v>19.21</v>
+        <v>120.91</v>
       </c>
       <c r="D125" s="7">
-        <v>5</v>
+        <v>248.201</v>
       </c>
       <c r="E125" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F125" s="7">
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H125" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I125" s="7">
-        <v>0.03</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
     </row>
     <row r="126" ht="13.55" customHeight="1">
       <c r="A126" t="s" s="6">
@@ -5323,25 +5343,25 @@
         <v>197</v>
       </c>
       <c r="C126" s="7">
-        <v>195.6</v>
+        <v>167.31</v>
       </c>
       <c r="D126" s="7">
-        <v>17</v>
+        <v>485</v>
       </c>
       <c r="E126" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F126" s="7">
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>0.11</v>
+        <v>2.42</v>
       </c>
       <c r="H126" s="7">
-        <v>3.27</v>
+        <v>2.79</v>
       </c>
       <c r="I126" s="7">
-        <v>3.16</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="127" ht="13.55" customHeight="1">
@@ -5352,25 +5372,25 @@
         <v>199</v>
       </c>
       <c r="C127" s="7">
-        <v>31.58</v>
+        <v>43.47</v>
       </c>
       <c r="D127" s="7">
-        <v>145.52</v>
+        <v>118.61</v>
       </c>
       <c r="E127" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F127" s="7">
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>6.83</v>
+        <v>0.55</v>
       </c>
       <c r="H127" s="7">
-        <v>0.53</v>
+        <v>0.73</v>
       </c>
       <c r="I127" s="7">
-        <v>-6.3</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="128" ht="13.55" customHeight="1">
@@ -5381,24 +5401,314 @@
         <v>201</v>
       </c>
       <c r="C128" s="7">
+        <v>99.67</v>
+      </c>
+      <c r="D128" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E128" s="7">
+        <v>12</v>
+      </c>
+      <c r="F128" s="7">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H128" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I128" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="129" ht="13.55" customHeight="1">
+      <c r="A129" t="s" s="6">
+        <v>202</v>
+      </c>
+      <c r="B129" t="s" s="6">
+        <v>203</v>
+      </c>
+      <c r="C129" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D129" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E129" s="7">
+        <v>12</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1</v>
+      </c>
+      <c r="G129" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H129" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="130" ht="13.55" customHeight="1">
+      <c r="A130" t="s" s="6">
+        <v>204</v>
+      </c>
+      <c r="B130" t="s" s="6">
+        <v>205</v>
+      </c>
+      <c r="C130" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D130" s="7">
+        <v>110</v>
+      </c>
+      <c r="E130" s="7">
+        <v>12</v>
+      </c>
+      <c r="F130" s="7">
+        <v>1</v>
+      </c>
+      <c r="G130" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H130" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I130" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="131" ht="13.55" customHeight="1">
+      <c r="A131" t="s" s="6">
+        <v>206</v>
+      </c>
+      <c r="B131" t="s" s="6">
+        <v>207</v>
+      </c>
+      <c r="C131" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D131" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E131" s="7">
+        <v>12</v>
+      </c>
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
+      <c r="G131" s="7">
+        <v>3</v>
+      </c>
+      <c r="H131" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I131" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="132" ht="13.55" customHeight="1">
+      <c r="A132" t="s" s="6">
+        <v>208</v>
+      </c>
+      <c r="B132" t="s" s="6">
+        <v>209</v>
+      </c>
+      <c r="C132" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D132" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E132" s="7">
+        <v>12</v>
+      </c>
+      <c r="F132" s="7">
+        <v>1</v>
+      </c>
+      <c r="G132" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H132" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I132" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="133" ht="13.55" customHeight="1">
+      <c r="A133" t="s" s="6">
+        <v>210</v>
+      </c>
+      <c r="B133" t="s" s="6">
+        <v>211</v>
+      </c>
+      <c r="C133" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D133" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E133" s="7">
+        <v>20</v>
+      </c>
+      <c r="F133" s="7">
+        <v>1</v>
+      </c>
+      <c r="G133" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H133" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I133" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="134" ht="13.55" customHeight="1">
+      <c r="A134" t="s" s="6">
+        <v>212</v>
+      </c>
+      <c r="B134" t="s" s="6">
+        <v>213</v>
+      </c>
+      <c r="C134" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D134" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E134" s="7">
+        <v>25</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1</v>
+      </c>
+      <c r="G134" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H134" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I134" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="135" ht="13.55" customHeight="1">
+      <c r="A135" t="s" s="6">
+        <v>214</v>
+      </c>
+      <c r="B135" t="s" s="6">
+        <v>215</v>
+      </c>
+      <c r="C135" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D135" s="7">
+        <v>5</v>
+      </c>
+      <c r="E135" s="7">
+        <v>32</v>
+      </c>
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
+      <c r="G135" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H135" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I135" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="136" ht="13.55" customHeight="1">
+      <c r="A136" t="s" s="6">
+        <v>216</v>
+      </c>
+      <c r="B136" t="s" s="6">
+        <v>217</v>
+      </c>
+      <c r="C136" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D136" s="7">
+        <v>17</v>
+      </c>
+      <c r="E136" s="7">
+        <v>32</v>
+      </c>
+      <c r="F136" s="7">
+        <v>1</v>
+      </c>
+      <c r="G136" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H136" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I136" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="137" ht="13.55" customHeight="1">
+      <c r="A137" t="s" s="6">
+        <v>218</v>
+      </c>
+      <c r="B137" t="s" s="6">
+        <v>219</v>
+      </c>
+      <c r="C137" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D137" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E137" s="7">
+        <v>10</v>
+      </c>
+      <c r="F137" s="7">
+        <v>1</v>
+      </c>
+      <c r="G137" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H137" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I137" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="138" ht="13.55" customHeight="1">
+      <c r="A138" t="s" s="6">
+        <v>220</v>
+      </c>
+      <c r="B138" t="s" s="6">
+        <v>221</v>
+      </c>
+      <c r="C138" s="7">
         <v>34.53</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D138" s="7">
         <v>12.17</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E138" s="7">
         <v>25</v>
       </c>
-      <c r="F128" s="7">
-        <v>1</v>
-      </c>
-      <c r="G128" s="7">
+      <c r="F138" s="7">
+        <v>1</v>
+      </c>
+      <c r="G138" s="7">
         <v>0.86</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H138" s="7">
         <v>0.58</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I138" s="7">
         <v>-0.28</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>timestamp</t>
   </si>
@@ -145,6 +145,12 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
+    <t>2024-07-01 15:37:17</t>
+  </si>
+  <si>
+    <t>CORTE ESPECIAL.slp</t>
+  </si>
+  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -577,6 +583,24 @@
     <t>L_01579.NC</t>
   </si>
   <si>
+    <t>2024-07-19 12:20:26</t>
+  </si>
+  <si>
+    <t>L_01727.NC</t>
+  </si>
+  <si>
+    <t>2024-07-19 10:22:38</t>
+  </si>
+  <si>
+    <t>L_01728.NC</t>
+  </si>
+  <si>
+    <t>2024-07-19 11:21:39</t>
+  </si>
+  <si>
+    <t>L_01730.NC</t>
+  </si>
+  <si>
     <t>2024-07-17 17:39:01</t>
   </si>
   <si>
@@ -599,6 +623,36 @@
   </si>
   <si>
     <t>L_01737.NC</t>
+  </si>
+  <si>
+    <t>2024-07-18 16:56:25</t>
+  </si>
+  <si>
+    <t>L_01738.NC</t>
+  </si>
+  <si>
+    <t>2024-07-19 13:33:51</t>
+  </si>
+  <si>
+    <t>L_01739.NC</t>
+  </si>
+  <si>
+    <t>2024-07-19 13:00:01</t>
+  </si>
+  <si>
+    <t>L_01740.NC</t>
+  </si>
+  <si>
+    <t>2024-07-19 13:50:43</t>
+  </si>
+  <si>
+    <t>L_01741.NC</t>
+  </si>
+  <si>
+    <t>2024-07-19 11:10:45</t>
+  </si>
+  <si>
+    <t>L_01827.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -782,7 +836,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -808,6 +862,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1920,14 +1977,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.4922" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.2734" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.8359" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -3357,26 +3414,14 @@
         <v>45</v>
       </c>
       <c r="C50" s="7">
-        <v>6.17</v>
-      </c>
-      <c r="D50" s="7">
-        <v>23.8</v>
-      </c>
-      <c r="E50" s="7">
-        <v>3</v>
-      </c>
-      <c r="F50" s="7">
-        <v>1</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="I50" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>2.28</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="6">
@@ -3386,10 +3431,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="D51" s="7">
-        <v>24.8</v>
+        <v>23.8</v>
       </c>
       <c r="E51" s="7">
         <v>3</v>
@@ -3398,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H51" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I51" s="7">
         <v>-0.02</v>
@@ -3415,10 +3460,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="7">
-        <v>7.18</v>
+        <v>6.65</v>
       </c>
       <c r="D52" s="7">
-        <v>26.7</v>
+        <v>24.8</v>
       </c>
       <c r="E52" s="7">
         <v>3</v>
@@ -3444,10 +3489,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="7">
-        <v>21.94</v>
+        <v>7.18</v>
       </c>
       <c r="D53" s="7">
-        <v>9</v>
+        <v>26.7</v>
       </c>
       <c r="E53" s="7">
         <v>3</v>
@@ -3456,13 +3501,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="H53" s="7">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="I53" s="7">
-        <v>0.32</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
@@ -3473,25 +3518,25 @@
         <v>53</v>
       </c>
       <c r="C54" s="7">
-        <v>30.37</v>
+        <v>21.94</v>
       </c>
       <c r="D54" s="7">
-        <v>116.8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="H54" s="7">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="I54" s="7">
-        <v>0.99</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="55" ht="13.55" customHeight="1">
@@ -3502,10 +3547,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="7">
-        <v>19.9</v>
+        <v>30.37</v>
       </c>
       <c r="D55" s="7">
-        <v>69.682</v>
+        <v>116.8</v>
       </c>
       <c r="E55" s="7">
         <v>10</v>
@@ -3514,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" s="7">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="I55" s="7">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="56" ht="13.55" customHeight="1">
@@ -3531,10 +3576,10 @@
         <v>57</v>
       </c>
       <c r="C56" s="7">
-        <v>15.77</v>
+        <v>19.9</v>
       </c>
       <c r="D56" s="7">
-        <v>27.16</v>
+        <v>69.682</v>
       </c>
       <c r="E56" s="7">
         <v>10</v>
@@ -3543,13 +3588,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H56" s="7">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I56" s="7">
-        <v>0.24</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="57" ht="13.55" customHeight="1">
@@ -3560,25 +3605,25 @@
         <v>59</v>
       </c>
       <c r="C57" s="7">
-        <v>11.26</v>
+        <v>15.77</v>
       </c>
       <c r="D57" s="7">
-        <v>50.5</v>
+        <v>27.16</v>
       </c>
       <c r="E57" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="H57" s="7">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I57" s="7">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="58" ht="13.55" customHeight="1">
@@ -3589,25 +3634,25 @@
         <v>61</v>
       </c>
       <c r="C58" s="7">
-        <v>3.76</v>
+        <v>11.26</v>
       </c>
       <c r="D58" s="7">
-        <v>19.7</v>
+        <v>50.5</v>
       </c>
       <c r="E58" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.13</v>
+        <v>0.46</v>
       </c>
       <c r="H58" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I58" s="7">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="59" ht="13.55" customHeight="1">
@@ -3618,25 +3663,25 @@
         <v>63</v>
       </c>
       <c r="C59" s="7">
-        <v>25.79</v>
+        <v>3.76</v>
       </c>
       <c r="D59" s="7">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E59" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="H59" s="7">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" s="7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="60" ht="13.55" customHeight="1">
@@ -3647,25 +3692,25 @@
         <v>65</v>
       </c>
       <c r="C60" s="7">
-        <v>3.77</v>
+        <v>25.79</v>
       </c>
       <c r="D60" s="7">
-        <v>12.5</v>
+        <v>18.9</v>
       </c>
       <c r="E60" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H60" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I60" s="7">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1">
@@ -3676,22 +3721,22 @@
         <v>67</v>
       </c>
       <c r="C61" s="7">
-        <v>2.98</v>
+        <v>3.77</v>
       </c>
       <c r="D61" s="7">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E61" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H61" s="7">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I61" s="7">
         <v>0.06</v>
@@ -3705,24 +3750,26 @@
         <v>69</v>
       </c>
       <c r="C62" s="7">
-        <v>0.5600000000000001</v>
+        <v>2.98</v>
       </c>
       <c r="D62" s="7">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="E62" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H62" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I62" s="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="6">
@@ -3732,13 +3779,13 @@
         <v>71</v>
       </c>
       <c r="C63" s="7">
-        <v>3.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D63" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E63" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F63" s="7">
         <v>1</v>
@@ -3747,11 +3794,9 @@
         <v>0.01</v>
       </c>
       <c r="H63" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I63" s="7">
-        <v>-0.05</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -3761,13 +3806,13 @@
         <v>73</v>
       </c>
       <c r="C64" s="7">
-        <v>4.16</v>
+        <v>3.48</v>
       </c>
       <c r="D64" s="7">
-        <v>0.33</v>
+        <v>1.2</v>
       </c>
       <c r="E64" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F64" s="7">
         <v>1</v>
@@ -3776,10 +3821,10 @@
         <v>0.01</v>
       </c>
       <c r="H64" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I64" s="7">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="65" ht="13.55" customHeight="1">
@@ -3790,13 +3835,13 @@
         <v>75</v>
       </c>
       <c r="C65" s="7">
-        <v>0.39</v>
+        <v>4.16</v>
       </c>
       <c r="D65" s="7">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="E65" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
@@ -3805,10 +3850,10 @@
         <v>0.01</v>
       </c>
       <c r="H65" s="7">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="66" ht="13.55" customHeight="1">
@@ -3819,13 +3864,13 @@
         <v>77</v>
       </c>
       <c r="C66" s="7">
-        <v>1.23</v>
+        <v>0.39</v>
       </c>
       <c r="D66" s="7">
-        <v>2.428</v>
+        <v>3</v>
       </c>
       <c r="E66" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F66" s="7">
         <v>1</v>
@@ -3834,10 +3879,10 @@
         <v>0.01</v>
       </c>
       <c r="H66" s="7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I66" s="7">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="13.55" customHeight="1">
@@ -3848,24 +3893,26 @@
         <v>79</v>
       </c>
       <c r="C67" s="7">
-        <v>3.13</v>
+        <v>1.23</v>
       </c>
       <c r="D67" s="7">
-        <v>7.3</v>
+        <v>2.428</v>
       </c>
       <c r="E67" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H67" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I67" s="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="I67" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" t="s" s="6">
@@ -3875,22 +3922,22 @@
         <v>81</v>
       </c>
       <c r="C68" s="7">
-        <v>0.35</v>
+        <v>3.13</v>
       </c>
       <c r="D68" s="7">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="E68" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F68" s="7">
         <v>1</v>
       </c>
       <c r="G68" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H68" s="7">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I68" s="8"/>
     </row>
@@ -3902,26 +3949,24 @@
         <v>83</v>
       </c>
       <c r="C69" s="7">
-        <v>5.83</v>
+        <v>0.35</v>
       </c>
       <c r="D69" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H69" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I69" s="7">
         <v>0.01</v>
       </c>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="6">
@@ -3931,25 +3976,25 @@
         <v>85</v>
       </c>
       <c r="C70" s="7">
-        <v>7.43</v>
+        <v>5.83</v>
       </c>
       <c r="D70" s="7">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="E70" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H70" s="7">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I70" s="7">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
@@ -3960,25 +4005,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="7">
-        <v>10.63</v>
+        <v>7.43</v>
       </c>
       <c r="D71" s="7">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="E71" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H71" s="7">
         <v>0.13</v>
       </c>
-      <c r="H71" s="7">
-        <v>0.18</v>
-      </c>
       <c r="I71" s="7">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="72" ht="13.55" customHeight="1">
@@ -3989,10 +4034,10 @@
         <v>89</v>
       </c>
       <c r="C72" s="7">
-        <v>8.880000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="D72" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72" s="7">
         <v>25</v>
@@ -4001,13 +4046,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H72" s="7">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I72" s="7">
-        <v>-0.14</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
@@ -4018,22 +4063,26 @@
         <v>91</v>
       </c>
       <c r="C73" s="7">
-        <v>2.71</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D73" s="7">
-        <v>13.7</v>
+        <v>2</v>
       </c>
       <c r="E73" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I73" s="7">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="6">
@@ -4043,19 +4092,19 @@
         <v>93</v>
       </c>
       <c r="C74" s="7">
-        <v>144.21</v>
+        <v>2.71</v>
       </c>
       <c r="D74" s="7">
-        <v>90.3</v>
+        <v>13.7</v>
       </c>
       <c r="E74" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F74" s="7">
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>3</v>
+        <v>0.28</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4068,19 +4117,19 @@
         <v>95</v>
       </c>
       <c r="C75" s="7">
-        <v>12.15</v>
+        <v>144.21</v>
       </c>
       <c r="D75" s="7">
-        <v>77</v>
+        <v>90.3</v>
       </c>
       <c r="E75" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -4093,10 +4142,10 @@
         <v>97</v>
       </c>
       <c r="C76" s="7">
-        <v>4.45</v>
+        <v>12.15</v>
       </c>
       <c r="D76" s="7">
-        <v>17.8</v>
+        <v>77</v>
       </c>
       <c r="E76" s="7">
         <v>8</v>
@@ -4105,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4118,13 +4167,13 @@
         <v>99</v>
       </c>
       <c r="C77" s="7">
-        <v>3.12</v>
+        <v>4.45</v>
       </c>
       <c r="D77" s="7">
-        <v>11.7</v>
+        <v>17.8</v>
       </c>
       <c r="E77" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F77" s="7">
         <v>1</v>
@@ -4143,19 +4192,19 @@
         <v>101</v>
       </c>
       <c r="C78" s="7">
-        <v>4.28</v>
+        <v>3.12</v>
       </c>
       <c r="D78" s="7">
-        <v>13.5</v>
+        <v>11.7</v>
       </c>
       <c r="E78" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F78" s="7">
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -4168,10 +4217,10 @@
         <v>103</v>
       </c>
       <c r="C79" s="7">
-        <v>3.26</v>
+        <v>4.28</v>
       </c>
       <c r="D79" s="7">
-        <v>10.4</v>
+        <v>13.5</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4193,13 +4242,13 @@
         <v>105</v>
       </c>
       <c r="C80" s="7">
-        <v>15.61</v>
+        <v>3.26</v>
       </c>
       <c r="D80" s="7">
-        <v>14.3</v>
+        <v>10.4</v>
       </c>
       <c r="E80" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F80" s="7">
         <v>1</v>
@@ -4218,19 +4267,19 @@
         <v>107</v>
       </c>
       <c r="C81" s="7">
-        <v>9.58</v>
+        <v>15.61</v>
       </c>
       <c r="D81" s="7">
-        <v>40.2</v>
+        <v>14.3</v>
       </c>
       <c r="E81" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F81" s="7">
         <v>1</v>
       </c>
       <c r="G81" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -4243,19 +4292,19 @@
         <v>109</v>
       </c>
       <c r="C82" s="7">
-        <v>12.55</v>
+        <v>9.58</v>
       </c>
       <c r="D82" s="7">
-        <v>55</v>
+        <v>40.2</v>
       </c>
       <c r="E82" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F82" s="7">
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -4268,10 +4317,10 @@
         <v>111</v>
       </c>
       <c r="C83" s="7">
-        <v>19.1</v>
+        <v>12.55</v>
       </c>
       <c r="D83" s="7">
-        <v>90.90000000000001</v>
+        <v>55</v>
       </c>
       <c r="E83" s="7">
         <v>4</v>
@@ -4293,19 +4342,19 @@
         <v>113</v>
       </c>
       <c r="C84" s="7">
-        <v>24.33</v>
+        <v>19.1</v>
       </c>
       <c r="D84" s="7">
-        <v>211.504</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E84" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F84" s="7">
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -4318,19 +4367,19 @@
         <v>115</v>
       </c>
       <c r="C85" s="7">
-        <v>25.6</v>
+        <v>24.33</v>
       </c>
       <c r="D85" s="7">
-        <v>24.5</v>
+        <v>211.504</v>
       </c>
       <c r="E85" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4343,19 +4392,19 @@
         <v>117</v>
       </c>
       <c r="C86" s="7">
-        <v>88.03</v>
+        <v>25.6</v>
       </c>
       <c r="D86" s="7">
-        <v>30.4</v>
+        <v>24.5</v>
       </c>
       <c r="E86" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F86" s="7">
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -4368,10 +4417,10 @@
         <v>119</v>
       </c>
       <c r="C87" s="7">
-        <v>25.66</v>
+        <v>88.03</v>
       </c>
       <c r="D87" s="7">
-        <v>135.2</v>
+        <v>30.4</v>
       </c>
       <c r="E87" s="7">
         <v>10</v>
@@ -4380,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -4393,10 +4442,10 @@
         <v>121</v>
       </c>
       <c r="C88" s="7">
-        <v>20.96</v>
+        <v>25.66</v>
       </c>
       <c r="D88" s="7">
-        <v>118.6</v>
+        <v>135.2</v>
       </c>
       <c r="E88" s="7">
         <v>10</v>
@@ -4418,10 +4467,10 @@
         <v>123</v>
       </c>
       <c r="C89" s="7">
-        <v>24.99</v>
+        <v>20.96</v>
       </c>
       <c r="D89" s="7">
-        <v>135.112</v>
+        <v>118.6</v>
       </c>
       <c r="E89" s="7">
         <v>10</v>
@@ -4443,10 +4492,10 @@
         <v>125</v>
       </c>
       <c r="C90" s="7">
-        <v>25.58</v>
+        <v>24.99</v>
       </c>
       <c r="D90" s="7">
-        <v>135.1</v>
+        <v>135.112</v>
       </c>
       <c r="E90" s="7">
         <v>10</v>
@@ -4468,10 +4517,10 @@
         <v>127</v>
       </c>
       <c r="C91" s="7">
-        <v>60.31</v>
+        <v>25.58</v>
       </c>
       <c r="D91" s="7">
-        <v>313.297</v>
+        <v>135.1</v>
       </c>
       <c r="E91" s="7">
         <v>10</v>
@@ -4480,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -4493,10 +4542,10 @@
         <v>129</v>
       </c>
       <c r="C92" s="7">
-        <v>25.52</v>
+        <v>60.31</v>
       </c>
       <c r="D92" s="7">
-        <v>137</v>
+        <v>313.297</v>
       </c>
       <c r="E92" s="7">
         <v>10</v>
@@ -4518,10 +4567,10 @@
         <v>131</v>
       </c>
       <c r="C93" s="7">
-        <v>82.26000000000001</v>
+        <v>25.52</v>
       </c>
       <c r="D93" s="7">
-        <v>474.621</v>
+        <v>137</v>
       </c>
       <c r="E93" s="7">
         <v>10</v>
@@ -4530,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -4543,10 +4592,10 @@
         <v>133</v>
       </c>
       <c r="C94" s="7">
-        <v>14.13</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D94" s="7">
-        <v>34</v>
+        <v>474.621</v>
       </c>
       <c r="E94" s="7">
         <v>10</v>
@@ -4555,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -4568,10 +4617,10 @@
         <v>135</v>
       </c>
       <c r="C95" s="7">
-        <v>9.57</v>
+        <v>14.13</v>
       </c>
       <c r="D95" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E95" s="7">
         <v>10</v>
@@ -4593,10 +4642,10 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>60.44</v>
+        <v>9.57</v>
       </c>
       <c r="D96" s="7">
-        <v>81.459</v>
+        <v>25</v>
       </c>
       <c r="E96" s="7">
         <v>10</v>
@@ -4618,10 +4667,10 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>49.26</v>
+        <v>60.44</v>
       </c>
       <c r="D97" s="7">
-        <v>183.288</v>
+        <v>81.459</v>
       </c>
       <c r="E97" s="7">
         <v>10</v>
@@ -4630,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -4643,19 +4692,19 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>0.29</v>
+        <v>49.26</v>
       </c>
       <c r="D98" s="7">
-        <v>1.5</v>
+        <v>183.288</v>
       </c>
       <c r="E98" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F98" s="7">
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -4668,13 +4717,13 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>37.15</v>
+        <v>0.29</v>
       </c>
       <c r="D99" s="7">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="E99" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F99" s="7">
         <v>1</v>
@@ -4693,13 +4742,13 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>12.76</v>
+        <v>37.15</v>
       </c>
       <c r="D100" s="7">
-        <v>24.919</v>
+        <v>7.5</v>
       </c>
       <c r="E100" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F100" s="7">
         <v>1</v>
@@ -4718,10 +4767,10 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>20.38</v>
+        <v>12.76</v>
       </c>
       <c r="D101" s="7">
-        <v>74.434</v>
+        <v>24.919</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -4730,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -4743,10 +4792,10 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
-        <v>10.35</v>
+        <v>20.38</v>
       </c>
       <c r="D102" s="7">
-        <v>35.091</v>
+        <v>74.434</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -4768,10 +4817,10 @@
         <v>151</v>
       </c>
       <c r="C103" s="7">
-        <v>17.77</v>
+        <v>10.35</v>
       </c>
       <c r="D103" s="7">
-        <v>65.682</v>
+        <v>35.091</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -4793,10 +4842,10 @@
         <v>153</v>
       </c>
       <c r="C104" s="7">
-        <v>18.06</v>
+        <v>17.77</v>
       </c>
       <c r="D104" s="7">
-        <v>56.867</v>
+        <v>65.682</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -4805,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -4818,10 +4867,10 @@
         <v>155</v>
       </c>
       <c r="C105" s="7">
-        <v>10.45</v>
+        <v>18.06</v>
       </c>
       <c r="D105" s="7">
-        <v>35.097</v>
+        <v>56.867</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -4830,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -4843,10 +4892,10 @@
         <v>157</v>
       </c>
       <c r="C106" s="7">
-        <v>20.83</v>
+        <v>10.45</v>
       </c>
       <c r="D106" s="7">
-        <v>68.786</v>
+        <v>35.097</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -4855,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -4868,10 +4917,10 @@
         <v>159</v>
       </c>
       <c r="C107" s="7">
-        <v>9.119999999999999</v>
+        <v>20.83</v>
       </c>
       <c r="D107" s="7">
-        <v>33</v>
+        <v>68.786</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -4880,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -4893,10 +4942,10 @@
         <v>161</v>
       </c>
       <c r="C108" s="7">
-        <v>9.24</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D108" s="7">
-        <v>33.19</v>
+        <v>33</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -4918,7 +4967,7 @@
         <v>163</v>
       </c>
       <c r="C109" s="7">
-        <v>9.18</v>
+        <v>9.24</v>
       </c>
       <c r="D109" s="7">
         <v>33.19</v>
@@ -4943,10 +4992,10 @@
         <v>165</v>
       </c>
       <c r="C110" s="7">
-        <v>17.9</v>
+        <v>9.18</v>
       </c>
       <c r="D110" s="7">
-        <v>60.542</v>
+        <v>33.19</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -4955,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -4968,10 +5017,10 @@
         <v>167</v>
       </c>
       <c r="C111" s="7">
-        <v>39.59</v>
+        <v>17.9</v>
       </c>
       <c r="D111" s="7">
-        <v>135.375</v>
+        <v>60.542</v>
       </c>
       <c r="E111" s="7">
         <v>12</v>
@@ -4993,10 +5042,10 @@
         <v>169</v>
       </c>
       <c r="C112" s="7">
-        <v>21.3</v>
+        <v>39.59</v>
       </c>
       <c r="D112" s="7">
-        <v>73.223</v>
+        <v>135.375</v>
       </c>
       <c r="E112" s="7">
         <v>12</v>
@@ -5005,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -5018,10 +5067,10 @@
         <v>171</v>
       </c>
       <c r="C113" s="7">
-        <v>8.65</v>
+        <v>21.3</v>
       </c>
       <c r="D113" s="7">
-        <v>28.483</v>
+        <v>73.223</v>
       </c>
       <c r="E113" s="7">
         <v>12</v>
@@ -5030,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="7">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
@@ -5043,10 +5092,10 @@
         <v>173</v>
       </c>
       <c r="C114" s="7">
-        <v>10.25</v>
+        <v>8.65</v>
       </c>
       <c r="D114" s="7">
-        <v>36.532</v>
+        <v>28.483</v>
       </c>
       <c r="E114" s="7">
         <v>12</v>
@@ -5068,10 +5117,10 @@
         <v>175</v>
       </c>
       <c r="C115" s="7">
-        <v>12.29</v>
+        <v>10.25</v>
       </c>
       <c r="D115" s="7">
-        <v>38.502</v>
+        <v>36.532</v>
       </c>
       <c r="E115" s="7">
         <v>12</v>
@@ -5080,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -5093,10 +5142,10 @@
         <v>177</v>
       </c>
       <c r="C116" s="7">
-        <v>13.27</v>
+        <v>12.29</v>
       </c>
       <c r="D116" s="7">
-        <v>46</v>
+        <v>38.502</v>
       </c>
       <c r="E116" s="7">
         <v>12</v>
@@ -5105,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -5118,10 +5167,10 @@
         <v>179</v>
       </c>
       <c r="C117" s="7">
-        <v>3.32</v>
+        <v>13.27</v>
       </c>
       <c r="D117" s="7">
-        <v>11.6</v>
+        <v>46</v>
       </c>
       <c r="E117" s="7">
         <v>12</v>
@@ -5130,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -5143,10 +5192,10 @@
         <v>181</v>
       </c>
       <c r="C118" s="7">
-        <v>9.5</v>
+        <v>3.32</v>
       </c>
       <c r="D118" s="7">
-        <v>33.457</v>
+        <v>11.6</v>
       </c>
       <c r="E118" s="7">
         <v>12</v>
@@ -5155,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -5168,10 +5217,10 @@
         <v>183</v>
       </c>
       <c r="C119" s="7">
-        <v>5.32</v>
+        <v>9.5</v>
       </c>
       <c r="D119" s="7">
-        <v>19.7</v>
+        <v>33.457</v>
       </c>
       <c r="E119" s="7">
         <v>12</v>
@@ -5180,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -5193,10 +5242,10 @@
         <v>185</v>
       </c>
       <c r="C120" s="7">
-        <v>10.58</v>
+        <v>5.32</v>
       </c>
       <c r="D120" s="7">
-        <v>37.2</v>
+        <v>19.7</v>
       </c>
       <c r="E120" s="7">
         <v>12</v>
@@ -5205,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -5218,10 +5267,10 @@
         <v>187</v>
       </c>
       <c r="C121" s="7">
-        <v>12.29</v>
+        <v>10.58</v>
       </c>
       <c r="D121" s="7">
-        <v>56.8</v>
+        <v>37.2</v>
       </c>
       <c r="E121" s="7">
         <v>12</v>
@@ -5230,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -5243,10 +5292,10 @@
         <v>189</v>
       </c>
       <c r="C122" s="7">
-        <v>32.67</v>
+        <v>12.29</v>
       </c>
       <c r="D122" s="7">
-        <v>107</v>
+        <v>56.8</v>
       </c>
       <c r="E122" s="7">
         <v>12</v>
@@ -5255,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -5268,10 +5317,10 @@
         <v>191</v>
       </c>
       <c r="C123" s="7">
-        <v>69.61</v>
-      </c>
-      <c r="D123" s="7">
-        <v>248.201</v>
+        <v>30.09</v>
+      </c>
+      <c r="D123" s="9">
+        <v>84102</v>
       </c>
       <c r="E123" s="7">
         <v>12</v>
@@ -5280,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5293,10 +5342,10 @@
         <v>193</v>
       </c>
       <c r="C124" s="7">
-        <v>84.97</v>
-      </c>
-      <c r="D124" s="7">
-        <v>248.201</v>
+        <v>42.54</v>
+      </c>
+      <c r="D124" s="9">
+        <v>121870</v>
       </c>
       <c r="E124" s="7">
         <v>12</v>
@@ -5305,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -5318,10 +5367,10 @@
         <v>195</v>
       </c>
       <c r="C125" s="7">
-        <v>120.91</v>
-      </c>
-      <c r="D125" s="7">
-        <v>248.201</v>
+        <v>42.62</v>
+      </c>
+      <c r="D125" s="9">
+        <v>121879</v>
       </c>
       <c r="E125" s="7">
         <v>12</v>
@@ -5330,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -5343,10 +5392,10 @@
         <v>197</v>
       </c>
       <c r="C126" s="7">
-        <v>167.31</v>
+        <v>32.67</v>
       </c>
       <c r="D126" s="7">
-        <v>485</v>
+        <v>107</v>
       </c>
       <c r="E126" s="7">
         <v>12</v>
@@ -5355,14 +5404,10 @@
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H126" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I126" s="7">
-        <v>0.37</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
     </row>
     <row r="127" ht="13.55" customHeight="1">
       <c r="A127" t="s" s="6">
@@ -5372,10 +5417,10 @@
         <v>199</v>
       </c>
       <c r="C127" s="7">
-        <v>43.47</v>
+        <v>69.61</v>
       </c>
       <c r="D127" s="7">
-        <v>118.61</v>
+        <v>248.201</v>
       </c>
       <c r="E127" s="7">
         <v>12</v>
@@ -5384,14 +5429,10 @@
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H127" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I127" s="7">
-        <v>0.18</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
     </row>
     <row r="128" ht="13.55" customHeight="1">
       <c r="A128" t="s" s="6">
@@ -5401,10 +5442,10 @@
         <v>201</v>
       </c>
       <c r="C128" s="7">
-        <v>99.67</v>
+        <v>84.97</v>
       </c>
       <c r="D128" s="7">
-        <v>118.61</v>
+        <v>248.201</v>
       </c>
       <c r="E128" s="7">
         <v>12</v>
@@ -5413,14 +5454,10 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H128" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I128" s="7">
-        <v>1.12</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
     </row>
     <row r="129" ht="13.55" customHeight="1">
       <c r="A129" t="s" s="6">
@@ -5430,10 +5467,10 @@
         <v>203</v>
       </c>
       <c r="C129" s="7">
-        <v>34.58</v>
+        <v>120.91</v>
       </c>
       <c r="D129" s="7">
-        <v>104.31</v>
+        <v>248.201</v>
       </c>
       <c r="E129" s="7">
         <v>12</v>
@@ -5442,14 +5479,10 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H129" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I129" s="7">
-        <v>0.1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
     </row>
     <row r="130" ht="13.55" customHeight="1">
       <c r="A130" t="s" s="6">
@@ -5459,10 +5492,10 @@
         <v>205</v>
       </c>
       <c r="C130" s="7">
-        <v>45.49</v>
+        <v>130.17</v>
       </c>
       <c r="D130" s="7">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="E130" s="7">
         <v>12</v>
@@ -5471,14 +5504,10 @@
         <v>1</v>
       </c>
       <c r="G130" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H130" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I130" s="7">
-        <v>0.26</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
     </row>
     <row r="131" ht="13.55" customHeight="1">
       <c r="A131" t="s" s="6">
@@ -5488,10 +5517,10 @@
         <v>207</v>
       </c>
       <c r="C131" s="7">
-        <v>194.66</v>
-      </c>
-      <c r="D131" s="7">
-        <v>561.2</v>
+        <v>11.85</v>
+      </c>
+      <c r="D131" s="9">
+        <v>34459</v>
       </c>
       <c r="E131" s="7">
         <v>12</v>
@@ -5500,14 +5529,10 @@
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>3</v>
-      </c>
-      <c r="H131" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I131" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.53</v>
+      </c>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
     </row>
     <row r="132" ht="13.55" customHeight="1">
       <c r="A132" t="s" s="6">
@@ -5517,10 +5542,10 @@
         <v>209</v>
       </c>
       <c r="C132" s="7">
-        <v>321.56</v>
-      </c>
-      <c r="D132" s="7">
-        <v>850.95</v>
+        <v>17.89</v>
+      </c>
+      <c r="D132" s="9">
+        <v>48768</v>
       </c>
       <c r="E132" s="7">
         <v>12</v>
@@ -5529,14 +5554,10 @@
         <v>1</v>
       </c>
       <c r="G132" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H132" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I132" s="7">
-        <v>1.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
     </row>
     <row r="133" ht="13.55" customHeight="1">
       <c r="A133" t="s" s="6">
@@ -5546,26 +5567,22 @@
         <v>211</v>
       </c>
       <c r="C133" s="7">
-        <v>28.94</v>
+        <v>21.89</v>
       </c>
       <c r="D133" s="7">
-        <v>24.88</v>
+        <v>24</v>
       </c>
       <c r="E133" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F133" s="7">
         <v>1</v>
       </c>
       <c r="G133" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H133" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I133" s="7">
-        <v>0.35</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
     </row>
     <row r="134" ht="13.55" customHeight="1">
       <c r="A134" t="s" s="6">
@@ -5575,26 +5592,22 @@
         <v>213</v>
       </c>
       <c r="C134" s="7">
-        <v>43.34</v>
-      </c>
-      <c r="D134" s="7">
-        <v>24.18</v>
+        <v>0.49</v>
+      </c>
+      <c r="D134" s="9">
+        <v>2234</v>
       </c>
       <c r="E134" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F134" s="7">
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H134" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I134" s="7">
-        <v>0.58</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
     </row>
     <row r="135" ht="13.55" customHeight="1">
       <c r="A135" t="s" s="6">
@@ -5604,25 +5617,25 @@
         <v>215</v>
       </c>
       <c r="C135" s="7">
-        <v>19.21</v>
+        <v>167.31</v>
       </c>
       <c r="D135" s="7">
-        <v>5</v>
+        <v>485</v>
       </c>
       <c r="E135" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F135" s="7">
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>0.3</v>
+        <v>2.42</v>
       </c>
       <c r="H135" s="7">
-        <v>0.33</v>
+        <v>2.79</v>
       </c>
       <c r="I135" s="7">
-        <v>0.03</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="136" ht="13.55" customHeight="1">
@@ -5633,25 +5646,25 @@
         <v>217</v>
       </c>
       <c r="C136" s="7">
-        <v>195.6</v>
+        <v>43.47</v>
       </c>
       <c r="D136" s="7">
-        <v>17</v>
+        <v>118.61</v>
       </c>
       <c r="E136" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F136" s="7">
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.11</v>
+        <v>0.55</v>
       </c>
       <c r="H136" s="7">
-        <v>3.27</v>
+        <v>0.73</v>
       </c>
       <c r="I136" s="7">
-        <v>3.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="137" ht="13.55" customHeight="1">
@@ -5662,25 +5675,25 @@
         <v>219</v>
       </c>
       <c r="C137" s="7">
-        <v>31.58</v>
+        <v>99.67</v>
       </c>
       <c r="D137" s="7">
-        <v>145.52</v>
+        <v>118.61</v>
       </c>
       <c r="E137" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F137" s="7">
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>6.83</v>
+        <v>0.55</v>
       </c>
       <c r="H137" s="7">
-        <v>0.53</v>
+        <v>1.67</v>
       </c>
       <c r="I137" s="7">
-        <v>-6.3</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="138" ht="13.55" customHeight="1">
@@ -5691,24 +5704,285 @@
         <v>221</v>
       </c>
       <c r="C138" s="7">
-        <v>34.53</v>
+        <v>34.58</v>
       </c>
       <c r="D138" s="7">
-        <v>12.17</v>
+        <v>104.31</v>
       </c>
       <c r="E138" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F138" s="7">
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>0.86</v>
+        <v>0.48</v>
       </c>
       <c r="H138" s="7">
         <v>0.58</v>
       </c>
       <c r="I138" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139" ht="13.55" customHeight="1">
+      <c r="A139" t="s" s="6">
+        <v>222</v>
+      </c>
+      <c r="B139" t="s" s="6">
+        <v>223</v>
+      </c>
+      <c r="C139" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D139" s="7">
+        <v>110</v>
+      </c>
+      <c r="E139" s="7">
+        <v>12</v>
+      </c>
+      <c r="F139" s="7">
+        <v>1</v>
+      </c>
+      <c r="G139" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H139" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I139" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="140" ht="13.55" customHeight="1">
+      <c r="A140" t="s" s="6">
+        <v>224</v>
+      </c>
+      <c r="B140" t="s" s="6">
+        <v>225</v>
+      </c>
+      <c r="C140" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D140" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E140" s="7">
+        <v>12</v>
+      </c>
+      <c r="F140" s="7">
+        <v>1</v>
+      </c>
+      <c r="G140" s="7">
+        <v>3</v>
+      </c>
+      <c r="H140" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I140" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="141" ht="13.55" customHeight="1">
+      <c r="A141" t="s" s="6">
+        <v>226</v>
+      </c>
+      <c r="B141" t="s" s="6">
+        <v>227</v>
+      </c>
+      <c r="C141" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D141" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E141" s="7">
+        <v>12</v>
+      </c>
+      <c r="F141" s="7">
+        <v>1</v>
+      </c>
+      <c r="G141" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H141" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I141" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="142" ht="13.55" customHeight="1">
+      <c r="A142" t="s" s="6">
+        <v>228</v>
+      </c>
+      <c r="B142" t="s" s="6">
+        <v>229</v>
+      </c>
+      <c r="C142" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D142" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E142" s="7">
+        <v>20</v>
+      </c>
+      <c r="F142" s="7">
+        <v>1</v>
+      </c>
+      <c r="G142" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I142" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="143" ht="13.55" customHeight="1">
+      <c r="A143" t="s" s="6">
+        <v>230</v>
+      </c>
+      <c r="B143" t="s" s="6">
+        <v>231</v>
+      </c>
+      <c r="C143" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D143" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E143" s="7">
+        <v>25</v>
+      </c>
+      <c r="F143" s="7">
+        <v>1</v>
+      </c>
+      <c r="G143" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H143" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="144" ht="13.55" customHeight="1">
+      <c r="A144" t="s" s="6">
+        <v>232</v>
+      </c>
+      <c r="B144" t="s" s="6">
+        <v>233</v>
+      </c>
+      <c r="C144" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D144" s="7">
+        <v>5</v>
+      </c>
+      <c r="E144" s="7">
+        <v>32</v>
+      </c>
+      <c r="F144" s="7">
+        <v>1</v>
+      </c>
+      <c r="G144" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H144" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I144" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="145" ht="13.55" customHeight="1">
+      <c r="A145" t="s" s="6">
+        <v>234</v>
+      </c>
+      <c r="B145" t="s" s="6">
+        <v>235</v>
+      </c>
+      <c r="C145" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D145" s="7">
+        <v>17</v>
+      </c>
+      <c r="E145" s="7">
+        <v>32</v>
+      </c>
+      <c r="F145" s="7">
+        <v>1</v>
+      </c>
+      <c r="G145" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H145" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I145" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="146" ht="13.55" customHeight="1">
+      <c r="A146" t="s" s="6">
+        <v>236</v>
+      </c>
+      <c r="B146" t="s" s="6">
+        <v>237</v>
+      </c>
+      <c r="C146" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D146" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E146" s="7">
+        <v>10</v>
+      </c>
+      <c r="F146" s="7">
+        <v>1</v>
+      </c>
+      <c r="G146" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H146" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I146" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="147" ht="13.55" customHeight="1">
+      <c r="A147" t="s" s="6">
+        <v>238</v>
+      </c>
+      <c r="B147" t="s" s="6">
+        <v>239</v>
+      </c>
+      <c r="C147" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D147" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E147" s="7">
+        <v>25</v>
+      </c>
+      <c r="F147" s="7">
+        <v>1</v>
+      </c>
+      <c r="G147" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H147" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I147" s="7">
         <v>-0.28</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -145,12 +145,6 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
-    <t>2024-07-01 15:37:17</t>
-  </si>
-  <si>
-    <t>CORTE ESPECIAL.slp</t>
-  </si>
-  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -365,6 +359,12 @@
   </si>
   <si>
     <t>L_01303.NC</t>
+  </si>
+  <si>
+    <t>2024-07-22 09:43:17</t>
+  </si>
+  <si>
+    <t>L_01308.NC</t>
   </si>
   <si>
     <t>2024-07-04 10:57:35</t>
@@ -836,7 +836,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -862,9 +862,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1983,8 +1980,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.8359" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.8281" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5938" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -3414,14 +3411,26 @@
         <v>45</v>
       </c>
       <c r="C50" s="7">
-        <v>2.28</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+        <v>6.17</v>
+      </c>
+      <c r="D50" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="E50" s="7">
+        <v>3</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I50" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="6">
@@ -3431,10 +3440,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7">
-        <v>6.17</v>
+        <v>6.65</v>
       </c>
       <c r="D51" s="7">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="E51" s="7">
         <v>3</v>
@@ -3443,10 +3452,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H51" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I51" s="7">
         <v>-0.02</v>
@@ -3460,10 +3469,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="7">
-        <v>6.65</v>
+        <v>7.18</v>
       </c>
       <c r="D52" s="7">
-        <v>24.8</v>
+        <v>26.7</v>
       </c>
       <c r="E52" s="7">
         <v>3</v>
@@ -3489,10 +3498,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="7">
-        <v>7.18</v>
+        <v>21.94</v>
       </c>
       <c r="D53" s="7">
-        <v>26.7</v>
+        <v>9</v>
       </c>
       <c r="E53" s="7">
         <v>3</v>
@@ -3501,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="H53" s="7">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="I53" s="7">
-        <v>-0.02</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
@@ -3518,25 +3527,25 @@
         <v>53</v>
       </c>
       <c r="C54" s="7">
-        <v>21.94</v>
+        <v>30.37</v>
       </c>
       <c r="D54" s="7">
-        <v>9</v>
+        <v>116.8</v>
       </c>
       <c r="E54" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
       <c r="H54" s="7">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="I54" s="7">
-        <v>0.32</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="55" ht="13.55" customHeight="1">
@@ -3547,10 +3556,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="7">
-        <v>30.37</v>
+        <v>19.9</v>
       </c>
       <c r="D55" s="7">
-        <v>116.8</v>
+        <v>69.682</v>
       </c>
       <c r="E55" s="7">
         <v>10</v>
@@ -3559,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H55" s="7">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="I55" s="7">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="56" ht="13.55" customHeight="1">
@@ -3576,10 +3585,10 @@
         <v>57</v>
       </c>
       <c r="C56" s="7">
-        <v>19.9</v>
+        <v>15.77</v>
       </c>
       <c r="D56" s="7">
-        <v>69.682</v>
+        <v>27.16</v>
       </c>
       <c r="E56" s="7">
         <v>10</v>
@@ -3588,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H56" s="7">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I56" s="7">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="57" ht="13.55" customHeight="1">
@@ -3605,25 +3614,25 @@
         <v>59</v>
       </c>
       <c r="C57" s="7">
-        <v>15.77</v>
+        <v>11.26</v>
       </c>
       <c r="D57" s="7">
-        <v>27.16</v>
+        <v>50.5</v>
       </c>
       <c r="E57" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="H57" s="7">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I57" s="7">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="58" ht="13.55" customHeight="1">
@@ -3634,25 +3643,25 @@
         <v>61</v>
       </c>
       <c r="C58" s="7">
-        <v>11.26</v>
+        <v>3.76</v>
       </c>
       <c r="D58" s="7">
-        <v>50.5</v>
+        <v>19.7</v>
       </c>
       <c r="E58" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="H58" s="7">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I58" s="7">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="59" ht="13.55" customHeight="1">
@@ -3663,25 +3672,25 @@
         <v>63</v>
       </c>
       <c r="C59" s="7">
-        <v>3.76</v>
+        <v>25.79</v>
       </c>
       <c r="D59" s="7">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="E59" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H59" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I59" s="7">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="60" ht="13.55" customHeight="1">
@@ -3692,25 +3701,25 @@
         <v>65</v>
       </c>
       <c r="C60" s="7">
-        <v>25.79</v>
+        <v>3.77</v>
       </c>
       <c r="D60" s="7">
-        <v>18.9</v>
+        <v>12.5</v>
       </c>
       <c r="E60" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="H60" s="7">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I60" s="7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1">
@@ -3721,22 +3730,22 @@
         <v>67</v>
       </c>
       <c r="C61" s="7">
-        <v>3.77</v>
+        <v>2.98</v>
       </c>
       <c r="D61" s="7">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="E61" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H61" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I61" s="7">
         <v>0.06</v>
@@ -3750,26 +3759,24 @@
         <v>69</v>
       </c>
       <c r="C62" s="7">
-        <v>2.98</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D62" s="7">
-        <v>13.7</v>
+        <v>2</v>
       </c>
       <c r="E62" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H62" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0.06</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="6">
@@ -3779,13 +3786,13 @@
         <v>71</v>
       </c>
       <c r="C63" s="7">
-        <v>0.5600000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="D63" s="7">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E63" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F63" s="7">
         <v>1</v>
@@ -3794,9 +3801,11 @@
         <v>0.01</v>
       </c>
       <c r="H63" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I63" s="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="I63" s="7">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -3806,13 +3815,13 @@
         <v>73</v>
       </c>
       <c r="C64" s="7">
-        <v>3.48</v>
+        <v>4.16</v>
       </c>
       <c r="D64" s="7">
-        <v>1.2</v>
+        <v>0.33</v>
       </c>
       <c r="E64" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F64" s="7">
         <v>1</v>
@@ -3821,10 +3830,10 @@
         <v>0.01</v>
       </c>
       <c r="H64" s="7">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64" s="7">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="65" ht="13.55" customHeight="1">
@@ -3835,13 +3844,13 @@
         <v>75</v>
       </c>
       <c r="C65" s="7">
-        <v>4.16</v>
+        <v>0.39</v>
       </c>
       <c r="D65" s="7">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="E65" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
@@ -3850,10 +3859,10 @@
         <v>0.01</v>
       </c>
       <c r="H65" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I65" s="7">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" ht="13.55" customHeight="1">
@@ -3864,13 +3873,13 @@
         <v>77</v>
       </c>
       <c r="C66" s="7">
-        <v>0.39</v>
+        <v>1.23</v>
       </c>
       <c r="D66" s="7">
-        <v>3</v>
+        <v>2.428</v>
       </c>
       <c r="E66" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" s="7">
         <v>1</v>
@@ -3879,10 +3888,10 @@
         <v>0.01</v>
       </c>
       <c r="H66" s="7">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="67" ht="13.55" customHeight="1">
@@ -3893,26 +3902,24 @@
         <v>79</v>
       </c>
       <c r="C67" s="7">
-        <v>1.23</v>
+        <v>3.13</v>
       </c>
       <c r="D67" s="7">
-        <v>2.428</v>
+        <v>7.3</v>
       </c>
       <c r="E67" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H67" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I67" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" t="s" s="6">
@@ -3922,22 +3929,22 @@
         <v>81</v>
       </c>
       <c r="C68" s="7">
-        <v>3.13</v>
+        <v>0.35</v>
       </c>
       <c r="D68" s="7">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="E68" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F68" s="7">
         <v>1</v>
       </c>
       <c r="G68" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H68" s="7">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I68" s="8"/>
     </row>
@@ -3949,24 +3956,26 @@
         <v>83</v>
       </c>
       <c r="C69" s="7">
-        <v>0.35</v>
+        <v>5.83</v>
       </c>
       <c r="D69" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
       <c r="G69" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I69" s="7">
         <v>0.01</v>
       </c>
-      <c r="H69" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I69" s="8"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="6">
@@ -3976,25 +3985,25 @@
         <v>85</v>
       </c>
       <c r="C70" s="7">
-        <v>5.83</v>
+        <v>7.43</v>
       </c>
       <c r="D70" s="7">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="E70" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H70" s="7">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I70" s="7">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
@@ -4005,25 +4014,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="7">
-        <v>7.43</v>
+        <v>10.63</v>
       </c>
       <c r="D71" s="7">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="E71" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="7">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H71" s="7">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I71" s="7">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="72" ht="13.55" customHeight="1">
@@ -4034,10 +4043,10 @@
         <v>89</v>
       </c>
       <c r="C72" s="7">
-        <v>10.63</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D72" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" s="7">
         <v>25</v>
@@ -4046,13 +4055,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="H72" s="7">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I72" s="7">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
@@ -4063,26 +4072,22 @@
         <v>91</v>
       </c>
       <c r="C73" s="7">
-        <v>8.880000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="D73" s="7">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="E73" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I73" s="7">
-        <v>-0.14</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="6">
@@ -4092,19 +4097,19 @@
         <v>93</v>
       </c>
       <c r="C74" s="7">
-        <v>2.71</v>
+        <v>144.21</v>
       </c>
       <c r="D74" s="7">
-        <v>13.7</v>
+        <v>90.3</v>
       </c>
       <c r="E74" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F74" s="7">
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>0.28</v>
+        <v>3</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4117,19 +4122,19 @@
         <v>95</v>
       </c>
       <c r="C75" s="7">
-        <v>144.21</v>
+        <v>12.15</v>
       </c>
       <c r="D75" s="7">
-        <v>90.3</v>
+        <v>77</v>
       </c>
       <c r="E75" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -4142,10 +4147,10 @@
         <v>97</v>
       </c>
       <c r="C76" s="7">
-        <v>12.15</v>
+        <v>4.45</v>
       </c>
       <c r="D76" s="7">
-        <v>77</v>
+        <v>17.8</v>
       </c>
       <c r="E76" s="7">
         <v>8</v>
@@ -4154,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4167,13 +4172,13 @@
         <v>99</v>
       </c>
       <c r="C77" s="7">
-        <v>4.45</v>
+        <v>3.12</v>
       </c>
       <c r="D77" s="7">
-        <v>17.8</v>
+        <v>11.7</v>
       </c>
       <c r="E77" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F77" s="7">
         <v>1</v>
@@ -4192,19 +4197,19 @@
         <v>101</v>
       </c>
       <c r="C78" s="7">
-        <v>3.12</v>
+        <v>4.28</v>
       </c>
       <c r="D78" s="7">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="E78" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F78" s="7">
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -4217,10 +4222,10 @@
         <v>103</v>
       </c>
       <c r="C79" s="7">
-        <v>4.28</v>
+        <v>3.26</v>
       </c>
       <c r="D79" s="7">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4242,13 +4247,13 @@
         <v>105</v>
       </c>
       <c r="C80" s="7">
-        <v>3.26</v>
+        <v>15.61</v>
       </c>
       <c r="D80" s="7">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="E80" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F80" s="7">
         <v>1</v>
@@ -4267,19 +4272,19 @@
         <v>107</v>
       </c>
       <c r="C81" s="7">
-        <v>15.61</v>
+        <v>9.58</v>
       </c>
       <c r="D81" s="7">
-        <v>14.3</v>
+        <v>40.2</v>
       </c>
       <c r="E81" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F81" s="7">
         <v>1</v>
       </c>
       <c r="G81" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -4292,19 +4297,19 @@
         <v>109</v>
       </c>
       <c r="C82" s="7">
-        <v>9.58</v>
+        <v>12.55</v>
       </c>
       <c r="D82" s="7">
-        <v>40.2</v>
+        <v>55</v>
       </c>
       <c r="E82" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F82" s="7">
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -4317,10 +4322,10 @@
         <v>111</v>
       </c>
       <c r="C83" s="7">
-        <v>12.55</v>
+        <v>19.1</v>
       </c>
       <c r="D83" s="7">
-        <v>55</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E83" s="7">
         <v>4</v>
@@ -4342,19 +4347,19 @@
         <v>113</v>
       </c>
       <c r="C84" s="7">
-        <v>19.1</v>
+        <v>24.33</v>
       </c>
       <c r="D84" s="7">
-        <v>90.90000000000001</v>
+        <v>211.504</v>
       </c>
       <c r="E84" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F84" s="7">
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -4367,19 +4372,19 @@
         <v>115</v>
       </c>
       <c r="C85" s="7">
-        <v>24.33</v>
+        <v>25.6</v>
       </c>
       <c r="D85" s="7">
-        <v>211.504</v>
+        <v>24.5</v>
       </c>
       <c r="E85" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4392,10 +4397,10 @@
         <v>117</v>
       </c>
       <c r="C86" s="7">
-        <v>25.6</v>
+        <v>156.12</v>
       </c>
       <c r="D86" s="7">
-        <v>24.5</v>
+        <v>242.709</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -4404,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -5319,8 +5324,8 @@
       <c r="C123" s="7">
         <v>30.09</v>
       </c>
-      <c r="D123" s="9">
-        <v>84102</v>
+      <c r="D123" s="7">
+        <v>84.102</v>
       </c>
       <c r="E123" s="7">
         <v>12</v>
@@ -5344,8 +5349,8 @@
       <c r="C124" s="7">
         <v>42.54</v>
       </c>
-      <c r="D124" s="9">
-        <v>121870</v>
+      <c r="D124" s="7">
+        <v>122</v>
       </c>
       <c r="E124" s="7">
         <v>12</v>
@@ -5369,8 +5374,8 @@
       <c r="C125" s="7">
         <v>42.62</v>
       </c>
-      <c r="D125" s="9">
-        <v>121879</v>
+      <c r="D125" s="7">
+        <v>122</v>
       </c>
       <c r="E125" s="7">
         <v>12</v>
@@ -5519,8 +5524,8 @@
       <c r="C131" s="7">
         <v>11.85</v>
       </c>
-      <c r="D131" s="9">
-        <v>34459</v>
+      <c r="D131" s="7">
+        <v>34.5</v>
       </c>
       <c r="E131" s="7">
         <v>12</v>
@@ -5544,8 +5549,8 @@
       <c r="C132" s="7">
         <v>17.89</v>
       </c>
-      <c r="D132" s="9">
-        <v>48768</v>
+      <c r="D132" s="7">
+        <v>48.7</v>
       </c>
       <c r="E132" s="7">
         <v>12</v>
@@ -5594,8 +5599,8 @@
       <c r="C134" s="7">
         <v>0.49</v>
       </c>
-      <c r="D134" s="9">
-        <v>2234</v>
+      <c r="D134" s="7">
+        <v>2.234</v>
       </c>
       <c r="E134" s="7">
         <v>10</v>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>timestamp</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>L_01308.NC</t>
+  </si>
+  <si>
+    <t>2024-07-23 17:16:47</t>
+  </si>
+  <si>
+    <t>L_01310.NC</t>
+  </si>
+  <si>
+    <t>2024-07-23 08:23:25</t>
+  </si>
+  <si>
+    <t>L_01311.NC</t>
   </si>
   <si>
     <t>2024-07-04 10:57:35</t>
@@ -1974,14 +1986,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.8281" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5938" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.2109" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -4422,19 +4434,19 @@
         <v>119</v>
       </c>
       <c r="C87" s="7">
-        <v>88.03</v>
+        <v>30.88</v>
       </c>
       <c r="D87" s="7">
-        <v>30.4</v>
+        <v>110.075</v>
       </c>
       <c r="E87" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F87" s="7">
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -4447,19 +4459,19 @@
         <v>121</v>
       </c>
       <c r="C88" s="7">
-        <v>25.66</v>
+        <v>10</v>
       </c>
       <c r="D88" s="7">
-        <v>135.2</v>
+        <v>14.012</v>
       </c>
       <c r="E88" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F88" s="7">
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -4472,10 +4484,10 @@
         <v>123</v>
       </c>
       <c r="C89" s="7">
-        <v>20.96</v>
+        <v>88.03</v>
       </c>
       <c r="D89" s="7">
-        <v>118.6</v>
+        <v>30.4</v>
       </c>
       <c r="E89" s="7">
         <v>10</v>
@@ -4484,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -4497,10 +4509,10 @@
         <v>125</v>
       </c>
       <c r="C90" s="7">
-        <v>24.99</v>
+        <v>25.66</v>
       </c>
       <c r="D90" s="7">
-        <v>135.112</v>
+        <v>135.2</v>
       </c>
       <c r="E90" s="7">
         <v>10</v>
@@ -4522,10 +4534,10 @@
         <v>127</v>
       </c>
       <c r="C91" s="7">
-        <v>25.58</v>
+        <v>20.96</v>
       </c>
       <c r="D91" s="7">
-        <v>135.1</v>
+        <v>118.6</v>
       </c>
       <c r="E91" s="7">
         <v>10</v>
@@ -4547,10 +4559,10 @@
         <v>129</v>
       </c>
       <c r="C92" s="7">
-        <v>60.31</v>
+        <v>24.99</v>
       </c>
       <c r="D92" s="7">
-        <v>313.297</v>
+        <v>135.112</v>
       </c>
       <c r="E92" s="7">
         <v>10</v>
@@ -4559,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -4572,10 +4584,10 @@
         <v>131</v>
       </c>
       <c r="C93" s="7">
-        <v>25.52</v>
+        <v>25.58</v>
       </c>
       <c r="D93" s="7">
-        <v>137</v>
+        <v>135.1</v>
       </c>
       <c r="E93" s="7">
         <v>10</v>
@@ -4584,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -4597,10 +4609,10 @@
         <v>133</v>
       </c>
       <c r="C94" s="7">
-        <v>82.26000000000001</v>
+        <v>60.31</v>
       </c>
       <c r="D94" s="7">
-        <v>474.621</v>
+        <v>313.297</v>
       </c>
       <c r="E94" s="7">
         <v>10</v>
@@ -4609,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -4622,10 +4634,10 @@
         <v>135</v>
       </c>
       <c r="C95" s="7">
-        <v>14.13</v>
+        <v>25.52</v>
       </c>
       <c r="D95" s="7">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="E95" s="7">
         <v>10</v>
@@ -4634,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -4647,10 +4659,10 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>9.57</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D96" s="7">
-        <v>25</v>
+        <v>474.621</v>
       </c>
       <c r="E96" s="7">
         <v>10</v>
@@ -4659,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -4672,10 +4684,10 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>60.44</v>
+        <v>14.13</v>
       </c>
       <c r="D97" s="7">
-        <v>81.459</v>
+        <v>34</v>
       </c>
       <c r="E97" s="7">
         <v>10</v>
@@ -4697,10 +4709,10 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>49.26</v>
+        <v>9.57</v>
       </c>
       <c r="D98" s="7">
-        <v>183.288</v>
+        <v>25</v>
       </c>
       <c r="E98" s="7">
         <v>10</v>
@@ -4709,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -4722,19 +4734,19 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>0.29</v>
+        <v>60.44</v>
       </c>
       <c r="D99" s="7">
-        <v>1.5</v>
+        <v>81.459</v>
       </c>
       <c r="E99" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F99" s="7">
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -4747,19 +4759,19 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>37.15</v>
+        <v>49.26</v>
       </c>
       <c r="D100" s="7">
-        <v>7.5</v>
+        <v>183.288</v>
       </c>
       <c r="E100" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F100" s="7">
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -4772,13 +4784,13 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>12.76</v>
+        <v>0.29</v>
       </c>
       <c r="D101" s="7">
-        <v>24.919</v>
+        <v>1.5</v>
       </c>
       <c r="E101" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
@@ -4797,19 +4809,19 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
-        <v>20.38</v>
+        <v>37.15</v>
       </c>
       <c r="D102" s="7">
-        <v>74.434</v>
+        <v>7.5</v>
       </c>
       <c r="E102" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F102" s="7">
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -4822,10 +4834,10 @@
         <v>151</v>
       </c>
       <c r="C103" s="7">
-        <v>10.35</v>
+        <v>12.76</v>
       </c>
       <c r="D103" s="7">
-        <v>35.091</v>
+        <v>24.919</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -4834,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -4847,10 +4859,10 @@
         <v>153</v>
       </c>
       <c r="C104" s="7">
-        <v>17.77</v>
+        <v>20.38</v>
       </c>
       <c r="D104" s="7">
-        <v>65.682</v>
+        <v>74.434</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -4872,10 +4884,10 @@
         <v>155</v>
       </c>
       <c r="C105" s="7">
-        <v>18.06</v>
+        <v>10.35</v>
       </c>
       <c r="D105" s="7">
-        <v>56.867</v>
+        <v>35.091</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -4884,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -4897,10 +4909,10 @@
         <v>157</v>
       </c>
       <c r="C106" s="7">
-        <v>10.45</v>
+        <v>17.77</v>
       </c>
       <c r="D106" s="7">
-        <v>35.097</v>
+        <v>65.682</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -4922,10 +4934,10 @@
         <v>159</v>
       </c>
       <c r="C107" s="7">
-        <v>20.83</v>
+        <v>18.06</v>
       </c>
       <c r="D107" s="7">
-        <v>68.786</v>
+        <v>56.867</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -4934,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -4947,10 +4959,10 @@
         <v>161</v>
       </c>
       <c r="C108" s="7">
-        <v>9.119999999999999</v>
+        <v>10.45</v>
       </c>
       <c r="D108" s="7">
-        <v>33</v>
+        <v>35.097</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -4972,10 +4984,10 @@
         <v>163</v>
       </c>
       <c r="C109" s="7">
-        <v>9.24</v>
+        <v>20.83</v>
       </c>
       <c r="D109" s="7">
-        <v>33.19</v>
+        <v>68.786</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -4984,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -4997,10 +5009,10 @@
         <v>165</v>
       </c>
       <c r="C110" s="7">
-        <v>9.18</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D110" s="7">
-        <v>33.19</v>
+        <v>33</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -5022,10 +5034,10 @@
         <v>167</v>
       </c>
       <c r="C111" s="7">
-        <v>17.9</v>
+        <v>9.24</v>
       </c>
       <c r="D111" s="7">
-        <v>60.542</v>
+        <v>33.19</v>
       </c>
       <c r="E111" s="7">
         <v>12</v>
@@ -5034,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
@@ -5047,10 +5059,10 @@
         <v>169</v>
       </c>
       <c r="C112" s="7">
-        <v>39.59</v>
+        <v>9.18</v>
       </c>
       <c r="D112" s="7">
-        <v>135.375</v>
+        <v>33.19</v>
       </c>
       <c r="E112" s="7">
         <v>12</v>
@@ -5059,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -5072,10 +5084,10 @@
         <v>171</v>
       </c>
       <c r="C113" s="7">
-        <v>21.3</v>
+        <v>17.9</v>
       </c>
       <c r="D113" s="7">
-        <v>73.223</v>
+        <v>60.542</v>
       </c>
       <c r="E113" s="7">
         <v>12</v>
@@ -5084,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
@@ -5097,10 +5109,10 @@
         <v>173</v>
       </c>
       <c r="C114" s="7">
-        <v>8.65</v>
+        <v>39.59</v>
       </c>
       <c r="D114" s="7">
-        <v>28.483</v>
+        <v>135.375</v>
       </c>
       <c r="E114" s="7">
         <v>12</v>
@@ -5109,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
@@ -5122,10 +5134,10 @@
         <v>175</v>
       </c>
       <c r="C115" s="7">
-        <v>10.25</v>
+        <v>21.3</v>
       </c>
       <c r="D115" s="7">
-        <v>36.532</v>
+        <v>73.223</v>
       </c>
       <c r="E115" s="7">
         <v>12</v>
@@ -5134,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="7">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -5147,10 +5159,10 @@
         <v>177</v>
       </c>
       <c r="C116" s="7">
-        <v>12.29</v>
+        <v>8.65</v>
       </c>
       <c r="D116" s="7">
-        <v>38.502</v>
+        <v>28.483</v>
       </c>
       <c r="E116" s="7">
         <v>12</v>
@@ -5159,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -5172,10 +5184,10 @@
         <v>179</v>
       </c>
       <c r="C117" s="7">
-        <v>13.27</v>
+        <v>10.25</v>
       </c>
       <c r="D117" s="7">
-        <v>46</v>
+        <v>36.532</v>
       </c>
       <c r="E117" s="7">
         <v>12</v>
@@ -5184,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -5197,10 +5209,10 @@
         <v>181</v>
       </c>
       <c r="C118" s="7">
-        <v>3.32</v>
+        <v>12.29</v>
       </c>
       <c r="D118" s="7">
-        <v>11.6</v>
+        <v>38.502</v>
       </c>
       <c r="E118" s="7">
         <v>12</v>
@@ -5209,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -5222,10 +5234,10 @@
         <v>183</v>
       </c>
       <c r="C119" s="7">
-        <v>9.5</v>
+        <v>13.27</v>
       </c>
       <c r="D119" s="7">
-        <v>33.457</v>
+        <v>46</v>
       </c>
       <c r="E119" s="7">
         <v>12</v>
@@ -5234,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -5247,10 +5259,10 @@
         <v>185</v>
       </c>
       <c r="C120" s="7">
-        <v>5.32</v>
+        <v>3.32</v>
       </c>
       <c r="D120" s="7">
-        <v>19.7</v>
+        <v>11.6</v>
       </c>
       <c r="E120" s="7">
         <v>12</v>
@@ -5272,10 +5284,10 @@
         <v>187</v>
       </c>
       <c r="C121" s="7">
-        <v>10.58</v>
+        <v>9.5</v>
       </c>
       <c r="D121" s="7">
-        <v>37.2</v>
+        <v>33.457</v>
       </c>
       <c r="E121" s="7">
         <v>12</v>
@@ -5297,10 +5309,10 @@
         <v>189</v>
       </c>
       <c r="C122" s="7">
-        <v>12.29</v>
+        <v>5.32</v>
       </c>
       <c r="D122" s="7">
-        <v>56.8</v>
+        <v>19.7</v>
       </c>
       <c r="E122" s="7">
         <v>12</v>
@@ -5309,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -5322,10 +5334,10 @@
         <v>191</v>
       </c>
       <c r="C123" s="7">
-        <v>30.09</v>
+        <v>10.58</v>
       </c>
       <c r="D123" s="7">
-        <v>84.102</v>
+        <v>37.2</v>
       </c>
       <c r="E123" s="7">
         <v>12</v>
@@ -5334,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5347,10 +5359,10 @@
         <v>193</v>
       </c>
       <c r="C124" s="7">
-        <v>42.54</v>
+        <v>12.29</v>
       </c>
       <c r="D124" s="7">
-        <v>122</v>
+        <v>56.8</v>
       </c>
       <c r="E124" s="7">
         <v>12</v>
@@ -5359,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -5372,10 +5384,10 @@
         <v>195</v>
       </c>
       <c r="C125" s="7">
-        <v>42.62</v>
+        <v>30.09</v>
       </c>
       <c r="D125" s="7">
-        <v>122</v>
+        <v>84.102</v>
       </c>
       <c r="E125" s="7">
         <v>12</v>
@@ -5384,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -5397,10 +5409,10 @@
         <v>197</v>
       </c>
       <c r="C126" s="7">
-        <v>32.67</v>
+        <v>42.54</v>
       </c>
       <c r="D126" s="7">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E126" s="7">
         <v>12</v>
@@ -5422,10 +5434,10 @@
         <v>199</v>
       </c>
       <c r="C127" s="7">
-        <v>69.61</v>
+        <v>42.62</v>
       </c>
       <c r="D127" s="7">
-        <v>248.201</v>
+        <v>122</v>
       </c>
       <c r="E127" s="7">
         <v>12</v>
@@ -5434,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -5447,10 +5459,10 @@
         <v>201</v>
       </c>
       <c r="C128" s="7">
-        <v>84.97</v>
+        <v>32.67</v>
       </c>
       <c r="D128" s="7">
-        <v>248.201</v>
+        <v>107</v>
       </c>
       <c r="E128" s="7">
         <v>12</v>
@@ -5459,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -5472,7 +5484,7 @@
         <v>203</v>
       </c>
       <c r="C129" s="7">
-        <v>120.91</v>
+        <v>69.61</v>
       </c>
       <c r="D129" s="7">
         <v>248.201</v>
@@ -5497,10 +5509,10 @@
         <v>205</v>
       </c>
       <c r="C130" s="7">
-        <v>130.17</v>
+        <v>84.97</v>
       </c>
       <c r="D130" s="7">
-        <v>207</v>
+        <v>248.201</v>
       </c>
       <c r="E130" s="7">
         <v>12</v>
@@ -5522,10 +5534,10 @@
         <v>207</v>
       </c>
       <c r="C131" s="7">
-        <v>11.85</v>
+        <v>120.91</v>
       </c>
       <c r="D131" s="7">
-        <v>34.5</v>
+        <v>248.201</v>
       </c>
       <c r="E131" s="7">
         <v>12</v>
@@ -5534,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>0.53</v>
+        <v>3</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -5547,10 +5559,10 @@
         <v>209</v>
       </c>
       <c r="C132" s="7">
-        <v>17.89</v>
+        <v>130.17</v>
       </c>
       <c r="D132" s="7">
-        <v>48.7</v>
+        <v>207</v>
       </c>
       <c r="E132" s="7">
         <v>12</v>
@@ -5559,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -5572,10 +5584,10 @@
         <v>211</v>
       </c>
       <c r="C133" s="7">
-        <v>21.89</v>
+        <v>11.85</v>
       </c>
       <c r="D133" s="7">
-        <v>24</v>
+        <v>34.5</v>
       </c>
       <c r="E133" s="7">
         <v>12</v>
@@ -5584,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="7">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -5597,19 +5609,19 @@
         <v>213</v>
       </c>
       <c r="C134" s="7">
-        <v>0.49</v>
+        <v>17.89</v>
       </c>
       <c r="D134" s="7">
-        <v>2.234</v>
+        <v>48.7</v>
       </c>
       <c r="E134" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F134" s="7">
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -5622,10 +5634,10 @@
         <v>215</v>
       </c>
       <c r="C135" s="7">
-        <v>167.31</v>
+        <v>21.89</v>
       </c>
       <c r="D135" s="7">
-        <v>485</v>
+        <v>24</v>
       </c>
       <c r="E135" s="7">
         <v>12</v>
@@ -5634,14 +5646,10 @@
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H135" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I135" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
     </row>
     <row r="136" ht="13.55" customHeight="1">
       <c r="A136" t="s" s="6">
@@ -5651,26 +5659,22 @@
         <v>217</v>
       </c>
       <c r="C136" s="7">
-        <v>43.47</v>
+        <v>0.49</v>
       </c>
       <c r="D136" s="7">
-        <v>118.61</v>
+        <v>2.234</v>
       </c>
       <c r="E136" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F136" s="7">
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H136" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I136" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
     </row>
     <row r="137" ht="13.55" customHeight="1">
       <c r="A137" t="s" s="6">
@@ -5680,10 +5684,10 @@
         <v>219</v>
       </c>
       <c r="C137" s="7">
-        <v>99.67</v>
+        <v>167.31</v>
       </c>
       <c r="D137" s="7">
-        <v>118.61</v>
+        <v>485</v>
       </c>
       <c r="E137" s="7">
         <v>12</v>
@@ -5692,13 +5696,13 @@
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>0.55</v>
+        <v>2.42</v>
       </c>
       <c r="H137" s="7">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="I137" s="7">
-        <v>1.12</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="138" ht="13.55" customHeight="1">
@@ -5709,10 +5713,10 @@
         <v>221</v>
       </c>
       <c r="C138" s="7">
-        <v>34.58</v>
+        <v>43.47</v>
       </c>
       <c r="D138" s="7">
-        <v>104.31</v>
+        <v>118.61</v>
       </c>
       <c r="E138" s="7">
         <v>12</v>
@@ -5721,13 +5725,13 @@
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="H138" s="7">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="I138" s="7">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="139" ht="13.55" customHeight="1">
@@ -5738,10 +5742,10 @@
         <v>223</v>
       </c>
       <c r="C139" s="7">
-        <v>45.49</v>
+        <v>99.67</v>
       </c>
       <c r="D139" s="7">
-        <v>110</v>
+        <v>118.61</v>
       </c>
       <c r="E139" s="7">
         <v>12</v>
@@ -5750,13 +5754,13 @@
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="H139" s="7">
-        <v>0.76</v>
+        <v>1.67</v>
       </c>
       <c r="I139" s="7">
-        <v>0.26</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="140" ht="13.55" customHeight="1">
@@ -5767,10 +5771,10 @@
         <v>225</v>
       </c>
       <c r="C140" s="7">
-        <v>194.66</v>
+        <v>34.58</v>
       </c>
       <c r="D140" s="7">
-        <v>561.2</v>
+        <v>104.31</v>
       </c>
       <c r="E140" s="7">
         <v>12</v>
@@ -5779,13 +5783,13 @@
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>3</v>
+        <v>0.48</v>
       </c>
       <c r="H140" s="7">
-        <v>3.25</v>
+        <v>0.58</v>
       </c>
       <c r="I140" s="7">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="141" ht="13.55" customHeight="1">
@@ -5796,10 +5800,10 @@
         <v>227</v>
       </c>
       <c r="C141" s="7">
-        <v>321.56</v>
+        <v>45.49</v>
       </c>
       <c r="D141" s="7">
-        <v>850.95</v>
+        <v>110</v>
       </c>
       <c r="E141" s="7">
         <v>12</v>
@@ -5808,13 +5812,13 @@
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>4.24</v>
+        <v>0.5</v>
       </c>
       <c r="H141" s="7">
-        <v>5.36</v>
+        <v>0.76</v>
       </c>
       <c r="I141" s="7">
-        <v>1.12</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="142" ht="13.55" customHeight="1">
@@ -5825,25 +5829,25 @@
         <v>229</v>
       </c>
       <c r="C142" s="7">
-        <v>28.94</v>
+        <v>194.66</v>
       </c>
       <c r="D142" s="7">
-        <v>24.88</v>
+        <v>561.2</v>
       </c>
       <c r="E142" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F142" s="7">
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>0.14</v>
+        <v>3</v>
       </c>
       <c r="H142" s="7">
-        <v>0.49</v>
+        <v>3.25</v>
       </c>
       <c r="I142" s="7">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" ht="13.55" customHeight="1">
@@ -5854,25 +5858,25 @@
         <v>231</v>
       </c>
       <c r="C143" s="7">
-        <v>43.34</v>
+        <v>321.56</v>
       </c>
       <c r="D143" s="7">
-        <v>24.18</v>
+        <v>850.95</v>
       </c>
       <c r="E143" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>0.15</v>
+        <v>4.24</v>
       </c>
       <c r="H143" s="7">
-        <v>0.73</v>
+        <v>5.36</v>
       </c>
       <c r="I143" s="7">
-        <v>0.58</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="144" ht="13.55" customHeight="1">
@@ -5883,25 +5887,25 @@
         <v>233</v>
       </c>
       <c r="C144" s="7">
-        <v>19.21</v>
+        <v>28.94</v>
       </c>
       <c r="D144" s="7">
-        <v>5</v>
+        <v>24.88</v>
       </c>
       <c r="E144" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
       </c>
       <c r="G144" s="7">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="H144" s="7">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I144" s="7">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="145" ht="13.55" customHeight="1">
@@ -5912,25 +5916,25 @@
         <v>235</v>
       </c>
       <c r="C145" s="7">
-        <v>195.6</v>
+        <v>43.34</v>
       </c>
       <c r="D145" s="7">
-        <v>17</v>
+        <v>24.18</v>
       </c>
       <c r="E145" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F145" s="7">
         <v>1</v>
       </c>
       <c r="G145" s="7">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="H145" s="7">
-        <v>3.27</v>
+        <v>0.73</v>
       </c>
       <c r="I145" s="7">
-        <v>3.16</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="146" ht="13.55" customHeight="1">
@@ -5941,25 +5945,25 @@
         <v>237</v>
       </c>
       <c r="C146" s="7">
-        <v>31.58</v>
+        <v>19.21</v>
       </c>
       <c r="D146" s="7">
-        <v>145.52</v>
+        <v>5</v>
       </c>
       <c r="E146" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
       </c>
       <c r="G146" s="7">
-        <v>6.83</v>
+        <v>0.3</v>
       </c>
       <c r="H146" s="7">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="I146" s="7">
-        <v>-6.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="147" ht="13.55" customHeight="1">
@@ -5970,24 +5974,82 @@
         <v>239</v>
       </c>
       <c r="C147" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D147" s="7">
+        <v>17</v>
+      </c>
+      <c r="E147" s="7">
+        <v>32</v>
+      </c>
+      <c r="F147" s="7">
+        <v>1</v>
+      </c>
+      <c r="G147" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H147" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I147" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="148" ht="13.55" customHeight="1">
+      <c r="A148" t="s" s="6">
+        <v>240</v>
+      </c>
+      <c r="B148" t="s" s="6">
+        <v>241</v>
+      </c>
+      <c r="C148" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D148" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E148" s="7">
+        <v>10</v>
+      </c>
+      <c r="F148" s="7">
+        <v>1</v>
+      </c>
+      <c r="G148" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H148" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I148" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="149" ht="13.55" customHeight="1">
+      <c r="A149" t="s" s="6">
+        <v>242</v>
+      </c>
+      <c r="B149" t="s" s="6">
+        <v>243</v>
+      </c>
+      <c r="C149" s="7">
         <v>34.53</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D149" s="7">
         <v>12.17</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E149" s="7">
         <v>25</v>
       </c>
-      <c r="F147" s="7">
-        <v>1</v>
-      </c>
-      <c r="G147" s="7">
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7">
         <v>0.86</v>
       </c>
-      <c r="H147" s="7">
+      <c r="H149" s="7">
         <v>0.58</v>
       </c>
-      <c r="I147" s="7">
+      <c r="I149" s="7">
         <v>-0.28</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>timestamp</t>
   </si>
@@ -145,6 +145,12 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
+    <t>2024-07-01 15:37:17</t>
+  </si>
+  <si>
+    <t>CORTE ESPECIAL.slp</t>
+  </si>
+  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -667,6 +673,72 @@
     <t>L_01827.NC</t>
   </si>
   <si>
+    <t>2024-07-25 12:04:58</t>
+  </si>
+  <si>
+    <t>L_01928.NC</t>
+  </si>
+  <si>
+    <t>2024-07-29 12:42:47</t>
+  </si>
+  <si>
+    <t>L_01929.NC</t>
+  </si>
+  <si>
+    <t>2024-07-29 09:24:46</t>
+  </si>
+  <si>
+    <t>L_01968.NC</t>
+  </si>
+  <si>
+    <t>2024-07-29 09:04:07</t>
+  </si>
+  <si>
+    <t>L_01969.NC</t>
+  </si>
+  <si>
+    <t>2024-07-29 08:37:54</t>
+  </si>
+  <si>
+    <t>L_01970.NC</t>
+  </si>
+  <si>
+    <t>2024-07-29 08:48:26</t>
+  </si>
+  <si>
+    <t>L_01971.NC</t>
+  </si>
+  <si>
+    <t>2024-07-25 14:00:29</t>
+  </si>
+  <si>
+    <t>L_01972.NC</t>
+  </si>
+  <si>
+    <t>2024-07-26 10:47:34</t>
+  </si>
+  <si>
+    <t>L_01974.NC</t>
+  </si>
+  <si>
+    <t>2024-07-26 14:22:11</t>
+  </si>
+  <si>
+    <t>L_02190.NC</t>
+  </si>
+  <si>
+    <t>2024-07-26 13:19:03</t>
+  </si>
+  <si>
+    <t>L_02191.NC</t>
+  </si>
+  <si>
+    <t>2024-07-29 09:47:36</t>
+  </si>
+  <si>
+    <t>L_02281.NC</t>
+  </si>
+  <si>
     <t>2024-06-12 08:57:56</t>
   </si>
   <si>
@@ -743,6 +815,12 @@
   </si>
   <si>
     <t>PV-55391556-Result1-1 25MM.lxds</t>
+  </si>
+  <si>
+    <t>2024-07-25 15:54:38</t>
+  </si>
+  <si>
+    <t>bisel de forma 02.slp</t>
   </si>
 </sst>
 </file>
@@ -858,22 +936,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1045,9 +1123,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1127,7 +1205,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1155,10 +1233,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1414,9 +1492,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1704,7 +1782,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1732,10 +1810,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1986,14 +2064,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.5625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.2109" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1719" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -3423,26 +3501,14 @@
         <v>45</v>
       </c>
       <c r="C50" s="7">
-        <v>6.17</v>
-      </c>
-      <c r="D50" s="7">
-        <v>23.8</v>
-      </c>
-      <c r="E50" s="7">
-        <v>3</v>
-      </c>
-      <c r="F50" s="7">
-        <v>1</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="I50" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>2.28</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="6">
@@ -3452,10 +3518,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="D51" s="7">
-        <v>24.8</v>
+        <v>23.8</v>
       </c>
       <c r="E51" s="7">
         <v>3</v>
@@ -3464,10 +3530,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H51" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I51" s="7">
         <v>-0.02</v>
@@ -3481,10 +3547,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="7">
-        <v>7.18</v>
+        <v>6.65</v>
       </c>
       <c r="D52" s="7">
-        <v>26.7</v>
+        <v>24.8</v>
       </c>
       <c r="E52" s="7">
         <v>3</v>
@@ -3510,10 +3576,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="7">
-        <v>21.94</v>
+        <v>7.18</v>
       </c>
       <c r="D53" s="7">
-        <v>9</v>
+        <v>26.7</v>
       </c>
       <c r="E53" s="7">
         <v>3</v>
@@ -3522,13 +3588,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="H53" s="7">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="I53" s="7">
-        <v>0.32</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
@@ -3539,25 +3605,25 @@
         <v>53</v>
       </c>
       <c r="C54" s="7">
-        <v>30.37</v>
+        <v>21.94</v>
       </c>
       <c r="D54" s="7">
-        <v>116.8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="H54" s="7">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="I54" s="7">
-        <v>0.99</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="55" ht="13.55" customHeight="1">
@@ -3568,10 +3634,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="7">
-        <v>19.9</v>
+        <v>30.37</v>
       </c>
       <c r="D55" s="7">
-        <v>69.682</v>
+        <v>116.8</v>
       </c>
       <c r="E55" s="7">
         <v>10</v>
@@ -3580,13 +3646,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" s="7">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="I55" s="7">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="56" ht="13.55" customHeight="1">
@@ -3597,10 +3663,10 @@
         <v>57</v>
       </c>
       <c r="C56" s="7">
-        <v>15.77</v>
+        <v>19.9</v>
       </c>
       <c r="D56" s="7">
-        <v>27.16</v>
+        <v>69.682</v>
       </c>
       <c r="E56" s="7">
         <v>10</v>
@@ -3609,13 +3675,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H56" s="7">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I56" s="7">
-        <v>0.24</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="57" ht="13.55" customHeight="1">
@@ -3626,25 +3692,25 @@
         <v>59</v>
       </c>
       <c r="C57" s="7">
-        <v>11.26</v>
+        <v>15.77</v>
       </c>
       <c r="D57" s="7">
-        <v>50.5</v>
+        <v>27.16</v>
       </c>
       <c r="E57" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="H57" s="7">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I57" s="7">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="58" ht="13.55" customHeight="1">
@@ -3655,25 +3721,25 @@
         <v>61</v>
       </c>
       <c r="C58" s="7">
-        <v>3.76</v>
+        <v>11.26</v>
       </c>
       <c r="D58" s="7">
-        <v>19.7</v>
+        <v>50.5</v>
       </c>
       <c r="E58" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.13</v>
+        <v>0.46</v>
       </c>
       <c r="H58" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I58" s="7">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="59" ht="13.55" customHeight="1">
@@ -3684,25 +3750,25 @@
         <v>63</v>
       </c>
       <c r="C59" s="7">
-        <v>25.79</v>
+        <v>3.76</v>
       </c>
       <c r="D59" s="7">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E59" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="H59" s="7">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" s="7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="60" ht="13.55" customHeight="1">
@@ -3713,25 +3779,25 @@
         <v>65</v>
       </c>
       <c r="C60" s="7">
-        <v>3.77</v>
+        <v>25.79</v>
       </c>
       <c r="D60" s="7">
-        <v>12.5</v>
+        <v>18.9</v>
       </c>
       <c r="E60" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H60" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I60" s="7">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1">
@@ -3742,22 +3808,22 @@
         <v>67</v>
       </c>
       <c r="C61" s="7">
-        <v>2.98</v>
+        <v>3.77</v>
       </c>
       <c r="D61" s="7">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E61" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H61" s="7">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I61" s="7">
         <v>0.06</v>
@@ -3771,24 +3837,26 @@
         <v>69</v>
       </c>
       <c r="C62" s="7">
-        <v>0.5600000000000001</v>
+        <v>2.98</v>
       </c>
       <c r="D62" s="7">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="E62" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H62" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I62" s="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="6">
@@ -3798,13 +3866,13 @@
         <v>71</v>
       </c>
       <c r="C63" s="7">
-        <v>3.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D63" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E63" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F63" s="7">
         <v>1</v>
@@ -3813,11 +3881,9 @@
         <v>0.01</v>
       </c>
       <c r="H63" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I63" s="7">
-        <v>-0.05</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -3827,13 +3893,13 @@
         <v>73</v>
       </c>
       <c r="C64" s="7">
-        <v>4.16</v>
+        <v>3.48</v>
       </c>
       <c r="D64" s="7">
-        <v>0.33</v>
+        <v>1.2</v>
       </c>
       <c r="E64" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F64" s="7">
         <v>1</v>
@@ -3842,10 +3908,10 @@
         <v>0.01</v>
       </c>
       <c r="H64" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I64" s="7">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="65" ht="13.55" customHeight="1">
@@ -3856,13 +3922,13 @@
         <v>75</v>
       </c>
       <c r="C65" s="7">
-        <v>0.39</v>
+        <v>4.16</v>
       </c>
       <c r="D65" s="7">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="E65" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
@@ -3871,10 +3937,10 @@
         <v>0.01</v>
       </c>
       <c r="H65" s="7">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="66" ht="13.55" customHeight="1">
@@ -3885,13 +3951,13 @@
         <v>77</v>
       </c>
       <c r="C66" s="7">
-        <v>1.23</v>
+        <v>0.39</v>
       </c>
       <c r="D66" s="7">
-        <v>2.428</v>
+        <v>3</v>
       </c>
       <c r="E66" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F66" s="7">
         <v>1</v>
@@ -3900,10 +3966,10 @@
         <v>0.01</v>
       </c>
       <c r="H66" s="7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I66" s="7">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="13.55" customHeight="1">
@@ -3914,24 +3980,26 @@
         <v>79</v>
       </c>
       <c r="C67" s="7">
-        <v>3.13</v>
+        <v>1.23</v>
       </c>
       <c r="D67" s="7">
-        <v>7.3</v>
+        <v>2.428</v>
       </c>
       <c r="E67" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H67" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I67" s="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="I67" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" t="s" s="6">
@@ -3941,22 +4009,22 @@
         <v>81</v>
       </c>
       <c r="C68" s="7">
-        <v>0.35</v>
+        <v>3.13</v>
       </c>
       <c r="D68" s="7">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="E68" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F68" s="7">
         <v>1</v>
       </c>
       <c r="G68" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H68" s="7">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I68" s="8"/>
     </row>
@@ -3968,26 +4036,24 @@
         <v>83</v>
       </c>
       <c r="C69" s="7">
-        <v>5.83</v>
+        <v>0.35</v>
       </c>
       <c r="D69" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H69" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I69" s="7">
         <v>0.01</v>
       </c>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="6">
@@ -3997,25 +4063,25 @@
         <v>85</v>
       </c>
       <c r="C70" s="7">
-        <v>7.43</v>
+        <v>5.83</v>
       </c>
       <c r="D70" s="7">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="E70" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H70" s="7">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I70" s="7">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
@@ -4026,25 +4092,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="7">
-        <v>10.63</v>
+        <v>7.43</v>
       </c>
       <c r="D71" s="7">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="E71" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H71" s="7">
         <v>0.13</v>
       </c>
-      <c r="H71" s="7">
-        <v>0.18</v>
-      </c>
       <c r="I71" s="7">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="72" ht="13.55" customHeight="1">
@@ -4055,10 +4121,10 @@
         <v>89</v>
       </c>
       <c r="C72" s="7">
-        <v>8.880000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="D72" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72" s="7">
         <v>25</v>
@@ -4067,13 +4133,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H72" s="7">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I72" s="7">
-        <v>-0.14</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
@@ -4084,22 +4150,26 @@
         <v>91</v>
       </c>
       <c r="C73" s="7">
-        <v>2.71</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D73" s="7">
-        <v>13.7</v>
+        <v>2</v>
       </c>
       <c r="E73" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I73" s="7">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="6">
@@ -4109,19 +4179,19 @@
         <v>93</v>
       </c>
       <c r="C74" s="7">
-        <v>144.21</v>
+        <v>2.71</v>
       </c>
       <c r="D74" s="7">
-        <v>90.3</v>
+        <v>13.7</v>
       </c>
       <c r="E74" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F74" s="7">
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>3</v>
+        <v>0.28</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4134,19 +4204,19 @@
         <v>95</v>
       </c>
       <c r="C75" s="7">
-        <v>12.15</v>
+        <v>144.21</v>
       </c>
       <c r="D75" s="7">
-        <v>77</v>
+        <v>90.3</v>
       </c>
       <c r="E75" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -4159,10 +4229,10 @@
         <v>97</v>
       </c>
       <c r="C76" s="7">
-        <v>4.45</v>
+        <v>12.15</v>
       </c>
       <c r="D76" s="7">
-        <v>17.8</v>
+        <v>77</v>
       </c>
       <c r="E76" s="7">
         <v>8</v>
@@ -4171,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4184,13 +4254,13 @@
         <v>99</v>
       </c>
       <c r="C77" s="7">
-        <v>3.12</v>
+        <v>4.45</v>
       </c>
       <c r="D77" s="7">
-        <v>11.7</v>
+        <v>17.8</v>
       </c>
       <c r="E77" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F77" s="7">
         <v>1</v>
@@ -4209,19 +4279,19 @@
         <v>101</v>
       </c>
       <c r="C78" s="7">
-        <v>4.28</v>
+        <v>3.12</v>
       </c>
       <c r="D78" s="7">
-        <v>13.5</v>
+        <v>11.7</v>
       </c>
       <c r="E78" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F78" s="7">
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -4234,10 +4304,10 @@
         <v>103</v>
       </c>
       <c r="C79" s="7">
-        <v>3.26</v>
+        <v>4.28</v>
       </c>
       <c r="D79" s="7">
-        <v>10.4</v>
+        <v>13.5</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4259,13 +4329,13 @@
         <v>105</v>
       </c>
       <c r="C80" s="7">
-        <v>15.61</v>
+        <v>3.26</v>
       </c>
       <c r="D80" s="7">
-        <v>14.3</v>
+        <v>10.4</v>
       </c>
       <c r="E80" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F80" s="7">
         <v>1</v>
@@ -4284,19 +4354,19 @@
         <v>107</v>
       </c>
       <c r="C81" s="7">
-        <v>9.58</v>
+        <v>15.61</v>
       </c>
       <c r="D81" s="7">
-        <v>40.2</v>
+        <v>14.3</v>
       </c>
       <c r="E81" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F81" s="7">
         <v>1</v>
       </c>
       <c r="G81" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -4309,19 +4379,19 @@
         <v>109</v>
       </c>
       <c r="C82" s="7">
-        <v>12.55</v>
+        <v>9.58</v>
       </c>
       <c r="D82" s="7">
-        <v>55</v>
+        <v>40.2</v>
       </c>
       <c r="E82" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F82" s="7">
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -4334,10 +4404,10 @@
         <v>111</v>
       </c>
       <c r="C83" s="7">
-        <v>19.1</v>
+        <v>12.55</v>
       </c>
       <c r="D83" s="7">
-        <v>90.90000000000001</v>
+        <v>55</v>
       </c>
       <c r="E83" s="7">
         <v>4</v>
@@ -4359,19 +4429,19 @@
         <v>113</v>
       </c>
       <c r="C84" s="7">
-        <v>24.33</v>
+        <v>19.1</v>
       </c>
       <c r="D84" s="7">
-        <v>211.504</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E84" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F84" s="7">
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -4384,19 +4454,19 @@
         <v>115</v>
       </c>
       <c r="C85" s="7">
-        <v>25.6</v>
+        <v>24.33</v>
       </c>
       <c r="D85" s="7">
-        <v>24.5</v>
+        <v>211.504</v>
       </c>
       <c r="E85" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4409,10 +4479,10 @@
         <v>117</v>
       </c>
       <c r="C86" s="7">
-        <v>156.12</v>
+        <v>25.6</v>
       </c>
       <c r="D86" s="7">
-        <v>242.709</v>
+        <v>24.5</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -4421,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -4434,10 +4504,10 @@
         <v>119</v>
       </c>
       <c r="C87" s="7">
-        <v>30.88</v>
+        <v>156.12</v>
       </c>
       <c r="D87" s="7">
-        <v>110.075</v>
+        <v>242.709</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -4446,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -4459,10 +4529,10 @@
         <v>121</v>
       </c>
       <c r="C88" s="7">
-        <v>10</v>
+        <v>30.88</v>
       </c>
       <c r="D88" s="7">
-        <v>14.012</v>
+        <v>110.075</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -4471,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -4484,19 +4554,19 @@
         <v>123</v>
       </c>
       <c r="C89" s="7">
-        <v>88.03</v>
+        <v>10</v>
       </c>
       <c r="D89" s="7">
-        <v>30.4</v>
+        <v>14.012</v>
       </c>
       <c r="E89" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F89" s="7">
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -4509,10 +4579,10 @@
         <v>125</v>
       </c>
       <c r="C90" s="7">
-        <v>25.66</v>
+        <v>88.03</v>
       </c>
       <c r="D90" s="7">
-        <v>135.2</v>
+        <v>30.4</v>
       </c>
       <c r="E90" s="7">
         <v>10</v>
@@ -4521,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -4534,10 +4604,10 @@
         <v>127</v>
       </c>
       <c r="C91" s="7">
-        <v>20.96</v>
+        <v>25.66</v>
       </c>
       <c r="D91" s="7">
-        <v>118.6</v>
+        <v>135.2</v>
       </c>
       <c r="E91" s="7">
         <v>10</v>
@@ -4559,10 +4629,10 @@
         <v>129</v>
       </c>
       <c r="C92" s="7">
-        <v>24.99</v>
+        <v>20.96</v>
       </c>
       <c r="D92" s="7">
-        <v>135.112</v>
+        <v>118.6</v>
       </c>
       <c r="E92" s="7">
         <v>10</v>
@@ -4584,10 +4654,10 @@
         <v>131</v>
       </c>
       <c r="C93" s="7">
-        <v>25.58</v>
+        <v>24.99</v>
       </c>
       <c r="D93" s="7">
-        <v>135.1</v>
+        <v>135.112</v>
       </c>
       <c r="E93" s="7">
         <v>10</v>
@@ -4609,10 +4679,10 @@
         <v>133</v>
       </c>
       <c r="C94" s="7">
-        <v>60.31</v>
+        <v>25.58</v>
       </c>
       <c r="D94" s="7">
-        <v>313.297</v>
+        <v>135.1</v>
       </c>
       <c r="E94" s="7">
         <v>10</v>
@@ -4621,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -4634,10 +4704,10 @@
         <v>135</v>
       </c>
       <c r="C95" s="7">
-        <v>25.52</v>
+        <v>60.31</v>
       </c>
       <c r="D95" s="7">
-        <v>137</v>
+        <v>313.297</v>
       </c>
       <c r="E95" s="7">
         <v>10</v>
@@ -4659,10 +4729,10 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>82.26000000000001</v>
+        <v>25.52</v>
       </c>
       <c r="D96" s="7">
-        <v>474.621</v>
+        <v>137</v>
       </c>
       <c r="E96" s="7">
         <v>10</v>
@@ -4671,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -4684,10 +4754,10 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>14.13</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D97" s="7">
-        <v>34</v>
+        <v>474.621</v>
       </c>
       <c r="E97" s="7">
         <v>10</v>
@@ -4696,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -4709,10 +4779,10 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>9.57</v>
+        <v>14.13</v>
       </c>
       <c r="D98" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E98" s="7">
         <v>10</v>
@@ -4734,10 +4804,10 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>60.44</v>
+        <v>9.57</v>
       </c>
       <c r="D99" s="7">
-        <v>81.459</v>
+        <v>25</v>
       </c>
       <c r="E99" s="7">
         <v>10</v>
@@ -4759,10 +4829,10 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>49.26</v>
+        <v>60.44</v>
       </c>
       <c r="D100" s="7">
-        <v>183.288</v>
+        <v>81.459</v>
       </c>
       <c r="E100" s="7">
         <v>10</v>
@@ -4771,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -4784,19 +4854,19 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>0.29</v>
+        <v>49.26</v>
       </c>
       <c r="D101" s="7">
-        <v>1.5</v>
+        <v>183.288</v>
       </c>
       <c r="E101" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -4809,13 +4879,13 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
-        <v>37.15</v>
+        <v>0.29</v>
       </c>
       <c r="D102" s="7">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="E102" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F102" s="7">
         <v>1</v>
@@ -4834,13 +4904,13 @@
         <v>151</v>
       </c>
       <c r="C103" s="7">
-        <v>12.76</v>
+        <v>37.15</v>
       </c>
       <c r="D103" s="7">
-        <v>24.919</v>
+        <v>7.5</v>
       </c>
       <c r="E103" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F103" s="7">
         <v>1</v>
@@ -4859,10 +4929,10 @@
         <v>153</v>
       </c>
       <c r="C104" s="7">
-        <v>20.38</v>
+        <v>12.76</v>
       </c>
       <c r="D104" s="7">
-        <v>74.434</v>
+        <v>24.919</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -4871,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -4884,10 +4954,10 @@
         <v>155</v>
       </c>
       <c r="C105" s="7">
-        <v>10.35</v>
+        <v>20.38</v>
       </c>
       <c r="D105" s="7">
-        <v>35.091</v>
+        <v>74.434</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -4909,10 +4979,10 @@
         <v>157</v>
       </c>
       <c r="C106" s="7">
-        <v>17.77</v>
+        <v>10.35</v>
       </c>
       <c r="D106" s="7">
-        <v>65.682</v>
+        <v>35.091</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -4934,10 +5004,10 @@
         <v>159</v>
       </c>
       <c r="C107" s="7">
-        <v>18.06</v>
+        <v>17.77</v>
       </c>
       <c r="D107" s="7">
-        <v>56.867</v>
+        <v>65.682</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -4946,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -4959,10 +5029,10 @@
         <v>161</v>
       </c>
       <c r="C108" s="7">
-        <v>10.45</v>
+        <v>18.06</v>
       </c>
       <c r="D108" s="7">
-        <v>35.097</v>
+        <v>56.867</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -4971,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -4984,10 +5054,10 @@
         <v>163</v>
       </c>
       <c r="C109" s="7">
-        <v>20.83</v>
+        <v>10.45</v>
       </c>
       <c r="D109" s="7">
-        <v>68.786</v>
+        <v>35.097</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -4996,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -5009,10 +5079,10 @@
         <v>165</v>
       </c>
       <c r="C110" s="7">
-        <v>9.119999999999999</v>
+        <v>20.83</v>
       </c>
       <c r="D110" s="7">
-        <v>33</v>
+        <v>68.786</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -5021,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -5034,10 +5104,10 @@
         <v>167</v>
       </c>
       <c r="C111" s="7">
-        <v>9.24</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D111" s="7">
-        <v>33.19</v>
+        <v>33</v>
       </c>
       <c r="E111" s="7">
         <v>12</v>
@@ -5059,7 +5129,7 @@
         <v>169</v>
       </c>
       <c r="C112" s="7">
-        <v>9.18</v>
+        <v>9.24</v>
       </c>
       <c r="D112" s="7">
         <v>33.19</v>
@@ -5084,10 +5154,10 @@
         <v>171</v>
       </c>
       <c r="C113" s="7">
-        <v>17.9</v>
+        <v>9.18</v>
       </c>
       <c r="D113" s="7">
-        <v>60.542</v>
+        <v>33.19</v>
       </c>
       <c r="E113" s="7">
         <v>12</v>
@@ -5096,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
@@ -5109,10 +5179,10 @@
         <v>173</v>
       </c>
       <c r="C114" s="7">
-        <v>39.59</v>
+        <v>17.9</v>
       </c>
       <c r="D114" s="7">
-        <v>135.375</v>
+        <v>60.542</v>
       </c>
       <c r="E114" s="7">
         <v>12</v>
@@ -5134,10 +5204,10 @@
         <v>175</v>
       </c>
       <c r="C115" s="7">
-        <v>21.3</v>
+        <v>39.59</v>
       </c>
       <c r="D115" s="7">
-        <v>73.223</v>
+        <v>135.375</v>
       </c>
       <c r="E115" s="7">
         <v>12</v>
@@ -5146,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -5159,10 +5229,10 @@
         <v>177</v>
       </c>
       <c r="C116" s="7">
-        <v>8.65</v>
+        <v>21.3</v>
       </c>
       <c r="D116" s="7">
-        <v>28.483</v>
+        <v>73.223</v>
       </c>
       <c r="E116" s="7">
         <v>12</v>
@@ -5171,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="7">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -5184,10 +5254,10 @@
         <v>179</v>
       </c>
       <c r="C117" s="7">
-        <v>10.25</v>
+        <v>8.65</v>
       </c>
       <c r="D117" s="7">
-        <v>36.532</v>
+        <v>28.483</v>
       </c>
       <c r="E117" s="7">
         <v>12</v>
@@ -5209,10 +5279,10 @@
         <v>181</v>
       </c>
       <c r="C118" s="7">
-        <v>12.29</v>
+        <v>10.25</v>
       </c>
       <c r="D118" s="7">
-        <v>38.502</v>
+        <v>36.532</v>
       </c>
       <c r="E118" s="7">
         <v>12</v>
@@ -5221,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -5234,10 +5304,10 @@
         <v>183</v>
       </c>
       <c r="C119" s="7">
-        <v>13.27</v>
+        <v>12.29</v>
       </c>
       <c r="D119" s="7">
-        <v>46</v>
+        <v>38.502</v>
       </c>
       <c r="E119" s="7">
         <v>12</v>
@@ -5246,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -5259,10 +5329,10 @@
         <v>185</v>
       </c>
       <c r="C120" s="7">
-        <v>3.32</v>
+        <v>13.27</v>
       </c>
       <c r="D120" s="7">
-        <v>11.6</v>
+        <v>46</v>
       </c>
       <c r="E120" s="7">
         <v>12</v>
@@ -5271,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -5284,10 +5354,10 @@
         <v>187</v>
       </c>
       <c r="C121" s="7">
-        <v>9.5</v>
+        <v>3.32</v>
       </c>
       <c r="D121" s="7">
-        <v>33.457</v>
+        <v>11.6</v>
       </c>
       <c r="E121" s="7">
         <v>12</v>
@@ -5296,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -5309,10 +5379,10 @@
         <v>189</v>
       </c>
       <c r="C122" s="7">
-        <v>5.32</v>
+        <v>9.5</v>
       </c>
       <c r="D122" s="7">
-        <v>19.7</v>
+        <v>33.457</v>
       </c>
       <c r="E122" s="7">
         <v>12</v>
@@ -5321,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -5334,10 +5404,10 @@
         <v>191</v>
       </c>
       <c r="C123" s="7">
-        <v>10.58</v>
+        <v>5.32</v>
       </c>
       <c r="D123" s="7">
-        <v>37.2</v>
+        <v>19.7</v>
       </c>
       <c r="E123" s="7">
         <v>12</v>
@@ -5346,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5359,10 +5429,10 @@
         <v>193</v>
       </c>
       <c r="C124" s="7">
-        <v>12.29</v>
+        <v>10.58</v>
       </c>
       <c r="D124" s="7">
-        <v>56.8</v>
+        <v>37.2</v>
       </c>
       <c r="E124" s="7">
         <v>12</v>
@@ -5371,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -5384,10 +5454,10 @@
         <v>195</v>
       </c>
       <c r="C125" s="7">
-        <v>30.09</v>
+        <v>12.29</v>
       </c>
       <c r="D125" s="7">
-        <v>84.102</v>
+        <v>56.8</v>
       </c>
       <c r="E125" s="7">
         <v>12</v>
@@ -5396,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -5409,10 +5479,10 @@
         <v>197</v>
       </c>
       <c r="C126" s="7">
-        <v>42.54</v>
+        <v>30.09</v>
       </c>
       <c r="D126" s="7">
-        <v>122</v>
+        <v>84.102</v>
       </c>
       <c r="E126" s="7">
         <v>12</v>
@@ -5434,7 +5504,7 @@
         <v>199</v>
       </c>
       <c r="C127" s="7">
-        <v>42.62</v>
+        <v>42.54</v>
       </c>
       <c r="D127" s="7">
         <v>122</v>
@@ -5446,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -5459,10 +5529,10 @@
         <v>201</v>
       </c>
       <c r="C128" s="7">
-        <v>32.67</v>
+        <v>42.62</v>
       </c>
       <c r="D128" s="7">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E128" s="7">
         <v>12</v>
@@ -5471,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -5484,10 +5554,10 @@
         <v>203</v>
       </c>
       <c r="C129" s="7">
-        <v>69.61</v>
+        <v>32.67</v>
       </c>
       <c r="D129" s="7">
-        <v>248.201</v>
+        <v>107</v>
       </c>
       <c r="E129" s="7">
         <v>12</v>
@@ -5496,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -5509,7 +5579,7 @@
         <v>205</v>
       </c>
       <c r="C130" s="7">
-        <v>84.97</v>
+        <v>69.61</v>
       </c>
       <c r="D130" s="7">
         <v>248.201</v>
@@ -5534,7 +5604,7 @@
         <v>207</v>
       </c>
       <c r="C131" s="7">
-        <v>120.91</v>
+        <v>84.97</v>
       </c>
       <c r="D131" s="7">
         <v>248.201</v>
@@ -5559,10 +5629,10 @@
         <v>209</v>
       </c>
       <c r="C132" s="7">
-        <v>130.17</v>
+        <v>120.91</v>
       </c>
       <c r="D132" s="7">
-        <v>207</v>
+        <v>248.201</v>
       </c>
       <c r="E132" s="7">
         <v>12</v>
@@ -5584,10 +5654,10 @@
         <v>211</v>
       </c>
       <c r="C133" s="7">
-        <v>11.85</v>
+        <v>130.17</v>
       </c>
       <c r="D133" s="7">
-        <v>34.5</v>
+        <v>207</v>
       </c>
       <c r="E133" s="7">
         <v>12</v>
@@ -5596,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="7">
-        <v>0.53</v>
+        <v>3</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -5609,10 +5679,10 @@
         <v>213</v>
       </c>
       <c r="C134" s="7">
-        <v>17.89</v>
+        <v>11.85</v>
       </c>
       <c r="D134" s="7">
-        <v>48.7</v>
+        <v>34.5</v>
       </c>
       <c r="E134" s="7">
         <v>12</v>
@@ -5621,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -5634,10 +5704,10 @@
         <v>215</v>
       </c>
       <c r="C135" s="7">
-        <v>21.89</v>
+        <v>17.89</v>
       </c>
       <c r="D135" s="7">
-        <v>24</v>
+        <v>48.7</v>
       </c>
       <c r="E135" s="7">
         <v>12</v>
@@ -5646,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -5659,19 +5729,19 @@
         <v>217</v>
       </c>
       <c r="C136" s="7">
-        <v>0.49</v>
+        <v>21.89</v>
       </c>
       <c r="D136" s="7">
-        <v>2.234</v>
+        <v>24</v>
       </c>
       <c r="E136" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F136" s="7">
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -5684,26 +5754,22 @@
         <v>219</v>
       </c>
       <c r="C137" s="7">
-        <v>167.31</v>
+        <v>0.49</v>
       </c>
       <c r="D137" s="7">
-        <v>485</v>
+        <v>2.234</v>
       </c>
       <c r="E137" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F137" s="7">
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H137" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I137" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
     </row>
     <row r="138" ht="13.55" customHeight="1">
       <c r="A138" t="s" s="6">
@@ -5713,10 +5779,10 @@
         <v>221</v>
       </c>
       <c r="C138" s="7">
-        <v>43.47</v>
+        <v>68.42</v>
       </c>
       <c r="D138" s="7">
-        <v>118.61</v>
+        <v>216.554</v>
       </c>
       <c r="E138" s="7">
         <v>12</v>
@@ -5725,14 +5791,10 @@
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H138" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I138" s="7">
-        <v>0.18</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139" ht="13.55" customHeight="1">
       <c r="A139" t="s" s="6">
@@ -5742,10 +5804,10 @@
         <v>223</v>
       </c>
       <c r="C139" s="7">
-        <v>99.67</v>
+        <v>216.38</v>
       </c>
       <c r="D139" s="7">
-        <v>118.61</v>
+        <v>450.756</v>
       </c>
       <c r="E139" s="7">
         <v>12</v>
@@ -5754,14 +5816,10 @@
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H139" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I139" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="140" ht="13.55" customHeight="1">
       <c r="A140" t="s" s="6">
@@ -5771,26 +5829,22 @@
         <v>225</v>
       </c>
       <c r="C140" s="7">
-        <v>34.58</v>
+        <v>1.38</v>
       </c>
       <c r="D140" s="7">
-        <v>104.31</v>
+        <v>5.475</v>
       </c>
       <c r="E140" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F140" s="7">
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H140" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I140" s="7">
         <v>0.1</v>
       </c>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="6">
@@ -5800,26 +5854,22 @@
         <v>227</v>
       </c>
       <c r="C141" s="7">
-        <v>45.49</v>
+        <v>1.36</v>
       </c>
       <c r="D141" s="7">
-        <v>110</v>
+        <v>5.493</v>
       </c>
       <c r="E141" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F141" s="7">
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H141" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I141" s="7">
-        <v>0.26</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
     </row>
     <row r="142" ht="13.55" customHeight="1">
       <c r="A142" t="s" s="6">
@@ -5829,26 +5879,22 @@
         <v>229</v>
       </c>
       <c r="C142" s="7">
-        <v>194.66</v>
+        <v>1.42</v>
       </c>
       <c r="D142" s="7">
-        <v>561.2</v>
+        <v>5.6</v>
       </c>
       <c r="E142" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F142" s="7">
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>3</v>
-      </c>
-      <c r="H142" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I142" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
     </row>
     <row r="143" ht="13.55" customHeight="1">
       <c r="A143" t="s" s="6">
@@ -5858,26 +5904,22 @@
         <v>231</v>
       </c>
       <c r="C143" s="7">
-        <v>321.56</v>
+        <v>0.49</v>
       </c>
       <c r="D143" s="7">
-        <v>850.95</v>
+        <v>1.7</v>
       </c>
       <c r="E143" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H143" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I143" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
     </row>
     <row r="144" ht="13.55" customHeight="1">
       <c r="A144" t="s" s="6">
@@ -5887,26 +5929,22 @@
         <v>233</v>
       </c>
       <c r="C144" s="7">
-        <v>28.94</v>
+        <v>6.32</v>
       </c>
       <c r="D144" s="7">
-        <v>24.88</v>
+        <v>32.054</v>
       </c>
       <c r="E144" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
       </c>
       <c r="G144" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H144" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I144" s="7">
-        <v>0.35</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
     </row>
     <row r="145" ht="13.55" customHeight="1">
       <c r="A145" t="s" s="6">
@@ -5916,26 +5954,22 @@
         <v>235</v>
       </c>
       <c r="C145" s="7">
-        <v>43.34</v>
+        <v>26.16</v>
       </c>
       <c r="D145" s="7">
-        <v>24.18</v>
+        <v>26.938</v>
       </c>
       <c r="E145" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F145" s="7">
         <v>1</v>
       </c>
       <c r="G145" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H145" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I145" s="7">
-        <v>0.58</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
     </row>
     <row r="146" ht="13.55" customHeight="1">
       <c r="A146" t="s" s="6">
@@ -5945,26 +5979,22 @@
         <v>237</v>
       </c>
       <c r="C146" s="7">
-        <v>19.21</v>
+        <v>20.82</v>
       </c>
       <c r="D146" s="7">
-        <v>5</v>
+        <v>45.773</v>
       </c>
       <c r="E146" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
       </c>
       <c r="G146" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H146" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I146" s="7">
-        <v>0.03</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
     </row>
     <row r="147" ht="13.55" customHeight="1">
       <c r="A147" t="s" s="6">
@@ -5974,26 +6004,22 @@
         <v>239</v>
       </c>
       <c r="C147" s="7">
-        <v>195.6</v>
+        <v>3.79</v>
       </c>
       <c r="D147" s="7">
-        <v>17</v>
+        <v>19.428</v>
       </c>
       <c r="E147" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F147" s="7">
         <v>1</v>
       </c>
       <c r="G147" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H147" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I147" s="7">
-        <v>3.16</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
     </row>
     <row r="148" ht="13.55" customHeight="1">
       <c r="A148" t="s" s="6">
@@ -6003,10 +6029,10 @@
         <v>241</v>
       </c>
       <c r="C148" s="7">
-        <v>31.58</v>
+        <v>119.41</v>
       </c>
       <c r="D148" s="7">
-        <v>145.52</v>
+        <v>550242</v>
       </c>
       <c r="E148" s="7">
         <v>10</v>
@@ -6015,14 +6041,10 @@
         <v>1</v>
       </c>
       <c r="G148" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H148" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I148" s="7">
-        <v>-6.3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
     </row>
     <row r="149" ht="13.55" customHeight="1">
       <c r="A149" t="s" s="6">
@@ -6032,26 +6054,397 @@
         <v>243</v>
       </c>
       <c r="C149" s="7">
+        <v>167.31</v>
+      </c>
+      <c r="D149" s="7">
+        <v>485</v>
+      </c>
+      <c r="E149" s="7">
+        <v>12</v>
+      </c>
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="H149" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I149" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="150" ht="13.55" customHeight="1">
+      <c r="A150" t="s" s="6">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s" s="6">
+        <v>245</v>
+      </c>
+      <c r="C150" s="7">
+        <v>43.47</v>
+      </c>
+      <c r="D150" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E150" s="7">
+        <v>12</v>
+      </c>
+      <c r="F150" s="7">
+        <v>1</v>
+      </c>
+      <c r="G150" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H150" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I150" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="151" ht="13.55" customHeight="1">
+      <c r="A151" t="s" s="6">
+        <v>246</v>
+      </c>
+      <c r="B151" t="s" s="6">
+        <v>247</v>
+      </c>
+      <c r="C151" s="7">
+        <v>99.67</v>
+      </c>
+      <c r="D151" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E151" s="7">
+        <v>12</v>
+      </c>
+      <c r="F151" s="7">
+        <v>1</v>
+      </c>
+      <c r="G151" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H151" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I151" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="152" ht="13.55" customHeight="1">
+      <c r="A152" t="s" s="6">
+        <v>248</v>
+      </c>
+      <c r="B152" t="s" s="6">
+        <v>249</v>
+      </c>
+      <c r="C152" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D152" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E152" s="7">
+        <v>12</v>
+      </c>
+      <c r="F152" s="7">
+        <v>1</v>
+      </c>
+      <c r="G152" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H152" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I152" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="153" ht="13.55" customHeight="1">
+      <c r="A153" t="s" s="6">
+        <v>250</v>
+      </c>
+      <c r="B153" t="s" s="6">
+        <v>251</v>
+      </c>
+      <c r="C153" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D153" s="7">
+        <v>110</v>
+      </c>
+      <c r="E153" s="7">
+        <v>12</v>
+      </c>
+      <c r="F153" s="7">
+        <v>1</v>
+      </c>
+      <c r="G153" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H153" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I153" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="154" ht="13.55" customHeight="1">
+      <c r="A154" t="s" s="6">
+        <v>252</v>
+      </c>
+      <c r="B154" t="s" s="6">
+        <v>253</v>
+      </c>
+      <c r="C154" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D154" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E154" s="7">
+        <v>12</v>
+      </c>
+      <c r="F154" s="7">
+        <v>1</v>
+      </c>
+      <c r="G154" s="7">
+        <v>3</v>
+      </c>
+      <c r="H154" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I154" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="155" ht="13.55" customHeight="1">
+      <c r="A155" t="s" s="6">
+        <v>254</v>
+      </c>
+      <c r="B155" t="s" s="6">
+        <v>255</v>
+      </c>
+      <c r="C155" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D155" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E155" s="7">
+        <v>12</v>
+      </c>
+      <c r="F155" s="7">
+        <v>1</v>
+      </c>
+      <c r="G155" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H155" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I155" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="156" ht="13.55" customHeight="1">
+      <c r="A156" t="s" s="6">
+        <v>256</v>
+      </c>
+      <c r="B156" t="s" s="6">
+        <v>257</v>
+      </c>
+      <c r="C156" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D156" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E156" s="7">
+        <v>20</v>
+      </c>
+      <c r="F156" s="7">
+        <v>1</v>
+      </c>
+      <c r="G156" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H156" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I156" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="157" ht="13.55" customHeight="1">
+      <c r="A157" t="s" s="6">
+        <v>258</v>
+      </c>
+      <c r="B157" t="s" s="6">
+        <v>259</v>
+      </c>
+      <c r="C157" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D157" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E157" s="7">
+        <v>25</v>
+      </c>
+      <c r="F157" s="7">
+        <v>1</v>
+      </c>
+      <c r="G157" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H157" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I157" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="158" ht="13.55" customHeight="1">
+      <c r="A158" t="s" s="6">
+        <v>260</v>
+      </c>
+      <c r="B158" t="s" s="6">
+        <v>261</v>
+      </c>
+      <c r="C158" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D158" s="7">
+        <v>5</v>
+      </c>
+      <c r="E158" s="7">
+        <v>32</v>
+      </c>
+      <c r="F158" s="7">
+        <v>1</v>
+      </c>
+      <c r="G158" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H158" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I158" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="159" ht="13.55" customHeight="1">
+      <c r="A159" t="s" s="6">
+        <v>262</v>
+      </c>
+      <c r="B159" t="s" s="6">
+        <v>263</v>
+      </c>
+      <c r="C159" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D159" s="7">
+        <v>17</v>
+      </c>
+      <c r="E159" s="7">
+        <v>32</v>
+      </c>
+      <c r="F159" s="7">
+        <v>1</v>
+      </c>
+      <c r="G159" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H159" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I159" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="160" ht="13.55" customHeight="1">
+      <c r="A160" t="s" s="6">
+        <v>264</v>
+      </c>
+      <c r="B160" t="s" s="6">
+        <v>265</v>
+      </c>
+      <c r="C160" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D160" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E160" s="7">
+        <v>10</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1</v>
+      </c>
+      <c r="G160" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H160" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I160" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="161" ht="13.55" customHeight="1">
+      <c r="A161" t="s" s="6">
+        <v>266</v>
+      </c>
+      <c r="B161" t="s" s="6">
+        <v>267</v>
+      </c>
+      <c r="C161" s="7">
         <v>34.53</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D161" s="7">
         <v>12.17</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E161" s="7">
         <v>25</v>
       </c>
-      <c r="F149" s="7">
-        <v>1</v>
-      </c>
-      <c r="G149" s="7">
+      <c r="F161" s="7">
+        <v>1</v>
+      </c>
+      <c r="G161" s="7">
         <v>0.86</v>
       </c>
-      <c r="H149" s="7">
+      <c r="H161" s="7">
         <v>0.58</v>
       </c>
-      <c r="I149" s="7">
+      <c r="I161" s="7">
         <v>-0.28</v>
       </c>
+    </row>
+    <row r="162" ht="13.55" customHeight="1">
+      <c r="A162" t="s" s="6">
+        <v>268</v>
+      </c>
+      <c r="B162" t="s" s="6">
+        <v>269</v>
+      </c>
+      <c r="C162" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="D162" s="7">
+        <v>25</v>
+      </c>
+      <c r="E162" s="7">
+        <v>12</v>
+      </c>
+      <c r="F162" s="7">
+        <v>1</v>
+      </c>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -6032,7 +6032,7 @@
         <v>119.41</v>
       </c>
       <c r="D148" s="7">
-        <v>550242</v>
+        <v>354.86</v>
       </c>
       <c r="E148" s="7">
         <v>10</v>
@@ -6433,15 +6433,9 @@
       <c r="C162" s="7">
         <v>9.35</v>
       </c>
-      <c r="D162" s="7">
-        <v>25</v>
-      </c>
-      <c r="E162" s="7">
-        <v>12</v>
-      </c>
-      <c r="F162" s="7">
-        <v>1</v>
-      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>timestamp</t>
   </si>
@@ -721,6 +721,12 @@
     <t>L_01974.NC</t>
   </si>
   <si>
+    <t>2024-07-25 16:54:14</t>
+  </si>
+  <si>
+    <t>L_02090.NC</t>
+  </si>
+  <si>
     <t>2024-07-26 14:22:11</t>
   </si>
   <si>
@@ -731,6 +737,12 @@
   </si>
   <si>
     <t>L_02191.NC</t>
+  </si>
+  <si>
+    <t>2024-07-26 09:17:40</t>
+  </si>
+  <si>
+    <t>L_02217.NC</t>
   </si>
   <si>
     <t>2024-07-29 09:47:36</t>
@@ -2064,15 +2076,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1719" style="1" customWidth="1"/>
-    <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5979,19 +5989,19 @@
         <v>237</v>
       </c>
       <c r="C146" s="7">
-        <v>20.82</v>
+        <v>5.38</v>
       </c>
       <c r="D146" s="7">
-        <v>45.773</v>
+        <v>13</v>
       </c>
       <c r="E146" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
       </c>
       <c r="G146" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -6004,10 +6014,10 @@
         <v>239</v>
       </c>
       <c r="C147" s="7">
-        <v>3.79</v>
+        <v>20.82</v>
       </c>
       <c r="D147" s="7">
-        <v>19.428</v>
+        <v>45.773</v>
       </c>
       <c r="E147" s="7">
         <v>10</v>
@@ -6016,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="7">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -6029,10 +6039,10 @@
         <v>241</v>
       </c>
       <c r="C148" s="7">
-        <v>119.41</v>
+        <v>3.79</v>
       </c>
       <c r="D148" s="7">
-        <v>354.86</v>
+        <v>19.428</v>
       </c>
       <c r="E148" s="7">
         <v>10</v>
@@ -6041,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="7">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -6054,26 +6064,22 @@
         <v>243</v>
       </c>
       <c r="C149" s="7">
-        <v>167.31</v>
+        <v>0.34</v>
       </c>
       <c r="D149" s="7">
-        <v>485</v>
+        <v>0.3</v>
       </c>
       <c r="E149" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
       </c>
       <c r="G149" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H149" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I149" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
     </row>
     <row r="150" ht="13.55" customHeight="1">
       <c r="A150" t="s" s="6">
@@ -6083,26 +6089,22 @@
         <v>245</v>
       </c>
       <c r="C150" s="7">
-        <v>43.47</v>
+        <v>119.41</v>
       </c>
       <c r="D150" s="7">
-        <v>118.61</v>
+        <v>354.86</v>
       </c>
       <c r="E150" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F150" s="7">
         <v>1</v>
       </c>
       <c r="G150" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H150" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I150" s="7">
-        <v>0.18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
     </row>
     <row r="151" ht="13.55" customHeight="1">
       <c r="A151" t="s" s="6">
@@ -6112,10 +6114,10 @@
         <v>247</v>
       </c>
       <c r="C151" s="7">
-        <v>99.67</v>
+        <v>167.31</v>
       </c>
       <c r="D151" s="7">
-        <v>118.61</v>
+        <v>485</v>
       </c>
       <c r="E151" s="7">
         <v>12</v>
@@ -6124,13 +6126,13 @@
         <v>1</v>
       </c>
       <c r="G151" s="7">
-        <v>0.55</v>
+        <v>2.42</v>
       </c>
       <c r="H151" s="7">
-        <v>1.67</v>
+        <v>2.79</v>
       </c>
       <c r="I151" s="7">
-        <v>1.12</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="152" ht="13.55" customHeight="1">
@@ -6141,10 +6143,10 @@
         <v>249</v>
       </c>
       <c r="C152" s="7">
-        <v>34.58</v>
+        <v>43.47</v>
       </c>
       <c r="D152" s="7">
-        <v>104.31</v>
+        <v>118.61</v>
       </c>
       <c r="E152" s="7">
         <v>12</v>
@@ -6153,13 +6155,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="7">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="H152" s="7">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="I152" s="7">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="153" ht="13.55" customHeight="1">
@@ -6170,10 +6172,10 @@
         <v>251</v>
       </c>
       <c r="C153" s="7">
-        <v>45.49</v>
+        <v>99.67</v>
       </c>
       <c r="D153" s="7">
-        <v>110</v>
+        <v>118.61</v>
       </c>
       <c r="E153" s="7">
         <v>12</v>
@@ -6182,13 +6184,13 @@
         <v>1</v>
       </c>
       <c r="G153" s="7">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="H153" s="7">
-        <v>0.76</v>
+        <v>1.67</v>
       </c>
       <c r="I153" s="7">
-        <v>0.26</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="154" ht="13.55" customHeight="1">
@@ -6199,10 +6201,10 @@
         <v>253</v>
       </c>
       <c r="C154" s="7">
-        <v>194.66</v>
+        <v>34.58</v>
       </c>
       <c r="D154" s="7">
-        <v>561.2</v>
+        <v>104.31</v>
       </c>
       <c r="E154" s="7">
         <v>12</v>
@@ -6211,13 +6213,13 @@
         <v>1</v>
       </c>
       <c r="G154" s="7">
-        <v>3</v>
+        <v>0.48</v>
       </c>
       <c r="H154" s="7">
-        <v>3.25</v>
+        <v>0.58</v>
       </c>
       <c r="I154" s="7">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="155" ht="13.55" customHeight="1">
@@ -6228,10 +6230,10 @@
         <v>255</v>
       </c>
       <c r="C155" s="7">
-        <v>321.56</v>
+        <v>45.49</v>
       </c>
       <c r="D155" s="7">
-        <v>850.95</v>
+        <v>110</v>
       </c>
       <c r="E155" s="7">
         <v>12</v>
@@ -6240,13 +6242,13 @@
         <v>1</v>
       </c>
       <c r="G155" s="7">
-        <v>4.24</v>
+        <v>0.5</v>
       </c>
       <c r="H155" s="7">
-        <v>5.36</v>
+        <v>0.76</v>
       </c>
       <c r="I155" s="7">
-        <v>1.12</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="156" ht="13.55" customHeight="1">
@@ -6257,25 +6259,25 @@
         <v>257</v>
       </c>
       <c r="C156" s="7">
-        <v>28.94</v>
+        <v>194.66</v>
       </c>
       <c r="D156" s="7">
-        <v>24.88</v>
+        <v>561.2</v>
       </c>
       <c r="E156" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F156" s="7">
         <v>1</v>
       </c>
       <c r="G156" s="7">
-        <v>0.14</v>
+        <v>3</v>
       </c>
       <c r="H156" s="7">
-        <v>0.49</v>
+        <v>3.25</v>
       </c>
       <c r="I156" s="7">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" ht="13.55" customHeight="1">
@@ -6286,25 +6288,25 @@
         <v>259</v>
       </c>
       <c r="C157" s="7">
-        <v>43.34</v>
+        <v>321.56</v>
       </c>
       <c r="D157" s="7">
-        <v>24.18</v>
+        <v>850.95</v>
       </c>
       <c r="E157" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F157" s="7">
         <v>1</v>
       </c>
       <c r="G157" s="7">
-        <v>0.15</v>
+        <v>4.24</v>
       </c>
       <c r="H157" s="7">
-        <v>0.73</v>
+        <v>5.36</v>
       </c>
       <c r="I157" s="7">
-        <v>0.58</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="158" ht="13.55" customHeight="1">
@@ -6315,25 +6317,25 @@
         <v>261</v>
       </c>
       <c r="C158" s="7">
-        <v>19.21</v>
+        <v>28.94</v>
       </c>
       <c r="D158" s="7">
-        <v>5</v>
+        <v>24.88</v>
       </c>
       <c r="E158" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F158" s="7">
         <v>1</v>
       </c>
       <c r="G158" s="7">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="H158" s="7">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I158" s="7">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="159" ht="13.55" customHeight="1">
@@ -6344,25 +6346,25 @@
         <v>263</v>
       </c>
       <c r="C159" s="7">
-        <v>195.6</v>
+        <v>43.34</v>
       </c>
       <c r="D159" s="7">
-        <v>17</v>
+        <v>24.18</v>
       </c>
       <c r="E159" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F159" s="7">
         <v>1</v>
       </c>
       <c r="G159" s="7">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="H159" s="7">
-        <v>3.27</v>
+        <v>0.73</v>
       </c>
       <c r="I159" s="7">
-        <v>3.16</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="160" ht="13.55" customHeight="1">
@@ -6373,25 +6375,25 @@
         <v>265</v>
       </c>
       <c r="C160" s="7">
-        <v>31.58</v>
+        <v>19.21</v>
       </c>
       <c r="D160" s="7">
-        <v>145.52</v>
+        <v>5</v>
       </c>
       <c r="E160" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F160" s="7">
         <v>1</v>
       </c>
       <c r="G160" s="7">
-        <v>6.83</v>
+        <v>0.3</v>
       </c>
       <c r="H160" s="7">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="I160" s="7">
-        <v>-6.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="161" ht="13.55" customHeight="1">
@@ -6402,25 +6404,25 @@
         <v>267</v>
       </c>
       <c r="C161" s="7">
-        <v>34.53</v>
+        <v>195.6</v>
       </c>
       <c r="D161" s="7">
-        <v>12.17</v>
+        <v>17</v>
       </c>
       <c r="E161" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F161" s="7">
         <v>1</v>
       </c>
       <c r="G161" s="7">
-        <v>0.86</v>
+        <v>0.11</v>
       </c>
       <c r="H161" s="7">
-        <v>0.58</v>
+        <v>3.27</v>
       </c>
       <c r="I161" s="7">
-        <v>-0.28</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="162" ht="13.55" customHeight="1">
@@ -6431,14 +6433,72 @@
         <v>269</v>
       </c>
       <c r="C162" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D162" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E162" s="7">
+        <v>10</v>
+      </c>
+      <c r="F162" s="7">
+        <v>1</v>
+      </c>
+      <c r="G162" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H162" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I162" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="163" ht="13.55" customHeight="1">
+      <c r="A163" t="s" s="6">
+        <v>270</v>
+      </c>
+      <c r="B163" t="s" s="6">
+        <v>271</v>
+      </c>
+      <c r="C163" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D163" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E163" s="7">
+        <v>25</v>
+      </c>
+      <c r="F163" s="7">
+        <v>1</v>
+      </c>
+      <c r="G163" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H163" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I163" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="164" ht="13.55" customHeight="1">
+      <c r="A164" t="s" s="6">
+        <v>272</v>
+      </c>
+      <c r="B164" t="s" s="6">
+        <v>273</v>
+      </c>
+      <c r="C164" s="7">
         <v>9.35</v>
       </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t>timestamp</t>
   </si>
@@ -863,6 +863,12 @@
   </si>
   <si>
     <t>PV-55391556-Result1-1 25MM.lxds</t>
+  </si>
+  <si>
+    <t>2024-07-25 15:54:38</t>
+  </si>
+  <si>
+    <t>bisel de forma 02.slp</t>
   </si>
 </sst>
 </file>
@@ -968,7 +974,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -976,9 +982,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2109,16 +2112,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.9297" style="1" customWidth="1"/>
-    <col min="3" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2109" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -2149,4897 +2152,4632 @@
       <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>37.96</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>35.7</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>6</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
         <v>0.2</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>146.86</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>420.79</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>12</v>
       </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
         <v>1.98</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>2.45</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.47</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>235.62</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>866.7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
         <v>3.3</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>3.93</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>0.63</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>330.88</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>971.88</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>12</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
         <v>3.57</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>5.52</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>1.95</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>14.42</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>67</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
         <v>1.93</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.25</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>-1.68</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3.32</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>6.7</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
         <v>0.02</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.06</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>0.04</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.92</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>3.03</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>6</v>
       </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
         <v>0.01</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>0.02</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>0.01</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1.18</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>5.59</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
         <v>0.01</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.02</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>0.01</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>158.01</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>456.43</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>12</v>
       </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
         <v>2.67</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>2.64</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>-0.03</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>209.33</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>937</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>12</v>
       </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
         <v>5.17</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>3.49</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>-1.68</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="A12" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>161.87</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>451</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>12</v>
       </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
         <v>2.48</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>2.7</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>-0.22</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>206.06</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>193.49</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>16</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
         <v>5.8</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>3.44</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>-2.36</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="A14" t="s" s="6">
         <v>33</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>273.9</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>219.37</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>16</v>
       </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
         <v>6.6</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>4.57</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>-2.03</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="A15" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>17.87</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>78.2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>3</v>
       </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
         <v>2.3</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.3</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>-2</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>17.87</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>78.2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
         <v>2.3</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>0.3</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>-2</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="A17" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>17.87</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>78.2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>3</v>
       </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
         <v>2.3</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>0.3</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>-2</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="A18" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>17.87</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>78.2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
         <v>2.3</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>0.3</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>-2</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>17.87</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>78.2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>3</v>
       </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
         <v>2.3</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.3</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>-2</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>17.87</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>78.2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
         <v>2.3</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>0.3</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>-2</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="A21" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>17.87</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>78.2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>3</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
         <v>2.3</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>0.3</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>-2</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="A22" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>17.87</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>78.2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>3</v>
       </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
         <v>2.3</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>0.3</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>-2</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="A23" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>17.87</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>78.2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>3</v>
       </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
         <v>2.3</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>0.3</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>-2</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="A24" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>17.87</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>78.2</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>3</v>
       </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
         <v>2.3</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>0.3</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>-2</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="A25" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>17.87</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>78.2</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>3</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
         <v>2.3</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>0.3</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>-2</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="A26" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>17.87</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>78.2</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>3</v>
       </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
         <v>2.3</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>0.3</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>-2</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="A27" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>17.87</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>78.2</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>3</v>
       </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
         <v>2.3</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>0.3</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>-2</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="A28" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>17.87</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>78.2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>3</v>
       </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
         <v>2.3</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <v>0.3</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>-2</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="A29" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>17.87</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>78.2</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>3</v>
       </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
         <v>2.3</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <v>0.3</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>-2</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="A30" t="s" s="6">
         <v>35</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>17.87</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>78.2</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>3</v>
       </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
         <v>2.3</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>0.3</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>-2</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="A31" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>17.87</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>78.2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>3</v>
       </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
         <v>2.3</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>0.3</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>-2</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="A32" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>17.87</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>78.2</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>3</v>
       </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
         <v>2.3</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>0.3</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>-2</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="A33" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>17.87</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>78.2</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>3</v>
       </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
         <v>2.3</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>0.3</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>-2</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="A34" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>17.87</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>78.2</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>3</v>
       </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
         <v>2.3</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>0.3</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>-2</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="A35" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>17.87</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>78.2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>3</v>
       </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
         <v>2.3</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>0.3</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>-2</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
     </row>
     <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="A36" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>17.87</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>78.2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>3</v>
       </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
         <v>2.3</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>0.3</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>-2</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="A37" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>17.87</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>78.2</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>3</v>
       </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
         <v>2.3</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <v>0.3</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>-2</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="A38" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>17.87</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>78.2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>3</v>
       </c>
-      <c r="F38" s="8">
-        <v>1</v>
-      </c>
-      <c r="G38" s="8">
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
         <v>2.3</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="7">
         <v>0.3</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>-2</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="A39" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>17.87</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>78.2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>3</v>
       </c>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7">
         <v>2.3</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <v>0.3</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>-2</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="A40" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>17.87</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>78.2</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>3</v>
       </c>
-      <c r="F40" s="8">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8">
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
         <v>2.3</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="7">
         <v>0.3</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>-2</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
     </row>
     <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="A41" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>17.87</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>78.2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>3</v>
       </c>
-      <c r="F41" s="8">
-        <v>1</v>
-      </c>
-      <c r="G41" s="8">
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7">
         <v>2.3</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <v>0.3</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>-2</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
     </row>
     <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="A42" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>17.87</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>78.2</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>3</v>
       </c>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
         <v>2.3</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="7">
         <v>0.3</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>-2</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="A43" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>17.87</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>78.2</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>3</v>
       </c>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
         <v>2.3</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="7">
         <v>0.3</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <v>-2</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="A44" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>17.87</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>78.2</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>3</v>
       </c>
-      <c r="F44" s="8">
-        <v>1</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
         <v>2.3</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="7">
         <v>0.3</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <v>-2</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="A45" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>17.87</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>78.2</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>3</v>
       </c>
-      <c r="F45" s="8">
-        <v>1</v>
-      </c>
-      <c r="G45" s="8">
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
         <v>2.3</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <v>0.3</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <v>-2</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="A46" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>17.87</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>78.2</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>3</v>
       </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
         <v>2.3</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="7">
         <v>0.3</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>-2</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
     </row>
     <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="A47" t="s" s="6">
         <v>38</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" t="s" s="6">
         <v>39</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>4.87</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>30</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>3</v>
       </c>
-      <c r="F47" s="8">
-        <v>1</v>
-      </c>
-      <c r="G47" s="8">
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
         <v>0.87</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="7">
         <v>0.09</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <v>-0.78</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
     </row>
     <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="A48" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>5.55</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>34.25</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>3</v>
       </c>
-      <c r="F48" s="8">
-        <v>1</v>
-      </c>
-      <c r="G48" s="8">
-        <v>1</v>
-      </c>
-      <c r="H48" s="8">
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
         <v>0.1</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <v>-0.9</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
     </row>
     <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="A49" t="s" s="6">
         <v>42</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" t="s" s="6">
         <v>43</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>5.66</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>27.37</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>3</v>
       </c>
-      <c r="F49" s="8">
-        <v>1</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
         <v>0.8</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="7">
         <v>0.1</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>-0.7</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
     </row>
     <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="A50" t="s" s="6">
         <v>44</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>6.17</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>23.8</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>3</v>
       </c>
-      <c r="F50" s="8">
-        <v>1</v>
-      </c>
-      <c r="G50" s="8">
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
         <v>0.13</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="7">
         <v>0.11</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <v>-0.02</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="A51" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" t="s" s="6">
         <v>47</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>6.65</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>24.8</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>3</v>
       </c>
-      <c r="F51" s="8">
-        <v>1</v>
-      </c>
-      <c r="G51" s="8">
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7">
         <v>0.14</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="7">
         <v>0.12</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <v>-0.02</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
     </row>
     <row r="52" ht="13.55" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="A52" t="s" s="6">
         <v>48</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" t="s" s="6">
         <v>49</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>7.18</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>26.7</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <v>3</v>
       </c>
-      <c r="F52" s="8">
-        <v>1</v>
-      </c>
-      <c r="G52" s="8">
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
         <v>0.14</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="7">
         <v>0.12</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>-0.02</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
     </row>
     <row r="53" ht="13.55" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="A53" t="s" s="6">
         <v>50</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" t="s" s="6">
         <v>51</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>21.94</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>9</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <v>3</v>
       </c>
-      <c r="F53" s="8">
-        <v>1</v>
-      </c>
-      <c r="G53" s="8">
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
         <v>0.05</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="7">
         <v>0.37</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>0.32</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
     </row>
     <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="A54" t="s" s="6">
         <v>52</v>
       </c>
-      <c r="B54" t="s" s="7">
+      <c r="B54" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>30.37</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>116.8</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <v>10</v>
       </c>
-      <c r="F54" s="8">
-        <v>1</v>
-      </c>
-      <c r="G54" s="8">
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7">
         <v>1.5</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="7">
         <v>0.51</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>0.99</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
     </row>
     <row r="55" ht="13.55" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="A55" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="B55" t="s" s="7">
+      <c r="B55" t="s" s="6">
         <v>55</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>19.9</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>69.682</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>10</v>
       </c>
-      <c r="F55" s="8">
-        <v>1</v>
-      </c>
-      <c r="G55" s="8">
-        <v>1</v>
-      </c>
-      <c r="H55" s="8">
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7">
         <v>0.33</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>0.67</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="A56" t="s" s="6">
         <v>56</v>
       </c>
-      <c r="B56" t="s" s="7">
+      <c r="B56" t="s" s="6">
         <v>57</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>15.77</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>27.16</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="7">
         <v>10</v>
       </c>
-      <c r="F56" s="8">
-        <v>1</v>
-      </c>
-      <c r="G56" s="8">
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
         <v>0.5</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <v>0.26</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>0.24</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
     </row>
     <row r="57" ht="13.55" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="A57" t="s" s="6">
         <v>58</v>
       </c>
-      <c r="B57" t="s" s="7">
+      <c r="B57" t="s" s="6">
         <v>59</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>11.26</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>50.5</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>6</v>
       </c>
-      <c r="F57" s="8">
-        <v>1</v>
-      </c>
-      <c r="G57" s="8">
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
         <v>0.46</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="7">
         <v>0.19</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>0.27</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
     </row>
     <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="A58" t="s" s="6">
         <v>60</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="B58" t="s" s="6">
         <v>61</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>3.76</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>19.7</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>8</v>
       </c>
-      <c r="F58" s="8">
-        <v>1</v>
-      </c>
-      <c r="G58" s="8">
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
         <v>0.13</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="7">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>0.06</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
     </row>
     <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="A59" t="s" s="6">
         <v>62</v>
       </c>
-      <c r="B59" t="s" s="7">
+      <c r="B59" t="s" s="6">
         <v>63</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>25.79</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>18.9</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="7">
         <v>14</v>
       </c>
-      <c r="F59" s="8">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8">
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7">
         <v>0.23</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="7">
         <v>0.43</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <v>-0.2</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
     </row>
     <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="A60" t="s" s="6">
         <v>64</v>
       </c>
-      <c r="B60" t="s" s="7">
+      <c r="B60" t="s" s="6">
         <v>65</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>3.77</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>12.5</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="7">
         <v>10</v>
       </c>
-      <c r="F60" s="8">
-        <v>1</v>
-      </c>
-      <c r="G60" s="8">
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7">
         <v>0.13</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="7">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <v>0.06</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
     </row>
     <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="A61" t="s" s="6">
         <v>66</v>
       </c>
-      <c r="B61" t="s" s="7">
+      <c r="B61" t="s" s="6">
         <v>67</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>2.98</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>13.7</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="7">
         <v>8</v>
       </c>
-      <c r="F61" s="8">
-        <v>1</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="F61" s="7">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7">
         <v>0.11</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="7">
         <v>0.05</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="7">
         <v>0.06</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
     </row>
     <row r="62" ht="13.55" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="A62" t="s" s="6">
         <v>68</v>
       </c>
-      <c r="B62" t="s" s="7">
+      <c r="B62" t="s" s="6">
         <v>69</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>2</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="7">
         <v>4</v>
       </c>
-      <c r="F62" s="8">
-        <v>1</v>
-      </c>
-      <c r="G62" s="8">
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7">
         <v>0.01</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="7">
         <v>0.01</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" ht="13.55" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="A63" t="s" s="6">
         <v>70</v>
       </c>
-      <c r="B63" t="s" s="7">
+      <c r="B63" t="s" s="6">
         <v>71</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>3.48</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>1.2</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="7">
         <v>20</v>
       </c>
-      <c r="F63" s="8">
-        <v>1</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="F63" s="7">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7">
         <v>0.01</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="7">
         <v>0.06</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <v>-0.05</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="A64" t="s" s="6">
         <v>72</v>
       </c>
-      <c r="B64" t="s" s="7">
+      <c r="B64" t="s" s="6">
         <v>73</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>4.16</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>0.33</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="7">
         <v>25</v>
       </c>
-      <c r="F64" s="8">
-        <v>1</v>
-      </c>
-      <c r="G64" s="8">
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7">
         <v>0.01</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="7">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <v>-0.06</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
     </row>
     <row r="65" ht="13.55" customHeight="1">
-      <c r="A65" t="s" s="7">
+      <c r="A65" t="s" s="6">
         <v>74</v>
       </c>
-      <c r="B65" t="s" s="7">
+      <c r="B65" t="s" s="6">
         <v>75</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>0.39</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>3</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="7">
         <v>6</v>
       </c>
-      <c r="F65" s="8">
-        <v>1</v>
-      </c>
-      <c r="G65" s="8">
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7">
         <v>0.01</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="7">
         <v>0.01</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <v>0</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
     </row>
     <row r="66" ht="13.55" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="A66" t="s" s="6">
         <v>76</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B66" t="s" s="6">
         <v>77</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>1.23</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>2.428</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="7">
         <v>8</v>
       </c>
-      <c r="F66" s="8">
-        <v>1</v>
-      </c>
-      <c r="G66" s="8">
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7">
         <v>0.01</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="7">
         <v>0.03</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <v>-0.02</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
     </row>
     <row r="67" ht="13.55" customHeight="1">
-      <c r="A67" t="s" s="7">
+      <c r="A67" t="s" s="6">
         <v>78</v>
       </c>
-      <c r="B67" t="s" s="7">
+      <c r="B67" t="s" s="6">
         <v>79</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>3.13</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>7.3</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="7">
         <v>10</v>
       </c>
-      <c r="F67" s="8">
-        <v>1</v>
-      </c>
-      <c r="G67" s="8">
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7">
         <v>0.11</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="7">
         <v>0.06</v>
       </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" t="s" s="7">
+      <c r="A68" t="s" s="6">
         <v>80</v>
       </c>
-      <c r="B68" t="s" s="7">
+      <c r="B68" t="s" s="6">
         <v>81</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>0.35</v>
       </c>
-      <c r="D68" s="8">
-        <v>1</v>
-      </c>
-      <c r="E68" s="8">
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7">
         <v>12</v>
       </c>
-      <c r="F68" s="8">
-        <v>1</v>
-      </c>
-      <c r="G68" s="8">
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7">
         <v>0.01</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="7">
         <v>0.01</v>
       </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" ht="13.55" customHeight="1">
-      <c r="A69" t="s" s="7">
+      <c r="A69" t="s" s="6">
         <v>82</v>
       </c>
-      <c r="B69" t="s" s="7">
+      <c r="B69" t="s" s="6">
         <v>83</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>5.83</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>4</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="7">
         <v>16</v>
       </c>
-      <c r="F69" s="8">
-        <v>1</v>
-      </c>
-      <c r="G69" s="8">
+      <c r="F69" s="7">
+        <v>1</v>
+      </c>
+      <c r="G69" s="7">
         <v>0.11</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="7">
         <v>0.1</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>0.01</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
-      <c r="A70" t="s" s="7">
+      <c r="A70" t="s" s="6">
         <v>84</v>
       </c>
-      <c r="B70" t="s" s="7">
+      <c r="B70" t="s" s="6">
         <v>85</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>7.43</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>12.8</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="7">
         <v>20</v>
       </c>
-      <c r="F70" s="8">
-        <v>1</v>
-      </c>
-      <c r="G70" s="8">
+      <c r="F70" s="7">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7">
         <v>0.12</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="7">
         <v>0.13</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <v>-0.01</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
     </row>
     <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" t="s" s="7">
+      <c r="A71" t="s" s="6">
         <v>86</v>
       </c>
-      <c r="B71" t="s" s="7">
+      <c r="B71" t="s" s="6">
         <v>87</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>10.63</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>4</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="7">
         <v>25</v>
       </c>
-      <c r="F71" s="8">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8">
+      <c r="F71" s="7">
+        <v>1</v>
+      </c>
+      <c r="G71" s="7">
         <v>0.13</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="7">
         <v>0.18</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <v>-0.05</v>
       </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
     </row>
     <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" t="s" s="7">
+      <c r="A72" t="s" s="6">
         <v>88</v>
       </c>
-      <c r="B72" t="s" s="7">
+      <c r="B72" t="s" s="6">
         <v>89</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>8.880000000000001</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>2</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="7">
         <v>25</v>
       </c>
-      <c r="F72" s="8">
-        <v>1</v>
-      </c>
-      <c r="G72" s="8">
+      <c r="F72" s="7">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7">
         <v>0.01</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="7">
         <v>0.15</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="7">
         <v>-0.14</v>
       </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
     </row>
     <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" t="s" s="7">
+      <c r="A73" t="s" s="6">
         <v>90</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B73" t="s" s="6">
         <v>91</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>2.71</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>13.7</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="7">
         <v>10</v>
       </c>
-      <c r="F73" s="8">
-        <v>1</v>
-      </c>
-      <c r="G73" s="8">
+      <c r="F73" s="7">
+        <v>1</v>
+      </c>
+      <c r="G73" s="7">
         <v>0.28</v>
       </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" t="s" s="7">
+      <c r="A74" t="s" s="6">
         <v>92</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B74" t="s" s="6">
         <v>93</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>144.21</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>90.3</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="7">
         <v>25</v>
       </c>
-      <c r="F74" s="8">
-        <v>1</v>
-      </c>
-      <c r="G74" s="8">
+      <c r="F74" s="7">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7">
         <v>3</v>
       </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
     </row>
     <row r="75" ht="13.55" customHeight="1">
-      <c r="A75" t="s" s="7">
+      <c r="A75" t="s" s="6">
         <v>94</v>
       </c>
-      <c r="B75" t="s" s="7">
+      <c r="B75" t="s" s="6">
         <v>95</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>12.15</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>77</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="7">
         <v>8</v>
       </c>
-      <c r="F75" s="8">
-        <v>1</v>
-      </c>
-      <c r="G75" s="8">
+      <c r="F75" s="7">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7">
         <v>1.5</v>
       </c>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
     </row>
     <row r="76" ht="13.55" customHeight="1">
-      <c r="A76" t="s" s="7">
+      <c r="A76" t="s" s="6">
         <v>96</v>
       </c>
-      <c r="B76" t="s" s="7">
+      <c r="B76" t="s" s="6">
         <v>97</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>4.45</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>17.8</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="7">
         <v>8</v>
       </c>
-      <c r="F76" s="8">
-        <v>1</v>
-      </c>
-      <c r="G76" s="8">
+      <c r="F76" s="7">
+        <v>1</v>
+      </c>
+      <c r="G76" s="7">
         <v>0.2</v>
       </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" ht="13.55" customHeight="1">
-      <c r="A77" t="s" s="7">
+      <c r="A77" t="s" s="6">
         <v>98</v>
       </c>
-      <c r="B77" t="s" s="7">
+      <c r="B77" t="s" s="6">
         <v>99</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>3.12</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>11.7</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="7">
         <v>10</v>
       </c>
-      <c r="F77" s="8">
-        <v>1</v>
-      </c>
-      <c r="G77" s="8">
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="7">
         <v>0.2</v>
       </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" t="s" s="7">
+      <c r="A78" t="s" s="6">
         <v>100</v>
       </c>
-      <c r="B78" t="s" s="7">
+      <c r="B78" t="s" s="6">
         <v>101</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>4.28</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>13.5</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="7">
         <v>12</v>
       </c>
-      <c r="F78" s="8">
-        <v>1</v>
-      </c>
-      <c r="G78" s="8">
+      <c r="F78" s="7">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7">
         <v>0.3</v>
       </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" t="s" s="7">
+      <c r="A79" t="s" s="6">
         <v>102</v>
       </c>
-      <c r="B79" t="s" s="7">
+      <c r="B79" t="s" s="6">
         <v>103</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>3.26</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>10.4</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="7">
         <v>12</v>
       </c>
-      <c r="F79" s="8">
-        <v>1</v>
-      </c>
-      <c r="G79" s="8">
+      <c r="F79" s="7">
+        <v>1</v>
+      </c>
+      <c r="G79" s="7">
         <v>0.3</v>
       </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" ht="13.55" customHeight="1">
-      <c r="A80" t="s" s="7">
+      <c r="A80" t="s" s="6">
         <v>104</v>
       </c>
-      <c r="B80" t="s" s="7">
+      <c r="B80" t="s" s="6">
         <v>105</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <v>15.61</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <v>14.3</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="7">
         <v>16</v>
       </c>
-      <c r="F80" s="8">
-        <v>1</v>
-      </c>
-      <c r="G80" s="8">
+      <c r="F80" s="7">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7">
         <v>0.3</v>
       </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" ht="13.55" customHeight="1">
-      <c r="A81" t="s" s="7">
+      <c r="A81" t="s" s="6">
         <v>106</v>
       </c>
-      <c r="B81" t="s" s="7">
+      <c r="B81" t="s" s="6">
         <v>107</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <v>9.58</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>40.2</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="7">
         <v>6</v>
       </c>
-      <c r="F81" s="8">
-        <v>1</v>
-      </c>
-      <c r="G81" s="8">
-        <v>1</v>
-      </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="F81" s="7">
+        <v>1</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" ht="13.55" customHeight="1">
-      <c r="A82" t="s" s="7">
+      <c r="A82" t="s" s="6">
         <v>108</v>
       </c>
-      <c r="B82" t="s" s="7">
+      <c r="B82" t="s" s="6">
         <v>109</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>12.55</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>55</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="7">
         <v>4</v>
       </c>
-      <c r="F82" s="8">
-        <v>1</v>
-      </c>
-      <c r="G82" s="8">
+      <c r="F82" s="7">
+        <v>1</v>
+      </c>
+      <c r="G82" s="7">
         <v>0.2</v>
       </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" ht="13.55" customHeight="1">
-      <c r="A83" t="s" s="7">
+      <c r="A83" t="s" s="6">
         <v>110</v>
       </c>
-      <c r="B83" t="s" s="7">
+      <c r="B83" t="s" s="6">
         <v>111</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="7">
         <v>19.1</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <v>90.90000000000001</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="7">
         <v>4</v>
       </c>
-      <c r="F83" s="8">
-        <v>1</v>
-      </c>
-      <c r="G83" s="8">
+      <c r="F83" s="7">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7">
         <v>0.2</v>
       </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" ht="13.55" customHeight="1">
-      <c r="A84" t="s" s="7">
+      <c r="A84" t="s" s="6">
         <v>112</v>
       </c>
-      <c r="B84" t="s" s="7">
+      <c r="B84" t="s" s="6">
         <v>113</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <v>24.33</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>211.504</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="7">
         <v>6</v>
       </c>
-      <c r="F84" s="8">
-        <v>1</v>
-      </c>
-      <c r="G84" s="8">
-        <v>1</v>
-      </c>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
+      <c r="F84" s="7">
+        <v>1</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" ht="13.55" customHeight="1">
-      <c r="A85" t="s" s="7">
+      <c r="A85" t="s" s="6">
         <v>114</v>
       </c>
-      <c r="B85" t="s" s="7">
+      <c r="B85" t="s" s="6">
         <v>115</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <v>25.6</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>24.5</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="7">
         <v>12</v>
       </c>
-      <c r="F85" s="8">
-        <v>1</v>
-      </c>
-      <c r="G85" s="8">
+      <c r="F85" s="7">
+        <v>1</v>
+      </c>
+      <c r="G85" s="7">
         <v>0.65</v>
       </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
     </row>
     <row r="86" ht="13.55" customHeight="1">
-      <c r="A86" t="s" s="7">
+      <c r="A86" t="s" s="6">
         <v>116</v>
       </c>
-      <c r="B86" t="s" s="7">
+      <c r="B86" t="s" s="6">
         <v>117</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <v>156.12</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <v>242.709</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="7">
         <v>12</v>
       </c>
-      <c r="F86" s="8">
-        <v>1</v>
-      </c>
-      <c r="G86" s="8">
+      <c r="F86" s="7">
+        <v>1</v>
+      </c>
+      <c r="G86" s="7">
         <v>6.5</v>
       </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
     </row>
     <row r="87" ht="13.55" customHeight="1">
-      <c r="A87" t="s" s="7">
+      <c r="A87" t="s" s="6">
         <v>118</v>
       </c>
-      <c r="B87" t="s" s="7">
+      <c r="B87" t="s" s="6">
         <v>119</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="7">
         <v>30.88</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="7">
         <v>110.075</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="7">
         <v>12</v>
       </c>
-      <c r="F87" s="8">
-        <v>1</v>
-      </c>
-      <c r="G87" s="8">
+      <c r="F87" s="7">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7">
         <v>0.6</v>
       </c>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
     </row>
     <row r="88" ht="13.55" customHeight="1">
-      <c r="A88" t="s" s="7">
+      <c r="A88" t="s" s="6">
         <v>120</v>
       </c>
-      <c r="B88" t="s" s="7">
+      <c r="B88" t="s" s="6">
         <v>121</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="7">
         <v>10</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>14.012</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="7">
         <v>12</v>
       </c>
-      <c r="F88" s="8">
-        <v>1</v>
-      </c>
-      <c r="G88" s="8">
+      <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7">
         <v>0.1</v>
       </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
     </row>
     <row r="89" ht="13.55" customHeight="1">
-      <c r="A89" t="s" s="7">
+      <c r="A89" t="s" s="6">
         <v>122</v>
       </c>
-      <c r="B89" t="s" s="7">
+      <c r="B89" t="s" s="6">
         <v>123</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="7">
         <v>88.03</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>30.4</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="7">
         <v>10</v>
       </c>
-      <c r="F89" s="8">
-        <v>1</v>
-      </c>
-      <c r="G89" s="8">
-        <v>1</v>
-      </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
+      <c r="F89" s="7">
+        <v>1</v>
+      </c>
+      <c r="G89" s="7">
+        <v>1</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
     </row>
     <row r="90" ht="13.55" customHeight="1">
-      <c r="A90" t="s" s="7">
+      <c r="A90" t="s" s="6">
         <v>124</v>
       </c>
-      <c r="B90" t="s" s="7">
+      <c r="B90" t="s" s="6">
         <v>125</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="7">
         <v>25.66</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>135.2</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="7">
         <v>10</v>
       </c>
-      <c r="F90" s="8">
-        <v>1</v>
-      </c>
-      <c r="G90" s="8">
+      <c r="F90" s="7">
+        <v>1</v>
+      </c>
+      <c r="G90" s="7">
         <v>0.2</v>
       </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
     </row>
     <row r="91" ht="13.55" customHeight="1">
-      <c r="A91" t="s" s="7">
+      <c r="A91" t="s" s="6">
         <v>126</v>
       </c>
-      <c r="B91" t="s" s="7">
+      <c r="B91" t="s" s="6">
         <v>127</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="7">
         <v>20.96</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="7">
         <v>118.6</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="7">
         <v>10</v>
       </c>
-      <c r="F91" s="8">
-        <v>1</v>
-      </c>
-      <c r="G91" s="8">
+      <c r="F91" s="7">
+        <v>1</v>
+      </c>
+      <c r="G91" s="7">
         <v>0.2</v>
       </c>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
     </row>
     <row r="92" ht="13.55" customHeight="1">
-      <c r="A92" t="s" s="7">
+      <c r="A92" t="s" s="6">
         <v>128</v>
       </c>
-      <c r="B92" t="s" s="7">
+      <c r="B92" t="s" s="6">
         <v>129</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7">
         <v>24.99</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <v>135.112</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="7">
         <v>10</v>
       </c>
-      <c r="F92" s="8">
-        <v>1</v>
-      </c>
-      <c r="G92" s="8">
+      <c r="F92" s="7">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7">
         <v>0.2</v>
       </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
     </row>
     <row r="93" ht="13.55" customHeight="1">
-      <c r="A93" t="s" s="7">
+      <c r="A93" t="s" s="6">
         <v>130</v>
       </c>
-      <c r="B93" t="s" s="7">
+      <c r="B93" t="s" s="6">
         <v>131</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="7">
         <v>25.58</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>135.1</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="7">
         <v>10</v>
       </c>
-      <c r="F93" s="8">
-        <v>1</v>
-      </c>
-      <c r="G93" s="8">
+      <c r="F93" s="7">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7">
         <v>0.2</v>
       </c>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" ht="13.55" customHeight="1">
-      <c r="A94" t="s" s="7">
+      <c r="A94" t="s" s="6">
         <v>132</v>
       </c>
-      <c r="B94" t="s" s="7">
+      <c r="B94" t="s" s="6">
         <v>133</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="7">
         <v>60.31</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="7">
         <v>313.297</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="7">
         <v>10</v>
       </c>
-      <c r="F94" s="8">
-        <v>1</v>
-      </c>
-      <c r="G94" s="8">
-        <v>1</v>
-      </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
+      <c r="F94" s="7">
+        <v>1</v>
+      </c>
+      <c r="G94" s="7">
+        <v>1</v>
+      </c>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95" ht="13.55" customHeight="1">
-      <c r="A95" t="s" s="7">
+      <c r="A95" t="s" s="6">
         <v>134</v>
       </c>
-      <c r="B95" t="s" s="7">
+      <c r="B95" t="s" s="6">
         <v>135</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="7">
         <v>25.52</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="7">
         <v>137</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="7">
         <v>10</v>
       </c>
-      <c r="F95" s="8">
-        <v>1</v>
-      </c>
-      <c r="G95" s="8">
-        <v>1</v>
-      </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
+      <c r="F95" s="7">
+        <v>1</v>
+      </c>
+      <c r="G95" s="7">
+        <v>1</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
     </row>
     <row r="96" ht="13.55" customHeight="1">
-      <c r="A96" t="s" s="7">
+      <c r="A96" t="s" s="6">
         <v>136</v>
       </c>
-      <c r="B96" t="s" s="7">
+      <c r="B96" t="s" s="6">
         <v>137</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="7">
         <v>82.26000000000001</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="7">
         <v>474.621</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="7">
         <v>10</v>
       </c>
-      <c r="F96" s="8">
-        <v>1</v>
-      </c>
-      <c r="G96" s="8">
+      <c r="F96" s="7">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7">
         <v>2.2</v>
       </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
     </row>
     <row r="97" ht="13.55" customHeight="1">
-      <c r="A97" t="s" s="7">
+      <c r="A97" t="s" s="6">
         <v>138</v>
       </c>
-      <c r="B97" t="s" s="7">
+      <c r="B97" t="s" s="6">
         <v>139</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="7">
         <v>14.13</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="7">
         <v>34</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="7">
         <v>10</v>
       </c>
-      <c r="F97" s="8">
-        <v>1</v>
-      </c>
-      <c r="G97" s="8">
+      <c r="F97" s="7">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7">
         <v>0.2</v>
       </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
     </row>
     <row r="98" ht="13.55" customHeight="1">
-      <c r="A98" t="s" s="7">
+      <c r="A98" t="s" s="6">
         <v>140</v>
       </c>
-      <c r="B98" t="s" s="7">
+      <c r="B98" t="s" s="6">
         <v>141</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="7">
         <v>9.57</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="7">
         <v>25</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="7">
         <v>10</v>
       </c>
-      <c r="F98" s="8">
-        <v>1</v>
-      </c>
-      <c r="G98" s="8">
+      <c r="F98" s="7">
+        <v>1</v>
+      </c>
+      <c r="G98" s="7">
         <v>0.2</v>
       </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
     </row>
     <row r="99" ht="13.55" customHeight="1">
-      <c r="A99" t="s" s="7">
+      <c r="A99" t="s" s="6">
         <v>142</v>
       </c>
-      <c r="B99" t="s" s="7">
+      <c r="B99" t="s" s="6">
         <v>143</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="7">
         <v>60.44</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="7">
         <v>81.459</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="7">
         <v>10</v>
       </c>
-      <c r="F99" s="8">
-        <v>1</v>
-      </c>
-      <c r="G99" s="8">
+      <c r="F99" s="7">
+        <v>1</v>
+      </c>
+      <c r="G99" s="7">
         <v>0.2</v>
       </c>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
     </row>
     <row r="100" ht="13.55" customHeight="1">
-      <c r="A100" t="s" s="7">
+      <c r="A100" t="s" s="6">
         <v>144</v>
       </c>
-      <c r="B100" t="s" s="7">
+      <c r="B100" t="s" s="6">
         <v>145</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="7">
         <v>49.26</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="7">
         <v>183.288</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="7">
         <v>10</v>
       </c>
-      <c r="F100" s="8">
-        <v>1</v>
-      </c>
-      <c r="G100" s="8">
+      <c r="F100" s="7">
+        <v>1</v>
+      </c>
+      <c r="G100" s="7">
         <v>1.1</v>
       </c>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
     </row>
     <row r="101" ht="13.55" customHeight="1">
-      <c r="A101" t="s" s="7">
+      <c r="A101" t="s" s="6">
         <v>146</v>
       </c>
-      <c r="B101" t="s" s="7">
+      <c r="B101" t="s" s="6">
         <v>147</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7">
         <v>0.29</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="7">
         <v>1.5</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="7">
         <v>8</v>
       </c>
-      <c r="F101" s="8">
-        <v>1</v>
-      </c>
-      <c r="G101" s="8">
+      <c r="F101" s="7">
+        <v>1</v>
+      </c>
+      <c r="G101" s="7">
         <v>0.1</v>
       </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
     </row>
     <row r="102" ht="13.55" customHeight="1">
-      <c r="A102" t="s" s="7">
+      <c r="A102" t="s" s="6">
         <v>148</v>
       </c>
-      <c r="B102" t="s" s="7">
+      <c r="B102" t="s" s="6">
         <v>149</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="7">
         <v>37.15</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="7">
         <v>7.5</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="7">
         <v>16</v>
       </c>
-      <c r="F102" s="8">
-        <v>1</v>
-      </c>
-      <c r="G102" s="8">
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7">
         <v>0.1</v>
       </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
     </row>
     <row r="103" ht="13.55" customHeight="1">
-      <c r="A103" t="s" s="7">
+      <c r="A103" t="s" s="6">
         <v>150</v>
       </c>
-      <c r="B103" t="s" s="7">
+      <c r="B103" t="s" s="6">
         <v>151</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <v>12.76</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="7">
         <v>24.919</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="7">
         <v>12</v>
       </c>
-      <c r="F103" s="8">
-        <v>1</v>
-      </c>
-      <c r="G103" s="8">
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
+      <c r="G103" s="7">
         <v>0.1</v>
       </c>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
     </row>
     <row r="104" ht="13.55" customHeight="1">
-      <c r="A104" t="s" s="7">
+      <c r="A104" t="s" s="6">
         <v>152</v>
       </c>
-      <c r="B104" t="s" s="7">
+      <c r="B104" t="s" s="6">
         <v>153</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7">
         <v>20.38</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="7">
         <v>74.434</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="7">
         <v>12</v>
       </c>
-      <c r="F104" s="8">
-        <v>1</v>
-      </c>
-      <c r="G104" s="8">
+      <c r="F104" s="7">
+        <v>1</v>
+      </c>
+      <c r="G104" s="7">
         <v>0.2</v>
       </c>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
     </row>
     <row r="105" ht="13.55" customHeight="1">
-      <c r="A105" t="s" s="7">
+      <c r="A105" t="s" s="6">
         <v>154</v>
       </c>
-      <c r="B105" t="s" s="7">
+      <c r="B105" t="s" s="6">
         <v>155</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="7">
         <v>10.35</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="7">
         <v>35.091</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E105" s="7">
         <v>12</v>
       </c>
-      <c r="F105" s="8">
-        <v>1</v>
-      </c>
-      <c r="G105" s="8">
+      <c r="F105" s="7">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7">
         <v>0.2</v>
       </c>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
     </row>
     <row r="106" ht="13.55" customHeight="1">
-      <c r="A106" t="s" s="7">
+      <c r="A106" t="s" s="6">
         <v>156</v>
       </c>
-      <c r="B106" t="s" s="7">
+      <c r="B106" t="s" s="6">
         <v>157</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7">
         <v>17.77</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="7">
         <v>65.682</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="7">
         <v>12</v>
       </c>
-      <c r="F106" s="8">
-        <v>1</v>
-      </c>
-      <c r="G106" s="8">
+      <c r="F106" s="7">
+        <v>1</v>
+      </c>
+      <c r="G106" s="7">
         <v>0.2</v>
       </c>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
     </row>
     <row r="107" ht="13.55" customHeight="1">
-      <c r="A107" t="s" s="7">
+      <c r="A107" t="s" s="6">
         <v>158</v>
       </c>
-      <c r="B107" t="s" s="7">
+      <c r="B107" t="s" s="6">
         <v>159</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="7">
         <v>18.06</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="7">
         <v>56.867</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="7">
         <v>12</v>
       </c>
-      <c r="F107" s="8">
-        <v>1</v>
-      </c>
-      <c r="G107" s="8">
+      <c r="F107" s="7">
+        <v>1</v>
+      </c>
+      <c r="G107" s="7">
         <v>0.3</v>
       </c>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
     </row>
     <row r="108" ht="13.55" customHeight="1">
-      <c r="A108" t="s" s="7">
+      <c r="A108" t="s" s="6">
         <v>160</v>
       </c>
-      <c r="B108" t="s" s="7">
+      <c r="B108" t="s" s="6">
         <v>161</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7">
         <v>10.45</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="7">
         <v>35.097</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E108" s="7">
         <v>12</v>
       </c>
-      <c r="F108" s="8">
-        <v>1</v>
-      </c>
-      <c r="G108" s="8">
+      <c r="F108" s="7">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7">
         <v>0.2</v>
       </c>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
     </row>
     <row r="109" ht="13.55" customHeight="1">
-      <c r="A109" t="s" s="7">
+      <c r="A109" t="s" s="6">
         <v>162</v>
       </c>
-      <c r="B109" t="s" s="7">
+      <c r="B109" t="s" s="6">
         <v>163</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7">
         <v>20.83</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="7">
         <v>68.786</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="7">
         <v>12</v>
       </c>
-      <c r="F109" s="8">
-        <v>1</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="F109" s="7">
+        <v>1</v>
+      </c>
+      <c r="G109" s="7">
         <v>0.8</v>
       </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
     </row>
     <row r="110" ht="13.55" customHeight="1">
-      <c r="A110" t="s" s="7">
+      <c r="A110" t="s" s="6">
         <v>164</v>
       </c>
-      <c r="B110" t="s" s="7">
+      <c r="B110" t="s" s="6">
         <v>165</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7">
         <v>9.119999999999999</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="7">
         <v>33</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E110" s="7">
         <v>12</v>
       </c>
-      <c r="F110" s="8">
-        <v>1</v>
-      </c>
-      <c r="G110" s="8">
+      <c r="F110" s="7">
+        <v>1</v>
+      </c>
+      <c r="G110" s="7">
         <v>0.2</v>
       </c>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" ht="13.55" customHeight="1">
-      <c r="A111" t="s" s="7">
+      <c r="A111" t="s" s="6">
         <v>166</v>
       </c>
-      <c r="B111" t="s" s="7">
+      <c r="B111" t="s" s="6">
         <v>167</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="7">
         <v>9.24</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="7">
         <v>33.19</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="7">
         <v>12</v>
       </c>
-      <c r="F111" s="8">
-        <v>1</v>
-      </c>
-      <c r="G111" s="8">
+      <c r="F111" s="7">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7">
         <v>0.2</v>
       </c>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" ht="13.55" customHeight="1">
-      <c r="A112" t="s" s="7">
+      <c r="A112" t="s" s="6">
         <v>168</v>
       </c>
-      <c r="B112" t="s" s="7">
+      <c r="B112" t="s" s="6">
         <v>169</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="7">
         <v>9.18</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="7">
         <v>33.19</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="7">
         <v>12</v>
       </c>
-      <c r="F112" s="8">
-        <v>1</v>
-      </c>
-      <c r="G112" s="8">
+      <c r="F112" s="7">
+        <v>1</v>
+      </c>
+      <c r="G112" s="7">
         <v>0.2</v>
       </c>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
     </row>
     <row r="113" ht="13.55" customHeight="1">
-      <c r="A113" t="s" s="7">
+      <c r="A113" t="s" s="6">
         <v>170</v>
       </c>
-      <c r="B113" t="s" s="7">
+      <c r="B113" t="s" s="6">
         <v>171</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="7">
         <v>17.9</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="7">
         <v>60.542</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="7">
         <v>12</v>
       </c>
-      <c r="F113" s="8">
-        <v>1</v>
-      </c>
-      <c r="G113" s="8">
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="7">
         <v>0.5</v>
       </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114" ht="13.55" customHeight="1">
-      <c r="A114" t="s" s="7">
+      <c r="A114" t="s" s="6">
         <v>172</v>
       </c>
-      <c r="B114" t="s" s="7">
+      <c r="B114" t="s" s="6">
         <v>173</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="7">
         <v>39.59</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="7">
         <v>135.375</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E114" s="7">
         <v>12</v>
       </c>
-      <c r="F114" s="8">
-        <v>1</v>
-      </c>
-      <c r="G114" s="8">
+      <c r="F114" s="7">
+        <v>1</v>
+      </c>
+      <c r="G114" s="7">
         <v>0.5</v>
       </c>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
     </row>
     <row r="115" ht="13.55" customHeight="1">
-      <c r="A115" t="s" s="7">
+      <c r="A115" t="s" s="6">
         <v>174</v>
       </c>
-      <c r="B115" t="s" s="7">
+      <c r="B115" t="s" s="6">
         <v>175</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="7">
         <v>21.3</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="7">
         <v>73.223</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="7">
         <v>12</v>
       </c>
-      <c r="F115" s="8">
-        <v>1</v>
-      </c>
-      <c r="G115" s="8">
+      <c r="F115" s="7">
+        <v>1</v>
+      </c>
+      <c r="G115" s="7">
         <v>0.5600000000000001</v>
       </c>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
     </row>
     <row r="116" ht="13.55" customHeight="1">
-      <c r="A116" t="s" s="7">
+      <c r="A116" t="s" s="6">
         <v>176</v>
       </c>
-      <c r="B116" t="s" s="7">
+      <c r="B116" t="s" s="6">
         <v>177</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="7">
         <v>8.65</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="7">
         <v>28.483</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="7">
         <v>12</v>
       </c>
-      <c r="F116" s="8">
-        <v>1</v>
-      </c>
-      <c r="G116" s="8">
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
+      <c r="G116" s="7">
         <v>0.2</v>
       </c>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117" ht="13.55" customHeight="1">
-      <c r="A117" t="s" s="7">
+      <c r="A117" t="s" s="6">
         <v>178</v>
       </c>
-      <c r="B117" t="s" s="7">
+      <c r="B117" t="s" s="6">
         <v>179</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="7">
         <v>10.25</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="7">
         <v>36.532</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="7">
         <v>12</v>
       </c>
-      <c r="F117" s="8">
-        <v>1</v>
-      </c>
-      <c r="G117" s="8">
+      <c r="F117" s="7">
+        <v>1</v>
+      </c>
+      <c r="G117" s="7">
         <v>0.2</v>
       </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
     </row>
     <row r="118" ht="13.55" customHeight="1">
-      <c r="A118" t="s" s="7">
+      <c r="A118" t="s" s="6">
         <v>180</v>
       </c>
-      <c r="B118" t="s" s="7">
+      <c r="B118" t="s" s="6">
         <v>181</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="7">
         <v>12.29</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="7">
         <v>38.502</v>
       </c>
-      <c r="E118" s="8">
+      <c r="E118" s="7">
         <v>12</v>
       </c>
-      <c r="F118" s="8">
-        <v>1</v>
-      </c>
-      <c r="G118" s="8">
+      <c r="F118" s="7">
+        <v>1</v>
+      </c>
+      <c r="G118" s="7">
         <v>0.5</v>
       </c>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119" ht="13.55" customHeight="1">
-      <c r="A119" t="s" s="7">
+      <c r="A119" t="s" s="6">
         <v>182</v>
       </c>
-      <c r="B119" t="s" s="7">
+      <c r="B119" t="s" s="6">
         <v>183</v>
       </c>
-      <c r="C119" s="8">
+      <c r="C119" s="7">
         <v>13.27</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="7">
         <v>46</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E119" s="7">
         <v>12</v>
       </c>
-      <c r="F119" s="8">
-        <v>1</v>
-      </c>
-      <c r="G119" s="8">
+      <c r="F119" s="7">
+        <v>1</v>
+      </c>
+      <c r="G119" s="7">
         <v>0.3</v>
       </c>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
     </row>
     <row r="120" ht="13.55" customHeight="1">
-      <c r="A120" t="s" s="7">
+      <c r="A120" t="s" s="6">
         <v>184</v>
       </c>
-      <c r="B120" t="s" s="7">
+      <c r="B120" t="s" s="6">
         <v>185</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120" s="7">
         <v>3.32</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="7">
         <v>11.6</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E120" s="7">
         <v>12</v>
       </c>
-      <c r="F120" s="8">
-        <v>1</v>
-      </c>
-      <c r="G120" s="8">
+      <c r="F120" s="7">
+        <v>1</v>
+      </c>
+      <c r="G120" s="7">
         <v>0.1</v>
       </c>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" ht="13.55" customHeight="1">
-      <c r="A121" t="s" s="7">
+      <c r="A121" t="s" s="6">
         <v>186</v>
       </c>
-      <c r="B121" t="s" s="7">
+      <c r="B121" t="s" s="6">
         <v>187</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C121" s="7">
         <v>9.5</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="7">
         <v>33.457</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="7">
         <v>12</v>
       </c>
-      <c r="F121" s="8">
-        <v>1</v>
-      </c>
-      <c r="G121" s="8">
+      <c r="F121" s="7">
+        <v>1</v>
+      </c>
+      <c r="G121" s="7">
         <v>0.2</v>
       </c>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
     </row>
     <row r="122" ht="13.55" customHeight="1">
-      <c r="A122" t="s" s="7">
+      <c r="A122" t="s" s="6">
         <v>188</v>
       </c>
-      <c r="B122" t="s" s="7">
+      <c r="B122" t="s" s="6">
         <v>189</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="7">
         <v>5.32</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="7">
         <v>19.7</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E122" s="7">
         <v>12</v>
       </c>
-      <c r="F122" s="8">
-        <v>1</v>
-      </c>
-      <c r="G122" s="8">
+      <c r="F122" s="7">
+        <v>1</v>
+      </c>
+      <c r="G122" s="7">
         <v>0.1</v>
       </c>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" ht="13.55" customHeight="1">
-      <c r="A123" t="s" s="7">
+      <c r="A123" t="s" s="6">
         <v>190</v>
       </c>
-      <c r="B123" t="s" s="7">
+      <c r="B123" t="s" s="6">
         <v>191</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="7">
         <v>10.58</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="7">
         <v>37.2</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E123" s="7">
         <v>12</v>
       </c>
-      <c r="F123" s="8">
-        <v>1</v>
-      </c>
-      <c r="G123" s="8">
+      <c r="F123" s="7">
+        <v>1</v>
+      </c>
+      <c r="G123" s="7">
         <v>0.2</v>
       </c>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124" ht="13.55" customHeight="1">
-      <c r="A124" t="s" s="7">
+      <c r="A124" t="s" s="6">
         <v>192</v>
       </c>
-      <c r="B124" t="s" s="7">
+      <c r="B124" t="s" s="6">
         <v>193</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="7">
         <v>12.29</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="7">
         <v>56.8</v>
       </c>
-      <c r="E124" s="8">
+      <c r="E124" s="7">
         <v>12</v>
       </c>
-      <c r="F124" s="8">
-        <v>1</v>
-      </c>
-      <c r="G124" s="8">
+      <c r="F124" s="7">
+        <v>1</v>
+      </c>
+      <c r="G124" s="7">
         <v>0.4</v>
       </c>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
     </row>
     <row r="125" ht="13.55" customHeight="1">
-      <c r="A125" t="s" s="7">
+      <c r="A125" t="s" s="6">
         <v>194</v>
       </c>
-      <c r="B125" t="s" s="7">
+      <c r="B125" t="s" s="6">
         <v>195</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="7">
         <v>30.09</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="7">
         <v>84.102</v>
       </c>
-      <c r="E125" s="8">
+      <c r="E125" s="7">
         <v>12</v>
       </c>
-      <c r="F125" s="8">
-        <v>1</v>
-      </c>
-      <c r="G125" s="8">
+      <c r="F125" s="7">
+        <v>1</v>
+      </c>
+      <c r="G125" s="7">
         <v>1.1</v>
       </c>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
     </row>
     <row r="126" ht="13.55" customHeight="1">
-      <c r="A126" t="s" s="7">
+      <c r="A126" t="s" s="6">
         <v>196</v>
       </c>
-      <c r="B126" t="s" s="7">
+      <c r="B126" t="s" s="6">
         <v>197</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="7">
         <v>42.54</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="7">
         <v>122</v>
       </c>
-      <c r="E126" s="8">
+      <c r="E126" s="7">
         <v>12</v>
       </c>
-      <c r="F126" s="8">
-        <v>1</v>
-      </c>
-      <c r="G126" s="8">
+      <c r="F126" s="7">
+        <v>1</v>
+      </c>
+      <c r="G126" s="7">
         <v>1.1</v>
       </c>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
     </row>
     <row r="127" ht="13.55" customHeight="1">
-      <c r="A127" t="s" s="7">
+      <c r="A127" t="s" s="6">
         <v>198</v>
       </c>
-      <c r="B127" t="s" s="7">
+      <c r="B127" t="s" s="6">
         <v>199</v>
       </c>
-      <c r="C127" s="8">
+      <c r="C127" s="7">
         <v>42.62</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="7">
         <v>122</v>
       </c>
-      <c r="E127" s="8">
+      <c r="E127" s="7">
         <v>12</v>
       </c>
-      <c r="F127" s="8">
-        <v>1</v>
-      </c>
-      <c r="G127" s="8">
+      <c r="F127" s="7">
+        <v>1</v>
+      </c>
+      <c r="G127" s="7">
         <v>1.5</v>
       </c>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
     </row>
     <row r="128" ht="13.55" customHeight="1">
-      <c r="A128" t="s" s="7">
+      <c r="A128" t="s" s="6">
         <v>200</v>
       </c>
-      <c r="B128" t="s" s="7">
+      <c r="B128" t="s" s="6">
         <v>201</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="7">
         <v>32.67</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="7">
         <v>107</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E128" s="7">
         <v>12</v>
       </c>
-      <c r="F128" s="8">
-        <v>1</v>
-      </c>
-      <c r="G128" s="8">
+      <c r="F128" s="7">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7">
         <v>1.1</v>
       </c>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
     </row>
     <row r="129" ht="13.55" customHeight="1">
-      <c r="A129" t="s" s="7">
+      <c r="A129" t="s" s="6">
         <v>202</v>
       </c>
-      <c r="B129" t="s" s="7">
+      <c r="B129" t="s" s="6">
         <v>203</v>
       </c>
-      <c r="C129" s="8">
+      <c r="C129" s="7">
         <v>69.61</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="7">
         <v>248.201</v>
       </c>
-      <c r="E129" s="8">
+      <c r="E129" s="7">
         <v>12</v>
       </c>
-      <c r="F129" s="8">
-        <v>1</v>
-      </c>
-      <c r="G129" s="8">
+      <c r="F129" s="7">
+        <v>1</v>
+      </c>
+      <c r="G129" s="7">
         <v>3</v>
       </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
     </row>
     <row r="130" ht="13.55" customHeight="1">
-      <c r="A130" t="s" s="7">
+      <c r="A130" t="s" s="6">
         <v>204</v>
       </c>
-      <c r="B130" t="s" s="7">
+      <c r="B130" t="s" s="6">
         <v>205</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="7">
         <v>84.97</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="7">
         <v>248.201</v>
       </c>
-      <c r="E130" s="8">
+      <c r="E130" s="7">
         <v>12</v>
       </c>
-      <c r="F130" s="8">
-        <v>1</v>
-      </c>
-      <c r="G130" s="8">
+      <c r="F130" s="7">
+        <v>1</v>
+      </c>
+      <c r="G130" s="7">
         <v>3</v>
       </c>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
     </row>
     <row r="131" ht="13.55" customHeight="1">
-      <c r="A131" t="s" s="7">
+      <c r="A131" t="s" s="6">
         <v>206</v>
       </c>
-      <c r="B131" t="s" s="7">
+      <c r="B131" t="s" s="6">
         <v>207</v>
       </c>
-      <c r="C131" s="8">
+      <c r="C131" s="7">
         <v>120.91</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="7">
         <v>248.201</v>
       </c>
-      <c r="E131" s="8">
+      <c r="E131" s="7">
         <v>12</v>
       </c>
-      <c r="F131" s="8">
-        <v>1</v>
-      </c>
-      <c r="G131" s="8">
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
+      <c r="G131" s="7">
         <v>3</v>
       </c>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
     </row>
     <row r="132" ht="13.55" customHeight="1">
-      <c r="A132" t="s" s="7">
+      <c r="A132" t="s" s="6">
         <v>208</v>
       </c>
-      <c r="B132" t="s" s="7">
+      <c r="B132" t="s" s="6">
         <v>209</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="7">
         <v>130.17</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="7">
         <v>207</v>
       </c>
-      <c r="E132" s="8">
+      <c r="E132" s="7">
         <v>12</v>
       </c>
-      <c r="F132" s="8">
-        <v>1</v>
-      </c>
-      <c r="G132" s="8">
+      <c r="F132" s="7">
+        <v>1</v>
+      </c>
+      <c r="G132" s="7">
         <v>3</v>
       </c>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
     </row>
     <row r="133" ht="13.55" customHeight="1">
-      <c r="A133" t="s" s="7">
+      <c r="A133" t="s" s="6">
         <v>210</v>
       </c>
-      <c r="B133" t="s" s="7">
+      <c r="B133" t="s" s="6">
         <v>211</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="7">
         <v>11.85</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="7">
         <v>34.5</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E133" s="7">
         <v>12</v>
       </c>
-      <c r="F133" s="8">
-        <v>1</v>
-      </c>
-      <c r="G133" s="8">
+      <c r="F133" s="7">
+        <v>1</v>
+      </c>
+      <c r="G133" s="7">
         <v>0.53</v>
       </c>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
     </row>
     <row r="134" ht="13.55" customHeight="1">
-      <c r="A134" t="s" s="7">
+      <c r="A134" t="s" s="6">
         <v>212</v>
       </c>
-      <c r="B134" t="s" s="7">
+      <c r="B134" t="s" s="6">
         <v>213</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="7">
         <v>17.89</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="7">
         <v>48.7</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="7">
         <v>12</v>
       </c>
-      <c r="F134" s="8">
-        <v>1</v>
-      </c>
-      <c r="G134" s="8">
-        <v>1</v>
-      </c>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
+      <c r="F134" s="7">
+        <v>1</v>
+      </c>
+      <c r="G134" s="7">
+        <v>1</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
     </row>
     <row r="135" ht="13.55" customHeight="1">
-      <c r="A135" t="s" s="7">
+      <c r="A135" t="s" s="6">
         <v>214</v>
       </c>
-      <c r="B135" t="s" s="7">
+      <c r="B135" t="s" s="6">
         <v>215</v>
       </c>
-      <c r="C135" s="8">
+      <c r="C135" s="7">
         <v>21.89</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="7">
         <v>24</v>
       </c>
-      <c r="E135" s="8">
+      <c r="E135" s="7">
         <v>12</v>
       </c>
-      <c r="F135" s="8">
-        <v>1</v>
-      </c>
-      <c r="G135" s="8">
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
+      <c r="G135" s="7">
         <v>0.5</v>
       </c>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
     </row>
     <row r="136" ht="13.55" customHeight="1">
-      <c r="A136" t="s" s="7">
+      <c r="A136" t="s" s="6">
         <v>216</v>
       </c>
-      <c r="B136" t="s" s="7">
+      <c r="B136" t="s" s="6">
         <v>217</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C136" s="7">
         <v>0.49</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="7">
         <v>2.234</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E136" s="7">
         <v>10</v>
       </c>
-      <c r="F136" s="8">
-        <v>1</v>
-      </c>
-      <c r="G136" s="8">
+      <c r="F136" s="7">
+        <v>1</v>
+      </c>
+      <c r="G136" s="7">
         <v>0.1</v>
       </c>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
     </row>
     <row r="137" ht="13.55" customHeight="1">
-      <c r="A137" t="s" s="7">
+      <c r="A137" t="s" s="6">
         <v>218</v>
       </c>
-      <c r="B137" t="s" s="7">
+      <c r="B137" t="s" s="6">
         <v>219</v>
       </c>
-      <c r="C137" s="8">
+      <c r="C137" s="7">
         <v>68.42</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="7">
         <v>216.554</v>
       </c>
-      <c r="E137" s="8">
+      <c r="E137" s="7">
         <v>12</v>
       </c>
-      <c r="F137" s="8">
-        <v>1</v>
-      </c>
-      <c r="G137" s="8">
+      <c r="F137" s="7">
+        <v>1</v>
+      </c>
+      <c r="G137" s="7">
         <v>2.5</v>
       </c>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
     </row>
     <row r="138" ht="13.55" customHeight="1">
-      <c r="A138" t="s" s="7">
+      <c r="A138" t="s" s="6">
         <v>220</v>
       </c>
-      <c r="B138" t="s" s="7">
+      <c r="B138" t="s" s="6">
         <v>221</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="7">
         <v>216.38</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="7">
         <v>450.756</v>
       </c>
-      <c r="E138" s="8">
+      <c r="E138" s="7">
         <v>12</v>
       </c>
-      <c r="F138" s="8">
-        <v>1</v>
-      </c>
-      <c r="G138" s="8">
+      <c r="F138" s="7">
+        <v>1</v>
+      </c>
+      <c r="G138" s="7">
         <v>0.1</v>
       </c>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139" ht="13.55" customHeight="1">
-      <c r="A139" t="s" s="7">
+      <c r="A139" t="s" s="6">
         <v>220</v>
       </c>
-      <c r="B139" t="s" s="7">
+      <c r="B139" t="s" s="6">
         <v>221</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="7">
         <v>216.38</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="7">
         <v>450.756</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E139" s="7">
         <v>12</v>
       </c>
-      <c r="F139" s="8">
-        <v>1</v>
-      </c>
-      <c r="G139" s="8">
+      <c r="F139" s="7">
+        <v>1</v>
+      </c>
+      <c r="G139" s="7">
         <v>0.1</v>
       </c>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="140" ht="13.55" customHeight="1">
-      <c r="A140" t="s" s="7">
+      <c r="A140" t="s" s="6">
+        <v>220</v>
+      </c>
+      <c r="B140" t="s" s="6">
+        <v>221</v>
+      </c>
+      <c r="C140" s="7">
+        <v>216.38</v>
+      </c>
+      <c r="D140" s="7">
+        <v>450.756</v>
+      </c>
+      <c r="E140" s="7">
+        <v>12</v>
+      </c>
+      <c r="F140" s="7">
+        <v>1</v>
+      </c>
+      <c r="G140" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+    </row>
+    <row r="141" ht="13.55" customHeight="1">
+      <c r="A141" t="s" s="6">
+        <v>220</v>
+      </c>
+      <c r="B141" t="s" s="6">
+        <v>221</v>
+      </c>
+      <c r="C141" s="7">
+        <v>216.38</v>
+      </c>
+      <c r="D141" s="7">
+        <v>450.756</v>
+      </c>
+      <c r="E141" s="7">
+        <v>12</v>
+      </c>
+      <c r="F141" s="7">
+        <v>1</v>
+      </c>
+      <c r="G141" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+    </row>
+    <row r="142" ht="13.55" customHeight="1">
+      <c r="A142" t="s" s="6">
         <v>222</v>
       </c>
-      <c r="B140" t="s" s="7">
+      <c r="B142" t="s" s="6">
         <v>223</v>
       </c>
-      <c r="C140" s="8">
+      <c r="C142" s="7">
         <v>1.38</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D142" s="7">
         <v>5.475</v>
       </c>
-      <c r="E140" s="8">
+      <c r="E142" s="7">
         <v>2</v>
       </c>
-      <c r="F140" s="8">
-        <v>1</v>
-      </c>
-      <c r="G140" s="8">
+      <c r="F142" s="7">
+        <v>1</v>
+      </c>
+      <c r="G142" s="7">
         <v>0.1</v>
       </c>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-    </row>
-    <row r="141" ht="13.55" customHeight="1">
-      <c r="A141" t="s" s="7">
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+    </row>
+    <row r="143" ht="13.55" customHeight="1">
+      <c r="A143" t="s" s="6">
         <v>224</v>
       </c>
-      <c r="B141" t="s" s="7">
+      <c r="B143" t="s" s="6">
         <v>225</v>
       </c>
-      <c r="C141" s="8">
+      <c r="C143" s="7">
         <v>1.36</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D143" s="7">
         <v>5.493</v>
       </c>
-      <c r="E141" s="8">
+      <c r="E143" s="7">
         <v>3</v>
       </c>
-      <c r="F141" s="8">
-        <v>1</v>
-      </c>
-      <c r="G141" s="8">
+      <c r="F143" s="7">
+        <v>1</v>
+      </c>
+      <c r="G143" s="7">
         <v>0.1</v>
       </c>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-    </row>
-    <row r="142" ht="13.55" customHeight="1">
-      <c r="A142" t="s" s="7">
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+    </row>
+    <row r="144" ht="13.55" customHeight="1">
+      <c r="A144" t="s" s="6">
         <v>226</v>
       </c>
-      <c r="B142" t="s" s="7">
+      <c r="B144" t="s" s="6">
         <v>227</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C144" s="7">
         <v>1.42</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D144" s="7">
         <v>5.6</v>
       </c>
-      <c r="E142" s="8">
+      <c r="E144" s="7">
         <v>5</v>
       </c>
-      <c r="F142" s="8">
-        <v>1</v>
-      </c>
-      <c r="G142" s="8">
+      <c r="F144" s="7">
+        <v>1</v>
+      </c>
+      <c r="G144" s="7">
         <v>0.1</v>
       </c>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-    </row>
-    <row r="143" ht="13.55" customHeight="1">
-      <c r="A143" t="s" s="7">
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+    </row>
+    <row r="145" ht="13.55" customHeight="1">
+      <c r="A145" t="s" s="6">
         <v>228</v>
       </c>
-      <c r="B143" t="s" s="7">
+      <c r="B145" t="s" s="6">
         <v>229</v>
       </c>
-      <c r="C143" s="8">
+      <c r="C145" s="7">
         <v>0.49</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D145" s="7">
         <v>1.7</v>
       </c>
-      <c r="E143" s="8">
+      <c r="E145" s="7">
         <v>6</v>
       </c>
-      <c r="F143" s="8">
-        <v>1</v>
-      </c>
-      <c r="G143" s="8">
+      <c r="F145" s="7">
+        <v>1</v>
+      </c>
+      <c r="G145" s="7">
         <v>0.1</v>
       </c>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-    </row>
-    <row r="144" ht="13.55" customHeight="1">
-      <c r="A144" t="s" s="7">
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+    </row>
+    <row r="146" ht="13.55" customHeight="1">
+      <c r="A146" t="s" s="6">
         <v>230</v>
       </c>
-      <c r="B144" t="s" s="7">
+      <c r="B146" t="s" s="6">
         <v>231</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C146" s="7">
         <v>6.32</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D146" s="7">
         <v>32.054</v>
       </c>
-      <c r="E144" s="8">
+      <c r="E146" s="7">
         <v>8</v>
       </c>
-      <c r="F144" s="8">
-        <v>1</v>
-      </c>
-      <c r="G144" s="8">
+      <c r="F146" s="7">
+        <v>1</v>
+      </c>
+      <c r="G146" s="7">
         <v>0.1</v>
       </c>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-    </row>
-    <row r="145" ht="13.55" customHeight="1">
-      <c r="A145" t="s" s="7">
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+    </row>
+    <row r="147" ht="13.55" customHeight="1">
+      <c r="A147" t="s" s="6">
         <v>232</v>
       </c>
-      <c r="B145" t="s" s="7">
+      <c r="B147" t="s" s="6">
         <v>233</v>
       </c>
-      <c r="C145" s="8">
+      <c r="C147" s="7">
         <v>26.16</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D147" s="7">
         <v>26.938</v>
       </c>
-      <c r="E145" s="8">
+      <c r="E147" s="7">
         <v>16</v>
       </c>
-      <c r="F145" s="8">
-        <v>1</v>
-      </c>
-      <c r="G145" s="8">
+      <c r="F147" s="7">
+        <v>1</v>
+      </c>
+      <c r="G147" s="7">
         <v>0.1</v>
       </c>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-    </row>
-    <row r="146" ht="13.55" customHeight="1">
-      <c r="A146" t="s" s="7">
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+    </row>
+    <row r="148" ht="13.55" customHeight="1">
+      <c r="A148" t="s" s="6">
         <v>234</v>
       </c>
-      <c r="B146" t="s" s="7">
+      <c r="B148" t="s" s="6">
         <v>235</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C148" s="7">
         <v>5.38</v>
       </c>
-      <c r="D146" s="8">
+      <c r="D148" s="7">
         <v>13</v>
       </c>
-      <c r="E146" s="8">
+      <c r="E148" s="7">
         <v>16</v>
       </c>
-      <c r="F146" s="8">
-        <v>1</v>
-      </c>
-      <c r="G146" s="8">
+      <c r="F148" s="7">
+        <v>1</v>
+      </c>
+      <c r="G148" s="7">
         <v>0.1</v>
       </c>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-    </row>
-    <row r="147" ht="13.55" customHeight="1">
-      <c r="A147" t="s" s="7">
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+    </row>
+    <row r="149" ht="13.55" customHeight="1">
+      <c r="A149" t="s" s="6">
         <v>236</v>
       </c>
-      <c r="B147" t="s" s="7">
+      <c r="B149" t="s" s="6">
         <v>237</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C149" s="7">
         <v>42.82</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D149" s="7">
         <v>152.431</v>
       </c>
-      <c r="E147" s="8">
+      <c r="E149" s="7">
         <v>6</v>
       </c>
-      <c r="F147" s="8">
-        <v>1</v>
-      </c>
-      <c r="G147" s="8">
+      <c r="F149" s="7">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7">
         <v>1.4</v>
       </c>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-    </row>
-    <row r="148" ht="13.55" customHeight="1">
-      <c r="A148" t="s" s="7">
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+    </row>
+    <row r="150" ht="13.55" customHeight="1">
+      <c r="A150" t="s" s="6">
         <v>238</v>
       </c>
-      <c r="B148" t="s" s="7">
+      <c r="B150" t="s" s="6">
         <v>239</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C150" s="7">
         <v>43.29</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D150" s="7">
         <v>152.431</v>
       </c>
-      <c r="E148" s="8">
+      <c r="E150" s="7">
         <v>6</v>
       </c>
-      <c r="F148" s="8">
-        <v>1</v>
-      </c>
-      <c r="G148" s="8">
+      <c r="F150" s="7">
+        <v>1</v>
+      </c>
+      <c r="G150" s="7">
         <v>1.5</v>
       </c>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-    </row>
-    <row r="149" ht="13.55" customHeight="1">
-      <c r="A149" t="s" s="7">
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+    </row>
+    <row r="151" ht="13.55" customHeight="1">
+      <c r="A151" t="s" s="6">
         <v>240</v>
       </c>
-      <c r="B149" t="s" s="7">
+      <c r="B151" t="s" s="6">
         <v>241</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C151" s="7">
         <v>21.26</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D151" s="7">
         <v>143.961</v>
       </c>
-      <c r="E149" s="8">
+      <c r="E151" s="7">
         <v>6</v>
       </c>
-      <c r="F149" s="8">
-        <v>1</v>
-      </c>
-      <c r="G149" s="8">
+      <c r="F151" s="7">
+        <v>1</v>
+      </c>
+      <c r="G151" s="7">
         <v>0.6</v>
       </c>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-    </row>
-    <row r="150" ht="13.55" customHeight="1">
-      <c r="A150" t="s" s="7">
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+    </row>
+    <row r="152" ht="13.55" customHeight="1">
+      <c r="A152" t="s" s="6">
         <v>242</v>
       </c>
-      <c r="B150" t="s" s="7">
+      <c r="B152" t="s" s="6">
         <v>243</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C152" s="7">
         <v>22</v>
       </c>
-      <c r="D150" s="8">
+      <c r="D152" s="7">
         <v>138.225</v>
       </c>
-      <c r="E150" s="8">
+      <c r="E152" s="7">
         <v>6</v>
       </c>
-      <c r="F150" s="8">
-        <v>1</v>
-      </c>
-      <c r="G150" s="8">
+      <c r="F152" s="7">
+        <v>1</v>
+      </c>
+      <c r="G152" s="7">
         <v>0.6</v>
       </c>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-    </row>
-    <row r="151" ht="13.55" customHeight="1">
-      <c r="A151" t="s" s="7">
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+    </row>
+    <row r="153" ht="13.55" customHeight="1">
+      <c r="A153" t="s" s="6">
         <v>244</v>
       </c>
-      <c r="B151" t="s" s="7">
+      <c r="B153" t="s" s="6">
         <v>245</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C153" s="7">
         <v>22.93</v>
       </c>
-      <c r="D151" s="8">
+      <c r="D153" s="7">
         <v>143.961</v>
       </c>
-      <c r="E151" s="8">
+      <c r="E153" s="7">
         <v>6</v>
       </c>
-      <c r="F151" s="8">
-        <v>1</v>
-      </c>
-      <c r="G151" s="8">
+      <c r="F153" s="7">
+        <v>1</v>
+      </c>
+      <c r="G153" s="7">
         <v>0.4</v>
       </c>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-    </row>
-    <row r="152" ht="13.55" customHeight="1">
-      <c r="A152" t="s" s="7">
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+    </row>
+    <row r="154" ht="13.55" customHeight="1">
+      <c r="A154" t="s" s="6">
         <v>246</v>
       </c>
-      <c r="B152" t="s" s="7">
+      <c r="B154" t="s" s="6">
         <v>247</v>
       </c>
-      <c r="C152" s="8">
+      <c r="C154" s="7">
         <v>20.82</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D154" s="7">
         <v>45.773</v>
       </c>
-      <c r="E152" s="8">
+      <c r="E154" s="7">
         <v>10</v>
       </c>
-      <c r="F152" s="8">
-        <v>1</v>
-      </c>
-      <c r="G152" s="8">
+      <c r="F154" s="7">
+        <v>1</v>
+      </c>
+      <c r="G154" s="7">
         <v>0.6</v>
       </c>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-    </row>
-    <row r="153" ht="13.55" customHeight="1">
-      <c r="A153" t="s" s="7">
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+    </row>
+    <row r="155" ht="13.55" customHeight="1">
+      <c r="A155" t="s" s="6">
         <v>248</v>
       </c>
-      <c r="B153" t="s" s="7">
+      <c r="B155" t="s" s="6">
         <v>249</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C155" s="7">
         <v>3.79</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D155" s="7">
         <v>19.428</v>
       </c>
-      <c r="E153" s="8">
+      <c r="E155" s="7">
         <v>10</v>
       </c>
-      <c r="F153" s="8">
-        <v>1</v>
-      </c>
-      <c r="G153" s="8">
+      <c r="F155" s="7">
+        <v>1</v>
+      </c>
+      <c r="G155" s="7">
         <v>0.1</v>
       </c>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
-    </row>
-    <row r="154" ht="13.55" customHeight="1">
-      <c r="A154" t="s" s="7">
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+    </row>
+    <row r="156" ht="13.55" customHeight="1">
+      <c r="A156" t="s" s="6">
         <v>250</v>
       </c>
-      <c r="B154" t="s" s="7">
+      <c r="B156" t="s" s="6">
         <v>251</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C156" s="7">
         <v>0.34</v>
       </c>
-      <c r="D154" s="8">
+      <c r="D156" s="7">
         <v>0.3</v>
       </c>
-      <c r="E154" s="8">
+      <c r="E156" s="7">
         <v>16</v>
       </c>
-      <c r="F154" s="8">
-        <v>1</v>
-      </c>
-      <c r="G154" s="8">
+      <c r="F156" s="7">
+        <v>1</v>
+      </c>
+      <c r="G156" s="7">
         <v>0.1</v>
       </c>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
-    </row>
-    <row r="155" ht="13.55" customHeight="1">
-      <c r="A155" t="s" s="7">
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+    </row>
+    <row r="157" ht="13.55" customHeight="1">
+      <c r="A157" t="s" s="6">
         <v>252</v>
       </c>
-      <c r="B155" t="s" s="7">
+      <c r="B157" t="s" s="6">
         <v>253</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C157" s="7">
         <v>11.98</v>
       </c>
-      <c r="D155" s="8">
+      <c r="D157" s="7">
         <v>38.291</v>
       </c>
-      <c r="E155" s="8">
+      <c r="E157" s="7">
         <v>12</v>
       </c>
-      <c r="F155" s="8">
-        <v>1</v>
-      </c>
-      <c r="G155" s="8">
+      <c r="F157" s="7">
+        <v>1</v>
+      </c>
+      <c r="G157" s="7">
         <v>0.2</v>
       </c>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
-    </row>
-    <row r="156" ht="13.55" customHeight="1">
-      <c r="A156" t="s" s="7">
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+    </row>
+    <row r="158" ht="13.55" customHeight="1">
+      <c r="A158" t="s" s="6">
         <v>254</v>
       </c>
-      <c r="B156" t="s" s="7">
+      <c r="B158" t="s" s="6">
         <v>255</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C158" s="7">
         <v>119.41</v>
       </c>
-      <c r="D156" s="8">
+      <c r="D158" s="7">
         <v>354.86</v>
       </c>
-      <c r="E156" s="8">
+      <c r="E158" s="7">
         <v>10</v>
       </c>
-      <c r="F156" s="8">
-        <v>1</v>
-      </c>
-      <c r="G156" s="8">
+      <c r="F158" s="7">
+        <v>1</v>
+      </c>
+      <c r="G158" s="7">
         <v>0.6</v>
       </c>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
-    </row>
-    <row r="157" ht="13.55" customHeight="1">
-      <c r="A157" t="s" s="7">
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+    </row>
+    <row r="159" ht="13.55" customHeight="1">
+      <c r="A159" t="s" s="6">
         <v>256</v>
       </c>
-      <c r="B157" t="s" s="7">
+      <c r="B159" t="s" s="6">
         <v>257</v>
       </c>
-      <c r="C157" s="8">
+      <c r="C159" s="7">
         <v>24.68</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D159" s="7">
         <v>64.59399999999999</v>
       </c>
-      <c r="E157" s="8">
+      <c r="E159" s="7">
         <v>10</v>
       </c>
-      <c r="F157" s="8">
-        <v>1</v>
-      </c>
-      <c r="G157" s="8">
+      <c r="F159" s="7">
+        <v>1</v>
+      </c>
+      <c r="G159" s="7">
         <v>1.2</v>
       </c>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="9"/>
-    </row>
-    <row r="158" ht="13.55" customHeight="1">
-      <c r="A158" t="s" s="7">
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+    </row>
+    <row r="160" ht="13.55" customHeight="1">
+      <c r="A160" t="s" s="6">
         <v>258</v>
       </c>
-      <c r="B158" t="s" s="7">
+      <c r="B160" t="s" s="6">
         <v>259</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C160" s="7">
         <v>167.31</v>
       </c>
-      <c r="D158" s="8">
+      <c r="D160" s="7">
         <v>485</v>
       </c>
-      <c r="E158" s="8">
+      <c r="E160" s="7">
         <v>12</v>
       </c>
-      <c r="F158" s="8">
-        <v>1</v>
-      </c>
-      <c r="G158" s="8">
+      <c r="F160" s="7">
+        <v>1</v>
+      </c>
+      <c r="G160" s="7">
         <v>2.42</v>
       </c>
-      <c r="H158" s="8">
+      <c r="H160" s="7">
         <v>2.79</v>
       </c>
-      <c r="I158" s="8">
+      <c r="I160" s="7">
         <v>0.37</v>
       </c>
-      <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
-    </row>
-    <row r="159" ht="13.55" customHeight="1">
-      <c r="A159" t="s" s="7">
+    </row>
+    <row r="161" ht="13.55" customHeight="1">
+      <c r="A161" t="s" s="6">
         <v>260</v>
       </c>
-      <c r="B159" t="s" s="7">
+      <c r="B161" t="s" s="6">
         <v>261</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C161" s="7">
         <v>43.47</v>
       </c>
-      <c r="D159" s="8">
+      <c r="D161" s="7">
         <v>118.61</v>
       </c>
-      <c r="E159" s="8">
+      <c r="E161" s="7">
         <v>12</v>
       </c>
-      <c r="F159" s="8">
-        <v>1</v>
-      </c>
-      <c r="G159" s="8">
+      <c r="F161" s="7">
+        <v>1</v>
+      </c>
+      <c r="G161" s="7">
         <v>0.55</v>
       </c>
-      <c r="H159" s="8">
+      <c r="H161" s="7">
         <v>0.73</v>
       </c>
-      <c r="I159" s="8">
+      <c r="I161" s="7">
         <v>0.18</v>
       </c>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-    </row>
-    <row r="160" ht="13.55" customHeight="1">
-      <c r="A160" t="s" s="7">
+    </row>
+    <row r="162" ht="13.55" customHeight="1">
+      <c r="A162" t="s" s="6">
         <v>262</v>
       </c>
-      <c r="B160" t="s" s="7">
+      <c r="B162" t="s" s="6">
         <v>263</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C162" s="7">
         <v>99.67</v>
       </c>
-      <c r="D160" s="8">
+      <c r="D162" s="7">
         <v>118.61</v>
       </c>
-      <c r="E160" s="8">
+      <c r="E162" s="7">
         <v>12</v>
       </c>
-      <c r="F160" s="8">
-        <v>1</v>
-      </c>
-      <c r="G160" s="8">
+      <c r="F162" s="7">
+        <v>1</v>
+      </c>
+      <c r="G162" s="7">
         <v>0.55</v>
       </c>
-      <c r="H160" s="8">
+      <c r="H162" s="7">
         <v>1.67</v>
       </c>
-      <c r="I160" s="8">
+      <c r="I162" s="7">
         <v>1.12</v>
       </c>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-    </row>
-    <row r="161" ht="13.55" customHeight="1">
-      <c r="A161" t="s" s="7">
+    </row>
+    <row r="163" ht="13.55" customHeight="1">
+      <c r="A163" t="s" s="6">
         <v>264</v>
       </c>
-      <c r="B161" t="s" s="7">
+      <c r="B163" t="s" s="6">
         <v>265</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C163" s="7">
         <v>34.58</v>
       </c>
-      <c r="D161" s="8">
+      <c r="D163" s="7">
         <v>104.31</v>
       </c>
-      <c r="E161" s="8">
+      <c r="E163" s="7">
         <v>12</v>
       </c>
-      <c r="F161" s="8">
-        <v>1</v>
-      </c>
-      <c r="G161" s="8">
+      <c r="F163" s="7">
+        <v>1</v>
+      </c>
+      <c r="G163" s="7">
         <v>0.48</v>
       </c>
-      <c r="H161" s="8">
+      <c r="H163" s="7">
         <v>0.58</v>
       </c>
-      <c r="I161" s="8">
+      <c r="I163" s="7">
         <v>0.1</v>
       </c>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-    </row>
-    <row r="162" ht="13.55" customHeight="1">
-      <c r="A162" t="s" s="7">
+    </row>
+    <row r="164" ht="13.55" customHeight="1">
+      <c r="A164" t="s" s="6">
         <v>266</v>
       </c>
-      <c r="B162" t="s" s="7">
+      <c r="B164" t="s" s="6">
         <v>267</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C164" s="7">
         <v>45.49</v>
       </c>
-      <c r="D162" s="8">
+      <c r="D164" s="7">
         <v>110</v>
       </c>
-      <c r="E162" s="8">
+      <c r="E164" s="7">
         <v>12</v>
       </c>
-      <c r="F162" s="8">
-        <v>1</v>
-      </c>
-      <c r="G162" s="8">
+      <c r="F164" s="7">
+        <v>1</v>
+      </c>
+      <c r="G164" s="7">
         <v>0.5</v>
       </c>
-      <c r="H162" s="8">
+      <c r="H164" s="7">
         <v>0.76</v>
       </c>
-      <c r="I162" s="8">
+      <c r="I164" s="7">
         <v>0.26</v>
       </c>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
-    </row>
-    <row r="163" ht="13.55" customHeight="1">
-      <c r="A163" t="s" s="7">
+    </row>
+    <row r="165" ht="13.55" customHeight="1">
+      <c r="A165" t="s" s="6">
         <v>268</v>
       </c>
-      <c r="B163" t="s" s="7">
+      <c r="B165" t="s" s="6">
         <v>269</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C165" s="7">
         <v>194.66</v>
       </c>
-      <c r="D163" s="8">
+      <c r="D165" s="7">
         <v>561.2</v>
       </c>
-      <c r="E163" s="8">
+      <c r="E165" s="7">
         <v>12</v>
       </c>
-      <c r="F163" s="8">
-        <v>1</v>
-      </c>
-      <c r="G163" s="8">
+      <c r="F165" s="7">
+        <v>1</v>
+      </c>
+      <c r="G165" s="7">
         <v>3</v>
       </c>
-      <c r="H163" s="8">
+      <c r="H165" s="7">
         <v>3.25</v>
       </c>
-      <c r="I163" s="8">
+      <c r="I165" s="7">
         <v>0.25</v>
       </c>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-    </row>
-    <row r="164" ht="13.55" customHeight="1">
-      <c r="A164" t="s" s="7">
+    </row>
+    <row r="166" ht="13.55" customHeight="1">
+      <c r="A166" t="s" s="6">
         <v>270</v>
       </c>
-      <c r="B164" t="s" s="7">
+      <c r="B166" t="s" s="6">
         <v>271</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C166" s="7">
         <v>321.56</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D166" s="7">
         <v>850.95</v>
       </c>
-      <c r="E164" s="8">
+      <c r="E166" s="7">
         <v>12</v>
       </c>
-      <c r="F164" s="8">
-        <v>1</v>
-      </c>
-      <c r="G164" s="8">
+      <c r="F166" s="7">
+        <v>1</v>
+      </c>
+      <c r="G166" s="7">
         <v>4.24</v>
       </c>
-      <c r="H164" s="8">
+      <c r="H166" s="7">
         <v>5.36</v>
       </c>
-      <c r="I164" s="8">
+      <c r="I166" s="7">
         <v>1.12</v>
       </c>
-      <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
-    </row>
-    <row r="165" ht="13.55" customHeight="1">
-      <c r="A165" t="s" s="7">
+    </row>
+    <row r="167" ht="13.55" customHeight="1">
+      <c r="A167" t="s" s="6">
         <v>272</v>
       </c>
-      <c r="B165" t="s" s="7">
+      <c r="B167" t="s" s="6">
         <v>273</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C167" s="7">
         <v>28.94</v>
       </c>
-      <c r="D165" s="8">
+      <c r="D167" s="7">
         <v>24.88</v>
       </c>
-      <c r="E165" s="8">
+      <c r="E167" s="7">
         <v>20</v>
       </c>
-      <c r="F165" s="8">
-        <v>1</v>
-      </c>
-      <c r="G165" s="8">
+      <c r="F167" s="7">
+        <v>1</v>
+      </c>
+      <c r="G167" s="7">
         <v>0.14</v>
       </c>
-      <c r="H165" s="8">
+      <c r="H167" s="7">
         <v>0.49</v>
       </c>
-      <c r="I165" s="8">
+      <c r="I167" s="7">
         <v>0.35</v>
       </c>
-      <c r="J165" s="9"/>
-      <c r="K165" s="9"/>
-    </row>
-    <row r="166" ht="13.55" customHeight="1">
-      <c r="A166" t="s" s="7">
+    </row>
+    <row r="168" ht="13.55" customHeight="1">
+      <c r="A168" t="s" s="6">
         <v>274</v>
       </c>
-      <c r="B166" t="s" s="7">
+      <c r="B168" t="s" s="6">
         <v>275</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C168" s="7">
         <v>43.34</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D168" s="7">
         <v>24.18</v>
       </c>
-      <c r="E166" s="8">
+      <c r="E168" s="7">
         <v>25</v>
       </c>
-      <c r="F166" s="8">
-        <v>1</v>
-      </c>
-      <c r="G166" s="8">
+      <c r="F168" s="7">
+        <v>1</v>
+      </c>
+      <c r="G168" s="7">
         <v>0.15</v>
       </c>
-      <c r="H166" s="8">
+      <c r="H168" s="7">
         <v>0.73</v>
       </c>
-      <c r="I166" s="8">
+      <c r="I168" s="7">
         <v>0.58</v>
       </c>
-      <c r="J166" s="9"/>
-      <c r="K166" s="9"/>
-    </row>
-    <row r="167" ht="13.55" customHeight="1">
-      <c r="A167" t="s" s="7">
+    </row>
+    <row r="169" ht="13.55" customHeight="1">
+      <c r="A169" t="s" s="6">
         <v>276</v>
       </c>
-      <c r="B167" t="s" s="7">
+      <c r="B169" t="s" s="6">
         <v>277</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C169" s="7">
         <v>19.21</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D169" s="7">
         <v>5</v>
       </c>
-      <c r="E167" s="8">
+      <c r="E169" s="7">
         <v>32</v>
       </c>
-      <c r="F167" s="8">
-        <v>1</v>
-      </c>
-      <c r="G167" s="8">
+      <c r="F169" s="7">
+        <v>1</v>
+      </c>
+      <c r="G169" s="7">
         <v>0.3</v>
       </c>
-      <c r="H167" s="8">
+      <c r="H169" s="7">
         <v>0.33</v>
       </c>
-      <c r="I167" s="8">
+      <c r="I169" s="7">
         <v>0.03</v>
       </c>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-    </row>
-    <row r="168" ht="13.55" customHeight="1">
-      <c r="A168" t="s" s="7">
+    </row>
+    <row r="170" ht="13.55" customHeight="1">
+      <c r="A170" t="s" s="6">
         <v>278</v>
       </c>
-      <c r="B168" t="s" s="7">
+      <c r="B170" t="s" s="6">
         <v>279</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C170" s="7">
         <v>195.6</v>
       </c>
-      <c r="D168" s="8">
+      <c r="D170" s="7">
         <v>17</v>
       </c>
-      <c r="E168" s="8">
+      <c r="E170" s="7">
         <v>32</v>
       </c>
-      <c r="F168" s="8">
-        <v>1</v>
-      </c>
-      <c r="G168" s="8">
+      <c r="F170" s="7">
+        <v>1</v>
+      </c>
+      <c r="G170" s="7">
         <v>0.11</v>
       </c>
-      <c r="H168" s="8">
+      <c r="H170" s="7">
         <v>3.27</v>
       </c>
-      <c r="I168" s="8">
+      <c r="I170" s="7">
         <v>3.16</v>
       </c>
-      <c r="J168" s="9"/>
-      <c r="K168" s="9"/>
-    </row>
-    <row r="169" ht="13.55" customHeight="1">
-      <c r="A169" t="s" s="7">
+    </row>
+    <row r="171" ht="13.55" customHeight="1">
+      <c r="A171" t="s" s="6">
         <v>280</v>
       </c>
-      <c r="B169" t="s" s="7">
+      <c r="B171" t="s" s="6">
         <v>281</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C171" s="7">
         <v>31.58</v>
       </c>
-      <c r="D169" s="8">
+      <c r="D171" s="7">
         <v>145.52</v>
       </c>
-      <c r="E169" s="8">
+      <c r="E171" s="7">
         <v>10</v>
       </c>
-      <c r="F169" s="8">
-        <v>1</v>
-      </c>
-      <c r="G169" s="8">
+      <c r="F171" s="7">
+        <v>1</v>
+      </c>
+      <c r="G171" s="7">
         <v>6.83</v>
       </c>
-      <c r="H169" s="8">
+      <c r="H171" s="7">
         <v>0.53</v>
       </c>
-      <c r="I169" s="8">
+      <c r="I171" s="7">
         <v>-6.3</v>
       </c>
-      <c r="J169" s="9"/>
-      <c r="K169" s="9"/>
-    </row>
-    <row r="170" ht="13.55" customHeight="1">
-      <c r="A170" t="s" s="7">
+    </row>
+    <row r="172" ht="13.55" customHeight="1">
+      <c r="A172" t="s" s="6">
         <v>282</v>
       </c>
-      <c r="B170" t="s" s="7">
+      <c r="B172" t="s" s="6">
         <v>283</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C172" s="7">
         <v>34.53</v>
       </c>
-      <c r="D170" s="8">
+      <c r="D172" s="7">
         <v>12.17</v>
       </c>
-      <c r="E170" s="8">
+      <c r="E172" s="7">
         <v>25</v>
       </c>
-      <c r="F170" s="8">
-        <v>1</v>
-      </c>
-      <c r="G170" s="8">
+      <c r="F172" s="7">
+        <v>1</v>
+      </c>
+      <c r="G172" s="7">
         <v>0.86</v>
       </c>
-      <c r="H170" s="8">
+      <c r="H172" s="7">
         <v>0.58</v>
       </c>
-      <c r="I170" s="8">
+      <c r="I172" s="7">
         <v>-0.28</v>
       </c>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
+    </row>
+    <row r="173" ht="13.55" customHeight="1">
+      <c r="A173" t="s" s="6">
+        <v>284</v>
+      </c>
+      <c r="B173" t="s" s="6">
+        <v>285</v>
+      </c>
+      <c r="C173" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="D173" s="7">
+        <v>30</v>
+      </c>
+      <c r="E173" s="7">
+        <v>12</v>
+      </c>
+      <c r="F173" s="7">
+        <v>1</v>
+      </c>
+      <c r="G173" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>timestamp</t>
   </si>
@@ -145,6 +145,12 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
+    <t>2024-07-01 15:37:17</t>
+  </si>
+  <si>
+    <t>CORTE ESPECIAL.slp</t>
+  </si>
+  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -733,12 +739,72 @@
     <t>L_02163.NC</t>
   </si>
   <si>
+    <t>2024-07-31 08:02:38</t>
+  </si>
+  <si>
+    <t>L_02164.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 15:45:16</t>
+  </si>
+  <si>
+    <t>L_02166.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 16:39:53</t>
+  </si>
+  <si>
+    <t>L_02167.NC</t>
+  </si>
+  <si>
     <t>2024-07-30 11:59:57</t>
   </si>
   <si>
     <t>L_02169.NC</t>
   </si>
   <si>
+    <t>2024-07-31 12:42:56</t>
+  </si>
+  <si>
+    <t>L_02170.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 09:56:05</t>
+  </si>
+  <si>
+    <t>L_02171.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 12:20:04</t>
+  </si>
+  <si>
+    <t>L_02172.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 14:06:37</t>
+  </si>
+  <si>
+    <t>L_02173.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 09:10:21</t>
+  </si>
+  <si>
+    <t>L_02174.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 14:49:55</t>
+  </si>
+  <si>
+    <t>L_02176.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 13:58:37</t>
+  </si>
+  <si>
+    <t>L_02177.NC</t>
+  </si>
+  <si>
     <t>2024-07-30 10:34:43</t>
   </si>
   <si>
@@ -751,6 +817,30 @@
     <t>L_02183.NC</t>
   </si>
   <si>
+    <t>2024-07-31 15:16:03</t>
+  </si>
+  <si>
+    <t>L_02184.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 14:36:14</t>
+  </si>
+  <si>
+    <t>L_02186.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 15:00:36</t>
+  </si>
+  <si>
+    <t>L_02187.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 10:20:59</t>
+  </si>
+  <si>
+    <t>L_02188.NC</t>
+  </si>
+  <si>
     <t>2024-07-26 14:22:11</t>
   </si>
   <si>
@@ -761,6 +851,12 @@
   </si>
   <si>
     <t>L_02191.NC</t>
+  </si>
+  <si>
+    <t>2024-07-31 09:32:58</t>
+  </si>
+  <si>
+    <t>L_02192.NC</t>
   </si>
   <si>
     <t>2024-07-26 09:17:40</t>
@@ -2112,15 +2208,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2109" style="1" customWidth="1"/>
-    <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3549,26 +3643,14 @@
         <v>45</v>
       </c>
       <c r="C50" s="7">
-        <v>6.17</v>
-      </c>
-      <c r="D50" s="7">
-        <v>23.8</v>
-      </c>
-      <c r="E50" s="7">
-        <v>3</v>
-      </c>
-      <c r="F50" s="7">
-        <v>1</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="I50" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>2.28</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="6">
@@ -3578,10 +3660,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7">
-        <v>6.65</v>
+        <v>6.17</v>
       </c>
       <c r="D51" s="7">
-        <v>24.8</v>
+        <v>23.8</v>
       </c>
       <c r="E51" s="7">
         <v>3</v>
@@ -3590,10 +3672,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H51" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I51" s="7">
         <v>-0.02</v>
@@ -3607,10 +3689,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="7">
-        <v>7.18</v>
+        <v>6.65</v>
       </c>
       <c r="D52" s="7">
-        <v>26.7</v>
+        <v>24.8</v>
       </c>
       <c r="E52" s="7">
         <v>3</v>
@@ -3636,10 +3718,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="7">
-        <v>21.94</v>
+        <v>7.18</v>
       </c>
       <c r="D53" s="7">
-        <v>9</v>
+        <v>26.7</v>
       </c>
       <c r="E53" s="7">
         <v>3</v>
@@ -3648,13 +3730,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="H53" s="7">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="I53" s="7">
-        <v>0.32</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
@@ -3665,25 +3747,25 @@
         <v>53</v>
       </c>
       <c r="C54" s="7">
-        <v>30.37</v>
+        <v>21.94</v>
       </c>
       <c r="D54" s="7">
-        <v>116.8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="H54" s="7">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="I54" s="7">
-        <v>0.99</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="55" ht="13.55" customHeight="1">
@@ -3694,10 +3776,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="7">
-        <v>19.9</v>
+        <v>30.37</v>
       </c>
       <c r="D55" s="7">
-        <v>69.682</v>
+        <v>116.8</v>
       </c>
       <c r="E55" s="7">
         <v>10</v>
@@ -3706,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" s="7">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="I55" s="7">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="56" ht="13.55" customHeight="1">
@@ -3723,10 +3805,10 @@
         <v>57</v>
       </c>
       <c r="C56" s="7">
-        <v>15.77</v>
+        <v>19.9</v>
       </c>
       <c r="D56" s="7">
-        <v>27.16</v>
+        <v>69.682</v>
       </c>
       <c r="E56" s="7">
         <v>10</v>
@@ -3735,13 +3817,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H56" s="7">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I56" s="7">
-        <v>0.24</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="57" ht="13.55" customHeight="1">
@@ -3752,25 +3834,25 @@
         <v>59</v>
       </c>
       <c r="C57" s="7">
-        <v>11.26</v>
+        <v>15.77</v>
       </c>
       <c r="D57" s="7">
-        <v>50.5</v>
+        <v>27.16</v>
       </c>
       <c r="E57" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="H57" s="7">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="I57" s="7">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="58" ht="13.55" customHeight="1">
@@ -3781,25 +3863,25 @@
         <v>61</v>
       </c>
       <c r="C58" s="7">
-        <v>3.76</v>
+        <v>11.26</v>
       </c>
       <c r="D58" s="7">
-        <v>19.7</v>
+        <v>50.5</v>
       </c>
       <c r="E58" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.13</v>
+        <v>0.46</v>
       </c>
       <c r="H58" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I58" s="7">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="59" ht="13.55" customHeight="1">
@@ -3810,25 +3892,25 @@
         <v>63</v>
       </c>
       <c r="C59" s="7">
-        <v>25.79</v>
+        <v>3.76</v>
       </c>
       <c r="D59" s="7">
-        <v>18.9</v>
+        <v>19.7</v>
       </c>
       <c r="E59" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="H59" s="7">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" s="7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="60" ht="13.55" customHeight="1">
@@ -3839,25 +3921,25 @@
         <v>65</v>
       </c>
       <c r="C60" s="7">
-        <v>3.77</v>
+        <v>25.79</v>
       </c>
       <c r="D60" s="7">
-        <v>12.5</v>
+        <v>18.9</v>
       </c>
       <c r="E60" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H60" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I60" s="7">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1">
@@ -3868,22 +3950,22 @@
         <v>67</v>
       </c>
       <c r="C61" s="7">
-        <v>2.98</v>
+        <v>3.77</v>
       </c>
       <c r="D61" s="7">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="E61" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H61" s="7">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I61" s="7">
         <v>0.06</v>
@@ -3897,24 +3979,26 @@
         <v>69</v>
       </c>
       <c r="C62" s="7">
-        <v>0.5600000000000001</v>
+        <v>2.98</v>
       </c>
       <c r="D62" s="7">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="E62" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H62" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I62" s="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="6">
@@ -3924,13 +4008,13 @@
         <v>71</v>
       </c>
       <c r="C63" s="7">
-        <v>3.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D63" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E63" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F63" s="7">
         <v>1</v>
@@ -3939,11 +4023,9 @@
         <v>0.01</v>
       </c>
       <c r="H63" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I63" s="7">
-        <v>-0.05</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="6">
@@ -3953,13 +4035,13 @@
         <v>73</v>
       </c>
       <c r="C64" s="7">
-        <v>4.16</v>
+        <v>3.48</v>
       </c>
       <c r="D64" s="7">
-        <v>0.33</v>
+        <v>1.2</v>
       </c>
       <c r="E64" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F64" s="7">
         <v>1</v>
@@ -3968,10 +4050,10 @@
         <v>0.01</v>
       </c>
       <c r="H64" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I64" s="7">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="65" ht="13.55" customHeight="1">
@@ -3982,13 +4064,13 @@
         <v>75</v>
       </c>
       <c r="C65" s="7">
-        <v>0.39</v>
+        <v>4.16</v>
       </c>
       <c r="D65" s="7">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="E65" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
@@ -3997,10 +4079,10 @@
         <v>0.01</v>
       </c>
       <c r="H65" s="7">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="66" ht="13.55" customHeight="1">
@@ -4011,13 +4093,13 @@
         <v>77</v>
       </c>
       <c r="C66" s="7">
-        <v>1.23</v>
+        <v>0.39</v>
       </c>
       <c r="D66" s="7">
-        <v>2.428</v>
+        <v>3</v>
       </c>
       <c r="E66" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F66" s="7">
         <v>1</v>
@@ -4026,10 +4108,10 @@
         <v>0.01</v>
       </c>
       <c r="H66" s="7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I66" s="7">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="13.55" customHeight="1">
@@ -4040,24 +4122,26 @@
         <v>79</v>
       </c>
       <c r="C67" s="7">
-        <v>3.13</v>
+        <v>1.23</v>
       </c>
       <c r="D67" s="7">
-        <v>7.3</v>
+        <v>2.428</v>
       </c>
       <c r="E67" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H67" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I67" s="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="I67" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" t="s" s="6">
@@ -4067,22 +4151,22 @@
         <v>81</v>
       </c>
       <c r="C68" s="7">
-        <v>0.35</v>
+        <v>3.13</v>
       </c>
       <c r="D68" s="7">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="E68" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F68" s="7">
         <v>1</v>
       </c>
       <c r="G68" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H68" s="7">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I68" s="8"/>
     </row>
@@ -4094,26 +4178,24 @@
         <v>83</v>
       </c>
       <c r="C69" s="7">
-        <v>5.83</v>
+        <v>0.35</v>
       </c>
       <c r="D69" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H69" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I69" s="7">
         <v>0.01</v>
       </c>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="6">
@@ -4123,25 +4205,25 @@
         <v>85</v>
       </c>
       <c r="C70" s="7">
-        <v>7.43</v>
+        <v>5.83</v>
       </c>
       <c r="D70" s="7">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="E70" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H70" s="7">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I70" s="7">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
@@ -4152,25 +4234,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="7">
-        <v>10.63</v>
+        <v>7.43</v>
       </c>
       <c r="D71" s="7">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="E71" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H71" s="7">
         <v>0.13</v>
       </c>
-      <c r="H71" s="7">
-        <v>0.18</v>
-      </c>
       <c r="I71" s="7">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="72" ht="13.55" customHeight="1">
@@ -4181,10 +4263,10 @@
         <v>89</v>
       </c>
       <c r="C72" s="7">
-        <v>8.880000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="D72" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72" s="7">
         <v>25</v>
@@ -4193,13 +4275,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H72" s="7">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I72" s="7">
-        <v>-0.14</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
@@ -4210,22 +4292,26 @@
         <v>91</v>
       </c>
       <c r="C73" s="7">
-        <v>2.71</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D73" s="7">
-        <v>13.7</v>
+        <v>2</v>
       </c>
       <c r="E73" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I73" s="7">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="6">
@@ -4235,19 +4321,19 @@
         <v>93</v>
       </c>
       <c r="C74" s="7">
-        <v>144.21</v>
+        <v>2.71</v>
       </c>
       <c r="D74" s="7">
-        <v>90.3</v>
+        <v>13.7</v>
       </c>
       <c r="E74" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F74" s="7">
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>3</v>
+        <v>0.28</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4260,19 +4346,19 @@
         <v>95</v>
       </c>
       <c r="C75" s="7">
-        <v>12.15</v>
+        <v>144.21</v>
       </c>
       <c r="D75" s="7">
-        <v>77</v>
+        <v>90.3</v>
       </c>
       <c r="E75" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -4285,10 +4371,10 @@
         <v>97</v>
       </c>
       <c r="C76" s="7">
-        <v>4.45</v>
+        <v>12.15</v>
       </c>
       <c r="D76" s="7">
-        <v>17.8</v>
+        <v>77</v>
       </c>
       <c r="E76" s="7">
         <v>8</v>
@@ -4297,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4310,13 +4396,13 @@
         <v>99</v>
       </c>
       <c r="C77" s="7">
-        <v>3.12</v>
+        <v>4.45</v>
       </c>
       <c r="D77" s="7">
-        <v>11.7</v>
+        <v>17.8</v>
       </c>
       <c r="E77" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F77" s="7">
         <v>1</v>
@@ -4335,19 +4421,19 @@
         <v>101</v>
       </c>
       <c r="C78" s="7">
-        <v>4.28</v>
+        <v>3.12</v>
       </c>
       <c r="D78" s="7">
-        <v>13.5</v>
+        <v>11.7</v>
       </c>
       <c r="E78" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F78" s="7">
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -4360,10 +4446,10 @@
         <v>103</v>
       </c>
       <c r="C79" s="7">
-        <v>3.26</v>
+        <v>4.28</v>
       </c>
       <c r="D79" s="7">
-        <v>10.4</v>
+        <v>13.5</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4385,13 +4471,13 @@
         <v>105</v>
       </c>
       <c r="C80" s="7">
-        <v>15.61</v>
+        <v>3.26</v>
       </c>
       <c r="D80" s="7">
-        <v>14.3</v>
+        <v>10.4</v>
       </c>
       <c r="E80" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F80" s="7">
         <v>1</v>
@@ -4410,19 +4496,19 @@
         <v>107</v>
       </c>
       <c r="C81" s="7">
-        <v>9.58</v>
+        <v>15.61</v>
       </c>
       <c r="D81" s="7">
-        <v>40.2</v>
+        <v>14.3</v>
       </c>
       <c r="E81" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F81" s="7">
         <v>1</v>
       </c>
       <c r="G81" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -4435,19 +4521,19 @@
         <v>109</v>
       </c>
       <c r="C82" s="7">
-        <v>12.55</v>
+        <v>9.58</v>
       </c>
       <c r="D82" s="7">
-        <v>55</v>
+        <v>40.2</v>
       </c>
       <c r="E82" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F82" s="7">
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -4460,10 +4546,10 @@
         <v>111</v>
       </c>
       <c r="C83" s="7">
-        <v>19.1</v>
+        <v>12.55</v>
       </c>
       <c r="D83" s="7">
-        <v>90.90000000000001</v>
+        <v>55</v>
       </c>
       <c r="E83" s="7">
         <v>4</v>
@@ -4485,19 +4571,19 @@
         <v>113</v>
       </c>
       <c r="C84" s="7">
-        <v>24.33</v>
+        <v>19.1</v>
       </c>
       <c r="D84" s="7">
-        <v>211.504</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E84" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F84" s="7">
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -4510,19 +4596,19 @@
         <v>115</v>
       </c>
       <c r="C85" s="7">
-        <v>25.6</v>
+        <v>24.33</v>
       </c>
       <c r="D85" s="7">
-        <v>24.5</v>
+        <v>211.504</v>
       </c>
       <c r="E85" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4535,10 +4621,10 @@
         <v>117</v>
       </c>
       <c r="C86" s="7">
-        <v>156.12</v>
+        <v>25.6</v>
       </c>
       <c r="D86" s="7">
-        <v>242.709</v>
+        <v>24.5</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -4547,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -4560,10 +4646,10 @@
         <v>119</v>
       </c>
       <c r="C87" s="7">
-        <v>30.88</v>
+        <v>156.12</v>
       </c>
       <c r="D87" s="7">
-        <v>110.075</v>
+        <v>242.709</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -4572,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -4585,10 +4671,10 @@
         <v>121</v>
       </c>
       <c r="C88" s="7">
-        <v>10</v>
+        <v>30.88</v>
       </c>
       <c r="D88" s="7">
-        <v>14.012</v>
+        <v>110.075</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -4597,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -4610,19 +4696,19 @@
         <v>123</v>
       </c>
       <c r="C89" s="7">
-        <v>88.03</v>
+        <v>10</v>
       </c>
       <c r="D89" s="7">
-        <v>30.4</v>
+        <v>14.012</v>
       </c>
       <c r="E89" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F89" s="7">
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -4635,10 +4721,10 @@
         <v>125</v>
       </c>
       <c r="C90" s="7">
-        <v>25.66</v>
+        <v>88.03</v>
       </c>
       <c r="D90" s="7">
-        <v>135.2</v>
+        <v>30.4</v>
       </c>
       <c r="E90" s="7">
         <v>10</v>
@@ -4647,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -4660,10 +4746,10 @@
         <v>127</v>
       </c>
       <c r="C91" s="7">
-        <v>20.96</v>
+        <v>25.66</v>
       </c>
       <c r="D91" s="7">
-        <v>118.6</v>
+        <v>135.2</v>
       </c>
       <c r="E91" s="7">
         <v>10</v>
@@ -4685,10 +4771,10 @@
         <v>129</v>
       </c>
       <c r="C92" s="7">
-        <v>24.99</v>
+        <v>20.96</v>
       </c>
       <c r="D92" s="7">
-        <v>135.112</v>
+        <v>118.6</v>
       </c>
       <c r="E92" s="7">
         <v>10</v>
@@ -4710,10 +4796,10 @@
         <v>131</v>
       </c>
       <c r="C93" s="7">
-        <v>25.58</v>
+        <v>24.99</v>
       </c>
       <c r="D93" s="7">
-        <v>135.1</v>
+        <v>135.112</v>
       </c>
       <c r="E93" s="7">
         <v>10</v>
@@ -4735,10 +4821,10 @@
         <v>133</v>
       </c>
       <c r="C94" s="7">
-        <v>60.31</v>
+        <v>25.58</v>
       </c>
       <c r="D94" s="7">
-        <v>313.297</v>
+        <v>135.1</v>
       </c>
       <c r="E94" s="7">
         <v>10</v>
@@ -4747,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -4760,10 +4846,10 @@
         <v>135</v>
       </c>
       <c r="C95" s="7">
-        <v>25.52</v>
+        <v>60.31</v>
       </c>
       <c r="D95" s="7">
-        <v>137</v>
+        <v>313.297</v>
       </c>
       <c r="E95" s="7">
         <v>10</v>
@@ -4785,10 +4871,10 @@
         <v>137</v>
       </c>
       <c r="C96" s="7">
-        <v>82.26000000000001</v>
+        <v>25.52</v>
       </c>
       <c r="D96" s="7">
-        <v>474.621</v>
+        <v>137</v>
       </c>
       <c r="E96" s="7">
         <v>10</v>
@@ -4797,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -4810,10 +4896,10 @@
         <v>139</v>
       </c>
       <c r="C97" s="7">
-        <v>14.13</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D97" s="7">
-        <v>34</v>
+        <v>474.621</v>
       </c>
       <c r="E97" s="7">
         <v>10</v>
@@ -4822,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -4835,10 +4921,10 @@
         <v>141</v>
       </c>
       <c r="C98" s="7">
-        <v>9.57</v>
+        <v>14.13</v>
       </c>
       <c r="D98" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E98" s="7">
         <v>10</v>
@@ -4860,10 +4946,10 @@
         <v>143</v>
       </c>
       <c r="C99" s="7">
-        <v>60.44</v>
+        <v>9.57</v>
       </c>
       <c r="D99" s="7">
-        <v>81.459</v>
+        <v>25</v>
       </c>
       <c r="E99" s="7">
         <v>10</v>
@@ -4885,10 +4971,10 @@
         <v>145</v>
       </c>
       <c r="C100" s="7">
-        <v>49.26</v>
+        <v>60.44</v>
       </c>
       <c r="D100" s="7">
-        <v>183.288</v>
+        <v>81.459</v>
       </c>
       <c r="E100" s="7">
         <v>10</v>
@@ -4897,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -4910,19 +4996,19 @@
         <v>147</v>
       </c>
       <c r="C101" s="7">
-        <v>0.29</v>
+        <v>49.26</v>
       </c>
       <c r="D101" s="7">
-        <v>1.5</v>
+        <v>183.288</v>
       </c>
       <c r="E101" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -4935,13 +5021,13 @@
         <v>149</v>
       </c>
       <c r="C102" s="7">
-        <v>37.15</v>
+        <v>0.29</v>
       </c>
       <c r="D102" s="7">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="E102" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F102" s="7">
         <v>1</v>
@@ -4960,13 +5046,13 @@
         <v>151</v>
       </c>
       <c r="C103" s="7">
-        <v>12.76</v>
+        <v>37.15</v>
       </c>
       <c r="D103" s="7">
-        <v>24.919</v>
+        <v>7.5</v>
       </c>
       <c r="E103" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F103" s="7">
         <v>1</v>
@@ -4985,10 +5071,10 @@
         <v>153</v>
       </c>
       <c r="C104" s="7">
-        <v>20.38</v>
+        <v>12.76</v>
       </c>
       <c r="D104" s="7">
-        <v>74.434</v>
+        <v>24.919</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -4997,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -5010,10 +5096,10 @@
         <v>155</v>
       </c>
       <c r="C105" s="7">
-        <v>10.35</v>
+        <v>20.38</v>
       </c>
       <c r="D105" s="7">
-        <v>35.091</v>
+        <v>74.434</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -5035,10 +5121,10 @@
         <v>157</v>
       </c>
       <c r="C106" s="7">
-        <v>17.77</v>
+        <v>10.35</v>
       </c>
       <c r="D106" s="7">
-        <v>65.682</v>
+        <v>35.091</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -5060,10 +5146,10 @@
         <v>159</v>
       </c>
       <c r="C107" s="7">
-        <v>18.06</v>
+        <v>17.77</v>
       </c>
       <c r="D107" s="7">
-        <v>56.867</v>
+        <v>65.682</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -5072,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5085,10 +5171,10 @@
         <v>161</v>
       </c>
       <c r="C108" s="7">
-        <v>10.45</v>
+        <v>18.06</v>
       </c>
       <c r="D108" s="7">
-        <v>35.097</v>
+        <v>56.867</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5097,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5110,10 +5196,10 @@
         <v>163</v>
       </c>
       <c r="C109" s="7">
-        <v>20.83</v>
+        <v>10.45</v>
       </c>
       <c r="D109" s="7">
-        <v>68.786</v>
+        <v>35.097</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -5122,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -5135,10 +5221,10 @@
         <v>165</v>
       </c>
       <c r="C110" s="7">
-        <v>9.119999999999999</v>
+        <v>20.83</v>
       </c>
       <c r="D110" s="7">
-        <v>33</v>
+        <v>68.786</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -5147,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -5160,10 +5246,10 @@
         <v>167</v>
       </c>
       <c r="C111" s="7">
-        <v>9.24</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D111" s="7">
-        <v>33.19</v>
+        <v>33</v>
       </c>
       <c r="E111" s="7">
         <v>12</v>
@@ -5185,7 +5271,7 @@
         <v>169</v>
       </c>
       <c r="C112" s="7">
-        <v>9.18</v>
+        <v>9.24</v>
       </c>
       <c r="D112" s="7">
         <v>33.19</v>
@@ -5210,10 +5296,10 @@
         <v>171</v>
       </c>
       <c r="C113" s="7">
-        <v>17.9</v>
+        <v>9.18</v>
       </c>
       <c r="D113" s="7">
-        <v>60.542</v>
+        <v>33.19</v>
       </c>
       <c r="E113" s="7">
         <v>12</v>
@@ -5222,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
@@ -5235,10 +5321,10 @@
         <v>173</v>
       </c>
       <c r="C114" s="7">
-        <v>39.59</v>
+        <v>17.9</v>
       </c>
       <c r="D114" s="7">
-        <v>135.375</v>
+        <v>60.542</v>
       </c>
       <c r="E114" s="7">
         <v>12</v>
@@ -5260,10 +5346,10 @@
         <v>175</v>
       </c>
       <c r="C115" s="7">
-        <v>21.3</v>
+        <v>39.59</v>
       </c>
       <c r="D115" s="7">
-        <v>73.223</v>
+        <v>135.375</v>
       </c>
       <c r="E115" s="7">
         <v>12</v>
@@ -5272,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
@@ -5285,10 +5371,10 @@
         <v>177</v>
       </c>
       <c r="C116" s="7">
-        <v>8.65</v>
+        <v>21.3</v>
       </c>
       <c r="D116" s="7">
-        <v>28.483</v>
+        <v>73.223</v>
       </c>
       <c r="E116" s="7">
         <v>12</v>
@@ -5297,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="7">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -5310,10 +5396,10 @@
         <v>179</v>
       </c>
       <c r="C117" s="7">
-        <v>10.25</v>
+        <v>8.65</v>
       </c>
       <c r="D117" s="7">
-        <v>36.532</v>
+        <v>28.483</v>
       </c>
       <c r="E117" s="7">
         <v>12</v>
@@ -5335,10 +5421,10 @@
         <v>181</v>
       </c>
       <c r="C118" s="7">
-        <v>12.29</v>
+        <v>10.25</v>
       </c>
       <c r="D118" s="7">
-        <v>38.502</v>
+        <v>36.532</v>
       </c>
       <c r="E118" s="7">
         <v>12</v>
@@ -5347,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -5360,10 +5446,10 @@
         <v>183</v>
       </c>
       <c r="C119" s="7">
-        <v>13.27</v>
+        <v>12.29</v>
       </c>
       <c r="D119" s="7">
-        <v>46</v>
+        <v>38.502</v>
       </c>
       <c r="E119" s="7">
         <v>12</v>
@@ -5372,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -5385,10 +5471,10 @@
         <v>185</v>
       </c>
       <c r="C120" s="7">
-        <v>3.32</v>
+        <v>13.27</v>
       </c>
       <c r="D120" s="7">
-        <v>11.6</v>
+        <v>46</v>
       </c>
       <c r="E120" s="7">
         <v>12</v>
@@ -5397,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -5410,10 +5496,10 @@
         <v>187</v>
       </c>
       <c r="C121" s="7">
-        <v>9.5</v>
+        <v>3.32</v>
       </c>
       <c r="D121" s="7">
-        <v>33.457</v>
+        <v>11.6</v>
       </c>
       <c r="E121" s="7">
         <v>12</v>
@@ -5422,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -5435,10 +5521,10 @@
         <v>189</v>
       </c>
       <c r="C122" s="7">
-        <v>5.32</v>
+        <v>9.5</v>
       </c>
       <c r="D122" s="7">
-        <v>19.7</v>
+        <v>33.457</v>
       </c>
       <c r="E122" s="7">
         <v>12</v>
@@ -5447,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -5460,10 +5546,10 @@
         <v>191</v>
       </c>
       <c r="C123" s="7">
-        <v>10.58</v>
+        <v>5.32</v>
       </c>
       <c r="D123" s="7">
-        <v>37.2</v>
+        <v>19.7</v>
       </c>
       <c r="E123" s="7">
         <v>12</v>
@@ -5472,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5485,10 +5571,10 @@
         <v>193</v>
       </c>
       <c r="C124" s="7">
-        <v>12.29</v>
+        <v>10.58</v>
       </c>
       <c r="D124" s="7">
-        <v>56.8</v>
+        <v>37.2</v>
       </c>
       <c r="E124" s="7">
         <v>12</v>
@@ -5497,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -5510,10 +5596,10 @@
         <v>195</v>
       </c>
       <c r="C125" s="7">
-        <v>30.09</v>
+        <v>12.29</v>
       </c>
       <c r="D125" s="7">
-        <v>84.102</v>
+        <v>56.8</v>
       </c>
       <c r="E125" s="7">
         <v>12</v>
@@ -5522,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -5535,10 +5621,10 @@
         <v>197</v>
       </c>
       <c r="C126" s="7">
-        <v>42.54</v>
+        <v>30.09</v>
       </c>
       <c r="D126" s="7">
-        <v>122</v>
+        <v>84.102</v>
       </c>
       <c r="E126" s="7">
         <v>12</v>
@@ -5560,7 +5646,7 @@
         <v>199</v>
       </c>
       <c r="C127" s="7">
-        <v>42.62</v>
+        <v>42.54</v>
       </c>
       <c r="D127" s="7">
         <v>122</v>
@@ -5572,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -5585,10 +5671,10 @@
         <v>201</v>
       </c>
       <c r="C128" s="7">
-        <v>32.67</v>
+        <v>42.62</v>
       </c>
       <c r="D128" s="7">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E128" s="7">
         <v>12</v>
@@ -5597,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -5610,10 +5696,10 @@
         <v>203</v>
       </c>
       <c r="C129" s="7">
-        <v>69.61</v>
+        <v>32.67</v>
       </c>
       <c r="D129" s="7">
-        <v>248.201</v>
+        <v>107</v>
       </c>
       <c r="E129" s="7">
         <v>12</v>
@@ -5622,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -5635,7 +5721,7 @@
         <v>205</v>
       </c>
       <c r="C130" s="7">
-        <v>84.97</v>
+        <v>69.61</v>
       </c>
       <c r="D130" s="7">
         <v>248.201</v>
@@ -5660,7 +5746,7 @@
         <v>207</v>
       </c>
       <c r="C131" s="7">
-        <v>120.91</v>
+        <v>84.97</v>
       </c>
       <c r="D131" s="7">
         <v>248.201</v>
@@ -5685,10 +5771,10 @@
         <v>209</v>
       </c>
       <c r="C132" s="7">
-        <v>130.17</v>
+        <v>120.91</v>
       </c>
       <c r="D132" s="7">
-        <v>207</v>
+        <v>248.201</v>
       </c>
       <c r="E132" s="7">
         <v>12</v>
@@ -5710,10 +5796,10 @@
         <v>211</v>
       </c>
       <c r="C133" s="7">
-        <v>11.85</v>
+        <v>130.17</v>
       </c>
       <c r="D133" s="7">
-        <v>34.5</v>
+        <v>207</v>
       </c>
       <c r="E133" s="7">
         <v>12</v>
@@ -5722,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="7">
-        <v>0.53</v>
+        <v>3</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -5735,10 +5821,10 @@
         <v>213</v>
       </c>
       <c r="C134" s="7">
-        <v>17.89</v>
+        <v>11.85</v>
       </c>
       <c r="D134" s="7">
-        <v>48.7</v>
+        <v>34.5</v>
       </c>
       <c r="E134" s="7">
         <v>12</v>
@@ -5747,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -5760,10 +5846,10 @@
         <v>215</v>
       </c>
       <c r="C135" s="7">
-        <v>21.89</v>
+        <v>17.89</v>
       </c>
       <c r="D135" s="7">
-        <v>24</v>
+        <v>48.7</v>
       </c>
       <c r="E135" s="7">
         <v>12</v>
@@ -5772,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -5785,19 +5871,19 @@
         <v>217</v>
       </c>
       <c r="C136" s="7">
-        <v>0.49</v>
+        <v>21.89</v>
       </c>
       <c r="D136" s="7">
-        <v>2.234</v>
+        <v>24</v>
       </c>
       <c r="E136" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F136" s="7">
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -5810,19 +5896,19 @@
         <v>219</v>
       </c>
       <c r="C137" s="7">
-        <v>68.42</v>
+        <v>0.49</v>
       </c>
       <c r="D137" s="7">
-        <v>216.554</v>
+        <v>2.234</v>
       </c>
       <c r="E137" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F137" s="7">
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -5835,10 +5921,10 @@
         <v>221</v>
       </c>
       <c r="C138" s="7">
-        <v>216.38</v>
+        <v>68.42</v>
       </c>
       <c r="D138" s="7">
-        <v>450.756</v>
+        <v>216.554</v>
       </c>
       <c r="E138" s="7">
         <v>12</v>
@@ -5847,17 +5933,17 @@
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
     </row>
     <row r="139" ht="13.55" customHeight="1">
       <c r="A139" t="s" s="6">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B139" t="s" s="6">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C139" s="7">
         <v>216.38</v>
@@ -5879,10 +5965,10 @@
     </row>
     <row r="140" ht="13.55" customHeight="1">
       <c r="A140" t="s" s="6">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B140" t="s" s="6">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C140" s="7">
         <v>216.38</v>
@@ -5904,10 +5990,10 @@
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="6">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B141" t="s" s="6">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C141" s="7">
         <v>216.38</v>
@@ -5935,13 +6021,13 @@
         <v>223</v>
       </c>
       <c r="C142" s="7">
-        <v>1.38</v>
+        <v>216.38</v>
       </c>
       <c r="D142" s="7">
-        <v>5.475</v>
+        <v>450.756</v>
       </c>
       <c r="E142" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F142" s="7">
         <v>1</v>
@@ -5954,19 +6040,19 @@
     </row>
     <row r="143" ht="13.55" customHeight="1">
       <c r="A143" t="s" s="6">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B143" t="s" s="6">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C143" s="7">
-        <v>1.36</v>
+        <v>216.38</v>
       </c>
       <c r="D143" s="7">
-        <v>5.493</v>
+        <v>450.756</v>
       </c>
       <c r="E143" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
@@ -5979,19 +6065,19 @@
     </row>
     <row r="144" ht="13.55" customHeight="1">
       <c r="A144" t="s" s="6">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B144" t="s" s="6">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C144" s="7">
-        <v>1.42</v>
+        <v>216.38</v>
       </c>
       <c r="D144" s="7">
-        <v>5.6</v>
+        <v>450.756</v>
       </c>
       <c r="E144" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
@@ -6004,19 +6090,19 @@
     </row>
     <row r="145" ht="13.55" customHeight="1">
       <c r="A145" t="s" s="6">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B145" t="s" s="6">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C145" s="7">
-        <v>0.49</v>
+        <v>216.38</v>
       </c>
       <c r="D145" s="7">
-        <v>1.7</v>
+        <v>450.756</v>
       </c>
       <c r="E145" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F145" s="7">
         <v>1</v>
@@ -6029,19 +6115,19 @@
     </row>
     <row r="146" ht="13.55" customHeight="1">
       <c r="A146" t="s" s="6">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B146" t="s" s="6">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C146" s="7">
-        <v>6.32</v>
+        <v>216.38</v>
       </c>
       <c r="D146" s="7">
-        <v>32.054</v>
+        <v>450.756</v>
       </c>
       <c r="E146" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
@@ -6054,19 +6140,19 @@
     </row>
     <row r="147" ht="13.55" customHeight="1">
       <c r="A147" t="s" s="6">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B147" t="s" s="6">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C147" s="7">
-        <v>26.16</v>
+        <v>1.38</v>
       </c>
       <c r="D147" s="7">
-        <v>26.938</v>
+        <v>5.475</v>
       </c>
       <c r="E147" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F147" s="7">
         <v>1</v>
@@ -6079,19 +6165,19 @@
     </row>
     <row r="148" ht="13.55" customHeight="1">
       <c r="A148" t="s" s="6">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B148" t="s" s="6">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C148" s="7">
-        <v>5.38</v>
+        <v>1.36</v>
       </c>
       <c r="D148" s="7">
-        <v>13</v>
+        <v>5.493</v>
       </c>
       <c r="E148" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
@@ -6104,41 +6190,41 @@
     </row>
     <row r="149" ht="13.55" customHeight="1">
       <c r="A149" t="s" s="6">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B149" t="s" s="6">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C149" s="7">
-        <v>42.82</v>
+        <v>1.42</v>
       </c>
       <c r="D149" s="7">
-        <v>152.431</v>
+        <v>5.6</v>
       </c>
       <c r="E149" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
       </c>
       <c r="G149" s="7">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
     </row>
     <row r="150" ht="13.55" customHeight="1">
       <c r="A150" t="s" s="6">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B150" t="s" s="6">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C150" s="7">
-        <v>43.29</v>
+        <v>0.49</v>
       </c>
       <c r="D150" s="7">
-        <v>152.431</v>
+        <v>1.7</v>
       </c>
       <c r="E150" s="7">
         <v>6</v>
@@ -6147,367 +6233,351 @@
         <v>1</v>
       </c>
       <c r="G150" s="7">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
     </row>
     <row r="151" ht="13.55" customHeight="1">
       <c r="A151" t="s" s="6">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B151" t="s" s="6">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C151" s="7">
-        <v>21.26</v>
+        <v>6.32</v>
       </c>
       <c r="D151" s="7">
-        <v>143.961</v>
+        <v>32.054</v>
       </c>
       <c r="E151" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F151" s="7">
         <v>1</v>
       </c>
       <c r="G151" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
     </row>
     <row r="152" ht="13.55" customHeight="1">
       <c r="A152" t="s" s="6">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B152" t="s" s="6">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C152" s="7">
-        <v>22</v>
+        <v>26.16</v>
       </c>
       <c r="D152" s="7">
-        <v>138.225</v>
+        <v>26.938</v>
       </c>
       <c r="E152" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F152" s="7">
         <v>1</v>
       </c>
       <c r="G152" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
     </row>
     <row r="153" ht="13.55" customHeight="1">
       <c r="A153" t="s" s="6">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B153" t="s" s="6">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C153" s="7">
-        <v>22.93</v>
+        <v>5.38</v>
       </c>
       <c r="D153" s="7">
-        <v>143.961</v>
+        <v>13</v>
       </c>
       <c r="E153" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F153" s="7">
         <v>1</v>
       </c>
       <c r="G153" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
     </row>
     <row r="154" ht="13.55" customHeight="1">
       <c r="A154" t="s" s="6">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B154" t="s" s="6">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C154" s="7">
-        <v>20.82</v>
+        <v>42.82</v>
       </c>
       <c r="D154" s="7">
-        <v>45.773</v>
+        <v>152.431</v>
       </c>
       <c r="E154" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F154" s="7">
         <v>1</v>
       </c>
       <c r="G154" s="7">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
     </row>
     <row r="155" ht="13.55" customHeight="1">
       <c r="A155" t="s" s="6">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B155" t="s" s="6">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C155" s="7">
-        <v>3.79</v>
+        <v>43.29</v>
       </c>
       <c r="D155" s="7">
-        <v>19.428</v>
+        <v>152.431</v>
       </c>
       <c r="E155" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F155" s="7">
         <v>1</v>
       </c>
       <c r="G155" s="7">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
     </row>
     <row r="156" ht="13.55" customHeight="1">
       <c r="A156" t="s" s="6">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B156" t="s" s="6">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C156" s="7">
-        <v>0.34</v>
+        <v>48.75</v>
       </c>
       <c r="D156" s="7">
-        <v>0.3</v>
+        <v>175.457</v>
       </c>
       <c r="E156" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F156" s="7">
         <v>1</v>
       </c>
       <c r="G156" s="7">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
     </row>
     <row r="157" ht="13.55" customHeight="1">
       <c r="A157" t="s" s="6">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s" s="6">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C157" s="7">
-        <v>11.98</v>
+        <v>49.12</v>
       </c>
       <c r="D157" s="7">
-        <v>38.291</v>
+        <v>201.645</v>
       </c>
       <c r="E157" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F157" s="7">
         <v>1</v>
       </c>
       <c r="G157" s="7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
     </row>
     <row r="158" ht="13.55" customHeight="1">
       <c r="A158" t="s" s="6">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s" s="6">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C158" s="7">
-        <v>119.41</v>
+        <v>25.04</v>
       </c>
       <c r="D158" s="7">
-        <v>354.86</v>
+        <v>143.961</v>
       </c>
       <c r="E158" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F158" s="7">
         <v>1</v>
       </c>
       <c r="G158" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
     </row>
     <row r="159" ht="13.55" customHeight="1">
       <c r="A159" t="s" s="6">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s" s="6">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C159" s="7">
-        <v>24.68</v>
+        <v>21.26</v>
       </c>
       <c r="D159" s="7">
-        <v>64.59399999999999</v>
+        <v>143.961</v>
       </c>
       <c r="E159" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F159" s="7">
         <v>1</v>
       </c>
       <c r="G159" s="7">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
     </row>
     <row r="160" ht="13.55" customHeight="1">
       <c r="A160" t="s" s="6">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B160" t="s" s="6">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C160" s="7">
-        <v>167.31</v>
+        <v>39.51</v>
       </c>
       <c r="D160" s="7">
-        <v>485</v>
+        <v>219.134</v>
       </c>
       <c r="E160" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F160" s="7">
         <v>1</v>
       </c>
       <c r="G160" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H160" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I160" s="7">
-        <v>0.37</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
     </row>
     <row r="161" ht="13.55" customHeight="1">
       <c r="A161" t="s" s="6">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B161" t="s" s="6">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C161" s="7">
-        <v>43.47</v>
+        <v>17.11</v>
       </c>
       <c r="D161" s="7">
-        <v>118.61</v>
+        <v>96.729</v>
       </c>
       <c r="E161" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F161" s="7">
         <v>1</v>
       </c>
       <c r="G161" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H161" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I161" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
     </row>
     <row r="162" ht="13.55" customHeight="1">
       <c r="A162" t="s" s="6">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s" s="6">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C162" s="7">
-        <v>99.67</v>
+        <v>14.78</v>
       </c>
       <c r="D162" s="7">
-        <v>118.61</v>
+        <v>84.5</v>
       </c>
       <c r="E162" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F162" s="7">
         <v>1</v>
       </c>
       <c r="G162" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H162" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I162" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
     </row>
     <row r="163" ht="13.55" customHeight="1">
       <c r="A163" t="s" s="6">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B163" t="s" s="6">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C163" s="7">
-        <v>34.58</v>
+        <v>20.9</v>
       </c>
       <c r="D163" s="7">
-        <v>104.31</v>
+        <v>122.054</v>
       </c>
       <c r="E163" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F163" s="7">
         <v>1</v>
       </c>
       <c r="G163" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H163" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I163" s="7">
-        <v>0.1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
     </row>
     <row r="164" ht="13.55" customHeight="1">
       <c r="A164" t="s" s="6">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B164" t="s" s="6">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C164" s="7">
-        <v>45.49</v>
+        <v>15.95</v>
       </c>
       <c r="D164" s="7">
-        <v>110</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E164" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F164" s="7">
         <v>1</v>
@@ -6515,260 +6585,224 @@
       <c r="G164" s="7">
         <v>0.5</v>
       </c>
-      <c r="H164" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I164" s="7">
-        <v>0.26</v>
-      </c>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
     </row>
     <row r="165" ht="13.55" customHeight="1">
       <c r="A165" t="s" s="6">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B165" t="s" s="6">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C165" s="7">
-        <v>194.66</v>
+        <v>5.62</v>
       </c>
       <c r="D165" s="7">
-        <v>561.2</v>
+        <v>18.015</v>
       </c>
       <c r="E165" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F165" s="7">
         <v>1</v>
       </c>
       <c r="G165" s="7">
-        <v>3</v>
-      </c>
-      <c r="H165" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I165" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
     </row>
     <row r="166" ht="13.55" customHeight="1">
       <c r="A166" t="s" s="6">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B166" t="s" s="6">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C166" s="7">
-        <v>321.56</v>
+        <v>2.65</v>
       </c>
       <c r="D166" s="7">
-        <v>850.95</v>
+        <v>15.648</v>
       </c>
       <c r="E166" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F166" s="7">
         <v>1</v>
       </c>
       <c r="G166" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H166" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I166" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
     </row>
     <row r="167" ht="13.55" customHeight="1">
       <c r="A167" t="s" s="6">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B167" t="s" s="6">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C167" s="7">
-        <v>28.94</v>
+        <v>22</v>
       </c>
       <c r="D167" s="7">
-        <v>24.88</v>
+        <v>138.225</v>
       </c>
       <c r="E167" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F167" s="7">
         <v>1</v>
       </c>
       <c r="G167" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H167" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I167" s="7">
-        <v>0.35</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
     </row>
     <row r="168" ht="13.55" customHeight="1">
       <c r="A168" t="s" s="6">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B168" t="s" s="6">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C168" s="7">
-        <v>43.34</v>
+        <v>22.93</v>
       </c>
       <c r="D168" s="7">
-        <v>24.18</v>
+        <v>143.961</v>
       </c>
       <c r="E168" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F168" s="7">
         <v>1</v>
       </c>
       <c r="G168" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H168" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I168" s="7">
-        <v>0.58</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
     </row>
     <row r="169" ht="13.55" customHeight="1">
       <c r="A169" t="s" s="6">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B169" t="s" s="6">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C169" s="7">
-        <v>19.21</v>
+        <v>6.75</v>
       </c>
       <c r="D169" s="7">
-        <v>5</v>
+        <v>38.128</v>
       </c>
       <c r="E169" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F169" s="7">
         <v>1</v>
       </c>
       <c r="G169" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H169" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I169" s="7">
-        <v>0.03</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
     </row>
     <row r="170" ht="13.55" customHeight="1">
       <c r="A170" t="s" s="6">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B170" t="s" s="6">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C170" s="7">
-        <v>195.6</v>
+        <v>10.37</v>
       </c>
       <c r="D170" s="7">
-        <v>17</v>
+        <v>59.462</v>
       </c>
       <c r="E170" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F170" s="7">
         <v>1</v>
       </c>
       <c r="G170" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H170" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I170" s="7">
-        <v>3.16</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
     </row>
     <row r="171" ht="13.55" customHeight="1">
       <c r="A171" t="s" s="6">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B171" t="s" s="6">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C171" s="7">
-        <v>31.58</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D171" s="7">
-        <v>145.52</v>
+        <v>55.892</v>
       </c>
       <c r="E171" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F171" s="7">
         <v>1</v>
       </c>
       <c r="G171" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H171" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I171" s="7">
-        <v>-6.3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
     </row>
     <row r="172" ht="13.55" customHeight="1">
       <c r="A172" t="s" s="6">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B172" t="s" s="6">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C172" s="7">
-        <v>34.53</v>
+        <v>33.05</v>
       </c>
       <c r="D172" s="7">
-        <v>12.17</v>
+        <v>157.109</v>
       </c>
       <c r="E172" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F172" s="7">
         <v>1</v>
       </c>
       <c r="G172" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="H172" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I172" s="7">
-        <v>-0.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
     </row>
     <row r="173" ht="13.55" customHeight="1">
       <c r="A173" t="s" s="6">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B173" t="s" s="6">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C173" s="7">
-        <v>9.35</v>
+        <v>20.82</v>
       </c>
       <c r="D173" s="7">
-        <v>30</v>
+        <v>45.773</v>
       </c>
       <c r="E173" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F173" s="7">
         <v>1</v>
@@ -6778,6 +6812,558 @@
       </c>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
+    </row>
+    <row r="174" ht="13.55" customHeight="1">
+      <c r="A174" t="s" s="6">
+        <v>278</v>
+      </c>
+      <c r="B174" t="s" s="6">
+        <v>279</v>
+      </c>
+      <c r="C174" s="7">
+        <v>3.79</v>
+      </c>
+      <c r="D174" s="7">
+        <v>19.428</v>
+      </c>
+      <c r="E174" s="7">
+        <v>10</v>
+      </c>
+      <c r="F174" s="7">
+        <v>1</v>
+      </c>
+      <c r="G174" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+    </row>
+    <row r="175" ht="13.55" customHeight="1">
+      <c r="A175" t="s" s="6">
+        <v>280</v>
+      </c>
+      <c r="B175" t="s" s="6">
+        <v>281</v>
+      </c>
+      <c r="C175" s="7">
+        <v>15.37</v>
+      </c>
+      <c r="D175" s="7">
+        <v>73.333</v>
+      </c>
+      <c r="E175" s="7">
+        <v>6</v>
+      </c>
+      <c r="F175" s="7">
+        <v>1</v>
+      </c>
+      <c r="G175" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+    </row>
+    <row r="176" ht="13.55" customHeight="1">
+      <c r="A176" t="s" s="6">
+        <v>282</v>
+      </c>
+      <c r="B176" t="s" s="6">
+        <v>283</v>
+      </c>
+      <c r="C176" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D176" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E176" s="7">
+        <v>16</v>
+      </c>
+      <c r="F176" s="7">
+        <v>1</v>
+      </c>
+      <c r="G176" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+    </row>
+    <row r="177" ht="13.55" customHeight="1">
+      <c r="A177" t="s" s="6">
+        <v>284</v>
+      </c>
+      <c r="B177" t="s" s="6">
+        <v>285</v>
+      </c>
+      <c r="C177" s="7">
+        <v>11.98</v>
+      </c>
+      <c r="D177" s="7">
+        <v>38.291</v>
+      </c>
+      <c r="E177" s="7">
+        <v>12</v>
+      </c>
+      <c r="F177" s="7">
+        <v>1</v>
+      </c>
+      <c r="G177" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+    </row>
+    <row r="178" ht="13.55" customHeight="1">
+      <c r="A178" t="s" s="6">
+        <v>286</v>
+      </c>
+      <c r="B178" t="s" s="6">
+        <v>287</v>
+      </c>
+      <c r="C178" s="7">
+        <v>119.41</v>
+      </c>
+      <c r="D178" s="7">
+        <v>354.86</v>
+      </c>
+      <c r="E178" s="7">
+        <v>10</v>
+      </c>
+      <c r="F178" s="7">
+        <v>1</v>
+      </c>
+      <c r="G178" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+    </row>
+    <row r="179" ht="13.55" customHeight="1">
+      <c r="A179" t="s" s="6">
+        <v>288</v>
+      </c>
+      <c r="B179" t="s" s="6">
+        <v>289</v>
+      </c>
+      <c r="C179" s="7">
+        <v>24.68</v>
+      </c>
+      <c r="D179" s="7">
+        <v>64.59399999999999</v>
+      </c>
+      <c r="E179" s="7">
+        <v>10</v>
+      </c>
+      <c r="F179" s="7">
+        <v>1</v>
+      </c>
+      <c r="G179" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+    </row>
+    <row r="180" ht="13.55" customHeight="1">
+      <c r="A180" t="s" s="6">
+        <v>290</v>
+      </c>
+      <c r="B180" t="s" s="6">
+        <v>291</v>
+      </c>
+      <c r="C180" s="7">
+        <v>167.31</v>
+      </c>
+      <c r="D180" s="7">
+        <v>485</v>
+      </c>
+      <c r="E180" s="7">
+        <v>12</v>
+      </c>
+      <c r="F180" s="7">
+        <v>1</v>
+      </c>
+      <c r="G180" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="H180" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I180" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="181" ht="13.55" customHeight="1">
+      <c r="A181" t="s" s="6">
+        <v>292</v>
+      </c>
+      <c r="B181" t="s" s="6">
+        <v>293</v>
+      </c>
+      <c r="C181" s="7">
+        <v>43.47</v>
+      </c>
+      <c r="D181" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E181" s="7">
+        <v>12</v>
+      </c>
+      <c r="F181" s="7">
+        <v>1</v>
+      </c>
+      <c r="G181" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H181" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I181" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="182" ht="13.55" customHeight="1">
+      <c r="A182" t="s" s="6">
+        <v>294</v>
+      </c>
+      <c r="B182" t="s" s="6">
+        <v>295</v>
+      </c>
+      <c r="C182" s="7">
+        <v>99.67</v>
+      </c>
+      <c r="D182" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E182" s="7">
+        <v>12</v>
+      </c>
+      <c r="F182" s="7">
+        <v>1</v>
+      </c>
+      <c r="G182" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H182" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I182" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="183" ht="13.55" customHeight="1">
+      <c r="A183" t="s" s="6">
+        <v>296</v>
+      </c>
+      <c r="B183" t="s" s="6">
+        <v>297</v>
+      </c>
+      <c r="C183" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D183" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E183" s="7">
+        <v>12</v>
+      </c>
+      <c r="F183" s="7">
+        <v>1</v>
+      </c>
+      <c r="G183" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H183" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I183" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="184" ht="13.55" customHeight="1">
+      <c r="A184" t="s" s="6">
+        <v>298</v>
+      </c>
+      <c r="B184" t="s" s="6">
+        <v>299</v>
+      </c>
+      <c r="C184" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D184" s="7">
+        <v>110</v>
+      </c>
+      <c r="E184" s="7">
+        <v>12</v>
+      </c>
+      <c r="F184" s="7">
+        <v>1</v>
+      </c>
+      <c r="G184" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H184" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I184" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="185" ht="13.55" customHeight="1">
+      <c r="A185" t="s" s="6">
+        <v>300</v>
+      </c>
+      <c r="B185" t="s" s="6">
+        <v>301</v>
+      </c>
+      <c r="C185" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D185" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E185" s="7">
+        <v>12</v>
+      </c>
+      <c r="F185" s="7">
+        <v>1</v>
+      </c>
+      <c r="G185" s="7">
+        <v>3</v>
+      </c>
+      <c r="H185" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I185" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="186" ht="13.55" customHeight="1">
+      <c r="A186" t="s" s="6">
+        <v>302</v>
+      </c>
+      <c r="B186" t="s" s="6">
+        <v>303</v>
+      </c>
+      <c r="C186" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D186" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E186" s="7">
+        <v>12</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1</v>
+      </c>
+      <c r="G186" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H186" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="187" ht="13.55" customHeight="1">
+      <c r="A187" t="s" s="6">
+        <v>304</v>
+      </c>
+      <c r="B187" t="s" s="6">
+        <v>305</v>
+      </c>
+      <c r="C187" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D187" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E187" s="7">
+        <v>20</v>
+      </c>
+      <c r="F187" s="7">
+        <v>1</v>
+      </c>
+      <c r="G187" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H187" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I187" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="188" ht="13.55" customHeight="1">
+      <c r="A188" t="s" s="6">
+        <v>306</v>
+      </c>
+      <c r="B188" t="s" s="6">
+        <v>307</v>
+      </c>
+      <c r="C188" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D188" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E188" s="7">
+        <v>25</v>
+      </c>
+      <c r="F188" s="7">
+        <v>1</v>
+      </c>
+      <c r="G188" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H188" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I188" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="189" ht="13.55" customHeight="1">
+      <c r="A189" t="s" s="6">
+        <v>308</v>
+      </c>
+      <c r="B189" t="s" s="6">
+        <v>309</v>
+      </c>
+      <c r="C189" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D189" s="7">
+        <v>5</v>
+      </c>
+      <c r="E189" s="7">
+        <v>32</v>
+      </c>
+      <c r="F189" s="7">
+        <v>1</v>
+      </c>
+      <c r="G189" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H189" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I189" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="190" ht="13.55" customHeight="1">
+      <c r="A190" t="s" s="6">
+        <v>310</v>
+      </c>
+      <c r="B190" t="s" s="6">
+        <v>311</v>
+      </c>
+      <c r="C190" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D190" s="7">
+        <v>17</v>
+      </c>
+      <c r="E190" s="7">
+        <v>32</v>
+      </c>
+      <c r="F190" s="7">
+        <v>1</v>
+      </c>
+      <c r="G190" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H190" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I190" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="191" ht="13.55" customHeight="1">
+      <c r="A191" t="s" s="6">
+        <v>312</v>
+      </c>
+      <c r="B191" t="s" s="6">
+        <v>313</v>
+      </c>
+      <c r="C191" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D191" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E191" s="7">
+        <v>10</v>
+      </c>
+      <c r="F191" s="7">
+        <v>1</v>
+      </c>
+      <c r="G191" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H191" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I191" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="192" ht="13.55" customHeight="1">
+      <c r="A192" t="s" s="6">
+        <v>314</v>
+      </c>
+      <c r="B192" t="s" s="6">
+        <v>315</v>
+      </c>
+      <c r="C192" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D192" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E192" s="7">
+        <v>25</v>
+      </c>
+      <c r="F192" s="7">
+        <v>1</v>
+      </c>
+      <c r="G192" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H192" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I192" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="193" ht="13.55" customHeight="1">
+      <c r="A193" t="s" s="6">
+        <v>316</v>
+      </c>
+      <c r="B193" t="s" s="6">
+        <v>317</v>
+      </c>
+      <c r="C193" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="D193" s="7">
+        <v>30</v>
+      </c>
+      <c r="E193" s="7">
+        <v>12</v>
+      </c>
+      <c r="F193" s="7">
+        <v>1</v>
+      </c>
+      <c r="G193" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
   <si>
     <t>timestamp</t>
   </si>
@@ -124,9 +124,6 @@
     <t>55391549 NESTING 3MM PV-55391549-Result1-1.lxds</t>
   </si>
   <si>
-    <t>2024-06-07 15:22:01</t>
-  </si>
-  <si>
     <t>2024-06-07 08:42:54</t>
   </si>
   <si>
@@ -145,7 +142,7 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
-    <t>2024-07-01 15:37:17</t>
+    <t>2024-08-05 11:08:30</t>
   </si>
   <si>
     <t>CORTE ESPECIAL.slp</t>
@@ -685,6 +682,12 @@
     <t>L_01929.NC</t>
   </si>
   <si>
+    <t>2024-08-02 10:28:43</t>
+  </si>
+  <si>
+    <t>L_01931.NC</t>
+  </si>
+  <si>
     <t>2024-07-29 09:24:46</t>
   </si>
   <si>
@@ -881,6 +884,162 @@
   </si>
   <si>
     <t>L_02324.NC</t>
+  </si>
+  <si>
+    <t>2024-08-05 09:48:22</t>
+  </si>
+  <si>
+    <t>L_02414.NC</t>
+  </si>
+  <si>
+    <t>2024-08-02 12:47:51</t>
+  </si>
+  <si>
+    <t>L_02476.NC</t>
+  </si>
+  <si>
+    <t>2024-08-02 15:20:27</t>
+  </si>
+  <si>
+    <t>L_02477.NC</t>
+  </si>
+  <si>
+    <t>2024-08-02 11:43:59</t>
+  </si>
+  <si>
+    <t>L_02478.NC</t>
+  </si>
+  <si>
+    <t>2024-08-05 15:06:18</t>
+  </si>
+  <si>
+    <t>L_02520.NC</t>
+  </si>
+  <si>
+    <t>2024-08-05 14:39:20</t>
+  </si>
+  <si>
+    <t>L_02537.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 15:51:50</t>
+  </si>
+  <si>
+    <t>L_02618.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 11:02:27</t>
+  </si>
+  <si>
+    <t>L_02619.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 16:40:23</t>
+  </si>
+  <si>
+    <t>L_02622.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 11:21:03</t>
+  </si>
+  <si>
+    <t>L_02626.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 10:49:36</t>
+  </si>
+  <si>
+    <t>L_02627.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 11:47:04</t>
+  </si>
+  <si>
+    <t>L_02630.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 15:33:26</t>
+  </si>
+  <si>
+    <t>L_02631.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 15:43:05</t>
+  </si>
+  <si>
+    <t>L_02633.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 10:55:10</t>
+  </si>
+  <si>
+    <t>L_02635.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 11:11:19</t>
+  </si>
+  <si>
+    <t>L_02637.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 11:32:48</t>
+  </si>
+  <si>
+    <t>L_02639.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 16:06:10</t>
+  </si>
+  <si>
+    <t>L_02640.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 08:23:57</t>
+  </si>
+  <si>
+    <t>L_02701.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 08:38:26</t>
+  </si>
+  <si>
+    <t>L_02702.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 08:44:07</t>
+  </si>
+  <si>
+    <t>L_02703.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 09:13:15</t>
+  </si>
+  <si>
+    <t>L_02704.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 13:18:55</t>
+  </si>
+  <si>
+    <t>L_02706.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 10:15:45</t>
+  </si>
+  <si>
+    <t>L_02707.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 12:21:03</t>
+  </si>
+  <si>
+    <t>L_02709.NC</t>
+  </si>
+  <si>
+    <t>2024-08-19 15:01:00</t>
+  </si>
+  <si>
+    <t>L_02896.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -2208,13 +2367,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1719" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2651,16 +2812,16 @@
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>17.87</v>
+        <v>4.87</v>
       </c>
       <c r="D16" s="7">
-        <v>78.2</v>
+        <v>30</v>
       </c>
       <c r="E16" s="7">
         <v>3</v>
@@ -2669,27 +2830,27 @@
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>2.3</v>
+        <v>0.87</v>
       </c>
       <c r="H16" s="7">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="I16" s="7">
-        <v>-2</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s" s="6">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>17.87</v>
+        <v>5.55</v>
       </c>
       <c r="D17" s="7">
-        <v>78.2</v>
+        <v>34.25</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -2698,27 +2859,27 @@
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="7">
-        <v>-2</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="6">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7">
-        <v>17.87</v>
+        <v>5.66</v>
       </c>
       <c r="D18" s="7">
-        <v>78.2</v>
+        <v>27.37</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
@@ -2727,56 +2888,44 @@
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H18" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I18" s="7">
-        <v>-2</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s" s="6">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
-        <v>17.87</v>
-      </c>
-      <c r="D19" s="7">
-        <v>78.2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>3</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>-2</v>
-      </c>
+        <v>71.91</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="6">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>17.87</v>
+        <v>6.17</v>
       </c>
       <c r="D20" s="7">
-        <v>78.2</v>
+        <v>23.8</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
@@ -2785,27 +2934,27 @@
         <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>2.3</v>
+        <v>0.13</v>
       </c>
       <c r="H20" s="7">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I20" s="7">
-        <v>-2</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="6">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7">
-        <v>17.87</v>
+        <v>6.65</v>
       </c>
       <c r="D21" s="7">
-        <v>78.2</v>
+        <v>24.8</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -2814,27 +2963,27 @@
         <v>1</v>
       </c>
       <c r="G21" s="7">
-        <v>2.3</v>
+        <v>0.14</v>
       </c>
       <c r="H21" s="7">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="I21" s="7">
-        <v>-2</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s" s="6">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>17.87</v>
+        <v>7.18</v>
       </c>
       <c r="D22" s="7">
-        <v>78.2</v>
+        <v>26.7</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -2843,27 +2992,27 @@
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>2.3</v>
+        <v>0.14</v>
       </c>
       <c r="H22" s="7">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="I22" s="7">
-        <v>-2</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s" s="6">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7">
-        <v>17.87</v>
+        <v>21.94</v>
       </c>
       <c r="D23" s="7">
-        <v>78.2</v>
+        <v>9</v>
       </c>
       <c r="E23" s="7">
         <v>3</v>
@@ -2872,1088 +3021,1022 @@
         <v>1</v>
       </c>
       <c r="G23" s="7">
-        <v>2.3</v>
+        <v>0.05</v>
       </c>
       <c r="H23" s="7">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I23" s="7">
-        <v>-2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7">
-        <v>17.87</v>
+        <v>30.37</v>
       </c>
       <c r="D24" s="7">
-        <v>78.2</v>
+        <v>116.8</v>
       </c>
       <c r="E24" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H24" s="7">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
       <c r="I24" s="7">
-        <v>-2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s" s="6">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
-        <v>17.87</v>
+        <v>19.9</v>
       </c>
       <c r="D25" s="7">
-        <v>78.2</v>
+        <v>69.682</v>
       </c>
       <c r="E25" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="I25" s="7">
-        <v>-2</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="6">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7">
-        <v>17.87</v>
+        <v>15.77</v>
       </c>
       <c r="D26" s="7">
-        <v>78.2</v>
+        <v>27.16</v>
       </c>
       <c r="E26" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="7">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="I26" s="7">
-        <v>-2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s" s="6">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7">
-        <v>17.87</v>
+        <v>11.26</v>
       </c>
       <c r="D27" s="7">
-        <v>78.2</v>
+        <v>50.5</v>
       </c>
       <c r="E27" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>2.3</v>
+        <v>0.46</v>
       </c>
       <c r="H27" s="7">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="I27" s="7">
-        <v>-2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s" s="6">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7">
-        <v>17.87</v>
+        <v>3.76</v>
       </c>
       <c r="D28" s="7">
-        <v>78.2</v>
+        <v>19.7</v>
       </c>
       <c r="E28" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>2.3</v>
+        <v>0.13</v>
       </c>
       <c r="H28" s="7">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I28" s="7">
-        <v>-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s" s="6">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>17.87</v>
+        <v>25.79</v>
       </c>
       <c r="D29" s="7">
-        <v>78.2</v>
+        <v>18.9</v>
       </c>
       <c r="E29" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="H29" s="7">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="I29" s="7">
-        <v>-2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="6">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>17.87</v>
+        <v>3.77</v>
       </c>
       <c r="D30" s="7">
-        <v>78.2</v>
+        <v>12.5</v>
       </c>
       <c r="E30" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>2.3</v>
+        <v>0.13</v>
       </c>
       <c r="H30" s="7">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" s="7">
-        <v>-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s" s="6">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>17.87</v>
+        <v>2.98</v>
       </c>
       <c r="D31" s="7">
-        <v>78.2</v>
+        <v>13.7</v>
       </c>
       <c r="E31" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>2.3</v>
+        <v>0.11</v>
       </c>
       <c r="H31" s="7">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I31" s="7">
-        <v>-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s" s="6">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>17.87</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D32" s="7">
-        <v>78.2</v>
+        <v>2</v>
       </c>
       <c r="E32" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>2.3</v>
+        <v>0.01</v>
       </c>
       <c r="H32" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>-2</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s" s="6">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C33" s="7">
-        <v>17.87</v>
+        <v>3.48</v>
       </c>
       <c r="D33" s="7">
-        <v>78.2</v>
+        <v>1.2</v>
       </c>
       <c r="E33" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7">
-        <v>2.3</v>
+        <v>0.01</v>
       </c>
       <c r="H33" s="7">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="I33" s="7">
-        <v>-2</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s" s="6">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C34" s="7">
-        <v>17.87</v>
+        <v>4.16</v>
       </c>
       <c r="D34" s="7">
-        <v>78.2</v>
+        <v>0.33</v>
       </c>
       <c r="E34" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="7">
-        <v>2.3</v>
+        <v>0.01</v>
       </c>
       <c r="H34" s="7">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I34" s="7">
-        <v>-2</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s" s="6">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C35" s="7">
-        <v>17.87</v>
+        <v>0.39</v>
       </c>
       <c r="D35" s="7">
-        <v>78.2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
       <c r="G35" s="7">
-        <v>2.3</v>
+        <v>0.01</v>
       </c>
       <c r="H35" s="7">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="I35" s="7">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s" s="6">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C36" s="7">
-        <v>17.87</v>
+        <v>1.23</v>
       </c>
       <c r="D36" s="7">
-        <v>78.2</v>
+        <v>2.428</v>
       </c>
       <c r="E36" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="7">
-        <v>2.3</v>
+        <v>0.01</v>
       </c>
       <c r="H36" s="7">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="I36" s="7">
-        <v>-2</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s" s="6">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C37" s="7">
-        <v>17.87</v>
+        <v>3.13</v>
       </c>
       <c r="D37" s="7">
-        <v>78.2</v>
+        <v>7.3</v>
       </c>
       <c r="E37" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
       </c>
       <c r="G37" s="7">
-        <v>2.3</v>
+        <v>0.11</v>
       </c>
       <c r="H37" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I37" s="7">
-        <v>-2</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s" s="6">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C38" s="7">
-        <v>17.87</v>
+        <v>0.35</v>
       </c>
       <c r="D38" s="7">
-        <v>78.2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="7">
-        <v>2.3</v>
+        <v>0.01</v>
       </c>
       <c r="H38" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I38" s="7">
-        <v>-2</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="6">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s" s="6">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C39" s="7">
-        <v>17.87</v>
+        <v>5.83</v>
       </c>
       <c r="D39" s="7">
-        <v>78.2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="7">
-        <v>2.3</v>
+        <v>0.11</v>
       </c>
       <c r="H39" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I39" s="7">
-        <v>-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="6">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s" s="6">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C40" s="7">
-        <v>17.87</v>
+        <v>7.43</v>
       </c>
       <c r="D40" s="7">
-        <v>78.2</v>
+        <v>12.8</v>
       </c>
       <c r="E40" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <v>2.3</v>
+        <v>0.12</v>
       </c>
       <c r="H40" s="7">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="I40" s="7">
-        <v>-2</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="6">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s" s="6">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C41" s="7">
-        <v>17.87</v>
+        <v>10.63</v>
       </c>
       <c r="D41" s="7">
-        <v>78.2</v>
+        <v>4</v>
       </c>
       <c r="E41" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>2.3</v>
+        <v>0.13</v>
       </c>
       <c r="H41" s="7">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="I41" s="7">
-        <v>-2</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="6">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s" s="6">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C42" s="7">
-        <v>17.87</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D42" s="7">
-        <v>78.2</v>
+        <v>2</v>
       </c>
       <c r="E42" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>2.3</v>
+        <v>0.01</v>
       </c>
       <c r="H42" s="7">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I42" s="7">
-        <v>-2</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="6">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s" s="6">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>17.87</v>
+        <v>2.71</v>
       </c>
       <c r="D43" s="7">
-        <v>78.2</v>
+        <v>13.7</v>
       </c>
       <c r="E43" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I43" s="7">
-        <v>-2</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="6">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s" s="6">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C44" s="7">
-        <v>17.87</v>
+        <v>144.21</v>
       </c>
       <c r="D44" s="7">
-        <v>78.2</v>
+        <v>90.3</v>
       </c>
       <c r="E44" s="7">
+        <v>25</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
         <v>3</v>
       </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I44" s="7">
-        <v>-2</v>
-      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s" s="6">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C45" s="7">
-        <v>17.87</v>
+        <v>12.15</v>
       </c>
       <c r="D45" s="7">
-        <v>78.2</v>
+        <v>77</v>
       </c>
       <c r="E45" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I45" s="7">
-        <v>-2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s" s="6">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C46" s="7">
-        <v>17.87</v>
+        <v>4.45</v>
       </c>
       <c r="D46" s="7">
-        <v>78.2</v>
+        <v>17.8</v>
       </c>
       <c r="E46" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
       <c r="G46" s="7">
-        <v>2.3</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="I46" s="7">
-        <v>-2</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s" s="6">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>4.87</v>
+        <v>3.12</v>
       </c>
       <c r="D47" s="7">
-        <v>30</v>
+        <v>11.7</v>
       </c>
       <c r="E47" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="I47" s="7">
-        <v>-0.78</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s" s="6">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>5.55</v>
+        <v>4.28</v>
       </c>
       <c r="D48" s="7">
-        <v>34.25</v>
+        <v>13.5</v>
       </c>
       <c r="E48" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
       <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I48" s="7">
-        <v>-0.9</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s" s="6">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C49" s="7">
-        <v>5.66</v>
+        <v>3.26</v>
       </c>
       <c r="D49" s="7">
-        <v>27.37</v>
+        <v>10.4</v>
       </c>
       <c r="E49" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F49" s="7">
         <v>1</v>
       </c>
       <c r="G49" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I49" s="7">
-        <v>-0.7</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" ht="13.55" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s" s="6">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C50" s="7">
-        <v>2.28</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+        <v>15.61</v>
+      </c>
+      <c r="D50" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="E50" s="7">
+        <v>16</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.3</v>
+      </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="6">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s" s="6">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>6.17</v>
+        <v>9.58</v>
       </c>
       <c r="D51" s="7">
-        <v>23.8</v>
+        <v>40.2</v>
       </c>
       <c r="E51" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="I51" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" t="s" s="6">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s" s="6">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C52" s="7">
-        <v>6.65</v>
+        <v>12.55</v>
       </c>
       <c r="D52" s="7">
-        <v>24.8</v>
+        <v>55</v>
       </c>
       <c r="E52" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="I52" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
     </row>
     <row r="53" ht="13.55" customHeight="1">
       <c r="A53" t="s" s="6">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s" s="6">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C53" s="7">
-        <v>7.18</v>
+        <v>19.1</v>
       </c>
       <c r="D53" s="7">
-        <v>26.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E53" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="I53" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" ht="13.55" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s" s="6">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>21.94</v>
+        <v>24.33</v>
       </c>
       <c r="D54" s="7">
-        <v>9</v>
+        <v>211.504</v>
       </c>
       <c r="E54" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" ht="13.55" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s" s="6">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C55" s="7">
-        <v>30.37</v>
+        <v>25.6</v>
       </c>
       <c r="D55" s="7">
-        <v>116.8</v>
+        <v>24.5</v>
       </c>
       <c r="E55" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0.99</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="6">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s" s="6">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C56" s="7">
-        <v>19.9</v>
+        <v>156.12</v>
       </c>
       <c r="D56" s="7">
-        <v>69.682</v>
+        <v>242.709</v>
       </c>
       <c r="E56" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0.67</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" ht="13.55" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s" s="6">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C57" s="7">
-        <v>15.77</v>
+        <v>30.88</v>
       </c>
       <c r="D57" s="7">
-        <v>27.16</v>
+        <v>110.075</v>
       </c>
       <c r="E57" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0.24</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" ht="13.55" customHeight="1">
       <c r="A58" t="s" s="6">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s" s="6">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C58" s="7">
-        <v>11.26</v>
+        <v>10</v>
       </c>
       <c r="D58" s="7">
-        <v>50.5</v>
+        <v>14.012</v>
       </c>
       <c r="E58" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0.27</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" ht="13.55" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s" s="6">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C59" s="7">
-        <v>3.76</v>
+        <v>88.03</v>
       </c>
       <c r="D59" s="7">
-        <v>19.7</v>
+        <v>30.4</v>
       </c>
       <c r="E59" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0.06</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" ht="13.55" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s" s="6">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C60" s="7">
-        <v>25.79</v>
+        <v>25.66</v>
       </c>
       <c r="D60" s="7">
-        <v>18.9</v>
+        <v>135.2</v>
       </c>
       <c r="E60" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="I60" s="7">
-        <v>-0.2</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" ht="13.55" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s" s="6">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="C61" s="7">
-        <v>3.77</v>
+        <v>20.96</v>
       </c>
       <c r="D61" s="7">
-        <v>12.5</v>
+        <v>118.6</v>
       </c>
       <c r="E61" s="7">
         <v>10</v>
@@ -3962,199 +4045,173 @@
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0.06</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" ht="13.55" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s" s="6">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C62" s="7">
-        <v>2.98</v>
+        <v>24.99</v>
       </c>
       <c r="D62" s="7">
-        <v>13.7</v>
+        <v>135.112</v>
       </c>
       <c r="E62" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0.06</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s" s="6">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C63" s="7">
-        <v>0.5600000000000001</v>
+        <v>25.58</v>
       </c>
       <c r="D63" s="7">
-        <v>2</v>
+        <v>135.1</v>
       </c>
       <c r="E63" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7">
         <v>1</v>
       </c>
       <c r="G63" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0.01</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s" s="6">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C64" s="7">
-        <v>3.48</v>
+        <v>60.31</v>
       </c>
       <c r="D64" s="7">
-        <v>1.2</v>
+        <v>313.297</v>
       </c>
       <c r="E64" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F64" s="7">
         <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I64" s="7">
-        <v>-0.05</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" ht="13.55" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s" s="6">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C65" s="7">
-        <v>4.16</v>
+        <v>25.52</v>
       </c>
       <c r="D65" s="7">
-        <v>0.33</v>
+        <v>137</v>
       </c>
       <c r="E65" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F65" s="7">
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I65" s="7">
-        <v>-0.06</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
     </row>
     <row r="66" ht="13.55" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s" s="6">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C66" s="7">
-        <v>0.39</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D66" s="7">
-        <v>3</v>
+        <v>474.621</v>
       </c>
       <c r="E66" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F66" s="7">
         <v>1</v>
       </c>
       <c r="G66" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
+        <v>2.2</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" ht="13.55" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s" s="6">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>1.23</v>
+        <v>14.13</v>
       </c>
       <c r="D67" s="7">
-        <v>2.428</v>
+        <v>34</v>
       </c>
       <c r="E67" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F67" s="7">
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I67" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s" s="6">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>3.13</v>
+        <v>9.57</v>
       </c>
       <c r="D68" s="7">
-        <v>7.3</v>
+        <v>25</v>
       </c>
       <c r="E68" s="7">
         <v>10</v>
@@ -4163,271 +4220,251 @@
         <v>1</v>
       </c>
       <c r="G68" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0.06</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
     <row r="69" ht="13.55" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s" s="6">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>0.35</v>
+        <v>60.44</v>
       </c>
       <c r="D69" s="7">
-        <v>1</v>
+        <v>81.459</v>
       </c>
       <c r="E69" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F69" s="7">
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0.01</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H69" s="8"/>
       <c r="I69" s="8"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s" s="6">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>5.83</v>
+        <v>49.26</v>
       </c>
       <c r="D70" s="7">
-        <v>4</v>
+        <v>183.288</v>
       </c>
       <c r="E70" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I70" s="7">
-        <v>0.01</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" ht="13.55" customHeight="1">
       <c r="A71" t="s" s="6">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s" s="6">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C71" s="7">
-        <v>7.43</v>
+        <v>0.29</v>
       </c>
       <c r="D71" s="7">
-        <v>12.8</v>
+        <v>1.5</v>
       </c>
       <c r="E71" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="I71" s="7">
-        <v>-0.01</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" ht="13.55" customHeight="1">
       <c r="A72" t="s" s="6">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s" s="6">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="C72" s="7">
-        <v>10.63</v>
+        <v>37.15</v>
       </c>
       <c r="D72" s="7">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="E72" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="I72" s="7">
-        <v>-0.05</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
     </row>
     <row r="73" ht="13.55" customHeight="1">
       <c r="A73" t="s" s="6">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s" s="6">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="C73" s="7">
-        <v>8.880000000000001</v>
+        <v>12.76</v>
       </c>
       <c r="D73" s="7">
-        <v>2</v>
+        <v>24.919</v>
       </c>
       <c r="E73" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I73" s="7">
-        <v>-0.14</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s" s="6">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C74" s="7">
-        <v>2.71</v>
+        <v>20.38</v>
       </c>
       <c r="D74" s="7">
-        <v>13.7</v>
+        <v>74.434</v>
       </c>
       <c r="E74" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F74" s="7">
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
     <row r="75" ht="13.55" customHeight="1">
       <c r="A75" t="s" s="6">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s" s="6">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C75" s="7">
-        <v>144.21</v>
+        <v>10.35</v>
       </c>
       <c r="D75" s="7">
-        <v>90.3</v>
+        <v>35.091</v>
       </c>
       <c r="E75" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
     <row r="76" ht="13.55" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s" s="6">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="C76" s="7">
-        <v>12.15</v>
+        <v>17.77</v>
       </c>
       <c r="D76" s="7">
-        <v>77</v>
+        <v>65.682</v>
       </c>
       <c r="E76" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F76" s="7">
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
     <row r="77" ht="13.55" customHeight="1">
       <c r="A77" t="s" s="6">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s" s="6">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="C77" s="7">
-        <v>4.45</v>
+        <v>18.06</v>
       </c>
       <c r="D77" s="7">
-        <v>17.8</v>
+        <v>56.867</v>
       </c>
       <c r="E77" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F77" s="7">
         <v>1</v>
       </c>
       <c r="G77" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
     <row r="78" ht="13.55" customHeight="1">
       <c r="A78" t="s" s="6">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s" s="6">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="C78" s="7">
-        <v>3.12</v>
+        <v>10.45</v>
       </c>
       <c r="D78" s="7">
-        <v>11.7</v>
+        <v>35.097</v>
       </c>
       <c r="E78" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F78" s="7">
         <v>1</v>
@@ -4440,16 +4477,16 @@
     </row>
     <row r="79" ht="13.55" customHeight="1">
       <c r="A79" t="s" s="6">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s" s="6">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C79" s="7">
-        <v>4.28</v>
+        <v>20.83</v>
       </c>
       <c r="D79" s="7">
-        <v>13.5</v>
+        <v>68.786</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4458,23 +4495,23 @@
         <v>1</v>
       </c>
       <c r="G79" s="7">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" ht="13.55" customHeight="1">
       <c r="A80" t="s" s="6">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s" s="6">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C80" s="7">
-        <v>3.26</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D80" s="7">
-        <v>10.4</v>
+        <v>33</v>
       </c>
       <c r="E80" s="7">
         <v>12</v>
@@ -4483,148 +4520,148 @@
         <v>1</v>
       </c>
       <c r="G80" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" ht="13.55" customHeight="1">
       <c r="A81" t="s" s="6">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s" s="6">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C81" s="7">
-        <v>15.61</v>
+        <v>9.24</v>
       </c>
       <c r="D81" s="7">
-        <v>14.3</v>
+        <v>33.19</v>
       </c>
       <c r="E81" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F81" s="7">
         <v>1</v>
       </c>
       <c r="G81" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
     </row>
     <row r="82" ht="13.55" customHeight="1">
       <c r="A82" t="s" s="6">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s" s="6">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C82" s="7">
-        <v>9.58</v>
+        <v>9.18</v>
       </c>
       <c r="D82" s="7">
-        <v>40.2</v>
+        <v>33.19</v>
       </c>
       <c r="E82" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F82" s="7">
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" ht="13.55" customHeight="1">
       <c r="A83" t="s" s="6">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s" s="6">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="C83" s="7">
-        <v>12.55</v>
+        <v>17.9</v>
       </c>
       <c r="D83" s="7">
-        <v>55</v>
+        <v>60.542</v>
       </c>
       <c r="E83" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F83" s="7">
         <v>1</v>
       </c>
       <c r="G83" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" ht="13.55" customHeight="1">
       <c r="A84" t="s" s="6">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="B84" t="s" s="6">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="C84" s="7">
-        <v>19.1</v>
+        <v>39.59</v>
       </c>
       <c r="D84" s="7">
-        <v>90.90000000000001</v>
+        <v>135.375</v>
       </c>
       <c r="E84" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F84" s="7">
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" ht="13.55" customHeight="1">
       <c r="A85" t="s" s="6">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s" s="6">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C85" s="7">
-        <v>24.33</v>
+        <v>21.3</v>
       </c>
       <c r="D85" s="7">
-        <v>211.504</v>
+        <v>73.223</v>
       </c>
       <c r="E85" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" ht="13.55" customHeight="1">
       <c r="A86" t="s" s="6">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s" s="6">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="C86" s="7">
-        <v>25.6</v>
+        <v>8.65</v>
       </c>
       <c r="D86" s="7">
-        <v>24.5</v>
+        <v>28.483</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -4633,23 +4670,23 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
     </row>
     <row r="87" ht="13.55" customHeight="1">
       <c r="A87" t="s" s="6">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s" s="6">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="C87" s="7">
-        <v>156.12</v>
+        <v>10.25</v>
       </c>
       <c r="D87" s="7">
-        <v>242.709</v>
+        <v>36.532</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -4658,23 +4695,23 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>6.5</v>
+        <v>0.2</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" ht="13.55" customHeight="1">
       <c r="A88" t="s" s="6">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s" s="6">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="C88" s="7">
-        <v>30.88</v>
+        <v>12.29</v>
       </c>
       <c r="D88" s="7">
-        <v>110.075</v>
+        <v>38.502</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -4683,23 +4720,23 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
     </row>
     <row r="89" ht="13.55" customHeight="1">
       <c r="A89" t="s" s="6">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s" s="6">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="C89" s="7">
-        <v>10</v>
+        <v>13.27</v>
       </c>
       <c r="D89" s="7">
-        <v>14.012</v>
+        <v>46</v>
       </c>
       <c r="E89" s="7">
         <v>12</v>
@@ -4708,51 +4745,51 @@
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
     </row>
     <row r="90" ht="13.55" customHeight="1">
       <c r="A90" t="s" s="6">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="B90" t="s" s="6">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="C90" s="7">
-        <v>88.03</v>
+        <v>3.32</v>
       </c>
       <c r="D90" s="7">
-        <v>30.4</v>
+        <v>11.6</v>
       </c>
       <c r="E90" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F90" s="7">
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" ht="13.55" customHeight="1">
       <c r="A91" t="s" s="6">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="B91" t="s" s="6">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="C91" s="7">
-        <v>25.66</v>
+        <v>9.5</v>
       </c>
       <c r="D91" s="7">
-        <v>135.2</v>
+        <v>33.457</v>
       </c>
       <c r="E91" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F91" s="7">
         <v>1</v>
@@ -4765,44 +4802,44 @@
     </row>
     <row r="92" ht="13.55" customHeight="1">
       <c r="A92" t="s" s="6">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="B92" t="s" s="6">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="C92" s="7">
-        <v>20.96</v>
+        <v>5.32</v>
       </c>
       <c r="D92" s="7">
-        <v>118.6</v>
+        <v>19.7</v>
       </c>
       <c r="E92" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F92" s="7">
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
     </row>
     <row r="93" ht="13.55" customHeight="1">
       <c r="A93" t="s" s="6">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="B93" t="s" s="6">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="C93" s="7">
-        <v>24.99</v>
+        <v>10.58</v>
       </c>
       <c r="D93" s="7">
-        <v>135.112</v>
+        <v>37.2</v>
       </c>
       <c r="E93" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F93" s="7">
         <v>1</v>
@@ -4815,266 +4852,266 @@
     </row>
     <row r="94" ht="13.55" customHeight="1">
       <c r="A94" t="s" s="6">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="B94" t="s" s="6">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="C94" s="7">
-        <v>25.58</v>
+        <v>12.29</v>
       </c>
       <c r="D94" s="7">
-        <v>135.1</v>
+        <v>56.8</v>
       </c>
       <c r="E94" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F94" s="7">
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
     </row>
     <row r="95" ht="13.55" customHeight="1">
       <c r="A95" t="s" s="6">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s" s="6">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="C95" s="7">
-        <v>60.31</v>
+        <v>30.09</v>
       </c>
       <c r="D95" s="7">
-        <v>313.297</v>
+        <v>84.102</v>
       </c>
       <c r="E95" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F95" s="7">
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
     </row>
     <row r="96" ht="13.55" customHeight="1">
       <c r="A96" t="s" s="6">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s" s="6">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="C96" s="7">
-        <v>25.52</v>
+        <v>42.54</v>
       </c>
       <c r="D96" s="7">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E96" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F96" s="7">
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
     </row>
     <row r="97" ht="13.55" customHeight="1">
       <c r="A97" t="s" s="6">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B97" t="s" s="6">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="C97" s="7">
-        <v>82.26000000000001</v>
+        <v>42.62</v>
       </c>
       <c r="D97" s="7">
-        <v>474.621</v>
+        <v>122</v>
       </c>
       <c r="E97" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F97" s="7">
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" ht="13.55" customHeight="1">
       <c r="A98" t="s" s="6">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="B98" t="s" s="6">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C98" s="7">
-        <v>14.13</v>
+        <v>32.67</v>
       </c>
       <c r="D98" s="7">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E98" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F98" s="7">
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
     </row>
     <row r="99" ht="13.55" customHeight="1">
       <c r="A99" t="s" s="6">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="B99" t="s" s="6">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="C99" s="7">
-        <v>9.57</v>
+        <v>69.61</v>
       </c>
       <c r="D99" s="7">
-        <v>25</v>
+        <v>248.201</v>
       </c>
       <c r="E99" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F99" s="7">
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" ht="13.55" customHeight="1">
       <c r="A100" t="s" s="6">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="B100" t="s" s="6">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="C100" s="7">
-        <v>60.44</v>
+        <v>84.97</v>
       </c>
       <c r="D100" s="7">
-        <v>81.459</v>
+        <v>248.201</v>
       </c>
       <c r="E100" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F100" s="7">
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
     </row>
     <row r="101" ht="13.55" customHeight="1">
       <c r="A101" t="s" s="6">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="B101" t="s" s="6">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="C101" s="7">
-        <v>49.26</v>
+        <v>120.91</v>
       </c>
       <c r="D101" s="7">
-        <v>183.288</v>
+        <v>248.201</v>
       </c>
       <c r="E101" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F101" s="7">
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
     </row>
     <row r="102" ht="13.55" customHeight="1">
       <c r="A102" t="s" s="6">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="B102" t="s" s="6">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="C102" s="7">
-        <v>0.29</v>
+        <v>130.17</v>
       </c>
       <c r="D102" s="7">
-        <v>1.5</v>
+        <v>207</v>
       </c>
       <c r="E102" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F102" s="7">
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
     </row>
     <row r="103" ht="13.55" customHeight="1">
       <c r="A103" t="s" s="6">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="B103" t="s" s="6">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="C103" s="7">
-        <v>37.15</v>
+        <v>11.85</v>
       </c>
       <c r="D103" s="7">
-        <v>7.5</v>
+        <v>34.5</v>
       </c>
       <c r="E103" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F103" s="7">
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
     </row>
     <row r="104" ht="13.55" customHeight="1">
       <c r="A104" t="s" s="6">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="B104" t="s" s="6">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="C104" s="7">
-        <v>12.76</v>
+        <v>17.89</v>
       </c>
       <c r="D104" s="7">
-        <v>24.919</v>
+        <v>48.7</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -5083,23 +5120,23 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
     </row>
     <row r="105" ht="13.55" customHeight="1">
       <c r="A105" t="s" s="6">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="B105" t="s" s="6">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="C105" s="7">
-        <v>20.38</v>
+        <v>21.89</v>
       </c>
       <c r="D105" s="7">
-        <v>74.434</v>
+        <v>24</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -5108,48 +5145,48 @@
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
     </row>
     <row r="106" ht="13.55" customHeight="1">
       <c r="A106" t="s" s="6">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="B106" t="s" s="6">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="C106" s="7">
-        <v>10.35</v>
+        <v>0.49</v>
       </c>
       <c r="D106" s="7">
-        <v>35.091</v>
+        <v>2.234</v>
       </c>
       <c r="E106" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F106" s="7">
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
     </row>
     <row r="107" ht="13.55" customHeight="1">
       <c r="A107" t="s" s="6">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="B107" t="s" s="6">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="C107" s="7">
-        <v>17.77</v>
+        <v>68.42</v>
       </c>
       <c r="D107" s="7">
-        <v>65.682</v>
+        <v>216.554</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -5158,23 +5195,23 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
     </row>
     <row r="108" ht="13.55" customHeight="1">
       <c r="A108" t="s" s="6">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="B108" t="s" s="6">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="C108" s="7">
-        <v>18.06</v>
+        <v>216.38</v>
       </c>
       <c r="D108" s="7">
-        <v>56.867</v>
+        <v>450.756</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5183,23 +5220,23 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
     </row>
     <row r="109" ht="13.55" customHeight="1">
       <c r="A109" t="s" s="6">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="B109" t="s" s="6">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="C109" s="7">
-        <v>10.45</v>
+        <v>22.31</v>
       </c>
       <c r="D109" s="7">
-        <v>35.097</v>
+        <v>45</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -5208,651 +5245,651 @@
         <v>1</v>
       </c>
       <c r="G109" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
     </row>
     <row r="110" ht="13.55" customHeight="1">
       <c r="A110" t="s" s="6">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="B110" t="s" s="6">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="C110" s="7">
-        <v>20.83</v>
+        <v>1.38</v>
       </c>
       <c r="D110" s="7">
-        <v>68.786</v>
+        <v>5.475</v>
       </c>
       <c r="E110" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F110" s="7">
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
     </row>
     <row r="111" ht="13.55" customHeight="1">
       <c r="A111" t="s" s="6">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="B111" t="s" s="6">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="C111" s="7">
-        <v>9.119999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="D111" s="7">
-        <v>33</v>
+        <v>5.493</v>
       </c>
       <c r="E111" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
       </c>
       <c r="G111" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
     </row>
     <row r="112" ht="13.55" customHeight="1">
       <c r="A112" t="s" s="6">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s" s="6">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="C112" s="7">
-        <v>9.24</v>
+        <v>1.42</v>
       </c>
       <c r="D112" s="7">
-        <v>33.19</v>
+        <v>5.6</v>
       </c>
       <c r="E112" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
       </c>
       <c r="G112" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
     </row>
     <row r="113" ht="13.55" customHeight="1">
       <c r="A113" t="s" s="6">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B113" t="s" s="6">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C113" s="7">
-        <v>9.18</v>
+        <v>0.49</v>
       </c>
       <c r="D113" s="7">
-        <v>33.19</v>
+        <v>1.7</v>
       </c>
       <c r="E113" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
       </c>
       <c r="G113" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
     </row>
     <row r="114" ht="13.55" customHeight="1">
       <c r="A114" t="s" s="6">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="B114" t="s" s="6">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="C114" s="7">
-        <v>17.9</v>
+        <v>6.32</v>
       </c>
       <c r="D114" s="7">
-        <v>60.542</v>
+        <v>32.054</v>
       </c>
       <c r="E114" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
       </c>
       <c r="G114" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
     </row>
     <row r="115" ht="13.55" customHeight="1">
       <c r="A115" t="s" s="6">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="B115" t="s" s="6">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="C115" s="7">
-        <v>39.59</v>
+        <v>26.16</v>
       </c>
       <c r="D115" s="7">
-        <v>135.375</v>
+        <v>26.938</v>
       </c>
       <c r="E115" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F115" s="7">
         <v>1</v>
       </c>
       <c r="G115" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
     </row>
     <row r="116" ht="13.55" customHeight="1">
       <c r="A116" t="s" s="6">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="B116" t="s" s="6">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="C116" s="7">
-        <v>21.3</v>
+        <v>5.38</v>
       </c>
       <c r="D116" s="7">
-        <v>73.223</v>
+        <v>13</v>
       </c>
       <c r="E116" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F116" s="7">
         <v>1</v>
       </c>
       <c r="G116" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
     </row>
     <row r="117" ht="13.55" customHeight="1">
       <c r="A117" t="s" s="6">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="B117" t="s" s="6">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="C117" s="7">
-        <v>8.65</v>
+        <v>42.82</v>
       </c>
       <c r="D117" s="7">
-        <v>28.483</v>
+        <v>152.431</v>
       </c>
       <c r="E117" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F117" s="7">
         <v>1</v>
       </c>
       <c r="G117" s="7">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
     </row>
     <row r="118" ht="13.55" customHeight="1">
       <c r="A118" t="s" s="6">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="B118" t="s" s="6">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="C118" s="7">
-        <v>10.25</v>
+        <v>43.29</v>
       </c>
       <c r="D118" s="7">
-        <v>36.532</v>
+        <v>152.431</v>
       </c>
       <c r="E118" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F118" s="7">
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
     </row>
     <row r="119" ht="13.55" customHeight="1">
       <c r="A119" t="s" s="6">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B119" t="s" s="6">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C119" s="7">
-        <v>12.29</v>
+        <v>48.75</v>
       </c>
       <c r="D119" s="7">
-        <v>38.502</v>
+        <v>175.457</v>
       </c>
       <c r="E119" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F119" s="7">
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
     </row>
     <row r="120" ht="13.55" customHeight="1">
       <c r="A120" t="s" s="6">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="B120" t="s" s="6">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="C120" s="7">
-        <v>13.27</v>
+        <v>49.12</v>
       </c>
       <c r="D120" s="7">
-        <v>46</v>
+        <v>201.645</v>
       </c>
       <c r="E120" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F120" s="7">
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
     </row>
     <row r="121" ht="13.55" customHeight="1">
       <c r="A121" t="s" s="6">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="B121" t="s" s="6">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C121" s="7">
-        <v>3.32</v>
+        <v>25.04</v>
       </c>
       <c r="D121" s="7">
-        <v>11.6</v>
+        <v>143.961</v>
       </c>
       <c r="E121" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F121" s="7">
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
     </row>
     <row r="122" ht="13.55" customHeight="1">
       <c r="A122" t="s" s="6">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="B122" t="s" s="6">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="C122" s="7">
-        <v>9.5</v>
+        <v>21.26</v>
       </c>
       <c r="D122" s="7">
-        <v>33.457</v>
+        <v>143.961</v>
       </c>
       <c r="E122" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F122" s="7">
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
     </row>
     <row r="123" ht="13.55" customHeight="1">
       <c r="A123" t="s" s="6">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="B123" t="s" s="6">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="C123" s="7">
-        <v>5.32</v>
+        <v>39.51</v>
       </c>
       <c r="D123" s="7">
-        <v>19.7</v>
+        <v>219.134</v>
       </c>
       <c r="E123" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F123" s="7">
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
     </row>
     <row r="124" ht="13.55" customHeight="1">
       <c r="A124" t="s" s="6">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="B124" t="s" s="6">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="C124" s="7">
-        <v>10.58</v>
+        <v>17.11</v>
       </c>
       <c r="D124" s="7">
-        <v>37.2</v>
+        <v>96.729</v>
       </c>
       <c r="E124" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F124" s="7">
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
     </row>
     <row r="125" ht="13.55" customHeight="1">
       <c r="A125" t="s" s="6">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="B125" t="s" s="6">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="C125" s="7">
-        <v>12.29</v>
+        <v>14.78</v>
       </c>
       <c r="D125" s="7">
-        <v>56.8</v>
+        <v>84.5</v>
       </c>
       <c r="E125" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F125" s="7">
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
     </row>
     <row r="126" ht="13.55" customHeight="1">
       <c r="A126" t="s" s="6">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="B126" t="s" s="6">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="C126" s="7">
-        <v>30.09</v>
+        <v>20.9</v>
       </c>
       <c r="D126" s="7">
-        <v>84.102</v>
+        <v>122.054</v>
       </c>
       <c r="E126" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F126" s="7">
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
     </row>
     <row r="127" ht="13.55" customHeight="1">
       <c r="A127" t="s" s="6">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="B127" t="s" s="6">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="C127" s="7">
-        <v>42.54</v>
+        <v>15.95</v>
       </c>
       <c r="D127" s="7">
-        <v>122</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E127" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F127" s="7">
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
     </row>
     <row r="128" ht="13.55" customHeight="1">
       <c r="A128" t="s" s="6">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="B128" t="s" s="6">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="C128" s="7">
-        <v>42.62</v>
+        <v>5.62</v>
       </c>
       <c r="D128" s="7">
-        <v>122</v>
+        <v>18.015</v>
       </c>
       <c r="E128" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F128" s="7">
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
     </row>
     <row r="129" ht="13.55" customHeight="1">
       <c r="A129" t="s" s="6">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="B129" t="s" s="6">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="C129" s="7">
-        <v>32.67</v>
+        <v>2.65</v>
       </c>
       <c r="D129" s="7">
-        <v>107</v>
+        <v>15.648</v>
       </c>
       <c r="E129" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F129" s="7">
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
     </row>
     <row r="130" ht="13.55" customHeight="1">
       <c r="A130" t="s" s="6">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="B130" t="s" s="6">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="C130" s="7">
-        <v>69.61</v>
+        <v>22</v>
       </c>
       <c r="D130" s="7">
-        <v>248.201</v>
+        <v>138.225</v>
       </c>
       <c r="E130" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F130" s="7">
         <v>1</v>
       </c>
       <c r="G130" s="7">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
     </row>
     <row r="131" ht="13.55" customHeight="1">
       <c r="A131" t="s" s="6">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="B131" t="s" s="6">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="C131" s="7">
-        <v>84.97</v>
+        <v>22.93</v>
       </c>
       <c r="D131" s="7">
-        <v>248.201</v>
+        <v>143.961</v>
       </c>
       <c r="E131" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F131" s="7">
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
     </row>
     <row r="132" ht="13.55" customHeight="1">
       <c r="A132" t="s" s="6">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="B132" t="s" s="6">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="C132" s="7">
-        <v>120.91</v>
+        <v>6.75</v>
       </c>
       <c r="D132" s="7">
-        <v>248.201</v>
+        <v>38.128</v>
       </c>
       <c r="E132" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F132" s="7">
         <v>1</v>
       </c>
       <c r="G132" s="7">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
     </row>
     <row r="133" ht="13.55" customHeight="1">
       <c r="A133" t="s" s="6">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="B133" t="s" s="6">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="C133" s="7">
-        <v>130.17</v>
+        <v>10.37</v>
       </c>
       <c r="D133" s="7">
-        <v>207</v>
+        <v>59.462</v>
       </c>
       <c r="E133" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F133" s="7">
         <v>1</v>
       </c>
       <c r="G133" s="7">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
     </row>
     <row r="134" ht="13.55" customHeight="1">
       <c r="A134" t="s" s="6">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="B134" t="s" s="6">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="C134" s="7">
-        <v>11.85</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D134" s="7">
-        <v>34.5</v>
+        <v>55.892</v>
       </c>
       <c r="E134" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F134" s="7">
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
     </row>
     <row r="135" ht="13.55" customHeight="1">
       <c r="A135" t="s" s="6">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="B135" t="s" s="6">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="C135" s="7">
-        <v>17.89</v>
+        <v>33.05</v>
       </c>
       <c r="D135" s="7">
-        <v>48.7</v>
+        <v>157.109</v>
       </c>
       <c r="E135" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F135" s="7">
         <v>1</v>
@@ -5865,41 +5902,41 @@
     </row>
     <row r="136" ht="13.55" customHeight="1">
       <c r="A136" t="s" s="6">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="B136" t="s" s="6">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="C136" s="7">
-        <v>21.89</v>
+        <v>20.82</v>
       </c>
       <c r="D136" s="7">
-        <v>24</v>
+        <v>45.773</v>
       </c>
       <c r="E136" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F136" s="7">
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
     </row>
     <row r="137" ht="13.55" customHeight="1">
       <c r="A137" t="s" s="6">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="B137" t="s" s="6">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="C137" s="7">
-        <v>0.49</v>
+        <v>3.79</v>
       </c>
       <c r="D137" s="7">
-        <v>2.234</v>
+        <v>19.428</v>
       </c>
       <c r="E137" s="7">
         <v>10</v>
@@ -5915,44 +5952,44 @@
     </row>
     <row r="138" ht="13.55" customHeight="1">
       <c r="A138" t="s" s="6">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="B138" t="s" s="6">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="C138" s="7">
-        <v>68.42</v>
+        <v>15.37</v>
       </c>
       <c r="D138" s="7">
-        <v>216.554</v>
+        <v>73.333</v>
       </c>
       <c r="E138" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F138" s="7">
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
     </row>
     <row r="139" ht="13.55" customHeight="1">
       <c r="A139" t="s" s="6">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="B139" t="s" s="6">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="C139" s="7">
-        <v>216.38</v>
+        <v>0.34</v>
       </c>
       <c r="D139" s="7">
-        <v>450.756</v>
+        <v>0.3</v>
       </c>
       <c r="E139" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F139" s="7">
         <v>1</v>
@@ -5965,16 +6002,16 @@
     </row>
     <row r="140" ht="13.55" customHeight="1">
       <c r="A140" t="s" s="6">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="B140" t="s" s="6">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="C140" s="7">
-        <v>216.38</v>
+        <v>11.98</v>
       </c>
       <c r="D140" s="7">
-        <v>450.756</v>
+        <v>38.291</v>
       </c>
       <c r="E140" s="7">
         <v>12</v>
@@ -5983,76 +6020,76 @@
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="6">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="B141" t="s" s="6">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="C141" s="7">
-        <v>216.38</v>
+        <v>119.41</v>
       </c>
       <c r="D141" s="7">
-        <v>450.756</v>
+        <v>354.86</v>
       </c>
       <c r="E141" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F141" s="7">
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
     </row>
     <row r="142" ht="13.55" customHeight="1">
       <c r="A142" t="s" s="6">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="B142" t="s" s="6">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="C142" s="7">
-        <v>216.38</v>
+        <v>24.68</v>
       </c>
       <c r="D142" s="7">
-        <v>450.756</v>
+        <v>64.59399999999999</v>
       </c>
       <c r="E142" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F142" s="7">
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
     </row>
     <row r="143" ht="13.55" customHeight="1">
       <c r="A143" t="s" s="6">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="B143" t="s" s="6">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="C143" s="7">
-        <v>216.38</v>
+        <v>3.58</v>
       </c>
       <c r="D143" s="7">
-        <v>450.756</v>
+        <v>6.6</v>
       </c>
       <c r="E143" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
@@ -6065,16 +6102,16 @@
     </row>
     <row r="144" ht="13.55" customHeight="1">
       <c r="A144" t="s" s="6">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="B144" t="s" s="6">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="C144" s="7">
-        <v>216.38</v>
+        <v>11.77</v>
       </c>
       <c r="D144" s="7">
-        <v>450.756</v>
+        <v>42.588</v>
       </c>
       <c r="E144" s="7">
         <v>12</v>
@@ -6083,23 +6120,23 @@
         <v>1</v>
       </c>
       <c r="G144" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
     </row>
     <row r="145" ht="13.55" customHeight="1">
       <c r="A145" t="s" s="6">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="B145" t="s" s="6">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="C145" s="7">
-        <v>216.38</v>
+        <v>16.49</v>
       </c>
       <c r="D145" s="7">
-        <v>450.756</v>
+        <v>60.73</v>
       </c>
       <c r="E145" s="7">
         <v>12</v>
@@ -6108,23 +6145,23 @@
         <v>1</v>
       </c>
       <c r="G145" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
     </row>
     <row r="146" ht="13.55" customHeight="1">
       <c r="A146" t="s" s="6">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="B146" t="s" s="6">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="C146" s="7">
-        <v>216.38</v>
+        <v>5.41</v>
       </c>
       <c r="D146" s="7">
-        <v>450.756</v>
+        <v>19.648</v>
       </c>
       <c r="E146" s="7">
         <v>12</v>
@@ -6140,19 +6177,19 @@
     </row>
     <row r="147" ht="13.55" customHeight="1">
       <c r="A147" t="s" s="6">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="B147" t="s" s="6">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="C147" s="7">
-        <v>1.38</v>
+        <v>17.33</v>
       </c>
       <c r="D147" s="7">
-        <v>5.475</v>
+        <v>23.7</v>
       </c>
       <c r="E147" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" s="7">
         <v>1</v>
@@ -6165,19 +6202,19 @@
     </row>
     <row r="148" ht="13.55" customHeight="1">
       <c r="A148" t="s" s="6">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="B148" t="s" s="6">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="C148" s="7">
-        <v>1.36</v>
+        <v>28.98</v>
       </c>
       <c r="D148" s="7">
-        <v>5.493</v>
+        <v>102</v>
       </c>
       <c r="E148" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
@@ -6190,19 +6227,19 @@
     </row>
     <row r="149" ht="13.55" customHeight="1">
       <c r="A149" t="s" s="6">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="B149" t="s" s="6">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>1.42</v>
+        <v>3.7</v>
       </c>
       <c r="D149" s="7">
-        <v>5.6</v>
+        <v>19.078</v>
       </c>
       <c r="E149" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
@@ -6215,19 +6252,19 @@
     </row>
     <row r="150" ht="13.55" customHeight="1">
       <c r="A150" t="s" s="6">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B150" t="s" s="6">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>0.49</v>
+        <v>2.45</v>
       </c>
       <c r="D150" s="7">
-        <v>1.7</v>
+        <v>12.8</v>
       </c>
       <c r="E150" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F150" s="7">
         <v>1</v>
@@ -6240,19 +6277,19 @@
     </row>
     <row r="151" ht="13.55" customHeight="1">
       <c r="A151" t="s" s="6">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="B151" t="s" s="6">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>6.32</v>
+        <v>15.11</v>
       </c>
       <c r="D151" s="7">
-        <v>32.054</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E151" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F151" s="7">
         <v>1</v>
@@ -6265,19 +6302,19 @@
     </row>
     <row r="152" ht="13.55" customHeight="1">
       <c r="A152" t="s" s="6">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="B152" t="s" s="6">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>26.16</v>
+        <v>3.9</v>
       </c>
       <c r="D152" s="7">
-        <v>26.938</v>
+        <v>18</v>
       </c>
       <c r="E152" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F152" s="7">
         <v>1</v>
@@ -6290,19 +6327,19 @@
     </row>
     <row r="153" ht="13.55" customHeight="1">
       <c r="A153" t="s" s="6">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="B153" t="s" s="6">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>5.38</v>
+        <v>1.66</v>
       </c>
       <c r="D153" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E153" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F153" s="7">
         <v>1</v>
@@ -6315,724 +6352,768 @@
     </row>
     <row r="154" ht="13.55" customHeight="1">
       <c r="A154" t="s" s="6">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="B154" t="s" s="6">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>42.82</v>
+        <v>8.98</v>
       </c>
       <c r="D154" s="7">
-        <v>152.431</v>
+        <v>19.4</v>
       </c>
       <c r="E154" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F154" s="7">
         <v>1</v>
       </c>
       <c r="G154" s="7">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
     </row>
     <row r="155" ht="13.55" customHeight="1">
       <c r="A155" t="s" s="6">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="B155" t="s" s="6">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>43.29</v>
+        <v>2.48</v>
       </c>
       <c r="D155" s="7">
-        <v>152.431</v>
+        <v>8</v>
       </c>
       <c r="E155" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F155" s="7">
         <v>1</v>
       </c>
       <c r="G155" s="7">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
     </row>
     <row r="156" ht="13.55" customHeight="1">
       <c r="A156" t="s" s="6">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="B156" t="s" s="6">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>48.75</v>
+        <v>4.29</v>
       </c>
       <c r="D156" s="7">
-        <v>175.457</v>
+        <v>22.7</v>
       </c>
       <c r="E156" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F156" s="7">
         <v>1</v>
       </c>
       <c r="G156" s="7">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
     </row>
     <row r="157" ht="13.55" customHeight="1">
       <c r="A157" t="s" s="6">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="B157" t="s" s="6">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>49.12</v>
+        <v>1.61</v>
       </c>
       <c r="D157" s="7">
-        <v>201.645</v>
+        <v>8</v>
       </c>
       <c r="E157" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F157" s="7">
         <v>1</v>
       </c>
       <c r="G157" s="7">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
     </row>
     <row r="158" ht="13.55" customHeight="1">
       <c r="A158" t="s" s="6">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="B158" t="s" s="6">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>25.04</v>
+        <v>2.51</v>
       </c>
       <c r="D158" s="7">
-        <v>143.961</v>
+        <v>12.718</v>
       </c>
       <c r="E158" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F158" s="7">
         <v>1</v>
       </c>
       <c r="G158" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
     </row>
     <row r="159" ht="13.55" customHeight="1">
       <c r="A159" t="s" s="6">
-        <v>248</v>
+        <v>323</v>
       </c>
       <c r="B159" t="s" s="6">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>21.26</v>
+        <v>2.8</v>
       </c>
       <c r="D159" s="7">
-        <v>143.961</v>
+        <v>14.231</v>
       </c>
       <c r="E159" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F159" s="7">
         <v>1</v>
       </c>
       <c r="G159" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
     </row>
     <row r="160" ht="13.55" customHeight="1">
       <c r="A160" t="s" s="6">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="B160" t="s" s="6">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>39.51</v>
+        <v>6.26</v>
       </c>
       <c r="D160" s="7">
-        <v>219.134</v>
+        <v>33.032</v>
       </c>
       <c r="E160" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F160" s="7">
         <v>1</v>
       </c>
       <c r="G160" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
     </row>
     <row r="161" ht="13.55" customHeight="1">
       <c r="A161" t="s" s="6">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="B161" t="s" s="6">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>17.11</v>
+        <v>0.47</v>
       </c>
       <c r="D161" s="7">
-        <v>96.729</v>
+        <v>1.5</v>
       </c>
       <c r="E161" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F161" s="7">
         <v>1</v>
       </c>
       <c r="G161" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
     </row>
     <row r="162" ht="13.55" customHeight="1">
       <c r="A162" t="s" s="6">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="B162" t="s" s="6">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>14.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D162" s="7">
-        <v>84.5</v>
+        <v>1.2</v>
       </c>
       <c r="E162" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F162" s="7">
         <v>1</v>
       </c>
       <c r="G162" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
     </row>
     <row r="163" ht="13.55" customHeight="1">
       <c r="A163" t="s" s="6">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="B163" t="s" s="6">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>20.9</v>
+        <v>15.61</v>
       </c>
       <c r="D163" s="7">
-        <v>122.054</v>
+        <v>58.927</v>
       </c>
       <c r="E163" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F163" s="7">
         <v>1</v>
       </c>
       <c r="G163" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
     </row>
     <row r="164" ht="13.55" customHeight="1">
       <c r="A164" t="s" s="6">
-        <v>258</v>
+        <v>333</v>
       </c>
       <c r="B164" t="s" s="6">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>15.95</v>
+        <v>5.82</v>
       </c>
       <c r="D164" s="7">
-        <v>93.88800000000001</v>
+        <v>22.042</v>
       </c>
       <c r="E164" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F164" s="7">
         <v>1</v>
       </c>
       <c r="G164" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
     </row>
     <row r="165" ht="13.55" customHeight="1">
       <c r="A165" t="s" s="6">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="B165" t="s" s="6">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>5.62</v>
+        <v>24.28</v>
       </c>
       <c r="D165" s="7">
-        <v>18.015</v>
+        <v>14.652</v>
       </c>
       <c r="E165" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F165" s="7">
         <v>1</v>
       </c>
       <c r="G165" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
     </row>
     <row r="166" ht="13.55" customHeight="1">
       <c r="A166" t="s" s="6">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="B166" t="s" s="6">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>2.65</v>
+        <v>7.76</v>
       </c>
       <c r="D166" s="7">
-        <v>15.648</v>
+        <v>2.2</v>
       </c>
       <c r="E166" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F166" s="7">
         <v>1</v>
       </c>
       <c r="G166" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
     </row>
     <row r="167" ht="13.55" customHeight="1">
       <c r="A167" t="s" s="6">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="B167" t="s" s="6">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>22</v>
+        <v>16.45</v>
       </c>
       <c r="D167" s="7">
-        <v>138.225</v>
+        <v>49.362</v>
       </c>
       <c r="E167" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F167" s="7">
         <v>1</v>
       </c>
       <c r="G167" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
     </row>
     <row r="168" ht="13.55" customHeight="1">
       <c r="A168" t="s" s="6">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="B168" t="s" s="6">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>22.93</v>
+        <v>3.59</v>
       </c>
       <c r="D168" s="7">
-        <v>143.961</v>
+        <v>20</v>
       </c>
       <c r="E168" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F168" s="7">
         <v>1</v>
       </c>
       <c r="G168" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
     </row>
     <row r="169" ht="13.55" customHeight="1">
       <c r="A169" t="s" s="6">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="B169" t="s" s="6">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>6.75</v>
+        <v>167.31</v>
       </c>
       <c r="D169" s="7">
-        <v>38.128</v>
+        <v>485</v>
       </c>
       <c r="E169" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F169" s="7">
         <v>1</v>
       </c>
       <c r="G169" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
+        <v>2.42</v>
+      </c>
+      <c r="H169" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I169" s="7">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="170" ht="13.55" customHeight="1">
       <c r="A170" t="s" s="6">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="B170" t="s" s="6">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>10.37</v>
+        <v>43.47</v>
       </c>
       <c r="D170" s="7">
-        <v>59.462</v>
+        <v>118.61</v>
       </c>
       <c r="E170" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F170" s="7">
         <v>1</v>
       </c>
       <c r="G170" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8"/>
+        <v>0.55</v>
+      </c>
+      <c r="H170" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I170" s="7">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="171" ht="13.55" customHeight="1">
       <c r="A171" t="s" s="6">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="B171" t="s" s="6">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>9.470000000000001</v>
+        <v>99.67</v>
       </c>
       <c r="D171" s="7">
-        <v>55.892</v>
+        <v>118.61</v>
       </c>
       <c r="E171" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F171" s="7">
         <v>1</v>
       </c>
       <c r="G171" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
+        <v>0.55</v>
+      </c>
+      <c r="H171" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I171" s="7">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="172" ht="13.55" customHeight="1">
       <c r="A172" t="s" s="6">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="B172" t="s" s="6">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>33.05</v>
+        <v>34.58</v>
       </c>
       <c r="D172" s="7">
-        <v>157.109</v>
+        <v>104.31</v>
       </c>
       <c r="E172" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F172" s="7">
         <v>1</v>
       </c>
       <c r="G172" s="7">
-        <v>1</v>
-      </c>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
+        <v>0.48</v>
+      </c>
+      <c r="H172" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I172" s="7">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="173" ht="13.55" customHeight="1">
       <c r="A173" t="s" s="6">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="B173" t="s" s="6">
-        <v>277</v>
+        <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>20.82</v>
+        <v>45.49</v>
       </c>
       <c r="D173" s="7">
-        <v>45.773</v>
+        <v>110</v>
       </c>
       <c r="E173" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F173" s="7">
         <v>1</v>
       </c>
       <c r="G173" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="H173" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I173" s="7">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="174" ht="13.55" customHeight="1">
       <c r="A174" t="s" s="6">
-        <v>278</v>
+        <v>353</v>
       </c>
       <c r="B174" t="s" s="6">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="C174" s="7">
-        <v>3.79</v>
+        <v>194.66</v>
       </c>
       <c r="D174" s="7">
-        <v>19.428</v>
+        <v>561.2</v>
       </c>
       <c r="E174" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F174" s="7">
         <v>1</v>
       </c>
       <c r="G174" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="H174" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I174" s="7">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="175" ht="13.55" customHeight="1">
       <c r="A175" t="s" s="6">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="B175" t="s" s="6">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="C175" s="7">
-        <v>15.37</v>
+        <v>321.56</v>
       </c>
       <c r="D175" s="7">
-        <v>73.333</v>
+        <v>850.95</v>
       </c>
       <c r="E175" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F175" s="7">
         <v>1</v>
       </c>
       <c r="G175" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
+        <v>4.24</v>
+      </c>
+      <c r="H175" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I175" s="7">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="176" ht="13.55" customHeight="1">
       <c r="A176" t="s" s="6">
-        <v>282</v>
+        <v>357</v>
       </c>
       <c r="B176" t="s" s="6">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>0.34</v>
+        <v>28.94</v>
       </c>
       <c r="D176" s="7">
-        <v>0.3</v>
+        <v>24.88</v>
       </c>
       <c r="E176" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F176" s="7">
         <v>1</v>
       </c>
       <c r="G176" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
+        <v>0.14</v>
+      </c>
+      <c r="H176" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I176" s="7">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="177" ht="13.55" customHeight="1">
       <c r="A177" t="s" s="6">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="B177" t="s" s="6">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>11.98</v>
+        <v>43.34</v>
       </c>
       <c r="D177" s="7">
-        <v>38.291</v>
+        <v>24.18</v>
       </c>
       <c r="E177" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F177" s="7">
         <v>1</v>
       </c>
       <c r="G177" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="H177" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I177" s="7">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="178" ht="13.55" customHeight="1">
       <c r="A178" t="s" s="6">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="B178" t="s" s="6">
-        <v>287</v>
+        <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>119.41</v>
+        <v>19.21</v>
       </c>
       <c r="D178" s="7">
-        <v>354.86</v>
+        <v>5</v>
       </c>
       <c r="E178" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F178" s="7">
         <v>1</v>
       </c>
       <c r="G178" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="H178" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I178" s="7">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="179" ht="13.55" customHeight="1">
       <c r="A179" t="s" s="6">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="B179" t="s" s="6">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="C179" s="7">
-        <v>24.68</v>
+        <v>195.6</v>
       </c>
       <c r="D179" s="7">
-        <v>64.59399999999999</v>
+        <v>17</v>
       </c>
       <c r="E179" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F179" s="7">
         <v>1</v>
       </c>
       <c r="G179" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
+        <v>0.11</v>
+      </c>
+      <c r="H179" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I179" s="7">
+        <v>3.16</v>
+      </c>
     </row>
     <row r="180" ht="13.55" customHeight="1">
       <c r="A180" t="s" s="6">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="B180" t="s" s="6">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>167.31</v>
+        <v>31.58</v>
       </c>
       <c r="D180" s="7">
-        <v>485</v>
+        <v>145.52</v>
       </c>
       <c r="E180" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F180" s="7">
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>2.42</v>
+        <v>6.83</v>
       </c>
       <c r="H180" s="7">
-        <v>2.79</v>
+        <v>0.53</v>
       </c>
       <c r="I180" s="7">
-        <v>0.37</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="181" ht="13.55" customHeight="1">
       <c r="A181" t="s" s="6">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="B181" t="s" s="6">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>43.47</v>
+        <v>34.53</v>
       </c>
       <c r="D181" s="7">
-        <v>118.61</v>
+        <v>12.17</v>
       </c>
       <c r="E181" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F181" s="7">
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>0.55</v>
+        <v>0.86</v>
       </c>
       <c r="H181" s="7">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="I181" s="7">
-        <v>0.18</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="182" ht="13.55" customHeight="1">
       <c r="A182" t="s" s="6">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="B182" t="s" s="6">
-        <v>295</v>
+        <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>99.67</v>
+        <v>9.35</v>
       </c>
       <c r="D182" s="7">
-        <v>118.61</v>
+        <v>30</v>
       </c>
       <c r="E182" s="7">
         <v>12</v>
@@ -7041,329 +7122,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H182" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I182" s="7">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="183" ht="13.55" customHeight="1">
-      <c r="A183" t="s" s="6">
-        <v>296</v>
-      </c>
-      <c r="B183" t="s" s="6">
-        <v>297</v>
-      </c>
-      <c r="C183" s="7">
-        <v>34.58</v>
-      </c>
-      <c r="D183" s="7">
-        <v>104.31</v>
-      </c>
-      <c r="E183" s="7">
-        <v>12</v>
-      </c>
-      <c r="F183" s="7">
-        <v>1</v>
-      </c>
-      <c r="G183" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H183" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I183" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="184" ht="13.55" customHeight="1">
-      <c r="A184" t="s" s="6">
-        <v>298</v>
-      </c>
-      <c r="B184" t="s" s="6">
-        <v>299</v>
-      </c>
-      <c r="C184" s="7">
-        <v>45.49</v>
-      </c>
-      <c r="D184" s="7">
-        <v>110</v>
-      </c>
-      <c r="E184" s="7">
-        <v>12</v>
-      </c>
-      <c r="F184" s="7">
-        <v>1</v>
-      </c>
-      <c r="G184" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H184" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I184" s="7">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="185" ht="13.55" customHeight="1">
-      <c r="A185" t="s" s="6">
-        <v>300</v>
-      </c>
-      <c r="B185" t="s" s="6">
-        <v>301</v>
-      </c>
-      <c r="C185" s="7">
-        <v>194.66</v>
-      </c>
-      <c r="D185" s="7">
-        <v>561.2</v>
-      </c>
-      <c r="E185" s="7">
-        <v>12</v>
-      </c>
-      <c r="F185" s="7">
-        <v>1</v>
-      </c>
-      <c r="G185" s="7">
-        <v>3</v>
-      </c>
-      <c r="H185" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I185" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="186" ht="13.55" customHeight="1">
-      <c r="A186" t="s" s="6">
-        <v>302</v>
-      </c>
-      <c r="B186" t="s" s="6">
-        <v>303</v>
-      </c>
-      <c r="C186" s="7">
-        <v>321.56</v>
-      </c>
-      <c r="D186" s="7">
-        <v>850.95</v>
-      </c>
-      <c r="E186" s="7">
-        <v>12</v>
-      </c>
-      <c r="F186" s="7">
-        <v>1</v>
-      </c>
-      <c r="G186" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H186" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I186" s="7">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="187" ht="13.55" customHeight="1">
-      <c r="A187" t="s" s="6">
-        <v>304</v>
-      </c>
-      <c r="B187" t="s" s="6">
-        <v>305</v>
-      </c>
-      <c r="C187" s="7">
-        <v>28.94</v>
-      </c>
-      <c r="D187" s="7">
-        <v>24.88</v>
-      </c>
-      <c r="E187" s="7">
-        <v>20</v>
-      </c>
-      <c r="F187" s="7">
-        <v>1</v>
-      </c>
-      <c r="G187" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H187" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I187" s="7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="188" ht="13.55" customHeight="1">
-      <c r="A188" t="s" s="6">
-        <v>306</v>
-      </c>
-      <c r="B188" t="s" s="6">
-        <v>307</v>
-      </c>
-      <c r="C188" s="7">
-        <v>43.34</v>
-      </c>
-      <c r="D188" s="7">
-        <v>24.18</v>
-      </c>
-      <c r="E188" s="7">
-        <v>25</v>
-      </c>
-      <c r="F188" s="7">
-        <v>1</v>
-      </c>
-      <c r="G188" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H188" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I188" s="7">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="189" ht="13.55" customHeight="1">
-      <c r="A189" t="s" s="6">
-        <v>308</v>
-      </c>
-      <c r="B189" t="s" s="6">
-        <v>309</v>
-      </c>
-      <c r="C189" s="7">
-        <v>19.21</v>
-      </c>
-      <c r="D189" s="7">
-        <v>5</v>
-      </c>
-      <c r="E189" s="7">
-        <v>32</v>
-      </c>
-      <c r="F189" s="7">
-        <v>1</v>
-      </c>
-      <c r="G189" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H189" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I189" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="190" ht="13.55" customHeight="1">
-      <c r="A190" t="s" s="6">
-        <v>310</v>
-      </c>
-      <c r="B190" t="s" s="6">
-        <v>311</v>
-      </c>
-      <c r="C190" s="7">
-        <v>195.6</v>
-      </c>
-      <c r="D190" s="7">
-        <v>17</v>
-      </c>
-      <c r="E190" s="7">
-        <v>32</v>
-      </c>
-      <c r="F190" s="7">
-        <v>1</v>
-      </c>
-      <c r="G190" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H190" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I190" s="7">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="191" ht="13.55" customHeight="1">
-      <c r="A191" t="s" s="6">
-        <v>312</v>
-      </c>
-      <c r="B191" t="s" s="6">
-        <v>313</v>
-      </c>
-      <c r="C191" s="7">
-        <v>31.58</v>
-      </c>
-      <c r="D191" s="7">
-        <v>145.52</v>
-      </c>
-      <c r="E191" s="7">
-        <v>10</v>
-      </c>
-      <c r="F191" s="7">
-        <v>1</v>
-      </c>
-      <c r="G191" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H191" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I191" s="7">
-        <v>-6.3</v>
-      </c>
-    </row>
-    <row r="192" ht="13.55" customHeight="1">
-      <c r="A192" t="s" s="6">
-        <v>314</v>
-      </c>
-      <c r="B192" t="s" s="6">
-        <v>315</v>
-      </c>
-      <c r="C192" s="7">
-        <v>34.53</v>
-      </c>
-      <c r="D192" s="7">
-        <v>12.17</v>
-      </c>
-      <c r="E192" s="7">
-        <v>25</v>
-      </c>
-      <c r="F192" s="7">
-        <v>1</v>
-      </c>
-      <c r="G192" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="H192" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I192" s="7">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="193" ht="13.55" customHeight="1">
-      <c r="A193" t="s" s="6">
-        <v>316</v>
-      </c>
-      <c r="B193" t="s" s="6">
-        <v>317</v>
-      </c>
-      <c r="C193" s="7">
-        <v>9.35</v>
-      </c>
-      <c r="D193" s="7">
-        <v>30</v>
-      </c>
-      <c r="E193" s="7">
-        <v>12</v>
-      </c>
-      <c r="F193" s="7">
-        <v>1</v>
-      </c>
-      <c r="G193" s="7">
         <v>0.6</v>
       </c>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t>timestamp</t>
   </si>
@@ -46,6 +46,12 @@
     <t>01254.slp</t>
   </si>
   <si>
+    <t>2024-08-20 13:16:52</t>
+  </si>
+  <si>
+    <t>02552.NC</t>
+  </si>
+  <si>
     <t>2024-06-07 11:20:02</t>
   </si>
   <si>
@@ -142,12 +148,6 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
-    <t>2024-08-05 11:08:30</t>
-  </si>
-  <si>
-    <t>CORTE ESPECIAL.slp</t>
-  </si>
-  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -922,6 +922,12 @@
     <t>L_02537.NC</t>
   </si>
   <si>
+    <t>2024-08-20 16:15:29</t>
+  </si>
+  <si>
+    <t>L_02617.NC</t>
+  </si>
+  <si>
     <t>2024-08-19 15:51:50</t>
   </si>
   <si>
@@ -934,12 +940,30 @@
     <t>L_02619.NC</t>
   </si>
   <si>
+    <t>2024-08-20 08:44:21</t>
+  </si>
+  <si>
+    <t>L_02620.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 16:08:33</t>
+  </si>
+  <si>
+    <t>L_02621.NC</t>
+  </si>
+  <si>
     <t>2024-08-19 16:40:23</t>
   </si>
   <si>
     <t>L_02622.NC</t>
   </si>
   <si>
+    <t>2024-08-20 15:26:25</t>
+  </si>
+  <si>
+    <t>L_02623.NC</t>
+  </si>
+  <si>
     <t>2024-08-19 11:21:03</t>
   </si>
   <si>
@@ -952,6 +976,18 @@
     <t>L_02627.NC</t>
   </si>
   <si>
+    <t>2024-08-20 12:00:37</t>
+  </si>
+  <si>
+    <t>L_02628.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 15:49:55</t>
+  </si>
+  <si>
+    <t>L_02629.NC</t>
+  </si>
+  <si>
     <t>2024-08-19 11:47:04</t>
   </si>
   <si>
@@ -964,6 +1000,12 @@
     <t>L_02631.NC</t>
   </si>
   <si>
+    <t>2024-08-20 11:36:41</t>
+  </si>
+  <si>
+    <t>L_02632.NC</t>
+  </si>
+  <si>
     <t>2024-08-19 15:43:05</t>
   </si>
   <si>
@@ -976,12 +1018,24 @@
     <t>L_02635.NC</t>
   </si>
   <si>
+    <t>2024-08-20 11:47:38</t>
+  </si>
+  <si>
+    <t>L_02636.NC</t>
+  </si>
+  <si>
     <t>2024-08-19 11:11:19</t>
   </si>
   <si>
     <t>L_02637.NC</t>
   </si>
   <si>
+    <t>2024-08-20 12:10:08</t>
+  </si>
+  <si>
+    <t>L_02638.NC</t>
+  </si>
+  <si>
     <t>2024-08-19 11:32:48</t>
   </si>
   <si>
@@ -992,6 +1046,48 @@
   </si>
   <si>
     <t>L_02640.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 11:21:47</t>
+  </si>
+  <si>
+    <t>L_02641.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 11:03:14</t>
+  </si>
+  <si>
+    <t>L_02643.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 12:20:44</t>
+  </si>
+  <si>
+    <t>L_02644.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 09:22:11</t>
+  </si>
+  <si>
+    <t>L_02645.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 13:01:57</t>
+  </si>
+  <si>
+    <t>L_02646.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 13:29:02</t>
+  </si>
+  <si>
+    <t>L_02647.NC</t>
+  </si>
+  <si>
+    <t>2024-08-20 08:55:51</t>
+  </si>
+  <si>
+    <t>L_02648.NC</t>
   </si>
   <si>
     <t>2024-08-19 08:23:57</t>
@@ -2367,14 +2463,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3828" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -2441,26 +2537,14 @@
         <v>12</v>
       </c>
       <c r="C3" s="7">
-        <v>146.86</v>
-      </c>
-      <c r="D3" s="7">
-        <v>420.79</v>
-      </c>
-      <c r="E3" s="7">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2.45</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.47</v>
-      </c>
+        <v>3.52</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="6">
@@ -2470,10 +2554,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="7">
-        <v>235.62</v>
+        <v>146.86</v>
       </c>
       <c r="D4" s="7">
-        <v>866.7</v>
+        <v>420.79</v>
       </c>
       <c r="E4" s="7">
         <v>12</v>
@@ -2482,13 +2566,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="H4" s="7">
-        <v>3.93</v>
+        <v>2.45</v>
       </c>
       <c r="I4" s="7">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
@@ -2499,10 +2583,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>330.88</v>
+        <v>235.62</v>
       </c>
       <c r="D5" s="7">
-        <v>971.88</v>
+        <v>866.7</v>
       </c>
       <c r="E5" s="7">
         <v>12</v>
@@ -2511,13 +2595,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="H5" s="7">
-        <v>5.52</v>
+        <v>3.93</v>
       </c>
       <c r="I5" s="7">
-        <v>1.95</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -2528,25 +2612,25 @@
         <v>18</v>
       </c>
       <c r="C6" s="7">
-        <v>14.42</v>
+        <v>330.88</v>
       </c>
       <c r="D6" s="7">
-        <v>67</v>
+        <v>971.88</v>
       </c>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>1.93</v>
+        <v>3.57</v>
       </c>
       <c r="H6" s="7">
-        <v>0.25</v>
+        <v>5.52</v>
       </c>
       <c r="I6" s="7">
-        <v>-1.68</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -2557,10 +2641,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>3.32</v>
+        <v>14.42</v>
       </c>
       <c r="D7" s="7">
-        <v>6.7</v>
+        <v>67</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -2569,13 +2653,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>0.02</v>
+        <v>1.93</v>
       </c>
       <c r="H7" s="7">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="I7" s="7">
-        <v>0.04</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -2586,25 +2670,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>0.92</v>
+        <v>3.32</v>
       </c>
       <c r="D8" s="7">
-        <v>3.03</v>
+        <v>6.7</v>
       </c>
       <c r="E8" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H8" s="7">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I8" s="7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -2615,13 +2699,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
       <c r="D9" s="7">
-        <v>5.59</v>
+        <v>3.03</v>
       </c>
       <c r="E9" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -2644,25 +2728,25 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>158.01</v>
+        <v>1.18</v>
       </c>
       <c r="D10" s="7">
-        <v>456.43</v>
+        <v>5.59</v>
       </c>
       <c r="E10" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>2.67</v>
+        <v>0.01</v>
       </c>
       <c r="H10" s="7">
-        <v>2.64</v>
+        <v>0.02</v>
       </c>
       <c r="I10" s="7">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
@@ -2673,10 +2757,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>209.33</v>
+        <v>158.01</v>
       </c>
       <c r="D11" s="7">
-        <v>937</v>
+        <v>456.43</v>
       </c>
       <c r="E11" s="7">
         <v>12</v>
@@ -2685,13 +2769,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>5.17</v>
+        <v>2.67</v>
       </c>
       <c r="H11" s="7">
-        <v>3.49</v>
+        <v>2.64</v>
       </c>
       <c r="I11" s="7">
-        <v>-1.68</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
@@ -2702,10 +2786,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>161.87</v>
+        <v>209.33</v>
       </c>
       <c r="D12" s="7">
-        <v>451</v>
+        <v>937</v>
       </c>
       <c r="E12" s="7">
         <v>12</v>
@@ -2714,13 +2798,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>2.48</v>
+        <v>5.17</v>
       </c>
       <c r="H12" s="7">
-        <v>2.7</v>
+        <v>3.49</v>
       </c>
       <c r="I12" s="7">
-        <v>-0.22</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
@@ -2731,25 +2815,25 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>206.06</v>
+        <v>161.87</v>
       </c>
       <c r="D13" s="7">
-        <v>193.49</v>
+        <v>451</v>
       </c>
       <c r="E13" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="7">
-        <v>5.8</v>
+        <v>2.48</v>
       </c>
       <c r="H13" s="7">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="I13" s="7">
-        <v>-2.36</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -2760,10 +2844,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>273.9</v>
+        <v>206.06</v>
       </c>
       <c r="D14" s="7">
-        <v>219.37</v>
+        <v>193.49</v>
       </c>
       <c r="E14" s="7">
         <v>16</v>
@@ -2772,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="H14" s="7">
-        <v>4.57</v>
+        <v>3.44</v>
       </c>
       <c r="I14" s="7">
-        <v>-2.03</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
@@ -2789,25 +2873,25 @@
         <v>36</v>
       </c>
       <c r="C15" s="7">
-        <v>17.87</v>
+        <v>273.9</v>
       </c>
       <c r="D15" s="7">
-        <v>78.2</v>
+        <v>219.37</v>
       </c>
       <c r="E15" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H15" s="7">
-        <v>0.3</v>
+        <v>4.57</v>
       </c>
       <c r="I15" s="7">
-        <v>-2</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
@@ -2818,10 +2902,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>4.87</v>
+        <v>17.87</v>
       </c>
       <c r="D16" s="7">
-        <v>30</v>
+        <v>78.2</v>
       </c>
       <c r="E16" s="7">
         <v>3</v>
@@ -2830,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>0.87</v>
+        <v>2.3</v>
       </c>
       <c r="H16" s="7">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="I16" s="7">
-        <v>-0.78</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -2847,10 +2931,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>5.55</v>
+        <v>4.87</v>
       </c>
       <c r="D17" s="7">
-        <v>34.25</v>
+        <v>30</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -2859,13 +2943,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="H17" s="7">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I17" s="7">
-        <v>-0.9</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -2876,10 +2960,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="7">
-        <v>5.66</v>
+        <v>5.55</v>
       </c>
       <c r="D18" s="7">
-        <v>27.37</v>
+        <v>34.25</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
@@ -2888,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7">
         <v>0.1</v>
       </c>
       <c r="I18" s="7">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -2905,14 +2989,26 @@
         <v>44</v>
       </c>
       <c r="C19" s="7">
-        <v>71.91</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+        <v>5.66</v>
+      </c>
+      <c r="D19" s="7">
+        <v>27.37</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="6">
@@ -6233,13 +6329,13 @@
         <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>3.7</v>
+        <v>24.87</v>
       </c>
       <c r="D149" s="7">
-        <v>19.078</v>
+        <v>10</v>
       </c>
       <c r="E149" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
@@ -6258,10 +6354,10 @@
         <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>2.45</v>
+        <v>3.7</v>
       </c>
       <c r="D150" s="7">
-        <v>12.8</v>
+        <v>19.078</v>
       </c>
       <c r="E150" s="7">
         <v>10</v>
@@ -6283,10 +6379,10 @@
         <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>15.11</v>
+        <v>2.45</v>
       </c>
       <c r="D151" s="7">
-        <v>71.11799999999999</v>
+        <v>12.8</v>
       </c>
       <c r="E151" s="7">
         <v>10</v>
@@ -6308,10 +6404,10 @@
         <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>3.9</v>
+        <v>4.43</v>
       </c>
       <c r="D152" s="7">
-        <v>18</v>
+        <v>22.741</v>
       </c>
       <c r="E152" s="7">
         <v>10</v>
@@ -6333,10 +6429,10 @@
         <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>1.66</v>
+        <v>2.59</v>
       </c>
       <c r="D153" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E153" s="7">
         <v>10</v>
@@ -6358,10 +6454,10 @@
         <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>8.98</v>
+        <v>15.11</v>
       </c>
       <c r="D154" s="7">
-        <v>19.4</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E154" s="7">
         <v>10</v>
@@ -6383,10 +6479,10 @@
         <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>2.48</v>
+        <v>7.58</v>
       </c>
       <c r="D155" s="7">
-        <v>8</v>
+        <v>38.801</v>
       </c>
       <c r="E155" s="7">
         <v>10</v>
@@ -6408,10 +6504,10 @@
         <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>4.29</v>
+        <v>3.9</v>
       </c>
       <c r="D156" s="7">
-        <v>22.7</v>
+        <v>18</v>
       </c>
       <c r="E156" s="7">
         <v>10</v>
@@ -6433,7 +6529,7 @@
         <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="D157" s="7">
         <v>8</v>
@@ -6458,10 +6554,10 @@
         <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>2.51</v>
+        <v>3.4</v>
       </c>
       <c r="D158" s="7">
-        <v>12.718</v>
+        <v>16.059</v>
       </c>
       <c r="E158" s="7">
         <v>10</v>
@@ -6483,10 +6579,10 @@
         <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>2.8</v>
+        <v>7.59</v>
       </c>
       <c r="D159" s="7">
-        <v>14.231</v>
+        <v>34.112</v>
       </c>
       <c r="E159" s="7">
         <v>10</v>
@@ -6508,10 +6604,10 @@
         <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>6.26</v>
+        <v>8.98</v>
       </c>
       <c r="D160" s="7">
-        <v>33.032</v>
+        <v>19.4</v>
       </c>
       <c r="E160" s="7">
         <v>10</v>
@@ -6533,13 +6629,13 @@
         <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>0.47</v>
+        <v>2.48</v>
       </c>
       <c r="D161" s="7">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="E161" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F161" s="7">
         <v>1</v>
@@ -6558,13 +6654,13 @@
         <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>0.5600000000000001</v>
+        <v>5.04</v>
       </c>
       <c r="D162" s="7">
-        <v>1.2</v>
+        <v>25.437</v>
       </c>
       <c r="E162" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F162" s="7">
         <v>1</v>
@@ -6583,19 +6679,19 @@
         <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>15.61</v>
+        <v>4.29</v>
       </c>
       <c r="D163" s="7">
-        <v>58.927</v>
+        <v>22.7</v>
       </c>
       <c r="E163" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F163" s="7">
         <v>1</v>
       </c>
       <c r="G163" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
@@ -6608,10 +6704,10 @@
         <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>5.82</v>
+        <v>1.61</v>
       </c>
       <c r="D164" s="7">
-        <v>22.042</v>
+        <v>8</v>
       </c>
       <c r="E164" s="7">
         <v>10</v>
@@ -6620,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -6633,19 +6729,19 @@
         <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>24.28</v>
+        <v>2.82</v>
       </c>
       <c r="D165" s="7">
-        <v>14.652</v>
+        <v>12.718</v>
       </c>
       <c r="E165" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F165" s="7">
         <v>1</v>
       </c>
       <c r="G165" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
@@ -6658,13 +6754,13 @@
         <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>7.76</v>
+        <v>2.51</v>
       </c>
       <c r="D166" s="7">
-        <v>2.2</v>
+        <v>12.718</v>
       </c>
       <c r="E166" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F166" s="7">
         <v>1</v>
@@ -6683,19 +6779,19 @@
         <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>16.45</v>
+        <v>3.56</v>
       </c>
       <c r="D167" s="7">
-        <v>49.362</v>
+        <v>12.718</v>
       </c>
       <c r="E167" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F167" s="7">
         <v>1</v>
       </c>
       <c r="G167" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
@@ -6708,13 +6804,13 @@
         <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>3.59</v>
+        <v>2.8</v>
       </c>
       <c r="D168" s="7">
-        <v>20</v>
+        <v>14.231</v>
       </c>
       <c r="E168" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F168" s="7">
         <v>1</v>
@@ -6733,26 +6829,22 @@
         <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>167.31</v>
+        <v>6.26</v>
       </c>
       <c r="D169" s="7">
-        <v>485</v>
+        <v>33.032</v>
       </c>
       <c r="E169" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F169" s="7">
         <v>1</v>
       </c>
       <c r="G169" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H169" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I169" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
     </row>
     <row r="170" ht="13.55" customHeight="1">
       <c r="A170" t="s" s="6">
@@ -6762,26 +6854,22 @@
         <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>43.47</v>
+        <v>7.37</v>
       </c>
       <c r="D170" s="7">
-        <v>118.61</v>
+        <v>37.601</v>
       </c>
       <c r="E170" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F170" s="7">
         <v>1</v>
       </c>
       <c r="G170" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H170" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I170" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
     </row>
     <row r="171" ht="13.55" customHeight="1">
       <c r="A171" t="s" s="6">
@@ -6791,26 +6879,22 @@
         <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>99.67</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D171" s="7">
-        <v>118.61</v>
+        <v>47.263</v>
       </c>
       <c r="E171" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F171" s="7">
         <v>1</v>
       </c>
       <c r="G171" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H171" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I171" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
     </row>
     <row r="172" ht="13.55" customHeight="1">
       <c r="A172" t="s" s="6">
@@ -6820,26 +6904,22 @@
         <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>34.58</v>
+        <v>6.12</v>
       </c>
       <c r="D172" s="7">
-        <v>104.31</v>
+        <v>31.159</v>
       </c>
       <c r="E172" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F172" s="7">
         <v>1</v>
       </c>
       <c r="G172" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H172" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I172" s="7">
         <v>0.1</v>
       </c>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
     </row>
     <row r="173" ht="13.55" customHeight="1">
       <c r="A173" t="s" s="6">
@@ -6849,26 +6929,22 @@
         <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>45.49</v>
+        <v>2.89</v>
       </c>
       <c r="D173" s="7">
-        <v>110</v>
+        <v>14.231</v>
       </c>
       <c r="E173" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F173" s="7">
         <v>1</v>
       </c>
       <c r="G173" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H173" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I173" s="7">
-        <v>0.26</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
     </row>
     <row r="174" ht="13.55" customHeight="1">
       <c r="A174" t="s" s="6">
@@ -6878,26 +6954,22 @@
         <v>354</v>
       </c>
       <c r="C174" s="7">
-        <v>194.66</v>
+        <v>9.69</v>
       </c>
       <c r="D174" s="7">
-        <v>561.2</v>
+        <v>50.484</v>
       </c>
       <c r="E174" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F174" s="7">
         <v>1</v>
       </c>
       <c r="G174" s="7">
-        <v>3</v>
-      </c>
-      <c r="H174" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I174" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
     </row>
     <row r="175" ht="13.55" customHeight="1">
       <c r="A175" t="s" s="6">
@@ -6907,26 +6979,22 @@
         <v>356</v>
       </c>
       <c r="C175" s="7">
-        <v>321.56</v>
+        <v>9.69</v>
       </c>
       <c r="D175" s="7">
-        <v>850.95</v>
+        <v>50.484</v>
       </c>
       <c r="E175" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F175" s="7">
         <v>1</v>
       </c>
       <c r="G175" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H175" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I175" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
     </row>
     <row r="176" ht="13.55" customHeight="1">
       <c r="A176" t="s" s="6">
@@ -6936,26 +7004,22 @@
         <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>28.94</v>
+        <v>13.27</v>
       </c>
       <c r="D176" s="7">
-        <v>24.88</v>
+        <v>63.368</v>
       </c>
       <c r="E176" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F176" s="7">
         <v>1</v>
       </c>
       <c r="G176" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H176" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I176" s="7">
-        <v>0.35</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
     </row>
     <row r="177" ht="13.55" customHeight="1">
       <c r="A177" t="s" s="6">
@@ -6965,26 +7029,22 @@
         <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>43.34</v>
+        <v>0.47</v>
       </c>
       <c r="D177" s="7">
-        <v>24.18</v>
+        <v>1.5</v>
       </c>
       <c r="E177" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F177" s="7">
         <v>1</v>
       </c>
       <c r="G177" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H177" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I177" s="7">
-        <v>0.58</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
     </row>
     <row r="178" ht="13.55" customHeight="1">
       <c r="A178" t="s" s="6">
@@ -6994,26 +7054,22 @@
         <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>19.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D178" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E178" s="7">
         <v>5</v>
       </c>
-      <c r="E178" s="7">
-        <v>32</v>
-      </c>
       <c r="F178" s="7">
         <v>1</v>
       </c>
       <c r="G178" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H178" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I178" s="7">
-        <v>0.03</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
     </row>
     <row r="179" ht="13.55" customHeight="1">
       <c r="A179" t="s" s="6">
@@ -7023,26 +7079,22 @@
         <v>364</v>
       </c>
       <c r="C179" s="7">
-        <v>195.6</v>
+        <v>15.61</v>
       </c>
       <c r="D179" s="7">
-        <v>17</v>
+        <v>58.927</v>
       </c>
       <c r="E179" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F179" s="7">
         <v>1</v>
       </c>
       <c r="G179" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H179" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I179" s="7">
-        <v>3.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
     </row>
     <row r="180" ht="13.55" customHeight="1">
       <c r="A180" t="s" s="6">
@@ -7052,10 +7104,10 @@
         <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>31.58</v>
+        <v>5.82</v>
       </c>
       <c r="D180" s="7">
-        <v>145.52</v>
+        <v>22.042</v>
       </c>
       <c r="E180" s="7">
         <v>10</v>
@@ -7064,14 +7116,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H180" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I180" s="7">
-        <v>-6.3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
     </row>
     <row r="181" ht="13.55" customHeight="1">
       <c r="A181" t="s" s="6">
@@ -7081,26 +7129,22 @@
         <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>34.53</v>
+        <v>24.28</v>
       </c>
       <c r="D181" s="7">
-        <v>12.17</v>
+        <v>14.652</v>
       </c>
       <c r="E181" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F181" s="7">
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="H181" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I181" s="7">
-        <v>-0.28</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
     </row>
     <row r="182" ht="13.55" customHeight="1">
       <c r="A182" t="s" s="6">
@@ -7110,22 +7154,474 @@
         <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>9.35</v>
+        <v>7.76</v>
       </c>
       <c r="D182" s="7">
-        <v>30</v>
+        <v>2.2</v>
       </c>
       <c r="E182" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
       </c>
       <c r="G182" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
+    </row>
+    <row r="183" ht="13.55" customHeight="1">
+      <c r="A183" t="s" s="6">
+        <v>371</v>
+      </c>
+      <c r="B183" t="s" s="6">
+        <v>372</v>
+      </c>
+      <c r="C183" s="7">
+        <v>16.45</v>
+      </c>
+      <c r="D183" s="7">
+        <v>49.362</v>
+      </c>
+      <c r="E183" s="7">
+        <v>12</v>
+      </c>
+      <c r="F183" s="7">
+        <v>1</v>
+      </c>
+      <c r="G183" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+    </row>
+    <row r="184" ht="13.55" customHeight="1">
+      <c r="A184" t="s" s="6">
+        <v>373</v>
+      </c>
+      <c r="B184" t="s" s="6">
+        <v>374</v>
+      </c>
+      <c r="C184" s="7">
+        <v>3.59</v>
+      </c>
+      <c r="D184" s="7">
+        <v>20</v>
+      </c>
+      <c r="E184" s="7">
+        <v>3</v>
+      </c>
+      <c r="F184" s="7">
+        <v>1</v>
+      </c>
+      <c r="G184" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+    </row>
+    <row r="185" ht="13.55" customHeight="1">
+      <c r="A185" t="s" s="6">
+        <v>375</v>
+      </c>
+      <c r="B185" t="s" s="6">
+        <v>376</v>
+      </c>
+      <c r="C185" s="7">
+        <v>167.31</v>
+      </c>
+      <c r="D185" s="7">
+        <v>485</v>
+      </c>
+      <c r="E185" s="7">
+        <v>12</v>
+      </c>
+      <c r="F185" s="7">
+        <v>1</v>
+      </c>
+      <c r="G185" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="H185" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I185" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="186" ht="13.55" customHeight="1">
+      <c r="A186" t="s" s="6">
+        <v>377</v>
+      </c>
+      <c r="B186" t="s" s="6">
+        <v>378</v>
+      </c>
+      <c r="C186" s="7">
+        <v>43.47</v>
+      </c>
+      <c r="D186" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E186" s="7">
+        <v>12</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1</v>
+      </c>
+      <c r="G186" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H186" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I186" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="187" ht="13.55" customHeight="1">
+      <c r="A187" t="s" s="6">
+        <v>379</v>
+      </c>
+      <c r="B187" t="s" s="6">
+        <v>380</v>
+      </c>
+      <c r="C187" s="7">
+        <v>99.67</v>
+      </c>
+      <c r="D187" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E187" s="7">
+        <v>12</v>
+      </c>
+      <c r="F187" s="7">
+        <v>1</v>
+      </c>
+      <c r="G187" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H187" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I187" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="188" ht="13.55" customHeight="1">
+      <c r="A188" t="s" s="6">
+        <v>381</v>
+      </c>
+      <c r="B188" t="s" s="6">
+        <v>382</v>
+      </c>
+      <c r="C188" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D188" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E188" s="7">
+        <v>12</v>
+      </c>
+      <c r="F188" s="7">
+        <v>1</v>
+      </c>
+      <c r="G188" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H188" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I188" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="189" ht="13.55" customHeight="1">
+      <c r="A189" t="s" s="6">
+        <v>383</v>
+      </c>
+      <c r="B189" t="s" s="6">
+        <v>384</v>
+      </c>
+      <c r="C189" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D189" s="7">
+        <v>110</v>
+      </c>
+      <c r="E189" s="7">
+        <v>12</v>
+      </c>
+      <c r="F189" s="7">
+        <v>1</v>
+      </c>
+      <c r="G189" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H189" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I189" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="190" ht="13.55" customHeight="1">
+      <c r="A190" t="s" s="6">
+        <v>385</v>
+      </c>
+      <c r="B190" t="s" s="6">
+        <v>386</v>
+      </c>
+      <c r="C190" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D190" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E190" s="7">
+        <v>12</v>
+      </c>
+      <c r="F190" s="7">
+        <v>1</v>
+      </c>
+      <c r="G190" s="7">
+        <v>3</v>
+      </c>
+      <c r="H190" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I190" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="191" ht="13.55" customHeight="1">
+      <c r="A191" t="s" s="6">
+        <v>387</v>
+      </c>
+      <c r="B191" t="s" s="6">
+        <v>388</v>
+      </c>
+      <c r="C191" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D191" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E191" s="7">
+        <v>12</v>
+      </c>
+      <c r="F191" s="7">
+        <v>1</v>
+      </c>
+      <c r="G191" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H191" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I191" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="192" ht="13.55" customHeight="1">
+      <c r="A192" t="s" s="6">
+        <v>389</v>
+      </c>
+      <c r="B192" t="s" s="6">
+        <v>390</v>
+      </c>
+      <c r="C192" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D192" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E192" s="7">
+        <v>20</v>
+      </c>
+      <c r="F192" s="7">
+        <v>1</v>
+      </c>
+      <c r="G192" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H192" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I192" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="193" ht="13.55" customHeight="1">
+      <c r="A193" t="s" s="6">
+        <v>391</v>
+      </c>
+      <c r="B193" t="s" s="6">
+        <v>392</v>
+      </c>
+      <c r="C193" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D193" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E193" s="7">
+        <v>25</v>
+      </c>
+      <c r="F193" s="7">
+        <v>1</v>
+      </c>
+      <c r="G193" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H193" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I193" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="194" ht="13.55" customHeight="1">
+      <c r="A194" t="s" s="6">
+        <v>393</v>
+      </c>
+      <c r="B194" t="s" s="6">
+        <v>394</v>
+      </c>
+      <c r="C194" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D194" s="7">
+        <v>5</v>
+      </c>
+      <c r="E194" s="7">
+        <v>32</v>
+      </c>
+      <c r="F194" s="7">
+        <v>1</v>
+      </c>
+      <c r="G194" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H194" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I194" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="195" ht="13.55" customHeight="1">
+      <c r="A195" t="s" s="6">
+        <v>395</v>
+      </c>
+      <c r="B195" t="s" s="6">
+        <v>396</v>
+      </c>
+      <c r="C195" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D195" s="7">
+        <v>17</v>
+      </c>
+      <c r="E195" s="7">
+        <v>32</v>
+      </c>
+      <c r="F195" s="7">
+        <v>1</v>
+      </c>
+      <c r="G195" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H195" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I195" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="196" ht="13.55" customHeight="1">
+      <c r="A196" t="s" s="6">
+        <v>397</v>
+      </c>
+      <c r="B196" t="s" s="6">
+        <v>398</v>
+      </c>
+      <c r="C196" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D196" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E196" s="7">
+        <v>10</v>
+      </c>
+      <c r="F196" s="7">
+        <v>1</v>
+      </c>
+      <c r="G196" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H196" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I196" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="197" ht="13.55" customHeight="1">
+      <c r="A197" t="s" s="6">
+        <v>399</v>
+      </c>
+      <c r="B197" t="s" s="6">
+        <v>400</v>
+      </c>
+      <c r="C197" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D197" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E197" s="7">
+        <v>25</v>
+      </c>
+      <c r="F197" s="7">
+        <v>1</v>
+      </c>
+      <c r="G197" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H197" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I197" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="198" ht="13.55" customHeight="1">
+      <c r="A198" t="s" s="6">
+        <v>401</v>
+      </c>
+      <c r="B198" t="s" s="6">
+        <v>402</v>
+      </c>
+      <c r="C198" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="D198" s="7">
+        <v>30</v>
+      </c>
+      <c r="E198" s="7">
+        <v>12</v>
+      </c>
+      <c r="F198" s="7">
+        <v>1</v>
+      </c>
+      <c r="G198" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
   <si>
     <t>timestamp</t>
   </si>
@@ -46,12 +46,6 @@
     <t>01254.slp</t>
   </si>
   <si>
-    <t>2024-08-20 13:16:52</t>
-  </si>
-  <si>
-    <t>02552.NC</t>
-  </si>
-  <si>
     <t>2024-06-07 11:20:02</t>
   </si>
   <si>
@@ -1136,6 +1130,48 @@
   </si>
   <si>
     <t>L_02896.NC</t>
+  </si>
+  <si>
+    <t>2024-08-21 12:11:58</t>
+  </si>
+  <si>
+    <t>L_03195.NC</t>
+  </si>
+  <si>
+    <t>2024-08-21 11:07:10</t>
+  </si>
+  <si>
+    <t>L_03200.NC</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:18:31</t>
+  </si>
+  <si>
+    <t>L_03253.NC</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:30:58</t>
+  </si>
+  <si>
+    <t>L_03254.NC</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:36:48</t>
+  </si>
+  <si>
+    <t>L_03255.NC</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:41:59</t>
+  </si>
+  <si>
+    <t>L_03256.NC</t>
+  </si>
+  <si>
+    <t>2024-08-21 16:06:48</t>
+  </si>
+  <si>
+    <t>L_03274.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -2463,14 +2499,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3828" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.9062" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -2537,14 +2573,26 @@
         <v>12</v>
       </c>
       <c r="C3" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+        <v>146.86</v>
+      </c>
+      <c r="D3" s="7">
+        <v>420.79</v>
+      </c>
+      <c r="E3" s="7">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.98</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2.45</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="6">
@@ -2554,10 +2602,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="7">
-        <v>146.86</v>
+        <v>235.62</v>
       </c>
       <c r="D4" s="7">
-        <v>420.79</v>
+        <v>866.7</v>
       </c>
       <c r="E4" s="7">
         <v>12</v>
@@ -2566,13 +2614,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
       <c r="H4" s="7">
-        <v>2.45</v>
+        <v>3.93</v>
       </c>
       <c r="I4" s="7">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
@@ -2583,10 +2631,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>235.62</v>
+        <v>330.88</v>
       </c>
       <c r="D5" s="7">
-        <v>866.7</v>
+        <v>971.88</v>
       </c>
       <c r="E5" s="7">
         <v>12</v>
@@ -2595,13 +2643,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="H5" s="7">
-        <v>3.93</v>
+        <v>5.52</v>
       </c>
       <c r="I5" s="7">
-        <v>0.63</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -2612,25 +2660,25 @@
         <v>18</v>
       </c>
       <c r="C6" s="7">
-        <v>330.88</v>
+        <v>14.42</v>
       </c>
       <c r="D6" s="7">
-        <v>971.88</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>3.57</v>
+        <v>1.93</v>
       </c>
       <c r="H6" s="7">
-        <v>5.52</v>
+        <v>0.25</v>
       </c>
       <c r="I6" s="7">
-        <v>1.95</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -2641,10 +2689,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>14.42</v>
+        <v>3.32</v>
       </c>
       <c r="D7" s="7">
-        <v>67</v>
+        <v>6.7</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -2653,13 +2701,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>1.93</v>
+        <v>0.02</v>
       </c>
       <c r="H7" s="7">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I7" s="7">
-        <v>-1.68</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -2670,25 +2718,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>3.32</v>
+        <v>0.92</v>
       </c>
       <c r="D8" s="7">
-        <v>6.7</v>
+        <v>3.03</v>
       </c>
       <c r="E8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.02</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.06</v>
-      </c>
       <c r="I8" s="7">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -2699,13 +2747,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="D9" s="7">
-        <v>3.03</v>
+        <v>5.59</v>
       </c>
       <c r="E9" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -2728,25 +2776,25 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>1.18</v>
+        <v>158.01</v>
       </c>
       <c r="D10" s="7">
-        <v>5.59</v>
+        <v>456.43</v>
       </c>
       <c r="E10" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>0.01</v>
+        <v>2.67</v>
       </c>
       <c r="H10" s="7">
-        <v>0.02</v>
+        <v>2.64</v>
       </c>
       <c r="I10" s="7">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
@@ -2757,10 +2805,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>158.01</v>
+        <v>209.33</v>
       </c>
       <c r="D11" s="7">
-        <v>456.43</v>
+        <v>937</v>
       </c>
       <c r="E11" s="7">
         <v>12</v>
@@ -2769,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>2.67</v>
+        <v>5.17</v>
       </c>
       <c r="H11" s="7">
-        <v>2.64</v>
+        <v>3.49</v>
       </c>
       <c r="I11" s="7">
-        <v>-0.03</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
@@ -2786,10 +2834,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>209.33</v>
+        <v>161.87</v>
       </c>
       <c r="D12" s="7">
-        <v>937</v>
+        <v>451</v>
       </c>
       <c r="E12" s="7">
         <v>12</v>
@@ -2798,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>5.17</v>
+        <v>2.48</v>
       </c>
       <c r="H12" s="7">
-        <v>3.49</v>
+        <v>2.7</v>
       </c>
       <c r="I12" s="7">
-        <v>-1.68</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
@@ -2815,25 +2863,25 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>161.87</v>
+        <v>206.06</v>
       </c>
       <c r="D13" s="7">
-        <v>451</v>
+        <v>193.49</v>
       </c>
       <c r="E13" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="7">
-        <v>2.48</v>
+        <v>5.8</v>
       </c>
       <c r="H13" s="7">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="I13" s="7">
-        <v>-0.22</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -2844,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>206.06</v>
+        <v>273.9</v>
       </c>
       <c r="D14" s="7">
-        <v>193.49</v>
+        <v>219.37</v>
       </c>
       <c r="E14" s="7">
         <v>16</v>
@@ -2856,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H14" s="7">
-        <v>3.44</v>
+        <v>4.57</v>
       </c>
       <c r="I14" s="7">
-        <v>-2.36</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
@@ -2873,25 +2921,25 @@
         <v>36</v>
       </c>
       <c r="C15" s="7">
-        <v>273.9</v>
+        <v>17.87</v>
       </c>
       <c r="D15" s="7">
-        <v>219.37</v>
+        <v>78.2</v>
       </c>
       <c r="E15" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H15" s="7">
-        <v>4.57</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="7">
-        <v>-2.03</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
@@ -2902,10 +2950,10 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>17.87</v>
+        <v>4.87</v>
       </c>
       <c r="D16" s="7">
-        <v>78.2</v>
+        <v>30</v>
       </c>
       <c r="E16" s="7">
         <v>3</v>
@@ -2914,13 +2962,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>2.3</v>
+        <v>0.87</v>
       </c>
       <c r="H16" s="7">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="I16" s="7">
-        <v>-2</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -2931,10 +2979,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>4.87</v>
+        <v>5.55</v>
       </c>
       <c r="D17" s="7">
-        <v>30</v>
+        <v>34.25</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -2943,13 +2991,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="7">
-        <v>-0.78</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -2960,10 +3008,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="7">
-        <v>5.55</v>
+        <v>5.66</v>
       </c>
       <c r="D18" s="7">
-        <v>34.25</v>
+        <v>27.37</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
@@ -2972,13 +3020,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H18" s="7">
         <v>0.1</v>
       </c>
       <c r="I18" s="7">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -2989,10 +3037,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="7">
-        <v>5.66</v>
+        <v>6.17</v>
       </c>
       <c r="D19" s="7">
-        <v>27.37</v>
+        <v>23.8</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -3001,13 +3049,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>0.8</v>
+        <v>0.13</v>
       </c>
       <c r="H19" s="7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.7</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
@@ -3018,10 +3066,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>6.17</v>
+        <v>6.65</v>
       </c>
       <c r="D20" s="7">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
@@ -3030,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H20" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I20" s="7">
         <v>-0.02</v>
@@ -3047,10 +3095,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="7">
-        <v>6.65</v>
+        <v>7.18</v>
       </c>
       <c r="D21" s="7">
-        <v>24.8</v>
+        <v>26.7</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -3076,10 +3124,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>7.18</v>
+        <v>21.94</v>
       </c>
       <c r="D22" s="7">
-        <v>26.7</v>
+        <v>9</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -3088,13 +3136,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="H22" s="7">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="I22" s="7">
-        <v>-0.02</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
@@ -3105,25 +3153,25 @@
         <v>52</v>
       </c>
       <c r="C23" s="7">
-        <v>21.94</v>
+        <v>30.37</v>
       </c>
       <c r="D23" s="7">
-        <v>9</v>
+        <v>116.8</v>
       </c>
       <c r="E23" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="7">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
       <c r="H23" s="7">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="I23" s="7">
-        <v>0.32</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
@@ -3134,10 +3182,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="7">
-        <v>30.37</v>
+        <v>19.9</v>
       </c>
       <c r="D24" s="7">
-        <v>116.8</v>
+        <v>69.682</v>
       </c>
       <c r="E24" s="7">
         <v>10</v>
@@ -3146,13 +3194,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="I24" s="7">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
@@ -3163,10 +3211,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="7">
-        <v>19.9</v>
+        <v>15.77</v>
       </c>
       <c r="D25" s="7">
-        <v>69.682</v>
+        <v>27.16</v>
       </c>
       <c r="E25" s="7">
         <v>10</v>
@@ -3175,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="7">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I25" s="7">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
@@ -3192,25 +3240,25 @@
         <v>58</v>
       </c>
       <c r="C26" s="7">
-        <v>15.77</v>
+        <v>11.26</v>
       </c>
       <c r="D26" s="7">
-        <v>27.16</v>
+        <v>50.5</v>
       </c>
       <c r="E26" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="H26" s="7">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I26" s="7">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
@@ -3221,25 +3269,25 @@
         <v>60</v>
       </c>
       <c r="C27" s="7">
-        <v>11.26</v>
+        <v>3.76</v>
       </c>
       <c r="D27" s="7">
-        <v>50.5</v>
+        <v>19.7</v>
       </c>
       <c r="E27" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="H27" s="7">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" s="7">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -3250,25 +3298,25 @@
         <v>62</v>
       </c>
       <c r="C28" s="7">
-        <v>3.76</v>
+        <v>25.79</v>
       </c>
       <c r="D28" s="7">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="E28" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H28" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I28" s="7">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3279,25 +3327,25 @@
         <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>25.79</v>
+        <v>3.77</v>
       </c>
       <c r="D29" s="7">
-        <v>18.9</v>
+        <v>12.5</v>
       </c>
       <c r="E29" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="H29" s="7">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" s="7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -3308,22 +3356,22 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>3.77</v>
+        <v>2.98</v>
       </c>
       <c r="D30" s="7">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="E30" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H30" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I30" s="7">
         <v>0.06</v>
@@ -3337,26 +3385,24 @@
         <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>2.98</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D31" s="7">
-        <v>13.7</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H31" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0.06</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="6">
@@ -3366,13 +3412,13 @@
         <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>0.5600000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="D32" s="7">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E32" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
@@ -3381,9 +3427,11 @@
         <v>0.01</v>
       </c>
       <c r="H32" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="I32" s="7">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="6">
@@ -3393,13 +3441,13 @@
         <v>72</v>
       </c>
       <c r="C33" s="7">
-        <v>3.48</v>
+        <v>4.16</v>
       </c>
       <c r="D33" s="7">
-        <v>1.2</v>
+        <v>0.33</v>
       </c>
       <c r="E33" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
@@ -3408,10 +3456,10 @@
         <v>0.01</v>
       </c>
       <c r="H33" s="7">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" s="7">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
@@ -3422,13 +3470,13 @@
         <v>74</v>
       </c>
       <c r="C34" s="7">
-        <v>4.16</v>
+        <v>0.39</v>
       </c>
       <c r="D34" s="7">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="E34" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
@@ -3437,10 +3485,10 @@
         <v>0.01</v>
       </c>
       <c r="H34" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I34" s="7">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
@@ -3451,13 +3499,13 @@
         <v>76</v>
       </c>
       <c r="C35" s="7">
-        <v>0.39</v>
+        <v>1.23</v>
       </c>
       <c r="D35" s="7">
-        <v>3</v>
+        <v>2.428</v>
       </c>
       <c r="E35" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
@@ -3466,10 +3514,10 @@
         <v>0.01</v>
       </c>
       <c r="H35" s="7">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
@@ -3480,26 +3528,24 @@
         <v>78</v>
       </c>
       <c r="C36" s="7">
-        <v>1.23</v>
+        <v>3.13</v>
       </c>
       <c r="D36" s="7">
-        <v>2.428</v>
+        <v>7.3</v>
       </c>
       <c r="E36" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H36" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I36" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="6">
@@ -3509,22 +3555,22 @@
         <v>80</v>
       </c>
       <c r="C37" s="7">
-        <v>3.13</v>
+        <v>0.35</v>
       </c>
       <c r="D37" s="7">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
       </c>
       <c r="G37" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H37" s="7">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I37" s="8"/>
     </row>
@@ -3536,24 +3582,26 @@
         <v>82</v>
       </c>
       <c r="C38" s="7">
-        <v>0.35</v>
+        <v>5.83</v>
       </c>
       <c r="D38" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="7">
         <v>0.01</v>
       </c>
-      <c r="H38" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I38" s="8"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="6">
@@ -3563,25 +3611,25 @@
         <v>84</v>
       </c>
       <c r="C39" s="7">
-        <v>5.83</v>
+        <v>7.43</v>
       </c>
       <c r="D39" s="7">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="E39" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H39" s="7">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I39" s="7">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
@@ -3592,25 +3640,25 @@
         <v>86</v>
       </c>
       <c r="C40" s="7">
-        <v>7.43</v>
+        <v>10.63</v>
       </c>
       <c r="D40" s="7">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="E40" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H40" s="7">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I40" s="7">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
@@ -3621,10 +3669,10 @@
         <v>88</v>
       </c>
       <c r="C41" s="7">
-        <v>10.63</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D41" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7">
         <v>25</v>
@@ -3633,13 +3681,13 @@
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="H41" s="7">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I41" s="7">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
@@ -3650,26 +3698,22 @@
         <v>90</v>
       </c>
       <c r="C42" s="7">
-        <v>8.880000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="D42" s="7">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="E42" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I42" s="7">
-        <v>-0.14</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="6">
@@ -3679,19 +3723,19 @@
         <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>2.71</v>
+        <v>144.21</v>
       </c>
       <c r="D43" s="7">
-        <v>13.7</v>
+        <v>90.3</v>
       </c>
       <c r="E43" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="7">
-        <v>0.28</v>
+        <v>3</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -3704,19 +3748,19 @@
         <v>94</v>
       </c>
       <c r="C44" s="7">
-        <v>144.21</v>
+        <v>12.15</v>
       </c>
       <c r="D44" s="7">
-        <v>90.3</v>
+        <v>77</v>
       </c>
       <c r="E44" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -3729,10 +3773,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="7">
-        <v>12.15</v>
+        <v>4.45</v>
       </c>
       <c r="D45" s="7">
-        <v>77</v>
+        <v>17.8</v>
       </c>
       <c r="E45" s="7">
         <v>8</v>
@@ -3741,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -3754,13 +3798,13 @@
         <v>98</v>
       </c>
       <c r="C46" s="7">
-        <v>4.45</v>
+        <v>3.12</v>
       </c>
       <c r="D46" s="7">
-        <v>17.8</v>
+        <v>11.7</v>
       </c>
       <c r="E46" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
@@ -3779,19 +3823,19 @@
         <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>3.12</v>
+        <v>4.28</v>
       </c>
       <c r="D47" s="7">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="E47" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -3804,10 +3848,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>4.28</v>
+        <v>3.26</v>
       </c>
       <c r="D48" s="7">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="E48" s="7">
         <v>12</v>
@@ -3829,13 +3873,13 @@
         <v>104</v>
       </c>
       <c r="C49" s="7">
-        <v>3.26</v>
+        <v>15.61</v>
       </c>
       <c r="D49" s="7">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="E49" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F49" s="7">
         <v>1</v>
@@ -3854,19 +3898,19 @@
         <v>106</v>
       </c>
       <c r="C50" s="7">
-        <v>15.61</v>
+        <v>9.58</v>
       </c>
       <c r="D50" s="7">
-        <v>14.3</v>
+        <v>40.2</v>
       </c>
       <c r="E50" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F50" s="7">
         <v>1</v>
       </c>
       <c r="G50" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -3879,19 +3923,19 @@
         <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>9.58</v>
+        <v>12.55</v>
       </c>
       <c r="D51" s="7">
-        <v>40.2</v>
+        <v>55</v>
       </c>
       <c r="E51" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -3904,10 +3948,10 @@
         <v>110</v>
       </c>
       <c r="C52" s="7">
-        <v>12.55</v>
+        <v>19.1</v>
       </c>
       <c r="D52" s="7">
-        <v>55</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E52" s="7">
         <v>4</v>
@@ -3929,19 +3973,19 @@
         <v>112</v>
       </c>
       <c r="C53" s="7">
-        <v>19.1</v>
+        <v>24.33</v>
       </c>
       <c r="D53" s="7">
-        <v>90.90000000000001</v>
+        <v>211.504</v>
       </c>
       <c r="E53" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -3954,19 +3998,19 @@
         <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>24.33</v>
+        <v>25.6</v>
       </c>
       <c r="D54" s="7">
-        <v>211.504</v>
+        <v>24.5</v>
       </c>
       <c r="E54" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -3979,10 +4023,10 @@
         <v>116</v>
       </c>
       <c r="C55" s="7">
-        <v>25.6</v>
+        <v>156.12</v>
       </c>
       <c r="D55" s="7">
-        <v>24.5</v>
+        <v>242.709</v>
       </c>
       <c r="E55" s="7">
         <v>12</v>
@@ -3991,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -4004,10 +4048,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="7">
-        <v>156.12</v>
+        <v>30.88</v>
       </c>
       <c r="D56" s="7">
-        <v>242.709</v>
+        <v>110.075</v>
       </c>
       <c r="E56" s="7">
         <v>12</v>
@@ -4016,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -4029,10 +4073,10 @@
         <v>120</v>
       </c>
       <c r="C57" s="7">
-        <v>30.88</v>
+        <v>10</v>
       </c>
       <c r="D57" s="7">
-        <v>110.075</v>
+        <v>14.012</v>
       </c>
       <c r="E57" s="7">
         <v>12</v>
@@ -4041,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -4054,19 +4098,19 @@
         <v>122</v>
       </c>
       <c r="C58" s="7">
+        <v>88.03</v>
+      </c>
+      <c r="D58" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="E58" s="7">
         <v>10</v>
       </c>
-      <c r="D58" s="7">
-        <v>14.012</v>
-      </c>
-      <c r="E58" s="7">
-        <v>12</v>
-      </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -4079,10 +4123,10 @@
         <v>124</v>
       </c>
       <c r="C59" s="7">
-        <v>88.03</v>
+        <v>25.66</v>
       </c>
       <c r="D59" s="7">
-        <v>30.4</v>
+        <v>135.2</v>
       </c>
       <c r="E59" s="7">
         <v>10</v>
@@ -4091,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -4104,10 +4148,10 @@
         <v>126</v>
       </c>
       <c r="C60" s="7">
-        <v>25.66</v>
+        <v>20.96</v>
       </c>
       <c r="D60" s="7">
-        <v>135.2</v>
+        <v>118.6</v>
       </c>
       <c r="E60" s="7">
         <v>10</v>
@@ -4129,10 +4173,10 @@
         <v>128</v>
       </c>
       <c r="C61" s="7">
-        <v>20.96</v>
+        <v>24.99</v>
       </c>
       <c r="D61" s="7">
-        <v>118.6</v>
+        <v>135.112</v>
       </c>
       <c r="E61" s="7">
         <v>10</v>
@@ -4154,10 +4198,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="7">
-        <v>24.99</v>
+        <v>25.58</v>
       </c>
       <c r="D62" s="7">
-        <v>135.112</v>
+        <v>135.1</v>
       </c>
       <c r="E62" s="7">
         <v>10</v>
@@ -4179,10 +4223,10 @@
         <v>132</v>
       </c>
       <c r="C63" s="7">
-        <v>25.58</v>
+        <v>60.31</v>
       </c>
       <c r="D63" s="7">
-        <v>135.1</v>
+        <v>313.297</v>
       </c>
       <c r="E63" s="7">
         <v>10</v>
@@ -4191,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -4204,10 +4248,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="7">
-        <v>60.31</v>
+        <v>25.52</v>
       </c>
       <c r="D64" s="7">
-        <v>313.297</v>
+        <v>137</v>
       </c>
       <c r="E64" s="7">
         <v>10</v>
@@ -4229,10 +4273,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="7">
-        <v>25.52</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D65" s="7">
-        <v>137</v>
+        <v>474.621</v>
       </c>
       <c r="E65" s="7">
         <v>10</v>
@@ -4241,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -4254,10 +4298,10 @@
         <v>138</v>
       </c>
       <c r="C66" s="7">
-        <v>82.26000000000001</v>
+        <v>14.13</v>
       </c>
       <c r="D66" s="7">
-        <v>474.621</v>
+        <v>34</v>
       </c>
       <c r="E66" s="7">
         <v>10</v>
@@ -4266,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="7">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -4279,10 +4323,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>14.13</v>
+        <v>9.57</v>
       </c>
       <c r="D67" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E67" s="7">
         <v>10</v>
@@ -4304,10 +4348,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>9.57</v>
+        <v>60.44</v>
       </c>
       <c r="D68" s="7">
-        <v>25</v>
+        <v>81.459</v>
       </c>
       <c r="E68" s="7">
         <v>10</v>
@@ -4329,10 +4373,10 @@
         <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>60.44</v>
+        <v>49.26</v>
       </c>
       <c r="D69" s="7">
-        <v>81.459</v>
+        <v>183.288</v>
       </c>
       <c r="E69" s="7">
         <v>10</v>
@@ -4341,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -4354,19 +4398,19 @@
         <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>49.26</v>
+        <v>0.29</v>
       </c>
       <c r="D70" s="7">
-        <v>183.288</v>
+        <v>1.5</v>
       </c>
       <c r="E70" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -4379,13 +4423,13 @@
         <v>148</v>
       </c>
       <c r="C71" s="7">
-        <v>0.29</v>
+        <v>37.15</v>
       </c>
       <c r="D71" s="7">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="E71" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
@@ -4404,13 +4448,13 @@
         <v>150</v>
       </c>
       <c r="C72" s="7">
-        <v>37.15</v>
+        <v>12.76</v>
       </c>
       <c r="D72" s="7">
-        <v>7.5</v>
+        <v>24.919</v>
       </c>
       <c r="E72" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
@@ -4429,10 +4473,10 @@
         <v>152</v>
       </c>
       <c r="C73" s="7">
-        <v>12.76</v>
+        <v>20.38</v>
       </c>
       <c r="D73" s="7">
-        <v>24.919</v>
+        <v>74.434</v>
       </c>
       <c r="E73" s="7">
         <v>12</v>
@@ -4441,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -4454,10 +4498,10 @@
         <v>154</v>
       </c>
       <c r="C74" s="7">
-        <v>20.38</v>
+        <v>10.35</v>
       </c>
       <c r="D74" s="7">
-        <v>74.434</v>
+        <v>35.091</v>
       </c>
       <c r="E74" s="7">
         <v>12</v>
@@ -4479,10 +4523,10 @@
         <v>156</v>
       </c>
       <c r="C75" s="7">
-        <v>10.35</v>
+        <v>17.77</v>
       </c>
       <c r="D75" s="7">
-        <v>35.091</v>
+        <v>65.682</v>
       </c>
       <c r="E75" s="7">
         <v>12</v>
@@ -4504,10 +4548,10 @@
         <v>158</v>
       </c>
       <c r="C76" s="7">
-        <v>17.77</v>
+        <v>18.06</v>
       </c>
       <c r="D76" s="7">
-        <v>65.682</v>
+        <v>56.867</v>
       </c>
       <c r="E76" s="7">
         <v>12</v>
@@ -4516,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4529,10 +4573,10 @@
         <v>160</v>
       </c>
       <c r="C77" s="7">
-        <v>18.06</v>
+        <v>10.45</v>
       </c>
       <c r="D77" s="7">
-        <v>56.867</v>
+        <v>35.097</v>
       </c>
       <c r="E77" s="7">
         <v>12</v>
@@ -4541,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -4554,10 +4598,10 @@
         <v>162</v>
       </c>
       <c r="C78" s="7">
-        <v>10.45</v>
+        <v>20.83</v>
       </c>
       <c r="D78" s="7">
-        <v>35.097</v>
+        <v>68.786</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -4566,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -4579,10 +4623,10 @@
         <v>164</v>
       </c>
       <c r="C79" s="7">
-        <v>20.83</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D79" s="7">
-        <v>68.786</v>
+        <v>33</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4591,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -4604,10 +4648,10 @@
         <v>166</v>
       </c>
       <c r="C80" s="7">
-        <v>9.119999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="D80" s="7">
-        <v>33</v>
+        <v>33.19</v>
       </c>
       <c r="E80" s="7">
         <v>12</v>
@@ -4629,7 +4673,7 @@
         <v>168</v>
       </c>
       <c r="C81" s="7">
-        <v>9.24</v>
+        <v>9.18</v>
       </c>
       <c r="D81" s="7">
         <v>33.19</v>
@@ -4654,10 +4698,10 @@
         <v>170</v>
       </c>
       <c r="C82" s="7">
-        <v>9.18</v>
+        <v>17.9</v>
       </c>
       <c r="D82" s="7">
-        <v>33.19</v>
+        <v>60.542</v>
       </c>
       <c r="E82" s="7">
         <v>12</v>
@@ -4666,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -4679,10 +4723,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="7">
-        <v>17.9</v>
+        <v>39.59</v>
       </c>
       <c r="D83" s="7">
-        <v>60.542</v>
+        <v>135.375</v>
       </c>
       <c r="E83" s="7">
         <v>12</v>
@@ -4704,10 +4748,10 @@
         <v>174</v>
       </c>
       <c r="C84" s="7">
-        <v>39.59</v>
+        <v>21.3</v>
       </c>
       <c r="D84" s="7">
-        <v>135.375</v>
+        <v>73.223</v>
       </c>
       <c r="E84" s="7">
         <v>12</v>
@@ -4716,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -4729,10 +4773,10 @@
         <v>176</v>
       </c>
       <c r="C85" s="7">
-        <v>21.3</v>
+        <v>8.65</v>
       </c>
       <c r="D85" s="7">
-        <v>73.223</v>
+        <v>28.483</v>
       </c>
       <c r="E85" s="7">
         <v>12</v>
@@ -4741,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4754,10 +4798,10 @@
         <v>178</v>
       </c>
       <c r="C86" s="7">
-        <v>8.65</v>
+        <v>10.25</v>
       </c>
       <c r="D86" s="7">
-        <v>28.483</v>
+        <v>36.532</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -4779,10 +4823,10 @@
         <v>180</v>
       </c>
       <c r="C87" s="7">
-        <v>10.25</v>
+        <v>12.29</v>
       </c>
       <c r="D87" s="7">
-        <v>36.532</v>
+        <v>38.502</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -4791,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -4804,10 +4848,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="7">
-        <v>12.29</v>
+        <v>13.27</v>
       </c>
       <c r="D88" s="7">
-        <v>38.502</v>
+        <v>46</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -4816,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -4829,10 +4873,10 @@
         <v>184</v>
       </c>
       <c r="C89" s="7">
-        <v>13.27</v>
+        <v>3.32</v>
       </c>
       <c r="D89" s="7">
-        <v>46</v>
+        <v>11.6</v>
       </c>
       <c r="E89" s="7">
         <v>12</v>
@@ -4841,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -4854,10 +4898,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="7">
-        <v>3.32</v>
+        <v>9.5</v>
       </c>
       <c r="D90" s="7">
-        <v>11.6</v>
+        <v>33.457</v>
       </c>
       <c r="E90" s="7">
         <v>12</v>
@@ -4866,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -4879,10 +4923,10 @@
         <v>188</v>
       </c>
       <c r="C91" s="7">
-        <v>9.5</v>
+        <v>5.32</v>
       </c>
       <c r="D91" s="7">
-        <v>33.457</v>
+        <v>19.7</v>
       </c>
       <c r="E91" s="7">
         <v>12</v>
@@ -4891,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -4904,10 +4948,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="7">
-        <v>5.32</v>
+        <v>10.58</v>
       </c>
       <c r="D92" s="7">
-        <v>19.7</v>
+        <v>37.2</v>
       </c>
       <c r="E92" s="7">
         <v>12</v>
@@ -4916,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -4929,10 +4973,10 @@
         <v>192</v>
       </c>
       <c r="C93" s="7">
-        <v>10.58</v>
+        <v>12.29</v>
       </c>
       <c r="D93" s="7">
-        <v>37.2</v>
+        <v>56.8</v>
       </c>
       <c r="E93" s="7">
         <v>12</v>
@@ -4941,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -4954,10 +4998,10 @@
         <v>194</v>
       </c>
       <c r="C94" s="7">
-        <v>12.29</v>
+        <v>30.09</v>
       </c>
       <c r="D94" s="7">
-        <v>56.8</v>
+        <v>84.102</v>
       </c>
       <c r="E94" s="7">
         <v>12</v>
@@ -4966,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -4979,10 +5023,10 @@
         <v>196</v>
       </c>
       <c r="C95" s="7">
-        <v>30.09</v>
+        <v>42.54</v>
       </c>
       <c r="D95" s="7">
-        <v>84.102</v>
+        <v>122</v>
       </c>
       <c r="E95" s="7">
         <v>12</v>
@@ -5004,7 +5048,7 @@
         <v>198</v>
       </c>
       <c r="C96" s="7">
-        <v>42.54</v>
+        <v>42.62</v>
       </c>
       <c r="D96" s="7">
         <v>122</v>
@@ -5016,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -5029,10 +5073,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="7">
-        <v>42.62</v>
+        <v>32.67</v>
       </c>
       <c r="D97" s="7">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -5041,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -5054,10 +5098,10 @@
         <v>202</v>
       </c>
       <c r="C98" s="7">
-        <v>32.67</v>
+        <v>69.61</v>
       </c>
       <c r="D98" s="7">
-        <v>107</v>
+        <v>248.201</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -5066,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -5079,7 +5123,7 @@
         <v>204</v>
       </c>
       <c r="C99" s="7">
-        <v>69.61</v>
+        <v>84.97</v>
       </c>
       <c r="D99" s="7">
         <v>248.201</v>
@@ -5104,7 +5148,7 @@
         <v>206</v>
       </c>
       <c r="C100" s="7">
-        <v>84.97</v>
+        <v>120.91</v>
       </c>
       <c r="D100" s="7">
         <v>248.201</v>
@@ -5129,10 +5173,10 @@
         <v>208</v>
       </c>
       <c r="C101" s="7">
-        <v>120.91</v>
+        <v>130.17</v>
       </c>
       <c r="D101" s="7">
-        <v>248.201</v>
+        <v>207</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -5154,10 +5198,10 @@
         <v>210</v>
       </c>
       <c r="C102" s="7">
-        <v>130.17</v>
+        <v>11.85</v>
       </c>
       <c r="D102" s="7">
-        <v>207</v>
+        <v>34.5</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -5166,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>3</v>
+        <v>0.53</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -5179,10 +5223,10 @@
         <v>212</v>
       </c>
       <c r="C103" s="7">
-        <v>11.85</v>
+        <v>17.89</v>
       </c>
       <c r="D103" s="7">
-        <v>34.5</v>
+        <v>48.7</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -5191,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -5204,10 +5248,10 @@
         <v>214</v>
       </c>
       <c r="C104" s="7">
-        <v>17.89</v>
+        <v>21.89</v>
       </c>
       <c r="D104" s="7">
-        <v>48.7</v>
+        <v>24</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -5216,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -5229,19 +5273,19 @@
         <v>216</v>
       </c>
       <c r="C105" s="7">
-        <v>21.89</v>
+        <v>0.49</v>
       </c>
       <c r="D105" s="7">
-        <v>24</v>
+        <v>2.234</v>
       </c>
       <c r="E105" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F105" s="7">
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -5254,19 +5298,19 @@
         <v>218</v>
       </c>
       <c r="C106" s="7">
-        <v>0.49</v>
+        <v>68.42</v>
       </c>
       <c r="D106" s="7">
-        <v>2.234</v>
+        <v>216.554</v>
       </c>
       <c r="E106" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F106" s="7">
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -5279,10 +5323,10 @@
         <v>220</v>
       </c>
       <c r="C107" s="7">
-        <v>68.42</v>
+        <v>216.38</v>
       </c>
       <c r="D107" s="7">
-        <v>216.554</v>
+        <v>450.756</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -5291,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5304,10 +5348,10 @@
         <v>222</v>
       </c>
       <c r="C108" s="7">
-        <v>216.38</v>
+        <v>22.31</v>
       </c>
       <c r="D108" s="7">
-        <v>450.756</v>
+        <v>45</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5329,13 +5373,13 @@
         <v>224</v>
       </c>
       <c r="C109" s="7">
-        <v>22.31</v>
+        <v>1.38</v>
       </c>
       <c r="D109" s="7">
-        <v>45</v>
+        <v>5.475</v>
       </c>
       <c r="E109" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F109" s="7">
         <v>1</v>
@@ -5354,13 +5398,13 @@
         <v>226</v>
       </c>
       <c r="C110" s="7">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="D110" s="7">
-        <v>5.475</v>
+        <v>5.493</v>
       </c>
       <c r="E110" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" s="7">
         <v>1</v>
@@ -5379,13 +5423,13 @@
         <v>228</v>
       </c>
       <c r="C111" s="7">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="D111" s="7">
-        <v>5.493</v>
+        <v>5.6</v>
       </c>
       <c r="E111" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
@@ -5404,13 +5448,13 @@
         <v>230</v>
       </c>
       <c r="C112" s="7">
-        <v>1.42</v>
+        <v>0.49</v>
       </c>
       <c r="D112" s="7">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="E112" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
@@ -5429,13 +5473,13 @@
         <v>232</v>
       </c>
       <c r="C113" s="7">
-        <v>0.49</v>
+        <v>6.32</v>
       </c>
       <c r="D113" s="7">
-        <v>1.7</v>
+        <v>32.054</v>
       </c>
       <c r="E113" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
@@ -5454,13 +5498,13 @@
         <v>234</v>
       </c>
       <c r="C114" s="7">
-        <v>6.32</v>
+        <v>26.16</v>
       </c>
       <c r="D114" s="7">
-        <v>32.054</v>
+        <v>26.938</v>
       </c>
       <c r="E114" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
@@ -5479,10 +5523,10 @@
         <v>236</v>
       </c>
       <c r="C115" s="7">
-        <v>26.16</v>
+        <v>5.38</v>
       </c>
       <c r="D115" s="7">
-        <v>26.938</v>
+        <v>13</v>
       </c>
       <c r="E115" s="7">
         <v>16</v>
@@ -5504,19 +5548,19 @@
         <v>238</v>
       </c>
       <c r="C116" s="7">
-        <v>5.38</v>
+        <v>42.82</v>
       </c>
       <c r="D116" s="7">
-        <v>13</v>
+        <v>152.431</v>
       </c>
       <c r="E116" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F116" s="7">
         <v>1</v>
       </c>
       <c r="G116" s="7">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -5529,7 +5573,7 @@
         <v>240</v>
       </c>
       <c r="C117" s="7">
-        <v>42.82</v>
+        <v>43.29</v>
       </c>
       <c r="D117" s="7">
         <v>152.431</v>
@@ -5541,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -5554,10 +5598,10 @@
         <v>242</v>
       </c>
       <c r="C118" s="7">
-        <v>43.29</v>
+        <v>48.75</v>
       </c>
       <c r="D118" s="7">
-        <v>152.431</v>
+        <v>175.457</v>
       </c>
       <c r="E118" s="7">
         <v>6</v>
@@ -5566,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -5579,10 +5623,10 @@
         <v>244</v>
       </c>
       <c r="C119" s="7">
-        <v>48.75</v>
+        <v>49.12</v>
       </c>
       <c r="D119" s="7">
-        <v>175.457</v>
+        <v>201.645</v>
       </c>
       <c r="E119" s="7">
         <v>6</v>
@@ -5604,10 +5648,10 @@
         <v>246</v>
       </c>
       <c r="C120" s="7">
-        <v>49.12</v>
+        <v>25.04</v>
       </c>
       <c r="D120" s="7">
-        <v>201.645</v>
+        <v>143.961</v>
       </c>
       <c r="E120" s="7">
         <v>6</v>
@@ -5616,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -5629,7 +5673,7 @@
         <v>248</v>
       </c>
       <c r="C121" s="7">
-        <v>25.04</v>
+        <v>21.26</v>
       </c>
       <c r="D121" s="7">
         <v>143.961</v>
@@ -5641,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -5654,10 +5698,10 @@
         <v>250</v>
       </c>
       <c r="C122" s="7">
-        <v>21.26</v>
+        <v>39.51</v>
       </c>
       <c r="D122" s="7">
-        <v>143.961</v>
+        <v>219.134</v>
       </c>
       <c r="E122" s="7">
         <v>6</v>
@@ -5666,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -5679,10 +5723,10 @@
         <v>252</v>
       </c>
       <c r="C123" s="7">
-        <v>39.51</v>
+        <v>17.11</v>
       </c>
       <c r="D123" s="7">
-        <v>219.134</v>
+        <v>96.729</v>
       </c>
       <c r="E123" s="7">
         <v>6</v>
@@ -5691,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5704,10 +5748,10 @@
         <v>254</v>
       </c>
       <c r="C124" s="7">
-        <v>17.11</v>
+        <v>14.78</v>
       </c>
       <c r="D124" s="7">
-        <v>96.729</v>
+        <v>84.5</v>
       </c>
       <c r="E124" s="7">
         <v>6</v>
@@ -5716,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -5729,10 +5773,10 @@
         <v>256</v>
       </c>
       <c r="C125" s="7">
-        <v>14.78</v>
+        <v>20.9</v>
       </c>
       <c r="D125" s="7">
-        <v>84.5</v>
+        <v>122.054</v>
       </c>
       <c r="E125" s="7">
         <v>6</v>
@@ -5741,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -5754,10 +5798,10 @@
         <v>258</v>
       </c>
       <c r="C126" s="7">
-        <v>20.9</v>
+        <v>15.95</v>
       </c>
       <c r="D126" s="7">
-        <v>122.054</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E126" s="7">
         <v>6</v>
@@ -5779,10 +5823,10 @@
         <v>260</v>
       </c>
       <c r="C127" s="7">
-        <v>15.95</v>
+        <v>5.62</v>
       </c>
       <c r="D127" s="7">
-        <v>93.88800000000001</v>
+        <v>18.015</v>
       </c>
       <c r="E127" s="7">
         <v>6</v>
@@ -5791,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -5804,10 +5848,10 @@
         <v>262</v>
       </c>
       <c r="C128" s="7">
-        <v>5.62</v>
+        <v>2.65</v>
       </c>
       <c r="D128" s="7">
-        <v>18.015</v>
+        <v>15.648</v>
       </c>
       <c r="E128" s="7">
         <v>6</v>
@@ -5829,10 +5873,10 @@
         <v>264</v>
       </c>
       <c r="C129" s="7">
-        <v>2.65</v>
+        <v>22</v>
       </c>
       <c r="D129" s="7">
-        <v>15.648</v>
+        <v>138.225</v>
       </c>
       <c r="E129" s="7">
         <v>6</v>
@@ -5841,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -5854,10 +5898,10 @@
         <v>266</v>
       </c>
       <c r="C130" s="7">
-        <v>22</v>
+        <v>22.93</v>
       </c>
       <c r="D130" s="7">
-        <v>138.225</v>
+        <v>143.961</v>
       </c>
       <c r="E130" s="7">
         <v>6</v>
@@ -5866,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -5879,10 +5923,10 @@
         <v>268</v>
       </c>
       <c r="C131" s="7">
-        <v>22.93</v>
+        <v>6.75</v>
       </c>
       <c r="D131" s="7">
-        <v>143.961</v>
+        <v>38.128</v>
       </c>
       <c r="E131" s="7">
         <v>6</v>
@@ -5891,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -5904,10 +5948,10 @@
         <v>270</v>
       </c>
       <c r="C132" s="7">
-        <v>6.75</v>
+        <v>10.37</v>
       </c>
       <c r="D132" s="7">
-        <v>38.128</v>
+        <v>59.462</v>
       </c>
       <c r="E132" s="7">
         <v>6</v>
@@ -5929,10 +5973,10 @@
         <v>272</v>
       </c>
       <c r="C133" s="7">
-        <v>10.37</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D133" s="7">
-        <v>59.462</v>
+        <v>55.892</v>
       </c>
       <c r="E133" s="7">
         <v>6</v>
@@ -5954,10 +5998,10 @@
         <v>274</v>
       </c>
       <c r="C134" s="7">
-        <v>9.470000000000001</v>
+        <v>33.05</v>
       </c>
       <c r="D134" s="7">
-        <v>55.892</v>
+        <v>157.109</v>
       </c>
       <c r="E134" s="7">
         <v>6</v>
@@ -5966,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -5979,19 +6023,19 @@
         <v>276</v>
       </c>
       <c r="C135" s="7">
-        <v>33.05</v>
+        <v>20.82</v>
       </c>
       <c r="D135" s="7">
-        <v>157.109</v>
+        <v>45.773</v>
       </c>
       <c r="E135" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F135" s="7">
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -6004,10 +6048,10 @@
         <v>278</v>
       </c>
       <c r="C136" s="7">
-        <v>20.82</v>
+        <v>3.79</v>
       </c>
       <c r="D136" s="7">
-        <v>45.773</v>
+        <v>19.428</v>
       </c>
       <c r="E136" s="7">
         <v>10</v>
@@ -6016,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6029,19 +6073,19 @@
         <v>280</v>
       </c>
       <c r="C137" s="7">
-        <v>3.79</v>
+        <v>15.37</v>
       </c>
       <c r="D137" s="7">
-        <v>19.428</v>
+        <v>73.333</v>
       </c>
       <c r="E137" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F137" s="7">
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -6054,19 +6098,19 @@
         <v>282</v>
       </c>
       <c r="C138" s="7">
-        <v>15.37</v>
+        <v>0.34</v>
       </c>
       <c r="D138" s="7">
-        <v>73.333</v>
+        <v>0.3</v>
       </c>
       <c r="E138" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F138" s="7">
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -6079,19 +6123,19 @@
         <v>284</v>
       </c>
       <c r="C139" s="7">
-        <v>0.34</v>
+        <v>11.98</v>
       </c>
       <c r="D139" s="7">
-        <v>0.3</v>
+        <v>38.291</v>
       </c>
       <c r="E139" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F139" s="7">
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -6104,19 +6148,19 @@
         <v>286</v>
       </c>
       <c r="C140" s="7">
-        <v>11.98</v>
+        <v>119.41</v>
       </c>
       <c r="D140" s="7">
-        <v>38.291</v>
+        <v>354.86</v>
       </c>
       <c r="E140" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F140" s="7">
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -6129,10 +6173,10 @@
         <v>288</v>
       </c>
       <c r="C141" s="7">
-        <v>119.41</v>
+        <v>24.68</v>
       </c>
       <c r="D141" s="7">
-        <v>354.86</v>
+        <v>64.59399999999999</v>
       </c>
       <c r="E141" s="7">
         <v>10</v>
@@ -6141,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -6154,10 +6198,10 @@
         <v>290</v>
       </c>
       <c r="C142" s="7">
-        <v>24.68</v>
+        <v>3.58</v>
       </c>
       <c r="D142" s="7">
-        <v>64.59399999999999</v>
+        <v>6.6</v>
       </c>
       <c r="E142" s="7">
         <v>10</v>
@@ -6166,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -6179,19 +6223,19 @@
         <v>292</v>
       </c>
       <c r="C143" s="7">
-        <v>3.58</v>
+        <v>11.77</v>
       </c>
       <c r="D143" s="7">
-        <v>6.6</v>
+        <v>42.588</v>
       </c>
       <c r="E143" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -6204,10 +6248,10 @@
         <v>294</v>
       </c>
       <c r="C144" s="7">
-        <v>11.77</v>
+        <v>16.49</v>
       </c>
       <c r="D144" s="7">
-        <v>42.588</v>
+        <v>60.73</v>
       </c>
       <c r="E144" s="7">
         <v>12</v>
@@ -6229,10 +6273,10 @@
         <v>296</v>
       </c>
       <c r="C145" s="7">
-        <v>16.49</v>
+        <v>5.41</v>
       </c>
       <c r="D145" s="7">
-        <v>60.73</v>
+        <v>19.648</v>
       </c>
       <c r="E145" s="7">
         <v>12</v>
@@ -6241,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -6254,13 +6298,13 @@
         <v>298</v>
       </c>
       <c r="C146" s="7">
-        <v>5.41</v>
+        <v>17.33</v>
       </c>
       <c r="D146" s="7">
-        <v>19.648</v>
+        <v>23.7</v>
       </c>
       <c r="E146" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
@@ -6279,13 +6323,13 @@
         <v>300</v>
       </c>
       <c r="C147" s="7">
-        <v>17.33</v>
+        <v>28.98</v>
       </c>
       <c r="D147" s="7">
-        <v>23.7</v>
+        <v>102</v>
       </c>
       <c r="E147" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F147" s="7">
         <v>1</v>
@@ -6304,13 +6348,13 @@
         <v>302</v>
       </c>
       <c r="C148" s="7">
-        <v>28.98</v>
+        <v>24.87</v>
       </c>
       <c r="D148" s="7">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E148" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
@@ -6329,13 +6373,13 @@
         <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>24.87</v>
+        <v>3.7</v>
       </c>
       <c r="D149" s="7">
+        <v>19.078</v>
+      </c>
+      <c r="E149" s="7">
         <v>10</v>
-      </c>
-      <c r="E149" s="7">
-        <v>6</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
@@ -6354,10 +6398,10 @@
         <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="D150" s="7">
-        <v>19.078</v>
+        <v>12.8</v>
       </c>
       <c r="E150" s="7">
         <v>10</v>
@@ -6379,10 +6423,10 @@
         <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>2.45</v>
+        <v>4.43</v>
       </c>
       <c r="D151" s="7">
-        <v>12.8</v>
+        <v>22.741</v>
       </c>
       <c r="E151" s="7">
         <v>10</v>
@@ -6404,10 +6448,10 @@
         <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>4.43</v>
+        <v>2.59</v>
       </c>
       <c r="D152" s="7">
-        <v>22.741</v>
+        <v>13</v>
       </c>
       <c r="E152" s="7">
         <v>10</v>
@@ -6429,10 +6473,10 @@
         <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>2.59</v>
+        <v>15.11</v>
       </c>
       <c r="D153" s="7">
-        <v>13</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E153" s="7">
         <v>10</v>
@@ -6454,10 +6498,10 @@
         <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>15.11</v>
+        <v>7.58</v>
       </c>
       <c r="D154" s="7">
-        <v>71.11799999999999</v>
+        <v>38.801</v>
       </c>
       <c r="E154" s="7">
         <v>10</v>
@@ -6479,10 +6523,10 @@
         <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>7.58</v>
+        <v>3.9</v>
       </c>
       <c r="D155" s="7">
-        <v>38.801</v>
+        <v>18</v>
       </c>
       <c r="E155" s="7">
         <v>10</v>
@@ -6504,10 +6548,10 @@
         <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>3.9</v>
+        <v>1.66</v>
       </c>
       <c r="D156" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E156" s="7">
         <v>10</v>
@@ -6529,10 +6573,10 @@
         <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>1.66</v>
+        <v>3.4</v>
       </c>
       <c r="D157" s="7">
-        <v>8</v>
+        <v>16.059</v>
       </c>
       <c r="E157" s="7">
         <v>10</v>
@@ -6554,10 +6598,10 @@
         <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>3.4</v>
+        <v>7.59</v>
       </c>
       <c r="D158" s="7">
-        <v>16.059</v>
+        <v>34.112</v>
       </c>
       <c r="E158" s="7">
         <v>10</v>
@@ -6579,10 +6623,10 @@
         <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>7.59</v>
+        <v>8.98</v>
       </c>
       <c r="D159" s="7">
-        <v>34.112</v>
+        <v>19.4</v>
       </c>
       <c r="E159" s="7">
         <v>10</v>
@@ -6604,10 +6648,10 @@
         <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>8.98</v>
+        <v>2.48</v>
       </c>
       <c r="D160" s="7">
-        <v>19.4</v>
+        <v>8</v>
       </c>
       <c r="E160" s="7">
         <v>10</v>
@@ -6629,10 +6673,10 @@
         <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>2.48</v>
+        <v>5.04</v>
       </c>
       <c r="D161" s="7">
-        <v>8</v>
+        <v>25.437</v>
       </c>
       <c r="E161" s="7">
         <v>10</v>
@@ -6654,10 +6698,10 @@
         <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>5.04</v>
+        <v>4.29</v>
       </c>
       <c r="D162" s="7">
-        <v>25.437</v>
+        <v>22.7</v>
       </c>
       <c r="E162" s="7">
         <v>10</v>
@@ -6679,10 +6723,10 @@
         <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>4.29</v>
+        <v>1.61</v>
       </c>
       <c r="D163" s="7">
-        <v>22.7</v>
+        <v>8</v>
       </c>
       <c r="E163" s="7">
         <v>10</v>
@@ -6704,10 +6748,10 @@
         <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>1.61</v>
+        <v>2.82</v>
       </c>
       <c r="D164" s="7">
-        <v>8</v>
+        <v>12.718</v>
       </c>
       <c r="E164" s="7">
         <v>10</v>
@@ -6729,7 +6773,7 @@
         <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>2.82</v>
+        <v>2.51</v>
       </c>
       <c r="D165" s="7">
         <v>12.718</v>
@@ -6754,7 +6798,7 @@
         <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>2.51</v>
+        <v>3.56</v>
       </c>
       <c r="D166" s="7">
         <v>12.718</v>
@@ -6779,10 +6823,10 @@
         <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>3.56</v>
+        <v>2.8</v>
       </c>
       <c r="D167" s="7">
-        <v>12.718</v>
+        <v>14.231</v>
       </c>
       <c r="E167" s="7">
         <v>10</v>
@@ -6804,10 +6848,10 @@
         <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>2.8</v>
+        <v>6.26</v>
       </c>
       <c r="D168" s="7">
-        <v>14.231</v>
+        <v>33.032</v>
       </c>
       <c r="E168" s="7">
         <v>10</v>
@@ -6829,10 +6873,10 @@
         <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>6.26</v>
+        <v>7.37</v>
       </c>
       <c r="D169" s="7">
-        <v>33.032</v>
+        <v>37.601</v>
       </c>
       <c r="E169" s="7">
         <v>10</v>
@@ -6854,10 +6898,10 @@
         <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>7.37</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D170" s="7">
-        <v>37.601</v>
+        <v>47.263</v>
       </c>
       <c r="E170" s="7">
         <v>10</v>
@@ -6879,10 +6923,10 @@
         <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>9.619999999999999</v>
+        <v>6.12</v>
       </c>
       <c r="D171" s="7">
-        <v>47.263</v>
+        <v>31.159</v>
       </c>
       <c r="E171" s="7">
         <v>10</v>
@@ -6904,10 +6948,10 @@
         <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>6.12</v>
+        <v>2.89</v>
       </c>
       <c r="D172" s="7">
-        <v>31.159</v>
+        <v>14.231</v>
       </c>
       <c r="E172" s="7">
         <v>10</v>
@@ -6929,10 +6973,10 @@
         <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>2.89</v>
+        <v>9.69</v>
       </c>
       <c r="D173" s="7">
-        <v>14.231</v>
+        <v>50.484</v>
       </c>
       <c r="E173" s="7">
         <v>10</v>
@@ -6979,10 +7023,10 @@
         <v>356</v>
       </c>
       <c r="C175" s="7">
-        <v>9.69</v>
+        <v>13.27</v>
       </c>
       <c r="D175" s="7">
-        <v>50.484</v>
+        <v>63.368</v>
       </c>
       <c r="E175" s="7">
         <v>10</v>
@@ -7004,13 +7048,13 @@
         <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>13.27</v>
+        <v>0.47</v>
       </c>
       <c r="D176" s="7">
-        <v>63.368</v>
+        <v>1.5</v>
       </c>
       <c r="E176" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F176" s="7">
         <v>1</v>
@@ -7029,13 +7073,13 @@
         <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D177" s="7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E177" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F177" s="7">
         <v>1</v>
@@ -7054,19 +7098,19 @@
         <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>0.5600000000000001</v>
+        <v>15.61</v>
       </c>
       <c r="D178" s="7">
-        <v>1.2</v>
+        <v>58.927</v>
       </c>
       <c r="E178" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F178" s="7">
         <v>1</v>
       </c>
       <c r="G178" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
@@ -7079,19 +7123,19 @@
         <v>364</v>
       </c>
       <c r="C179" s="7">
-        <v>15.61</v>
+        <v>5.82</v>
       </c>
       <c r="D179" s="7">
-        <v>58.927</v>
+        <v>22.042</v>
       </c>
       <c r="E179" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F179" s="7">
         <v>1</v>
       </c>
       <c r="G179" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
@@ -7104,19 +7148,19 @@
         <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>5.82</v>
+        <v>24.28</v>
       </c>
       <c r="D180" s="7">
-        <v>22.042</v>
+        <v>14.652</v>
       </c>
       <c r="E180" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F180" s="7">
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -7129,19 +7173,19 @@
         <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>24.28</v>
+        <v>7.76</v>
       </c>
       <c r="D181" s="7">
-        <v>14.652</v>
+        <v>2.2</v>
       </c>
       <c r="E181" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F181" s="7">
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
@@ -7154,19 +7198,19 @@
         <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>7.76</v>
+        <v>16.45</v>
       </c>
       <c r="D182" s="7">
-        <v>2.2</v>
+        <v>49.362</v>
       </c>
       <c r="E182" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
       </c>
       <c r="G182" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
@@ -7179,19 +7223,19 @@
         <v>372</v>
       </c>
       <c r="C183" s="7">
-        <v>16.45</v>
+        <v>3.59</v>
       </c>
       <c r="D183" s="7">
-        <v>49.362</v>
+        <v>20</v>
       </c>
       <c r="E183" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F183" s="7">
         <v>1</v>
       </c>
       <c r="G183" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
@@ -7204,13 +7248,13 @@
         <v>374</v>
       </c>
       <c r="C184" s="7">
-        <v>3.59</v>
+        <v>21.78</v>
       </c>
       <c r="D184" s="7">
-        <v>20</v>
+        <v>12.128</v>
       </c>
       <c r="E184" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F184" s="7">
         <v>1</v>
@@ -7229,26 +7273,22 @@
         <v>376</v>
       </c>
       <c r="C185" s="7">
-        <v>167.31</v>
+        <v>23.37</v>
       </c>
       <c r="D185" s="7">
-        <v>485</v>
+        <v>24.4</v>
       </c>
       <c r="E185" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F185" s="7">
         <v>1</v>
       </c>
       <c r="G185" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H185" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I185" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
     </row>
     <row r="186" ht="13.55" customHeight="1">
       <c r="A186" t="s" s="6">
@@ -7258,26 +7298,22 @@
         <v>378</v>
       </c>
       <c r="C186" s="7">
-        <v>43.47</v>
+        <v>5.03</v>
       </c>
       <c r="D186" s="7">
-        <v>118.61</v>
+        <v>40</v>
       </c>
       <c r="E186" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F186" s="7">
         <v>1</v>
       </c>
       <c r="G186" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H186" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I186" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
     </row>
     <row r="187" ht="13.55" customHeight="1">
       <c r="A187" t="s" s="6">
@@ -7287,26 +7323,22 @@
         <v>380</v>
       </c>
       <c r="C187" s="7">
-        <v>99.67</v>
+        <v>1.49</v>
       </c>
       <c r="D187" s="7">
-        <v>118.61</v>
+        <v>7</v>
       </c>
       <c r="E187" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F187" s="7">
         <v>1</v>
       </c>
       <c r="G187" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H187" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I187" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
     </row>
     <row r="188" ht="13.55" customHeight="1">
       <c r="A188" t="s" s="6">
@@ -7316,26 +7348,22 @@
         <v>382</v>
       </c>
       <c r="C188" s="7">
-        <v>34.58</v>
+        <v>0.31</v>
       </c>
       <c r="D188" s="7">
-        <v>104.31</v>
+        <v>1.2</v>
       </c>
       <c r="E188" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F188" s="7">
         <v>1</v>
       </c>
       <c r="G188" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H188" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I188" s="7">
         <v>0.1</v>
       </c>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
     </row>
     <row r="189" ht="13.55" customHeight="1">
       <c r="A189" t="s" s="6">
@@ -7345,26 +7373,22 @@
         <v>384</v>
       </c>
       <c r="C189" s="7">
-        <v>45.49</v>
+        <v>7.19</v>
       </c>
       <c r="D189" s="7">
-        <v>110</v>
+        <v>9.5</v>
       </c>
       <c r="E189" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F189" s="7">
         <v>1</v>
       </c>
       <c r="G189" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H189" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I189" s="7">
-        <v>0.26</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
     </row>
     <row r="190" ht="13.55" customHeight="1">
       <c r="A190" t="s" s="6">
@@ -7374,10 +7398,10 @@
         <v>386</v>
       </c>
       <c r="C190" s="7">
-        <v>194.66</v>
+        <v>54.05</v>
       </c>
       <c r="D190" s="7">
-        <v>561.2</v>
+        <v>170</v>
       </c>
       <c r="E190" s="7">
         <v>12</v>
@@ -7386,14 +7410,10 @@
         <v>1</v>
       </c>
       <c r="G190" s="7">
-        <v>3</v>
-      </c>
-      <c r="H190" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I190" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
     </row>
     <row r="191" ht="13.55" customHeight="1">
       <c r="A191" t="s" s="6">
@@ -7403,10 +7423,10 @@
         <v>388</v>
       </c>
       <c r="C191" s="7">
-        <v>321.56</v>
+        <v>167.31</v>
       </c>
       <c r="D191" s="7">
-        <v>850.95</v>
+        <v>485</v>
       </c>
       <c r="E191" s="7">
         <v>12</v>
@@ -7415,13 +7435,13 @@
         <v>1</v>
       </c>
       <c r="G191" s="7">
-        <v>4.24</v>
+        <v>2.42</v>
       </c>
       <c r="H191" s="7">
-        <v>5.36</v>
+        <v>2.79</v>
       </c>
       <c r="I191" s="7">
-        <v>1.12</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="192" ht="13.55" customHeight="1">
@@ -7432,25 +7452,25 @@
         <v>390</v>
       </c>
       <c r="C192" s="7">
-        <v>28.94</v>
+        <v>43.47</v>
       </c>
       <c r="D192" s="7">
-        <v>24.88</v>
+        <v>118.61</v>
       </c>
       <c r="E192" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F192" s="7">
         <v>1</v>
       </c>
       <c r="G192" s="7">
-        <v>0.14</v>
+        <v>0.55</v>
       </c>
       <c r="H192" s="7">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="I192" s="7">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="193" ht="13.55" customHeight="1">
@@ -7461,25 +7481,25 @@
         <v>392</v>
       </c>
       <c r="C193" s="7">
-        <v>43.34</v>
+        <v>99.67</v>
       </c>
       <c r="D193" s="7">
-        <v>24.18</v>
+        <v>118.61</v>
       </c>
       <c r="E193" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F193" s="7">
         <v>1</v>
       </c>
       <c r="G193" s="7">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
       <c r="H193" s="7">
-        <v>0.73</v>
+        <v>1.67</v>
       </c>
       <c r="I193" s="7">
-        <v>0.58</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="194" ht="13.55" customHeight="1">
@@ -7490,25 +7510,25 @@
         <v>394</v>
       </c>
       <c r="C194" s="7">
-        <v>19.21</v>
+        <v>34.58</v>
       </c>
       <c r="D194" s="7">
-        <v>5</v>
+        <v>104.31</v>
       </c>
       <c r="E194" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F194" s="7">
         <v>1</v>
       </c>
       <c r="G194" s="7">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="H194" s="7">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="I194" s="7">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="195" ht="13.55" customHeight="1">
@@ -7519,25 +7539,25 @@
         <v>396</v>
       </c>
       <c r="C195" s="7">
-        <v>195.6</v>
+        <v>45.49</v>
       </c>
       <c r="D195" s="7">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E195" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F195" s="7">
         <v>1</v>
       </c>
       <c r="G195" s="7">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="H195" s="7">
-        <v>3.27</v>
+        <v>0.76</v>
       </c>
       <c r="I195" s="7">
-        <v>3.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="196" ht="13.55" customHeight="1">
@@ -7548,25 +7568,25 @@
         <v>398</v>
       </c>
       <c r="C196" s="7">
-        <v>31.58</v>
+        <v>194.66</v>
       </c>
       <c r="D196" s="7">
-        <v>145.52</v>
+        <v>561.2</v>
       </c>
       <c r="E196" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F196" s="7">
         <v>1</v>
       </c>
       <c r="G196" s="7">
-        <v>6.83</v>
+        <v>3</v>
       </c>
       <c r="H196" s="7">
-        <v>0.53</v>
+        <v>3.25</v>
       </c>
       <c r="I196" s="7">
-        <v>-6.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" ht="13.55" customHeight="1">
@@ -7577,25 +7597,25 @@
         <v>400</v>
       </c>
       <c r="C197" s="7">
-        <v>34.53</v>
+        <v>321.56</v>
       </c>
       <c r="D197" s="7">
-        <v>12.17</v>
+        <v>850.95</v>
       </c>
       <c r="E197" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F197" s="7">
         <v>1</v>
       </c>
       <c r="G197" s="7">
-        <v>0.86</v>
+        <v>4.24</v>
       </c>
       <c r="H197" s="7">
-        <v>0.58</v>
+        <v>5.36</v>
       </c>
       <c r="I197" s="7">
-        <v>-0.28</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="198" ht="13.55" customHeight="1">
@@ -7606,22 +7626,196 @@
         <v>402</v>
       </c>
       <c r="C198" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D198" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E198" s="7">
+        <v>20</v>
+      </c>
+      <c r="F198" s="7">
+        <v>1</v>
+      </c>
+      <c r="G198" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H198" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I198" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="199" ht="13.55" customHeight="1">
+      <c r="A199" t="s" s="6">
+        <v>403</v>
+      </c>
+      <c r="B199" t="s" s="6">
+        <v>404</v>
+      </c>
+      <c r="C199" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D199" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E199" s="7">
+        <v>25</v>
+      </c>
+      <c r="F199" s="7">
+        <v>1</v>
+      </c>
+      <c r="G199" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H199" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I199" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="200" ht="13.55" customHeight="1">
+      <c r="A200" t="s" s="6">
+        <v>405</v>
+      </c>
+      <c r="B200" t="s" s="6">
+        <v>406</v>
+      </c>
+      <c r="C200" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D200" s="7">
+        <v>5</v>
+      </c>
+      <c r="E200" s="7">
+        <v>32</v>
+      </c>
+      <c r="F200" s="7">
+        <v>1</v>
+      </c>
+      <c r="G200" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H200" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I200" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="201" ht="13.55" customHeight="1">
+      <c r="A201" t="s" s="6">
+        <v>407</v>
+      </c>
+      <c r="B201" t="s" s="6">
+        <v>408</v>
+      </c>
+      <c r="C201" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D201" s="7">
+        <v>17</v>
+      </c>
+      <c r="E201" s="7">
+        <v>32</v>
+      </c>
+      <c r="F201" s="7">
+        <v>1</v>
+      </c>
+      <c r="G201" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H201" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I201" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="202" ht="13.55" customHeight="1">
+      <c r="A202" t="s" s="6">
+        <v>409</v>
+      </c>
+      <c r="B202" t="s" s="6">
+        <v>410</v>
+      </c>
+      <c r="C202" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D202" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E202" s="7">
+        <v>10</v>
+      </c>
+      <c r="F202" s="7">
+        <v>1</v>
+      </c>
+      <c r="G202" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H202" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I202" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="203" ht="13.55" customHeight="1">
+      <c r="A203" t="s" s="6">
+        <v>411</v>
+      </c>
+      <c r="B203" t="s" s="6">
+        <v>412</v>
+      </c>
+      <c r="C203" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D203" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E203" s="7">
+        <v>25</v>
+      </c>
+      <c r="F203" s="7">
+        <v>1</v>
+      </c>
+      <c r="G203" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H203" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I203" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="204" ht="13.55" customHeight="1">
+      <c r="A204" t="s" s="6">
+        <v>413</v>
+      </c>
+      <c r="B204" t="s" s="6">
+        <v>414</v>
+      </c>
+      <c r="C204" s="7">
         <v>9.35</v>
       </c>
-      <c r="D198" s="7">
+      <c r="D204" s="7">
         <v>30</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E204" s="7">
         <v>12</v>
       </c>
-      <c r="F198" s="7">
-        <v>1</v>
-      </c>
-      <c r="G198" s="7">
+      <c r="F204" s="7">
+        <v>1</v>
+      </c>
+      <c r="G204" s="7">
         <v>0.6</v>
       </c>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
   <si>
     <t>timestamp</t>
   </si>
@@ -46,6 +46,18 @@
     <t>01254.slp</t>
   </si>
   <si>
+    <t>2024-08-20 13:16:52</t>
+  </si>
+  <si>
+    <t>02552.NC</t>
+  </si>
+  <si>
+    <t>2024-08-23 08:37:26</t>
+  </si>
+  <si>
+    <t>03214.slp</t>
+  </si>
+  <si>
     <t>2024-06-07 11:20:02</t>
   </si>
   <si>
@@ -1144,6 +1156,12 @@
     <t>L_03200.NC</t>
   </si>
   <si>
+    <t>2024-08-23 07:33:52</t>
+  </si>
+  <si>
+    <t>L_03211.NC</t>
+  </si>
+  <si>
     <t>2024-08-21 13:18:31</t>
   </si>
   <si>
@@ -1172,6 +1190,66 @@
   </si>
   <si>
     <t>L_03274.NC</t>
+  </si>
+  <si>
+    <t>2024-08-26 10:38:40</t>
+  </si>
+  <si>
+    <t>L_03276.NC</t>
+  </si>
+  <si>
+    <t>2024-08-27 10:47:32</t>
+  </si>
+  <si>
+    <t>L_03278.NC</t>
+  </si>
+  <si>
+    <t>2024-08-23 15:03:42</t>
+  </si>
+  <si>
+    <t>L_03305.NC</t>
+  </si>
+  <si>
+    <t>2024-08-23 08:25:57</t>
+  </si>
+  <si>
+    <t>L_03308.NC</t>
+  </si>
+  <si>
+    <t>2024-08-23 08:54:48</t>
+  </si>
+  <si>
+    <t>L_03309.NC</t>
+  </si>
+  <si>
+    <t>2024-08-26 08:20:02</t>
+  </si>
+  <si>
+    <t>L_03331.NC</t>
+  </si>
+  <si>
+    <t>2024-08-26 13:27:44</t>
+  </si>
+  <si>
+    <t>L_03369.NC</t>
+  </si>
+  <si>
+    <t>2024-08-26 14:30:34</t>
+  </si>
+  <si>
+    <t>L_03385.NC</t>
+  </si>
+  <si>
+    <t>2024-08-26 14:19:20</t>
+  </si>
+  <si>
+    <t>L_03406.NC</t>
+  </si>
+  <si>
+    <t>2024-08-27 10:33:55</t>
+  </si>
+  <si>
+    <t>L_03416.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -2499,14 +2577,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.9062" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.9531" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -2573,26 +2651,14 @@
         <v>12</v>
       </c>
       <c r="C3" s="7">
-        <v>146.86</v>
-      </c>
-      <c r="D3" s="7">
-        <v>420.79</v>
-      </c>
-      <c r="E3" s="7">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2.45</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.47</v>
-      </c>
+        <v>3.52</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="6">
@@ -2602,26 +2668,22 @@
         <v>14</v>
       </c>
       <c r="C4" s="7">
-        <v>235.62</v>
+        <v>2.12</v>
       </c>
       <c r="D4" s="7">
-        <v>866.7</v>
+        <v>12.2</v>
       </c>
       <c r="E4" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3.93</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.63</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="6">
@@ -2631,10 +2693,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>330.88</v>
+        <v>146.86</v>
       </c>
       <c r="D5" s="7">
-        <v>971.88</v>
+        <v>420.79</v>
       </c>
       <c r="E5" s="7">
         <v>12</v>
@@ -2643,13 +2705,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>3.57</v>
+        <v>1.98</v>
       </c>
       <c r="H5" s="7">
-        <v>5.52</v>
+        <v>2.45</v>
       </c>
       <c r="I5" s="7">
-        <v>1.95</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -2660,25 +2722,25 @@
         <v>18</v>
       </c>
       <c r="C6" s="7">
-        <v>14.42</v>
+        <v>235.62</v>
       </c>
       <c r="D6" s="7">
-        <v>67</v>
+        <v>866.7</v>
       </c>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>1.93</v>
+        <v>3.3</v>
       </c>
       <c r="H6" s="7">
-        <v>0.25</v>
+        <v>3.93</v>
       </c>
       <c r="I6" s="7">
-        <v>-1.68</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -2689,25 +2751,25 @@
         <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>3.32</v>
+        <v>330.88</v>
       </c>
       <c r="D7" s="7">
-        <v>6.7</v>
+        <v>971.88</v>
       </c>
       <c r="E7" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>0.02</v>
+        <v>3.57</v>
       </c>
       <c r="H7" s="7">
-        <v>0.06</v>
+        <v>5.52</v>
       </c>
       <c r="I7" s="7">
-        <v>0.04</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -2718,25 +2780,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>0.92</v>
+        <v>14.42</v>
       </c>
       <c r="D8" s="7">
-        <v>3.03</v>
+        <v>67</v>
       </c>
       <c r="E8" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>0.01</v>
+        <v>1.93</v>
       </c>
       <c r="H8" s="7">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="I8" s="7">
-        <v>0.01</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -2747,25 +2809,25 @@
         <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>1.18</v>
+        <v>3.32</v>
       </c>
       <c r="D9" s="7">
-        <v>5.59</v>
+        <v>6.7</v>
       </c>
       <c r="E9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H9" s="7">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I9" s="7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
@@ -2776,25 +2838,25 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>158.01</v>
+        <v>0.92</v>
       </c>
       <c r="D10" s="7">
-        <v>456.43</v>
+        <v>3.03</v>
       </c>
       <c r="E10" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>2.67</v>
+        <v>0.01</v>
       </c>
       <c r="H10" s="7">
-        <v>2.64</v>
+        <v>0.02</v>
       </c>
       <c r="I10" s="7">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
@@ -2805,25 +2867,25 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>209.33</v>
+        <v>1.18</v>
       </c>
       <c r="D11" s="7">
-        <v>937</v>
+        <v>5.59</v>
       </c>
       <c r="E11" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>5.17</v>
+        <v>0.01</v>
       </c>
       <c r="H11" s="7">
-        <v>3.49</v>
+        <v>0.02</v>
       </c>
       <c r="I11" s="7">
-        <v>-1.68</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
@@ -2834,10 +2896,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>161.87</v>
+        <v>158.01</v>
       </c>
       <c r="D12" s="7">
-        <v>451</v>
+        <v>456.43</v>
       </c>
       <c r="E12" s="7">
         <v>12</v>
@@ -2846,13 +2908,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="H12" s="7">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I12" s="7">
-        <v>-0.22</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
@@ -2863,25 +2925,25 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>206.06</v>
+        <v>209.33</v>
       </c>
       <c r="D13" s="7">
-        <v>193.49</v>
+        <v>937</v>
       </c>
       <c r="E13" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="7">
-        <v>5.8</v>
+        <v>5.17</v>
       </c>
       <c r="H13" s="7">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="I13" s="7">
-        <v>-2.36</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -2892,25 +2954,25 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>273.9</v>
+        <v>161.87</v>
       </c>
       <c r="D14" s="7">
-        <v>219.37</v>
+        <v>451</v>
       </c>
       <c r="E14" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>6.6</v>
+        <v>2.48</v>
       </c>
       <c r="H14" s="7">
-        <v>4.57</v>
+        <v>2.7</v>
       </c>
       <c r="I14" s="7">
-        <v>-2.03</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
@@ -2921,25 +2983,25 @@
         <v>36</v>
       </c>
       <c r="C15" s="7">
-        <v>17.87</v>
+        <v>206.06</v>
       </c>
       <c r="D15" s="7">
-        <v>78.2</v>
+        <v>193.49</v>
       </c>
       <c r="E15" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H15" s="7">
-        <v>0.3</v>
+        <v>3.44</v>
       </c>
       <c r="I15" s="7">
-        <v>-2</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
@@ -2950,25 +3012,25 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>4.87</v>
+        <v>273.9</v>
       </c>
       <c r="D16" s="7">
-        <v>30</v>
+        <v>219.37</v>
       </c>
       <c r="E16" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>0.87</v>
+        <v>6.6</v>
       </c>
       <c r="H16" s="7">
-        <v>0.09</v>
+        <v>4.57</v>
       </c>
       <c r="I16" s="7">
-        <v>-0.78</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -2979,10 +3041,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>5.55</v>
+        <v>17.87</v>
       </c>
       <c r="D17" s="7">
-        <v>34.25</v>
+        <v>78.2</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -2991,13 +3053,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H17" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I17" s="7">
-        <v>-0.9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -3008,10 +3070,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="7">
-        <v>5.66</v>
+        <v>4.87</v>
       </c>
       <c r="D18" s="7">
-        <v>27.37</v>
+        <v>30</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
@@ -3020,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="H18" s="7">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I18" s="7">
-        <v>-0.7</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -3037,10 +3099,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="7">
-        <v>6.17</v>
+        <v>5.55</v>
       </c>
       <c r="D19" s="7">
-        <v>23.8</v>
+        <v>34.25</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -3049,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.02</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
@@ -3066,10 +3128,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>6.65</v>
+        <v>5.66</v>
       </c>
       <c r="D20" s="7">
-        <v>24.8</v>
+        <v>27.37</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
@@ -3078,13 +3140,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>0.14</v>
+        <v>0.8</v>
       </c>
       <c r="H20" s="7">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I20" s="7">
-        <v>-0.02</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
@@ -3095,10 +3157,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="7">
-        <v>7.18</v>
+        <v>6.17</v>
       </c>
       <c r="D21" s="7">
-        <v>26.7</v>
+        <v>23.8</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -3107,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="7">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H21" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I21" s="7">
         <v>-0.02</v>
@@ -3124,10 +3186,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>21.94</v>
+        <v>6.65</v>
       </c>
       <c r="D22" s="7">
-        <v>9</v>
+        <v>24.8</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -3136,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="H22" s="7">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="I22" s="7">
-        <v>0.32</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
@@ -3153,25 +3215,25 @@
         <v>52</v>
       </c>
       <c r="C23" s="7">
-        <v>30.37</v>
+        <v>7.18</v>
       </c>
       <c r="D23" s="7">
-        <v>116.8</v>
+        <v>26.7</v>
       </c>
       <c r="E23" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="7">
-        <v>1.5</v>
+        <v>0.14</v>
       </c>
       <c r="H23" s="7">
-        <v>0.51</v>
+        <v>0.12</v>
       </c>
       <c r="I23" s="7">
-        <v>0.99</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
@@ -3182,25 +3244,25 @@
         <v>54</v>
       </c>
       <c r="C24" s="7">
-        <v>19.9</v>
+        <v>21.94</v>
       </c>
       <c r="D24" s="7">
-        <v>69.682</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H24" s="7">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I24" s="7">
-        <v>0.67</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
@@ -3211,10 +3273,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="7">
-        <v>15.77</v>
+        <v>30.37</v>
       </c>
       <c r="D25" s="7">
-        <v>27.16</v>
+        <v>116.8</v>
       </c>
       <c r="E25" s="7">
         <v>10</v>
@@ -3223,13 +3285,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H25" s="7">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="I25" s="7">
-        <v>0.24</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
@@ -3240,25 +3302,25 @@
         <v>58</v>
       </c>
       <c r="C26" s="7">
-        <v>11.26</v>
+        <v>19.9</v>
       </c>
       <c r="D26" s="7">
-        <v>50.5</v>
+        <v>69.682</v>
       </c>
       <c r="E26" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="I26" s="7">
-        <v>0.27</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
@@ -3269,25 +3331,25 @@
         <v>60</v>
       </c>
       <c r="C27" s="7">
-        <v>3.76</v>
+        <v>15.77</v>
       </c>
       <c r="D27" s="7">
-        <v>19.7</v>
+        <v>27.16</v>
       </c>
       <c r="E27" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="I27" s="7">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -3298,25 +3360,25 @@
         <v>62</v>
       </c>
       <c r="C28" s="7">
-        <v>25.79</v>
+        <v>11.26</v>
       </c>
       <c r="D28" s="7">
-        <v>18.9</v>
+        <v>50.5</v>
       </c>
       <c r="E28" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="H28" s="7">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="I28" s="7">
-        <v>-0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3327,13 +3389,13 @@
         <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="D29" s="7">
-        <v>12.5</v>
+        <v>19.7</v>
       </c>
       <c r="E29" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
@@ -3356,25 +3418,25 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>2.98</v>
+        <v>25.79</v>
       </c>
       <c r="D30" s="7">
-        <v>13.7</v>
+        <v>18.9</v>
       </c>
       <c r="E30" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="H30" s="7">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
       <c r="I30" s="7">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
@@ -3385,24 +3447,26 @@
         <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>0.5600000000000001</v>
+        <v>3.77</v>
       </c>
       <c r="D31" s="7">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="E31" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H31" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="8"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="6">
@@ -3412,25 +3476,25 @@
         <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>3.48</v>
+        <v>2.98</v>
       </c>
       <c r="D32" s="7">
-        <v>1.2</v>
+        <v>13.7</v>
       </c>
       <c r="E32" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H32" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I32" s="7">
         <v>0.06</v>
-      </c>
-      <c r="I32" s="7">
-        <v>-0.05</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
@@ -3441,13 +3505,13 @@
         <v>72</v>
       </c>
       <c r="C33" s="7">
-        <v>4.16</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D33" s="7">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
@@ -3456,11 +3520,9 @@
         <v>0.01</v>
       </c>
       <c r="H33" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I33" s="7">
-        <v>-0.06</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="6">
@@ -3470,13 +3532,13 @@
         <v>74</v>
       </c>
       <c r="C34" s="7">
-        <v>0.39</v>
+        <v>3.48</v>
       </c>
       <c r="D34" s="7">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E34" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
@@ -3485,10 +3547,10 @@
         <v>0.01</v>
       </c>
       <c r="H34" s="7">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
@@ -3499,13 +3561,13 @@
         <v>76</v>
       </c>
       <c r="C35" s="7">
-        <v>1.23</v>
+        <v>4.16</v>
       </c>
       <c r="D35" s="7">
-        <v>2.428</v>
+        <v>0.33</v>
       </c>
       <c r="E35" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
@@ -3514,10 +3576,10 @@
         <v>0.01</v>
       </c>
       <c r="H35" s="7">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I35" s="7">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
@@ -3528,24 +3590,26 @@
         <v>78</v>
       </c>
       <c r="C36" s="7">
-        <v>3.13</v>
+        <v>0.39</v>
       </c>
       <c r="D36" s="7">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="E36" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H36" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I36" s="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="6">
@@ -3555,13 +3619,13 @@
         <v>80</v>
       </c>
       <c r="C37" s="7">
-        <v>0.35</v>
+        <v>1.23</v>
       </c>
       <c r="D37" s="7">
-        <v>1</v>
+        <v>2.428</v>
       </c>
       <c r="E37" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
@@ -3570,9 +3634,11 @@
         <v>0.01</v>
       </c>
       <c r="H37" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I37" s="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="I37" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="6">
@@ -3582,13 +3648,13 @@
         <v>82</v>
       </c>
       <c r="C38" s="7">
-        <v>5.83</v>
+        <v>3.13</v>
       </c>
       <c r="D38" s="7">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="E38" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
@@ -3597,11 +3663,9 @@
         <v>0.11</v>
       </c>
       <c r="H38" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0.01</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="6">
@@ -3611,26 +3675,24 @@
         <v>84</v>
       </c>
       <c r="C39" s="7">
-        <v>7.43</v>
+        <v>0.35</v>
       </c>
       <c r="D39" s="7">
-        <v>12.8</v>
+        <v>1</v>
       </c>
       <c r="E39" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="7">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="H39" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="I39" s="7">
-        <v>-0.01</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="6">
@@ -3640,25 +3702,25 @@
         <v>86</v>
       </c>
       <c r="C40" s="7">
-        <v>10.63</v>
+        <v>5.83</v>
       </c>
       <c r="D40" s="7">
         <v>4</v>
       </c>
       <c r="E40" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H40" s="7">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I40" s="7">
-        <v>-0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
@@ -3669,25 +3731,25 @@
         <v>88</v>
       </c>
       <c r="C41" s="7">
-        <v>8.880000000000001</v>
+        <v>7.43</v>
       </c>
       <c r="D41" s="7">
-        <v>2</v>
+        <v>12.8</v>
       </c>
       <c r="E41" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="H41" s="7">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="I41" s="7">
-        <v>-0.14</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
@@ -3698,22 +3760,26 @@
         <v>90</v>
       </c>
       <c r="C42" s="7">
-        <v>2.71</v>
+        <v>10.63</v>
       </c>
       <c r="D42" s="7">
-        <v>13.7</v>
+        <v>4</v>
       </c>
       <c r="E42" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+        <v>0.13</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I42" s="7">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="6">
@@ -3723,10 +3789,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>144.21</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D43" s="7">
-        <v>90.3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="7">
         <v>25</v>
@@ -3735,10 +3801,14 @@
         <v>1</v>
       </c>
       <c r="G43" s="7">
-        <v>3</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I43" s="7">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="6">
@@ -3748,19 +3818,19 @@
         <v>94</v>
       </c>
       <c r="C44" s="7">
-        <v>12.15</v>
+        <v>2.71</v>
       </c>
       <c r="D44" s="7">
-        <v>77</v>
+        <v>13.7</v>
       </c>
       <c r="E44" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="7">
-        <v>1.5</v>
+        <v>0.28</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -3773,19 +3843,19 @@
         <v>96</v>
       </c>
       <c r="C45" s="7">
-        <v>4.45</v>
+        <v>144.21</v>
       </c>
       <c r="D45" s="7">
-        <v>17.8</v>
+        <v>90.3</v>
       </c>
       <c r="E45" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -3798,19 +3868,19 @@
         <v>98</v>
       </c>
       <c r="C46" s="7">
-        <v>3.12</v>
+        <v>12.15</v>
       </c>
       <c r="D46" s="7">
-        <v>11.7</v>
+        <v>77</v>
       </c>
       <c r="E46" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
       <c r="G46" s="7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -3823,19 +3893,19 @@
         <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>4.28</v>
+        <v>4.45</v>
       </c>
       <c r="D47" s="7">
-        <v>13.5</v>
+        <v>17.8</v>
       </c>
       <c r="E47" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -3848,19 +3918,19 @@
         <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>3.26</v>
+        <v>3.12</v>
       </c>
       <c r="D48" s="7">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
       <c r="E48" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
       <c r="G48" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -3873,13 +3943,13 @@
         <v>104</v>
       </c>
       <c r="C49" s="7">
-        <v>15.61</v>
+        <v>4.28</v>
       </c>
       <c r="D49" s="7">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
       <c r="E49" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F49" s="7">
         <v>1</v>
@@ -3898,19 +3968,19 @@
         <v>106</v>
       </c>
       <c r="C50" s="7">
-        <v>9.58</v>
+        <v>3.26</v>
       </c>
       <c r="D50" s="7">
-        <v>40.2</v>
+        <v>10.4</v>
       </c>
       <c r="E50" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F50" s="7">
         <v>1</v>
       </c>
       <c r="G50" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -3923,19 +3993,19 @@
         <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>12.55</v>
+        <v>15.61</v>
       </c>
       <c r="D51" s="7">
-        <v>55</v>
+        <v>14.3</v>
       </c>
       <c r="E51" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -3948,19 +4018,19 @@
         <v>110</v>
       </c>
       <c r="C52" s="7">
-        <v>19.1</v>
+        <v>9.58</v>
       </c>
       <c r="D52" s="7">
-        <v>90.90000000000001</v>
+        <v>40.2</v>
       </c>
       <c r="E52" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -3973,19 +4043,19 @@
         <v>112</v>
       </c>
       <c r="C53" s="7">
-        <v>24.33</v>
+        <v>12.55</v>
       </c>
       <c r="D53" s="7">
-        <v>211.504</v>
+        <v>55</v>
       </c>
       <c r="E53" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -3998,19 +4068,19 @@
         <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>25.6</v>
+        <v>19.1</v>
       </c>
       <c r="D54" s="7">
-        <v>24.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E54" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4023,19 +4093,19 @@
         <v>116</v>
       </c>
       <c r="C55" s="7">
-        <v>156.12</v>
+        <v>24.33</v>
       </c>
       <c r="D55" s="7">
-        <v>242.709</v>
+        <v>211.504</v>
       </c>
       <c r="E55" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -4048,10 +4118,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="7">
-        <v>30.88</v>
+        <v>25.6</v>
       </c>
       <c r="D56" s="7">
-        <v>110.075</v>
+        <v>24.5</v>
       </c>
       <c r="E56" s="7">
         <v>12</v>
@@ -4060,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -4073,10 +4143,10 @@
         <v>120</v>
       </c>
       <c r="C57" s="7">
-        <v>10</v>
+        <v>156.12</v>
       </c>
       <c r="D57" s="7">
-        <v>14.012</v>
+        <v>242.709</v>
       </c>
       <c r="E57" s="7">
         <v>12</v>
@@ -4085,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>0.1</v>
+        <v>6.5</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -4098,19 +4168,19 @@
         <v>122</v>
       </c>
       <c r="C58" s="7">
-        <v>88.03</v>
+        <v>30.88</v>
       </c>
       <c r="D58" s="7">
-        <v>30.4</v>
+        <v>110.075</v>
       </c>
       <c r="E58" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -4123,19 +4193,19 @@
         <v>124</v>
       </c>
       <c r="C59" s="7">
-        <v>25.66</v>
+        <v>10</v>
       </c>
       <c r="D59" s="7">
-        <v>135.2</v>
+        <v>14.012</v>
       </c>
       <c r="E59" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -4148,10 +4218,10 @@
         <v>126</v>
       </c>
       <c r="C60" s="7">
-        <v>20.96</v>
+        <v>88.03</v>
       </c>
       <c r="D60" s="7">
-        <v>118.6</v>
+        <v>30.4</v>
       </c>
       <c r="E60" s="7">
         <v>10</v>
@@ -4160,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -4173,10 +4243,10 @@
         <v>128</v>
       </c>
       <c r="C61" s="7">
-        <v>24.99</v>
+        <v>25.66</v>
       </c>
       <c r="D61" s="7">
-        <v>135.112</v>
+        <v>135.2</v>
       </c>
       <c r="E61" s="7">
         <v>10</v>
@@ -4198,10 +4268,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="7">
-        <v>25.58</v>
+        <v>20.96</v>
       </c>
       <c r="D62" s="7">
-        <v>135.1</v>
+        <v>118.6</v>
       </c>
       <c r="E62" s="7">
         <v>10</v>
@@ -4223,10 +4293,10 @@
         <v>132</v>
       </c>
       <c r="C63" s="7">
-        <v>60.31</v>
+        <v>24.99</v>
       </c>
       <c r="D63" s="7">
-        <v>313.297</v>
+        <v>135.112</v>
       </c>
       <c r="E63" s="7">
         <v>10</v>
@@ -4235,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -4248,10 +4318,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="7">
-        <v>25.52</v>
+        <v>25.58</v>
       </c>
       <c r="D64" s="7">
-        <v>137</v>
+        <v>135.1</v>
       </c>
       <c r="E64" s="7">
         <v>10</v>
@@ -4260,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -4273,10 +4343,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="7">
-        <v>82.26000000000001</v>
+        <v>60.31</v>
       </c>
       <c r="D65" s="7">
-        <v>474.621</v>
+        <v>313.297</v>
       </c>
       <c r="E65" s="7">
         <v>10</v>
@@ -4285,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -4298,10 +4368,10 @@
         <v>138</v>
       </c>
       <c r="C66" s="7">
-        <v>14.13</v>
+        <v>25.52</v>
       </c>
       <c r="D66" s="7">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="E66" s="7">
         <v>10</v>
@@ -4310,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -4323,10 +4393,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>9.57</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D67" s="7">
-        <v>25</v>
+        <v>474.621</v>
       </c>
       <c r="E67" s="7">
         <v>10</v>
@@ -4335,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -4348,10 +4418,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>60.44</v>
+        <v>14.13</v>
       </c>
       <c r="D68" s="7">
-        <v>81.459</v>
+        <v>34</v>
       </c>
       <c r="E68" s="7">
         <v>10</v>
@@ -4373,10 +4443,10 @@
         <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>49.26</v>
+        <v>9.57</v>
       </c>
       <c r="D69" s="7">
-        <v>183.288</v>
+        <v>25</v>
       </c>
       <c r="E69" s="7">
         <v>10</v>
@@ -4385,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -4398,19 +4468,19 @@
         <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>0.29</v>
+        <v>60.44</v>
       </c>
       <c r="D70" s="7">
-        <v>1.5</v>
+        <v>81.459</v>
       </c>
       <c r="E70" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F70" s="7">
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -4423,19 +4493,19 @@
         <v>148</v>
       </c>
       <c r="C71" s="7">
-        <v>37.15</v>
+        <v>49.26</v>
       </c>
       <c r="D71" s="7">
-        <v>7.5</v>
+        <v>183.288</v>
       </c>
       <c r="E71" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="7">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -4448,13 +4518,13 @@
         <v>150</v>
       </c>
       <c r="C72" s="7">
-        <v>12.76</v>
+        <v>0.29</v>
       </c>
       <c r="D72" s="7">
-        <v>24.919</v>
+        <v>1.5</v>
       </c>
       <c r="E72" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
@@ -4473,19 +4543,19 @@
         <v>152</v>
       </c>
       <c r="C73" s="7">
-        <v>20.38</v>
+        <v>37.15</v>
       </c>
       <c r="D73" s="7">
-        <v>74.434</v>
+        <v>7.5</v>
       </c>
       <c r="E73" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -4498,10 +4568,10 @@
         <v>154</v>
       </c>
       <c r="C74" s="7">
-        <v>10.35</v>
+        <v>12.76</v>
       </c>
       <c r="D74" s="7">
-        <v>35.091</v>
+        <v>24.919</v>
       </c>
       <c r="E74" s="7">
         <v>12</v>
@@ -4510,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4523,10 +4593,10 @@
         <v>156</v>
       </c>
       <c r="C75" s="7">
-        <v>17.77</v>
+        <v>20.38</v>
       </c>
       <c r="D75" s="7">
-        <v>65.682</v>
+        <v>74.434</v>
       </c>
       <c r="E75" s="7">
         <v>12</v>
@@ -4548,10 +4618,10 @@
         <v>158</v>
       </c>
       <c r="C76" s="7">
-        <v>18.06</v>
+        <v>10.35</v>
       </c>
       <c r="D76" s="7">
-        <v>56.867</v>
+        <v>35.091</v>
       </c>
       <c r="E76" s="7">
         <v>12</v>
@@ -4560,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4573,10 +4643,10 @@
         <v>160</v>
       </c>
       <c r="C77" s="7">
-        <v>10.45</v>
+        <v>17.77</v>
       </c>
       <c r="D77" s="7">
-        <v>35.097</v>
+        <v>65.682</v>
       </c>
       <c r="E77" s="7">
         <v>12</v>
@@ -4598,10 +4668,10 @@
         <v>162</v>
       </c>
       <c r="C78" s="7">
-        <v>20.83</v>
+        <v>18.06</v>
       </c>
       <c r="D78" s="7">
-        <v>68.786</v>
+        <v>56.867</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -4610,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -4623,10 +4693,10 @@
         <v>164</v>
       </c>
       <c r="C79" s="7">
-        <v>9.119999999999999</v>
+        <v>10.45</v>
       </c>
       <c r="D79" s="7">
-        <v>33</v>
+        <v>35.097</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4648,10 +4718,10 @@
         <v>166</v>
       </c>
       <c r="C80" s="7">
-        <v>9.24</v>
+        <v>20.83</v>
       </c>
       <c r="D80" s="7">
-        <v>33.19</v>
+        <v>68.786</v>
       </c>
       <c r="E80" s="7">
         <v>12</v>
@@ -4660,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -4673,10 +4743,10 @@
         <v>168</v>
       </c>
       <c r="C81" s="7">
-        <v>9.18</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D81" s="7">
-        <v>33.19</v>
+        <v>33</v>
       </c>
       <c r="E81" s="7">
         <v>12</v>
@@ -4698,10 +4768,10 @@
         <v>170</v>
       </c>
       <c r="C82" s="7">
-        <v>17.9</v>
+        <v>9.24</v>
       </c>
       <c r="D82" s="7">
-        <v>60.542</v>
+        <v>33.19</v>
       </c>
       <c r="E82" s="7">
         <v>12</v>
@@ -4710,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -4723,10 +4793,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="7">
-        <v>39.59</v>
+        <v>9.18</v>
       </c>
       <c r="D83" s="7">
-        <v>135.375</v>
+        <v>33.19</v>
       </c>
       <c r="E83" s="7">
         <v>12</v>
@@ -4735,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -4748,10 +4818,10 @@
         <v>174</v>
       </c>
       <c r="C84" s="7">
-        <v>21.3</v>
+        <v>17.9</v>
       </c>
       <c r="D84" s="7">
-        <v>73.223</v>
+        <v>60.542</v>
       </c>
       <c r="E84" s="7">
         <v>12</v>
@@ -4760,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -4773,10 +4843,10 @@
         <v>176</v>
       </c>
       <c r="C85" s="7">
-        <v>8.65</v>
+        <v>39.59</v>
       </c>
       <c r="D85" s="7">
-        <v>28.483</v>
+        <v>135.375</v>
       </c>
       <c r="E85" s="7">
         <v>12</v>
@@ -4785,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4798,10 +4868,10 @@
         <v>178</v>
       </c>
       <c r="C86" s="7">
-        <v>10.25</v>
+        <v>21.3</v>
       </c>
       <c r="D86" s="7">
-        <v>36.532</v>
+        <v>73.223</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -4810,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -4823,10 +4893,10 @@
         <v>180</v>
       </c>
       <c r="C87" s="7">
-        <v>12.29</v>
+        <v>8.65</v>
       </c>
       <c r="D87" s="7">
-        <v>38.502</v>
+        <v>28.483</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -4835,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -4848,10 +4918,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="7">
-        <v>13.27</v>
+        <v>10.25</v>
       </c>
       <c r="D88" s="7">
-        <v>46</v>
+        <v>36.532</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -4860,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -4873,10 +4943,10 @@
         <v>184</v>
       </c>
       <c r="C89" s="7">
-        <v>3.32</v>
+        <v>12.29</v>
       </c>
       <c r="D89" s="7">
-        <v>11.6</v>
+        <v>38.502</v>
       </c>
       <c r="E89" s="7">
         <v>12</v>
@@ -4885,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -4898,10 +4968,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="7">
-        <v>9.5</v>
+        <v>13.27</v>
       </c>
       <c r="D90" s="7">
-        <v>33.457</v>
+        <v>46</v>
       </c>
       <c r="E90" s="7">
         <v>12</v>
@@ -4910,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -4923,10 +4993,10 @@
         <v>188</v>
       </c>
       <c r="C91" s="7">
-        <v>5.32</v>
+        <v>3.32</v>
       </c>
       <c r="D91" s="7">
-        <v>19.7</v>
+        <v>11.6</v>
       </c>
       <c r="E91" s="7">
         <v>12</v>
@@ -4948,10 +5018,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="7">
-        <v>10.58</v>
+        <v>9.5</v>
       </c>
       <c r="D92" s="7">
-        <v>37.2</v>
+        <v>33.457</v>
       </c>
       <c r="E92" s="7">
         <v>12</v>
@@ -4973,10 +5043,10 @@
         <v>192</v>
       </c>
       <c r="C93" s="7">
-        <v>12.29</v>
+        <v>5.32</v>
       </c>
       <c r="D93" s="7">
-        <v>56.8</v>
+        <v>19.7</v>
       </c>
       <c r="E93" s="7">
         <v>12</v>
@@ -4985,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -4998,10 +5068,10 @@
         <v>194</v>
       </c>
       <c r="C94" s="7">
-        <v>30.09</v>
+        <v>10.58</v>
       </c>
       <c r="D94" s="7">
-        <v>84.102</v>
+        <v>37.2</v>
       </c>
       <c r="E94" s="7">
         <v>12</v>
@@ -5010,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -5023,10 +5093,10 @@
         <v>196</v>
       </c>
       <c r="C95" s="7">
-        <v>42.54</v>
+        <v>12.29</v>
       </c>
       <c r="D95" s="7">
-        <v>122</v>
+        <v>56.8</v>
       </c>
       <c r="E95" s="7">
         <v>12</v>
@@ -5035,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -5048,10 +5118,10 @@
         <v>198</v>
       </c>
       <c r="C96" s="7">
-        <v>42.62</v>
+        <v>30.09</v>
       </c>
       <c r="D96" s="7">
-        <v>122</v>
+        <v>84.102</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -5060,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -5073,10 +5143,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="7">
-        <v>32.67</v>
+        <v>42.54</v>
       </c>
       <c r="D97" s="7">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -5098,10 +5168,10 @@
         <v>202</v>
       </c>
       <c r="C98" s="7">
-        <v>69.61</v>
+        <v>42.62</v>
       </c>
       <c r="D98" s="7">
-        <v>248.201</v>
+        <v>122</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -5110,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -5123,10 +5193,10 @@
         <v>204</v>
       </c>
       <c r="C99" s="7">
-        <v>84.97</v>
+        <v>32.67</v>
       </c>
       <c r="D99" s="7">
-        <v>248.201</v>
+        <v>107</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -5135,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -5148,7 +5218,7 @@
         <v>206</v>
       </c>
       <c r="C100" s="7">
-        <v>120.91</v>
+        <v>69.61</v>
       </c>
       <c r="D100" s="7">
         <v>248.201</v>
@@ -5173,10 +5243,10 @@
         <v>208</v>
       </c>
       <c r="C101" s="7">
-        <v>130.17</v>
+        <v>84.97</v>
       </c>
       <c r="D101" s="7">
-        <v>207</v>
+        <v>248.201</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -5198,10 +5268,10 @@
         <v>210</v>
       </c>
       <c r="C102" s="7">
-        <v>11.85</v>
+        <v>120.91</v>
       </c>
       <c r="D102" s="7">
-        <v>34.5</v>
+        <v>248.201</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -5210,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>0.53</v>
+        <v>3</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -5223,10 +5293,10 @@
         <v>212</v>
       </c>
       <c r="C103" s="7">
-        <v>17.89</v>
+        <v>130.17</v>
       </c>
       <c r="D103" s="7">
-        <v>48.7</v>
+        <v>207</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -5235,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -5248,10 +5318,10 @@
         <v>214</v>
       </c>
       <c r="C104" s="7">
-        <v>21.89</v>
+        <v>11.85</v>
       </c>
       <c r="D104" s="7">
-        <v>24</v>
+        <v>34.5</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -5260,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -5273,19 +5343,19 @@
         <v>216</v>
       </c>
       <c r="C105" s="7">
-        <v>0.49</v>
+        <v>17.89</v>
       </c>
       <c r="D105" s="7">
-        <v>2.234</v>
+        <v>48.7</v>
       </c>
       <c r="E105" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F105" s="7">
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -5298,10 +5368,10 @@
         <v>218</v>
       </c>
       <c r="C106" s="7">
-        <v>68.42</v>
+        <v>21.89</v>
       </c>
       <c r="D106" s="7">
-        <v>216.554</v>
+        <v>24</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -5310,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -5323,13 +5393,13 @@
         <v>220</v>
       </c>
       <c r="C107" s="7">
-        <v>216.38</v>
+        <v>0.49</v>
       </c>
       <c r="D107" s="7">
-        <v>450.756</v>
+        <v>2.234</v>
       </c>
       <c r="E107" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F107" s="7">
         <v>1</v>
@@ -5348,10 +5418,10 @@
         <v>222</v>
       </c>
       <c r="C108" s="7">
-        <v>22.31</v>
+        <v>68.42</v>
       </c>
       <c r="D108" s="7">
-        <v>45</v>
+        <v>216.554</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5360,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5373,13 +5443,13 @@
         <v>224</v>
       </c>
       <c r="C109" s="7">
-        <v>1.38</v>
+        <v>216.38</v>
       </c>
       <c r="D109" s="7">
-        <v>5.475</v>
+        <v>450.756</v>
       </c>
       <c r="E109" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F109" s="7">
         <v>1</v>
@@ -5398,13 +5468,13 @@
         <v>226</v>
       </c>
       <c r="C110" s="7">
-        <v>1.36</v>
+        <v>22.31</v>
       </c>
       <c r="D110" s="7">
-        <v>5.493</v>
+        <v>45</v>
       </c>
       <c r="E110" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F110" s="7">
         <v>1</v>
@@ -5423,13 +5493,13 @@
         <v>228</v>
       </c>
       <c r="C111" s="7">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="D111" s="7">
-        <v>5.6</v>
+        <v>5.475</v>
       </c>
       <c r="E111" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
@@ -5448,13 +5518,13 @@
         <v>230</v>
       </c>
       <c r="C112" s="7">
-        <v>0.49</v>
+        <v>1.36</v>
       </c>
       <c r="D112" s="7">
-        <v>1.7</v>
+        <v>5.493</v>
       </c>
       <c r="E112" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
@@ -5473,13 +5543,13 @@
         <v>232</v>
       </c>
       <c r="C113" s="7">
-        <v>6.32</v>
+        <v>1.42</v>
       </c>
       <c r="D113" s="7">
-        <v>32.054</v>
+        <v>5.6</v>
       </c>
       <c r="E113" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
@@ -5498,13 +5568,13 @@
         <v>234</v>
       </c>
       <c r="C114" s="7">
-        <v>26.16</v>
+        <v>0.49</v>
       </c>
       <c r="D114" s="7">
-        <v>26.938</v>
+        <v>1.7</v>
       </c>
       <c r="E114" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
@@ -5523,13 +5593,13 @@
         <v>236</v>
       </c>
       <c r="C115" s="7">
-        <v>5.38</v>
+        <v>6.32</v>
       </c>
       <c r="D115" s="7">
-        <v>13</v>
+        <v>32.054</v>
       </c>
       <c r="E115" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F115" s="7">
         <v>1</v>
@@ -5548,19 +5618,19 @@
         <v>238</v>
       </c>
       <c r="C116" s="7">
-        <v>42.82</v>
+        <v>26.16</v>
       </c>
       <c r="D116" s="7">
-        <v>152.431</v>
+        <v>26.938</v>
       </c>
       <c r="E116" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F116" s="7">
         <v>1</v>
       </c>
       <c r="G116" s="7">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -5573,19 +5643,19 @@
         <v>240</v>
       </c>
       <c r="C117" s="7">
-        <v>43.29</v>
+        <v>5.38</v>
       </c>
       <c r="D117" s="7">
-        <v>152.431</v>
+        <v>13</v>
       </c>
       <c r="E117" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F117" s="7">
         <v>1</v>
       </c>
       <c r="G117" s="7">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -5598,10 +5668,10 @@
         <v>242</v>
       </c>
       <c r="C118" s="7">
-        <v>48.75</v>
+        <v>42.82</v>
       </c>
       <c r="D118" s="7">
-        <v>175.457</v>
+        <v>152.431</v>
       </c>
       <c r="E118" s="7">
         <v>6</v>
@@ -5610,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -5623,10 +5693,10 @@
         <v>244</v>
       </c>
       <c r="C119" s="7">
-        <v>49.12</v>
+        <v>43.29</v>
       </c>
       <c r="D119" s="7">
-        <v>201.645</v>
+        <v>152.431</v>
       </c>
       <c r="E119" s="7">
         <v>6</v>
@@ -5635,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -5648,10 +5718,10 @@
         <v>246</v>
       </c>
       <c r="C120" s="7">
-        <v>25.04</v>
+        <v>48.75</v>
       </c>
       <c r="D120" s="7">
-        <v>143.961</v>
+        <v>175.457</v>
       </c>
       <c r="E120" s="7">
         <v>6</v>
@@ -5660,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -5673,10 +5743,10 @@
         <v>248</v>
       </c>
       <c r="C121" s="7">
-        <v>21.26</v>
+        <v>49.12</v>
       </c>
       <c r="D121" s="7">
-        <v>143.961</v>
+        <v>201.645</v>
       </c>
       <c r="E121" s="7">
         <v>6</v>
@@ -5685,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -5698,10 +5768,10 @@
         <v>250</v>
       </c>
       <c r="C122" s="7">
-        <v>39.51</v>
+        <v>25.04</v>
       </c>
       <c r="D122" s="7">
-        <v>219.134</v>
+        <v>143.961</v>
       </c>
       <c r="E122" s="7">
         <v>6</v>
@@ -5710,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -5723,10 +5793,10 @@
         <v>252</v>
       </c>
       <c r="C123" s="7">
-        <v>17.11</v>
+        <v>21.26</v>
       </c>
       <c r="D123" s="7">
-        <v>96.729</v>
+        <v>143.961</v>
       </c>
       <c r="E123" s="7">
         <v>6</v>
@@ -5735,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5748,10 +5818,10 @@
         <v>254</v>
       </c>
       <c r="C124" s="7">
-        <v>14.78</v>
+        <v>39.51</v>
       </c>
       <c r="D124" s="7">
-        <v>84.5</v>
+        <v>219.134</v>
       </c>
       <c r="E124" s="7">
         <v>6</v>
@@ -5760,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -5773,10 +5843,10 @@
         <v>256</v>
       </c>
       <c r="C125" s="7">
-        <v>20.9</v>
+        <v>17.11</v>
       </c>
       <c r="D125" s="7">
-        <v>122.054</v>
+        <v>96.729</v>
       </c>
       <c r="E125" s="7">
         <v>6</v>
@@ -5798,10 +5868,10 @@
         <v>258</v>
       </c>
       <c r="C126" s="7">
-        <v>15.95</v>
+        <v>14.78</v>
       </c>
       <c r="D126" s="7">
-        <v>93.88800000000001</v>
+        <v>84.5</v>
       </c>
       <c r="E126" s="7">
         <v>6</v>
@@ -5810,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -5823,10 +5893,10 @@
         <v>260</v>
       </c>
       <c r="C127" s="7">
-        <v>5.62</v>
+        <v>20.9</v>
       </c>
       <c r="D127" s="7">
-        <v>18.015</v>
+        <v>122.054</v>
       </c>
       <c r="E127" s="7">
         <v>6</v>
@@ -5835,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -5848,10 +5918,10 @@
         <v>262</v>
       </c>
       <c r="C128" s="7">
-        <v>2.65</v>
+        <v>15.95</v>
       </c>
       <c r="D128" s="7">
-        <v>15.648</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E128" s="7">
         <v>6</v>
@@ -5860,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -5873,10 +5943,10 @@
         <v>264</v>
       </c>
       <c r="C129" s="7">
-        <v>22</v>
+        <v>5.62</v>
       </c>
       <c r="D129" s="7">
-        <v>138.225</v>
+        <v>18.015</v>
       </c>
       <c r="E129" s="7">
         <v>6</v>
@@ -5885,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -5898,10 +5968,10 @@
         <v>266</v>
       </c>
       <c r="C130" s="7">
-        <v>22.93</v>
+        <v>2.65</v>
       </c>
       <c r="D130" s="7">
-        <v>143.961</v>
+        <v>15.648</v>
       </c>
       <c r="E130" s="7">
         <v>6</v>
@@ -5910,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -5923,10 +5993,10 @@
         <v>268</v>
       </c>
       <c r="C131" s="7">
-        <v>6.75</v>
+        <v>22</v>
       </c>
       <c r="D131" s="7">
-        <v>38.128</v>
+        <v>138.225</v>
       </c>
       <c r="E131" s="7">
         <v>6</v>
@@ -5935,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -5948,10 +6018,10 @@
         <v>270</v>
       </c>
       <c r="C132" s="7">
-        <v>10.37</v>
+        <v>22.93</v>
       </c>
       <c r="D132" s="7">
-        <v>59.462</v>
+        <v>143.961</v>
       </c>
       <c r="E132" s="7">
         <v>6</v>
@@ -5960,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -5973,10 +6043,10 @@
         <v>272</v>
       </c>
       <c r="C133" s="7">
-        <v>9.470000000000001</v>
+        <v>6.75</v>
       </c>
       <c r="D133" s="7">
-        <v>55.892</v>
+        <v>38.128</v>
       </c>
       <c r="E133" s="7">
         <v>6</v>
@@ -5998,10 +6068,10 @@
         <v>274</v>
       </c>
       <c r="C134" s="7">
-        <v>33.05</v>
+        <v>10.37</v>
       </c>
       <c r="D134" s="7">
-        <v>157.109</v>
+        <v>59.462</v>
       </c>
       <c r="E134" s="7">
         <v>6</v>
@@ -6010,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -6023,19 +6093,19 @@
         <v>276</v>
       </c>
       <c r="C135" s="7">
-        <v>20.82</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D135" s="7">
-        <v>45.773</v>
+        <v>55.892</v>
       </c>
       <c r="E135" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F135" s="7">
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -6048,19 +6118,19 @@
         <v>278</v>
       </c>
       <c r="C136" s="7">
-        <v>3.79</v>
+        <v>33.05</v>
       </c>
       <c r="D136" s="7">
-        <v>19.428</v>
+        <v>157.109</v>
       </c>
       <c r="E136" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F136" s="7">
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6073,19 +6143,19 @@
         <v>280</v>
       </c>
       <c r="C137" s="7">
-        <v>15.37</v>
+        <v>20.82</v>
       </c>
       <c r="D137" s="7">
-        <v>73.333</v>
+        <v>45.773</v>
       </c>
       <c r="E137" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F137" s="7">
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -6098,13 +6168,13 @@
         <v>282</v>
       </c>
       <c r="C138" s="7">
-        <v>0.34</v>
+        <v>3.79</v>
       </c>
       <c r="D138" s="7">
-        <v>0.3</v>
+        <v>19.428</v>
       </c>
       <c r="E138" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F138" s="7">
         <v>1</v>
@@ -6123,19 +6193,19 @@
         <v>284</v>
       </c>
       <c r="C139" s="7">
-        <v>11.98</v>
+        <v>15.37</v>
       </c>
       <c r="D139" s="7">
-        <v>38.291</v>
+        <v>73.333</v>
       </c>
       <c r="E139" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F139" s="7">
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -6148,19 +6218,19 @@
         <v>286</v>
       </c>
       <c r="C140" s="7">
-        <v>119.41</v>
+        <v>0.34</v>
       </c>
       <c r="D140" s="7">
-        <v>354.86</v>
+        <v>0.3</v>
       </c>
       <c r="E140" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F140" s="7">
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -6173,19 +6243,19 @@
         <v>288</v>
       </c>
       <c r="C141" s="7">
-        <v>24.68</v>
+        <v>11.98</v>
       </c>
       <c r="D141" s="7">
-        <v>64.59399999999999</v>
+        <v>38.291</v>
       </c>
       <c r="E141" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F141" s="7">
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -6198,10 +6268,10 @@
         <v>290</v>
       </c>
       <c r="C142" s="7">
-        <v>3.58</v>
+        <v>119.41</v>
       </c>
       <c r="D142" s="7">
-        <v>6.6</v>
+        <v>354.86</v>
       </c>
       <c r="E142" s="7">
         <v>10</v>
@@ -6210,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -6223,19 +6293,19 @@
         <v>292</v>
       </c>
       <c r="C143" s="7">
-        <v>11.77</v>
+        <v>24.68</v>
       </c>
       <c r="D143" s="7">
-        <v>42.588</v>
+        <v>64.59399999999999</v>
       </c>
       <c r="E143" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -6248,19 +6318,19 @@
         <v>294</v>
       </c>
       <c r="C144" s="7">
-        <v>16.49</v>
+        <v>3.58</v>
       </c>
       <c r="D144" s="7">
-        <v>60.73</v>
+        <v>6.6</v>
       </c>
       <c r="E144" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
       </c>
       <c r="G144" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
@@ -6273,10 +6343,10 @@
         <v>296</v>
       </c>
       <c r="C145" s="7">
-        <v>5.41</v>
+        <v>11.77</v>
       </c>
       <c r="D145" s="7">
-        <v>19.648</v>
+        <v>42.588</v>
       </c>
       <c r="E145" s="7">
         <v>12</v>
@@ -6285,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -6298,19 +6368,19 @@
         <v>298</v>
       </c>
       <c r="C146" s="7">
-        <v>17.33</v>
+        <v>16.49</v>
       </c>
       <c r="D146" s="7">
-        <v>23.7</v>
+        <v>60.73</v>
       </c>
       <c r="E146" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
       </c>
       <c r="G146" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -6323,13 +6393,13 @@
         <v>300</v>
       </c>
       <c r="C147" s="7">
-        <v>28.98</v>
+        <v>5.41</v>
       </c>
       <c r="D147" s="7">
-        <v>102</v>
+        <v>19.648</v>
       </c>
       <c r="E147" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F147" s="7">
         <v>1</v>
@@ -6348,13 +6418,13 @@
         <v>302</v>
       </c>
       <c r="C148" s="7">
-        <v>24.87</v>
+        <v>17.33</v>
       </c>
       <c r="D148" s="7">
-        <v>10</v>
+        <v>23.7</v>
       </c>
       <c r="E148" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
@@ -6373,13 +6443,13 @@
         <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>3.7</v>
+        <v>28.98</v>
       </c>
       <c r="D149" s="7">
-        <v>19.078</v>
+        <v>102</v>
       </c>
       <c r="E149" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
@@ -6398,13 +6468,13 @@
         <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>2.45</v>
+        <v>24.87</v>
       </c>
       <c r="D150" s="7">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="E150" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F150" s="7">
         <v>1</v>
@@ -6423,10 +6493,10 @@
         <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>4.43</v>
+        <v>3.7</v>
       </c>
       <c r="D151" s="7">
-        <v>22.741</v>
+        <v>19.078</v>
       </c>
       <c r="E151" s="7">
         <v>10</v>
@@ -6448,10 +6518,10 @@
         <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>2.59</v>
+        <v>2.45</v>
       </c>
       <c r="D152" s="7">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E152" s="7">
         <v>10</v>
@@ -6473,10 +6543,10 @@
         <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>15.11</v>
+        <v>4.43</v>
       </c>
       <c r="D153" s="7">
-        <v>71.11799999999999</v>
+        <v>22.741</v>
       </c>
       <c r="E153" s="7">
         <v>10</v>
@@ -6498,10 +6568,10 @@
         <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>7.58</v>
+        <v>2.59</v>
       </c>
       <c r="D154" s="7">
-        <v>38.801</v>
+        <v>13</v>
       </c>
       <c r="E154" s="7">
         <v>10</v>
@@ -6523,10 +6593,10 @@
         <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>3.9</v>
+        <v>15.11</v>
       </c>
       <c r="D155" s="7">
-        <v>18</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E155" s="7">
         <v>10</v>
@@ -6548,10 +6618,10 @@
         <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>1.66</v>
+        <v>7.58</v>
       </c>
       <c r="D156" s="7">
-        <v>8</v>
+        <v>38.801</v>
       </c>
       <c r="E156" s="7">
         <v>10</v>
@@ -6573,10 +6643,10 @@
         <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D157" s="7">
-        <v>16.059</v>
+        <v>18</v>
       </c>
       <c r="E157" s="7">
         <v>10</v>
@@ -6598,10 +6668,10 @@
         <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>7.59</v>
+        <v>1.66</v>
       </c>
       <c r="D158" s="7">
-        <v>34.112</v>
+        <v>8</v>
       </c>
       <c r="E158" s="7">
         <v>10</v>
@@ -6623,10 +6693,10 @@
         <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>8.98</v>
+        <v>3.4</v>
       </c>
       <c r="D159" s="7">
-        <v>19.4</v>
+        <v>16.059</v>
       </c>
       <c r="E159" s="7">
         <v>10</v>
@@ -6648,10 +6718,10 @@
         <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>2.48</v>
+        <v>7.59</v>
       </c>
       <c r="D160" s="7">
-        <v>8</v>
+        <v>34.112</v>
       </c>
       <c r="E160" s="7">
         <v>10</v>
@@ -6673,10 +6743,10 @@
         <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>5.04</v>
+        <v>8.98</v>
       </c>
       <c r="D161" s="7">
-        <v>25.437</v>
+        <v>19.4</v>
       </c>
       <c r="E161" s="7">
         <v>10</v>
@@ -6698,10 +6768,10 @@
         <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>4.29</v>
+        <v>2.48</v>
       </c>
       <c r="D162" s="7">
-        <v>22.7</v>
+        <v>8</v>
       </c>
       <c r="E162" s="7">
         <v>10</v>
@@ -6723,10 +6793,10 @@
         <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>1.61</v>
+        <v>5.04</v>
       </c>
       <c r="D163" s="7">
-        <v>8</v>
+        <v>25.437</v>
       </c>
       <c r="E163" s="7">
         <v>10</v>
@@ -6748,10 +6818,10 @@
         <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>2.82</v>
+        <v>4.29</v>
       </c>
       <c r="D164" s="7">
-        <v>12.718</v>
+        <v>22.7</v>
       </c>
       <c r="E164" s="7">
         <v>10</v>
@@ -6773,10 +6843,10 @@
         <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>2.51</v>
+        <v>1.61</v>
       </c>
       <c r="D165" s="7">
-        <v>12.718</v>
+        <v>8</v>
       </c>
       <c r="E165" s="7">
         <v>10</v>
@@ -6798,7 +6868,7 @@
         <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>3.56</v>
+        <v>2.82</v>
       </c>
       <c r="D166" s="7">
         <v>12.718</v>
@@ -6823,10 +6893,10 @@
         <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>2.8</v>
+        <v>2.51</v>
       </c>
       <c r="D167" s="7">
-        <v>14.231</v>
+        <v>12.718</v>
       </c>
       <c r="E167" s="7">
         <v>10</v>
@@ -6848,10 +6918,10 @@
         <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>6.26</v>
+        <v>3.56</v>
       </c>
       <c r="D168" s="7">
-        <v>33.032</v>
+        <v>12.718</v>
       </c>
       <c r="E168" s="7">
         <v>10</v>
@@ -6873,10 +6943,10 @@
         <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>7.37</v>
+        <v>2.8</v>
       </c>
       <c r="D169" s="7">
-        <v>37.601</v>
+        <v>14.231</v>
       </c>
       <c r="E169" s="7">
         <v>10</v>
@@ -6898,10 +6968,10 @@
         <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>9.619999999999999</v>
+        <v>6.26</v>
       </c>
       <c r="D170" s="7">
-        <v>47.263</v>
+        <v>33.032</v>
       </c>
       <c r="E170" s="7">
         <v>10</v>
@@ -6923,10 +6993,10 @@
         <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>6.12</v>
+        <v>7.37</v>
       </c>
       <c r="D171" s="7">
-        <v>31.159</v>
+        <v>37.601</v>
       </c>
       <c r="E171" s="7">
         <v>10</v>
@@ -6948,10 +7018,10 @@
         <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>2.89</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D172" s="7">
-        <v>14.231</v>
+        <v>47.263</v>
       </c>
       <c r="E172" s="7">
         <v>10</v>
@@ -6973,10 +7043,10 @@
         <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>9.69</v>
+        <v>6.12</v>
       </c>
       <c r="D173" s="7">
-        <v>50.484</v>
+        <v>31.159</v>
       </c>
       <c r="E173" s="7">
         <v>10</v>
@@ -6998,10 +7068,10 @@
         <v>354</v>
       </c>
       <c r="C174" s="7">
-        <v>9.69</v>
+        <v>2.89</v>
       </c>
       <c r="D174" s="7">
-        <v>50.484</v>
+        <v>14.231</v>
       </c>
       <c r="E174" s="7">
         <v>10</v>
@@ -7023,10 +7093,10 @@
         <v>356</v>
       </c>
       <c r="C175" s="7">
-        <v>13.27</v>
+        <v>9.69</v>
       </c>
       <c r="D175" s="7">
-        <v>63.368</v>
+        <v>50.484</v>
       </c>
       <c r="E175" s="7">
         <v>10</v>
@@ -7048,13 +7118,13 @@
         <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>0.47</v>
+        <v>9.69</v>
       </c>
       <c r="D176" s="7">
-        <v>1.5</v>
+        <v>50.484</v>
       </c>
       <c r="E176" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F176" s="7">
         <v>1</v>
@@ -7073,13 +7143,13 @@
         <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>0.5600000000000001</v>
+        <v>13.27</v>
       </c>
       <c r="D177" s="7">
-        <v>1.2</v>
+        <v>63.368</v>
       </c>
       <c r="E177" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F177" s="7">
         <v>1</v>
@@ -7098,19 +7168,19 @@
         <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>15.61</v>
+        <v>0.47</v>
       </c>
       <c r="D178" s="7">
-        <v>58.927</v>
+        <v>1.5</v>
       </c>
       <c r="E178" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F178" s="7">
         <v>1</v>
       </c>
       <c r="G178" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
@@ -7123,19 +7193,19 @@
         <v>364</v>
       </c>
       <c r="C179" s="7">
-        <v>5.82</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D179" s="7">
-        <v>22.042</v>
+        <v>1.2</v>
       </c>
       <c r="E179" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F179" s="7">
         <v>1</v>
       </c>
       <c r="G179" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
@@ -7148,19 +7218,19 @@
         <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>24.28</v>
+        <v>15.61</v>
       </c>
       <c r="D180" s="7">
-        <v>14.652</v>
+        <v>58.927</v>
       </c>
       <c r="E180" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F180" s="7">
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -7173,19 +7243,19 @@
         <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>7.76</v>
+        <v>5.82</v>
       </c>
       <c r="D181" s="7">
-        <v>2.2</v>
+        <v>22.042</v>
       </c>
       <c r="E181" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F181" s="7">
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
@@ -7198,13 +7268,13 @@
         <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>16.45</v>
+        <v>24.28</v>
       </c>
       <c r="D182" s="7">
-        <v>49.362</v>
+        <v>14.652</v>
       </c>
       <c r="E182" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
@@ -7223,13 +7293,13 @@
         <v>372</v>
       </c>
       <c r="C183" s="7">
-        <v>3.59</v>
+        <v>7.76</v>
       </c>
       <c r="D183" s="7">
-        <v>20</v>
+        <v>2.2</v>
       </c>
       <c r="E183" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F183" s="7">
         <v>1</v>
@@ -7248,19 +7318,19 @@
         <v>374</v>
       </c>
       <c r="C184" s="7">
-        <v>21.78</v>
+        <v>16.45</v>
       </c>
       <c r="D184" s="7">
-        <v>12.128</v>
+        <v>49.362</v>
       </c>
       <c r="E184" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F184" s="7">
         <v>1</v>
       </c>
       <c r="G184" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
@@ -7273,13 +7343,13 @@
         <v>376</v>
       </c>
       <c r="C185" s="7">
-        <v>23.37</v>
+        <v>3.59</v>
       </c>
       <c r="D185" s="7">
-        <v>24.4</v>
+        <v>20</v>
       </c>
       <c r="E185" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F185" s="7">
         <v>1</v>
@@ -7298,13 +7368,13 @@
         <v>378</v>
       </c>
       <c r="C186" s="7">
-        <v>5.03</v>
+        <v>21.78</v>
       </c>
       <c r="D186" s="7">
-        <v>40</v>
+        <v>12.128</v>
       </c>
       <c r="E186" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F186" s="7">
         <v>1</v>
@@ -7323,13 +7393,13 @@
         <v>380</v>
       </c>
       <c r="C187" s="7">
-        <v>1.49</v>
+        <v>23.37</v>
       </c>
       <c r="D187" s="7">
-        <v>7</v>
+        <v>24.4</v>
       </c>
       <c r="E187" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F187" s="7">
         <v>1</v>
@@ -7348,13 +7418,13 @@
         <v>382</v>
       </c>
       <c r="C188" s="7">
-        <v>0.31</v>
+        <v>4.12</v>
       </c>
       <c r="D188" s="7">
-        <v>1.2</v>
+        <v>45.8</v>
       </c>
       <c r="E188" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F188" s="7">
         <v>1</v>
@@ -7373,10 +7443,10 @@
         <v>384</v>
       </c>
       <c r="C189" s="7">
-        <v>7.19</v>
+        <v>5.03</v>
       </c>
       <c r="D189" s="7">
-        <v>9.5</v>
+        <v>40</v>
       </c>
       <c r="E189" s="7">
         <v>6</v>
@@ -7398,13 +7468,13 @@
         <v>386</v>
       </c>
       <c r="C190" s="7">
-        <v>54.05</v>
+        <v>1.49</v>
       </c>
       <c r="D190" s="7">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E190" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F190" s="7">
         <v>1</v>
@@ -7423,26 +7493,22 @@
         <v>388</v>
       </c>
       <c r="C191" s="7">
-        <v>167.31</v>
+        <v>0.31</v>
       </c>
       <c r="D191" s="7">
-        <v>485</v>
+        <v>1.2</v>
       </c>
       <c r="E191" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F191" s="7">
         <v>1</v>
       </c>
       <c r="G191" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H191" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I191" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
     </row>
     <row r="192" ht="13.55" customHeight="1">
       <c r="A192" t="s" s="6">
@@ -7452,26 +7518,22 @@
         <v>390</v>
       </c>
       <c r="C192" s="7">
-        <v>43.47</v>
+        <v>7.19</v>
       </c>
       <c r="D192" s="7">
-        <v>118.61</v>
+        <v>9.5</v>
       </c>
       <c r="E192" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F192" s="7">
         <v>1</v>
       </c>
       <c r="G192" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H192" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I192" s="7">
-        <v>0.18</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
     </row>
     <row r="193" ht="13.55" customHeight="1">
       <c r="A193" t="s" s="6">
@@ -7481,10 +7543,10 @@
         <v>392</v>
       </c>
       <c r="C193" s="7">
-        <v>99.67</v>
+        <v>54.05</v>
       </c>
       <c r="D193" s="7">
-        <v>118.61</v>
+        <v>170</v>
       </c>
       <c r="E193" s="7">
         <v>12</v>
@@ -7493,14 +7555,10 @@
         <v>1</v>
       </c>
       <c r="G193" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H193" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I193" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
     </row>
     <row r="194" ht="13.55" customHeight="1">
       <c r="A194" t="s" s="6">
@@ -7510,10 +7568,10 @@
         <v>394</v>
       </c>
       <c r="C194" s="7">
-        <v>34.58</v>
+        <v>132.21</v>
       </c>
       <c r="D194" s="7">
-        <v>104.31</v>
+        <v>381</v>
       </c>
       <c r="E194" s="7">
         <v>12</v>
@@ -7522,14 +7580,10 @@
         <v>1</v>
       </c>
       <c r="G194" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H194" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I194" s="7">
         <v>0.1</v>
       </c>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
     </row>
     <row r="195" ht="13.55" customHeight="1">
       <c r="A195" t="s" s="6">
@@ -7539,10 +7593,10 @@
         <v>396</v>
       </c>
       <c r="C195" s="7">
-        <v>45.49</v>
+        <v>104.5</v>
       </c>
       <c r="D195" s="7">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="E195" s="7">
         <v>12</v>
@@ -7551,14 +7605,10 @@
         <v>1</v>
       </c>
       <c r="G195" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H195" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I195" s="7">
-        <v>0.26</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H195" s="8"/>
+      <c r="I195" s="8"/>
     </row>
     <row r="196" ht="13.55" customHeight="1">
       <c r="A196" t="s" s="6">
@@ -7568,26 +7618,22 @@
         <v>398</v>
       </c>
       <c r="C196" s="7">
-        <v>194.66</v>
+        <v>2.21</v>
       </c>
       <c r="D196" s="7">
-        <v>561.2</v>
+        <v>2</v>
       </c>
       <c r="E196" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F196" s="7">
         <v>1</v>
       </c>
       <c r="G196" s="7">
-        <v>3</v>
-      </c>
-      <c r="H196" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I196" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H196" s="8"/>
+      <c r="I196" s="8"/>
     </row>
     <row r="197" ht="13.55" customHeight="1">
       <c r="A197" t="s" s="6">
@@ -7597,10 +7643,10 @@
         <v>400</v>
       </c>
       <c r="C197" s="7">
-        <v>321.56</v>
+        <v>0.58</v>
       </c>
       <c r="D197" s="7">
-        <v>850.95</v>
+        <v>2</v>
       </c>
       <c r="E197" s="7">
         <v>12</v>
@@ -7609,14 +7655,10 @@
         <v>1</v>
       </c>
       <c r="G197" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H197" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I197" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
     </row>
     <row r="198" ht="13.55" customHeight="1">
       <c r="A198" t="s" s="6">
@@ -7626,26 +7668,22 @@
         <v>402</v>
       </c>
       <c r="C198" s="7">
-        <v>28.94</v>
+        <v>1.22</v>
       </c>
       <c r="D198" s="7">
-        <v>24.88</v>
+        <v>1.5</v>
       </c>
       <c r="E198" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F198" s="7">
         <v>1</v>
       </c>
       <c r="G198" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H198" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I198" s="7">
-        <v>0.35</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
     </row>
     <row r="199" ht="13.55" customHeight="1">
       <c r="A199" t="s" s="6">
@@ -7655,26 +7693,22 @@
         <v>404</v>
       </c>
       <c r="C199" s="7">
-        <v>43.34</v>
+        <v>29.52</v>
       </c>
       <c r="D199" s="7">
-        <v>24.18</v>
+        <v>173.871</v>
       </c>
       <c r="E199" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F199" s="7">
         <v>1</v>
       </c>
       <c r="G199" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H199" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I199" s="7">
-        <v>0.58</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
     </row>
     <row r="200" ht="13.55" customHeight="1">
       <c r="A200" t="s" s="6">
@@ -7684,26 +7718,22 @@
         <v>406</v>
       </c>
       <c r="C200" s="7">
-        <v>19.21</v>
+        <v>22.61</v>
       </c>
       <c r="D200" s="7">
-        <v>5</v>
+        <v>20.64</v>
       </c>
       <c r="E200" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F200" s="7">
         <v>1</v>
       </c>
       <c r="G200" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H200" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I200" s="7">
-        <v>0.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
     </row>
     <row r="201" ht="13.55" customHeight="1">
       <c r="A201" t="s" s="6">
@@ -7713,26 +7743,22 @@
         <v>408</v>
       </c>
       <c r="C201" s="7">
-        <v>195.6</v>
+        <v>6.14</v>
       </c>
       <c r="D201" s="7">
-        <v>17</v>
+        <v>24.5</v>
       </c>
       <c r="E201" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F201" s="7">
         <v>1</v>
       </c>
       <c r="G201" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H201" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I201" s="7">
-        <v>3.16</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
     </row>
     <row r="202" ht="13.55" customHeight="1">
       <c r="A202" t="s" s="6">
@@ -7742,26 +7768,22 @@
         <v>410</v>
       </c>
       <c r="C202" s="7">
-        <v>31.58</v>
+        <v>8.32</v>
       </c>
       <c r="D202" s="7">
-        <v>145.52</v>
+        <v>5</v>
       </c>
       <c r="E202" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F202" s="7">
         <v>1</v>
       </c>
       <c r="G202" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H202" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I202" s="7">
-        <v>-6.3</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H202" s="8"/>
+      <c r="I202" s="8"/>
     </row>
     <row r="203" ht="13.55" customHeight="1">
       <c r="A203" t="s" s="6">
@@ -7771,26 +7793,22 @@
         <v>412</v>
       </c>
       <c r="C203" s="7">
-        <v>34.53</v>
+        <v>3.77</v>
       </c>
       <c r="D203" s="7">
-        <v>12.17</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E203" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F203" s="7">
         <v>1</v>
       </c>
       <c r="G203" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="H203" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I203" s="7">
-        <v>-0.28</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
     </row>
     <row r="204" ht="13.55" customHeight="1">
       <c r="A204" t="s" s="6">
@@ -7800,10 +7818,10 @@
         <v>414</v>
       </c>
       <c r="C204" s="7">
-        <v>9.35</v>
+        <v>167.31</v>
       </c>
       <c r="D204" s="7">
-        <v>30</v>
+        <v>485</v>
       </c>
       <c r="E204" s="7">
         <v>12</v>
@@ -7812,10 +7830,387 @@
         <v>1</v>
       </c>
       <c r="G204" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="H204" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I204" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="205" ht="13.55" customHeight="1">
+      <c r="A205" t="s" s="6">
+        <v>415</v>
+      </c>
+      <c r="B205" t="s" s="6">
+        <v>416</v>
+      </c>
+      <c r="C205" s="7">
+        <v>43.47</v>
+      </c>
+      <c r="D205" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E205" s="7">
+        <v>12</v>
+      </c>
+      <c r="F205" s="7">
+        <v>1</v>
+      </c>
+      <c r="G205" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H205" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I205" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="206" ht="13.55" customHeight="1">
+      <c r="A206" t="s" s="6">
+        <v>417</v>
+      </c>
+      <c r="B206" t="s" s="6">
+        <v>418</v>
+      </c>
+      <c r="C206" s="7">
+        <v>99.67</v>
+      </c>
+      <c r="D206" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E206" s="7">
+        <v>12</v>
+      </c>
+      <c r="F206" s="7">
+        <v>1</v>
+      </c>
+      <c r="G206" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H206" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I206" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="207" ht="13.55" customHeight="1">
+      <c r="A207" t="s" s="6">
+        <v>419</v>
+      </c>
+      <c r="B207" t="s" s="6">
+        <v>420</v>
+      </c>
+      <c r="C207" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D207" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E207" s="7">
+        <v>12</v>
+      </c>
+      <c r="F207" s="7">
+        <v>1</v>
+      </c>
+      <c r="G207" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H207" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I207" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="208" ht="13.55" customHeight="1">
+      <c r="A208" t="s" s="6">
+        <v>421</v>
+      </c>
+      <c r="B208" t="s" s="6">
+        <v>422</v>
+      </c>
+      <c r="C208" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D208" s="7">
+        <v>110</v>
+      </c>
+      <c r="E208" s="7">
+        <v>12</v>
+      </c>
+      <c r="F208" s="7">
+        <v>1</v>
+      </c>
+      <c r="G208" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H208" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I208" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="209" ht="13.55" customHeight="1">
+      <c r="A209" t="s" s="6">
+        <v>423</v>
+      </c>
+      <c r="B209" t="s" s="6">
+        <v>424</v>
+      </c>
+      <c r="C209" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D209" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E209" s="7">
+        <v>12</v>
+      </c>
+      <c r="F209" s="7">
+        <v>1</v>
+      </c>
+      <c r="G209" s="7">
+        <v>3</v>
+      </c>
+      <c r="H209" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I209" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="210" ht="13.55" customHeight="1">
+      <c r="A210" t="s" s="6">
+        <v>425</v>
+      </c>
+      <c r="B210" t="s" s="6">
+        <v>426</v>
+      </c>
+      <c r="C210" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D210" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E210" s="7">
+        <v>12</v>
+      </c>
+      <c r="F210" s="7">
+        <v>1</v>
+      </c>
+      <c r="G210" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H210" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I210" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="211" ht="13.55" customHeight="1">
+      <c r="A211" t="s" s="6">
+        <v>427</v>
+      </c>
+      <c r="B211" t="s" s="6">
+        <v>428</v>
+      </c>
+      <c r="C211" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D211" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E211" s="7">
+        <v>20</v>
+      </c>
+      <c r="F211" s="7">
+        <v>1</v>
+      </c>
+      <c r="G211" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H211" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I211" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="212" ht="13.55" customHeight="1">
+      <c r="A212" t="s" s="6">
+        <v>429</v>
+      </c>
+      <c r="B212" t="s" s="6">
+        <v>430</v>
+      </c>
+      <c r="C212" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D212" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E212" s="7">
+        <v>25</v>
+      </c>
+      <c r="F212" s="7">
+        <v>1</v>
+      </c>
+      <c r="G212" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H212" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I212" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="213" ht="13.55" customHeight="1">
+      <c r="A213" t="s" s="6">
+        <v>431</v>
+      </c>
+      <c r="B213" t="s" s="6">
+        <v>432</v>
+      </c>
+      <c r="C213" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D213" s="7">
+        <v>5</v>
+      </c>
+      <c r="E213" s="7">
+        <v>32</v>
+      </c>
+      <c r="F213" s="7">
+        <v>1</v>
+      </c>
+      <c r="G213" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H213" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I213" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="214" ht="13.55" customHeight="1">
+      <c r="A214" t="s" s="6">
+        <v>433</v>
+      </c>
+      <c r="B214" t="s" s="6">
+        <v>434</v>
+      </c>
+      <c r="C214" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D214" s="7">
+        <v>17</v>
+      </c>
+      <c r="E214" s="7">
+        <v>32</v>
+      </c>
+      <c r="F214" s="7">
+        <v>1</v>
+      </c>
+      <c r="G214" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H214" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I214" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="215" ht="13.55" customHeight="1">
+      <c r="A215" t="s" s="6">
+        <v>435</v>
+      </c>
+      <c r="B215" t="s" s="6">
+        <v>436</v>
+      </c>
+      <c r="C215" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D215" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E215" s="7">
+        <v>10</v>
+      </c>
+      <c r="F215" s="7">
+        <v>1</v>
+      </c>
+      <c r="G215" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H215" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I215" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="216" ht="13.55" customHeight="1">
+      <c r="A216" t="s" s="6">
+        <v>437</v>
+      </c>
+      <c r="B216" t="s" s="6">
+        <v>438</v>
+      </c>
+      <c r="C216" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D216" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E216" s="7">
+        <v>25</v>
+      </c>
+      <c r="F216" s="7">
+        <v>1</v>
+      </c>
+      <c r="G216" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H216" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I216" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="217" ht="13.55" customHeight="1">
+      <c r="A217" t="s" s="6">
+        <v>439</v>
+      </c>
+      <c r="B217" t="s" s="6">
+        <v>440</v>
+      </c>
+      <c r="C217" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="D217" s="7">
+        <v>30</v>
+      </c>
+      <c r="E217" s="7">
+        <v>12</v>
+      </c>
+      <c r="F217" s="7">
+        <v>1</v>
+      </c>
+      <c r="G217" s="7">
         <v>0.6</v>
       </c>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
   <si>
     <t>timestamp</t>
   </si>
@@ -46,12 +46,6 @@
     <t>01254.slp</t>
   </si>
   <si>
-    <t>2024-08-20 13:16:52</t>
-  </si>
-  <si>
-    <t>02552.NC</t>
-  </si>
-  <si>
     <t>2024-08-23 08:37:26</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
+    <t>2024-08-05 11:08:30</t>
+  </si>
+  <si>
+    <t>CORTE ESPECIAL.slp</t>
+  </si>
+  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -1186,6 +1186,18 @@
     <t>L_03256.NC</t>
   </si>
   <si>
+    <t>2024-08-26 15:58:10</t>
+  </si>
+  <si>
+    <t>L_03269.NC</t>
+  </si>
+  <si>
+    <t>2024-08-27 07:55:46</t>
+  </si>
+  <si>
+    <t>L_03270.NC</t>
+  </si>
+  <si>
     <t>2024-08-21 16:06:48</t>
   </si>
   <si>
@@ -1210,6 +1222,18 @@
     <t>L_03305.NC</t>
   </si>
   <si>
+    <t>2024-08-23 14:25:47</t>
+  </si>
+  <si>
+    <t>L_03306.NC</t>
+  </si>
+  <si>
+    <t>2024-08-23 14:03:59</t>
+  </si>
+  <si>
+    <t>L_03307.NC</t>
+  </si>
+  <si>
     <t>2024-08-23 08:25:57</t>
   </si>
   <si>
@@ -1222,6 +1246,18 @@
     <t>L_03309.NC</t>
   </si>
   <si>
+    <t>2024-08-23 09:29:19</t>
+  </si>
+  <si>
+    <t>L_03311.NC</t>
+  </si>
+  <si>
+    <t>2024-08-23 09:10:57</t>
+  </si>
+  <si>
+    <t>L_03312.NC</t>
+  </si>
+  <si>
     <t>2024-08-26 08:20:02</t>
   </si>
   <si>
@@ -1250,6 +1286,36 @@
   </si>
   <si>
     <t>L_03416.NC</t>
+  </si>
+  <si>
+    <t>2024-08-28 15:14:56</t>
+  </si>
+  <si>
+    <t>L_03422.NC</t>
+  </si>
+  <si>
+    <t>2024-08-27 12:42:31</t>
+  </si>
+  <si>
+    <t>L_03424.NC</t>
+  </si>
+  <si>
+    <t>2024-08-28 16:47:19</t>
+  </si>
+  <si>
+    <t>L_03433.NC</t>
+  </si>
+  <si>
+    <t>2024-08-28 13:27:20</t>
+  </si>
+  <si>
+    <t>L_03439.NC</t>
+  </si>
+  <si>
+    <t>2024-08-28 13:23:31</t>
+  </si>
+  <si>
+    <t>L_03478.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -2577,15 +2643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I217"/>
+  <dimension ref="A1:I228"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.9531" style="1" customWidth="1"/>
-    <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2651,12 +2715,20 @@
         <v>12</v>
       </c>
       <c r="C3" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+        <v>2.12</v>
+      </c>
+      <c r="D3" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.2</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
@@ -2668,22 +2740,26 @@
         <v>14</v>
       </c>
       <c r="C4" s="7">
-        <v>2.12</v>
+        <v>146.86</v>
       </c>
       <c r="D4" s="7">
-        <v>12.2</v>
+        <v>420.79</v>
       </c>
       <c r="E4" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+        <v>1.98</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2.45</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="6">
@@ -2693,10 +2769,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>146.86</v>
+        <v>235.62</v>
       </c>
       <c r="D5" s="7">
-        <v>420.79</v>
+        <v>866.7</v>
       </c>
       <c r="E5" s="7">
         <v>12</v>
@@ -2705,13 +2781,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
       <c r="H5" s="7">
-        <v>2.45</v>
+        <v>3.93</v>
       </c>
       <c r="I5" s="7">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -2722,10 +2798,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="7">
-        <v>235.62</v>
+        <v>330.88</v>
       </c>
       <c r="D6" s="7">
-        <v>866.7</v>
+        <v>971.88</v>
       </c>
       <c r="E6" s="7">
         <v>12</v>
@@ -2734,13 +2810,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="H6" s="7">
-        <v>3.93</v>
+        <v>5.52</v>
       </c>
       <c r="I6" s="7">
-        <v>0.63</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -2751,25 +2827,25 @@
         <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>330.88</v>
+        <v>14.42</v>
       </c>
       <c r="D7" s="7">
-        <v>971.88</v>
+        <v>67</v>
       </c>
       <c r="E7" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>3.57</v>
+        <v>1.93</v>
       </c>
       <c r="H7" s="7">
-        <v>5.52</v>
+        <v>0.25</v>
       </c>
       <c r="I7" s="7">
-        <v>1.95</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -2780,10 +2856,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>14.42</v>
+        <v>3.32</v>
       </c>
       <c r="D8" s="7">
-        <v>67</v>
+        <v>6.7</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -2792,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>1.93</v>
+        <v>0.02</v>
       </c>
       <c r="H8" s="7">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I8" s="7">
-        <v>-1.68</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -2809,25 +2885,25 @@
         <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>3.32</v>
+        <v>0.92</v>
       </c>
       <c r="D9" s="7">
-        <v>6.7</v>
+        <v>3.03</v>
       </c>
       <c r="E9" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="7">
         <v>0.02</v>
       </c>
-      <c r="H9" s="7">
-        <v>0.06</v>
-      </c>
       <c r="I9" s="7">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
@@ -2838,13 +2914,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="D10" s="7">
-        <v>3.03</v>
+        <v>5.59</v>
       </c>
       <c r="E10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -2867,25 +2943,25 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>1.18</v>
+        <v>158.01</v>
       </c>
       <c r="D11" s="7">
-        <v>5.59</v>
+        <v>456.43</v>
       </c>
       <c r="E11" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>0.01</v>
+        <v>2.67</v>
       </c>
       <c r="H11" s="7">
-        <v>0.02</v>
+        <v>2.64</v>
       </c>
       <c r="I11" s="7">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
@@ -2896,10 +2972,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>158.01</v>
+        <v>209.33</v>
       </c>
       <c r="D12" s="7">
-        <v>456.43</v>
+        <v>937</v>
       </c>
       <c r="E12" s="7">
         <v>12</v>
@@ -2908,13 +2984,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>2.67</v>
+        <v>5.17</v>
       </c>
       <c r="H12" s="7">
-        <v>2.64</v>
+        <v>3.49</v>
       </c>
       <c r="I12" s="7">
-        <v>-0.03</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
@@ -2925,10 +3001,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>209.33</v>
+        <v>161.87</v>
       </c>
       <c r="D13" s="7">
-        <v>937</v>
+        <v>451</v>
       </c>
       <c r="E13" s="7">
         <v>12</v>
@@ -2937,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="7">
-        <v>5.17</v>
+        <v>2.48</v>
       </c>
       <c r="H13" s="7">
-        <v>3.49</v>
+        <v>2.7</v>
       </c>
       <c r="I13" s="7">
-        <v>-1.68</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -2954,25 +3030,25 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>161.87</v>
+        <v>206.06</v>
       </c>
       <c r="D14" s="7">
-        <v>451</v>
+        <v>193.49</v>
       </c>
       <c r="E14" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>2.48</v>
+        <v>5.8</v>
       </c>
       <c r="H14" s="7">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="I14" s="7">
-        <v>-0.22</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
@@ -2983,10 +3059,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="7">
-        <v>206.06</v>
+        <v>273.9</v>
       </c>
       <c r="D15" s="7">
-        <v>193.49</v>
+        <v>219.37</v>
       </c>
       <c r="E15" s="7">
         <v>16</v>
@@ -2995,13 +3071,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H15" s="7">
-        <v>3.44</v>
+        <v>4.57</v>
       </c>
       <c r="I15" s="7">
-        <v>-2.36</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
@@ -3012,25 +3088,25 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>273.9</v>
+        <v>17.87</v>
       </c>
       <c r="D16" s="7">
-        <v>219.37</v>
+        <v>78.2</v>
       </c>
       <c r="E16" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H16" s="7">
-        <v>4.57</v>
+        <v>0.3</v>
       </c>
       <c r="I16" s="7">
-        <v>-2.03</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -3041,10 +3117,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>17.87</v>
+        <v>4.87</v>
       </c>
       <c r="D17" s="7">
-        <v>78.2</v>
+        <v>30</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -3053,13 +3129,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>2.3</v>
+        <v>0.87</v>
       </c>
       <c r="H17" s="7">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="I17" s="7">
-        <v>-2</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -3070,10 +3146,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="7">
-        <v>4.87</v>
+        <v>5.55</v>
       </c>
       <c r="D18" s="7">
-        <v>30</v>
+        <v>34.25</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
@@ -3082,13 +3158,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I18" s="7">
-        <v>-0.78</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -3099,10 +3175,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="7">
-        <v>5.55</v>
+        <v>5.66</v>
       </c>
       <c r="D19" s="7">
-        <v>34.25</v>
+        <v>27.37</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -3111,13 +3187,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H19" s="7">
         <v>0.1</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
@@ -3128,26 +3204,14 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>5.66</v>
-      </c>
-      <c r="D20" s="7">
-        <v>27.37</v>
-      </c>
-      <c r="E20" s="7">
-        <v>3</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>-0.7</v>
-      </c>
+        <v>71.91</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -7543,10 +7607,10 @@
         <v>392</v>
       </c>
       <c r="C193" s="7">
-        <v>54.05</v>
+        <v>70.06</v>
       </c>
       <c r="D193" s="7">
-        <v>170</v>
+        <v>196.686</v>
       </c>
       <c r="E193" s="7">
         <v>12</v>
@@ -7555,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
@@ -7568,10 +7632,10 @@
         <v>394</v>
       </c>
       <c r="C194" s="7">
-        <v>132.21</v>
+        <v>111.05</v>
       </c>
       <c r="D194" s="7">
-        <v>381</v>
+        <v>318.558</v>
       </c>
       <c r="E194" s="7">
         <v>12</v>
@@ -7580,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="7">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
@@ -7593,10 +7657,10 @@
         <v>396</v>
       </c>
       <c r="C195" s="7">
-        <v>104.5</v>
+        <v>54.05</v>
       </c>
       <c r="D195" s="7">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="E195" s="7">
         <v>12</v>
@@ -7618,13 +7682,13 @@
         <v>398</v>
       </c>
       <c r="C196" s="7">
-        <v>2.21</v>
+        <v>132.21</v>
       </c>
       <c r="D196" s="7">
-        <v>2</v>
+        <v>381</v>
       </c>
       <c r="E196" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F196" s="7">
         <v>1</v>
@@ -7643,10 +7707,10 @@
         <v>400</v>
       </c>
       <c r="C197" s="7">
-        <v>0.58</v>
+        <v>104.5</v>
       </c>
       <c r="D197" s="7">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="E197" s="7">
         <v>12</v>
@@ -7668,13 +7732,13 @@
         <v>402</v>
       </c>
       <c r="C198" s="7">
-        <v>1.22</v>
+        <v>2.21</v>
       </c>
       <c r="D198" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E198" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F198" s="7">
         <v>1</v>
@@ -7693,10 +7757,10 @@
         <v>404</v>
       </c>
       <c r="C199" s="7">
-        <v>29.52</v>
+        <v>1.76</v>
       </c>
       <c r="D199" s="7">
-        <v>173.871</v>
+        <v>4</v>
       </c>
       <c r="E199" s="7">
         <v>8</v>
@@ -7705,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
@@ -7718,10 +7782,10 @@
         <v>406</v>
       </c>
       <c r="C200" s="7">
-        <v>22.61</v>
+        <v>1.26</v>
       </c>
       <c r="D200" s="7">
-        <v>20.64</v>
+        <v>7</v>
       </c>
       <c r="E200" s="7">
         <v>10</v>
@@ -7730,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="G200" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
@@ -7743,19 +7807,19 @@
         <v>408</v>
       </c>
       <c r="C201" s="7">
-        <v>6.14</v>
+        <v>0.58</v>
       </c>
       <c r="D201" s="7">
-        <v>24.5</v>
+        <v>2</v>
       </c>
       <c r="E201" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F201" s="7">
         <v>1</v>
       </c>
       <c r="G201" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
@@ -7768,13 +7832,13 @@
         <v>410</v>
       </c>
       <c r="C202" s="7">
-        <v>8.32</v>
+        <v>1.22</v>
       </c>
       <c r="D202" s="7">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E202" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F202" s="7">
         <v>1</v>
@@ -7793,13 +7857,13 @@
         <v>412</v>
       </c>
       <c r="C203" s="7">
-        <v>3.77</v>
+        <v>68.98</v>
       </c>
       <c r="D203" s="7">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="E203" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F203" s="7">
         <v>1</v>
@@ -7818,26 +7882,22 @@
         <v>414</v>
       </c>
       <c r="C204" s="7">
-        <v>167.31</v>
+        <v>2.26</v>
       </c>
       <c r="D204" s="7">
-        <v>485</v>
+        <v>0.4</v>
       </c>
       <c r="E204" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F204" s="7">
         <v>1</v>
       </c>
       <c r="G204" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H204" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I204" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
     </row>
     <row r="205" ht="13.55" customHeight="1">
       <c r="A205" t="s" s="6">
@@ -7847,26 +7907,22 @@
         <v>416</v>
       </c>
       <c r="C205" s="7">
-        <v>43.47</v>
+        <v>29.52</v>
       </c>
       <c r="D205" s="7">
-        <v>118.61</v>
+        <v>173.871</v>
       </c>
       <c r="E205" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F205" s="7">
         <v>1</v>
       </c>
       <c r="G205" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H205" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I205" s="7">
-        <v>0.18</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
     </row>
     <row r="206" ht="13.55" customHeight="1">
       <c r="A206" t="s" s="6">
@@ -7876,26 +7932,22 @@
         <v>418</v>
       </c>
       <c r="C206" s="7">
-        <v>99.67</v>
+        <v>22.61</v>
       </c>
       <c r="D206" s="7">
-        <v>118.61</v>
+        <v>20.64</v>
       </c>
       <c r="E206" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F206" s="7">
         <v>1</v>
       </c>
       <c r="G206" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H206" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I206" s="7">
-        <v>1.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
     </row>
     <row r="207" ht="13.55" customHeight="1">
       <c r="A207" t="s" s="6">
@@ -7905,26 +7957,22 @@
         <v>420</v>
       </c>
       <c r="C207" s="7">
-        <v>34.58</v>
+        <v>6.14</v>
       </c>
       <c r="D207" s="7">
-        <v>104.31</v>
+        <v>24.5</v>
       </c>
       <c r="E207" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F207" s="7">
         <v>1</v>
       </c>
       <c r="G207" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H207" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I207" s="7">
-        <v>0.1</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="H207" s="8"/>
+      <c r="I207" s="8"/>
     </row>
     <row r="208" ht="13.55" customHeight="1">
       <c r="A208" t="s" s="6">
@@ -7934,26 +7982,22 @@
         <v>422</v>
       </c>
       <c r="C208" s="7">
-        <v>45.49</v>
+        <v>8.32</v>
       </c>
       <c r="D208" s="7">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="E208" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F208" s="7">
         <v>1</v>
       </c>
       <c r="G208" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H208" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I208" s="7">
-        <v>0.26</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
     </row>
     <row r="209" ht="13.55" customHeight="1">
       <c r="A209" t="s" s="6">
@@ -7963,26 +8007,22 @@
         <v>424</v>
       </c>
       <c r="C209" s="7">
-        <v>194.66</v>
+        <v>3.77</v>
       </c>
       <c r="D209" s="7">
-        <v>561.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E209" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F209" s="7">
         <v>1</v>
       </c>
       <c r="G209" s="7">
-        <v>3</v>
-      </c>
-      <c r="H209" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I209" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
     </row>
     <row r="210" ht="13.55" customHeight="1">
       <c r="A210" t="s" s="6">
@@ -7992,26 +8032,22 @@
         <v>426</v>
       </c>
       <c r="C210" s="7">
-        <v>321.56</v>
+        <v>74.28</v>
       </c>
       <c r="D210" s="7">
-        <v>850.95</v>
+        <v>347.345</v>
       </c>
       <c r="E210" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F210" s="7">
         <v>1</v>
       </c>
       <c r="G210" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H210" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I210" s="7">
-        <v>1.12</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
     </row>
     <row r="211" ht="13.55" customHeight="1">
       <c r="A211" t="s" s="6">
@@ -8021,10 +8057,10 @@
         <v>428</v>
       </c>
       <c r="C211" s="7">
-        <v>28.94</v>
+        <v>226.02</v>
       </c>
       <c r="D211" s="7">
-        <v>24.88</v>
+        <v>87.117</v>
       </c>
       <c r="E211" s="7">
         <v>20</v>
@@ -8033,14 +8069,10 @@
         <v>1</v>
       </c>
       <c r="G211" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H211" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I211" s="7">
-        <v>0.35</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
     </row>
     <row r="212" ht="13.55" customHeight="1">
       <c r="A212" t="s" s="6">
@@ -8050,26 +8082,22 @@
         <v>430</v>
       </c>
       <c r="C212" s="7">
-        <v>43.34</v>
+        <v>4.17</v>
       </c>
       <c r="D212" s="7">
-        <v>24.18</v>
+        <v>20.68</v>
       </c>
       <c r="E212" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F212" s="7">
         <v>1</v>
       </c>
       <c r="G212" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H212" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I212" s="7">
-        <v>0.58</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
     </row>
     <row r="213" ht="13.55" customHeight="1">
       <c r="A213" t="s" s="6">
@@ -8079,26 +8107,22 @@
         <v>432</v>
       </c>
       <c r="C213" s="7">
-        <v>19.21</v>
+        <v>52.8</v>
       </c>
       <c r="D213" s="7">
-        <v>5</v>
+        <v>34.621</v>
       </c>
       <c r="E213" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F213" s="7">
         <v>1</v>
       </c>
       <c r="G213" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H213" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I213" s="7">
-        <v>0.03</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
     </row>
     <row r="214" ht="13.55" customHeight="1">
       <c r="A214" t="s" s="6">
@@ -8108,26 +8132,22 @@
         <v>434</v>
       </c>
       <c r="C214" s="7">
-        <v>195.6</v>
+        <v>0.96</v>
       </c>
       <c r="D214" s="7">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="E214" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F214" s="7">
         <v>1</v>
       </c>
       <c r="G214" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H214" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I214" s="7">
-        <v>3.16</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
     </row>
     <row r="215" ht="13.55" customHeight="1">
       <c r="A215" t="s" s="6">
@@ -8137,25 +8157,25 @@
         <v>436</v>
       </c>
       <c r="C215" s="7">
-        <v>31.58</v>
+        <v>167.31</v>
       </c>
       <c r="D215" s="7">
-        <v>145.52</v>
+        <v>485</v>
       </c>
       <c r="E215" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F215" s="7">
         <v>1</v>
       </c>
       <c r="G215" s="7">
-        <v>6.83</v>
+        <v>2.42</v>
       </c>
       <c r="H215" s="7">
-        <v>0.53</v>
+        <v>2.79</v>
       </c>
       <c r="I215" s="7">
-        <v>-6.3</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="216" ht="13.55" customHeight="1">
@@ -8166,25 +8186,25 @@
         <v>438</v>
       </c>
       <c r="C216" s="7">
-        <v>34.53</v>
+        <v>43.47</v>
       </c>
       <c r="D216" s="7">
-        <v>12.17</v>
+        <v>118.61</v>
       </c>
       <c r="E216" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F216" s="7">
         <v>1</v>
       </c>
       <c r="G216" s="7">
-        <v>0.86</v>
+        <v>0.55</v>
       </c>
       <c r="H216" s="7">
-        <v>0.58</v>
+        <v>0.73</v>
       </c>
       <c r="I216" s="7">
-        <v>-0.28</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="217" ht="13.55" customHeight="1">
@@ -8195,10 +8215,10 @@
         <v>440</v>
       </c>
       <c r="C217" s="7">
-        <v>9.35</v>
+        <v>99.67</v>
       </c>
       <c r="D217" s="7">
-        <v>30</v>
+        <v>118.61</v>
       </c>
       <c r="E217" s="7">
         <v>12</v>
@@ -8207,10 +8227,329 @@
         <v>1</v>
       </c>
       <c r="G217" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H217" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I217" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="218" ht="13.55" customHeight="1">
+      <c r="A218" t="s" s="6">
+        <v>441</v>
+      </c>
+      <c r="B218" t="s" s="6">
+        <v>442</v>
+      </c>
+      <c r="C218" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D218" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E218" s="7">
+        <v>12</v>
+      </c>
+      <c r="F218" s="7">
+        <v>1</v>
+      </c>
+      <c r="G218" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H218" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I218" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="219" ht="13.55" customHeight="1">
+      <c r="A219" t="s" s="6">
+        <v>443</v>
+      </c>
+      <c r="B219" t="s" s="6">
+        <v>444</v>
+      </c>
+      <c r="C219" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D219" s="7">
+        <v>110</v>
+      </c>
+      <c r="E219" s="7">
+        <v>12</v>
+      </c>
+      <c r="F219" s="7">
+        <v>1</v>
+      </c>
+      <c r="G219" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H219" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I219" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="220" ht="13.55" customHeight="1">
+      <c r="A220" t="s" s="6">
+        <v>445</v>
+      </c>
+      <c r="B220" t="s" s="6">
+        <v>446</v>
+      </c>
+      <c r="C220" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D220" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E220" s="7">
+        <v>12</v>
+      </c>
+      <c r="F220" s="7">
+        <v>1</v>
+      </c>
+      <c r="G220" s="7">
+        <v>3</v>
+      </c>
+      <c r="H220" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I220" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="221" ht="13.55" customHeight="1">
+      <c r="A221" t="s" s="6">
+        <v>447</v>
+      </c>
+      <c r="B221" t="s" s="6">
+        <v>448</v>
+      </c>
+      <c r="C221" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D221" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E221" s="7">
+        <v>12</v>
+      </c>
+      <c r="F221" s="7">
+        <v>1</v>
+      </c>
+      <c r="G221" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H221" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I221" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="222" ht="13.55" customHeight="1">
+      <c r="A222" t="s" s="6">
+        <v>449</v>
+      </c>
+      <c r="B222" t="s" s="6">
+        <v>450</v>
+      </c>
+      <c r="C222" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D222" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E222" s="7">
+        <v>20</v>
+      </c>
+      <c r="F222" s="7">
+        <v>1</v>
+      </c>
+      <c r="G222" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H222" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I222" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="223" ht="13.55" customHeight="1">
+      <c r="A223" t="s" s="6">
+        <v>451</v>
+      </c>
+      <c r="B223" t="s" s="6">
+        <v>452</v>
+      </c>
+      <c r="C223" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D223" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E223" s="7">
+        <v>25</v>
+      </c>
+      <c r="F223" s="7">
+        <v>1</v>
+      </c>
+      <c r="G223" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H223" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I223" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="224" ht="13.55" customHeight="1">
+      <c r="A224" t="s" s="6">
+        <v>453</v>
+      </c>
+      <c r="B224" t="s" s="6">
+        <v>454</v>
+      </c>
+      <c r="C224" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D224" s="7">
+        <v>5</v>
+      </c>
+      <c r="E224" s="7">
+        <v>32</v>
+      </c>
+      <c r="F224" s="7">
+        <v>1</v>
+      </c>
+      <c r="G224" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H224" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I224" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="225" ht="13.55" customHeight="1">
+      <c r="A225" t="s" s="6">
+        <v>455</v>
+      </c>
+      <c r="B225" t="s" s="6">
+        <v>456</v>
+      </c>
+      <c r="C225" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D225" s="7">
+        <v>17</v>
+      </c>
+      <c r="E225" s="7">
+        <v>32</v>
+      </c>
+      <c r="F225" s="7">
+        <v>1</v>
+      </c>
+      <c r="G225" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H225" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I225" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="226" ht="13.55" customHeight="1">
+      <c r="A226" t="s" s="6">
+        <v>457</v>
+      </c>
+      <c r="B226" t="s" s="6">
+        <v>458</v>
+      </c>
+      <c r="C226" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D226" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E226" s="7">
+        <v>10</v>
+      </c>
+      <c r="F226" s="7">
+        <v>1</v>
+      </c>
+      <c r="G226" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H226" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I226" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="227" ht="13.55" customHeight="1">
+      <c r="A227" t="s" s="6">
+        <v>459</v>
+      </c>
+      <c r="B227" t="s" s="6">
+        <v>460</v>
+      </c>
+      <c r="C227" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D227" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E227" s="7">
+        <v>25</v>
+      </c>
+      <c r="F227" s="7">
+        <v>1</v>
+      </c>
+      <c r="G227" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H227" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I227" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="228" ht="13.55" customHeight="1">
+      <c r="A228" t="s" s="6">
+        <v>461</v>
+      </c>
+      <c r="B228" t="s" s="6">
+        <v>462</v>
+      </c>
+      <c r="C228" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="D228" s="7">
+        <v>30</v>
+      </c>
+      <c r="E228" s="7">
+        <v>12</v>
+      </c>
+      <c r="F228" s="7">
+        <v>1</v>
+      </c>
+      <c r="G228" s="7">
         <v>0.6</v>
       </c>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
+      <c r="H228" s="8"/>
+      <c r="I228" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
   <si>
     <t>timestamp</t>
   </si>
@@ -148,12 +148,6 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
-    <t>2024-08-05 11:08:30</t>
-  </si>
-  <si>
-    <t>CORTE ESPECIAL.slp</t>
-  </si>
-  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -1198,6 +1192,12 @@
     <t>L_03270.NC</t>
   </si>
   <si>
+    <t>2024-08-29 08:19:43</t>
+  </si>
+  <si>
+    <t>L_03271.NC</t>
+  </si>
+  <si>
     <t>2024-08-21 16:06:48</t>
   </si>
   <si>
@@ -1316,6 +1316,84 @@
   </si>
   <si>
     <t>L_03478.NC</t>
+  </si>
+  <si>
+    <t>2024-08-29 14:58:53</t>
+  </si>
+  <si>
+    <t>L_03558.NC</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:17:02</t>
+  </si>
+  <si>
+    <t>L_03559.NC</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:52:12</t>
+  </si>
+  <si>
+    <t>L_03560.NC</t>
+  </si>
+  <si>
+    <t>2024-08-29 16:44:42</t>
+  </si>
+  <si>
+    <t>L_03561.NC</t>
+  </si>
+  <si>
+    <t>2024-08-29 15:25:41</t>
+  </si>
+  <si>
+    <t>L_03562.NC</t>
+  </si>
+  <si>
+    <t>2024-08-30 08:11:28</t>
+  </si>
+  <si>
+    <t>L_03563.NC</t>
+  </si>
+  <si>
+    <t>2024-08-30 08:59:42</t>
+  </si>
+  <si>
+    <t>L_03564.NC</t>
+  </si>
+  <si>
+    <t>2024-08-30 10:08:19</t>
+  </si>
+  <si>
+    <t>L_03565.NC</t>
+  </si>
+  <si>
+    <t>2024-08-30 11:06:47</t>
+  </si>
+  <si>
+    <t>L_03566.NC</t>
+  </si>
+  <si>
+    <t>2024-08-30 11:47:26</t>
+  </si>
+  <si>
+    <t>L_03567.NC</t>
+  </si>
+  <si>
+    <t>2024-08-30 12:27:57</t>
+  </si>
+  <si>
+    <t>L_03568.NC</t>
+  </si>
+  <si>
+    <t>2024-08-30 13:22:55</t>
+  </si>
+  <si>
+    <t>L_03569.NC</t>
+  </si>
+  <si>
+    <t>2024-08-30 13:51:07</t>
+  </si>
+  <si>
+    <t>L_03583.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -2643,13 +2721,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3516" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3204,14 +3284,26 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>71.91</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+        <v>6.17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I20" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="6">
@@ -3221,10 +3313,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="7">
-        <v>6.17</v>
+        <v>6.65</v>
       </c>
       <c r="D21" s="7">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -3233,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="7">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H21" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I21" s="7">
         <v>-0.02</v>
@@ -3250,10 +3342,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>6.65</v>
+        <v>7.18</v>
       </c>
       <c r="D22" s="7">
-        <v>24.8</v>
+        <v>26.7</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -3279,10 +3371,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="7">
-        <v>7.18</v>
+        <v>21.94</v>
       </c>
       <c r="D23" s="7">
-        <v>26.7</v>
+        <v>9</v>
       </c>
       <c r="E23" s="7">
         <v>3</v>
@@ -3291,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="7">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="H23" s="7">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="I23" s="7">
-        <v>-0.02</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
@@ -3308,25 +3400,25 @@
         <v>54</v>
       </c>
       <c r="C24" s="7">
-        <v>21.94</v>
+        <v>30.37</v>
       </c>
       <c r="D24" s="7">
-        <v>9</v>
+        <v>116.8</v>
       </c>
       <c r="E24" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
       <c r="H24" s="7">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="I24" s="7">
-        <v>0.32</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
@@ -3337,10 +3429,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="7">
-        <v>30.37</v>
+        <v>19.9</v>
       </c>
       <c r="D25" s="7">
-        <v>116.8</v>
+        <v>69.682</v>
       </c>
       <c r="E25" s="7">
         <v>10</v>
@@ -3349,13 +3441,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="I25" s="7">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
@@ -3366,10 +3458,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="7">
-        <v>19.9</v>
+        <v>15.77</v>
       </c>
       <c r="D26" s="7">
-        <v>69.682</v>
+        <v>27.16</v>
       </c>
       <c r="E26" s="7">
         <v>10</v>
@@ -3378,13 +3470,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="7">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I26" s="7">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
@@ -3395,25 +3487,25 @@
         <v>60</v>
       </c>
       <c r="C27" s="7">
-        <v>15.77</v>
+        <v>11.26</v>
       </c>
       <c r="D27" s="7">
-        <v>27.16</v>
+        <v>50.5</v>
       </c>
       <c r="E27" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="H27" s="7">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I27" s="7">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -3424,25 +3516,25 @@
         <v>62</v>
       </c>
       <c r="C28" s="7">
-        <v>11.26</v>
+        <v>3.76</v>
       </c>
       <c r="D28" s="7">
-        <v>50.5</v>
+        <v>19.7</v>
       </c>
       <c r="E28" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="H28" s="7">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I28" s="7">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3453,25 +3545,25 @@
         <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>3.76</v>
+        <v>25.79</v>
       </c>
       <c r="D29" s="7">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="E29" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H29" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I29" s="7">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -3482,25 +3574,25 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>25.79</v>
+        <v>3.77</v>
       </c>
       <c r="D30" s="7">
-        <v>18.9</v>
+        <v>12.5</v>
       </c>
       <c r="E30" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="H30" s="7">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" s="7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
@@ -3511,22 +3603,22 @@
         <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>3.77</v>
+        <v>2.98</v>
       </c>
       <c r="D31" s="7">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="E31" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H31" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I31" s="7">
         <v>0.06</v>
@@ -3540,26 +3632,24 @@
         <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>2.98</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D32" s="7">
-        <v>13.7</v>
+        <v>2</v>
       </c>
       <c r="E32" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H32" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0.06</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="6">
@@ -3569,13 +3659,13 @@
         <v>72</v>
       </c>
       <c r="C33" s="7">
-        <v>0.5600000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="D33" s="7">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E33" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
@@ -3584,9 +3674,11 @@
         <v>0.01</v>
       </c>
       <c r="H33" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I33" s="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="I33" s="7">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="6">
@@ -3596,13 +3688,13 @@
         <v>74</v>
       </c>
       <c r="C34" s="7">
-        <v>3.48</v>
+        <v>4.16</v>
       </c>
       <c r="D34" s="7">
-        <v>1.2</v>
+        <v>0.33</v>
       </c>
       <c r="E34" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
@@ -3611,10 +3703,10 @@
         <v>0.01</v>
       </c>
       <c r="H34" s="7">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I34" s="7">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
@@ -3625,13 +3717,13 @@
         <v>76</v>
       </c>
       <c r="C35" s="7">
-        <v>4.16</v>
+        <v>0.39</v>
       </c>
       <c r="D35" s="7">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="E35" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
@@ -3640,10 +3732,10 @@
         <v>0.01</v>
       </c>
       <c r="H35" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I35" s="7">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
@@ -3654,13 +3746,13 @@
         <v>78</v>
       </c>
       <c r="C36" s="7">
-        <v>0.39</v>
+        <v>1.23</v>
       </c>
       <c r="D36" s="7">
-        <v>3</v>
+        <v>2.428</v>
       </c>
       <c r="E36" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -3669,10 +3761,10 @@
         <v>0.01</v>
       </c>
       <c r="H36" s="7">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
@@ -3683,26 +3775,24 @@
         <v>80</v>
       </c>
       <c r="C37" s="7">
-        <v>1.23</v>
+        <v>3.13</v>
       </c>
       <c r="D37" s="7">
-        <v>2.428</v>
+        <v>7.3</v>
       </c>
       <c r="E37" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
       </c>
       <c r="G37" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H37" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I37" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="6">
@@ -3712,22 +3802,22 @@
         <v>82</v>
       </c>
       <c r="C38" s="7">
-        <v>3.13</v>
+        <v>0.35</v>
       </c>
       <c r="D38" s="7">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H38" s="7">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I38" s="8"/>
     </row>
@@ -3739,24 +3829,26 @@
         <v>84</v>
       </c>
       <c r="C39" s="7">
-        <v>0.35</v>
+        <v>5.83</v>
       </c>
       <c r="D39" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I39" s="7">
         <v>0.01</v>
       </c>
-      <c r="H39" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I39" s="8"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="6">
@@ -3766,25 +3858,25 @@
         <v>86</v>
       </c>
       <c r="C40" s="7">
-        <v>5.83</v>
+        <v>7.43</v>
       </c>
       <c r="D40" s="7">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="E40" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H40" s="7">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I40" s="7">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
@@ -3795,25 +3887,25 @@
         <v>88</v>
       </c>
       <c r="C41" s="7">
-        <v>7.43</v>
+        <v>10.63</v>
       </c>
       <c r="D41" s="7">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="E41" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H41" s="7">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I41" s="7">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
@@ -3824,10 +3916,10 @@
         <v>90</v>
       </c>
       <c r="C42" s="7">
-        <v>10.63</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D42" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" s="7">
         <v>25</v>
@@ -3836,13 +3928,13 @@
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="H42" s="7">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I42" s="7">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
@@ -3853,26 +3945,22 @@
         <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>8.880000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="D43" s="7">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="E43" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I43" s="7">
-        <v>-0.14</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="6">
@@ -3882,19 +3970,19 @@
         <v>94</v>
       </c>
       <c r="C44" s="7">
-        <v>2.71</v>
+        <v>144.21</v>
       </c>
       <c r="D44" s="7">
-        <v>13.7</v>
+        <v>90.3</v>
       </c>
       <c r="E44" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="7">
-        <v>0.28</v>
+        <v>3</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -3907,19 +3995,19 @@
         <v>96</v>
       </c>
       <c r="C45" s="7">
-        <v>144.21</v>
+        <v>12.15</v>
       </c>
       <c r="D45" s="7">
-        <v>90.3</v>
+        <v>77</v>
       </c>
       <c r="E45" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -3932,10 +4020,10 @@
         <v>98</v>
       </c>
       <c r="C46" s="7">
-        <v>12.15</v>
+        <v>4.45</v>
       </c>
       <c r="D46" s="7">
-        <v>77</v>
+        <v>17.8</v>
       </c>
       <c r="E46" s="7">
         <v>8</v>
@@ -3944,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="7">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -3957,13 +4045,13 @@
         <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>4.45</v>
+        <v>3.12</v>
       </c>
       <c r="D47" s="7">
-        <v>17.8</v>
+        <v>11.7</v>
       </c>
       <c r="E47" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
@@ -3982,19 +4070,19 @@
         <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>3.12</v>
+        <v>4.28</v>
       </c>
       <c r="D48" s="7">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="E48" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
       <c r="G48" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4007,10 +4095,10 @@
         <v>104</v>
       </c>
       <c r="C49" s="7">
-        <v>4.28</v>
+        <v>3.26</v>
       </c>
       <c r="D49" s="7">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="E49" s="7">
         <v>12</v>
@@ -4032,13 +4120,13 @@
         <v>106</v>
       </c>
       <c r="C50" s="7">
-        <v>3.26</v>
+        <v>15.61</v>
       </c>
       <c r="D50" s="7">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="E50" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F50" s="7">
         <v>1</v>
@@ -4057,19 +4145,19 @@
         <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>15.61</v>
+        <v>9.58</v>
       </c>
       <c r="D51" s="7">
-        <v>14.3</v>
+        <v>40.2</v>
       </c>
       <c r="E51" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -4082,19 +4170,19 @@
         <v>110</v>
       </c>
       <c r="C52" s="7">
-        <v>9.58</v>
+        <v>12.55</v>
       </c>
       <c r="D52" s="7">
-        <v>40.2</v>
+        <v>55</v>
       </c>
       <c r="E52" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -4107,10 +4195,10 @@
         <v>112</v>
       </c>
       <c r="C53" s="7">
-        <v>12.55</v>
+        <v>19.1</v>
       </c>
       <c r="D53" s="7">
-        <v>55</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E53" s="7">
         <v>4</v>
@@ -4132,19 +4220,19 @@
         <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>19.1</v>
+        <v>24.33</v>
       </c>
       <c r="D54" s="7">
-        <v>90.90000000000001</v>
+        <v>211.504</v>
       </c>
       <c r="E54" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4157,19 +4245,19 @@
         <v>116</v>
       </c>
       <c r="C55" s="7">
-        <v>24.33</v>
+        <v>25.6</v>
       </c>
       <c r="D55" s="7">
-        <v>211.504</v>
+        <v>24.5</v>
       </c>
       <c r="E55" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -4182,10 +4270,10 @@
         <v>118</v>
       </c>
       <c r="C56" s="7">
-        <v>25.6</v>
+        <v>156.12</v>
       </c>
       <c r="D56" s="7">
-        <v>24.5</v>
+        <v>242.709</v>
       </c>
       <c r="E56" s="7">
         <v>12</v>
@@ -4194,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -4207,10 +4295,10 @@
         <v>120</v>
       </c>
       <c r="C57" s="7">
-        <v>156.12</v>
+        <v>30.88</v>
       </c>
       <c r="D57" s="7">
-        <v>242.709</v>
+        <v>110.075</v>
       </c>
       <c r="E57" s="7">
         <v>12</v>
@@ -4219,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -4232,10 +4320,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="7">
-        <v>30.88</v>
+        <v>10</v>
       </c>
       <c r="D58" s="7">
-        <v>110.075</v>
+        <v>14.012</v>
       </c>
       <c r="E58" s="7">
         <v>12</v>
@@ -4244,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -4257,19 +4345,19 @@
         <v>124</v>
       </c>
       <c r="C59" s="7">
+        <v>88.03</v>
+      </c>
+      <c r="D59" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="E59" s="7">
         <v>10</v>
       </c>
-      <c r="D59" s="7">
-        <v>14.012</v>
-      </c>
-      <c r="E59" s="7">
-        <v>12</v>
-      </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -4282,10 +4370,10 @@
         <v>126</v>
       </c>
       <c r="C60" s="7">
-        <v>88.03</v>
+        <v>25.66</v>
       </c>
       <c r="D60" s="7">
-        <v>30.4</v>
+        <v>135.2</v>
       </c>
       <c r="E60" s="7">
         <v>10</v>
@@ -4294,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -4307,10 +4395,10 @@
         <v>128</v>
       </c>
       <c r="C61" s="7">
-        <v>25.66</v>
+        <v>20.96</v>
       </c>
       <c r="D61" s="7">
-        <v>135.2</v>
+        <v>118.6</v>
       </c>
       <c r="E61" s="7">
         <v>10</v>
@@ -4332,10 +4420,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="7">
-        <v>20.96</v>
+        <v>24.99</v>
       </c>
       <c r="D62" s="7">
-        <v>118.6</v>
+        <v>135.112</v>
       </c>
       <c r="E62" s="7">
         <v>10</v>
@@ -4357,10 +4445,10 @@
         <v>132</v>
       </c>
       <c r="C63" s="7">
-        <v>24.99</v>
+        <v>25.58</v>
       </c>
       <c r="D63" s="7">
-        <v>135.112</v>
+        <v>135.1</v>
       </c>
       <c r="E63" s="7">
         <v>10</v>
@@ -4382,10 +4470,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="7">
-        <v>25.58</v>
+        <v>60.31</v>
       </c>
       <c r="D64" s="7">
-        <v>135.1</v>
+        <v>313.297</v>
       </c>
       <c r="E64" s="7">
         <v>10</v>
@@ -4394,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -4407,10 +4495,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="7">
-        <v>60.31</v>
+        <v>25.52</v>
       </c>
       <c r="D65" s="7">
-        <v>313.297</v>
+        <v>137</v>
       </c>
       <c r="E65" s="7">
         <v>10</v>
@@ -4432,10 +4520,10 @@
         <v>138</v>
       </c>
       <c r="C66" s="7">
-        <v>25.52</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D66" s="7">
-        <v>137</v>
+        <v>474.621</v>
       </c>
       <c r="E66" s="7">
         <v>10</v>
@@ -4444,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="7">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -4457,10 +4545,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>82.26000000000001</v>
+        <v>14.13</v>
       </c>
       <c r="D67" s="7">
-        <v>474.621</v>
+        <v>34</v>
       </c>
       <c r="E67" s="7">
         <v>10</v>
@@ -4469,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -4482,10 +4570,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>14.13</v>
+        <v>9.57</v>
       </c>
       <c r="D68" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E68" s="7">
         <v>10</v>
@@ -4507,10 +4595,10 @@
         <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>9.57</v>
+        <v>60.44</v>
       </c>
       <c r="D69" s="7">
-        <v>25</v>
+        <v>81.459</v>
       </c>
       <c r="E69" s="7">
         <v>10</v>
@@ -4532,10 +4620,10 @@
         <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>60.44</v>
+        <v>49.26</v>
       </c>
       <c r="D70" s="7">
-        <v>81.459</v>
+        <v>183.288</v>
       </c>
       <c r="E70" s="7">
         <v>10</v>
@@ -4544,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -4557,19 +4645,19 @@
         <v>148</v>
       </c>
       <c r="C71" s="7">
-        <v>49.26</v>
+        <v>0.29</v>
       </c>
       <c r="D71" s="7">
-        <v>183.288</v>
+        <v>1.5</v>
       </c>
       <c r="E71" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -4582,13 +4670,13 @@
         <v>150</v>
       </c>
       <c r="C72" s="7">
-        <v>0.29</v>
+        <v>37.15</v>
       </c>
       <c r="D72" s="7">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="E72" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
@@ -4607,13 +4695,13 @@
         <v>152</v>
       </c>
       <c r="C73" s="7">
-        <v>37.15</v>
+        <v>12.76</v>
       </c>
       <c r="D73" s="7">
-        <v>7.5</v>
+        <v>24.919</v>
       </c>
       <c r="E73" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
@@ -4632,10 +4720,10 @@
         <v>154</v>
       </c>
       <c r="C74" s="7">
-        <v>12.76</v>
+        <v>20.38</v>
       </c>
       <c r="D74" s="7">
-        <v>24.919</v>
+        <v>74.434</v>
       </c>
       <c r="E74" s="7">
         <v>12</v>
@@ -4644,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4657,10 +4745,10 @@
         <v>156</v>
       </c>
       <c r="C75" s="7">
-        <v>20.38</v>
+        <v>10.35</v>
       </c>
       <c r="D75" s="7">
-        <v>74.434</v>
+        <v>35.091</v>
       </c>
       <c r="E75" s="7">
         <v>12</v>
@@ -4682,10 +4770,10 @@
         <v>158</v>
       </c>
       <c r="C76" s="7">
-        <v>10.35</v>
+        <v>17.77</v>
       </c>
       <c r="D76" s="7">
-        <v>35.091</v>
+        <v>65.682</v>
       </c>
       <c r="E76" s="7">
         <v>12</v>
@@ -4707,10 +4795,10 @@
         <v>160</v>
       </c>
       <c r="C77" s="7">
-        <v>17.77</v>
+        <v>18.06</v>
       </c>
       <c r="D77" s="7">
-        <v>65.682</v>
+        <v>56.867</v>
       </c>
       <c r="E77" s="7">
         <v>12</v>
@@ -4719,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -4732,10 +4820,10 @@
         <v>162</v>
       </c>
       <c r="C78" s="7">
-        <v>18.06</v>
+        <v>10.45</v>
       </c>
       <c r="D78" s="7">
-        <v>56.867</v>
+        <v>35.097</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -4744,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -4757,10 +4845,10 @@
         <v>164</v>
       </c>
       <c r="C79" s="7">
-        <v>10.45</v>
+        <v>20.83</v>
       </c>
       <c r="D79" s="7">
-        <v>35.097</v>
+        <v>68.786</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4769,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -4782,10 +4870,10 @@
         <v>166</v>
       </c>
       <c r="C80" s="7">
-        <v>20.83</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D80" s="7">
-        <v>68.786</v>
+        <v>33</v>
       </c>
       <c r="E80" s="7">
         <v>12</v>
@@ -4794,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -4807,10 +4895,10 @@
         <v>168</v>
       </c>
       <c r="C81" s="7">
-        <v>9.119999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="D81" s="7">
-        <v>33</v>
+        <v>33.19</v>
       </c>
       <c r="E81" s="7">
         <v>12</v>
@@ -4832,7 +4920,7 @@
         <v>170</v>
       </c>
       <c r="C82" s="7">
-        <v>9.24</v>
+        <v>9.18</v>
       </c>
       <c r="D82" s="7">
         <v>33.19</v>
@@ -4857,10 +4945,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="7">
-        <v>9.18</v>
+        <v>17.9</v>
       </c>
       <c r="D83" s="7">
-        <v>33.19</v>
+        <v>60.542</v>
       </c>
       <c r="E83" s="7">
         <v>12</v>
@@ -4869,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -4882,10 +4970,10 @@
         <v>174</v>
       </c>
       <c r="C84" s="7">
-        <v>17.9</v>
+        <v>39.59</v>
       </c>
       <c r="D84" s="7">
-        <v>60.542</v>
+        <v>135.375</v>
       </c>
       <c r="E84" s="7">
         <v>12</v>
@@ -4907,10 +4995,10 @@
         <v>176</v>
       </c>
       <c r="C85" s="7">
-        <v>39.59</v>
+        <v>21.3</v>
       </c>
       <c r="D85" s="7">
-        <v>135.375</v>
+        <v>73.223</v>
       </c>
       <c r="E85" s="7">
         <v>12</v>
@@ -4919,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -4932,10 +5020,10 @@
         <v>178</v>
       </c>
       <c r="C86" s="7">
-        <v>21.3</v>
+        <v>8.65</v>
       </c>
       <c r="D86" s="7">
-        <v>73.223</v>
+        <v>28.483</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -4944,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -4957,10 +5045,10 @@
         <v>180</v>
       </c>
       <c r="C87" s="7">
-        <v>8.65</v>
+        <v>10.25</v>
       </c>
       <c r="D87" s="7">
-        <v>28.483</v>
+        <v>36.532</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -4982,10 +5070,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="7">
-        <v>10.25</v>
+        <v>12.29</v>
       </c>
       <c r="D88" s="7">
-        <v>36.532</v>
+        <v>38.502</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -4994,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -5007,10 +5095,10 @@
         <v>184</v>
       </c>
       <c r="C89" s="7">
-        <v>12.29</v>
+        <v>13.27</v>
       </c>
       <c r="D89" s="7">
-        <v>38.502</v>
+        <v>46</v>
       </c>
       <c r="E89" s="7">
         <v>12</v>
@@ -5019,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -5032,10 +5120,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="7">
-        <v>13.27</v>
+        <v>3.32</v>
       </c>
       <c r="D90" s="7">
-        <v>46</v>
+        <v>11.6</v>
       </c>
       <c r="E90" s="7">
         <v>12</v>
@@ -5044,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -5057,10 +5145,10 @@
         <v>188</v>
       </c>
       <c r="C91" s="7">
-        <v>3.32</v>
+        <v>9.5</v>
       </c>
       <c r="D91" s="7">
-        <v>11.6</v>
+        <v>33.457</v>
       </c>
       <c r="E91" s="7">
         <v>12</v>
@@ -5069,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -5082,10 +5170,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="7">
-        <v>9.5</v>
+        <v>5.32</v>
       </c>
       <c r="D92" s="7">
-        <v>33.457</v>
+        <v>19.7</v>
       </c>
       <c r="E92" s="7">
         <v>12</v>
@@ -5094,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -5107,10 +5195,10 @@
         <v>192</v>
       </c>
       <c r="C93" s="7">
-        <v>5.32</v>
+        <v>10.58</v>
       </c>
       <c r="D93" s="7">
-        <v>19.7</v>
+        <v>37.2</v>
       </c>
       <c r="E93" s="7">
         <v>12</v>
@@ -5119,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -5132,10 +5220,10 @@
         <v>194</v>
       </c>
       <c r="C94" s="7">
-        <v>10.58</v>
+        <v>12.29</v>
       </c>
       <c r="D94" s="7">
-        <v>37.2</v>
+        <v>56.8</v>
       </c>
       <c r="E94" s="7">
         <v>12</v>
@@ -5144,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -5157,10 +5245,10 @@
         <v>196</v>
       </c>
       <c r="C95" s="7">
-        <v>12.29</v>
+        <v>30.09</v>
       </c>
       <c r="D95" s="7">
-        <v>56.8</v>
+        <v>84.102</v>
       </c>
       <c r="E95" s="7">
         <v>12</v>
@@ -5169,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -5182,10 +5270,10 @@
         <v>198</v>
       </c>
       <c r="C96" s="7">
-        <v>30.09</v>
+        <v>42.54</v>
       </c>
       <c r="D96" s="7">
-        <v>84.102</v>
+        <v>122</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -5207,7 +5295,7 @@
         <v>200</v>
       </c>
       <c r="C97" s="7">
-        <v>42.54</v>
+        <v>42.62</v>
       </c>
       <c r="D97" s="7">
         <v>122</v>
@@ -5219,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -5232,10 +5320,10 @@
         <v>202</v>
       </c>
       <c r="C98" s="7">
-        <v>42.62</v>
+        <v>32.67</v>
       </c>
       <c r="D98" s="7">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -5244,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -5257,10 +5345,10 @@
         <v>204</v>
       </c>
       <c r="C99" s="7">
-        <v>32.67</v>
+        <v>69.61</v>
       </c>
       <c r="D99" s="7">
-        <v>107</v>
+        <v>248.201</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -5269,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -5282,7 +5370,7 @@
         <v>206</v>
       </c>
       <c r="C100" s="7">
-        <v>69.61</v>
+        <v>84.97</v>
       </c>
       <c r="D100" s="7">
         <v>248.201</v>
@@ -5307,7 +5395,7 @@
         <v>208</v>
       </c>
       <c r="C101" s="7">
-        <v>84.97</v>
+        <v>120.91</v>
       </c>
       <c r="D101" s="7">
         <v>248.201</v>
@@ -5332,10 +5420,10 @@
         <v>210</v>
       </c>
       <c r="C102" s="7">
-        <v>120.91</v>
+        <v>130.17</v>
       </c>
       <c r="D102" s="7">
-        <v>248.201</v>
+        <v>207</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -5357,10 +5445,10 @@
         <v>212</v>
       </c>
       <c r="C103" s="7">
-        <v>130.17</v>
+        <v>11.85</v>
       </c>
       <c r="D103" s="7">
-        <v>207</v>
+        <v>34.5</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -5369,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>3</v>
+        <v>0.53</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -5382,10 +5470,10 @@
         <v>214</v>
       </c>
       <c r="C104" s="7">
-        <v>11.85</v>
+        <v>17.89</v>
       </c>
       <c r="D104" s="7">
-        <v>34.5</v>
+        <v>48.7</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -5394,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -5407,10 +5495,10 @@
         <v>216</v>
       </c>
       <c r="C105" s="7">
-        <v>17.89</v>
+        <v>21.89</v>
       </c>
       <c r="D105" s="7">
-        <v>48.7</v>
+        <v>24</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -5419,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -5432,19 +5520,19 @@
         <v>218</v>
       </c>
       <c r="C106" s="7">
-        <v>21.89</v>
+        <v>0.49</v>
       </c>
       <c r="D106" s="7">
-        <v>24</v>
+        <v>2.234</v>
       </c>
       <c r="E106" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F106" s="7">
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -5457,19 +5545,19 @@
         <v>220</v>
       </c>
       <c r="C107" s="7">
-        <v>0.49</v>
+        <v>68.42</v>
       </c>
       <c r="D107" s="7">
-        <v>2.234</v>
+        <v>216.554</v>
       </c>
       <c r="E107" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F107" s="7">
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5482,10 +5570,10 @@
         <v>222</v>
       </c>
       <c r="C108" s="7">
-        <v>68.42</v>
+        <v>216.38</v>
       </c>
       <c r="D108" s="7">
-        <v>216.554</v>
+        <v>450.756</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5494,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5507,10 +5595,10 @@
         <v>224</v>
       </c>
       <c r="C109" s="7">
-        <v>216.38</v>
+        <v>22.31</v>
       </c>
       <c r="D109" s="7">
-        <v>450.756</v>
+        <v>45</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -5532,13 +5620,13 @@
         <v>226</v>
       </c>
       <c r="C110" s="7">
-        <v>22.31</v>
+        <v>1.38</v>
       </c>
       <c r="D110" s="7">
-        <v>45</v>
+        <v>5.475</v>
       </c>
       <c r="E110" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F110" s="7">
         <v>1</v>
@@ -5557,13 +5645,13 @@
         <v>228</v>
       </c>
       <c r="C111" s="7">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="D111" s="7">
-        <v>5.475</v>
+        <v>5.493</v>
       </c>
       <c r="E111" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
@@ -5582,13 +5670,13 @@
         <v>230</v>
       </c>
       <c r="C112" s="7">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="D112" s="7">
-        <v>5.493</v>
+        <v>5.6</v>
       </c>
       <c r="E112" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
@@ -5607,13 +5695,13 @@
         <v>232</v>
       </c>
       <c r="C113" s="7">
-        <v>1.42</v>
+        <v>0.49</v>
       </c>
       <c r="D113" s="7">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="E113" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
@@ -5632,13 +5720,13 @@
         <v>234</v>
       </c>
       <c r="C114" s="7">
-        <v>0.49</v>
+        <v>6.32</v>
       </c>
       <c r="D114" s="7">
-        <v>1.7</v>
+        <v>32.054</v>
       </c>
       <c r="E114" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
@@ -5657,13 +5745,13 @@
         <v>236</v>
       </c>
       <c r="C115" s="7">
-        <v>6.32</v>
+        <v>26.16</v>
       </c>
       <c r="D115" s="7">
-        <v>32.054</v>
+        <v>26.938</v>
       </c>
       <c r="E115" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F115" s="7">
         <v>1</v>
@@ -5682,10 +5770,10 @@
         <v>238</v>
       </c>
       <c r="C116" s="7">
-        <v>26.16</v>
+        <v>5.38</v>
       </c>
       <c r="D116" s="7">
-        <v>26.938</v>
+        <v>13</v>
       </c>
       <c r="E116" s="7">
         <v>16</v>
@@ -5707,19 +5795,19 @@
         <v>240</v>
       </c>
       <c r="C117" s="7">
-        <v>5.38</v>
+        <v>42.82</v>
       </c>
       <c r="D117" s="7">
-        <v>13</v>
+        <v>152.431</v>
       </c>
       <c r="E117" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F117" s="7">
         <v>1</v>
       </c>
       <c r="G117" s="7">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -5732,7 +5820,7 @@
         <v>242</v>
       </c>
       <c r="C118" s="7">
-        <v>42.82</v>
+        <v>43.29</v>
       </c>
       <c r="D118" s="7">
         <v>152.431</v>
@@ -5744,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -5757,10 +5845,10 @@
         <v>244</v>
       </c>
       <c r="C119" s="7">
-        <v>43.29</v>
+        <v>48.75</v>
       </c>
       <c r="D119" s="7">
-        <v>152.431</v>
+        <v>175.457</v>
       </c>
       <c r="E119" s="7">
         <v>6</v>
@@ -5769,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -5782,10 +5870,10 @@
         <v>246</v>
       </c>
       <c r="C120" s="7">
-        <v>48.75</v>
+        <v>49.12</v>
       </c>
       <c r="D120" s="7">
-        <v>175.457</v>
+        <v>201.645</v>
       </c>
       <c r="E120" s="7">
         <v>6</v>
@@ -5807,10 +5895,10 @@
         <v>248</v>
       </c>
       <c r="C121" s="7">
-        <v>49.12</v>
+        <v>25.04</v>
       </c>
       <c r="D121" s="7">
-        <v>201.645</v>
+        <v>143.961</v>
       </c>
       <c r="E121" s="7">
         <v>6</v>
@@ -5819,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -5832,7 +5920,7 @@
         <v>250</v>
       </c>
       <c r="C122" s="7">
-        <v>25.04</v>
+        <v>21.26</v>
       </c>
       <c r="D122" s="7">
         <v>143.961</v>
@@ -5844,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -5857,10 +5945,10 @@
         <v>252</v>
       </c>
       <c r="C123" s="7">
-        <v>21.26</v>
+        <v>39.51</v>
       </c>
       <c r="D123" s="7">
-        <v>143.961</v>
+        <v>219.134</v>
       </c>
       <c r="E123" s="7">
         <v>6</v>
@@ -5869,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5882,10 +5970,10 @@
         <v>254</v>
       </c>
       <c r="C124" s="7">
-        <v>39.51</v>
+        <v>17.11</v>
       </c>
       <c r="D124" s="7">
-        <v>219.134</v>
+        <v>96.729</v>
       </c>
       <c r="E124" s="7">
         <v>6</v>
@@ -5894,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -5907,10 +5995,10 @@
         <v>256</v>
       </c>
       <c r="C125" s="7">
-        <v>17.11</v>
+        <v>14.78</v>
       </c>
       <c r="D125" s="7">
-        <v>96.729</v>
+        <v>84.5</v>
       </c>
       <c r="E125" s="7">
         <v>6</v>
@@ -5919,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -5932,10 +6020,10 @@
         <v>258</v>
       </c>
       <c r="C126" s="7">
-        <v>14.78</v>
+        <v>20.9</v>
       </c>
       <c r="D126" s="7">
-        <v>84.5</v>
+        <v>122.054</v>
       </c>
       <c r="E126" s="7">
         <v>6</v>
@@ -5944,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -5957,10 +6045,10 @@
         <v>260</v>
       </c>
       <c r="C127" s="7">
-        <v>20.9</v>
+        <v>15.95</v>
       </c>
       <c r="D127" s="7">
-        <v>122.054</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E127" s="7">
         <v>6</v>
@@ -5982,10 +6070,10 @@
         <v>262</v>
       </c>
       <c r="C128" s="7">
-        <v>15.95</v>
+        <v>5.62</v>
       </c>
       <c r="D128" s="7">
-        <v>93.88800000000001</v>
+        <v>18.015</v>
       </c>
       <c r="E128" s="7">
         <v>6</v>
@@ -5994,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -6007,10 +6095,10 @@
         <v>264</v>
       </c>
       <c r="C129" s="7">
-        <v>5.62</v>
+        <v>2.65</v>
       </c>
       <c r="D129" s="7">
-        <v>18.015</v>
+        <v>15.648</v>
       </c>
       <c r="E129" s="7">
         <v>6</v>
@@ -6032,10 +6120,10 @@
         <v>266</v>
       </c>
       <c r="C130" s="7">
-        <v>2.65</v>
+        <v>22</v>
       </c>
       <c r="D130" s="7">
-        <v>15.648</v>
+        <v>138.225</v>
       </c>
       <c r="E130" s="7">
         <v>6</v>
@@ -6044,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -6057,10 +6145,10 @@
         <v>268</v>
       </c>
       <c r="C131" s="7">
-        <v>22</v>
+        <v>22.93</v>
       </c>
       <c r="D131" s="7">
-        <v>138.225</v>
+        <v>143.961</v>
       </c>
       <c r="E131" s="7">
         <v>6</v>
@@ -6069,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -6082,10 +6170,10 @@
         <v>270</v>
       </c>
       <c r="C132" s="7">
-        <v>22.93</v>
+        <v>6.75</v>
       </c>
       <c r="D132" s="7">
-        <v>143.961</v>
+        <v>38.128</v>
       </c>
       <c r="E132" s="7">
         <v>6</v>
@@ -6094,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -6107,10 +6195,10 @@
         <v>272</v>
       </c>
       <c r="C133" s="7">
-        <v>6.75</v>
+        <v>10.37</v>
       </c>
       <c r="D133" s="7">
-        <v>38.128</v>
+        <v>59.462</v>
       </c>
       <c r="E133" s="7">
         <v>6</v>
@@ -6132,10 +6220,10 @@
         <v>274</v>
       </c>
       <c r="C134" s="7">
-        <v>10.37</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D134" s="7">
-        <v>59.462</v>
+        <v>55.892</v>
       </c>
       <c r="E134" s="7">
         <v>6</v>
@@ -6157,10 +6245,10 @@
         <v>276</v>
       </c>
       <c r="C135" s="7">
-        <v>9.470000000000001</v>
+        <v>33.05</v>
       </c>
       <c r="D135" s="7">
-        <v>55.892</v>
+        <v>157.109</v>
       </c>
       <c r="E135" s="7">
         <v>6</v>
@@ -6169,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -6182,19 +6270,19 @@
         <v>278</v>
       </c>
       <c r="C136" s="7">
-        <v>33.05</v>
+        <v>20.82</v>
       </c>
       <c r="D136" s="7">
-        <v>157.109</v>
+        <v>45.773</v>
       </c>
       <c r="E136" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F136" s="7">
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6207,10 +6295,10 @@
         <v>280</v>
       </c>
       <c r="C137" s="7">
-        <v>20.82</v>
+        <v>3.79</v>
       </c>
       <c r="D137" s="7">
-        <v>45.773</v>
+        <v>19.428</v>
       </c>
       <c r="E137" s="7">
         <v>10</v>
@@ -6219,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -6232,19 +6320,19 @@
         <v>282</v>
       </c>
       <c r="C138" s="7">
-        <v>3.79</v>
+        <v>15.37</v>
       </c>
       <c r="D138" s="7">
-        <v>19.428</v>
+        <v>73.333</v>
       </c>
       <c r="E138" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F138" s="7">
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -6257,19 +6345,19 @@
         <v>284</v>
       </c>
       <c r="C139" s="7">
-        <v>15.37</v>
+        <v>0.34</v>
       </c>
       <c r="D139" s="7">
-        <v>73.333</v>
+        <v>0.3</v>
       </c>
       <c r="E139" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F139" s="7">
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -6282,19 +6370,19 @@
         <v>286</v>
       </c>
       <c r="C140" s="7">
-        <v>0.34</v>
+        <v>11.98</v>
       </c>
       <c r="D140" s="7">
-        <v>0.3</v>
+        <v>38.291</v>
       </c>
       <c r="E140" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F140" s="7">
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -6307,19 +6395,19 @@
         <v>288</v>
       </c>
       <c r="C141" s="7">
-        <v>11.98</v>
+        <v>119.41</v>
       </c>
       <c r="D141" s="7">
-        <v>38.291</v>
+        <v>354.86</v>
       </c>
       <c r="E141" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F141" s="7">
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -6332,10 +6420,10 @@
         <v>290</v>
       </c>
       <c r="C142" s="7">
-        <v>119.41</v>
+        <v>24.68</v>
       </c>
       <c r="D142" s="7">
-        <v>354.86</v>
+        <v>64.59399999999999</v>
       </c>
       <c r="E142" s="7">
         <v>10</v>
@@ -6344,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -6357,10 +6445,10 @@
         <v>292</v>
       </c>
       <c r="C143" s="7">
-        <v>24.68</v>
+        <v>3.58</v>
       </c>
       <c r="D143" s="7">
-        <v>64.59399999999999</v>
+        <v>6.6</v>
       </c>
       <c r="E143" s="7">
         <v>10</v>
@@ -6369,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -6382,19 +6470,19 @@
         <v>294</v>
       </c>
       <c r="C144" s="7">
-        <v>3.58</v>
+        <v>11.77</v>
       </c>
       <c r="D144" s="7">
-        <v>6.6</v>
+        <v>42.588</v>
       </c>
       <c r="E144" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
       </c>
       <c r="G144" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
@@ -6407,10 +6495,10 @@
         <v>296</v>
       </c>
       <c r="C145" s="7">
-        <v>11.77</v>
+        <v>16.49</v>
       </c>
       <c r="D145" s="7">
-        <v>42.588</v>
+        <v>60.73</v>
       </c>
       <c r="E145" s="7">
         <v>12</v>
@@ -6432,10 +6520,10 @@
         <v>298</v>
       </c>
       <c r="C146" s="7">
-        <v>16.49</v>
+        <v>5.41</v>
       </c>
       <c r="D146" s="7">
-        <v>60.73</v>
+        <v>19.648</v>
       </c>
       <c r="E146" s="7">
         <v>12</v>
@@ -6444,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -6457,13 +6545,13 @@
         <v>300</v>
       </c>
       <c r="C147" s="7">
-        <v>5.41</v>
+        <v>17.33</v>
       </c>
       <c r="D147" s="7">
-        <v>19.648</v>
+        <v>23.7</v>
       </c>
       <c r="E147" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F147" s="7">
         <v>1</v>
@@ -6482,13 +6570,13 @@
         <v>302</v>
       </c>
       <c r="C148" s="7">
-        <v>17.33</v>
+        <v>28.98</v>
       </c>
       <c r="D148" s="7">
-        <v>23.7</v>
+        <v>102</v>
       </c>
       <c r="E148" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
@@ -6507,13 +6595,13 @@
         <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>28.98</v>
+        <v>24.87</v>
       </c>
       <c r="D149" s="7">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E149" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
@@ -6532,13 +6620,13 @@
         <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>24.87</v>
+        <v>3.7</v>
       </c>
       <c r="D150" s="7">
+        <v>19.078</v>
+      </c>
+      <c r="E150" s="7">
         <v>10</v>
-      </c>
-      <c r="E150" s="7">
-        <v>6</v>
       </c>
       <c r="F150" s="7">
         <v>1</v>
@@ -6557,10 +6645,10 @@
         <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="D151" s="7">
-        <v>19.078</v>
+        <v>12.8</v>
       </c>
       <c r="E151" s="7">
         <v>10</v>
@@ -6582,10 +6670,10 @@
         <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>2.45</v>
+        <v>4.43</v>
       </c>
       <c r="D152" s="7">
-        <v>12.8</v>
+        <v>22.741</v>
       </c>
       <c r="E152" s="7">
         <v>10</v>
@@ -6607,10 +6695,10 @@
         <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>4.43</v>
+        <v>2.59</v>
       </c>
       <c r="D153" s="7">
-        <v>22.741</v>
+        <v>13</v>
       </c>
       <c r="E153" s="7">
         <v>10</v>
@@ -6632,10 +6720,10 @@
         <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>2.59</v>
+        <v>15.11</v>
       </c>
       <c r="D154" s="7">
-        <v>13</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E154" s="7">
         <v>10</v>
@@ -6657,10 +6745,10 @@
         <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>15.11</v>
+        <v>7.58</v>
       </c>
       <c r="D155" s="7">
-        <v>71.11799999999999</v>
+        <v>38.801</v>
       </c>
       <c r="E155" s="7">
         <v>10</v>
@@ -6682,10 +6770,10 @@
         <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>7.58</v>
+        <v>3.9</v>
       </c>
       <c r="D156" s="7">
-        <v>38.801</v>
+        <v>18</v>
       </c>
       <c r="E156" s="7">
         <v>10</v>
@@ -6707,10 +6795,10 @@
         <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>3.9</v>
+        <v>1.66</v>
       </c>
       <c r="D157" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E157" s="7">
         <v>10</v>
@@ -6732,10 +6820,10 @@
         <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>1.66</v>
+        <v>3.4</v>
       </c>
       <c r="D158" s="7">
-        <v>8</v>
+        <v>16.059</v>
       </c>
       <c r="E158" s="7">
         <v>10</v>
@@ -6757,10 +6845,10 @@
         <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>3.4</v>
+        <v>7.59</v>
       </c>
       <c r="D159" s="7">
-        <v>16.059</v>
+        <v>34.112</v>
       </c>
       <c r="E159" s="7">
         <v>10</v>
@@ -6782,10 +6870,10 @@
         <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>7.59</v>
+        <v>8.98</v>
       </c>
       <c r="D160" s="7">
-        <v>34.112</v>
+        <v>19.4</v>
       </c>
       <c r="E160" s="7">
         <v>10</v>
@@ -6807,10 +6895,10 @@
         <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>8.98</v>
+        <v>2.48</v>
       </c>
       <c r="D161" s="7">
-        <v>19.4</v>
+        <v>8</v>
       </c>
       <c r="E161" s="7">
         <v>10</v>
@@ -6832,10 +6920,10 @@
         <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>2.48</v>
+        <v>5.04</v>
       </c>
       <c r="D162" s="7">
-        <v>8</v>
+        <v>25.437</v>
       </c>
       <c r="E162" s="7">
         <v>10</v>
@@ -6857,10 +6945,10 @@
         <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>5.04</v>
+        <v>4.29</v>
       </c>
       <c r="D163" s="7">
-        <v>25.437</v>
+        <v>22.7</v>
       </c>
       <c r="E163" s="7">
         <v>10</v>
@@ -6882,10 +6970,10 @@
         <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>4.29</v>
+        <v>1.61</v>
       </c>
       <c r="D164" s="7">
-        <v>22.7</v>
+        <v>8</v>
       </c>
       <c r="E164" s="7">
         <v>10</v>
@@ -6907,10 +6995,10 @@
         <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>1.61</v>
+        <v>2.82</v>
       </c>
       <c r="D165" s="7">
-        <v>8</v>
+        <v>12.718</v>
       </c>
       <c r="E165" s="7">
         <v>10</v>
@@ -6932,7 +7020,7 @@
         <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>2.82</v>
+        <v>2.51</v>
       </c>
       <c r="D166" s="7">
         <v>12.718</v>
@@ -6957,7 +7045,7 @@
         <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>2.51</v>
+        <v>3.56</v>
       </c>
       <c r="D167" s="7">
         <v>12.718</v>
@@ -6982,10 +7070,10 @@
         <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>3.56</v>
+        <v>2.8</v>
       </c>
       <c r="D168" s="7">
-        <v>12.718</v>
+        <v>14.231</v>
       </c>
       <c r="E168" s="7">
         <v>10</v>
@@ -7007,10 +7095,10 @@
         <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>2.8</v>
+        <v>6.26</v>
       </c>
       <c r="D169" s="7">
-        <v>14.231</v>
+        <v>33.032</v>
       </c>
       <c r="E169" s="7">
         <v>10</v>
@@ -7032,10 +7120,10 @@
         <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>6.26</v>
+        <v>7.37</v>
       </c>
       <c r="D170" s="7">
-        <v>33.032</v>
+        <v>37.601</v>
       </c>
       <c r="E170" s="7">
         <v>10</v>
@@ -7057,10 +7145,10 @@
         <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>7.37</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D171" s="7">
-        <v>37.601</v>
+        <v>47.263</v>
       </c>
       <c r="E171" s="7">
         <v>10</v>
@@ -7082,10 +7170,10 @@
         <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>9.619999999999999</v>
+        <v>6.12</v>
       </c>
       <c r="D172" s="7">
-        <v>47.263</v>
+        <v>31.159</v>
       </c>
       <c r="E172" s="7">
         <v>10</v>
@@ -7107,10 +7195,10 @@
         <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>6.12</v>
+        <v>2.89</v>
       </c>
       <c r="D173" s="7">
-        <v>31.159</v>
+        <v>14.231</v>
       </c>
       <c r="E173" s="7">
         <v>10</v>
@@ -7132,10 +7220,10 @@
         <v>354</v>
       </c>
       <c r="C174" s="7">
-        <v>2.89</v>
+        <v>9.69</v>
       </c>
       <c r="D174" s="7">
-        <v>14.231</v>
+        <v>50.484</v>
       </c>
       <c r="E174" s="7">
         <v>10</v>
@@ -7182,10 +7270,10 @@
         <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>9.69</v>
+        <v>13.27</v>
       </c>
       <c r="D176" s="7">
-        <v>50.484</v>
+        <v>63.368</v>
       </c>
       <c r="E176" s="7">
         <v>10</v>
@@ -7207,13 +7295,13 @@
         <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>13.27</v>
+        <v>0.47</v>
       </c>
       <c r="D177" s="7">
-        <v>63.368</v>
+        <v>1.5</v>
       </c>
       <c r="E177" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F177" s="7">
         <v>1</v>
@@ -7232,13 +7320,13 @@
         <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D178" s="7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E178" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F178" s="7">
         <v>1</v>
@@ -7257,19 +7345,19 @@
         <v>364</v>
       </c>
       <c r="C179" s="7">
-        <v>0.5600000000000001</v>
+        <v>15.61</v>
       </c>
       <c r="D179" s="7">
-        <v>1.2</v>
+        <v>58.927</v>
       </c>
       <c r="E179" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F179" s="7">
         <v>1</v>
       </c>
       <c r="G179" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
@@ -7282,19 +7370,19 @@
         <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>15.61</v>
+        <v>5.82</v>
       </c>
       <c r="D180" s="7">
-        <v>58.927</v>
+        <v>22.042</v>
       </c>
       <c r="E180" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F180" s="7">
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -7307,19 +7395,19 @@
         <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>5.82</v>
+        <v>24.28</v>
       </c>
       <c r="D181" s="7">
-        <v>22.042</v>
+        <v>14.652</v>
       </c>
       <c r="E181" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F181" s="7">
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
@@ -7332,19 +7420,19 @@
         <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>24.28</v>
+        <v>7.76</v>
       </c>
       <c r="D182" s="7">
-        <v>14.652</v>
+        <v>2.2</v>
       </c>
       <c r="E182" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
       </c>
       <c r="G182" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
@@ -7357,19 +7445,19 @@
         <v>372</v>
       </c>
       <c r="C183" s="7">
-        <v>7.76</v>
+        <v>16.45</v>
       </c>
       <c r="D183" s="7">
-        <v>2.2</v>
+        <v>49.362</v>
       </c>
       <c r="E183" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F183" s="7">
         <v>1</v>
       </c>
       <c r="G183" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
@@ -7382,19 +7470,19 @@
         <v>374</v>
       </c>
       <c r="C184" s="7">
-        <v>16.45</v>
+        <v>3.59</v>
       </c>
       <c r="D184" s="7">
-        <v>49.362</v>
+        <v>20</v>
       </c>
       <c r="E184" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F184" s="7">
         <v>1</v>
       </c>
       <c r="G184" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
@@ -7407,13 +7495,13 @@
         <v>376</v>
       </c>
       <c r="C185" s="7">
-        <v>3.59</v>
+        <v>21.78</v>
       </c>
       <c r="D185" s="7">
-        <v>20</v>
+        <v>12.128</v>
       </c>
       <c r="E185" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F185" s="7">
         <v>1</v>
@@ -7432,10 +7520,10 @@
         <v>378</v>
       </c>
       <c r="C186" s="7">
-        <v>21.78</v>
+        <v>23.37</v>
       </c>
       <c r="D186" s="7">
-        <v>12.128</v>
+        <v>24.4</v>
       </c>
       <c r="E186" s="7">
         <v>25</v>
@@ -7457,13 +7545,13 @@
         <v>380</v>
       </c>
       <c r="C187" s="7">
-        <v>23.37</v>
+        <v>4.12</v>
       </c>
       <c r="D187" s="7">
-        <v>24.4</v>
+        <v>45.8</v>
       </c>
       <c r="E187" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F187" s="7">
         <v>1</v>
@@ -7482,13 +7570,13 @@
         <v>382</v>
       </c>
       <c r="C188" s="7">
-        <v>4.12</v>
+        <v>5.03</v>
       </c>
       <c r="D188" s="7">
-        <v>45.8</v>
+        <v>40</v>
       </c>
       <c r="E188" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F188" s="7">
         <v>1</v>
@@ -7507,10 +7595,10 @@
         <v>384</v>
       </c>
       <c r="C189" s="7">
-        <v>5.03</v>
+        <v>1.49</v>
       </c>
       <c r="D189" s="7">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E189" s="7">
         <v>6</v>
@@ -7532,13 +7620,13 @@
         <v>386</v>
       </c>
       <c r="C190" s="7">
-        <v>1.49</v>
+        <v>0.31</v>
       </c>
       <c r="D190" s="7">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="E190" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F190" s="7">
         <v>1</v>
@@ -7557,13 +7645,13 @@
         <v>388</v>
       </c>
       <c r="C191" s="7">
-        <v>0.31</v>
+        <v>7.19</v>
       </c>
       <c r="D191" s="7">
-        <v>1.2</v>
+        <v>9.5</v>
       </c>
       <c r="E191" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F191" s="7">
         <v>1</v>
@@ -7582,19 +7670,19 @@
         <v>390</v>
       </c>
       <c r="C192" s="7">
-        <v>7.19</v>
+        <v>70.06</v>
       </c>
       <c r="D192" s="7">
-        <v>9.5</v>
+        <v>196.686</v>
       </c>
       <c r="E192" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F192" s="7">
         <v>1</v>
       </c>
       <c r="G192" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
@@ -7607,10 +7695,10 @@
         <v>392</v>
       </c>
       <c r="C193" s="7">
-        <v>70.06</v>
+        <v>111.05</v>
       </c>
       <c r="D193" s="7">
-        <v>196.686</v>
+        <v>318.558</v>
       </c>
       <c r="E193" s="7">
         <v>12</v>
@@ -7619,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
@@ -7632,10 +7720,10 @@
         <v>394</v>
       </c>
       <c r="C194" s="7">
-        <v>111.05</v>
+        <v>131.62</v>
       </c>
       <c r="D194" s="7">
-        <v>318.558</v>
+        <v>361.925</v>
       </c>
       <c r="E194" s="7">
         <v>12</v>
@@ -7644,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
@@ -8157,10 +8245,10 @@
         <v>436</v>
       </c>
       <c r="C215" s="7">
-        <v>167.31</v>
+        <v>23.06</v>
       </c>
       <c r="D215" s="7">
-        <v>485</v>
+        <v>62.716</v>
       </c>
       <c r="E215" s="7">
         <v>12</v>
@@ -8169,14 +8257,10 @@
         <v>1</v>
       </c>
       <c r="G215" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H215" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I215" s="7">
-        <v>0.37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
     </row>
     <row r="216" ht="13.55" customHeight="1">
       <c r="A216" t="s" s="6">
@@ -8186,10 +8270,10 @@
         <v>438</v>
       </c>
       <c r="C216" s="7">
-        <v>43.47</v>
+        <v>21.01</v>
       </c>
       <c r="D216" s="7">
-        <v>118.61</v>
+        <v>59.231</v>
       </c>
       <c r="E216" s="7">
         <v>12</v>
@@ -8198,14 +8282,10 @@
         <v>1</v>
       </c>
       <c r="G216" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H216" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I216" s="7">
-        <v>0.18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
     </row>
     <row r="217" ht="13.55" customHeight="1">
       <c r="A217" t="s" s="6">
@@ -8215,10 +8295,10 @@
         <v>440</v>
       </c>
       <c r="C217" s="7">
-        <v>99.67</v>
+        <v>21.62</v>
       </c>
       <c r="D217" s="7">
-        <v>118.61</v>
+        <v>61.646</v>
       </c>
       <c r="E217" s="7">
         <v>12</v>
@@ -8227,14 +8307,10 @@
         <v>1</v>
       </c>
       <c r="G217" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H217" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I217" s="7">
-        <v>1.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
     </row>
     <row r="218" ht="13.55" customHeight="1">
       <c r="A218" t="s" s="6">
@@ -8244,10 +8320,10 @@
         <v>442</v>
       </c>
       <c r="C218" s="7">
-        <v>34.58</v>
+        <v>25.66</v>
       </c>
       <c r="D218" s="7">
-        <v>104.31</v>
+        <v>70</v>
       </c>
       <c r="E218" s="7">
         <v>12</v>
@@ -8256,14 +8332,10 @@
         <v>1</v>
       </c>
       <c r="G218" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H218" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I218" s="7">
-        <v>0.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H218" s="8"/>
+      <c r="I218" s="8"/>
     </row>
     <row r="219" ht="13.55" customHeight="1">
       <c r="A219" t="s" s="6">
@@ -8273,10 +8345,10 @@
         <v>444</v>
       </c>
       <c r="C219" s="7">
-        <v>45.49</v>
+        <v>23.76</v>
       </c>
       <c r="D219" s="7">
-        <v>110</v>
+        <v>66.905</v>
       </c>
       <c r="E219" s="7">
         <v>12</v>
@@ -8285,14 +8357,10 @@
         <v>1</v>
       </c>
       <c r="G219" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H219" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I219" s="7">
-        <v>0.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H219" s="8"/>
+      <c r="I219" s="8"/>
     </row>
     <row r="220" ht="13.55" customHeight="1">
       <c r="A220" t="s" s="6">
@@ -8302,10 +8370,10 @@
         <v>446</v>
       </c>
       <c r="C220" s="7">
-        <v>194.66</v>
+        <v>22.65</v>
       </c>
       <c r="D220" s="7">
-        <v>561.2</v>
+        <v>64.511</v>
       </c>
       <c r="E220" s="7">
         <v>12</v>
@@ -8314,14 +8382,10 @@
         <v>1</v>
       </c>
       <c r="G220" s="7">
-        <v>3</v>
-      </c>
-      <c r="H220" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I220" s="7">
-        <v>0.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H220" s="8"/>
+      <c r="I220" s="8"/>
     </row>
     <row r="221" ht="13.55" customHeight="1">
       <c r="A221" t="s" s="6">
@@ -8331,10 +8395,10 @@
         <v>448</v>
       </c>
       <c r="C221" s="7">
-        <v>321.56</v>
+        <v>27.09</v>
       </c>
       <c r="D221" s="7">
-        <v>850.95</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="E221" s="7">
         <v>12</v>
@@ -8343,14 +8407,10 @@
         <v>1</v>
       </c>
       <c r="G221" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H221" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I221" s="7">
-        <v>1.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H221" s="8"/>
+      <c r="I221" s="8"/>
     </row>
     <row r="222" ht="13.55" customHeight="1">
       <c r="A222" t="s" s="6">
@@ -8360,26 +8420,22 @@
         <v>450</v>
       </c>
       <c r="C222" s="7">
-        <v>28.94</v>
+        <v>37.52</v>
       </c>
       <c r="D222" s="7">
-        <v>24.88</v>
+        <v>95.16</v>
       </c>
       <c r="E222" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F222" s="7">
         <v>1</v>
       </c>
       <c r="G222" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H222" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I222" s="7">
-        <v>0.35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H222" s="8"/>
+      <c r="I222" s="8"/>
     </row>
     <row r="223" ht="13.55" customHeight="1">
       <c r="A223" t="s" s="6">
@@ -8389,26 +8445,22 @@
         <v>452</v>
       </c>
       <c r="C223" s="7">
-        <v>43.34</v>
+        <v>36.86</v>
       </c>
       <c r="D223" s="7">
-        <v>24.18</v>
+        <v>95.16</v>
       </c>
       <c r="E223" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F223" s="7">
         <v>1</v>
       </c>
       <c r="G223" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H223" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I223" s="7">
-        <v>0.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
     </row>
     <row r="224" ht="13.55" customHeight="1">
       <c r="A224" t="s" s="6">
@@ -8418,26 +8470,22 @@
         <v>454</v>
       </c>
       <c r="C224" s="7">
-        <v>19.21</v>
+        <v>36.87</v>
       </c>
       <c r="D224" s="7">
-        <v>5</v>
+        <v>95.16</v>
       </c>
       <c r="E224" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F224" s="7">
         <v>1</v>
       </c>
       <c r="G224" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H224" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I224" s="7">
-        <v>0.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H224" s="8"/>
+      <c r="I224" s="8"/>
     </row>
     <row r="225" ht="13.55" customHeight="1">
       <c r="A225" t="s" s="6">
@@ -8447,26 +8495,22 @@
         <v>456</v>
       </c>
       <c r="C225" s="7">
-        <v>195.6</v>
+        <v>37.41</v>
       </c>
       <c r="D225" s="7">
-        <v>17</v>
+        <v>95.16</v>
       </c>
       <c r="E225" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F225" s="7">
         <v>1</v>
       </c>
       <c r="G225" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H225" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I225" s="7">
-        <v>3.16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H225" s="8"/>
+      <c r="I225" s="8"/>
     </row>
     <row r="226" ht="13.55" customHeight="1">
       <c r="A226" t="s" s="6">
@@ -8476,26 +8520,22 @@
         <v>458</v>
       </c>
       <c r="C226" s="7">
-        <v>31.58</v>
+        <v>13.76</v>
       </c>
       <c r="D226" s="7">
-        <v>145.52</v>
+        <v>79.3</v>
       </c>
       <c r="E226" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F226" s="7">
         <v>1</v>
       </c>
       <c r="G226" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H226" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I226" s="7">
-        <v>-6.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H226" s="8"/>
+      <c r="I226" s="8"/>
     </row>
     <row r="227" ht="13.55" customHeight="1">
       <c r="A227" t="s" s="6">
@@ -8505,26 +8545,22 @@
         <v>460</v>
       </c>
       <c r="C227" s="7">
-        <v>34.53</v>
+        <v>5.91</v>
       </c>
       <c r="D227" s="7">
-        <v>12.17</v>
+        <v>31</v>
       </c>
       <c r="E227" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F227" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G227" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="H227" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I227" s="7">
-        <v>-0.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H227" s="8"/>
+      <c r="I227" s="8"/>
     </row>
     <row r="228" ht="13.55" customHeight="1">
       <c r="A228" t="s" s="6">
@@ -8534,10 +8570,10 @@
         <v>462</v>
       </c>
       <c r="C228" s="7">
-        <v>9.35</v>
+        <v>167.31</v>
       </c>
       <c r="D228" s="7">
-        <v>30</v>
+        <v>485</v>
       </c>
       <c r="E228" s="7">
         <v>12</v>
@@ -8546,10 +8582,387 @@
         <v>1</v>
       </c>
       <c r="G228" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="H228" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I228" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="229" ht="13.55" customHeight="1">
+      <c r="A229" t="s" s="6">
+        <v>463</v>
+      </c>
+      <c r="B229" t="s" s="6">
+        <v>464</v>
+      </c>
+      <c r="C229" s="7">
+        <v>43.47</v>
+      </c>
+      <c r="D229" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E229" s="7">
+        <v>12</v>
+      </c>
+      <c r="F229" s="7">
+        <v>1</v>
+      </c>
+      <c r="G229" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H229" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I229" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="230" ht="13.55" customHeight="1">
+      <c r="A230" t="s" s="6">
+        <v>465</v>
+      </c>
+      <c r="B230" t="s" s="6">
+        <v>466</v>
+      </c>
+      <c r="C230" s="7">
+        <v>99.67</v>
+      </c>
+      <c r="D230" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E230" s="7">
+        <v>12</v>
+      </c>
+      <c r="F230" s="7">
+        <v>1</v>
+      </c>
+      <c r="G230" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H230" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I230" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="231" ht="13.55" customHeight="1">
+      <c r="A231" t="s" s="6">
+        <v>467</v>
+      </c>
+      <c r="B231" t="s" s="6">
+        <v>468</v>
+      </c>
+      <c r="C231" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D231" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E231" s="7">
+        <v>12</v>
+      </c>
+      <c r="F231" s="7">
+        <v>1</v>
+      </c>
+      <c r="G231" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H231" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I231" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="232" ht="13.55" customHeight="1">
+      <c r="A232" t="s" s="6">
+        <v>469</v>
+      </c>
+      <c r="B232" t="s" s="6">
+        <v>470</v>
+      </c>
+      <c r="C232" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D232" s="7">
+        <v>110</v>
+      </c>
+      <c r="E232" s="7">
+        <v>12</v>
+      </c>
+      <c r="F232" s="7">
+        <v>1</v>
+      </c>
+      <c r="G232" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H232" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I232" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="233" ht="13.55" customHeight="1">
+      <c r="A233" t="s" s="6">
+        <v>471</v>
+      </c>
+      <c r="B233" t="s" s="6">
+        <v>472</v>
+      </c>
+      <c r="C233" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D233" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E233" s="7">
+        <v>12</v>
+      </c>
+      <c r="F233" s="7">
+        <v>1</v>
+      </c>
+      <c r="G233" s="7">
+        <v>3</v>
+      </c>
+      <c r="H233" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I233" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="234" ht="13.55" customHeight="1">
+      <c r="A234" t="s" s="6">
+        <v>473</v>
+      </c>
+      <c r="B234" t="s" s="6">
+        <v>474</v>
+      </c>
+      <c r="C234" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D234" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E234" s="7">
+        <v>12</v>
+      </c>
+      <c r="F234" s="7">
+        <v>1</v>
+      </c>
+      <c r="G234" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H234" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I234" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="235" ht="13.55" customHeight="1">
+      <c r="A235" t="s" s="6">
+        <v>475</v>
+      </c>
+      <c r="B235" t="s" s="6">
+        <v>476</v>
+      </c>
+      <c r="C235" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D235" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E235" s="7">
+        <v>20</v>
+      </c>
+      <c r="F235" s="7">
+        <v>1</v>
+      </c>
+      <c r="G235" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H235" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I235" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="236" ht="13.55" customHeight="1">
+      <c r="A236" t="s" s="6">
+        <v>477</v>
+      </c>
+      <c r="B236" t="s" s="6">
+        <v>478</v>
+      </c>
+      <c r="C236" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D236" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E236" s="7">
+        <v>25</v>
+      </c>
+      <c r="F236" s="7">
+        <v>1</v>
+      </c>
+      <c r="G236" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H236" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I236" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="237" ht="13.55" customHeight="1">
+      <c r="A237" t="s" s="6">
+        <v>479</v>
+      </c>
+      <c r="B237" t="s" s="6">
+        <v>480</v>
+      </c>
+      <c r="C237" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D237" s="7">
+        <v>5</v>
+      </c>
+      <c r="E237" s="7">
+        <v>32</v>
+      </c>
+      <c r="F237" s="7">
+        <v>1</v>
+      </c>
+      <c r="G237" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H237" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I237" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="238" ht="13.55" customHeight="1">
+      <c r="A238" t="s" s="6">
+        <v>481</v>
+      </c>
+      <c r="B238" t="s" s="6">
+        <v>482</v>
+      </c>
+      <c r="C238" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D238" s="7">
+        <v>17</v>
+      </c>
+      <c r="E238" s="7">
+        <v>32</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1</v>
+      </c>
+      <c r="G238" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H238" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I238" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="239" ht="13.55" customHeight="1">
+      <c r="A239" t="s" s="6">
+        <v>483</v>
+      </c>
+      <c r="B239" t="s" s="6">
+        <v>484</v>
+      </c>
+      <c r="C239" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D239" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E239" s="7">
+        <v>10</v>
+      </c>
+      <c r="F239" s="7">
+        <v>1</v>
+      </c>
+      <c r="G239" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H239" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I239" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="240" ht="13.55" customHeight="1">
+      <c r="A240" t="s" s="6">
+        <v>485</v>
+      </c>
+      <c r="B240" t="s" s="6">
+        <v>486</v>
+      </c>
+      <c r="C240" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D240" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E240" s="7">
+        <v>25</v>
+      </c>
+      <c r="F240" s="7">
+        <v>1</v>
+      </c>
+      <c r="G240" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H240" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I240" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="241" ht="13.55" customHeight="1">
+      <c r="A241" t="s" s="6">
+        <v>487</v>
+      </c>
+      <c r="B241" t="s" s="6">
+        <v>488</v>
+      </c>
+      <c r="C241" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="D241" s="7">
+        <v>30</v>
+      </c>
+      <c r="E241" s="7">
+        <v>12</v>
+      </c>
+      <c r="F241" s="7">
+        <v>1</v>
+      </c>
+      <c r="G241" s="7">
         <v>0.6</v>
       </c>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
+      <c r="H241" s="8"/>
+      <c r="I241" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
   <si>
     <t>timestamp</t>
   </si>
@@ -52,6 +52,12 @@
     <t>03214.slp</t>
   </si>
   <si>
+    <t>2024-09-05 08:50:02</t>
+  </si>
+  <si>
+    <t>03859.slp</t>
+  </si>
+  <si>
     <t>2024-06-07 11:20:02</t>
   </si>
   <si>
@@ -148,6 +154,18 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
+    <t>2024-09-11 10:50:20</t>
+  </si>
+  <si>
+    <t>55531355-perforaciones placa izquierda.slp</t>
+  </si>
+  <si>
+    <t>2024-09-03 13:04:18</t>
+  </si>
+  <si>
+    <t>Boquillas.slp</t>
+  </si>
+  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -1396,6 +1414,180 @@
     <t>L_03583.NC</t>
   </si>
   <si>
+    <t>2024-09-02 10:37:58</t>
+  </si>
+  <si>
+    <t>L_03616.NC</t>
+  </si>
+  <si>
+    <t>2024-09-02 10:54:01</t>
+  </si>
+  <si>
+    <t>L_03617.NC</t>
+  </si>
+  <si>
+    <t>2024-09-02 11:48:58</t>
+  </si>
+  <si>
+    <t>L_03618.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 11:40:47</t>
+  </si>
+  <si>
+    <t>L_03732.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 16:05:29</t>
+  </si>
+  <si>
+    <t>L_03733.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 12:21:06</t>
+  </si>
+  <si>
+    <t>L_03734.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 15:05:05</t>
+  </si>
+  <si>
+    <t>L_03735.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 12:48:51</t>
+  </si>
+  <si>
+    <t>L_03736.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 13:34:33</t>
+  </si>
+  <si>
+    <t>L_03737.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 16:17:28</t>
+  </si>
+  <si>
+    <t>L_03741.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 16:51:39</t>
+  </si>
+  <si>
+    <t>L_03742.NC</t>
+  </si>
+  <si>
+    <t>2024-09-05 15:09:46</t>
+  </si>
+  <si>
+    <t>L_03767.NC</t>
+  </si>
+  <si>
+    <t>2024-09-06 09:57:53</t>
+  </si>
+  <si>
+    <t>L_03768.NC</t>
+  </si>
+  <si>
+    <t>2024-09-06 11:55:04</t>
+  </si>
+  <si>
+    <t>L_03769.NC</t>
+  </si>
+  <si>
+    <t>2024-09-06 14:43:32</t>
+  </si>
+  <si>
+    <t>L_03770.NC</t>
+  </si>
+  <si>
+    <t>2024-09-09 10:49:31</t>
+  </si>
+  <si>
+    <t>L_03776.NC</t>
+  </si>
+  <si>
+    <t>2024-09-09 08:12:23</t>
+  </si>
+  <si>
+    <t>L_03777.NC</t>
+  </si>
+  <si>
+    <t>2024-09-09 10:12:24</t>
+  </si>
+  <si>
+    <t>L_03789.NC</t>
+  </si>
+  <si>
+    <t>2024-09-10 09:17:34</t>
+  </si>
+  <si>
+    <t>L_03790.NC</t>
+  </si>
+  <si>
+    <t>2024-09-11 09:02:45</t>
+  </si>
+  <si>
+    <t>L_03791.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 11:50:54</t>
+  </si>
+  <si>
+    <t>L_03809.NC</t>
+  </si>
+  <si>
+    <t>2024-09-04 17:07:03</t>
+  </si>
+  <si>
+    <t>L_03896.NC</t>
+  </si>
+  <si>
+    <t>2024-09-05 09:43:53</t>
+  </si>
+  <si>
+    <t>L_03907.NC</t>
+  </si>
+  <si>
+    <t>2024-09-06 08:17:03</t>
+  </si>
+  <si>
+    <t>L_03908.NC</t>
+  </si>
+  <si>
+    <t>2024-09-05 16:52:21</t>
+  </si>
+  <si>
+    <t>L_03909.NC</t>
+  </si>
+  <si>
+    <t>2024-09-12 17:19:45</t>
+  </si>
+  <si>
+    <t>L_04009.NC</t>
+  </si>
+  <si>
+    <t>2024-09-10 14:41:01</t>
+  </si>
+  <si>
+    <t>L_04019.NC</t>
+  </si>
+  <si>
+    <t>2024-09-11 08:23:33</t>
+  </si>
+  <si>
+    <t>L_04020.NC</t>
+  </si>
+  <si>
+    <t>2024-09-10 17:00:37</t>
+  </si>
+  <si>
+    <t>L_04021.NC</t>
+  </si>
+  <si>
     <t>2024-06-12 08:57:56</t>
   </si>
   <si>
@@ -1474,10 +1666,34 @@
     <t>PV-55391556-Result1-1 25MM.lxds</t>
   </si>
   <si>
+    <t>2024-09-12 17:07:33</t>
+  </si>
+  <si>
+    <t>Peineta mesa.slp</t>
+  </si>
+  <si>
     <t>2024-07-25 15:54:38</t>
   </si>
   <si>
     <t>bisel de forma 02.slp</t>
+  </si>
+  <si>
+    <t>2024-09-05 17:07:53</t>
+  </si>
+  <si>
+    <t>choki cuadrado.slp</t>
+  </si>
+  <si>
+    <t>2024-09-02 13:29:28</t>
+  </si>
+  <si>
+    <t>espatula.slp</t>
+  </si>
+  <si>
+    <t>2024-09-04 09:35:39</t>
+  </si>
+  <si>
+    <t>pieza sold.slp</t>
   </si>
 </sst>
 </file>
@@ -2721,14 +2937,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -2820,26 +3036,14 @@
         <v>14</v>
       </c>
       <c r="C4" s="7">
-        <v>146.86</v>
-      </c>
-      <c r="D4" s="7">
-        <v>420.79</v>
-      </c>
-      <c r="E4" s="7">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2.45</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.47</v>
-      </c>
+        <v>4.02</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="6">
@@ -2849,10 +3053,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>235.62</v>
+        <v>146.86</v>
       </c>
       <c r="D5" s="7">
-        <v>866.7</v>
+        <v>420.79</v>
       </c>
       <c r="E5" s="7">
         <v>12</v>
@@ -2861,13 +3065,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="H5" s="7">
-        <v>3.93</v>
+        <v>2.45</v>
       </c>
       <c r="I5" s="7">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
@@ -2878,10 +3082,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="7">
-        <v>330.88</v>
+        <v>235.62</v>
       </c>
       <c r="D6" s="7">
-        <v>971.88</v>
+        <v>866.7</v>
       </c>
       <c r="E6" s="7">
         <v>12</v>
@@ -2890,13 +3094,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="H6" s="7">
-        <v>5.52</v>
+        <v>3.93</v>
       </c>
       <c r="I6" s="7">
-        <v>1.95</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
@@ -2907,25 +3111,25 @@
         <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>14.42</v>
+        <v>330.88</v>
       </c>
       <c r="D7" s="7">
-        <v>67</v>
+        <v>971.88</v>
       </c>
       <c r="E7" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>1.93</v>
+        <v>3.57</v>
       </c>
       <c r="H7" s="7">
-        <v>0.25</v>
+        <v>5.52</v>
       </c>
       <c r="I7" s="7">
-        <v>-1.68</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -2936,10 +3140,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>3.32</v>
+        <v>14.42</v>
       </c>
       <c r="D8" s="7">
-        <v>6.7</v>
+        <v>67</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -2948,13 +3152,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>0.02</v>
+        <v>1.93</v>
       </c>
       <c r="H8" s="7">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="I8" s="7">
-        <v>0.04</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -2965,25 +3169,25 @@
         <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>0.92</v>
+        <v>3.32</v>
       </c>
       <c r="D9" s="7">
-        <v>3.03</v>
+        <v>6.7</v>
       </c>
       <c r="E9" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H9" s="7">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I9" s="7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
@@ -2994,13 +3198,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
       <c r="D10" s="7">
-        <v>5.59</v>
+        <v>3.03</v>
       </c>
       <c r="E10" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -3023,25 +3227,25 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>158.01</v>
+        <v>1.18</v>
       </c>
       <c r="D11" s="7">
-        <v>456.43</v>
+        <v>5.59</v>
       </c>
       <c r="E11" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>2.67</v>
+        <v>0.01</v>
       </c>
       <c r="H11" s="7">
-        <v>2.64</v>
+        <v>0.02</v>
       </c>
       <c r="I11" s="7">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
@@ -3052,10 +3256,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>209.33</v>
+        <v>158.01</v>
       </c>
       <c r="D12" s="7">
-        <v>937</v>
+        <v>456.43</v>
       </c>
       <c r="E12" s="7">
         <v>12</v>
@@ -3064,13 +3268,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>5.17</v>
+        <v>2.67</v>
       </c>
       <c r="H12" s="7">
-        <v>3.49</v>
+        <v>2.64</v>
       </c>
       <c r="I12" s="7">
-        <v>-1.68</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
@@ -3081,10 +3285,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>161.87</v>
+        <v>209.33</v>
       </c>
       <c r="D13" s="7">
-        <v>451</v>
+        <v>937</v>
       </c>
       <c r="E13" s="7">
         <v>12</v>
@@ -3093,13 +3297,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="7">
-        <v>2.48</v>
+        <v>5.17</v>
       </c>
       <c r="H13" s="7">
-        <v>2.7</v>
+        <v>3.49</v>
       </c>
       <c r="I13" s="7">
-        <v>-0.22</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -3110,25 +3314,25 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>206.06</v>
+        <v>161.87</v>
       </c>
       <c r="D14" s="7">
-        <v>193.49</v>
+        <v>451</v>
       </c>
       <c r="E14" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>5.8</v>
+        <v>2.48</v>
       </c>
       <c r="H14" s="7">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="I14" s="7">
-        <v>-2.36</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
@@ -3139,10 +3343,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="7">
-        <v>273.9</v>
+        <v>206.06</v>
       </c>
       <c r="D15" s="7">
-        <v>219.37</v>
+        <v>193.49</v>
       </c>
       <c r="E15" s="7">
         <v>16</v>
@@ -3151,13 +3355,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="H15" s="7">
-        <v>4.57</v>
+        <v>3.44</v>
       </c>
       <c r="I15" s="7">
-        <v>-2.03</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
@@ -3168,25 +3372,25 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>17.87</v>
+        <v>273.9</v>
       </c>
       <c r="D16" s="7">
-        <v>78.2</v>
+        <v>219.37</v>
       </c>
       <c r="E16" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H16" s="7">
-        <v>0.3</v>
+        <v>4.57</v>
       </c>
       <c r="I16" s="7">
-        <v>-2</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -3197,10 +3401,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>4.87</v>
+        <v>17.87</v>
       </c>
       <c r="D17" s="7">
-        <v>30</v>
+        <v>78.2</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -3209,13 +3413,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>0.87</v>
+        <v>2.3</v>
       </c>
       <c r="H17" s="7">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="I17" s="7">
-        <v>-0.78</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -3226,10 +3430,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="7">
-        <v>5.55</v>
+        <v>4.87</v>
       </c>
       <c r="D18" s="7">
-        <v>34.25</v>
+        <v>30</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
@@ -3238,13 +3442,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="H18" s="7">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I18" s="7">
-        <v>-0.9</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -3255,10 +3459,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="7">
-        <v>5.66</v>
+        <v>5.55</v>
       </c>
       <c r="D19" s="7">
-        <v>27.37</v>
+        <v>34.25</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -3267,13 +3471,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
         <v>0.1</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
@@ -3284,10 +3488,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>6.17</v>
+        <v>5.66</v>
       </c>
       <c r="D20" s="7">
-        <v>23.8</v>
+        <v>27.37</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
@@ -3296,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>0.13</v>
+        <v>0.8</v>
       </c>
       <c r="H20" s="7">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I20" s="7">
-        <v>-0.02</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
@@ -3313,26 +3517,14 @@
         <v>48</v>
       </c>
       <c r="C21" s="7">
-        <v>6.65</v>
-      </c>
-      <c r="D21" s="7">
-        <v>24.8</v>
-      </c>
-      <c r="E21" s="7">
-        <v>3</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="I21" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>77.70999999999999</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="6">
@@ -3342,26 +3534,14 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>7.18</v>
-      </c>
-      <c r="D22" s="7">
-        <v>26.7</v>
-      </c>
-      <c r="E22" s="7">
-        <v>3</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="I22" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>6.51</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="6">
@@ -3371,10 +3551,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="7">
-        <v>21.94</v>
+        <v>6.17</v>
       </c>
       <c r="D23" s="7">
-        <v>9</v>
+        <v>23.8</v>
       </c>
       <c r="E23" s="7">
         <v>3</v>
@@ -3383,13 +3563,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="7">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="H23" s="7">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="I23" s="7">
-        <v>0.32</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
@@ -3400,25 +3580,25 @@
         <v>54</v>
       </c>
       <c r="C24" s="7">
-        <v>30.37</v>
+        <v>6.65</v>
       </c>
       <c r="D24" s="7">
-        <v>116.8</v>
+        <v>24.8</v>
       </c>
       <c r="E24" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>1.5</v>
+        <v>0.14</v>
       </c>
       <c r="H24" s="7">
-        <v>0.51</v>
+        <v>0.12</v>
       </c>
       <c r="I24" s="7">
-        <v>0.99</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
@@ -3429,25 +3609,25 @@
         <v>56</v>
       </c>
       <c r="C25" s="7">
-        <v>19.9</v>
+        <v>7.18</v>
       </c>
       <c r="D25" s="7">
-        <v>69.682</v>
+        <v>26.7</v>
       </c>
       <c r="E25" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="H25" s="7">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="I25" s="7">
-        <v>0.67</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
@@ -3458,25 +3638,25 @@
         <v>58</v>
       </c>
       <c r="C26" s="7">
-        <v>15.77</v>
+        <v>21.94</v>
       </c>
       <c r="D26" s="7">
-        <v>27.16</v>
+        <v>9</v>
       </c>
       <c r="E26" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H26" s="7">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="I26" s="7">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
@@ -3487,25 +3667,25 @@
         <v>60</v>
       </c>
       <c r="C27" s="7">
-        <v>11.26</v>
+        <v>30.37</v>
       </c>
       <c r="D27" s="7">
-        <v>50.5</v>
+        <v>116.8</v>
       </c>
       <c r="E27" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>0.46</v>
+        <v>1.5</v>
       </c>
       <c r="H27" s="7">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="I27" s="7">
-        <v>0.27</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -3516,25 +3696,25 @@
         <v>62</v>
       </c>
       <c r="C28" s="7">
-        <v>3.76</v>
+        <v>19.9</v>
       </c>
       <c r="D28" s="7">
-        <v>19.7</v>
+        <v>69.682</v>
       </c>
       <c r="E28" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="I28" s="7">
-        <v>0.06</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3545,25 +3725,25 @@
         <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>25.79</v>
+        <v>15.77</v>
       </c>
       <c r="D29" s="7">
-        <v>18.9</v>
+        <v>27.16</v>
       </c>
       <c r="E29" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="7">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="I29" s="7">
-        <v>-0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -3574,25 +3754,25 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>3.77</v>
+        <v>11.26</v>
       </c>
       <c r="D30" s="7">
-        <v>12.5</v>
+        <v>50.5</v>
       </c>
       <c r="E30" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>0.13</v>
+        <v>0.46</v>
       </c>
       <c r="H30" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I30" s="7">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
@@ -3603,10 +3783,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>2.98</v>
+        <v>3.76</v>
       </c>
       <c r="D31" s="7">
-        <v>13.7</v>
+        <v>19.7</v>
       </c>
       <c r="E31" s="7">
         <v>8</v>
@@ -3615,10 +3795,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H31" s="7">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" s="7">
         <v>0.06</v>
@@ -3632,24 +3812,26 @@
         <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>0.5600000000000001</v>
+        <v>25.79</v>
       </c>
       <c r="D32" s="7">
-        <v>2</v>
+        <v>18.9</v>
       </c>
       <c r="E32" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="H32" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="8"/>
+        <v>0.43</v>
+      </c>
+      <c r="I32" s="7">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="6">
@@ -3659,25 +3841,25 @@
         <v>72</v>
       </c>
       <c r="C33" s="7">
-        <v>3.48</v>
+        <v>3.77</v>
       </c>
       <c r="D33" s="7">
-        <v>1.2</v>
+        <v>12.5</v>
       </c>
       <c r="E33" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H33" s="7">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I33" s="7">
         <v>0.06</v>
-      </c>
-      <c r="I33" s="7">
-        <v>-0.05</v>
       </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
@@ -3688,25 +3870,25 @@
         <v>74</v>
       </c>
       <c r="C34" s="7">
-        <v>4.16</v>
+        <v>2.98</v>
       </c>
       <c r="D34" s="7">
-        <v>0.33</v>
+        <v>13.7</v>
       </c>
       <c r="E34" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H34" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I34" s="7">
-        <v>-0.06</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
@@ -3717,13 +3899,13 @@
         <v>76</v>
       </c>
       <c r="C35" s="7">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D35" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
@@ -3734,9 +3916,7 @@
       <c r="H35" s="7">
         <v>0.01</v>
       </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="6">
@@ -3746,13 +3926,13 @@
         <v>78</v>
       </c>
       <c r="C36" s="7">
-        <v>1.23</v>
+        <v>3.48</v>
       </c>
       <c r="D36" s="7">
-        <v>2.428</v>
+        <v>1.2</v>
       </c>
       <c r="E36" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -3761,10 +3941,10 @@
         <v>0.01</v>
       </c>
       <c r="H36" s="7">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I36" s="7">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
@@ -3775,24 +3955,26 @@
         <v>80</v>
       </c>
       <c r="C37" s="7">
-        <v>3.13</v>
+        <v>4.16</v>
       </c>
       <c r="D37" s="7">
-        <v>7.3</v>
+        <v>0.33</v>
       </c>
       <c r="E37" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
       </c>
       <c r="G37" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H37" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I37" s="8"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I37" s="7">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="6">
@@ -3802,13 +3984,13 @@
         <v>82</v>
       </c>
       <c r="C38" s="7">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="D38" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
@@ -3819,7 +4001,9 @@
       <c r="H38" s="7">
         <v>0.01</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="6">
@@ -3829,25 +4013,25 @@
         <v>84</v>
       </c>
       <c r="C39" s="7">
-        <v>5.83</v>
+        <v>1.23</v>
       </c>
       <c r="D39" s="7">
-        <v>4</v>
+        <v>2.428</v>
       </c>
       <c r="E39" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H39" s="7">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I39" s="7">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
@@ -3858,26 +4042,24 @@
         <v>86</v>
       </c>
       <c r="C40" s="7">
-        <v>7.43</v>
+        <v>3.13</v>
       </c>
       <c r="D40" s="7">
-        <v>12.8</v>
+        <v>7.3</v>
       </c>
       <c r="E40" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H40" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="I40" s="7">
-        <v>-0.01</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="6">
@@ -3887,26 +4069,24 @@
         <v>88</v>
       </c>
       <c r="C41" s="7">
-        <v>10.63</v>
+        <v>0.35</v>
       </c>
       <c r="D41" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="H41" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="I41" s="7">
-        <v>-0.05</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="6">
@@ -3916,25 +4096,25 @@
         <v>90</v>
       </c>
       <c r="C42" s="7">
-        <v>8.880000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="D42" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="7">
         <v>0.01</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I42" s="7">
-        <v>-0.14</v>
       </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
@@ -3945,22 +4125,26 @@
         <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>2.71</v>
+        <v>7.43</v>
       </c>
       <c r="D43" s="7">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="E43" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="I43" s="7">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="6">
@@ -3970,10 +4154,10 @@
         <v>94</v>
       </c>
       <c r="C44" s="7">
-        <v>144.21</v>
+        <v>10.63</v>
       </c>
       <c r="D44" s="7">
-        <v>90.3</v>
+        <v>4</v>
       </c>
       <c r="E44" s="7">
         <v>25</v>
@@ -3982,10 +4166,14 @@
         <v>1</v>
       </c>
       <c r="G44" s="7">
-        <v>3</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+        <v>0.13</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I44" s="7">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="6">
@@ -3995,22 +4183,26 @@
         <v>96</v>
       </c>
       <c r="C45" s="7">
-        <v>12.15</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D45" s="7">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I45" s="7">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="6">
@@ -4020,19 +4212,19 @@
         <v>98</v>
       </c>
       <c r="C46" s="7">
-        <v>4.45</v>
+        <v>2.71</v>
       </c>
       <c r="D46" s="7">
-        <v>17.8</v>
+        <v>13.7</v>
       </c>
       <c r="E46" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
       <c r="G46" s="7">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -4045,19 +4237,19 @@
         <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>3.12</v>
+        <v>144.21</v>
       </c>
       <c r="D47" s="7">
-        <v>11.7</v>
+        <v>90.3</v>
       </c>
       <c r="E47" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="7">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -4070,19 +4262,19 @@
         <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>4.28</v>
+        <v>12.15</v>
       </c>
       <c r="D48" s="7">
-        <v>13.5</v>
+        <v>77</v>
       </c>
       <c r="E48" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
       <c r="G48" s="7">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4095,19 +4287,19 @@
         <v>104</v>
       </c>
       <c r="C49" s="7">
-        <v>3.26</v>
+        <v>4.45</v>
       </c>
       <c r="D49" s="7">
-        <v>10.4</v>
+        <v>17.8</v>
       </c>
       <c r="E49" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F49" s="7">
         <v>1</v>
       </c>
       <c r="G49" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -4120,19 +4312,19 @@
         <v>106</v>
       </c>
       <c r="C50" s="7">
-        <v>15.61</v>
+        <v>3.12</v>
       </c>
       <c r="D50" s="7">
-        <v>14.3</v>
+        <v>11.7</v>
       </c>
       <c r="E50" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7">
         <v>1</v>
       </c>
       <c r="G50" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -4145,19 +4337,19 @@
         <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>9.58</v>
+        <v>4.28</v>
       </c>
       <c r="D51" s="7">
-        <v>40.2</v>
+        <v>13.5</v>
       </c>
       <c r="E51" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -4170,19 +4362,19 @@
         <v>110</v>
       </c>
       <c r="C52" s="7">
-        <v>12.55</v>
+        <v>3.26</v>
       </c>
       <c r="D52" s="7">
-        <v>55</v>
+        <v>10.4</v>
       </c>
       <c r="E52" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -4195,19 +4387,19 @@
         <v>112</v>
       </c>
       <c r="C53" s="7">
-        <v>19.1</v>
+        <v>15.61</v>
       </c>
       <c r="D53" s="7">
-        <v>90.90000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="E53" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -4220,10 +4412,10 @@
         <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>24.33</v>
+        <v>9.58</v>
       </c>
       <c r="D54" s="7">
-        <v>211.504</v>
+        <v>40.2</v>
       </c>
       <c r="E54" s="7">
         <v>6</v>
@@ -4245,19 +4437,19 @@
         <v>116</v>
       </c>
       <c r="C55" s="7">
-        <v>25.6</v>
+        <v>12.55</v>
       </c>
       <c r="D55" s="7">
-        <v>24.5</v>
+        <v>55</v>
       </c>
       <c r="E55" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -4270,19 +4462,19 @@
         <v>118</v>
       </c>
       <c r="C56" s="7">
-        <v>156.12</v>
+        <v>19.1</v>
       </c>
       <c r="D56" s="7">
-        <v>242.709</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E56" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>6.5</v>
+        <v>0.2</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -4295,19 +4487,19 @@
         <v>120</v>
       </c>
       <c r="C57" s="7">
-        <v>30.88</v>
+        <v>24.33</v>
       </c>
       <c r="D57" s="7">
-        <v>110.075</v>
+        <v>211.504</v>
       </c>
       <c r="E57" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -4320,10 +4512,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="7">
-        <v>10</v>
+        <v>25.6</v>
       </c>
       <c r="D58" s="7">
-        <v>14.012</v>
+        <v>24.5</v>
       </c>
       <c r="E58" s="7">
         <v>12</v>
@@ -4332,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -4345,19 +4537,19 @@
         <v>124</v>
       </c>
       <c r="C59" s="7">
-        <v>88.03</v>
+        <v>156.12</v>
       </c>
       <c r="D59" s="7">
-        <v>30.4</v>
+        <v>242.709</v>
       </c>
       <c r="E59" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -4370,19 +4562,19 @@
         <v>126</v>
       </c>
       <c r="C60" s="7">
-        <v>25.66</v>
+        <v>30.88</v>
       </c>
       <c r="D60" s="7">
-        <v>135.2</v>
+        <v>110.075</v>
       </c>
       <c r="E60" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -4395,19 +4587,19 @@
         <v>128</v>
       </c>
       <c r="C61" s="7">
-        <v>20.96</v>
+        <v>10</v>
       </c>
       <c r="D61" s="7">
-        <v>118.6</v>
+        <v>14.012</v>
       </c>
       <c r="E61" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -4420,10 +4612,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="7">
-        <v>24.99</v>
+        <v>88.03</v>
       </c>
       <c r="D62" s="7">
-        <v>135.112</v>
+        <v>30.4</v>
       </c>
       <c r="E62" s="7">
         <v>10</v>
@@ -4432,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -4445,10 +4637,10 @@
         <v>132</v>
       </c>
       <c r="C63" s="7">
-        <v>25.58</v>
+        <v>25.66</v>
       </c>
       <c r="D63" s="7">
-        <v>135.1</v>
+        <v>135.2</v>
       </c>
       <c r="E63" s="7">
         <v>10</v>
@@ -4470,10 +4662,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="7">
-        <v>60.31</v>
+        <v>20.96</v>
       </c>
       <c r="D64" s="7">
-        <v>313.297</v>
+        <v>118.6</v>
       </c>
       <c r="E64" s="7">
         <v>10</v>
@@ -4482,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -4495,10 +4687,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="7">
-        <v>25.52</v>
+        <v>24.99</v>
       </c>
       <c r="D65" s="7">
-        <v>137</v>
+        <v>135.112</v>
       </c>
       <c r="E65" s="7">
         <v>10</v>
@@ -4507,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -4520,10 +4712,10 @@
         <v>138</v>
       </c>
       <c r="C66" s="7">
-        <v>82.26000000000001</v>
+        <v>25.58</v>
       </c>
       <c r="D66" s="7">
-        <v>474.621</v>
+        <v>135.1</v>
       </c>
       <c r="E66" s="7">
         <v>10</v>
@@ -4532,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="7">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -4545,10 +4737,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>14.13</v>
+        <v>60.31</v>
       </c>
       <c r="D67" s="7">
-        <v>34</v>
+        <v>313.297</v>
       </c>
       <c r="E67" s="7">
         <v>10</v>
@@ -4557,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -4570,10 +4762,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>9.57</v>
+        <v>25.52</v>
       </c>
       <c r="D68" s="7">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="E68" s="7">
         <v>10</v>
@@ -4582,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -4595,10 +4787,10 @@
         <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>60.44</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D69" s="7">
-        <v>81.459</v>
+        <v>474.621</v>
       </c>
       <c r="E69" s="7">
         <v>10</v>
@@ -4607,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -4620,10 +4812,10 @@
         <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>49.26</v>
+        <v>14.13</v>
       </c>
       <c r="D70" s="7">
-        <v>183.288</v>
+        <v>34</v>
       </c>
       <c r="E70" s="7">
         <v>10</v>
@@ -4632,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -4645,19 +4837,19 @@
         <v>148</v>
       </c>
       <c r="C71" s="7">
-        <v>0.29</v>
+        <v>9.57</v>
       </c>
       <c r="D71" s="7">
-        <v>1.5</v>
+        <v>25</v>
       </c>
       <c r="E71" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F71" s="7">
         <v>1</v>
       </c>
       <c r="G71" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -4670,19 +4862,19 @@
         <v>150</v>
       </c>
       <c r="C72" s="7">
-        <v>37.15</v>
+        <v>60.44</v>
       </c>
       <c r="D72" s="7">
-        <v>7.5</v>
+        <v>81.459</v>
       </c>
       <c r="E72" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
@@ -4695,19 +4887,19 @@
         <v>152</v>
       </c>
       <c r="C73" s="7">
-        <v>12.76</v>
+        <v>49.26</v>
       </c>
       <c r="D73" s="7">
-        <v>24.919</v>
+        <v>183.288</v>
       </c>
       <c r="E73" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -4720,19 +4912,19 @@
         <v>154</v>
       </c>
       <c r="C74" s="7">
-        <v>20.38</v>
+        <v>0.29</v>
       </c>
       <c r="D74" s="7">
-        <v>74.434</v>
+        <v>1.5</v>
       </c>
       <c r="E74" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F74" s="7">
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4745,19 +4937,19 @@
         <v>156</v>
       </c>
       <c r="C75" s="7">
-        <v>10.35</v>
+        <v>37.15</v>
       </c>
       <c r="D75" s="7">
-        <v>35.091</v>
+        <v>7.5</v>
       </c>
       <c r="E75" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -4770,10 +4962,10 @@
         <v>158</v>
       </c>
       <c r="C76" s="7">
-        <v>17.77</v>
+        <v>12.76</v>
       </c>
       <c r="D76" s="7">
-        <v>65.682</v>
+        <v>24.919</v>
       </c>
       <c r="E76" s="7">
         <v>12</v>
@@ -4782,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4795,10 +4987,10 @@
         <v>160</v>
       </c>
       <c r="C77" s="7">
-        <v>18.06</v>
+        <v>20.38</v>
       </c>
       <c r="D77" s="7">
-        <v>56.867</v>
+        <v>74.434</v>
       </c>
       <c r="E77" s="7">
         <v>12</v>
@@ -4807,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -4820,10 +5012,10 @@
         <v>162</v>
       </c>
       <c r="C78" s="7">
-        <v>10.45</v>
+        <v>10.35</v>
       </c>
       <c r="D78" s="7">
-        <v>35.097</v>
+        <v>35.091</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -4845,10 +5037,10 @@
         <v>164</v>
       </c>
       <c r="C79" s="7">
-        <v>20.83</v>
+        <v>17.77</v>
       </c>
       <c r="D79" s="7">
-        <v>68.786</v>
+        <v>65.682</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -4857,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -4870,10 +5062,10 @@
         <v>166</v>
       </c>
       <c r="C80" s="7">
-        <v>9.119999999999999</v>
+        <v>18.06</v>
       </c>
       <c r="D80" s="7">
-        <v>33</v>
+        <v>56.867</v>
       </c>
       <c r="E80" s="7">
         <v>12</v>
@@ -4882,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -4895,10 +5087,10 @@
         <v>168</v>
       </c>
       <c r="C81" s="7">
-        <v>9.24</v>
+        <v>10.45</v>
       </c>
       <c r="D81" s="7">
-        <v>33.19</v>
+        <v>35.097</v>
       </c>
       <c r="E81" s="7">
         <v>12</v>
@@ -4920,10 +5112,10 @@
         <v>170</v>
       </c>
       <c r="C82" s="7">
-        <v>9.18</v>
+        <v>20.83</v>
       </c>
       <c r="D82" s="7">
-        <v>33.19</v>
+        <v>68.786</v>
       </c>
       <c r="E82" s="7">
         <v>12</v>
@@ -4932,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -4945,10 +5137,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="7">
-        <v>17.9</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D83" s="7">
-        <v>60.542</v>
+        <v>33</v>
       </c>
       <c r="E83" s="7">
         <v>12</v>
@@ -4957,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -4970,10 +5162,10 @@
         <v>174</v>
       </c>
       <c r="C84" s="7">
-        <v>39.59</v>
+        <v>9.24</v>
       </c>
       <c r="D84" s="7">
-        <v>135.375</v>
+        <v>33.19</v>
       </c>
       <c r="E84" s="7">
         <v>12</v>
@@ -4982,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -4995,10 +5187,10 @@
         <v>176</v>
       </c>
       <c r="C85" s="7">
-        <v>21.3</v>
+        <v>9.18</v>
       </c>
       <c r="D85" s="7">
-        <v>73.223</v>
+        <v>33.19</v>
       </c>
       <c r="E85" s="7">
         <v>12</v>
@@ -5007,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -5020,10 +5212,10 @@
         <v>178</v>
       </c>
       <c r="C86" s="7">
-        <v>8.65</v>
+        <v>17.9</v>
       </c>
       <c r="D86" s="7">
-        <v>28.483</v>
+        <v>60.542</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -5032,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -5045,10 +5237,10 @@
         <v>180</v>
       </c>
       <c r="C87" s="7">
-        <v>10.25</v>
+        <v>39.59</v>
       </c>
       <c r="D87" s="7">
-        <v>36.532</v>
+        <v>135.375</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -5057,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -5070,10 +5262,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="7">
-        <v>12.29</v>
+        <v>21.3</v>
       </c>
       <c r="D88" s="7">
-        <v>38.502</v>
+        <v>73.223</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -5082,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -5095,10 +5287,10 @@
         <v>184</v>
       </c>
       <c r="C89" s="7">
-        <v>13.27</v>
+        <v>8.65</v>
       </c>
       <c r="D89" s="7">
-        <v>46</v>
+        <v>28.483</v>
       </c>
       <c r="E89" s="7">
         <v>12</v>
@@ -5107,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -5120,10 +5312,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="7">
-        <v>3.32</v>
+        <v>10.25</v>
       </c>
       <c r="D90" s="7">
-        <v>11.6</v>
+        <v>36.532</v>
       </c>
       <c r="E90" s="7">
         <v>12</v>
@@ -5132,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -5145,10 +5337,10 @@
         <v>188</v>
       </c>
       <c r="C91" s="7">
-        <v>9.5</v>
+        <v>12.29</v>
       </c>
       <c r="D91" s="7">
-        <v>33.457</v>
+        <v>38.502</v>
       </c>
       <c r="E91" s="7">
         <v>12</v>
@@ -5157,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -5170,10 +5362,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="7">
-        <v>5.32</v>
+        <v>13.27</v>
       </c>
       <c r="D92" s="7">
-        <v>19.7</v>
+        <v>46</v>
       </c>
       <c r="E92" s="7">
         <v>12</v>
@@ -5182,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -5195,10 +5387,10 @@
         <v>192</v>
       </c>
       <c r="C93" s="7">
-        <v>10.58</v>
+        <v>3.32</v>
       </c>
       <c r="D93" s="7">
-        <v>37.2</v>
+        <v>11.6</v>
       </c>
       <c r="E93" s="7">
         <v>12</v>
@@ -5207,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -5220,10 +5412,10 @@
         <v>194</v>
       </c>
       <c r="C94" s="7">
-        <v>12.29</v>
+        <v>9.5</v>
       </c>
       <c r="D94" s="7">
-        <v>56.8</v>
+        <v>33.457</v>
       </c>
       <c r="E94" s="7">
         <v>12</v>
@@ -5232,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -5245,10 +5437,10 @@
         <v>196</v>
       </c>
       <c r="C95" s="7">
-        <v>30.09</v>
+        <v>5.32</v>
       </c>
       <c r="D95" s="7">
-        <v>84.102</v>
+        <v>19.7</v>
       </c>
       <c r="E95" s="7">
         <v>12</v>
@@ -5257,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -5270,10 +5462,10 @@
         <v>198</v>
       </c>
       <c r="C96" s="7">
-        <v>42.54</v>
+        <v>10.58</v>
       </c>
       <c r="D96" s="7">
-        <v>122</v>
+        <v>37.2</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -5282,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -5295,10 +5487,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="7">
-        <v>42.62</v>
+        <v>12.29</v>
       </c>
       <c r="D97" s="7">
-        <v>122</v>
+        <v>56.8</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -5307,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -5320,10 +5512,10 @@
         <v>202</v>
       </c>
       <c r="C98" s="7">
-        <v>32.67</v>
+        <v>30.09</v>
       </c>
       <c r="D98" s="7">
-        <v>107</v>
+        <v>84.102</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -5345,10 +5537,10 @@
         <v>204</v>
       </c>
       <c r="C99" s="7">
-        <v>69.61</v>
+        <v>42.54</v>
       </c>
       <c r="D99" s="7">
-        <v>248.201</v>
+        <v>122</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -5357,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -5370,10 +5562,10 @@
         <v>206</v>
       </c>
       <c r="C100" s="7">
-        <v>84.97</v>
+        <v>42.62</v>
       </c>
       <c r="D100" s="7">
-        <v>248.201</v>
+        <v>122</v>
       </c>
       <c r="E100" s="7">
         <v>12</v>
@@ -5382,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -5395,10 +5587,10 @@
         <v>208</v>
       </c>
       <c r="C101" s="7">
-        <v>120.91</v>
+        <v>32.67</v>
       </c>
       <c r="D101" s="7">
-        <v>248.201</v>
+        <v>107</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -5407,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -5420,10 +5612,10 @@
         <v>210</v>
       </c>
       <c r="C102" s="7">
-        <v>130.17</v>
+        <v>69.61</v>
       </c>
       <c r="D102" s="7">
-        <v>207</v>
+        <v>248.201</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -5445,10 +5637,10 @@
         <v>212</v>
       </c>
       <c r="C103" s="7">
-        <v>11.85</v>
+        <v>84.97</v>
       </c>
       <c r="D103" s="7">
-        <v>34.5</v>
+        <v>248.201</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -5457,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>0.53</v>
+        <v>3</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -5470,10 +5662,10 @@
         <v>214</v>
       </c>
       <c r="C104" s="7">
-        <v>17.89</v>
+        <v>120.91</v>
       </c>
       <c r="D104" s="7">
-        <v>48.7</v>
+        <v>248.201</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -5482,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -5495,10 +5687,10 @@
         <v>216</v>
       </c>
       <c r="C105" s="7">
-        <v>21.89</v>
+        <v>130.17</v>
       </c>
       <c r="D105" s="7">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -5507,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -5520,19 +5712,19 @@
         <v>218</v>
       </c>
       <c r="C106" s="7">
-        <v>0.49</v>
+        <v>11.85</v>
       </c>
       <c r="D106" s="7">
-        <v>2.234</v>
+        <v>34.5</v>
       </c>
       <c r="E106" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F106" s="7">
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -5545,10 +5737,10 @@
         <v>220</v>
       </c>
       <c r="C107" s="7">
-        <v>68.42</v>
+        <v>17.89</v>
       </c>
       <c r="D107" s="7">
-        <v>216.554</v>
+        <v>48.7</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -5557,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5570,10 +5762,10 @@
         <v>222</v>
       </c>
       <c r="C108" s="7">
-        <v>216.38</v>
+        <v>21.89</v>
       </c>
       <c r="D108" s="7">
-        <v>450.756</v>
+        <v>24</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5582,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5595,13 +5787,13 @@
         <v>224</v>
       </c>
       <c r="C109" s="7">
-        <v>22.31</v>
+        <v>0.49</v>
       </c>
       <c r="D109" s="7">
-        <v>45</v>
+        <v>2.234</v>
       </c>
       <c r="E109" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F109" s="7">
         <v>1</v>
@@ -5620,19 +5812,19 @@
         <v>226</v>
       </c>
       <c r="C110" s="7">
-        <v>1.38</v>
+        <v>68.42</v>
       </c>
       <c r="D110" s="7">
-        <v>5.475</v>
+        <v>216.554</v>
       </c>
       <c r="E110" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F110" s="7">
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -5645,13 +5837,13 @@
         <v>228</v>
       </c>
       <c r="C111" s="7">
-        <v>1.36</v>
+        <v>216.38</v>
       </c>
       <c r="D111" s="7">
-        <v>5.493</v>
+        <v>450.756</v>
       </c>
       <c r="E111" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
@@ -5670,13 +5862,13 @@
         <v>230</v>
       </c>
       <c r="C112" s="7">
-        <v>1.42</v>
+        <v>22.31</v>
       </c>
       <c r="D112" s="7">
-        <v>5.6</v>
+        <v>45</v>
       </c>
       <c r="E112" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
@@ -5695,13 +5887,13 @@
         <v>232</v>
       </c>
       <c r="C113" s="7">
-        <v>0.49</v>
+        <v>1.38</v>
       </c>
       <c r="D113" s="7">
-        <v>1.7</v>
+        <v>5.475</v>
       </c>
       <c r="E113" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
@@ -5720,13 +5912,13 @@
         <v>234</v>
       </c>
       <c r="C114" s="7">
-        <v>6.32</v>
+        <v>1.36</v>
       </c>
       <c r="D114" s="7">
-        <v>32.054</v>
+        <v>5.493</v>
       </c>
       <c r="E114" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
@@ -5745,13 +5937,13 @@
         <v>236</v>
       </c>
       <c r="C115" s="7">
-        <v>26.16</v>
+        <v>1.42</v>
       </c>
       <c r="D115" s="7">
-        <v>26.938</v>
+        <v>5.6</v>
       </c>
       <c r="E115" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F115" s="7">
         <v>1</v>
@@ -5770,13 +5962,13 @@
         <v>238</v>
       </c>
       <c r="C116" s="7">
-        <v>5.38</v>
+        <v>0.49</v>
       </c>
       <c r="D116" s="7">
-        <v>13</v>
+        <v>1.7</v>
       </c>
       <c r="E116" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F116" s="7">
         <v>1</v>
@@ -5795,19 +5987,19 @@
         <v>240</v>
       </c>
       <c r="C117" s="7">
-        <v>42.82</v>
+        <v>6.32</v>
       </c>
       <c r="D117" s="7">
-        <v>152.431</v>
+        <v>32.054</v>
       </c>
       <c r="E117" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F117" s="7">
         <v>1</v>
       </c>
       <c r="G117" s="7">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -5820,19 +6012,19 @@
         <v>242</v>
       </c>
       <c r="C118" s="7">
-        <v>43.29</v>
+        <v>26.16</v>
       </c>
       <c r="D118" s="7">
-        <v>152.431</v>
+        <v>26.938</v>
       </c>
       <c r="E118" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F118" s="7">
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -5845,19 +6037,19 @@
         <v>244</v>
       </c>
       <c r="C119" s="7">
-        <v>48.75</v>
+        <v>5.38</v>
       </c>
       <c r="D119" s="7">
-        <v>175.457</v>
+        <v>13</v>
       </c>
       <c r="E119" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F119" s="7">
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -5870,10 +6062,10 @@
         <v>246</v>
       </c>
       <c r="C120" s="7">
-        <v>49.12</v>
+        <v>42.82</v>
       </c>
       <c r="D120" s="7">
-        <v>201.645</v>
+        <v>152.431</v>
       </c>
       <c r="E120" s="7">
         <v>6</v>
@@ -5882,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -5895,10 +6087,10 @@
         <v>248</v>
       </c>
       <c r="C121" s="7">
-        <v>25.04</v>
+        <v>43.29</v>
       </c>
       <c r="D121" s="7">
-        <v>143.961</v>
+        <v>152.431</v>
       </c>
       <c r="E121" s="7">
         <v>6</v>
@@ -5907,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -5920,10 +6112,10 @@
         <v>250</v>
       </c>
       <c r="C122" s="7">
-        <v>21.26</v>
+        <v>48.75</v>
       </c>
       <c r="D122" s="7">
-        <v>143.961</v>
+        <v>175.457</v>
       </c>
       <c r="E122" s="7">
         <v>6</v>
@@ -5932,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -5945,10 +6137,10 @@
         <v>252</v>
       </c>
       <c r="C123" s="7">
-        <v>39.51</v>
+        <v>49.12</v>
       </c>
       <c r="D123" s="7">
-        <v>219.134</v>
+        <v>201.645</v>
       </c>
       <c r="E123" s="7">
         <v>6</v>
@@ -5957,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -5970,10 +6162,10 @@
         <v>254</v>
       </c>
       <c r="C124" s="7">
-        <v>17.11</v>
+        <v>25.04</v>
       </c>
       <c r="D124" s="7">
-        <v>96.729</v>
+        <v>143.961</v>
       </c>
       <c r="E124" s="7">
         <v>6</v>
@@ -5982,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -5995,10 +6187,10 @@
         <v>256</v>
       </c>
       <c r="C125" s="7">
-        <v>14.78</v>
+        <v>21.26</v>
       </c>
       <c r="D125" s="7">
-        <v>84.5</v>
+        <v>143.961</v>
       </c>
       <c r="E125" s="7">
         <v>6</v>
@@ -6007,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -6020,10 +6212,10 @@
         <v>258</v>
       </c>
       <c r="C126" s="7">
-        <v>20.9</v>
+        <v>39.51</v>
       </c>
       <c r="D126" s="7">
-        <v>122.054</v>
+        <v>219.134</v>
       </c>
       <c r="E126" s="7">
         <v>6</v>
@@ -6032,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -6045,10 +6237,10 @@
         <v>260</v>
       </c>
       <c r="C127" s="7">
-        <v>15.95</v>
+        <v>17.11</v>
       </c>
       <c r="D127" s="7">
-        <v>93.88800000000001</v>
+        <v>96.729</v>
       </c>
       <c r="E127" s="7">
         <v>6</v>
@@ -6070,10 +6262,10 @@
         <v>262</v>
       </c>
       <c r="C128" s="7">
-        <v>5.62</v>
+        <v>14.78</v>
       </c>
       <c r="D128" s="7">
-        <v>18.015</v>
+        <v>84.5</v>
       </c>
       <c r="E128" s="7">
         <v>6</v>
@@ -6095,10 +6287,10 @@
         <v>264</v>
       </c>
       <c r="C129" s="7">
-        <v>2.65</v>
+        <v>20.9</v>
       </c>
       <c r="D129" s="7">
-        <v>15.648</v>
+        <v>122.054</v>
       </c>
       <c r="E129" s="7">
         <v>6</v>
@@ -6107,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -6120,10 +6312,10 @@
         <v>266</v>
       </c>
       <c r="C130" s="7">
-        <v>22</v>
+        <v>15.95</v>
       </c>
       <c r="D130" s="7">
-        <v>138.225</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E130" s="7">
         <v>6</v>
@@ -6132,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -6145,10 +6337,10 @@
         <v>268</v>
       </c>
       <c r="C131" s="7">
-        <v>22.93</v>
+        <v>5.62</v>
       </c>
       <c r="D131" s="7">
-        <v>143.961</v>
+        <v>18.015</v>
       </c>
       <c r="E131" s="7">
         <v>6</v>
@@ -6157,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -6170,10 +6362,10 @@
         <v>270</v>
       </c>
       <c r="C132" s="7">
-        <v>6.75</v>
+        <v>2.65</v>
       </c>
       <c r="D132" s="7">
-        <v>38.128</v>
+        <v>15.648</v>
       </c>
       <c r="E132" s="7">
         <v>6</v>
@@ -6195,10 +6387,10 @@
         <v>272</v>
       </c>
       <c r="C133" s="7">
-        <v>10.37</v>
+        <v>22</v>
       </c>
       <c r="D133" s="7">
-        <v>59.462</v>
+        <v>138.225</v>
       </c>
       <c r="E133" s="7">
         <v>6</v>
@@ -6207,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -6220,10 +6412,10 @@
         <v>274</v>
       </c>
       <c r="C134" s="7">
-        <v>9.470000000000001</v>
+        <v>22.93</v>
       </c>
       <c r="D134" s="7">
-        <v>55.892</v>
+        <v>143.961</v>
       </c>
       <c r="E134" s="7">
         <v>6</v>
@@ -6232,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -6245,10 +6437,10 @@
         <v>276</v>
       </c>
       <c r="C135" s="7">
-        <v>33.05</v>
+        <v>6.75</v>
       </c>
       <c r="D135" s="7">
-        <v>157.109</v>
+        <v>38.128</v>
       </c>
       <c r="E135" s="7">
         <v>6</v>
@@ -6257,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -6270,19 +6462,19 @@
         <v>278</v>
       </c>
       <c r="C136" s="7">
-        <v>20.82</v>
+        <v>10.37</v>
       </c>
       <c r="D136" s="7">
-        <v>45.773</v>
+        <v>59.462</v>
       </c>
       <c r="E136" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F136" s="7">
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6295,19 +6487,19 @@
         <v>280</v>
       </c>
       <c r="C137" s="7">
-        <v>3.79</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D137" s="7">
-        <v>19.428</v>
+        <v>55.892</v>
       </c>
       <c r="E137" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F137" s="7">
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -6320,10 +6512,10 @@
         <v>282</v>
       </c>
       <c r="C138" s="7">
-        <v>15.37</v>
+        <v>33.05</v>
       </c>
       <c r="D138" s="7">
-        <v>73.333</v>
+        <v>157.109</v>
       </c>
       <c r="E138" s="7">
         <v>6</v>
@@ -6332,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -6345,19 +6537,19 @@
         <v>284</v>
       </c>
       <c r="C139" s="7">
-        <v>0.34</v>
+        <v>20.82</v>
       </c>
       <c r="D139" s="7">
-        <v>0.3</v>
+        <v>45.773</v>
       </c>
       <c r="E139" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F139" s="7">
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -6370,19 +6562,19 @@
         <v>286</v>
       </c>
       <c r="C140" s="7">
-        <v>11.98</v>
+        <v>3.79</v>
       </c>
       <c r="D140" s="7">
-        <v>38.291</v>
+        <v>19.428</v>
       </c>
       <c r="E140" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F140" s="7">
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -6395,19 +6587,19 @@
         <v>288</v>
       </c>
       <c r="C141" s="7">
-        <v>119.41</v>
+        <v>15.37</v>
       </c>
       <c r="D141" s="7">
-        <v>354.86</v>
+        <v>73.333</v>
       </c>
       <c r="E141" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F141" s="7">
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -6420,19 +6612,19 @@
         <v>290</v>
       </c>
       <c r="C142" s="7">
-        <v>24.68</v>
+        <v>0.34</v>
       </c>
       <c r="D142" s="7">
-        <v>64.59399999999999</v>
+        <v>0.3</v>
       </c>
       <c r="E142" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F142" s="7">
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -6445,19 +6637,19 @@
         <v>292</v>
       </c>
       <c r="C143" s="7">
-        <v>3.58</v>
+        <v>11.98</v>
       </c>
       <c r="D143" s="7">
-        <v>6.6</v>
+        <v>38.291</v>
       </c>
       <c r="E143" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -6470,19 +6662,19 @@
         <v>294</v>
       </c>
       <c r="C144" s="7">
-        <v>11.77</v>
+        <v>119.41</v>
       </c>
       <c r="D144" s="7">
-        <v>42.588</v>
+        <v>354.86</v>
       </c>
       <c r="E144" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
       </c>
       <c r="G144" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
@@ -6495,19 +6687,19 @@
         <v>296</v>
       </c>
       <c r="C145" s="7">
-        <v>16.49</v>
+        <v>24.68</v>
       </c>
       <c r="D145" s="7">
-        <v>60.73</v>
+        <v>64.59399999999999</v>
       </c>
       <c r="E145" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F145" s="7">
         <v>1</v>
       </c>
       <c r="G145" s="7">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -6520,13 +6712,13 @@
         <v>298</v>
       </c>
       <c r="C146" s="7">
-        <v>5.41</v>
+        <v>3.58</v>
       </c>
       <c r="D146" s="7">
-        <v>19.648</v>
+        <v>6.6</v>
       </c>
       <c r="E146" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
@@ -6545,19 +6737,19 @@
         <v>300</v>
       </c>
       <c r="C147" s="7">
-        <v>17.33</v>
+        <v>11.77</v>
       </c>
       <c r="D147" s="7">
-        <v>23.7</v>
+        <v>42.588</v>
       </c>
       <c r="E147" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F147" s="7">
         <v>1</v>
       </c>
       <c r="G147" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -6570,19 +6762,19 @@
         <v>302</v>
       </c>
       <c r="C148" s="7">
-        <v>28.98</v>
+        <v>16.49</v>
       </c>
       <c r="D148" s="7">
-        <v>102</v>
+        <v>60.73</v>
       </c>
       <c r="E148" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
       </c>
       <c r="G148" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -6595,13 +6787,13 @@
         <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>24.87</v>
+        <v>5.41</v>
       </c>
       <c r="D149" s="7">
-        <v>10</v>
+        <v>19.648</v>
       </c>
       <c r="E149" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
@@ -6620,13 +6812,13 @@
         <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>3.7</v>
+        <v>17.33</v>
       </c>
       <c r="D150" s="7">
-        <v>19.078</v>
+        <v>23.7</v>
       </c>
       <c r="E150" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F150" s="7">
         <v>1</v>
@@ -6645,13 +6837,13 @@
         <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>2.45</v>
+        <v>28.98</v>
       </c>
       <c r="D151" s="7">
-        <v>12.8</v>
+        <v>102</v>
       </c>
       <c r="E151" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F151" s="7">
         <v>1</v>
@@ -6670,13 +6862,13 @@
         <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>4.43</v>
+        <v>24.87</v>
       </c>
       <c r="D152" s="7">
-        <v>22.741</v>
+        <v>10</v>
       </c>
       <c r="E152" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F152" s="7">
         <v>1</v>
@@ -6695,10 +6887,10 @@
         <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>2.59</v>
+        <v>3.7</v>
       </c>
       <c r="D153" s="7">
-        <v>13</v>
+        <v>19.078</v>
       </c>
       <c r="E153" s="7">
         <v>10</v>
@@ -6720,10 +6912,10 @@
         <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>15.11</v>
+        <v>2.45</v>
       </c>
       <c r="D154" s="7">
-        <v>71.11799999999999</v>
+        <v>12.8</v>
       </c>
       <c r="E154" s="7">
         <v>10</v>
@@ -6745,10 +6937,10 @@
         <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>7.58</v>
+        <v>4.43</v>
       </c>
       <c r="D155" s="7">
-        <v>38.801</v>
+        <v>22.741</v>
       </c>
       <c r="E155" s="7">
         <v>10</v>
@@ -6770,10 +6962,10 @@
         <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>3.9</v>
+        <v>2.59</v>
       </c>
       <c r="D156" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E156" s="7">
         <v>10</v>
@@ -6795,10 +6987,10 @@
         <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>1.66</v>
+        <v>15.11</v>
       </c>
       <c r="D157" s="7">
-        <v>8</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E157" s="7">
         <v>10</v>
@@ -6820,10 +7012,10 @@
         <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>3.4</v>
+        <v>7.58</v>
       </c>
       <c r="D158" s="7">
-        <v>16.059</v>
+        <v>38.801</v>
       </c>
       <c r="E158" s="7">
         <v>10</v>
@@ -6845,10 +7037,10 @@
         <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>7.59</v>
+        <v>3.9</v>
       </c>
       <c r="D159" s="7">
-        <v>34.112</v>
+        <v>18</v>
       </c>
       <c r="E159" s="7">
         <v>10</v>
@@ -6870,10 +7062,10 @@
         <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>8.98</v>
+        <v>1.66</v>
       </c>
       <c r="D160" s="7">
-        <v>19.4</v>
+        <v>8</v>
       </c>
       <c r="E160" s="7">
         <v>10</v>
@@ -6895,10 +7087,10 @@
         <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>2.48</v>
+        <v>3.4</v>
       </c>
       <c r="D161" s="7">
-        <v>8</v>
+        <v>16.059</v>
       </c>
       <c r="E161" s="7">
         <v>10</v>
@@ -6920,10 +7112,10 @@
         <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>5.04</v>
+        <v>7.59</v>
       </c>
       <c r="D162" s="7">
-        <v>25.437</v>
+        <v>34.112</v>
       </c>
       <c r="E162" s="7">
         <v>10</v>
@@ -6945,10 +7137,10 @@
         <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>4.29</v>
+        <v>8.98</v>
       </c>
       <c r="D163" s="7">
-        <v>22.7</v>
+        <v>19.4</v>
       </c>
       <c r="E163" s="7">
         <v>10</v>
@@ -6970,7 +7162,7 @@
         <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>1.61</v>
+        <v>2.48</v>
       </c>
       <c r="D164" s="7">
         <v>8</v>
@@ -6995,10 +7187,10 @@
         <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>2.82</v>
+        <v>5.04</v>
       </c>
       <c r="D165" s="7">
-        <v>12.718</v>
+        <v>25.437</v>
       </c>
       <c r="E165" s="7">
         <v>10</v>
@@ -7020,10 +7212,10 @@
         <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>2.51</v>
+        <v>4.29</v>
       </c>
       <c r="D166" s="7">
-        <v>12.718</v>
+        <v>22.7</v>
       </c>
       <c r="E166" s="7">
         <v>10</v>
@@ -7045,10 +7237,10 @@
         <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>3.56</v>
+        <v>1.61</v>
       </c>
       <c r="D167" s="7">
-        <v>12.718</v>
+        <v>8</v>
       </c>
       <c r="E167" s="7">
         <v>10</v>
@@ -7070,10 +7262,10 @@
         <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="D168" s="7">
-        <v>14.231</v>
+        <v>12.718</v>
       </c>
       <c r="E168" s="7">
         <v>10</v>
@@ -7095,10 +7287,10 @@
         <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>6.26</v>
+        <v>2.51</v>
       </c>
       <c r="D169" s="7">
-        <v>33.032</v>
+        <v>12.718</v>
       </c>
       <c r="E169" s="7">
         <v>10</v>
@@ -7120,10 +7312,10 @@
         <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>7.37</v>
+        <v>3.56</v>
       </c>
       <c r="D170" s="7">
-        <v>37.601</v>
+        <v>12.718</v>
       </c>
       <c r="E170" s="7">
         <v>10</v>
@@ -7145,10 +7337,10 @@
         <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>9.619999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="D171" s="7">
-        <v>47.263</v>
+        <v>14.231</v>
       </c>
       <c r="E171" s="7">
         <v>10</v>
@@ -7170,10 +7362,10 @@
         <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>6.12</v>
+        <v>6.26</v>
       </c>
       <c r="D172" s="7">
-        <v>31.159</v>
+        <v>33.032</v>
       </c>
       <c r="E172" s="7">
         <v>10</v>
@@ -7195,10 +7387,10 @@
         <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>2.89</v>
+        <v>7.37</v>
       </c>
       <c r="D173" s="7">
-        <v>14.231</v>
+        <v>37.601</v>
       </c>
       <c r="E173" s="7">
         <v>10</v>
@@ -7220,10 +7412,10 @@
         <v>354</v>
       </c>
       <c r="C174" s="7">
-        <v>9.69</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D174" s="7">
-        <v>50.484</v>
+        <v>47.263</v>
       </c>
       <c r="E174" s="7">
         <v>10</v>
@@ -7245,10 +7437,10 @@
         <v>356</v>
       </c>
       <c r="C175" s="7">
-        <v>9.69</v>
+        <v>6.12</v>
       </c>
       <c r="D175" s="7">
-        <v>50.484</v>
+        <v>31.159</v>
       </c>
       <c r="E175" s="7">
         <v>10</v>
@@ -7270,10 +7462,10 @@
         <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>13.27</v>
+        <v>2.89</v>
       </c>
       <c r="D176" s="7">
-        <v>63.368</v>
+        <v>14.231</v>
       </c>
       <c r="E176" s="7">
         <v>10</v>
@@ -7295,13 +7487,13 @@
         <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>0.47</v>
+        <v>9.69</v>
       </c>
       <c r="D177" s="7">
-        <v>1.5</v>
+        <v>50.484</v>
       </c>
       <c r="E177" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F177" s="7">
         <v>1</v>
@@ -7320,13 +7512,13 @@
         <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>0.5600000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="D178" s="7">
-        <v>1.2</v>
+        <v>50.484</v>
       </c>
       <c r="E178" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F178" s="7">
         <v>1</v>
@@ -7345,19 +7537,19 @@
         <v>364</v>
       </c>
       <c r="C179" s="7">
-        <v>15.61</v>
+        <v>13.27</v>
       </c>
       <c r="D179" s="7">
-        <v>58.927</v>
+        <v>63.368</v>
       </c>
       <c r="E179" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F179" s="7">
         <v>1</v>
       </c>
       <c r="G179" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
@@ -7370,19 +7562,19 @@
         <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>5.82</v>
+        <v>0.47</v>
       </c>
       <c r="D180" s="7">
-        <v>22.042</v>
+        <v>1.5</v>
       </c>
       <c r="E180" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F180" s="7">
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -7395,19 +7587,19 @@
         <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>24.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D181" s="7">
-        <v>14.652</v>
+        <v>1.2</v>
       </c>
       <c r="E181" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F181" s="7">
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
@@ -7420,19 +7612,19 @@
         <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>7.76</v>
+        <v>15.61</v>
       </c>
       <c r="D182" s="7">
-        <v>2.2</v>
+        <v>58.927</v>
       </c>
       <c r="E182" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
       </c>
       <c r="G182" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
@@ -7445,19 +7637,19 @@
         <v>372</v>
       </c>
       <c r="C183" s="7">
-        <v>16.45</v>
+        <v>5.82</v>
       </c>
       <c r="D183" s="7">
-        <v>49.362</v>
+        <v>22.042</v>
       </c>
       <c r="E183" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F183" s="7">
         <v>1</v>
       </c>
       <c r="G183" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
@@ -7470,19 +7662,19 @@
         <v>374</v>
       </c>
       <c r="C184" s="7">
-        <v>3.59</v>
+        <v>24.28</v>
       </c>
       <c r="D184" s="7">
+        <v>14.652</v>
+      </c>
+      <c r="E184" s="7">
         <v>20</v>
       </c>
-      <c r="E184" s="7">
-        <v>3</v>
-      </c>
       <c r="F184" s="7">
         <v>1</v>
       </c>
       <c r="G184" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
@@ -7495,10 +7687,10 @@
         <v>376</v>
       </c>
       <c r="C185" s="7">
-        <v>21.78</v>
+        <v>7.76</v>
       </c>
       <c r="D185" s="7">
-        <v>12.128</v>
+        <v>2.2</v>
       </c>
       <c r="E185" s="7">
         <v>25</v>
@@ -7520,19 +7712,19 @@
         <v>378</v>
       </c>
       <c r="C186" s="7">
-        <v>23.37</v>
+        <v>16.45</v>
       </c>
       <c r="D186" s="7">
-        <v>24.4</v>
+        <v>49.362</v>
       </c>
       <c r="E186" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F186" s="7">
         <v>1</v>
       </c>
       <c r="G186" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
@@ -7545,13 +7737,13 @@
         <v>380</v>
       </c>
       <c r="C187" s="7">
-        <v>4.12</v>
+        <v>3.59</v>
       </c>
       <c r="D187" s="7">
-        <v>45.8</v>
+        <v>20</v>
       </c>
       <c r="E187" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F187" s="7">
         <v>1</v>
@@ -7570,13 +7762,13 @@
         <v>382</v>
       </c>
       <c r="C188" s="7">
-        <v>5.03</v>
+        <v>21.78</v>
       </c>
       <c r="D188" s="7">
-        <v>40</v>
+        <v>12.128</v>
       </c>
       <c r="E188" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F188" s="7">
         <v>1</v>
@@ -7595,13 +7787,13 @@
         <v>384</v>
       </c>
       <c r="C189" s="7">
-        <v>1.49</v>
+        <v>23.37</v>
       </c>
       <c r="D189" s="7">
-        <v>7</v>
+        <v>24.4</v>
       </c>
       <c r="E189" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F189" s="7">
         <v>1</v>
@@ -7620,13 +7812,13 @@
         <v>386</v>
       </c>
       <c r="C190" s="7">
-        <v>0.31</v>
+        <v>4.12</v>
       </c>
       <c r="D190" s="7">
-        <v>1.2</v>
+        <v>45.8</v>
       </c>
       <c r="E190" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F190" s="7">
         <v>1</v>
@@ -7645,10 +7837,10 @@
         <v>388</v>
       </c>
       <c r="C191" s="7">
-        <v>7.19</v>
+        <v>5.03</v>
       </c>
       <c r="D191" s="7">
-        <v>9.5</v>
+        <v>40</v>
       </c>
       <c r="E191" s="7">
         <v>6</v>
@@ -7670,19 +7862,19 @@
         <v>390</v>
       </c>
       <c r="C192" s="7">
-        <v>70.06</v>
+        <v>1.49</v>
       </c>
       <c r="D192" s="7">
-        <v>196.686</v>
+        <v>7</v>
       </c>
       <c r="E192" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F192" s="7">
         <v>1</v>
       </c>
       <c r="G192" s="7">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
@@ -7695,19 +7887,19 @@
         <v>392</v>
       </c>
       <c r="C193" s="7">
-        <v>111.05</v>
+        <v>0.31</v>
       </c>
       <c r="D193" s="7">
-        <v>318.558</v>
+        <v>1.2</v>
       </c>
       <c r="E193" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F193" s="7">
         <v>1</v>
       </c>
       <c r="G193" s="7">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
@@ -7720,19 +7912,19 @@
         <v>394</v>
       </c>
       <c r="C194" s="7">
-        <v>131.62</v>
+        <v>7.19</v>
       </c>
       <c r="D194" s="7">
-        <v>361.925</v>
+        <v>9.5</v>
       </c>
       <c r="E194" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F194" s="7">
         <v>1</v>
       </c>
       <c r="G194" s="7">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
@@ -7745,10 +7937,10 @@
         <v>396</v>
       </c>
       <c r="C195" s="7">
-        <v>54.05</v>
+        <v>70.06</v>
       </c>
       <c r="D195" s="7">
-        <v>170</v>
+        <v>196.686</v>
       </c>
       <c r="E195" s="7">
         <v>12</v>
@@ -7757,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
@@ -7770,10 +7962,10 @@
         <v>398</v>
       </c>
       <c r="C196" s="7">
-        <v>132.21</v>
+        <v>111.05</v>
       </c>
       <c r="D196" s="7">
-        <v>381</v>
+        <v>318.558</v>
       </c>
       <c r="E196" s="7">
         <v>12</v>
@@ -7782,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="7">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
@@ -7795,10 +7987,10 @@
         <v>400</v>
       </c>
       <c r="C197" s="7">
-        <v>104.5</v>
+        <v>131.62</v>
       </c>
       <c r="D197" s="7">
-        <v>300</v>
+        <v>361.925</v>
       </c>
       <c r="E197" s="7">
         <v>12</v>
@@ -7807,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="7">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
@@ -7820,13 +8012,13 @@
         <v>402</v>
       </c>
       <c r="C198" s="7">
-        <v>2.21</v>
+        <v>54.05</v>
       </c>
       <c r="D198" s="7">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E198" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F198" s="7">
         <v>1</v>
@@ -7845,13 +8037,13 @@
         <v>404</v>
       </c>
       <c r="C199" s="7">
-        <v>1.76</v>
+        <v>132.21</v>
       </c>
       <c r="D199" s="7">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="E199" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F199" s="7">
         <v>1</v>
@@ -7870,13 +8062,13 @@
         <v>406</v>
       </c>
       <c r="C200" s="7">
-        <v>1.26</v>
+        <v>104.5</v>
       </c>
       <c r="D200" s="7">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="E200" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F200" s="7">
         <v>1</v>
@@ -7895,13 +8087,13 @@
         <v>408</v>
       </c>
       <c r="C201" s="7">
-        <v>0.58</v>
+        <v>2.21</v>
       </c>
       <c r="D201" s="7">
         <v>2</v>
       </c>
       <c r="E201" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F201" s="7">
         <v>1</v>
@@ -7920,13 +8112,13 @@
         <v>410</v>
       </c>
       <c r="C202" s="7">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="D202" s="7">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E202" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F202" s="7">
         <v>1</v>
@@ -7945,13 +8137,13 @@
         <v>412</v>
       </c>
       <c r="C203" s="7">
-        <v>68.98</v>
+        <v>1.26</v>
       </c>
       <c r="D203" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E203" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F203" s="7">
         <v>1</v>
@@ -7970,13 +8162,13 @@
         <v>414</v>
       </c>
       <c r="C204" s="7">
-        <v>2.26</v>
+        <v>0.58</v>
       </c>
       <c r="D204" s="7">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="E204" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F204" s="7">
         <v>1</v>
@@ -7995,19 +8187,19 @@
         <v>416</v>
       </c>
       <c r="C205" s="7">
-        <v>29.52</v>
+        <v>1.22</v>
       </c>
       <c r="D205" s="7">
-        <v>173.871</v>
+        <v>1.5</v>
       </c>
       <c r="E205" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F205" s="7">
         <v>1</v>
       </c>
       <c r="G205" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
@@ -8020,19 +8212,19 @@
         <v>418</v>
       </c>
       <c r="C206" s="7">
-        <v>22.61</v>
+        <v>68.98</v>
       </c>
       <c r="D206" s="7">
-        <v>20.64</v>
+        <v>13</v>
       </c>
       <c r="E206" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F206" s="7">
         <v>1</v>
       </c>
       <c r="G206" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
@@ -8045,19 +8237,19 @@
         <v>420</v>
       </c>
       <c r="C207" s="7">
-        <v>6.14</v>
+        <v>2.26</v>
       </c>
       <c r="D207" s="7">
-        <v>24.5</v>
+        <v>0.4</v>
       </c>
       <c r="E207" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F207" s="7">
         <v>1</v>
       </c>
       <c r="G207" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
@@ -8070,19 +8262,19 @@
         <v>422</v>
       </c>
       <c r="C208" s="7">
-        <v>8.32</v>
+        <v>29.52</v>
       </c>
       <c r="D208" s="7">
-        <v>5</v>
+        <v>173.871</v>
       </c>
       <c r="E208" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F208" s="7">
         <v>1</v>
       </c>
       <c r="G208" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
@@ -8095,19 +8287,19 @@
         <v>424</v>
       </c>
       <c r="C209" s="7">
-        <v>3.77</v>
+        <v>22.61</v>
       </c>
       <c r="D209" s="7">
-        <v>8.800000000000001</v>
+        <v>20.64</v>
       </c>
       <c r="E209" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F209" s="7">
         <v>1</v>
       </c>
       <c r="G209" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
@@ -8120,10 +8312,10 @@
         <v>426</v>
       </c>
       <c r="C210" s="7">
-        <v>74.28</v>
+        <v>6.14</v>
       </c>
       <c r="D210" s="7">
-        <v>347.345</v>
+        <v>24.5</v>
       </c>
       <c r="E210" s="7">
         <v>8</v>
@@ -8132,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="G210" s="7">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
@@ -8145,19 +8337,19 @@
         <v>428</v>
       </c>
       <c r="C211" s="7">
-        <v>226.02</v>
+        <v>8.32</v>
       </c>
       <c r="D211" s="7">
-        <v>87.117</v>
+        <v>5</v>
       </c>
       <c r="E211" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F211" s="7">
         <v>1</v>
       </c>
       <c r="G211" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
@@ -8170,10 +8362,10 @@
         <v>430</v>
       </c>
       <c r="C212" s="7">
-        <v>4.17</v>
+        <v>3.77</v>
       </c>
       <c r="D212" s="7">
-        <v>20.68</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E212" s="7">
         <v>6</v>
@@ -8195,19 +8387,19 @@
         <v>432</v>
       </c>
       <c r="C213" s="7">
-        <v>52.8</v>
+        <v>74.28</v>
       </c>
       <c r="D213" s="7">
-        <v>34.621</v>
+        <v>347.345</v>
       </c>
       <c r="E213" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F213" s="7">
         <v>1</v>
       </c>
       <c r="G213" s="7">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
@@ -8220,19 +8412,19 @@
         <v>434</v>
       </c>
       <c r="C214" s="7">
-        <v>0.96</v>
+        <v>226.02</v>
       </c>
       <c r="D214" s="7">
-        <v>3.1</v>
+        <v>87.117</v>
       </c>
       <c r="E214" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F214" s="7">
         <v>1</v>
       </c>
       <c r="G214" s="7">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
@@ -8245,19 +8437,19 @@
         <v>436</v>
       </c>
       <c r="C215" s="7">
-        <v>23.06</v>
+        <v>4.17</v>
       </c>
       <c r="D215" s="7">
-        <v>62.716</v>
+        <v>20.68</v>
       </c>
       <c r="E215" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F215" s="7">
         <v>1</v>
       </c>
       <c r="G215" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
@@ -8270,19 +8462,19 @@
         <v>438</v>
       </c>
       <c r="C216" s="7">
-        <v>21.01</v>
+        <v>52.8</v>
       </c>
       <c r="D216" s="7">
-        <v>59.231</v>
+        <v>34.621</v>
       </c>
       <c r="E216" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F216" s="7">
         <v>1</v>
       </c>
       <c r="G216" s="7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
@@ -8295,19 +8487,19 @@
         <v>440</v>
       </c>
       <c r="C217" s="7">
-        <v>21.62</v>
+        <v>0.96</v>
       </c>
       <c r="D217" s="7">
-        <v>61.646</v>
+        <v>3.1</v>
       </c>
       <c r="E217" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F217" s="7">
         <v>1</v>
       </c>
       <c r="G217" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
@@ -8320,10 +8512,10 @@
         <v>442</v>
       </c>
       <c r="C218" s="7">
-        <v>25.66</v>
+        <v>23.06</v>
       </c>
       <c r="D218" s="7">
-        <v>70</v>
+        <v>62.716</v>
       </c>
       <c r="E218" s="7">
         <v>12</v>
@@ -8345,10 +8537,10 @@
         <v>444</v>
       </c>
       <c r="C219" s="7">
-        <v>23.76</v>
+        <v>21.01</v>
       </c>
       <c r="D219" s="7">
-        <v>66.905</v>
+        <v>59.231</v>
       </c>
       <c r="E219" s="7">
         <v>12</v>
@@ -8370,10 +8562,10 @@
         <v>446</v>
       </c>
       <c r="C220" s="7">
-        <v>22.65</v>
+        <v>21.62</v>
       </c>
       <c r="D220" s="7">
-        <v>64.511</v>
+        <v>61.646</v>
       </c>
       <c r="E220" s="7">
         <v>12</v>
@@ -8395,10 +8587,10 @@
         <v>448</v>
       </c>
       <c r="C221" s="7">
-        <v>27.09</v>
+        <v>25.66</v>
       </c>
       <c r="D221" s="7">
-        <v>76.20999999999999</v>
+        <v>70</v>
       </c>
       <c r="E221" s="7">
         <v>12</v>
@@ -8420,10 +8612,10 @@
         <v>450</v>
       </c>
       <c r="C222" s="7">
-        <v>37.52</v>
+        <v>23.76</v>
       </c>
       <c r="D222" s="7">
-        <v>95.16</v>
+        <v>66.905</v>
       </c>
       <c r="E222" s="7">
         <v>12</v>
@@ -8445,10 +8637,10 @@
         <v>452</v>
       </c>
       <c r="C223" s="7">
-        <v>36.86</v>
+        <v>22.65</v>
       </c>
       <c r="D223" s="7">
-        <v>95.16</v>
+        <v>64.511</v>
       </c>
       <c r="E223" s="7">
         <v>12</v>
@@ -8470,10 +8662,10 @@
         <v>454</v>
       </c>
       <c r="C224" s="7">
-        <v>36.87</v>
+        <v>27.09</v>
       </c>
       <c r="D224" s="7">
-        <v>95.16</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="E224" s="7">
         <v>12</v>
@@ -8495,7 +8687,7 @@
         <v>456</v>
       </c>
       <c r="C225" s="7">
-        <v>37.41</v>
+        <v>37.52</v>
       </c>
       <c r="D225" s="7">
         <v>95.16</v>
@@ -8520,10 +8712,10 @@
         <v>458</v>
       </c>
       <c r="C226" s="7">
-        <v>13.76</v>
+        <v>36.86</v>
       </c>
       <c r="D226" s="7">
-        <v>79.3</v>
+        <v>95.16</v>
       </c>
       <c r="E226" s="7">
         <v>12</v>
@@ -8545,16 +8737,16 @@
         <v>460</v>
       </c>
       <c r="C227" s="7">
-        <v>5.91</v>
+        <v>36.87</v>
       </c>
       <c r="D227" s="7">
-        <v>31</v>
+        <v>95.16</v>
       </c>
       <c r="E227" s="7">
         <v>12</v>
       </c>
       <c r="F227" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G227" s="7">
         <v>1</v>
@@ -8570,10 +8762,10 @@
         <v>462</v>
       </c>
       <c r="C228" s="7">
-        <v>167.31</v>
+        <v>37.41</v>
       </c>
       <c r="D228" s="7">
-        <v>485</v>
+        <v>95.16</v>
       </c>
       <c r="E228" s="7">
         <v>12</v>
@@ -8582,14 +8774,10 @@
         <v>1</v>
       </c>
       <c r="G228" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H228" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I228" s="7">
-        <v>0.37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H228" s="8"/>
+      <c r="I228" s="8"/>
     </row>
     <row r="229" ht="13.55" customHeight="1">
       <c r="A229" t="s" s="6">
@@ -8599,10 +8787,10 @@
         <v>464</v>
       </c>
       <c r="C229" s="7">
-        <v>43.47</v>
+        <v>13.76</v>
       </c>
       <c r="D229" s="7">
-        <v>118.61</v>
+        <v>79.3</v>
       </c>
       <c r="E229" s="7">
         <v>12</v>
@@ -8611,14 +8799,10 @@
         <v>1</v>
       </c>
       <c r="G229" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H229" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I229" s="7">
-        <v>0.18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H229" s="8"/>
+      <c r="I229" s="8"/>
     </row>
     <row r="230" ht="13.55" customHeight="1">
       <c r="A230" t="s" s="6">
@@ -8628,26 +8812,22 @@
         <v>466</v>
       </c>
       <c r="C230" s="7">
-        <v>99.67</v>
+        <v>5.91</v>
       </c>
       <c r="D230" s="7">
-        <v>118.61</v>
+        <v>31</v>
       </c>
       <c r="E230" s="7">
         <v>12</v>
       </c>
       <c r="F230" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G230" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H230" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I230" s="7">
-        <v>1.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H230" s="8"/>
+      <c r="I230" s="8"/>
     </row>
     <row r="231" ht="13.55" customHeight="1">
       <c r="A231" t="s" s="6">
@@ -8657,26 +8837,22 @@
         <v>468</v>
       </c>
       <c r="C231" s="7">
-        <v>34.58</v>
+        <v>8.01</v>
       </c>
       <c r="D231" s="7">
-        <v>104.31</v>
+        <v>23.2</v>
       </c>
       <c r="E231" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F231" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G231" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H231" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I231" s="7">
-        <v>0.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H231" s="8"/>
+      <c r="I231" s="8"/>
     </row>
     <row r="232" ht="13.55" customHeight="1">
       <c r="A232" t="s" s="6">
@@ -8686,26 +8862,22 @@
         <v>470</v>
       </c>
       <c r="C232" s="7">
-        <v>45.49</v>
+        <v>34.17</v>
       </c>
       <c r="D232" s="7">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E232" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F232" s="7">
         <v>1</v>
       </c>
       <c r="G232" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H232" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I232" s="7">
-        <v>0.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H232" s="8"/>
+      <c r="I232" s="8"/>
     </row>
     <row r="233" ht="13.55" customHeight="1">
       <c r="A233" t="s" s="6">
@@ -8715,26 +8887,22 @@
         <v>472</v>
       </c>
       <c r="C233" s="7">
-        <v>194.66</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="D233" s="7">
-        <v>561.2</v>
+        <v>62</v>
       </c>
       <c r="E233" s="7">
         <v>12</v>
       </c>
       <c r="F233" s="7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G233" s="7">
-        <v>3</v>
-      </c>
-      <c r="H233" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I233" s="7">
-        <v>0.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H233" s="8"/>
+      <c r="I233" s="8"/>
     </row>
     <row r="234" ht="13.55" customHeight="1">
       <c r="A234" t="s" s="6">
@@ -8744,26 +8912,14 @@
         <v>474</v>
       </c>
       <c r="C234" s="7">
-        <v>321.56</v>
-      </c>
-      <c r="D234" s="7">
-        <v>850.95</v>
-      </c>
-      <c r="E234" s="7">
-        <v>12</v>
-      </c>
-      <c r="F234" s="7">
-        <v>1</v>
-      </c>
-      <c r="G234" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="H234" s="7">
-        <v>5.36</v>
-      </c>
-      <c r="I234" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="8"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="8"/>
     </row>
     <row r="235" ht="13.55" customHeight="1">
       <c r="A235" t="s" s="6">
@@ -8773,26 +8929,22 @@
         <v>476</v>
       </c>
       <c r="C235" s="7">
-        <v>28.94</v>
+        <v>1.15</v>
       </c>
       <c r="D235" s="7">
-        <v>24.88</v>
+        <v>5</v>
       </c>
       <c r="E235" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F235" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G235" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H235" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="I235" s="7">
-        <v>0.35</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H235" s="8"/>
+      <c r="I235" s="8"/>
     </row>
     <row r="236" ht="13.55" customHeight="1">
       <c r="A236" t="s" s="6">
@@ -8802,26 +8954,14 @@
         <v>478</v>
       </c>
       <c r="C236" s="7">
-        <v>43.34</v>
-      </c>
-      <c r="D236" s="7">
-        <v>24.18</v>
-      </c>
-      <c r="E236" s="7">
-        <v>25</v>
-      </c>
-      <c r="F236" s="7">
-        <v>1</v>
-      </c>
-      <c r="G236" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H236" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I236" s="7">
-        <v>0.58</v>
-      </c>
+        <v>3.16</v>
+      </c>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="8"/>
     </row>
     <row r="237" ht="13.55" customHeight="1">
       <c r="A237" t="s" s="6">
@@ -8831,26 +8971,14 @@
         <v>480</v>
       </c>
       <c r="C237" s="7">
-        <v>19.21</v>
-      </c>
-      <c r="D237" s="7">
-        <v>5</v>
-      </c>
-      <c r="E237" s="7">
-        <v>32</v>
-      </c>
-      <c r="F237" s="7">
-        <v>1</v>
-      </c>
-      <c r="G237" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H237" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I237" s="7">
-        <v>0.03</v>
-      </c>
+        <v>4.39</v>
+      </c>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="8"/>
+      <c r="H237" s="8"/>
+      <c r="I237" s="8"/>
     </row>
     <row r="238" ht="13.55" customHeight="1">
       <c r="A238" t="s" s="6">
@@ -8860,26 +8988,14 @@
         <v>482</v>
       </c>
       <c r="C238" s="7">
-        <v>195.6</v>
-      </c>
-      <c r="D238" s="7">
-        <v>17</v>
-      </c>
-      <c r="E238" s="7">
-        <v>32</v>
-      </c>
-      <c r="F238" s="7">
-        <v>1</v>
-      </c>
-      <c r="G238" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H238" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I238" s="7">
-        <v>3.16</v>
-      </c>
+        <v>30.63</v>
+      </c>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="8"/>
+      <c r="H238" s="8"/>
+      <c r="I238" s="8"/>
     </row>
     <row r="239" ht="13.55" customHeight="1">
       <c r="A239" t="s" s="6">
@@ -8889,26 +9005,14 @@
         <v>484</v>
       </c>
       <c r="C239" s="7">
-        <v>31.58</v>
-      </c>
-      <c r="D239" s="7">
-        <v>145.52</v>
-      </c>
-      <c r="E239" s="7">
-        <v>10</v>
-      </c>
-      <c r="F239" s="7">
-        <v>1</v>
-      </c>
-      <c r="G239" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H239" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I239" s="7">
-        <v>-6.3</v>
-      </c>
+        <v>57.75</v>
+      </c>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+      <c r="H239" s="8"/>
+      <c r="I239" s="8"/>
     </row>
     <row r="240" ht="13.55" customHeight="1">
       <c r="A240" t="s" s="6">
@@ -8918,26 +9022,14 @@
         <v>486</v>
       </c>
       <c r="C240" s="7">
-        <v>34.53</v>
-      </c>
-      <c r="D240" s="7">
-        <v>12.17</v>
-      </c>
-      <c r="E240" s="7">
-        <v>25</v>
-      </c>
-      <c r="F240" s="7">
-        <v>1</v>
-      </c>
-      <c r="G240" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="H240" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I240" s="7">
-        <v>-0.28</v>
-      </c>
+        <v>4.07</v>
+      </c>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
     </row>
     <row r="241" ht="13.55" customHeight="1">
       <c r="A241" t="s" s="6">
@@ -8947,22 +9039,894 @@
         <v>488</v>
       </c>
       <c r="C241" s="7">
-        <v>9.35</v>
-      </c>
-      <c r="D241" s="7">
-        <v>30</v>
-      </c>
-      <c r="E241" s="7">
-        <v>12</v>
-      </c>
-      <c r="F241" s="7">
-        <v>1</v>
-      </c>
-      <c r="G241" s="7">
-        <v>0.6</v>
-      </c>
+        <v>7.72</v>
+      </c>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
+    </row>
+    <row r="242" ht="13.55" customHeight="1">
+      <c r="A242" t="s" s="6">
+        <v>489</v>
+      </c>
+      <c r="B242" t="s" s="6">
+        <v>490</v>
+      </c>
+      <c r="C242" s="7">
+        <v>91.34</v>
+      </c>
+      <c r="D242" s="7">
+        <v>252</v>
+      </c>
+      <c r="E242" s="7">
+        <v>12</v>
+      </c>
+      <c r="F242" s="7">
+        <v>1</v>
+      </c>
+      <c r="G242" s="7">
+        <v>4</v>
+      </c>
+      <c r="H242" s="8"/>
+      <c r="I242" s="8"/>
+    </row>
+    <row r="243" ht="13.55" customHeight="1">
+      <c r="A243" t="s" s="6">
+        <v>491</v>
+      </c>
+      <c r="B243" t="s" s="6">
+        <v>492</v>
+      </c>
+      <c r="C243" s="7">
+        <v>111.63</v>
+      </c>
+      <c r="D243" s="7">
+        <v>336</v>
+      </c>
+      <c r="E243" s="7">
+        <v>12</v>
+      </c>
+      <c r="F243" s="7">
+        <v>1</v>
+      </c>
+      <c r="G243" s="7">
+        <v>4</v>
+      </c>
+      <c r="H243" s="8"/>
+      <c r="I243" s="8"/>
+    </row>
+    <row r="244" ht="13.55" customHeight="1">
+      <c r="A244" t="s" s="6">
+        <v>493</v>
+      </c>
+      <c r="B244" t="s" s="6">
+        <v>494</v>
+      </c>
+      <c r="C244" s="7">
+        <v>164.8</v>
+      </c>
+      <c r="D244" s="7">
+        <v>474</v>
+      </c>
+      <c r="E244" s="7">
+        <v>12</v>
+      </c>
+      <c r="F244" s="7">
+        <v>1</v>
+      </c>
+      <c r="G244" s="7">
+        <v>6</v>
+      </c>
+      <c r="H244" s="8"/>
+      <c r="I244" s="8"/>
+    </row>
+    <row r="245" ht="13.55" customHeight="1">
+      <c r="A245" t="s" s="6">
+        <v>495</v>
+      </c>
+      <c r="B245" t="s" s="6">
+        <v>496</v>
+      </c>
+      <c r="C245" s="7">
+        <v>86.15000000000001</v>
+      </c>
+      <c r="D245" s="7">
+        <v>249</v>
+      </c>
+      <c r="E245" s="7">
+        <v>12</v>
+      </c>
+      <c r="F245" s="7">
+        <v>1</v>
+      </c>
+      <c r="G245" s="7">
+        <v>3</v>
+      </c>
+      <c r="H245" s="8"/>
+      <c r="I245" s="8"/>
+    </row>
+    <row r="246" ht="13.55" customHeight="1">
+      <c r="A246" t="s" s="6">
+        <v>497</v>
+      </c>
+      <c r="B246" t="s" s="6">
+        <v>498</v>
+      </c>
+      <c r="C246" s="7">
+        <v>135.62</v>
+      </c>
+      <c r="D246" s="7">
+        <v>356</v>
+      </c>
+      <c r="E246" s="7">
+        <v>12</v>
+      </c>
+      <c r="F246" s="7">
+        <v>1</v>
+      </c>
+      <c r="G246" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="H246" s="8"/>
+      <c r="I246" s="8"/>
+    </row>
+    <row r="247" ht="13.55" customHeight="1">
+      <c r="A247" t="s" s="6">
+        <v>499</v>
+      </c>
+      <c r="B247" t="s" s="6">
+        <v>500</v>
+      </c>
+      <c r="C247" s="7">
+        <v>81.81</v>
+      </c>
+      <c r="D247" s="7">
+        <v>81</v>
+      </c>
+      <c r="E247" s="7">
+        <v>12</v>
+      </c>
+      <c r="F247" s="7">
+        <v>1</v>
+      </c>
+      <c r="G247" s="7">
+        <v>1</v>
+      </c>
+      <c r="H247" s="8"/>
+      <c r="I247" s="8"/>
+    </row>
+    <row r="248" ht="13.55" customHeight="1">
+      <c r="A248" t="s" s="6">
+        <v>501</v>
+      </c>
+      <c r="B248" t="s" s="6">
+        <v>502</v>
+      </c>
+      <c r="C248" s="7">
+        <v>180</v>
+      </c>
+      <c r="D248" s="7">
+        <v>244</v>
+      </c>
+      <c r="E248" s="7">
+        <v>12</v>
+      </c>
+      <c r="F248" s="7">
+        <v>1</v>
+      </c>
+      <c r="G248" s="7">
+        <v>4</v>
+      </c>
+      <c r="H248" s="8"/>
+      <c r="I248" s="8"/>
+    </row>
+    <row r="249" ht="13.55" customHeight="1">
+      <c r="A249" t="s" s="6">
+        <v>503</v>
+      </c>
+      <c r="B249" t="s" s="6">
+        <v>504</v>
+      </c>
+      <c r="C249" s="7">
+        <v>139.47</v>
+      </c>
+      <c r="D249" s="7">
+        <v>402</v>
+      </c>
+      <c r="E249" s="7">
+        <v>12</v>
+      </c>
+      <c r="F249" s="7">
+        <v>1</v>
+      </c>
+      <c r="G249" s="7">
+        <v>5</v>
+      </c>
+      <c r="H249" s="8"/>
+      <c r="I249" s="8"/>
+    </row>
+    <row r="250" ht="13.55" customHeight="1">
+      <c r="A250" t="s" s="6">
+        <v>505</v>
+      </c>
+      <c r="B250" t="s" s="6">
+        <v>506</v>
+      </c>
+      <c r="C250" s="7">
+        <v>147</v>
+      </c>
+      <c r="D250" s="7">
+        <v>445</v>
+      </c>
+      <c r="E250" s="7">
+        <v>12</v>
+      </c>
+      <c r="F250" s="7">
+        <v>1</v>
+      </c>
+      <c r="G250" s="7">
+        <v>6</v>
+      </c>
+      <c r="H250" s="8"/>
+      <c r="I250" s="8"/>
+    </row>
+    <row r="251" ht="13.55" customHeight="1">
+      <c r="A251" t="s" s="6">
+        <v>507</v>
+      </c>
+      <c r="B251" t="s" s="6">
+        <v>508</v>
+      </c>
+      <c r="C251" s="7">
+        <v>6.37</v>
+      </c>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
+    </row>
+    <row r="252" ht="13.55" customHeight="1">
+      <c r="A252" t="s" s="6">
+        <v>509</v>
+      </c>
+      <c r="B252" t="s" s="6">
+        <v>510</v>
+      </c>
+      <c r="C252" s="7">
+        <v>3.96</v>
+      </c>
+      <c r="D252" s="8"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="8"/>
+      <c r="G252" s="8"/>
+      <c r="H252" s="8"/>
+      <c r="I252" s="8"/>
+    </row>
+    <row r="253" ht="13.55" customHeight="1">
+      <c r="A253" t="s" s="6">
+        <v>511</v>
+      </c>
+      <c r="B253" t="s" s="6">
+        <v>512</v>
+      </c>
+      <c r="C253" s="7">
+        <v>25.55</v>
+      </c>
+      <c r="D253" s="7">
+        <v>3</v>
+      </c>
+      <c r="E253" s="7">
+        <v>38</v>
+      </c>
+      <c r="F253" s="7">
+        <v>1</v>
+      </c>
+      <c r="G253" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H253" s="8"/>
+      <c r="I253" s="8"/>
+    </row>
+    <row r="254" ht="13.55" customHeight="1">
+      <c r="A254" t="s" s="6">
+        <v>513</v>
+      </c>
+      <c r="B254" t="s" s="6">
+        <v>514</v>
+      </c>
+      <c r="C254" s="7">
+        <v>17.61</v>
+      </c>
+      <c r="D254" s="8"/>
+      <c r="E254" s="8"/>
+      <c r="F254" s="8"/>
+      <c r="G254" s="8"/>
+      <c r="H254" s="8"/>
+      <c r="I254" s="8"/>
+    </row>
+    <row r="255" ht="13.55" customHeight="1">
+      <c r="A255" t="s" s="6">
+        <v>515</v>
+      </c>
+      <c r="B255" t="s" s="6">
+        <v>516</v>
+      </c>
+      <c r="C255" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="8"/>
+    </row>
+    <row r="256" ht="13.55" customHeight="1">
+      <c r="A256" t="s" s="6">
+        <v>517</v>
+      </c>
+      <c r="B256" t="s" s="6">
+        <v>518</v>
+      </c>
+      <c r="C256" s="7">
+        <v>0</v>
+      </c>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="8"/>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
+    </row>
+    <row r="257" ht="13.55" customHeight="1">
+      <c r="A257" t="s" s="6">
+        <v>519</v>
+      </c>
+      <c r="B257" t="s" s="6">
+        <v>520</v>
+      </c>
+      <c r="C257" s="7">
+        <v>21.84</v>
+      </c>
+      <c r="D257" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="E257" s="7">
+        <v>32</v>
+      </c>
+      <c r="F257" s="7">
+        <v>1</v>
+      </c>
+      <c r="G257" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H257" s="8"/>
+      <c r="I257" s="8"/>
+    </row>
+    <row r="258" ht="13.55" customHeight="1">
+      <c r="A258" t="s" s="6">
+        <v>521</v>
+      </c>
+      <c r="B258" t="s" s="6">
+        <v>522</v>
+      </c>
+      <c r="C258" s="7">
+        <v>4.85</v>
+      </c>
+      <c r="D258" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="E258" s="7">
+        <v>12</v>
+      </c>
+      <c r="F258" s="7">
+        <v>1</v>
+      </c>
+      <c r="G258" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
+    </row>
+    <row r="259" ht="13.55" customHeight="1">
+      <c r="A259" t="s" s="6">
+        <v>523</v>
+      </c>
+      <c r="B259" t="s" s="6">
+        <v>524</v>
+      </c>
+      <c r="C259" s="7">
+        <v>17.98</v>
+      </c>
+      <c r="D259" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="E259" s="7">
+        <v>22</v>
+      </c>
+      <c r="F259" s="7">
+        <v>1</v>
+      </c>
+      <c r="G259" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
+    </row>
+    <row r="260" ht="13.55" customHeight="1">
+      <c r="A260" t="s" s="6">
+        <v>525</v>
+      </c>
+      <c r="B260" t="s" s="6">
+        <v>526</v>
+      </c>
+      <c r="C260" s="7">
+        <v>167.31</v>
+      </c>
+      <c r="D260" s="7">
+        <v>485</v>
+      </c>
+      <c r="E260" s="7">
+        <v>12</v>
+      </c>
+      <c r="F260" s="7">
+        <v>1</v>
+      </c>
+      <c r="G260" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="H260" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I260" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="261" ht="13.55" customHeight="1">
+      <c r="A261" t="s" s="6">
+        <v>527</v>
+      </c>
+      <c r="B261" t="s" s="6">
+        <v>528</v>
+      </c>
+      <c r="C261" s="7">
+        <v>43.47</v>
+      </c>
+      <c r="D261" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E261" s="7">
+        <v>12</v>
+      </c>
+      <c r="F261" s="7">
+        <v>1</v>
+      </c>
+      <c r="G261" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H261" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I261" s="7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="262" ht="13.55" customHeight="1">
+      <c r="A262" t="s" s="6">
+        <v>529</v>
+      </c>
+      <c r="B262" t="s" s="6">
+        <v>530</v>
+      </c>
+      <c r="C262" s="7">
+        <v>99.67</v>
+      </c>
+      <c r="D262" s="7">
+        <v>118.61</v>
+      </c>
+      <c r="E262" s="7">
+        <v>12</v>
+      </c>
+      <c r="F262" s="7">
+        <v>1</v>
+      </c>
+      <c r="G262" s="7">
+        <v>0.55</v>
+      </c>
+      <c r="H262" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I262" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="263" ht="13.55" customHeight="1">
+      <c r="A263" t="s" s="6">
+        <v>531</v>
+      </c>
+      <c r="B263" t="s" s="6">
+        <v>532</v>
+      </c>
+      <c r="C263" s="7">
+        <v>34.58</v>
+      </c>
+      <c r="D263" s="7">
+        <v>104.31</v>
+      </c>
+      <c r="E263" s="7">
+        <v>12</v>
+      </c>
+      <c r="F263" s="7">
+        <v>1</v>
+      </c>
+      <c r="G263" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H263" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I263" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="264" ht="13.55" customHeight="1">
+      <c r="A264" t="s" s="6">
+        <v>533</v>
+      </c>
+      <c r="B264" t="s" s="6">
+        <v>534</v>
+      </c>
+      <c r="C264" s="7">
+        <v>45.49</v>
+      </c>
+      <c r="D264" s="7">
+        <v>110</v>
+      </c>
+      <c r="E264" s="7">
+        <v>12</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1</v>
+      </c>
+      <c r="G264" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H264" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="I264" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="265" ht="13.55" customHeight="1">
+      <c r="A265" t="s" s="6">
+        <v>535</v>
+      </c>
+      <c r="B265" t="s" s="6">
+        <v>536</v>
+      </c>
+      <c r="C265" s="7">
+        <v>194.66</v>
+      </c>
+      <c r="D265" s="7">
+        <v>561.2</v>
+      </c>
+      <c r="E265" s="7">
+        <v>12</v>
+      </c>
+      <c r="F265" s="7">
+        <v>1</v>
+      </c>
+      <c r="G265" s="7">
+        <v>3</v>
+      </c>
+      <c r="H265" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="I265" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="266" ht="13.55" customHeight="1">
+      <c r="A266" t="s" s="6">
+        <v>537</v>
+      </c>
+      <c r="B266" t="s" s="6">
+        <v>538</v>
+      </c>
+      <c r="C266" s="7">
+        <v>321.56</v>
+      </c>
+      <c r="D266" s="7">
+        <v>850.95</v>
+      </c>
+      <c r="E266" s="7">
+        <v>12</v>
+      </c>
+      <c r="F266" s="7">
+        <v>1</v>
+      </c>
+      <c r="G266" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="H266" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="I266" s="7">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="267" ht="13.55" customHeight="1">
+      <c r="A267" t="s" s="6">
+        <v>539</v>
+      </c>
+      <c r="B267" t="s" s="6">
+        <v>540</v>
+      </c>
+      <c r="C267" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D267" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E267" s="7">
+        <v>20</v>
+      </c>
+      <c r="F267" s="7">
+        <v>1</v>
+      </c>
+      <c r="G267" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H267" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I267" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="268" ht="13.55" customHeight="1">
+      <c r="A268" t="s" s="6">
+        <v>541</v>
+      </c>
+      <c r="B268" t="s" s="6">
+        <v>542</v>
+      </c>
+      <c r="C268" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D268" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E268" s="7">
+        <v>25</v>
+      </c>
+      <c r="F268" s="7">
+        <v>1</v>
+      </c>
+      <c r="G268" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H268" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I268" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="269" ht="13.55" customHeight="1">
+      <c r="A269" t="s" s="6">
+        <v>543</v>
+      </c>
+      <c r="B269" t="s" s="6">
+        <v>544</v>
+      </c>
+      <c r="C269" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D269" s="7">
+        <v>5</v>
+      </c>
+      <c r="E269" s="7">
+        <v>32</v>
+      </c>
+      <c r="F269" s="7">
+        <v>1</v>
+      </c>
+      <c r="G269" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H269" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I269" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="270" ht="13.55" customHeight="1">
+      <c r="A270" t="s" s="6">
+        <v>545</v>
+      </c>
+      <c r="B270" t="s" s="6">
+        <v>546</v>
+      </c>
+      <c r="C270" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D270" s="7">
+        <v>17</v>
+      </c>
+      <c r="E270" s="7">
+        <v>32</v>
+      </c>
+      <c r="F270" s="7">
+        <v>1</v>
+      </c>
+      <c r="G270" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H270" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I270" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="271" ht="13.55" customHeight="1">
+      <c r="A271" t="s" s="6">
+        <v>547</v>
+      </c>
+      <c r="B271" t="s" s="6">
+        <v>548</v>
+      </c>
+      <c r="C271" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D271" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E271" s="7">
+        <v>10</v>
+      </c>
+      <c r="F271" s="7">
+        <v>1</v>
+      </c>
+      <c r="G271" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H271" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I271" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="272" ht="13.55" customHeight="1">
+      <c r="A272" t="s" s="6">
+        <v>549</v>
+      </c>
+      <c r="B272" t="s" s="6">
+        <v>550</v>
+      </c>
+      <c r="C272" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D272" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E272" s="7">
+        <v>25</v>
+      </c>
+      <c r="F272" s="7">
+        <v>1</v>
+      </c>
+      <c r="G272" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H272" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I272" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="273" ht="13.55" customHeight="1">
+      <c r="A273" t="s" s="6">
+        <v>551</v>
+      </c>
+      <c r="B273" t="s" s="6">
+        <v>552</v>
+      </c>
+      <c r="C273" s="7">
+        <v>1.17</v>
+      </c>
+      <c r="D273" s="8"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
+      <c r="H273" s="8"/>
+      <c r="I273" s="8"/>
+    </row>
+    <row r="274" ht="13.55" customHeight="1">
+      <c r="A274" t="s" s="6">
+        <v>553</v>
+      </c>
+      <c r="B274" t="s" s="6">
+        <v>554</v>
+      </c>
+      <c r="C274" s="7">
+        <v>9.35</v>
+      </c>
+      <c r="D274" s="7">
+        <v>30</v>
+      </c>
+      <c r="E274" s="7">
+        <v>12</v>
+      </c>
+      <c r="F274" s="7">
+        <v>1</v>
+      </c>
+      <c r="G274" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H274" s="8"/>
+      <c r="I274" s="8"/>
+    </row>
+    <row r="275" ht="13.55" customHeight="1">
+      <c r="A275" t="s" s="6">
+        <v>555</v>
+      </c>
+      <c r="B275" t="s" s="6">
+        <v>556</v>
+      </c>
+      <c r="C275" s="7">
+        <v>2.87</v>
+      </c>
+      <c r="D275" s="8"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+      <c r="H275" s="8"/>
+      <c r="I275" s="8"/>
+    </row>
+    <row r="276" ht="13.55" customHeight="1">
+      <c r="A276" t="s" s="6">
+        <v>557</v>
+      </c>
+      <c r="B276" t="s" s="6">
+        <v>558</v>
+      </c>
+      <c r="C276" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
+      <c r="H276" s="8"/>
+      <c r="I276" s="8"/>
+    </row>
+    <row r="277" ht="13.55" customHeight="1">
+      <c r="A277" t="s" s="6">
+        <v>559</v>
+      </c>
+      <c r="B277" t="s" s="6">
+        <v>560</v>
+      </c>
+      <c r="C277" s="7">
+        <v>18.97</v>
+      </c>
+      <c r="D277" s="8"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+      <c r="H277" s="8"/>
+      <c r="I277" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
   <si>
     <t>timestamp</t>
   </si>
@@ -154,18 +154,6 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
-    <t>2024-09-11 10:50:20</t>
-  </si>
-  <si>
-    <t>55531355-perforaciones placa izquierda.slp</t>
-  </si>
-  <si>
-    <t>2024-09-03 13:04:18</t>
-  </si>
-  <si>
-    <t>Boquillas.slp</t>
-  </si>
-  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -1540,12 +1528,6 @@
     <t>L_03809.NC</t>
   </si>
   <si>
-    <t>2024-09-04 17:07:03</t>
-  </si>
-  <si>
-    <t>L_03896.NC</t>
-  </si>
-  <si>
     <t>2024-09-05 09:43:53</t>
   </si>
   <si>
@@ -1564,12 +1546,6 @@
     <t>L_03909.NC</t>
   </si>
   <si>
-    <t>2024-09-12 17:19:45</t>
-  </si>
-  <si>
-    <t>L_04009.NC</t>
-  </si>
-  <si>
     <t>2024-09-10 14:41:01</t>
   </si>
   <si>
@@ -1666,34 +1642,10 @@
     <t>PV-55391556-Result1-1 25MM.lxds</t>
   </si>
   <si>
-    <t>2024-09-12 17:07:33</t>
-  </si>
-  <si>
-    <t>Peineta mesa.slp</t>
-  </si>
-  <si>
     <t>2024-07-25 15:54:38</t>
   </si>
   <si>
     <t>bisel de forma 02.slp</t>
-  </si>
-  <si>
-    <t>2024-09-05 17:07:53</t>
-  </si>
-  <si>
-    <t>choki cuadrado.slp</t>
-  </si>
-  <si>
-    <t>2024-09-02 13:29:28</t>
-  </si>
-  <si>
-    <t>espatula.slp</t>
-  </si>
-  <si>
-    <t>2024-09-04 09:35:39</t>
-  </si>
-  <si>
-    <t>pieza sold.slp</t>
   </si>
 </sst>
 </file>
@@ -2937,14 +2889,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I277"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.9141" style="1" customWidth="1"/>
     <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -3517,14 +3469,26 @@
         <v>48</v>
       </c>
       <c r="C21" s="7">
-        <v>77.70999999999999</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+        <v>6.17</v>
+      </c>
+      <c r="D21" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I21" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="6">
@@ -3534,14 +3498,26 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>6.51</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+        <v>6.65</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I22" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="6">
@@ -3551,10 +3527,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="7">
-        <v>6.17</v>
+        <v>7.18</v>
       </c>
       <c r="D23" s="7">
-        <v>23.8</v>
+        <v>26.7</v>
       </c>
       <c r="E23" s="7">
         <v>3</v>
@@ -3563,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="7">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H23" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I23" s="7">
         <v>-0.02</v>
@@ -3580,10 +3556,10 @@
         <v>54</v>
       </c>
       <c r="C24" s="7">
-        <v>6.65</v>
+        <v>21.94</v>
       </c>
       <c r="D24" s="7">
-        <v>24.8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7">
         <v>3</v>
@@ -3592,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="H24" s="7">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="I24" s="7">
-        <v>-0.02</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
@@ -3609,25 +3585,25 @@
         <v>56</v>
       </c>
       <c r="C25" s="7">
-        <v>7.18</v>
+        <v>30.37</v>
       </c>
       <c r="D25" s="7">
-        <v>26.7</v>
+        <v>116.8</v>
       </c>
       <c r="E25" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>0.14</v>
+        <v>1.5</v>
       </c>
       <c r="H25" s="7">
-        <v>0.12</v>
+        <v>0.51</v>
       </c>
       <c r="I25" s="7">
-        <v>-0.02</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
@@ -3638,25 +3614,25 @@
         <v>58</v>
       </c>
       <c r="C26" s="7">
-        <v>21.94</v>
+        <v>19.9</v>
       </c>
       <c r="D26" s="7">
-        <v>9</v>
+        <v>69.682</v>
       </c>
       <c r="E26" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I26" s="7">
-        <v>0.32</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
@@ -3667,10 +3643,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="7">
-        <v>30.37</v>
+        <v>15.77</v>
       </c>
       <c r="D27" s="7">
-        <v>116.8</v>
+        <v>27.16</v>
       </c>
       <c r="E27" s="7">
         <v>10</v>
@@ -3679,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="7">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="I27" s="7">
-        <v>0.99</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -3696,25 +3672,25 @@
         <v>62</v>
       </c>
       <c r="C28" s="7">
-        <v>19.9</v>
+        <v>11.26</v>
       </c>
       <c r="D28" s="7">
-        <v>69.682</v>
+        <v>50.5</v>
       </c>
       <c r="E28" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="H28" s="7">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I28" s="7">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3725,25 +3701,25 @@
         <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>15.77</v>
+        <v>3.76</v>
       </c>
       <c r="D29" s="7">
-        <v>27.16</v>
+        <v>19.7</v>
       </c>
       <c r="E29" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="H29" s="7">
-        <v>0.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" s="7">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -3754,25 +3730,25 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>11.26</v>
+        <v>25.79</v>
       </c>
       <c r="D30" s="7">
-        <v>50.5</v>
+        <v>18.9</v>
       </c>
       <c r="E30" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="H30" s="7">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
       <c r="I30" s="7">
-        <v>0.27</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
@@ -3783,13 +3759,13 @@
         <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="D31" s="7">
-        <v>19.7</v>
+        <v>12.5</v>
       </c>
       <c r="E31" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
@@ -3812,25 +3788,25 @@
         <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>25.79</v>
+        <v>2.98</v>
       </c>
       <c r="D32" s="7">
-        <v>18.9</v>
+        <v>13.7</v>
       </c>
       <c r="E32" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="H32" s="7">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
       <c r="I32" s="7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
@@ -3841,26 +3817,24 @@
         <v>72</v>
       </c>
       <c r="C33" s="7">
-        <v>3.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D33" s="7">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="H33" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0.06</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="6">
@@ -3870,25 +3844,25 @@
         <v>74</v>
       </c>
       <c r="C34" s="7">
-        <v>2.98</v>
+        <v>3.48</v>
       </c>
       <c r="D34" s="7">
-        <v>13.7</v>
+        <v>1.2</v>
       </c>
       <c r="E34" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H34" s="7">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I34" s="7">
-        <v>0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
@@ -3899,13 +3873,13 @@
         <v>76</v>
       </c>
       <c r="C35" s="7">
-        <v>0.5600000000000001</v>
+        <v>4.16</v>
       </c>
       <c r="D35" s="7">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="E35" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
@@ -3914,9 +3888,11 @@
         <v>0.01</v>
       </c>
       <c r="H35" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I35" s="8"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I35" s="7">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="6">
@@ -3926,13 +3902,13 @@
         <v>78</v>
       </c>
       <c r="C36" s="7">
-        <v>3.48</v>
+        <v>0.39</v>
       </c>
       <c r="D36" s="7">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
@@ -3941,10 +3917,10 @@
         <v>0.01</v>
       </c>
       <c r="H36" s="7">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I36" s="7">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
@@ -3955,13 +3931,13 @@
         <v>80</v>
       </c>
       <c r="C37" s="7">
-        <v>4.16</v>
+        <v>1.23</v>
       </c>
       <c r="D37" s="7">
-        <v>0.33</v>
+        <v>2.428</v>
       </c>
       <c r="E37" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
@@ -3970,10 +3946,10 @@
         <v>0.01</v>
       </c>
       <c r="H37" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I37" s="7">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="38" ht="13.55" customHeight="1">
@@ -3984,26 +3960,24 @@
         <v>82</v>
       </c>
       <c r="C38" s="7">
-        <v>0.39</v>
+        <v>3.13</v>
       </c>
       <c r="D38" s="7">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="E38" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H38" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="6">
@@ -4013,13 +3987,13 @@
         <v>84</v>
       </c>
       <c r="C39" s="7">
-        <v>1.23</v>
+        <v>0.35</v>
       </c>
       <c r="D39" s="7">
-        <v>2.428</v>
+        <v>1</v>
       </c>
       <c r="E39" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
@@ -4028,11 +4002,9 @@
         <v>0.01</v>
       </c>
       <c r="H39" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I39" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="6">
@@ -4042,13 +4014,13 @@
         <v>86</v>
       </c>
       <c r="C40" s="7">
-        <v>3.13</v>
+        <v>5.83</v>
       </c>
       <c r="D40" s="7">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
@@ -4057,9 +4029,11 @@
         <v>0.11</v>
       </c>
       <c r="H40" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="I40" s="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="6">
@@ -4069,24 +4043,26 @@
         <v>88</v>
       </c>
       <c r="C41" s="7">
-        <v>0.35</v>
+        <v>7.43</v>
       </c>
       <c r="D41" s="7">
-        <v>1</v>
+        <v>12.8</v>
       </c>
       <c r="E41" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="H41" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="8"/>
+        <v>0.13</v>
+      </c>
+      <c r="I41" s="7">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="6">
@@ -4096,25 +4072,25 @@
         <v>90</v>
       </c>
       <c r="C42" s="7">
-        <v>5.83</v>
+        <v>10.63</v>
       </c>
       <c r="D42" s="7">
         <v>4</v>
       </c>
       <c r="E42" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H42" s="7">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="I42" s="7">
-        <v>0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
@@ -4125,25 +4101,25 @@
         <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>7.43</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D43" s="7">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="E43" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="7">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="H43" s="7">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I43" s="7">
-        <v>-0.01</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="44" ht="13.55" customHeight="1">
@@ -4154,26 +4130,22 @@
         <v>94</v>
       </c>
       <c r="C44" s="7">
-        <v>10.63</v>
+        <v>2.71</v>
       </c>
       <c r="D44" s="7">
-        <v>4</v>
+        <v>13.7</v>
       </c>
       <c r="E44" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="I44" s="7">
-        <v>-0.05</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="6">
@@ -4183,10 +4155,10 @@
         <v>96</v>
       </c>
       <c r="C45" s="7">
-        <v>8.880000000000001</v>
+        <v>144.21</v>
       </c>
       <c r="D45" s="7">
-        <v>2</v>
+        <v>90.3</v>
       </c>
       <c r="E45" s="7">
         <v>25</v>
@@ -4195,14 +4167,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I45" s="7">
-        <v>-0.14</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="6">
@@ -4212,19 +4180,19 @@
         <v>98</v>
       </c>
       <c r="C46" s="7">
-        <v>2.71</v>
+        <v>12.15</v>
       </c>
       <c r="D46" s="7">
-        <v>13.7</v>
+        <v>77</v>
       </c>
       <c r="E46" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
       <c r="G46" s="7">
-        <v>0.28</v>
+        <v>1.5</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -4237,19 +4205,19 @@
         <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>144.21</v>
+        <v>4.45</v>
       </c>
       <c r="D47" s="7">
-        <v>90.3</v>
+        <v>17.8</v>
       </c>
       <c r="E47" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="7">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -4262,19 +4230,19 @@
         <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>12.15</v>
+        <v>3.12</v>
       </c>
       <c r="D48" s="7">
-        <v>77</v>
+        <v>11.7</v>
       </c>
       <c r="E48" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
       <c r="G48" s="7">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4287,19 +4255,19 @@
         <v>104</v>
       </c>
       <c r="C49" s="7">
-        <v>4.45</v>
+        <v>4.28</v>
       </c>
       <c r="D49" s="7">
-        <v>17.8</v>
+        <v>13.5</v>
       </c>
       <c r="E49" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F49" s="7">
         <v>1</v>
       </c>
       <c r="G49" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -4312,19 +4280,19 @@
         <v>106</v>
       </c>
       <c r="C50" s="7">
-        <v>3.12</v>
+        <v>3.26</v>
       </c>
       <c r="D50" s="7">
-        <v>11.7</v>
+        <v>10.4</v>
       </c>
       <c r="E50" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F50" s="7">
         <v>1</v>
       </c>
       <c r="G50" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -4337,13 +4305,13 @@
         <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>4.28</v>
+        <v>15.61</v>
       </c>
       <c r="D51" s="7">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="E51" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
@@ -4362,19 +4330,19 @@
         <v>110</v>
       </c>
       <c r="C52" s="7">
-        <v>3.26</v>
+        <v>9.58</v>
       </c>
       <c r="D52" s="7">
-        <v>10.4</v>
+        <v>40.2</v>
       </c>
       <c r="E52" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -4387,19 +4355,19 @@
         <v>112</v>
       </c>
       <c r="C53" s="7">
-        <v>15.61</v>
+        <v>12.55</v>
       </c>
       <c r="D53" s="7">
-        <v>14.3</v>
+        <v>55</v>
       </c>
       <c r="E53" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -4412,19 +4380,19 @@
         <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>9.58</v>
+        <v>19.1</v>
       </c>
       <c r="D54" s="7">
-        <v>40.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E54" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4437,19 +4405,19 @@
         <v>116</v>
       </c>
       <c r="C55" s="7">
-        <v>12.55</v>
+        <v>24.33</v>
       </c>
       <c r="D55" s="7">
-        <v>55</v>
+        <v>211.504</v>
       </c>
       <c r="E55" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -4462,19 +4430,19 @@
         <v>118</v>
       </c>
       <c r="C56" s="7">
-        <v>19.1</v>
+        <v>25.6</v>
       </c>
       <c r="D56" s="7">
-        <v>90.90000000000001</v>
+        <v>24.5</v>
       </c>
       <c r="E56" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -4487,19 +4455,19 @@
         <v>120</v>
       </c>
       <c r="C57" s="7">
-        <v>24.33</v>
+        <v>156.12</v>
       </c>
       <c r="D57" s="7">
-        <v>211.504</v>
+        <v>242.709</v>
       </c>
       <c r="E57" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -4512,10 +4480,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="7">
-        <v>25.6</v>
+        <v>30.88</v>
       </c>
       <c r="D58" s="7">
-        <v>24.5</v>
+        <v>110.075</v>
       </c>
       <c r="E58" s="7">
         <v>12</v>
@@ -4524,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -4537,10 +4505,10 @@
         <v>124</v>
       </c>
       <c r="C59" s="7">
-        <v>156.12</v>
+        <v>10</v>
       </c>
       <c r="D59" s="7">
-        <v>242.709</v>
+        <v>14.012</v>
       </c>
       <c r="E59" s="7">
         <v>12</v>
@@ -4549,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>6.5</v>
+        <v>0.1</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -4562,19 +4530,19 @@
         <v>126</v>
       </c>
       <c r="C60" s="7">
-        <v>30.88</v>
+        <v>88.03</v>
       </c>
       <c r="D60" s="7">
-        <v>110.075</v>
+        <v>30.4</v>
       </c>
       <c r="E60" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -4587,19 +4555,19 @@
         <v>128</v>
       </c>
       <c r="C61" s="7">
+        <v>25.66</v>
+      </c>
+      <c r="D61" s="7">
+        <v>135.2</v>
+      </c>
+      <c r="E61" s="7">
         <v>10</v>
       </c>
-      <c r="D61" s="7">
-        <v>14.012</v>
-      </c>
-      <c r="E61" s="7">
-        <v>12</v>
-      </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -4612,10 +4580,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="7">
-        <v>88.03</v>
+        <v>20.96</v>
       </c>
       <c r="D62" s="7">
-        <v>30.4</v>
+        <v>118.6</v>
       </c>
       <c r="E62" s="7">
         <v>10</v>
@@ -4624,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -4637,10 +4605,10 @@
         <v>132</v>
       </c>
       <c r="C63" s="7">
-        <v>25.66</v>
+        <v>24.99</v>
       </c>
       <c r="D63" s="7">
-        <v>135.2</v>
+        <v>135.112</v>
       </c>
       <c r="E63" s="7">
         <v>10</v>
@@ -4662,10 +4630,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="7">
-        <v>20.96</v>
+        <v>25.58</v>
       </c>
       <c r="D64" s="7">
-        <v>118.6</v>
+        <v>135.1</v>
       </c>
       <c r="E64" s="7">
         <v>10</v>
@@ -4687,10 +4655,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="7">
-        <v>24.99</v>
+        <v>60.31</v>
       </c>
       <c r="D65" s="7">
-        <v>135.112</v>
+        <v>313.297</v>
       </c>
       <c r="E65" s="7">
         <v>10</v>
@@ -4699,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -4712,10 +4680,10 @@
         <v>138</v>
       </c>
       <c r="C66" s="7">
-        <v>25.58</v>
+        <v>25.52</v>
       </c>
       <c r="D66" s="7">
-        <v>135.1</v>
+        <v>137</v>
       </c>
       <c r="E66" s="7">
         <v>10</v>
@@ -4724,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -4737,10 +4705,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>60.31</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D67" s="7">
-        <v>313.297</v>
+        <v>474.621</v>
       </c>
       <c r="E67" s="7">
         <v>10</v>
@@ -4749,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -4762,10 +4730,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>25.52</v>
+        <v>14.13</v>
       </c>
       <c r="D68" s="7">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="E68" s="7">
         <v>10</v>
@@ -4774,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -4787,10 +4755,10 @@
         <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>82.26000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="D69" s="7">
-        <v>474.621</v>
+        <v>25</v>
       </c>
       <c r="E69" s="7">
         <v>10</v>
@@ -4799,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -4812,10 +4780,10 @@
         <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>14.13</v>
+        <v>60.44</v>
       </c>
       <c r="D70" s="7">
-        <v>34</v>
+        <v>81.459</v>
       </c>
       <c r="E70" s="7">
         <v>10</v>
@@ -4837,10 +4805,10 @@
         <v>148</v>
       </c>
       <c r="C71" s="7">
-        <v>9.57</v>
+        <v>49.26</v>
       </c>
       <c r="D71" s="7">
-        <v>25</v>
+        <v>183.288</v>
       </c>
       <c r="E71" s="7">
         <v>10</v>
@@ -4849,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -4862,19 +4830,19 @@
         <v>150</v>
       </c>
       <c r="C72" s="7">
-        <v>60.44</v>
+        <v>0.29</v>
       </c>
       <c r="D72" s="7">
-        <v>81.459</v>
+        <v>1.5</v>
       </c>
       <c r="E72" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
@@ -4887,19 +4855,19 @@
         <v>152</v>
       </c>
       <c r="C73" s="7">
-        <v>49.26</v>
+        <v>37.15</v>
       </c>
       <c r="D73" s="7">
-        <v>183.288</v>
+        <v>7.5</v>
       </c>
       <c r="E73" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -4912,13 +4880,13 @@
         <v>154</v>
       </c>
       <c r="C74" s="7">
-        <v>0.29</v>
+        <v>12.76</v>
       </c>
       <c r="D74" s="7">
-        <v>1.5</v>
+        <v>24.919</v>
       </c>
       <c r="E74" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F74" s="7">
         <v>1</v>
@@ -4937,19 +4905,19 @@
         <v>156</v>
       </c>
       <c r="C75" s="7">
-        <v>37.15</v>
+        <v>20.38</v>
       </c>
       <c r="D75" s="7">
-        <v>7.5</v>
+        <v>74.434</v>
       </c>
       <c r="E75" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -4962,10 +4930,10 @@
         <v>158</v>
       </c>
       <c r="C76" s="7">
-        <v>12.76</v>
+        <v>10.35</v>
       </c>
       <c r="D76" s="7">
-        <v>24.919</v>
+        <v>35.091</v>
       </c>
       <c r="E76" s="7">
         <v>12</v>
@@ -4974,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4987,10 +4955,10 @@
         <v>160</v>
       </c>
       <c r="C77" s="7">
-        <v>20.38</v>
+        <v>17.77</v>
       </c>
       <c r="D77" s="7">
-        <v>74.434</v>
+        <v>65.682</v>
       </c>
       <c r="E77" s="7">
         <v>12</v>
@@ -5012,10 +4980,10 @@
         <v>162</v>
       </c>
       <c r="C78" s="7">
-        <v>10.35</v>
+        <v>18.06</v>
       </c>
       <c r="D78" s="7">
-        <v>35.091</v>
+        <v>56.867</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -5024,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -5037,10 +5005,10 @@
         <v>164</v>
       </c>
       <c r="C79" s="7">
-        <v>17.77</v>
+        <v>10.45</v>
       </c>
       <c r="D79" s="7">
-        <v>65.682</v>
+        <v>35.097</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -5062,10 +5030,10 @@
         <v>166</v>
       </c>
       <c r="C80" s="7">
-        <v>18.06</v>
+        <v>20.83</v>
       </c>
       <c r="D80" s="7">
-        <v>56.867</v>
+        <v>68.786</v>
       </c>
       <c r="E80" s="7">
         <v>12</v>
@@ -5074,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="7">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -5087,10 +5055,10 @@
         <v>168</v>
       </c>
       <c r="C81" s="7">
-        <v>10.45</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D81" s="7">
-        <v>35.097</v>
+        <v>33</v>
       </c>
       <c r="E81" s="7">
         <v>12</v>
@@ -5112,10 +5080,10 @@
         <v>170</v>
       </c>
       <c r="C82" s="7">
-        <v>20.83</v>
+        <v>9.24</v>
       </c>
       <c r="D82" s="7">
-        <v>68.786</v>
+        <v>33.19</v>
       </c>
       <c r="E82" s="7">
         <v>12</v>
@@ -5124,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -5137,10 +5105,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="7">
-        <v>9.119999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="D83" s="7">
-        <v>33</v>
+        <v>33.19</v>
       </c>
       <c r="E83" s="7">
         <v>12</v>
@@ -5162,10 +5130,10 @@
         <v>174</v>
       </c>
       <c r="C84" s="7">
-        <v>9.24</v>
+        <v>17.9</v>
       </c>
       <c r="D84" s="7">
-        <v>33.19</v>
+        <v>60.542</v>
       </c>
       <c r="E84" s="7">
         <v>12</v>
@@ -5174,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -5187,10 +5155,10 @@
         <v>176</v>
       </c>
       <c r="C85" s="7">
-        <v>9.18</v>
+        <v>39.59</v>
       </c>
       <c r="D85" s="7">
-        <v>33.19</v>
+        <v>135.375</v>
       </c>
       <c r="E85" s="7">
         <v>12</v>
@@ -5199,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -5212,10 +5180,10 @@
         <v>178</v>
       </c>
       <c r="C86" s="7">
-        <v>17.9</v>
+        <v>21.3</v>
       </c>
       <c r="D86" s="7">
-        <v>60.542</v>
+        <v>73.223</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -5224,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -5237,10 +5205,10 @@
         <v>180</v>
       </c>
       <c r="C87" s="7">
-        <v>39.59</v>
+        <v>8.65</v>
       </c>
       <c r="D87" s="7">
-        <v>135.375</v>
+        <v>28.483</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -5249,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -5262,10 +5230,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="7">
-        <v>21.3</v>
+        <v>10.25</v>
       </c>
       <c r="D88" s="7">
-        <v>73.223</v>
+        <v>36.532</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -5274,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -5287,10 +5255,10 @@
         <v>184</v>
       </c>
       <c r="C89" s="7">
-        <v>8.65</v>
+        <v>12.29</v>
       </c>
       <c r="D89" s="7">
-        <v>28.483</v>
+        <v>38.502</v>
       </c>
       <c r="E89" s="7">
         <v>12</v>
@@ -5299,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -5312,10 +5280,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="7">
-        <v>10.25</v>
+        <v>13.27</v>
       </c>
       <c r="D90" s="7">
-        <v>36.532</v>
+        <v>46</v>
       </c>
       <c r="E90" s="7">
         <v>12</v>
@@ -5324,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -5337,10 +5305,10 @@
         <v>188</v>
       </c>
       <c r="C91" s="7">
-        <v>12.29</v>
+        <v>3.32</v>
       </c>
       <c r="D91" s="7">
-        <v>38.502</v>
+        <v>11.6</v>
       </c>
       <c r="E91" s="7">
         <v>12</v>
@@ -5349,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -5362,10 +5330,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="7">
-        <v>13.27</v>
+        <v>9.5</v>
       </c>
       <c r="D92" s="7">
-        <v>46</v>
+        <v>33.457</v>
       </c>
       <c r="E92" s="7">
         <v>12</v>
@@ -5374,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -5387,10 +5355,10 @@
         <v>192</v>
       </c>
       <c r="C93" s="7">
-        <v>3.32</v>
+        <v>5.32</v>
       </c>
       <c r="D93" s="7">
-        <v>11.6</v>
+        <v>19.7</v>
       </c>
       <c r="E93" s="7">
         <v>12</v>
@@ -5412,10 +5380,10 @@
         <v>194</v>
       </c>
       <c r="C94" s="7">
-        <v>9.5</v>
+        <v>10.58</v>
       </c>
       <c r="D94" s="7">
-        <v>33.457</v>
+        <v>37.2</v>
       </c>
       <c r="E94" s="7">
         <v>12</v>
@@ -5437,10 +5405,10 @@
         <v>196</v>
       </c>
       <c r="C95" s="7">
-        <v>5.32</v>
+        <v>12.29</v>
       </c>
       <c r="D95" s="7">
-        <v>19.7</v>
+        <v>56.8</v>
       </c>
       <c r="E95" s="7">
         <v>12</v>
@@ -5449,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -5462,10 +5430,10 @@
         <v>198</v>
       </c>
       <c r="C96" s="7">
-        <v>10.58</v>
+        <v>30.09</v>
       </c>
       <c r="D96" s="7">
-        <v>37.2</v>
+        <v>84.102</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -5474,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -5487,10 +5455,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="7">
-        <v>12.29</v>
+        <v>42.54</v>
       </c>
       <c r="D97" s="7">
-        <v>56.8</v>
+        <v>122</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -5499,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -5512,10 +5480,10 @@
         <v>202</v>
       </c>
       <c r="C98" s="7">
-        <v>30.09</v>
+        <v>42.62</v>
       </c>
       <c r="D98" s="7">
-        <v>84.102</v>
+        <v>122</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -5524,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -5537,10 +5505,10 @@
         <v>204</v>
       </c>
       <c r="C99" s="7">
-        <v>42.54</v>
+        <v>32.67</v>
       </c>
       <c r="D99" s="7">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -5562,10 +5530,10 @@
         <v>206</v>
       </c>
       <c r="C100" s="7">
-        <v>42.62</v>
+        <v>69.61</v>
       </c>
       <c r="D100" s="7">
-        <v>122</v>
+        <v>248.201</v>
       </c>
       <c r="E100" s="7">
         <v>12</v>
@@ -5574,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -5587,10 +5555,10 @@
         <v>208</v>
       </c>
       <c r="C101" s="7">
-        <v>32.67</v>
+        <v>84.97</v>
       </c>
       <c r="D101" s="7">
-        <v>107</v>
+        <v>248.201</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -5599,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -5612,7 +5580,7 @@
         <v>210</v>
       </c>
       <c r="C102" s="7">
-        <v>69.61</v>
+        <v>120.91</v>
       </c>
       <c r="D102" s="7">
         <v>248.201</v>
@@ -5637,10 +5605,10 @@
         <v>212</v>
       </c>
       <c r="C103" s="7">
-        <v>84.97</v>
+        <v>130.17</v>
       </c>
       <c r="D103" s="7">
-        <v>248.201</v>
+        <v>207</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -5662,10 +5630,10 @@
         <v>214</v>
       </c>
       <c r="C104" s="7">
-        <v>120.91</v>
+        <v>11.85</v>
       </c>
       <c r="D104" s="7">
-        <v>248.201</v>
+        <v>34.5</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -5674,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>3</v>
+        <v>0.53</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -5687,10 +5655,10 @@
         <v>216</v>
       </c>
       <c r="C105" s="7">
-        <v>130.17</v>
+        <v>17.89</v>
       </c>
       <c r="D105" s="7">
-        <v>207</v>
+        <v>48.7</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -5699,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -5712,10 +5680,10 @@
         <v>218</v>
       </c>
       <c r="C106" s="7">
-        <v>11.85</v>
+        <v>21.89</v>
       </c>
       <c r="D106" s="7">
-        <v>34.5</v>
+        <v>24</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -5724,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -5737,19 +5705,19 @@
         <v>220</v>
       </c>
       <c r="C107" s="7">
-        <v>17.89</v>
+        <v>0.49</v>
       </c>
       <c r="D107" s="7">
-        <v>48.7</v>
+        <v>2.234</v>
       </c>
       <c r="E107" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F107" s="7">
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5762,10 +5730,10 @@
         <v>222</v>
       </c>
       <c r="C108" s="7">
-        <v>21.89</v>
+        <v>68.42</v>
       </c>
       <c r="D108" s="7">
-        <v>24</v>
+        <v>216.554</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5774,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5787,13 +5755,13 @@
         <v>224</v>
       </c>
       <c r="C109" s="7">
-        <v>0.49</v>
+        <v>216.38</v>
       </c>
       <c r="D109" s="7">
-        <v>2.234</v>
+        <v>450.756</v>
       </c>
       <c r="E109" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F109" s="7">
         <v>1</v>
@@ -5812,10 +5780,10 @@
         <v>226</v>
       </c>
       <c r="C110" s="7">
-        <v>68.42</v>
+        <v>22.31</v>
       </c>
       <c r="D110" s="7">
-        <v>216.554</v>
+        <v>45</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -5824,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -5837,13 +5805,13 @@
         <v>228</v>
       </c>
       <c r="C111" s="7">
-        <v>216.38</v>
+        <v>1.38</v>
       </c>
       <c r="D111" s="7">
-        <v>450.756</v>
+        <v>5.475</v>
       </c>
       <c r="E111" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
@@ -5862,13 +5830,13 @@
         <v>230</v>
       </c>
       <c r="C112" s="7">
-        <v>22.31</v>
+        <v>1.36</v>
       </c>
       <c r="D112" s="7">
-        <v>45</v>
+        <v>5.493</v>
       </c>
       <c r="E112" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
@@ -5887,13 +5855,13 @@
         <v>232</v>
       </c>
       <c r="C113" s="7">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="D113" s="7">
-        <v>5.475</v>
+        <v>5.6</v>
       </c>
       <c r="E113" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
@@ -5912,13 +5880,13 @@
         <v>234</v>
       </c>
       <c r="C114" s="7">
-        <v>1.36</v>
+        <v>0.49</v>
       </c>
       <c r="D114" s="7">
-        <v>5.493</v>
+        <v>1.7</v>
       </c>
       <c r="E114" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
@@ -5937,13 +5905,13 @@
         <v>236</v>
       </c>
       <c r="C115" s="7">
-        <v>1.42</v>
+        <v>6.32</v>
       </c>
       <c r="D115" s="7">
-        <v>5.6</v>
+        <v>32.054</v>
       </c>
       <c r="E115" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F115" s="7">
         <v>1</v>
@@ -5962,13 +5930,13 @@
         <v>238</v>
       </c>
       <c r="C116" s="7">
-        <v>0.49</v>
+        <v>26.16</v>
       </c>
       <c r="D116" s="7">
-        <v>1.7</v>
+        <v>26.938</v>
       </c>
       <c r="E116" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F116" s="7">
         <v>1</v>
@@ -5987,13 +5955,13 @@
         <v>240</v>
       </c>
       <c r="C117" s="7">
-        <v>6.32</v>
+        <v>5.38</v>
       </c>
       <c r="D117" s="7">
-        <v>32.054</v>
+        <v>13</v>
       </c>
       <c r="E117" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F117" s="7">
         <v>1</v>
@@ -6012,19 +5980,19 @@
         <v>242</v>
       </c>
       <c r="C118" s="7">
-        <v>26.16</v>
+        <v>42.82</v>
       </c>
       <c r="D118" s="7">
-        <v>26.938</v>
+        <v>152.431</v>
       </c>
       <c r="E118" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F118" s="7">
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -6037,19 +6005,19 @@
         <v>244</v>
       </c>
       <c r="C119" s="7">
-        <v>5.38</v>
+        <v>43.29</v>
       </c>
       <c r="D119" s="7">
-        <v>13</v>
+        <v>152.431</v>
       </c>
       <c r="E119" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F119" s="7">
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -6062,10 +6030,10 @@
         <v>246</v>
       </c>
       <c r="C120" s="7">
-        <v>42.82</v>
+        <v>48.75</v>
       </c>
       <c r="D120" s="7">
-        <v>152.431</v>
+        <v>175.457</v>
       </c>
       <c r="E120" s="7">
         <v>6</v>
@@ -6074,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -6087,10 +6055,10 @@
         <v>248</v>
       </c>
       <c r="C121" s="7">
-        <v>43.29</v>
+        <v>49.12</v>
       </c>
       <c r="D121" s="7">
-        <v>152.431</v>
+        <v>201.645</v>
       </c>
       <c r="E121" s="7">
         <v>6</v>
@@ -6099,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -6112,10 +6080,10 @@
         <v>250</v>
       </c>
       <c r="C122" s="7">
-        <v>48.75</v>
+        <v>25.04</v>
       </c>
       <c r="D122" s="7">
-        <v>175.457</v>
+        <v>143.961</v>
       </c>
       <c r="E122" s="7">
         <v>6</v>
@@ -6124,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -6137,10 +6105,10 @@
         <v>252</v>
       </c>
       <c r="C123" s="7">
-        <v>49.12</v>
+        <v>21.26</v>
       </c>
       <c r="D123" s="7">
-        <v>201.645</v>
+        <v>143.961</v>
       </c>
       <c r="E123" s="7">
         <v>6</v>
@@ -6149,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -6162,10 +6130,10 @@
         <v>254</v>
       </c>
       <c r="C124" s="7">
-        <v>25.04</v>
+        <v>39.51</v>
       </c>
       <c r="D124" s="7">
-        <v>143.961</v>
+        <v>219.134</v>
       </c>
       <c r="E124" s="7">
         <v>6</v>
@@ -6174,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -6187,10 +6155,10 @@
         <v>256</v>
       </c>
       <c r="C125" s="7">
-        <v>21.26</v>
+        <v>17.11</v>
       </c>
       <c r="D125" s="7">
-        <v>143.961</v>
+        <v>96.729</v>
       </c>
       <c r="E125" s="7">
         <v>6</v>
@@ -6199,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -6212,10 +6180,10 @@
         <v>258</v>
       </c>
       <c r="C126" s="7">
-        <v>39.51</v>
+        <v>14.78</v>
       </c>
       <c r="D126" s="7">
-        <v>219.134</v>
+        <v>84.5</v>
       </c>
       <c r="E126" s="7">
         <v>6</v>
@@ -6224,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -6237,10 +6205,10 @@
         <v>260</v>
       </c>
       <c r="C127" s="7">
-        <v>17.11</v>
+        <v>20.9</v>
       </c>
       <c r="D127" s="7">
-        <v>96.729</v>
+        <v>122.054</v>
       </c>
       <c r="E127" s="7">
         <v>6</v>
@@ -6262,10 +6230,10 @@
         <v>262</v>
       </c>
       <c r="C128" s="7">
-        <v>14.78</v>
+        <v>15.95</v>
       </c>
       <c r="D128" s="7">
-        <v>84.5</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E128" s="7">
         <v>6</v>
@@ -6274,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -6287,10 +6255,10 @@
         <v>264</v>
       </c>
       <c r="C129" s="7">
-        <v>20.9</v>
+        <v>5.62</v>
       </c>
       <c r="D129" s="7">
-        <v>122.054</v>
+        <v>18.015</v>
       </c>
       <c r="E129" s="7">
         <v>6</v>
@@ -6299,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -6312,10 +6280,10 @@
         <v>266</v>
       </c>
       <c r="C130" s="7">
-        <v>15.95</v>
+        <v>2.65</v>
       </c>
       <c r="D130" s="7">
-        <v>93.88800000000001</v>
+        <v>15.648</v>
       </c>
       <c r="E130" s="7">
         <v>6</v>
@@ -6324,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -6337,10 +6305,10 @@
         <v>268</v>
       </c>
       <c r="C131" s="7">
-        <v>5.62</v>
+        <v>22</v>
       </c>
       <c r="D131" s="7">
-        <v>18.015</v>
+        <v>138.225</v>
       </c>
       <c r="E131" s="7">
         <v>6</v>
@@ -6349,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -6362,10 +6330,10 @@
         <v>270</v>
       </c>
       <c r="C132" s="7">
-        <v>2.65</v>
+        <v>22.93</v>
       </c>
       <c r="D132" s="7">
-        <v>15.648</v>
+        <v>143.961</v>
       </c>
       <c r="E132" s="7">
         <v>6</v>
@@ -6374,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -6387,10 +6355,10 @@
         <v>272</v>
       </c>
       <c r="C133" s="7">
-        <v>22</v>
+        <v>6.75</v>
       </c>
       <c r="D133" s="7">
-        <v>138.225</v>
+        <v>38.128</v>
       </c>
       <c r="E133" s="7">
         <v>6</v>
@@ -6399,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="G133" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -6412,10 +6380,10 @@
         <v>274</v>
       </c>
       <c r="C134" s="7">
-        <v>22.93</v>
+        <v>10.37</v>
       </c>
       <c r="D134" s="7">
-        <v>143.961</v>
+        <v>59.462</v>
       </c>
       <c r="E134" s="7">
         <v>6</v>
@@ -6424,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -6437,10 +6405,10 @@
         <v>276</v>
       </c>
       <c r="C135" s="7">
-        <v>6.75</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D135" s="7">
-        <v>38.128</v>
+        <v>55.892</v>
       </c>
       <c r="E135" s="7">
         <v>6</v>
@@ -6462,10 +6430,10 @@
         <v>278</v>
       </c>
       <c r="C136" s="7">
-        <v>10.37</v>
+        <v>33.05</v>
       </c>
       <c r="D136" s="7">
-        <v>59.462</v>
+        <v>157.109</v>
       </c>
       <c r="E136" s="7">
         <v>6</v>
@@ -6474,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6487,19 +6455,19 @@
         <v>280</v>
       </c>
       <c r="C137" s="7">
-        <v>9.470000000000001</v>
+        <v>20.82</v>
       </c>
       <c r="D137" s="7">
-        <v>55.892</v>
+        <v>45.773</v>
       </c>
       <c r="E137" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F137" s="7">
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -6512,19 +6480,19 @@
         <v>282</v>
       </c>
       <c r="C138" s="7">
-        <v>33.05</v>
+        <v>3.79</v>
       </c>
       <c r="D138" s="7">
-        <v>157.109</v>
+        <v>19.428</v>
       </c>
       <c r="E138" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F138" s="7">
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -6537,19 +6505,19 @@
         <v>284</v>
       </c>
       <c r="C139" s="7">
-        <v>20.82</v>
+        <v>15.37</v>
       </c>
       <c r="D139" s="7">
-        <v>45.773</v>
+        <v>73.333</v>
       </c>
       <c r="E139" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F139" s="7">
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -6562,13 +6530,13 @@
         <v>286</v>
       </c>
       <c r="C140" s="7">
-        <v>3.79</v>
+        <v>0.34</v>
       </c>
       <c r="D140" s="7">
-        <v>19.428</v>
+        <v>0.3</v>
       </c>
       <c r="E140" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F140" s="7">
         <v>1</v>
@@ -6587,19 +6555,19 @@
         <v>288</v>
       </c>
       <c r="C141" s="7">
-        <v>15.37</v>
+        <v>11.98</v>
       </c>
       <c r="D141" s="7">
-        <v>73.333</v>
+        <v>38.291</v>
       </c>
       <c r="E141" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F141" s="7">
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -6612,19 +6580,19 @@
         <v>290</v>
       </c>
       <c r="C142" s="7">
-        <v>0.34</v>
+        <v>119.41</v>
       </c>
       <c r="D142" s="7">
-        <v>0.3</v>
+        <v>354.86</v>
       </c>
       <c r="E142" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F142" s="7">
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -6637,19 +6605,19 @@
         <v>292</v>
       </c>
       <c r="C143" s="7">
-        <v>11.98</v>
+        <v>24.68</v>
       </c>
       <c r="D143" s="7">
-        <v>38.291</v>
+        <v>64.59399999999999</v>
       </c>
       <c r="E143" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -6662,10 +6630,10 @@
         <v>294</v>
       </c>
       <c r="C144" s="7">
-        <v>119.41</v>
+        <v>3.58</v>
       </c>
       <c r="D144" s="7">
-        <v>354.86</v>
+        <v>6.6</v>
       </c>
       <c r="E144" s="7">
         <v>10</v>
@@ -6674,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="G144" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
@@ -6687,19 +6655,19 @@
         <v>296</v>
       </c>
       <c r="C145" s="7">
-        <v>24.68</v>
+        <v>11.77</v>
       </c>
       <c r="D145" s="7">
-        <v>64.59399999999999</v>
+        <v>42.588</v>
       </c>
       <c r="E145" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F145" s="7">
         <v>1</v>
       </c>
       <c r="G145" s="7">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -6712,19 +6680,19 @@
         <v>298</v>
       </c>
       <c r="C146" s="7">
-        <v>3.58</v>
+        <v>16.49</v>
       </c>
       <c r="D146" s="7">
-        <v>6.6</v>
+        <v>60.73</v>
       </c>
       <c r="E146" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
       </c>
       <c r="G146" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -6737,10 +6705,10 @@
         <v>300</v>
       </c>
       <c r="C147" s="7">
-        <v>11.77</v>
+        <v>5.41</v>
       </c>
       <c r="D147" s="7">
-        <v>42.588</v>
+        <v>19.648</v>
       </c>
       <c r="E147" s="7">
         <v>12</v>
@@ -6749,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -6762,19 +6730,19 @@
         <v>302</v>
       </c>
       <c r="C148" s="7">
-        <v>16.49</v>
+        <v>17.33</v>
       </c>
       <c r="D148" s="7">
-        <v>60.73</v>
+        <v>23.7</v>
       </c>
       <c r="E148" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
       </c>
       <c r="G148" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -6787,13 +6755,13 @@
         <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>5.41</v>
+        <v>28.98</v>
       </c>
       <c r="D149" s="7">
-        <v>19.648</v>
+        <v>102</v>
       </c>
       <c r="E149" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
@@ -6812,13 +6780,13 @@
         <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>17.33</v>
+        <v>24.87</v>
       </c>
       <c r="D150" s="7">
-        <v>23.7</v>
+        <v>10</v>
       </c>
       <c r="E150" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F150" s="7">
         <v>1</v>
@@ -6837,13 +6805,13 @@
         <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>28.98</v>
+        <v>3.7</v>
       </c>
       <c r="D151" s="7">
-        <v>102</v>
+        <v>19.078</v>
       </c>
       <c r="E151" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F151" s="7">
         <v>1</v>
@@ -6862,13 +6830,13 @@
         <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>24.87</v>
+        <v>2.45</v>
       </c>
       <c r="D152" s="7">
+        <v>12.8</v>
+      </c>
+      <c r="E152" s="7">
         <v>10</v>
-      </c>
-      <c r="E152" s="7">
-        <v>6</v>
       </c>
       <c r="F152" s="7">
         <v>1</v>
@@ -6887,10 +6855,10 @@
         <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>3.7</v>
+        <v>4.43</v>
       </c>
       <c r="D153" s="7">
-        <v>19.078</v>
+        <v>22.741</v>
       </c>
       <c r="E153" s="7">
         <v>10</v>
@@ -6912,10 +6880,10 @@
         <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="D154" s="7">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E154" s="7">
         <v>10</v>
@@ -6937,10 +6905,10 @@
         <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>4.43</v>
+        <v>15.11</v>
       </c>
       <c r="D155" s="7">
-        <v>22.741</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E155" s="7">
         <v>10</v>
@@ -6962,10 +6930,10 @@
         <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>2.59</v>
+        <v>7.58</v>
       </c>
       <c r="D156" s="7">
-        <v>13</v>
+        <v>38.801</v>
       </c>
       <c r="E156" s="7">
         <v>10</v>
@@ -6987,10 +6955,10 @@
         <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>15.11</v>
+        <v>3.9</v>
       </c>
       <c r="D157" s="7">
-        <v>71.11799999999999</v>
+        <v>18</v>
       </c>
       <c r="E157" s="7">
         <v>10</v>
@@ -7012,10 +6980,10 @@
         <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>7.58</v>
+        <v>1.66</v>
       </c>
       <c r="D158" s="7">
-        <v>38.801</v>
+        <v>8</v>
       </c>
       <c r="E158" s="7">
         <v>10</v>
@@ -7037,10 +7005,10 @@
         <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D159" s="7">
-        <v>18</v>
+        <v>16.059</v>
       </c>
       <c r="E159" s="7">
         <v>10</v>
@@ -7062,10 +7030,10 @@
         <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>1.66</v>
+        <v>7.59</v>
       </c>
       <c r="D160" s="7">
-        <v>8</v>
+        <v>34.112</v>
       </c>
       <c r="E160" s="7">
         <v>10</v>
@@ -7087,10 +7055,10 @@
         <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>3.4</v>
+        <v>8.98</v>
       </c>
       <c r="D161" s="7">
-        <v>16.059</v>
+        <v>19.4</v>
       </c>
       <c r="E161" s="7">
         <v>10</v>
@@ -7112,10 +7080,10 @@
         <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>7.59</v>
+        <v>2.48</v>
       </c>
       <c r="D162" s="7">
-        <v>34.112</v>
+        <v>8</v>
       </c>
       <c r="E162" s="7">
         <v>10</v>
@@ -7137,10 +7105,10 @@
         <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>8.98</v>
+        <v>5.04</v>
       </c>
       <c r="D163" s="7">
-        <v>19.4</v>
+        <v>25.437</v>
       </c>
       <c r="E163" s="7">
         <v>10</v>
@@ -7162,10 +7130,10 @@
         <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>2.48</v>
+        <v>4.29</v>
       </c>
       <c r="D164" s="7">
-        <v>8</v>
+        <v>22.7</v>
       </c>
       <c r="E164" s="7">
         <v>10</v>
@@ -7187,10 +7155,10 @@
         <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>5.04</v>
+        <v>1.61</v>
       </c>
       <c r="D165" s="7">
-        <v>25.437</v>
+        <v>8</v>
       </c>
       <c r="E165" s="7">
         <v>10</v>
@@ -7212,10 +7180,10 @@
         <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>4.29</v>
+        <v>2.82</v>
       </c>
       <c r="D166" s="7">
-        <v>22.7</v>
+        <v>12.718</v>
       </c>
       <c r="E166" s="7">
         <v>10</v>
@@ -7237,10 +7205,10 @@
         <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>1.61</v>
+        <v>2.51</v>
       </c>
       <c r="D167" s="7">
-        <v>8</v>
+        <v>12.718</v>
       </c>
       <c r="E167" s="7">
         <v>10</v>
@@ -7262,7 +7230,7 @@
         <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>2.82</v>
+        <v>3.56</v>
       </c>
       <c r="D168" s="7">
         <v>12.718</v>
@@ -7287,10 +7255,10 @@
         <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>2.51</v>
+        <v>2.8</v>
       </c>
       <c r="D169" s="7">
-        <v>12.718</v>
+        <v>14.231</v>
       </c>
       <c r="E169" s="7">
         <v>10</v>
@@ -7312,10 +7280,10 @@
         <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>3.56</v>
+        <v>6.26</v>
       </c>
       <c r="D170" s="7">
-        <v>12.718</v>
+        <v>33.032</v>
       </c>
       <c r="E170" s="7">
         <v>10</v>
@@ -7337,10 +7305,10 @@
         <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>2.8</v>
+        <v>7.37</v>
       </c>
       <c r="D171" s="7">
-        <v>14.231</v>
+        <v>37.601</v>
       </c>
       <c r="E171" s="7">
         <v>10</v>
@@ -7362,10 +7330,10 @@
         <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>6.26</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D172" s="7">
-        <v>33.032</v>
+        <v>47.263</v>
       </c>
       <c r="E172" s="7">
         <v>10</v>
@@ -7387,10 +7355,10 @@
         <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>7.37</v>
+        <v>6.12</v>
       </c>
       <c r="D173" s="7">
-        <v>37.601</v>
+        <v>31.159</v>
       </c>
       <c r="E173" s="7">
         <v>10</v>
@@ -7412,10 +7380,10 @@
         <v>354</v>
       </c>
       <c r="C174" s="7">
-        <v>9.619999999999999</v>
+        <v>2.89</v>
       </c>
       <c r="D174" s="7">
-        <v>47.263</v>
+        <v>14.231</v>
       </c>
       <c r="E174" s="7">
         <v>10</v>
@@ -7437,10 +7405,10 @@
         <v>356</v>
       </c>
       <c r="C175" s="7">
-        <v>6.12</v>
+        <v>9.69</v>
       </c>
       <c r="D175" s="7">
-        <v>31.159</v>
+        <v>50.484</v>
       </c>
       <c r="E175" s="7">
         <v>10</v>
@@ -7462,10 +7430,10 @@
         <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>2.89</v>
+        <v>9.69</v>
       </c>
       <c r="D176" s="7">
-        <v>14.231</v>
+        <v>50.484</v>
       </c>
       <c r="E176" s="7">
         <v>10</v>
@@ -7487,10 +7455,10 @@
         <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>9.69</v>
+        <v>13.27</v>
       </c>
       <c r="D177" s="7">
-        <v>50.484</v>
+        <v>63.368</v>
       </c>
       <c r="E177" s="7">
         <v>10</v>
@@ -7512,13 +7480,13 @@
         <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>9.69</v>
+        <v>0.47</v>
       </c>
       <c r="D178" s="7">
-        <v>50.484</v>
+        <v>1.5</v>
       </c>
       <c r="E178" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F178" s="7">
         <v>1</v>
@@ -7537,13 +7505,13 @@
         <v>364</v>
       </c>
       <c r="C179" s="7">
-        <v>13.27</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D179" s="7">
-        <v>63.368</v>
+        <v>1.2</v>
       </c>
       <c r="E179" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F179" s="7">
         <v>1</v>
@@ -7562,19 +7530,19 @@
         <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>0.47</v>
+        <v>15.61</v>
       </c>
       <c r="D180" s="7">
-        <v>1.5</v>
+        <v>58.927</v>
       </c>
       <c r="E180" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F180" s="7">
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -7587,19 +7555,19 @@
         <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>0.5600000000000001</v>
+        <v>5.82</v>
       </c>
       <c r="D181" s="7">
-        <v>1.2</v>
+        <v>22.042</v>
       </c>
       <c r="E181" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F181" s="7">
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
@@ -7612,19 +7580,19 @@
         <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>15.61</v>
+        <v>24.28</v>
       </c>
       <c r="D182" s="7">
-        <v>58.927</v>
+        <v>14.652</v>
       </c>
       <c r="E182" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
       </c>
       <c r="G182" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
@@ -7637,19 +7605,19 @@
         <v>372</v>
       </c>
       <c r="C183" s="7">
-        <v>5.82</v>
+        <v>7.76</v>
       </c>
       <c r="D183" s="7">
-        <v>22.042</v>
+        <v>2.2</v>
       </c>
       <c r="E183" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F183" s="7">
         <v>1</v>
       </c>
       <c r="G183" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
@@ -7662,13 +7630,13 @@
         <v>374</v>
       </c>
       <c r="C184" s="7">
-        <v>24.28</v>
+        <v>16.45</v>
       </c>
       <c r="D184" s="7">
-        <v>14.652</v>
+        <v>49.362</v>
       </c>
       <c r="E184" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F184" s="7">
         <v>1</v>
@@ -7687,13 +7655,13 @@
         <v>376</v>
       </c>
       <c r="C185" s="7">
-        <v>7.76</v>
+        <v>3.59</v>
       </c>
       <c r="D185" s="7">
-        <v>2.2</v>
+        <v>20</v>
       </c>
       <c r="E185" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F185" s="7">
         <v>1</v>
@@ -7712,19 +7680,19 @@
         <v>378</v>
       </c>
       <c r="C186" s="7">
-        <v>16.45</v>
+        <v>21.78</v>
       </c>
       <c r="D186" s="7">
-        <v>49.362</v>
+        <v>12.128</v>
       </c>
       <c r="E186" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F186" s="7">
         <v>1</v>
       </c>
       <c r="G186" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
@@ -7737,13 +7705,13 @@
         <v>380</v>
       </c>
       <c r="C187" s="7">
-        <v>3.59</v>
+        <v>23.37</v>
       </c>
       <c r="D187" s="7">
-        <v>20</v>
+        <v>24.4</v>
       </c>
       <c r="E187" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F187" s="7">
         <v>1</v>
@@ -7762,13 +7730,13 @@
         <v>382</v>
       </c>
       <c r="C188" s="7">
-        <v>21.78</v>
+        <v>4.12</v>
       </c>
       <c r="D188" s="7">
-        <v>12.128</v>
+        <v>45.8</v>
       </c>
       <c r="E188" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F188" s="7">
         <v>1</v>
@@ -7787,13 +7755,13 @@
         <v>384</v>
       </c>
       <c r="C189" s="7">
-        <v>23.37</v>
+        <v>5.03</v>
       </c>
       <c r="D189" s="7">
-        <v>24.4</v>
+        <v>40</v>
       </c>
       <c r="E189" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F189" s="7">
         <v>1</v>
@@ -7812,13 +7780,13 @@
         <v>386</v>
       </c>
       <c r="C190" s="7">
-        <v>4.12</v>
+        <v>1.49</v>
       </c>
       <c r="D190" s="7">
-        <v>45.8</v>
+        <v>7</v>
       </c>
       <c r="E190" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F190" s="7">
         <v>1</v>
@@ -7837,13 +7805,13 @@
         <v>388</v>
       </c>
       <c r="C191" s="7">
-        <v>5.03</v>
+        <v>0.31</v>
       </c>
       <c r="D191" s="7">
-        <v>40</v>
+        <v>1.2</v>
       </c>
       <c r="E191" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F191" s="7">
         <v>1</v>
@@ -7862,10 +7830,10 @@
         <v>390</v>
       </c>
       <c r="C192" s="7">
-        <v>1.49</v>
+        <v>7.19</v>
       </c>
       <c r="D192" s="7">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="E192" s="7">
         <v>6</v>
@@ -7887,19 +7855,19 @@
         <v>392</v>
       </c>
       <c r="C193" s="7">
-        <v>0.31</v>
+        <v>70.06</v>
       </c>
       <c r="D193" s="7">
-        <v>1.2</v>
+        <v>196.686</v>
       </c>
       <c r="E193" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F193" s="7">
         <v>1</v>
       </c>
       <c r="G193" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
@@ -7912,19 +7880,19 @@
         <v>394</v>
       </c>
       <c r="C194" s="7">
-        <v>7.19</v>
+        <v>111.05</v>
       </c>
       <c r="D194" s="7">
-        <v>9.5</v>
+        <v>318.558</v>
       </c>
       <c r="E194" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F194" s="7">
         <v>1</v>
       </c>
       <c r="G194" s="7">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
@@ -7937,10 +7905,10 @@
         <v>396</v>
       </c>
       <c r="C195" s="7">
-        <v>70.06</v>
+        <v>131.62</v>
       </c>
       <c r="D195" s="7">
-        <v>196.686</v>
+        <v>361.925</v>
       </c>
       <c r="E195" s="7">
         <v>12</v>
@@ -7949,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
@@ -7962,10 +7930,10 @@
         <v>398</v>
       </c>
       <c r="C196" s="7">
-        <v>111.05</v>
+        <v>54.05</v>
       </c>
       <c r="D196" s="7">
-        <v>318.558</v>
+        <v>170</v>
       </c>
       <c r="E196" s="7">
         <v>12</v>
@@ -7974,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="7">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
@@ -7987,10 +7955,10 @@
         <v>400</v>
       </c>
       <c r="C197" s="7">
-        <v>131.62</v>
+        <v>132.21</v>
       </c>
       <c r="D197" s="7">
-        <v>361.925</v>
+        <v>381</v>
       </c>
       <c r="E197" s="7">
         <v>12</v>
@@ -7999,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="7">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
@@ -8012,10 +7980,10 @@
         <v>402</v>
       </c>
       <c r="C198" s="7">
-        <v>54.05</v>
+        <v>104.5</v>
       </c>
       <c r="D198" s="7">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="E198" s="7">
         <v>12</v>
@@ -8037,13 +8005,13 @@
         <v>404</v>
       </c>
       <c r="C199" s="7">
-        <v>132.21</v>
+        <v>2.21</v>
       </c>
       <c r="D199" s="7">
-        <v>381</v>
+        <v>2</v>
       </c>
       <c r="E199" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F199" s="7">
         <v>1</v>
@@ -8062,13 +8030,13 @@
         <v>406</v>
       </c>
       <c r="C200" s="7">
-        <v>104.5</v>
+        <v>1.76</v>
       </c>
       <c r="D200" s="7">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="E200" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F200" s="7">
         <v>1</v>
@@ -8087,13 +8055,13 @@
         <v>408</v>
       </c>
       <c r="C201" s="7">
-        <v>2.21</v>
+        <v>1.26</v>
       </c>
       <c r="D201" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E201" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F201" s="7">
         <v>1</v>
@@ -8112,13 +8080,13 @@
         <v>410</v>
       </c>
       <c r="C202" s="7">
-        <v>1.76</v>
+        <v>0.58</v>
       </c>
       <c r="D202" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E202" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F202" s="7">
         <v>1</v>
@@ -8137,13 +8105,13 @@
         <v>412</v>
       </c>
       <c r="C203" s="7">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="D203" s="7">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="E203" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F203" s="7">
         <v>1</v>
@@ -8162,13 +8130,13 @@
         <v>414</v>
       </c>
       <c r="C204" s="7">
-        <v>0.58</v>
+        <v>68.98</v>
       </c>
       <c r="D204" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E204" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F204" s="7">
         <v>1</v>
@@ -8187,13 +8155,13 @@
         <v>416</v>
       </c>
       <c r="C205" s="7">
-        <v>1.22</v>
+        <v>2.26</v>
       </c>
       <c r="D205" s="7">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="E205" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F205" s="7">
         <v>1</v>
@@ -8212,19 +8180,19 @@
         <v>418</v>
       </c>
       <c r="C206" s="7">
-        <v>68.98</v>
+        <v>29.52</v>
       </c>
       <c r="D206" s="7">
-        <v>13</v>
+        <v>173.871</v>
       </c>
       <c r="E206" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F206" s="7">
         <v>1</v>
       </c>
       <c r="G206" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
@@ -8237,19 +8205,19 @@
         <v>420</v>
       </c>
       <c r="C207" s="7">
-        <v>2.26</v>
+        <v>22.61</v>
       </c>
       <c r="D207" s="7">
-        <v>0.4</v>
+        <v>20.64</v>
       </c>
       <c r="E207" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F207" s="7">
         <v>1</v>
       </c>
       <c r="G207" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
@@ -8262,10 +8230,10 @@
         <v>422</v>
       </c>
       <c r="C208" s="7">
-        <v>29.52</v>
+        <v>6.14</v>
       </c>
       <c r="D208" s="7">
-        <v>173.871</v>
+        <v>24.5</v>
       </c>
       <c r="E208" s="7">
         <v>8</v>
@@ -8274,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="G208" s="7">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
@@ -8287,19 +8255,19 @@
         <v>424</v>
       </c>
       <c r="C209" s="7">
-        <v>22.61</v>
+        <v>8.32</v>
       </c>
       <c r="D209" s="7">
-        <v>20.64</v>
+        <v>5</v>
       </c>
       <c r="E209" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F209" s="7">
         <v>1</v>
       </c>
       <c r="G209" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
@@ -8312,19 +8280,19 @@
         <v>426</v>
       </c>
       <c r="C210" s="7">
-        <v>6.14</v>
+        <v>3.77</v>
       </c>
       <c r="D210" s="7">
-        <v>24.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E210" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F210" s="7">
         <v>1</v>
       </c>
       <c r="G210" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
@@ -8337,19 +8305,19 @@
         <v>428</v>
       </c>
       <c r="C211" s="7">
-        <v>8.32</v>
+        <v>74.28</v>
       </c>
       <c r="D211" s="7">
-        <v>5</v>
+        <v>347.345</v>
       </c>
       <c r="E211" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F211" s="7">
         <v>1</v>
       </c>
       <c r="G211" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
@@ -8362,19 +8330,19 @@
         <v>430</v>
       </c>
       <c r="C212" s="7">
-        <v>3.77</v>
+        <v>226.02</v>
       </c>
       <c r="D212" s="7">
-        <v>8.800000000000001</v>
+        <v>87.117</v>
       </c>
       <c r="E212" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F212" s="7">
         <v>1</v>
       </c>
       <c r="G212" s="7">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
@@ -8387,19 +8355,19 @@
         <v>432</v>
       </c>
       <c r="C213" s="7">
-        <v>74.28</v>
+        <v>4.17</v>
       </c>
       <c r="D213" s="7">
-        <v>347.345</v>
+        <v>20.68</v>
       </c>
       <c r="E213" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F213" s="7">
         <v>1</v>
       </c>
       <c r="G213" s="7">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
@@ -8412,10 +8380,10 @@
         <v>434</v>
       </c>
       <c r="C214" s="7">
-        <v>226.02</v>
+        <v>52.8</v>
       </c>
       <c r="D214" s="7">
-        <v>87.117</v>
+        <v>34.621</v>
       </c>
       <c r="E214" s="7">
         <v>20</v>
@@ -8437,19 +8405,19 @@
         <v>436</v>
       </c>
       <c r="C215" s="7">
-        <v>4.17</v>
+        <v>0.96</v>
       </c>
       <c r="D215" s="7">
-        <v>20.68</v>
+        <v>3.1</v>
       </c>
       <c r="E215" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F215" s="7">
         <v>1</v>
       </c>
       <c r="G215" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
@@ -8462,19 +8430,19 @@
         <v>438</v>
       </c>
       <c r="C216" s="7">
-        <v>52.8</v>
+        <v>23.06</v>
       </c>
       <c r="D216" s="7">
-        <v>34.621</v>
+        <v>62.716</v>
       </c>
       <c r="E216" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F216" s="7">
         <v>1</v>
       </c>
       <c r="G216" s="7">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
@@ -8487,19 +8455,19 @@
         <v>440</v>
       </c>
       <c r="C217" s="7">
-        <v>0.96</v>
+        <v>21.01</v>
       </c>
       <c r="D217" s="7">
-        <v>3.1</v>
+        <v>59.231</v>
       </c>
       <c r="E217" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F217" s="7">
         <v>1</v>
       </c>
       <c r="G217" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
@@ -8512,10 +8480,10 @@
         <v>442</v>
       </c>
       <c r="C218" s="7">
-        <v>23.06</v>
+        <v>21.62</v>
       </c>
       <c r="D218" s="7">
-        <v>62.716</v>
+        <v>61.646</v>
       </c>
       <c r="E218" s="7">
         <v>12</v>
@@ -8537,10 +8505,10 @@
         <v>444</v>
       </c>
       <c r="C219" s="7">
-        <v>21.01</v>
+        <v>25.66</v>
       </c>
       <c r="D219" s="7">
-        <v>59.231</v>
+        <v>70</v>
       </c>
       <c r="E219" s="7">
         <v>12</v>
@@ -8562,10 +8530,10 @@
         <v>446</v>
       </c>
       <c r="C220" s="7">
-        <v>21.62</v>
+        <v>23.76</v>
       </c>
       <c r="D220" s="7">
-        <v>61.646</v>
+        <v>66.905</v>
       </c>
       <c r="E220" s="7">
         <v>12</v>
@@ -8587,10 +8555,10 @@
         <v>448</v>
       </c>
       <c r="C221" s="7">
-        <v>25.66</v>
+        <v>22.65</v>
       </c>
       <c r="D221" s="7">
-        <v>70</v>
+        <v>64.511</v>
       </c>
       <c r="E221" s="7">
         <v>12</v>
@@ -8612,10 +8580,10 @@
         <v>450</v>
       </c>
       <c r="C222" s="7">
-        <v>23.76</v>
+        <v>27.09</v>
       </c>
       <c r="D222" s="7">
-        <v>66.905</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="E222" s="7">
         <v>12</v>
@@ -8637,10 +8605,10 @@
         <v>452</v>
       </c>
       <c r="C223" s="7">
-        <v>22.65</v>
+        <v>37.52</v>
       </c>
       <c r="D223" s="7">
-        <v>64.511</v>
+        <v>95.16</v>
       </c>
       <c r="E223" s="7">
         <v>12</v>
@@ -8662,10 +8630,10 @@
         <v>454</v>
       </c>
       <c r="C224" s="7">
-        <v>27.09</v>
+        <v>36.86</v>
       </c>
       <c r="D224" s="7">
-        <v>76.20999999999999</v>
+        <v>95.16</v>
       </c>
       <c r="E224" s="7">
         <v>12</v>
@@ -8687,7 +8655,7 @@
         <v>456</v>
       </c>
       <c r="C225" s="7">
-        <v>37.52</v>
+        <v>36.87</v>
       </c>
       <c r="D225" s="7">
         <v>95.16</v>
@@ -8712,7 +8680,7 @@
         <v>458</v>
       </c>
       <c r="C226" s="7">
-        <v>36.86</v>
+        <v>37.41</v>
       </c>
       <c r="D226" s="7">
         <v>95.16</v>
@@ -8737,10 +8705,10 @@
         <v>460</v>
       </c>
       <c r="C227" s="7">
-        <v>36.87</v>
+        <v>13.76</v>
       </c>
       <c r="D227" s="7">
-        <v>95.16</v>
+        <v>79.3</v>
       </c>
       <c r="E227" s="7">
         <v>12</v>
@@ -8762,16 +8730,16 @@
         <v>462</v>
       </c>
       <c r="C228" s="7">
-        <v>37.41</v>
+        <v>5.91</v>
       </c>
       <c r="D228" s="7">
-        <v>95.16</v>
+        <v>31</v>
       </c>
       <c r="E228" s="7">
         <v>12</v>
       </c>
       <c r="F228" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G228" s="7">
         <v>1</v>
@@ -8787,16 +8755,16 @@
         <v>464</v>
       </c>
       <c r="C229" s="7">
-        <v>13.76</v>
+        <v>8.01</v>
       </c>
       <c r="D229" s="7">
-        <v>79.3</v>
+        <v>23.2</v>
       </c>
       <c r="E229" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F229" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G229" s="7">
         <v>1</v>
@@ -8812,16 +8780,16 @@
         <v>466</v>
       </c>
       <c r="C230" s="7">
-        <v>5.91</v>
+        <v>34.17</v>
       </c>
       <c r="D230" s="7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E230" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F230" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G230" s="7">
         <v>1</v>
@@ -8837,16 +8805,16 @@
         <v>468</v>
       </c>
       <c r="C231" s="7">
-        <v>8.01</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="D231" s="7">
-        <v>23.2</v>
+        <v>62</v>
       </c>
       <c r="E231" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F231" s="7">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="G231" s="7">
         <v>1</v>
@@ -8862,16 +8830,16 @@
         <v>470</v>
       </c>
       <c r="C232" s="7">
-        <v>34.17</v>
+        <v>0.98</v>
       </c>
       <c r="D232" s="7">
-        <v>98</v>
+        <v>4.3</v>
       </c>
       <c r="E232" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F232" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G232" s="7">
         <v>1</v>
@@ -8887,16 +8855,16 @@
         <v>472</v>
       </c>
       <c r="C233" s="7">
-        <v>64.06999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="D233" s="7">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E233" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F233" s="7">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="G233" s="7">
         <v>1</v>
@@ -8912,12 +8880,20 @@
         <v>474</v>
       </c>
       <c r="C234" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
+        <v>3.16</v>
+      </c>
+      <c r="D234" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="E234" s="7">
+        <v>8</v>
+      </c>
+      <c r="F234" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G234" s="7">
+        <v>1</v>
+      </c>
       <c r="H234" s="8"/>
       <c r="I234" s="8"/>
     </row>
@@ -8929,16 +8905,16 @@
         <v>476</v>
       </c>
       <c r="C235" s="7">
-        <v>1.15</v>
+        <v>4.39</v>
       </c>
       <c r="D235" s="7">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="E235" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F235" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G235" s="7">
         <v>1</v>
@@ -8954,12 +8930,20 @@
         <v>478</v>
       </c>
       <c r="C236" s="7">
-        <v>3.16</v>
-      </c>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
+        <v>30.63</v>
+      </c>
+      <c r="D236" s="7">
+        <v>32.6</v>
+      </c>
+      <c r="E236" s="7">
+        <v>16</v>
+      </c>
+      <c r="F236" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G236" s="7">
+        <v>1</v>
+      </c>
       <c r="H236" s="8"/>
       <c r="I236" s="8"/>
     </row>
@@ -8971,12 +8955,20 @@
         <v>480</v>
       </c>
       <c r="C237" s="7">
-        <v>4.39</v>
-      </c>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
+        <v>57.75</v>
+      </c>
+      <c r="D237" s="7">
+        <v>53.7</v>
+      </c>
+      <c r="E237" s="7">
+        <v>20</v>
+      </c>
+      <c r="F237" s="7">
+        <v>1</v>
+      </c>
+      <c r="G237" s="7">
+        <v>1</v>
+      </c>
       <c r="H237" s="8"/>
       <c r="I237" s="8"/>
     </row>
@@ -8988,12 +8980,20 @@
         <v>482</v>
       </c>
       <c r="C238" s="7">
-        <v>30.63</v>
-      </c>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
+        <v>4.07</v>
+      </c>
+      <c r="D238" s="7">
+        <v>4</v>
+      </c>
+      <c r="E238" s="7">
+        <v>16</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1</v>
+      </c>
+      <c r="G238" s="7">
+        <v>0.2</v>
+      </c>
       <c r="H238" s="8"/>
       <c r="I238" s="8"/>
     </row>
@@ -9005,12 +9005,20 @@
         <v>484</v>
       </c>
       <c r="C239" s="7">
-        <v>57.75</v>
-      </c>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
+        <v>7.72</v>
+      </c>
+      <c r="D239" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="E239" s="7">
+        <v>20</v>
+      </c>
+      <c r="F239" s="7">
+        <v>1</v>
+      </c>
+      <c r="G239" s="7">
+        <v>0.2</v>
+      </c>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
     </row>
@@ -9022,12 +9030,20 @@
         <v>486</v>
       </c>
       <c r="C240" s="7">
-        <v>4.07</v>
-      </c>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
+        <v>91.34</v>
+      </c>
+      <c r="D240" s="7">
+        <v>252</v>
+      </c>
+      <c r="E240" s="7">
+        <v>12</v>
+      </c>
+      <c r="F240" s="7">
+        <v>1</v>
+      </c>
+      <c r="G240" s="7">
+        <v>4</v>
+      </c>
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
     </row>
@@ -9039,12 +9055,20 @@
         <v>488</v>
       </c>
       <c r="C241" s="7">
-        <v>7.72</v>
-      </c>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
+        <v>111.63</v>
+      </c>
+      <c r="D241" s="7">
+        <v>336</v>
+      </c>
+      <c r="E241" s="7">
+        <v>12</v>
+      </c>
+      <c r="F241" s="7">
+        <v>1</v>
+      </c>
+      <c r="G241" s="7">
+        <v>4</v>
+      </c>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
     </row>
@@ -9056,10 +9080,10 @@
         <v>490</v>
       </c>
       <c r="C242" s="7">
-        <v>91.34</v>
+        <v>164.8</v>
       </c>
       <c r="D242" s="7">
-        <v>252</v>
+        <v>474</v>
       </c>
       <c r="E242" s="7">
         <v>12</v>
@@ -9068,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="G242" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
@@ -9081,10 +9105,10 @@
         <v>492</v>
       </c>
       <c r="C243" s="7">
-        <v>111.63</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="D243" s="7">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c r="E243" s="7">
         <v>12</v>
@@ -9093,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="G243" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
@@ -9106,10 +9130,10 @@
         <v>494</v>
       </c>
       <c r="C244" s="7">
-        <v>164.8</v>
+        <v>135.62</v>
       </c>
       <c r="D244" s="7">
-        <v>474</v>
+        <v>356</v>
       </c>
       <c r="E244" s="7">
         <v>12</v>
@@ -9118,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="G244" s="7">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
@@ -9131,10 +9155,10 @@
         <v>496</v>
       </c>
       <c r="C245" s="7">
-        <v>86.15000000000001</v>
+        <v>81.81</v>
       </c>
       <c r="D245" s="7">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="E245" s="7">
         <v>12</v>
@@ -9143,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
@@ -9156,10 +9180,10 @@
         <v>498</v>
       </c>
       <c r="C246" s="7">
-        <v>135.62</v>
+        <v>180</v>
       </c>
       <c r="D246" s="7">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="E246" s="7">
         <v>12</v>
@@ -9168,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="G246" s="7">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H246" s="8"/>
       <c r="I246" s="8"/>
@@ -9181,10 +9205,10 @@
         <v>500</v>
       </c>
       <c r="C247" s="7">
-        <v>81.81</v>
+        <v>139.47</v>
       </c>
       <c r="D247" s="7">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="E247" s="7">
         <v>12</v>
@@ -9193,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="8"/>
@@ -9206,10 +9230,10 @@
         <v>502</v>
       </c>
       <c r="C248" s="7">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="D248" s="7">
-        <v>244</v>
+        <v>445</v>
       </c>
       <c r="E248" s="7">
         <v>12</v>
@@ -9218,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
@@ -9231,19 +9255,19 @@
         <v>504</v>
       </c>
       <c r="C249" s="7">
-        <v>139.47</v>
+        <v>6.37</v>
       </c>
       <c r="D249" s="7">
-        <v>402</v>
+        <v>18.4</v>
       </c>
       <c r="E249" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F249" s="7">
         <v>1</v>
       </c>
       <c r="G249" s="7">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="H249" s="8"/>
       <c r="I249" s="8"/>
@@ -9256,19 +9280,19 @@
         <v>506</v>
       </c>
       <c r="C250" s="7">
-        <v>147</v>
+        <v>25.55</v>
       </c>
       <c r="D250" s="7">
-        <v>445</v>
+        <v>3</v>
       </c>
       <c r="E250" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F250" s="7">
         <v>1</v>
       </c>
       <c r="G250" s="7">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="H250" s="8"/>
       <c r="I250" s="8"/>
@@ -9281,12 +9305,20 @@
         <v>508</v>
       </c>
       <c r="C251" s="7">
-        <v>6.37</v>
-      </c>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
+        <v>17.61</v>
+      </c>
+      <c r="D251" s="7">
+        <v>54</v>
+      </c>
+      <c r="E251" s="7">
+        <v>10</v>
+      </c>
+      <c r="F251" s="7">
+        <v>1</v>
+      </c>
+      <c r="G251" s="7">
+        <v>1</v>
+      </c>
       <c r="H251" s="8"/>
       <c r="I251" s="8"/>
     </row>
@@ -9298,12 +9330,20 @@
         <v>510</v>
       </c>
       <c r="C252" s="7">
-        <v>3.96</v>
-      </c>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
+        <v>10.1</v>
+      </c>
+      <c r="D252" s="7">
+        <v>37</v>
+      </c>
+      <c r="E252" s="7">
+        <v>10</v>
+      </c>
+      <c r="F252" s="7">
+        <v>1</v>
+      </c>
+      <c r="G252" s="7">
+        <v>0.2</v>
+      </c>
       <c r="H252" s="8"/>
       <c r="I252" s="8"/>
     </row>
@@ -9315,13 +9355,13 @@
         <v>512</v>
       </c>
       <c r="C253" s="7">
-        <v>25.55</v>
+        <v>21.84</v>
       </c>
       <c r="D253" s="7">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="E253" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F253" s="7">
         <v>1</v>
@@ -9340,12 +9380,20 @@
         <v>514</v>
       </c>
       <c r="C254" s="7">
-        <v>17.61</v>
-      </c>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
+        <v>4.85</v>
+      </c>
+      <c r="D254" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="E254" s="7">
+        <v>12</v>
+      </c>
+      <c r="F254" s="7">
+        <v>1</v>
+      </c>
+      <c r="G254" s="7">
+        <v>0.1</v>
+      </c>
       <c r="H254" s="8"/>
       <c r="I254" s="8"/>
     </row>
@@ -9357,12 +9405,20 @@
         <v>516</v>
       </c>
       <c r="C255" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
+        <v>17.98</v>
+      </c>
+      <c r="D255" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="E255" s="7">
+        <v>22</v>
+      </c>
+      <c r="F255" s="7">
+        <v>1</v>
+      </c>
+      <c r="G255" s="7">
+        <v>0.1</v>
+      </c>
       <c r="H255" s="8"/>
       <c r="I255" s="8"/>
     </row>
@@ -9374,14 +9430,26 @@
         <v>518</v>
       </c>
       <c r="C256" s="7">
-        <v>0</v>
-      </c>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
-      <c r="H256" s="8"/>
-      <c r="I256" s="8"/>
+        <v>167.31</v>
+      </c>
+      <c r="D256" s="7">
+        <v>485</v>
+      </c>
+      <c r="E256" s="7">
+        <v>12</v>
+      </c>
+      <c r="F256" s="7">
+        <v>1</v>
+      </c>
+      <c r="G256" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="H256" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I256" s="7">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="257" ht="13.55" customHeight="1">
       <c r="A257" t="s" s="6">
@@ -9391,22 +9459,26 @@
         <v>520</v>
       </c>
       <c r="C257" s="7">
-        <v>21.84</v>
+        <v>43.47</v>
       </c>
       <c r="D257" s="7">
-        <v>5.2</v>
+        <v>118.61</v>
       </c>
       <c r="E257" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F257" s="7">
         <v>1</v>
       </c>
       <c r="G257" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H257" s="8"/>
-      <c r="I257" s="8"/>
+        <v>0.55</v>
+      </c>
+      <c r="H257" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I257" s="7">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="258" ht="13.55" customHeight="1">
       <c r="A258" t="s" s="6">
@@ -9416,10 +9488,10 @@
         <v>522</v>
       </c>
       <c r="C258" s="7">
-        <v>4.85</v>
+        <v>99.67</v>
       </c>
       <c r="D258" s="7">
-        <v>12.3</v>
+        <v>118.61</v>
       </c>
       <c r="E258" s="7">
         <v>12</v>
@@ -9428,10 +9500,14 @@
         <v>1</v>
       </c>
       <c r="G258" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8"/>
+        <v>0.55</v>
+      </c>
+      <c r="H258" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="I258" s="7">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="259" ht="13.55" customHeight="1">
       <c r="A259" t="s" s="6">
@@ -9441,22 +9517,26 @@
         <v>524</v>
       </c>
       <c r="C259" s="7">
-        <v>17.98</v>
+        <v>34.58</v>
       </c>
       <c r="D259" s="7">
-        <v>10.8</v>
+        <v>104.31</v>
       </c>
       <c r="E259" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F259" s="7">
         <v>1</v>
       </c>
       <c r="G259" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H259" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I259" s="7">
         <v>0.1</v>
       </c>
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
     </row>
     <row r="260" ht="13.55" customHeight="1">
       <c r="A260" t="s" s="6">
@@ -9466,10 +9546,10 @@
         <v>526</v>
       </c>
       <c r="C260" s="7">
-        <v>167.31</v>
+        <v>45.49</v>
       </c>
       <c r="D260" s="7">
-        <v>485</v>
+        <v>110</v>
       </c>
       <c r="E260" s="7">
         <v>12</v>
@@ -9478,13 +9558,13 @@
         <v>1</v>
       </c>
       <c r="G260" s="7">
-        <v>2.42</v>
+        <v>0.5</v>
       </c>
       <c r="H260" s="7">
-        <v>2.79</v>
+        <v>0.76</v>
       </c>
       <c r="I260" s="7">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="261" ht="13.55" customHeight="1">
@@ -9495,10 +9575,10 @@
         <v>528</v>
       </c>
       <c r="C261" s="7">
-        <v>43.47</v>
+        <v>194.66</v>
       </c>
       <c r="D261" s="7">
-        <v>118.61</v>
+        <v>561.2</v>
       </c>
       <c r="E261" s="7">
         <v>12</v>
@@ -9507,13 +9587,13 @@
         <v>1</v>
       </c>
       <c r="G261" s="7">
-        <v>0.55</v>
+        <v>3</v>
       </c>
       <c r="H261" s="7">
-        <v>0.73</v>
+        <v>3.25</v>
       </c>
       <c r="I261" s="7">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="262" ht="13.55" customHeight="1">
@@ -9524,10 +9604,10 @@
         <v>530</v>
       </c>
       <c r="C262" s="7">
-        <v>99.67</v>
+        <v>321.56</v>
       </c>
       <c r="D262" s="7">
-        <v>118.61</v>
+        <v>850.95</v>
       </c>
       <c r="E262" s="7">
         <v>12</v>
@@ -9536,10 +9616,10 @@
         <v>1</v>
       </c>
       <c r="G262" s="7">
-        <v>0.55</v>
+        <v>4.24</v>
       </c>
       <c r="H262" s="7">
-        <v>1.67</v>
+        <v>5.36</v>
       </c>
       <c r="I262" s="7">
         <v>1.12</v>
@@ -9553,25 +9633,25 @@
         <v>532</v>
       </c>
       <c r="C263" s="7">
-        <v>34.58</v>
+        <v>28.94</v>
       </c>
       <c r="D263" s="7">
-        <v>104.31</v>
+        <v>24.88</v>
       </c>
       <c r="E263" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F263" s="7">
         <v>1</v>
       </c>
       <c r="G263" s="7">
-        <v>0.48</v>
+        <v>0.14</v>
       </c>
       <c r="H263" s="7">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="I263" s="7">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="264" ht="13.55" customHeight="1">
@@ -9582,25 +9662,25 @@
         <v>534</v>
       </c>
       <c r="C264" s="7">
-        <v>45.49</v>
+        <v>43.34</v>
       </c>
       <c r="D264" s="7">
-        <v>110</v>
+        <v>24.18</v>
       </c>
       <c r="E264" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F264" s="7">
         <v>1</v>
       </c>
       <c r="G264" s="7">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="H264" s="7">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="I264" s="7">
-        <v>0.26</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="265" ht="13.55" customHeight="1">
@@ -9611,25 +9691,25 @@
         <v>536</v>
       </c>
       <c r="C265" s="7">
-        <v>194.66</v>
+        <v>19.21</v>
       </c>
       <c r="D265" s="7">
-        <v>561.2</v>
+        <v>5</v>
       </c>
       <c r="E265" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F265" s="7">
         <v>1</v>
       </c>
       <c r="G265" s="7">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H265" s="7">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="I265" s="7">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="266" ht="13.55" customHeight="1">
@@ -9640,25 +9720,25 @@
         <v>538</v>
       </c>
       <c r="C266" s="7">
-        <v>321.56</v>
+        <v>195.6</v>
       </c>
       <c r="D266" s="7">
-        <v>850.95</v>
+        <v>17</v>
       </c>
       <c r="E266" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F266" s="7">
         <v>1</v>
       </c>
       <c r="G266" s="7">
-        <v>4.24</v>
+        <v>0.11</v>
       </c>
       <c r="H266" s="7">
-        <v>5.36</v>
+        <v>3.27</v>
       </c>
       <c r="I266" s="7">
-        <v>1.12</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="267" ht="13.55" customHeight="1">
@@ -9669,25 +9749,25 @@
         <v>540</v>
       </c>
       <c r="C267" s="7">
-        <v>28.94</v>
+        <v>31.58</v>
       </c>
       <c r="D267" s="7">
-        <v>24.88</v>
+        <v>145.52</v>
       </c>
       <c r="E267" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F267" s="7">
         <v>1</v>
       </c>
       <c r="G267" s="7">
-        <v>0.14</v>
+        <v>6.83</v>
       </c>
       <c r="H267" s="7">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="I267" s="7">
-        <v>0.35</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="268" ht="13.55" customHeight="1">
@@ -9698,10 +9778,10 @@
         <v>542</v>
       </c>
       <c r="C268" s="7">
-        <v>43.34</v>
+        <v>34.53</v>
       </c>
       <c r="D268" s="7">
-        <v>24.18</v>
+        <v>12.17</v>
       </c>
       <c r="E268" s="7">
         <v>25</v>
@@ -9710,13 +9790,13 @@
         <v>1</v>
       </c>
       <c r="G268" s="7">
-        <v>0.15</v>
+        <v>0.86</v>
       </c>
       <c r="H268" s="7">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="I268" s="7">
-        <v>0.58</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="269" ht="13.55" customHeight="1">
@@ -9727,206 +9807,22 @@
         <v>544</v>
       </c>
       <c r="C269" s="7">
-        <v>19.21</v>
+        <v>9.35</v>
       </c>
       <c r="D269" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E269" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F269" s="7">
         <v>1</v>
       </c>
       <c r="G269" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H269" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="I269" s="7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="270" ht="13.55" customHeight="1">
-      <c r="A270" t="s" s="6">
-        <v>545</v>
-      </c>
-      <c r="B270" t="s" s="6">
-        <v>546</v>
-      </c>
-      <c r="C270" s="7">
-        <v>195.6</v>
-      </c>
-      <c r="D270" s="7">
-        <v>17</v>
-      </c>
-      <c r="E270" s="7">
-        <v>32</v>
-      </c>
-      <c r="F270" s="7">
-        <v>1</v>
-      </c>
-      <c r="G270" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H270" s="7">
-        <v>3.27</v>
-      </c>
-      <c r="I270" s="7">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="271" ht="13.55" customHeight="1">
-      <c r="A271" t="s" s="6">
-        <v>547</v>
-      </c>
-      <c r="B271" t="s" s="6">
-        <v>548</v>
-      </c>
-      <c r="C271" s="7">
-        <v>31.58</v>
-      </c>
-      <c r="D271" s="7">
-        <v>145.52</v>
-      </c>
-      <c r="E271" s="7">
-        <v>10</v>
-      </c>
-      <c r="F271" s="7">
-        <v>1</v>
-      </c>
-      <c r="G271" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H271" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I271" s="7">
-        <v>-6.3</v>
-      </c>
-    </row>
-    <row r="272" ht="13.55" customHeight="1">
-      <c r="A272" t="s" s="6">
-        <v>549</v>
-      </c>
-      <c r="B272" t="s" s="6">
-        <v>550</v>
-      </c>
-      <c r="C272" s="7">
-        <v>34.53</v>
-      </c>
-      <c r="D272" s="7">
-        <v>12.17</v>
-      </c>
-      <c r="E272" s="7">
-        <v>25</v>
-      </c>
-      <c r="F272" s="7">
-        <v>1</v>
-      </c>
-      <c r="G272" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="H272" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I272" s="7">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="273" ht="13.55" customHeight="1">
-      <c r="A273" t="s" s="6">
-        <v>551</v>
-      </c>
-      <c r="B273" t="s" s="6">
-        <v>552</v>
-      </c>
-      <c r="C273" s="7">
-        <v>1.17</v>
-      </c>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
-      <c r="H273" s="8"/>
-      <c r="I273" s="8"/>
-    </row>
-    <row r="274" ht="13.55" customHeight="1">
-      <c r="A274" t="s" s="6">
-        <v>553</v>
-      </c>
-      <c r="B274" t="s" s="6">
-        <v>554</v>
-      </c>
-      <c r="C274" s="7">
-        <v>9.35</v>
-      </c>
-      <c r="D274" s="7">
-        <v>30</v>
-      </c>
-      <c r="E274" s="7">
-        <v>12</v>
-      </c>
-      <c r="F274" s="7">
-        <v>1</v>
-      </c>
-      <c r="G274" s="7">
         <v>0.6</v>
       </c>
-      <c r="H274" s="8"/>
-      <c r="I274" s="8"/>
-    </row>
-    <row r="275" ht="13.55" customHeight="1">
-      <c r="A275" t="s" s="6">
-        <v>555</v>
-      </c>
-      <c r="B275" t="s" s="6">
-        <v>556</v>
-      </c>
-      <c r="C275" s="7">
-        <v>2.87</v>
-      </c>
-      <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
-      <c r="H275" s="8"/>
-      <c r="I275" s="8"/>
-    </row>
-    <row r="276" ht="13.55" customHeight="1">
-      <c r="A276" t="s" s="6">
-        <v>557</v>
-      </c>
-      <c r="B276" t="s" s="6">
-        <v>558</v>
-      </c>
-      <c r="C276" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
-      <c r="H276" s="8"/>
-      <c r="I276" s="8"/>
-    </row>
-    <row r="277" ht="13.55" customHeight="1">
-      <c r="A277" t="s" s="6">
-        <v>559</v>
-      </c>
-      <c r="B277" t="s" s="6">
-        <v>560</v>
-      </c>
-      <c r="C277" s="7">
-        <v>18.97</v>
-      </c>
-      <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
-      <c r="H277" s="8"/>
-      <c r="I277" s="8"/>
+      <c r="H269" s="8"/>
+      <c r="I269" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
   <si>
     <t>timestamp</t>
   </si>
@@ -58,6 +58,18 @@
     <t>03859.slp</t>
   </si>
   <si>
+    <t>2024-09-25 09:18:48</t>
+  </si>
+  <si>
+    <t>04256.slp</t>
+  </si>
+  <si>
+    <t>2024-09-25 10:32:04</t>
+  </si>
+  <si>
+    <t>04263.slp</t>
+  </si>
+  <si>
     <t>2024-06-07 11:20:02</t>
   </si>
   <si>
@@ -154,6 +166,18 @@
     <t>55391549 NESTING 3MM PV-55391549-Result4-1.lxds</t>
   </si>
   <si>
+    <t>2024-09-26 10:17:03</t>
+  </si>
+  <si>
+    <t>AxBx10x6000x40.slp</t>
+  </si>
+  <si>
+    <t>2024-09-26 09:53:38</t>
+  </si>
+  <si>
+    <t>AxBx10x6000x60.slp</t>
+  </si>
+  <si>
     <t>2024-06-17 12:17:46</t>
   </si>
   <si>
@@ -1546,6 +1570,12 @@
     <t>L_03909.NC</t>
   </si>
   <si>
+    <t>2024-09-23 10:05:40</t>
+  </si>
+  <si>
+    <t>L_04007.NC</t>
+  </si>
+  <si>
     <t>2024-09-10 14:41:01</t>
   </si>
   <si>
@@ -1562,6 +1592,12 @@
   </si>
   <si>
     <t>L_04021.NC</t>
+  </si>
+  <si>
+    <t>2024-09-25 14:49:38</t>
+  </si>
+  <si>
+    <t>L_04333.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -2889,15 +2925,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I275"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.9141" style="1" customWidth="1"/>
-    <col min="3" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.4531" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5547" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3005,26 +3043,22 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>146.86</v>
+        <v>16.33</v>
       </c>
       <c r="D5" s="7">
-        <v>420.79</v>
+        <v>33.48</v>
       </c>
       <c r="E5" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>1.98</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2.45</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.47</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="6">
@@ -3034,26 +3068,22 @@
         <v>18</v>
       </c>
       <c r="C6" s="7">
-        <v>235.62</v>
+        <v>122.32</v>
       </c>
       <c r="D6" s="7">
-        <v>866.7</v>
+        <v>210.4</v>
       </c>
       <c r="E6" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3.93</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.63</v>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="6">
@@ -3063,10 +3093,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>330.88</v>
+        <v>146.86</v>
       </c>
       <c r="D7" s="7">
-        <v>971.88</v>
+        <v>420.79</v>
       </c>
       <c r="E7" s="7">
         <v>12</v>
@@ -3075,13 +3105,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>3.57</v>
+        <v>1.98</v>
       </c>
       <c r="H7" s="7">
-        <v>5.52</v>
+        <v>2.45</v>
       </c>
       <c r="I7" s="7">
-        <v>1.95</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -3092,25 +3122,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>14.42</v>
+        <v>235.62</v>
       </c>
       <c r="D8" s="7">
-        <v>67</v>
+        <v>866.7</v>
       </c>
       <c r="E8" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>1.93</v>
+        <v>3.3</v>
       </c>
       <c r="H8" s="7">
-        <v>0.25</v>
+        <v>3.93</v>
       </c>
       <c r="I8" s="7">
-        <v>-1.68</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -3121,25 +3151,25 @@
         <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>3.32</v>
+        <v>330.88</v>
       </c>
       <c r="D9" s="7">
-        <v>6.7</v>
+        <v>971.88</v>
       </c>
       <c r="E9" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>0.02</v>
+        <v>3.57</v>
       </c>
       <c r="H9" s="7">
-        <v>0.06</v>
+        <v>5.52</v>
       </c>
       <c r="I9" s="7">
-        <v>0.04</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
@@ -3150,25 +3180,25 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0.92</v>
+        <v>14.42</v>
       </c>
       <c r="D10" s="7">
-        <v>3.03</v>
+        <v>67</v>
       </c>
       <c r="E10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>0.01</v>
+        <v>1.93</v>
       </c>
       <c r="H10" s="7">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="I10" s="7">
-        <v>0.01</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
@@ -3179,25 +3209,25 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>1.18</v>
+        <v>3.32</v>
       </c>
       <c r="D11" s="7">
-        <v>5.59</v>
+        <v>6.7</v>
       </c>
       <c r="E11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H11" s="7">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I11" s="7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
@@ -3208,25 +3238,25 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>158.01</v>
+        <v>0.92</v>
       </c>
       <c r="D12" s="7">
-        <v>456.43</v>
+        <v>3.03</v>
       </c>
       <c r="E12" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>2.67</v>
+        <v>0.01</v>
       </c>
       <c r="H12" s="7">
-        <v>2.64</v>
+        <v>0.02</v>
       </c>
       <c r="I12" s="7">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
@@ -3237,25 +3267,25 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>209.33</v>
+        <v>1.18</v>
       </c>
       <c r="D13" s="7">
-        <v>937</v>
+        <v>5.59</v>
       </c>
       <c r="E13" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="7">
-        <v>5.17</v>
+        <v>0.01</v>
       </c>
       <c r="H13" s="7">
-        <v>3.49</v>
+        <v>0.02</v>
       </c>
       <c r="I13" s="7">
-        <v>-1.68</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -3266,10 +3296,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>161.87</v>
+        <v>158.01</v>
       </c>
       <c r="D14" s="7">
-        <v>451</v>
+        <v>456.43</v>
       </c>
       <c r="E14" s="7">
         <v>12</v>
@@ -3278,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>2.48</v>
+        <v>2.67</v>
       </c>
       <c r="H14" s="7">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I14" s="7">
-        <v>-0.22</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
@@ -3295,25 +3325,25 @@
         <v>36</v>
       </c>
       <c r="C15" s="7">
-        <v>206.06</v>
+        <v>209.33</v>
       </c>
       <c r="D15" s="7">
-        <v>193.49</v>
+        <v>937</v>
       </c>
       <c r="E15" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>5.8</v>
+        <v>5.17</v>
       </c>
       <c r="H15" s="7">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="I15" s="7">
-        <v>-2.36</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
@@ -3324,25 +3354,25 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>273.9</v>
+        <v>161.87</v>
       </c>
       <c r="D16" s="7">
-        <v>219.37</v>
+        <v>451</v>
       </c>
       <c r="E16" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>6.6</v>
+        <v>2.48</v>
       </c>
       <c r="H16" s="7">
-        <v>4.57</v>
+        <v>2.7</v>
       </c>
       <c r="I16" s="7">
-        <v>-2.03</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -3353,25 +3383,25 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>17.87</v>
+        <v>206.06</v>
       </c>
       <c r="D17" s="7">
-        <v>78.2</v>
+        <v>193.49</v>
       </c>
       <c r="E17" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H17" s="7">
-        <v>0.3</v>
+        <v>3.44</v>
       </c>
       <c r="I17" s="7">
-        <v>-2</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -3382,25 +3412,25 @@
         <v>42</v>
       </c>
       <c r="C18" s="7">
-        <v>4.87</v>
+        <v>273.9</v>
       </c>
       <c r="D18" s="7">
-        <v>30</v>
+        <v>219.37</v>
       </c>
       <c r="E18" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>0.87</v>
+        <v>6.6</v>
       </c>
       <c r="H18" s="7">
-        <v>0.09</v>
+        <v>4.57</v>
       </c>
       <c r="I18" s="7">
-        <v>-0.78</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -3411,10 +3441,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="7">
-        <v>5.55</v>
+        <v>17.87</v>
       </c>
       <c r="D19" s="7">
-        <v>34.25</v>
+        <v>78.2</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -3423,13 +3453,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H19" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I19" s="7">
-        <v>-0.9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
@@ -3440,10 +3470,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>5.66</v>
+        <v>4.87</v>
       </c>
       <c r="D20" s="7">
-        <v>27.37</v>
+        <v>30</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
@@ -3452,13 +3482,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="H20" s="7">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I20" s="7">
-        <v>-0.7</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
@@ -3469,10 +3499,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="7">
-        <v>6.17</v>
+        <v>5.55</v>
       </c>
       <c r="D21" s="7">
-        <v>23.8</v>
+        <v>34.25</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -3481,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="7">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I21" s="7">
-        <v>-0.02</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
@@ -3498,10 +3528,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>6.65</v>
+        <v>5.66</v>
       </c>
       <c r="D22" s="7">
-        <v>24.8</v>
+        <v>27.37</v>
       </c>
       <c r="E22" s="7">
         <v>3</v>
@@ -3510,13 +3540,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>0.14</v>
+        <v>0.8</v>
       </c>
       <c r="H22" s="7">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I22" s="7">
-        <v>-0.02</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
@@ -3527,26 +3557,22 @@
         <v>52</v>
       </c>
       <c r="C23" s="7">
-        <v>7.18</v>
+        <v>23.69</v>
       </c>
       <c r="D23" s="7">
-        <v>26.7</v>
+        <v>24</v>
       </c>
       <c r="E23" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="I23" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="6">
@@ -3556,26 +3582,22 @@
         <v>54</v>
       </c>
       <c r="C24" s="7">
-        <v>21.94</v>
+        <v>10.3</v>
       </c>
       <c r="D24" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.32</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="6">
@@ -3585,25 +3607,25 @@
         <v>56</v>
       </c>
       <c r="C25" s="7">
-        <v>30.37</v>
+        <v>6.17</v>
       </c>
       <c r="D25" s="7">
-        <v>116.8</v>
+        <v>23.8</v>
       </c>
       <c r="E25" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>1.5</v>
+        <v>0.13</v>
       </c>
       <c r="H25" s="7">
-        <v>0.51</v>
+        <v>0.11</v>
       </c>
       <c r="I25" s="7">
-        <v>0.99</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
@@ -3614,25 +3636,25 @@
         <v>58</v>
       </c>
       <c r="C26" s="7">
-        <v>19.9</v>
+        <v>6.65</v>
       </c>
       <c r="D26" s="7">
-        <v>69.682</v>
+        <v>24.8</v>
       </c>
       <c r="E26" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="H26" s="7">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="I26" s="7">
-        <v>0.67</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
@@ -3643,25 +3665,25 @@
         <v>60</v>
       </c>
       <c r="C27" s="7">
-        <v>15.77</v>
+        <v>7.18</v>
       </c>
       <c r="D27" s="7">
-        <v>27.16</v>
+        <v>26.7</v>
       </c>
       <c r="E27" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="H27" s="7">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="I27" s="7">
-        <v>0.24</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -3672,25 +3694,25 @@
         <v>62</v>
       </c>
       <c r="C28" s="7">
-        <v>11.26</v>
+        <v>21.94</v>
       </c>
       <c r="D28" s="7">
-        <v>50.5</v>
+        <v>9</v>
       </c>
       <c r="E28" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="H28" s="7">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="I28" s="7">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3701,25 +3723,25 @@
         <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>3.76</v>
+        <v>30.37</v>
       </c>
       <c r="D29" s="7">
-        <v>19.7</v>
+        <v>116.8</v>
       </c>
       <c r="E29" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>0.13</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="I29" s="7">
-        <v>0.06</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -3730,25 +3752,25 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>25.79</v>
+        <v>19.9</v>
       </c>
       <c r="D30" s="7">
-        <v>18.9</v>
+        <v>69.682</v>
       </c>
       <c r="E30" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="I30" s="7">
-        <v>-0.2</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
@@ -3759,10 +3781,10 @@
         <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>3.77</v>
+        <v>15.77</v>
       </c>
       <c r="D31" s="7">
-        <v>12.5</v>
+        <v>27.16</v>
       </c>
       <c r="E31" s="7">
         <v>10</v>
@@ -3771,13 +3793,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="I31" s="7">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
@@ -3788,25 +3810,25 @@
         <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>2.98</v>
+        <v>11.26</v>
       </c>
       <c r="D32" s="7">
-        <v>13.7</v>
+        <v>50.5</v>
       </c>
       <c r="E32" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>0.11</v>
+        <v>0.46</v>
       </c>
       <c r="H32" s="7">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="I32" s="7">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
@@ -3817,24 +3839,26 @@
         <v>72</v>
       </c>
       <c r="C33" s="7">
-        <v>0.5600000000000001</v>
+        <v>3.76</v>
       </c>
       <c r="D33" s="7">
-        <v>2</v>
+        <v>19.7</v>
       </c>
       <c r="E33" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H33" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I33" s="8"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="6">
@@ -3844,25 +3868,25 @@
         <v>74</v>
       </c>
       <c r="C34" s="7">
-        <v>3.48</v>
+        <v>25.79</v>
       </c>
       <c r="D34" s="7">
-        <v>1.2</v>
+        <v>18.9</v>
       </c>
       <c r="E34" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="7">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="H34" s="7">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="I34" s="7">
-        <v>-0.05</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
@@ -3873,25 +3897,25 @@
         <v>76</v>
       </c>
       <c r="C35" s="7">
-        <v>4.16</v>
+        <v>3.77</v>
       </c>
       <c r="D35" s="7">
-        <v>0.33</v>
+        <v>12.5</v>
       </c>
       <c r="E35" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
       <c r="G35" s="7">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="H35" s="7">
         <v>0.07000000000000001</v>
       </c>
       <c r="I35" s="7">
-        <v>-0.06</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
@@ -3902,25 +3926,25 @@
         <v>78</v>
       </c>
       <c r="C36" s="7">
-        <v>0.39</v>
+        <v>2.98</v>
       </c>
       <c r="D36" s="7">
-        <v>3</v>
+        <v>13.7</v>
       </c>
       <c r="E36" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H36" s="7">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
@@ -3931,13 +3955,13 @@
         <v>80</v>
       </c>
       <c r="C37" s="7">
-        <v>1.23</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D37" s="7">
-        <v>2.428</v>
+        <v>2</v>
       </c>
       <c r="E37" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
@@ -3946,11 +3970,9 @@
         <v>0.01</v>
       </c>
       <c r="H37" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I37" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="6">
@@ -3960,24 +3982,26 @@
         <v>82</v>
       </c>
       <c r="C38" s="7">
-        <v>3.13</v>
+        <v>3.48</v>
       </c>
       <c r="D38" s="7">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="E38" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
       </c>
       <c r="G38" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H38" s="7">
         <v>0.06</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="7">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="6">
@@ -3987,13 +4011,13 @@
         <v>84</v>
       </c>
       <c r="C39" s="7">
-        <v>0.35</v>
+        <v>4.16</v>
       </c>
       <c r="D39" s="7">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="E39" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
@@ -4002,9 +4026,11 @@
         <v>0.01</v>
       </c>
       <c r="H39" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I39" s="8"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I39" s="7">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="6">
@@ -4014,25 +4040,25 @@
         <v>86</v>
       </c>
       <c r="C40" s="7">
-        <v>5.83</v>
+        <v>0.39</v>
       </c>
       <c r="D40" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H40" s="7">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I40" s="7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
@@ -4043,25 +4069,25 @@
         <v>88</v>
       </c>
       <c r="C41" s="7">
-        <v>7.43</v>
+        <v>1.23</v>
       </c>
       <c r="D41" s="7">
-        <v>12.8</v>
+        <v>2.428</v>
       </c>
       <c r="E41" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="H41" s="7">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="I41" s="7">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
@@ -4072,26 +4098,24 @@
         <v>90</v>
       </c>
       <c r="C42" s="7">
-        <v>10.63</v>
+        <v>3.13</v>
       </c>
       <c r="D42" s="7">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="E42" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H42" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="I42" s="7">
-        <v>-0.05</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="6">
@@ -4101,13 +4125,13 @@
         <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>8.880000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="D43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
@@ -4116,11 +4140,9 @@
         <v>0.01</v>
       </c>
       <c r="H43" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I43" s="7">
-        <v>-0.14</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="6">
@@ -4130,22 +4152,26 @@
         <v>94</v>
       </c>
       <c r="C44" s="7">
-        <v>2.71</v>
+        <v>5.83</v>
       </c>
       <c r="D44" s="7">
-        <v>13.7</v>
+        <v>4</v>
       </c>
       <c r="E44" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+        <v>0.11</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="6">
@@ -4155,22 +4181,26 @@
         <v>96</v>
       </c>
       <c r="C45" s="7">
-        <v>144.21</v>
+        <v>7.43</v>
       </c>
       <c r="D45" s="7">
-        <v>90.3</v>
+        <v>12.8</v>
       </c>
       <c r="E45" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>3</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="I45" s="7">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="6">
@@ -4180,22 +4210,26 @@
         <v>98</v>
       </c>
       <c r="C46" s="7">
-        <v>12.15</v>
+        <v>10.63</v>
       </c>
       <c r="D46" s="7">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="E46" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F46" s="7">
         <v>1</v>
       </c>
       <c r="G46" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+        <v>0.13</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="I46" s="7">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" t="s" s="6">
@@ -4205,22 +4239,26 @@
         <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>4.45</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D47" s="7">
-        <v>17.8</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I47" s="7">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -4230,10 +4268,10 @@
         <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>3.12</v>
+        <v>2.71</v>
       </c>
       <c r="D48" s="7">
-        <v>11.7</v>
+        <v>13.7</v>
       </c>
       <c r="E48" s="7">
         <v>10</v>
@@ -4242,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="7">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4255,19 +4293,19 @@
         <v>104</v>
       </c>
       <c r="C49" s="7">
-        <v>4.28</v>
+        <v>144.21</v>
       </c>
       <c r="D49" s="7">
-        <v>13.5</v>
+        <v>90.3</v>
       </c>
       <c r="E49" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F49" s="7">
         <v>1</v>
       </c>
       <c r="G49" s="7">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -4280,19 +4318,19 @@
         <v>106</v>
       </c>
       <c r="C50" s="7">
-        <v>3.26</v>
+        <v>12.15</v>
       </c>
       <c r="D50" s="7">
-        <v>10.4</v>
+        <v>77</v>
       </c>
       <c r="E50" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F50" s="7">
         <v>1</v>
       </c>
       <c r="G50" s="7">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -4305,19 +4343,19 @@
         <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>15.61</v>
+        <v>4.45</v>
       </c>
       <c r="D51" s="7">
-        <v>14.3</v>
+        <v>17.8</v>
       </c>
       <c r="E51" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
       </c>
       <c r="G51" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -4330,19 +4368,19 @@
         <v>110</v>
       </c>
       <c r="C52" s="7">
-        <v>9.58</v>
+        <v>3.12</v>
       </c>
       <c r="D52" s="7">
-        <v>40.2</v>
+        <v>11.7</v>
       </c>
       <c r="E52" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -4355,19 +4393,19 @@
         <v>112</v>
       </c>
       <c r="C53" s="7">
-        <v>12.55</v>
+        <v>4.28</v>
       </c>
       <c r="D53" s="7">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="E53" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F53" s="7">
         <v>1</v>
       </c>
       <c r="G53" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
@@ -4380,19 +4418,19 @@
         <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>19.1</v>
+        <v>3.26</v>
       </c>
       <c r="D54" s="7">
-        <v>90.90000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="E54" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
       </c>
       <c r="G54" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
@@ -4405,19 +4443,19 @@
         <v>116</v>
       </c>
       <c r="C55" s="7">
-        <v>24.33</v>
+        <v>15.61</v>
       </c>
       <c r="D55" s="7">
-        <v>211.504</v>
+        <v>14.3</v>
       </c>
       <c r="E55" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -4430,19 +4468,19 @@
         <v>118</v>
       </c>
       <c r="C56" s="7">
-        <v>25.6</v>
+        <v>9.58</v>
       </c>
       <c r="D56" s="7">
-        <v>24.5</v>
+        <v>40.2</v>
       </c>
       <c r="E56" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -4455,19 +4493,19 @@
         <v>120</v>
       </c>
       <c r="C57" s="7">
-        <v>156.12</v>
+        <v>12.55</v>
       </c>
       <c r="D57" s="7">
-        <v>242.709</v>
+        <v>55</v>
       </c>
       <c r="E57" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F57" s="7">
         <v>1</v>
       </c>
       <c r="G57" s="7">
-        <v>6.5</v>
+        <v>0.2</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -4480,19 +4518,19 @@
         <v>122</v>
       </c>
       <c r="C58" s="7">
-        <v>30.88</v>
+        <v>19.1</v>
       </c>
       <c r="D58" s="7">
-        <v>110.075</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E58" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -4505,19 +4543,19 @@
         <v>124</v>
       </c>
       <c r="C59" s="7">
-        <v>10</v>
+        <v>24.33</v>
       </c>
       <c r="D59" s="7">
-        <v>14.012</v>
+        <v>211.504</v>
       </c>
       <c r="E59" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -4530,19 +4568,19 @@
         <v>126</v>
       </c>
       <c r="C60" s="7">
-        <v>88.03</v>
+        <v>25.6</v>
       </c>
       <c r="D60" s="7">
-        <v>30.4</v>
+        <v>24.5</v>
       </c>
       <c r="E60" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F60" s="7">
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -4555,19 +4593,19 @@
         <v>128</v>
       </c>
       <c r="C61" s="7">
-        <v>25.66</v>
+        <v>156.12</v>
       </c>
       <c r="D61" s="7">
-        <v>135.2</v>
+        <v>242.709</v>
       </c>
       <c r="E61" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F61" s="7">
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>0.2</v>
+        <v>6.5</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -4580,19 +4618,19 @@
         <v>130</v>
       </c>
       <c r="C62" s="7">
-        <v>20.96</v>
+        <v>30.88</v>
       </c>
       <c r="D62" s="7">
-        <v>118.6</v>
+        <v>110.075</v>
       </c>
       <c r="E62" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F62" s="7">
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -4605,19 +4643,19 @@
         <v>132</v>
       </c>
       <c r="C63" s="7">
-        <v>24.99</v>
+        <v>10</v>
       </c>
       <c r="D63" s="7">
-        <v>135.112</v>
+        <v>14.012</v>
       </c>
       <c r="E63" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F63" s="7">
         <v>1</v>
       </c>
       <c r="G63" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -4630,10 +4668,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="7">
-        <v>25.58</v>
+        <v>88.03</v>
       </c>
       <c r="D64" s="7">
-        <v>135.1</v>
+        <v>30.4</v>
       </c>
       <c r="E64" s="7">
         <v>10</v>
@@ -4642,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -4655,10 +4693,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="7">
-        <v>60.31</v>
+        <v>25.66</v>
       </c>
       <c r="D65" s="7">
-        <v>313.297</v>
+        <v>135.2</v>
       </c>
       <c r="E65" s="7">
         <v>10</v>
@@ -4667,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -4680,10 +4718,10 @@
         <v>138</v>
       </c>
       <c r="C66" s="7">
-        <v>25.52</v>
+        <v>20.96</v>
       </c>
       <c r="D66" s="7">
-        <v>137</v>
+        <v>118.6</v>
       </c>
       <c r="E66" s="7">
         <v>10</v>
@@ -4692,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -4705,10 +4743,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>82.26000000000001</v>
+        <v>24.99</v>
       </c>
       <c r="D67" s="7">
-        <v>474.621</v>
+        <v>135.112</v>
       </c>
       <c r="E67" s="7">
         <v>10</v>
@@ -4717,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="7">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -4730,10 +4768,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>14.13</v>
+        <v>25.58</v>
       </c>
       <c r="D68" s="7">
-        <v>34</v>
+        <v>135.1</v>
       </c>
       <c r="E68" s="7">
         <v>10</v>
@@ -4755,10 +4793,10 @@
         <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>9.57</v>
+        <v>60.31</v>
       </c>
       <c r="D69" s="7">
-        <v>25</v>
+        <v>313.297</v>
       </c>
       <c r="E69" s="7">
         <v>10</v>
@@ -4767,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -4780,10 +4818,10 @@
         <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>60.44</v>
+        <v>25.52</v>
       </c>
       <c r="D70" s="7">
-        <v>81.459</v>
+        <v>137</v>
       </c>
       <c r="E70" s="7">
         <v>10</v>
@@ -4792,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -4805,10 +4843,10 @@
         <v>148</v>
       </c>
       <c r="C71" s="7">
-        <v>49.26</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D71" s="7">
-        <v>183.288</v>
+        <v>474.621</v>
       </c>
       <c r="E71" s="7">
         <v>10</v>
@@ -4817,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="7">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -4830,19 +4868,19 @@
         <v>150</v>
       </c>
       <c r="C72" s="7">
-        <v>0.29</v>
+        <v>14.13</v>
       </c>
       <c r="D72" s="7">
-        <v>1.5</v>
+        <v>34</v>
       </c>
       <c r="E72" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F72" s="7">
         <v>1</v>
       </c>
       <c r="G72" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
@@ -4855,19 +4893,19 @@
         <v>152</v>
       </c>
       <c r="C73" s="7">
-        <v>37.15</v>
+        <v>9.57</v>
       </c>
       <c r="D73" s="7">
-        <v>7.5</v>
+        <v>25</v>
       </c>
       <c r="E73" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F73" s="7">
         <v>1</v>
       </c>
       <c r="G73" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
@@ -4880,19 +4918,19 @@
         <v>154</v>
       </c>
       <c r="C74" s="7">
-        <v>12.76</v>
+        <v>60.44</v>
       </c>
       <c r="D74" s="7">
-        <v>24.919</v>
+        <v>81.459</v>
       </c>
       <c r="E74" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F74" s="7">
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4905,19 +4943,19 @@
         <v>156</v>
       </c>
       <c r="C75" s="7">
-        <v>20.38</v>
+        <v>49.26</v>
       </c>
       <c r="D75" s="7">
-        <v>74.434</v>
+        <v>183.288</v>
       </c>
       <c r="E75" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -4930,19 +4968,19 @@
         <v>158</v>
       </c>
       <c r="C76" s="7">
-        <v>10.35</v>
+        <v>0.29</v>
       </c>
       <c r="D76" s="7">
-        <v>35.091</v>
+        <v>1.5</v>
       </c>
       <c r="E76" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F76" s="7">
         <v>1</v>
       </c>
       <c r="G76" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -4955,19 +4993,19 @@
         <v>160</v>
       </c>
       <c r="C77" s="7">
-        <v>17.77</v>
+        <v>37.15</v>
       </c>
       <c r="D77" s="7">
-        <v>65.682</v>
+        <v>7.5</v>
       </c>
       <c r="E77" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F77" s="7">
         <v>1</v>
       </c>
       <c r="G77" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -4980,10 +5018,10 @@
         <v>162</v>
       </c>
       <c r="C78" s="7">
-        <v>18.06</v>
+        <v>12.76</v>
       </c>
       <c r="D78" s="7">
-        <v>56.867</v>
+        <v>24.919</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -4992,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -5005,10 +5043,10 @@
         <v>164</v>
       </c>
       <c r="C79" s="7">
-        <v>10.45</v>
+        <v>20.38</v>
       </c>
       <c r="D79" s="7">
-        <v>35.097</v>
+        <v>74.434</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -5030,10 +5068,10 @@
         <v>166</v>
       </c>
       <c r="C80" s="7">
-        <v>20.83</v>
+        <v>10.35</v>
       </c>
       <c r="D80" s="7">
-        <v>68.786</v>
+        <v>35.091</v>
       </c>
       <c r="E80" s="7">
         <v>12</v>
@@ -5042,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -5055,10 +5093,10 @@
         <v>168</v>
       </c>
       <c r="C81" s="7">
-        <v>9.119999999999999</v>
+        <v>17.77</v>
       </c>
       <c r="D81" s="7">
-        <v>33</v>
+        <v>65.682</v>
       </c>
       <c r="E81" s="7">
         <v>12</v>
@@ -5080,10 +5118,10 @@
         <v>170</v>
       </c>
       <c r="C82" s="7">
-        <v>9.24</v>
+        <v>18.06</v>
       </c>
       <c r="D82" s="7">
-        <v>33.19</v>
+        <v>56.867</v>
       </c>
       <c r="E82" s="7">
         <v>12</v>
@@ -5092,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -5105,10 +5143,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="7">
-        <v>9.18</v>
+        <v>10.45</v>
       </c>
       <c r="D83" s="7">
-        <v>33.19</v>
+        <v>35.097</v>
       </c>
       <c r="E83" s="7">
         <v>12</v>
@@ -5130,10 +5168,10 @@
         <v>174</v>
       </c>
       <c r="C84" s="7">
-        <v>17.9</v>
+        <v>20.83</v>
       </c>
       <c r="D84" s="7">
-        <v>60.542</v>
+        <v>68.786</v>
       </c>
       <c r="E84" s="7">
         <v>12</v>
@@ -5142,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -5155,10 +5193,10 @@
         <v>176</v>
       </c>
       <c r="C85" s="7">
-        <v>39.59</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D85" s="7">
-        <v>135.375</v>
+        <v>33</v>
       </c>
       <c r="E85" s="7">
         <v>12</v>
@@ -5167,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -5180,10 +5218,10 @@
         <v>178</v>
       </c>
       <c r="C86" s="7">
-        <v>21.3</v>
+        <v>9.24</v>
       </c>
       <c r="D86" s="7">
-        <v>73.223</v>
+        <v>33.19</v>
       </c>
       <c r="E86" s="7">
         <v>12</v>
@@ -5192,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
@@ -5205,10 +5243,10 @@
         <v>180</v>
       </c>
       <c r="C87" s="7">
-        <v>8.65</v>
+        <v>9.18</v>
       </c>
       <c r="D87" s="7">
-        <v>28.483</v>
+        <v>33.19</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -5230,10 +5268,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="7">
-        <v>10.25</v>
+        <v>17.9</v>
       </c>
       <c r="D88" s="7">
-        <v>36.532</v>
+        <v>60.542</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -5242,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
@@ -5255,10 +5293,10 @@
         <v>184</v>
       </c>
       <c r="C89" s="7">
-        <v>12.29</v>
+        <v>39.59</v>
       </c>
       <c r="D89" s="7">
-        <v>38.502</v>
+        <v>135.375</v>
       </c>
       <c r="E89" s="7">
         <v>12</v>
@@ -5280,10 +5318,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="7">
-        <v>13.27</v>
+        <v>21.3</v>
       </c>
       <c r="D90" s="7">
-        <v>46</v>
+        <v>73.223</v>
       </c>
       <c r="E90" s="7">
         <v>12</v>
@@ -5292,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -5305,10 +5343,10 @@
         <v>188</v>
       </c>
       <c r="C91" s="7">
-        <v>3.32</v>
+        <v>8.65</v>
       </c>
       <c r="D91" s="7">
-        <v>11.6</v>
+        <v>28.483</v>
       </c>
       <c r="E91" s="7">
         <v>12</v>
@@ -5317,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
@@ -5330,10 +5368,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="7">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="D92" s="7">
-        <v>33.457</v>
+        <v>36.532</v>
       </c>
       <c r="E92" s="7">
         <v>12</v>
@@ -5355,10 +5393,10 @@
         <v>192</v>
       </c>
       <c r="C93" s="7">
-        <v>5.32</v>
+        <v>12.29</v>
       </c>
       <c r="D93" s="7">
-        <v>19.7</v>
+        <v>38.502</v>
       </c>
       <c r="E93" s="7">
         <v>12</v>
@@ -5367,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -5380,10 +5418,10 @@
         <v>194</v>
       </c>
       <c r="C94" s="7">
-        <v>10.58</v>
+        <v>13.27</v>
       </c>
       <c r="D94" s="7">
-        <v>37.2</v>
+        <v>46</v>
       </c>
       <c r="E94" s="7">
         <v>12</v>
@@ -5392,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -5405,10 +5443,10 @@
         <v>196</v>
       </c>
       <c r="C95" s="7">
-        <v>12.29</v>
+        <v>3.32</v>
       </c>
       <c r="D95" s="7">
-        <v>56.8</v>
+        <v>11.6</v>
       </c>
       <c r="E95" s="7">
         <v>12</v>
@@ -5417,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -5430,10 +5468,10 @@
         <v>198</v>
       </c>
       <c r="C96" s="7">
-        <v>30.09</v>
+        <v>9.5</v>
       </c>
       <c r="D96" s="7">
-        <v>84.102</v>
+        <v>33.457</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -5442,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -5455,10 +5493,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="7">
-        <v>42.54</v>
+        <v>5.32</v>
       </c>
       <c r="D97" s="7">
-        <v>122</v>
+        <v>19.7</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -5467,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -5480,10 +5518,10 @@
         <v>202</v>
       </c>
       <c r="C98" s="7">
-        <v>42.62</v>
+        <v>10.58</v>
       </c>
       <c r="D98" s="7">
-        <v>122</v>
+        <v>37.2</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -5492,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -5505,10 +5543,10 @@
         <v>204</v>
       </c>
       <c r="C99" s="7">
-        <v>32.67</v>
+        <v>12.29</v>
       </c>
       <c r="D99" s="7">
-        <v>107</v>
+        <v>56.8</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -5517,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -5530,10 +5568,10 @@
         <v>206</v>
       </c>
       <c r="C100" s="7">
-        <v>69.61</v>
+        <v>30.09</v>
       </c>
       <c r="D100" s="7">
-        <v>248.201</v>
+        <v>84.102</v>
       </c>
       <c r="E100" s="7">
         <v>12</v>
@@ -5542,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
@@ -5555,10 +5593,10 @@
         <v>208</v>
       </c>
       <c r="C101" s="7">
-        <v>84.97</v>
+        <v>42.54</v>
       </c>
       <c r="D101" s="7">
-        <v>248.201</v>
+        <v>122</v>
       </c>
       <c r="E101" s="7">
         <v>12</v>
@@ -5567,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -5580,10 +5618,10 @@
         <v>210</v>
       </c>
       <c r="C102" s="7">
-        <v>120.91</v>
+        <v>42.62</v>
       </c>
       <c r="D102" s="7">
-        <v>248.201</v>
+        <v>122</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -5592,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -5605,10 +5643,10 @@
         <v>212</v>
       </c>
       <c r="C103" s="7">
-        <v>130.17</v>
+        <v>32.67</v>
       </c>
       <c r="D103" s="7">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -5617,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -5630,10 +5668,10 @@
         <v>214</v>
       </c>
       <c r="C104" s="7">
-        <v>11.85</v>
+        <v>69.61</v>
       </c>
       <c r="D104" s="7">
-        <v>34.5</v>
+        <v>248.201</v>
       </c>
       <c r="E104" s="7">
         <v>12</v>
@@ -5642,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="7">
-        <v>0.53</v>
+        <v>3</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
@@ -5655,10 +5693,10 @@
         <v>216</v>
       </c>
       <c r="C105" s="7">
-        <v>17.89</v>
+        <v>84.97</v>
       </c>
       <c r="D105" s="7">
-        <v>48.7</v>
+        <v>248.201</v>
       </c>
       <c r="E105" s="7">
         <v>12</v>
@@ -5667,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -5680,10 +5718,10 @@
         <v>218</v>
       </c>
       <c r="C106" s="7">
-        <v>21.89</v>
+        <v>120.91</v>
       </c>
       <c r="D106" s="7">
-        <v>24</v>
+        <v>248.201</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -5692,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
@@ -5705,19 +5743,19 @@
         <v>220</v>
       </c>
       <c r="C107" s="7">
-        <v>0.49</v>
+        <v>130.17</v>
       </c>
       <c r="D107" s="7">
-        <v>2.234</v>
+        <v>207</v>
       </c>
       <c r="E107" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F107" s="7">
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5730,10 +5768,10 @@
         <v>222</v>
       </c>
       <c r="C108" s="7">
-        <v>68.42</v>
+        <v>11.85</v>
       </c>
       <c r="D108" s="7">
-        <v>216.554</v>
+        <v>34.5</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5742,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>2.5</v>
+        <v>0.53</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5755,10 +5793,10 @@
         <v>224</v>
       </c>
       <c r="C109" s="7">
-        <v>216.38</v>
+        <v>17.89</v>
       </c>
       <c r="D109" s="7">
-        <v>450.756</v>
+        <v>48.7</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -5767,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -5780,10 +5818,10 @@
         <v>226</v>
       </c>
       <c r="C110" s="7">
-        <v>22.31</v>
+        <v>21.89</v>
       </c>
       <c r="D110" s="7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E110" s="7">
         <v>12</v>
@@ -5792,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -5805,13 +5843,13 @@
         <v>228</v>
       </c>
       <c r="C111" s="7">
-        <v>1.38</v>
+        <v>0.49</v>
       </c>
       <c r="D111" s="7">
-        <v>5.475</v>
+        <v>2.234</v>
       </c>
       <c r="E111" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
@@ -5830,19 +5868,19 @@
         <v>230</v>
       </c>
       <c r="C112" s="7">
-        <v>1.36</v>
+        <v>68.42</v>
       </c>
       <c r="D112" s="7">
-        <v>5.493</v>
+        <v>216.554</v>
       </c>
       <c r="E112" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F112" s="7">
         <v>1</v>
       </c>
       <c r="G112" s="7">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -5855,13 +5893,13 @@
         <v>232</v>
       </c>
       <c r="C113" s="7">
-        <v>1.42</v>
+        <v>216.38</v>
       </c>
       <c r="D113" s="7">
-        <v>5.6</v>
+        <v>450.756</v>
       </c>
       <c r="E113" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F113" s="7">
         <v>1</v>
@@ -5880,13 +5918,13 @@
         <v>234</v>
       </c>
       <c r="C114" s="7">
-        <v>0.49</v>
+        <v>22.31</v>
       </c>
       <c r="D114" s="7">
-        <v>1.7</v>
+        <v>45</v>
       </c>
       <c r="E114" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
@@ -5905,13 +5943,13 @@
         <v>236</v>
       </c>
       <c r="C115" s="7">
-        <v>6.32</v>
+        <v>1.38</v>
       </c>
       <c r="D115" s="7">
-        <v>32.054</v>
+        <v>5.475</v>
       </c>
       <c r="E115" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F115" s="7">
         <v>1</v>
@@ -5930,13 +5968,13 @@
         <v>238</v>
       </c>
       <c r="C116" s="7">
-        <v>26.16</v>
+        <v>1.36</v>
       </c>
       <c r="D116" s="7">
-        <v>26.938</v>
+        <v>5.493</v>
       </c>
       <c r="E116" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F116" s="7">
         <v>1</v>
@@ -5955,13 +5993,13 @@
         <v>240</v>
       </c>
       <c r="C117" s="7">
-        <v>5.38</v>
+        <v>1.42</v>
       </c>
       <c r="D117" s="7">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="E117" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F117" s="7">
         <v>1</v>
@@ -5980,10 +6018,10 @@
         <v>242</v>
       </c>
       <c r="C118" s="7">
-        <v>42.82</v>
+        <v>0.49</v>
       </c>
       <c r="D118" s="7">
-        <v>152.431</v>
+        <v>1.7</v>
       </c>
       <c r="E118" s="7">
         <v>6</v>
@@ -5992,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="7">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -6005,19 +6043,19 @@
         <v>244</v>
       </c>
       <c r="C119" s="7">
-        <v>43.29</v>
+        <v>6.32</v>
       </c>
       <c r="D119" s="7">
-        <v>152.431</v>
+        <v>32.054</v>
       </c>
       <c r="E119" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F119" s="7">
         <v>1</v>
       </c>
       <c r="G119" s="7">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
@@ -6030,19 +6068,19 @@
         <v>246</v>
       </c>
       <c r="C120" s="7">
-        <v>48.75</v>
+        <v>26.16</v>
       </c>
       <c r="D120" s="7">
-        <v>175.457</v>
+        <v>26.938</v>
       </c>
       <c r="E120" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F120" s="7">
         <v>1</v>
       </c>
       <c r="G120" s="7">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -6055,19 +6093,19 @@
         <v>248</v>
       </c>
       <c r="C121" s="7">
-        <v>49.12</v>
+        <v>5.38</v>
       </c>
       <c r="D121" s="7">
-        <v>201.645</v>
+        <v>13</v>
       </c>
       <c r="E121" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F121" s="7">
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -6080,10 +6118,10 @@
         <v>250</v>
       </c>
       <c r="C122" s="7">
-        <v>25.04</v>
+        <v>42.82</v>
       </c>
       <c r="D122" s="7">
-        <v>143.961</v>
+        <v>152.431</v>
       </c>
       <c r="E122" s="7">
         <v>6</v>
@@ -6092,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -6105,10 +6143,10 @@
         <v>252</v>
       </c>
       <c r="C123" s="7">
-        <v>21.26</v>
+        <v>43.29</v>
       </c>
       <c r="D123" s="7">
-        <v>143.961</v>
+        <v>152.431</v>
       </c>
       <c r="E123" s="7">
         <v>6</v>
@@ -6117,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -6130,10 +6168,10 @@
         <v>254</v>
       </c>
       <c r="C124" s="7">
-        <v>39.51</v>
+        <v>48.75</v>
       </c>
       <c r="D124" s="7">
-        <v>219.134</v>
+        <v>175.457</v>
       </c>
       <c r="E124" s="7">
         <v>6</v>
@@ -6142,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="G124" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -6155,10 +6193,10 @@
         <v>256</v>
       </c>
       <c r="C125" s="7">
-        <v>17.11</v>
+        <v>49.12</v>
       </c>
       <c r="D125" s="7">
-        <v>96.729</v>
+        <v>201.645</v>
       </c>
       <c r="E125" s="7">
         <v>6</v>
@@ -6167,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -6180,10 +6218,10 @@
         <v>258</v>
       </c>
       <c r="C126" s="7">
-        <v>14.78</v>
+        <v>25.04</v>
       </c>
       <c r="D126" s="7">
-        <v>84.5</v>
+        <v>143.961</v>
       </c>
       <c r="E126" s="7">
         <v>6</v>
@@ -6192,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -6205,10 +6243,10 @@
         <v>260</v>
       </c>
       <c r="C127" s="7">
-        <v>20.9</v>
+        <v>21.26</v>
       </c>
       <c r="D127" s="7">
-        <v>122.054</v>
+        <v>143.961</v>
       </c>
       <c r="E127" s="7">
         <v>6</v>
@@ -6217,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -6230,10 +6268,10 @@
         <v>262</v>
       </c>
       <c r="C128" s="7">
-        <v>15.95</v>
+        <v>39.51</v>
       </c>
       <c r="D128" s="7">
-        <v>93.88800000000001</v>
+        <v>219.134</v>
       </c>
       <c r="E128" s="7">
         <v>6</v>
@@ -6242,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -6255,10 +6293,10 @@
         <v>264</v>
       </c>
       <c r="C129" s="7">
-        <v>5.62</v>
+        <v>17.11</v>
       </c>
       <c r="D129" s="7">
-        <v>18.015</v>
+        <v>96.729</v>
       </c>
       <c r="E129" s="7">
         <v>6</v>
@@ -6267,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -6280,10 +6318,10 @@
         <v>266</v>
       </c>
       <c r="C130" s="7">
-        <v>2.65</v>
+        <v>14.78</v>
       </c>
       <c r="D130" s="7">
-        <v>15.648</v>
+        <v>84.5</v>
       </c>
       <c r="E130" s="7">
         <v>6</v>
@@ -6305,10 +6343,10 @@
         <v>268</v>
       </c>
       <c r="C131" s="7">
-        <v>22</v>
+        <v>20.9</v>
       </c>
       <c r="D131" s="7">
-        <v>138.225</v>
+        <v>122.054</v>
       </c>
       <c r="E131" s="7">
         <v>6</v>
@@ -6317,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -6330,10 +6368,10 @@
         <v>270</v>
       </c>
       <c r="C132" s="7">
-        <v>22.93</v>
+        <v>15.95</v>
       </c>
       <c r="D132" s="7">
-        <v>143.961</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E132" s="7">
         <v>6</v>
@@ -6342,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -6355,10 +6393,10 @@
         <v>272</v>
       </c>
       <c r="C133" s="7">
-        <v>6.75</v>
+        <v>5.62</v>
       </c>
       <c r="D133" s="7">
-        <v>38.128</v>
+        <v>18.015</v>
       </c>
       <c r="E133" s="7">
         <v>6</v>
@@ -6380,10 +6418,10 @@
         <v>274</v>
       </c>
       <c r="C134" s="7">
-        <v>10.37</v>
+        <v>2.65</v>
       </c>
       <c r="D134" s="7">
-        <v>59.462</v>
+        <v>15.648</v>
       </c>
       <c r="E134" s="7">
         <v>6</v>
@@ -6405,10 +6443,10 @@
         <v>276</v>
       </c>
       <c r="C135" s="7">
-        <v>9.470000000000001</v>
+        <v>22</v>
       </c>
       <c r="D135" s="7">
-        <v>55.892</v>
+        <v>138.225</v>
       </c>
       <c r="E135" s="7">
         <v>6</v>
@@ -6417,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -6430,10 +6468,10 @@
         <v>278</v>
       </c>
       <c r="C136" s="7">
-        <v>33.05</v>
+        <v>22.93</v>
       </c>
       <c r="D136" s="7">
-        <v>157.109</v>
+        <v>143.961</v>
       </c>
       <c r="E136" s="7">
         <v>6</v>
@@ -6442,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6455,19 +6493,19 @@
         <v>280</v>
       </c>
       <c r="C137" s="7">
-        <v>20.82</v>
+        <v>6.75</v>
       </c>
       <c r="D137" s="7">
-        <v>45.773</v>
+        <v>38.128</v>
       </c>
       <c r="E137" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F137" s="7">
         <v>1</v>
       </c>
       <c r="G137" s="7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -6480,19 +6518,19 @@
         <v>282</v>
       </c>
       <c r="C138" s="7">
-        <v>3.79</v>
+        <v>10.37</v>
       </c>
       <c r="D138" s="7">
-        <v>19.428</v>
+        <v>59.462</v>
       </c>
       <c r="E138" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F138" s="7">
         <v>1</v>
       </c>
       <c r="G138" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -6505,10 +6543,10 @@
         <v>284</v>
       </c>
       <c r="C139" s="7">
-        <v>15.37</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D139" s="7">
-        <v>73.333</v>
+        <v>55.892</v>
       </c>
       <c r="E139" s="7">
         <v>6</v>
@@ -6517,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -6530,19 +6568,19 @@
         <v>286</v>
       </c>
       <c r="C140" s="7">
-        <v>0.34</v>
+        <v>33.05</v>
       </c>
       <c r="D140" s="7">
-        <v>0.3</v>
+        <v>157.109</v>
       </c>
       <c r="E140" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F140" s="7">
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -6555,19 +6593,19 @@
         <v>288</v>
       </c>
       <c r="C141" s="7">
-        <v>11.98</v>
+        <v>20.82</v>
       </c>
       <c r="D141" s="7">
-        <v>38.291</v>
+        <v>45.773</v>
       </c>
       <c r="E141" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F141" s="7">
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -6580,10 +6618,10 @@
         <v>290</v>
       </c>
       <c r="C142" s="7">
-        <v>119.41</v>
+        <v>3.79</v>
       </c>
       <c r="D142" s="7">
-        <v>354.86</v>
+        <v>19.428</v>
       </c>
       <c r="E142" s="7">
         <v>10</v>
@@ -6592,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -6605,19 +6643,19 @@
         <v>292</v>
       </c>
       <c r="C143" s="7">
-        <v>24.68</v>
+        <v>15.37</v>
       </c>
       <c r="D143" s="7">
-        <v>64.59399999999999</v>
+        <v>73.333</v>
       </c>
       <c r="E143" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -6630,13 +6668,13 @@
         <v>294</v>
       </c>
       <c r="C144" s="7">
-        <v>3.58</v>
+        <v>0.34</v>
       </c>
       <c r="D144" s="7">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="E144" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
@@ -6655,10 +6693,10 @@
         <v>296</v>
       </c>
       <c r="C145" s="7">
-        <v>11.77</v>
+        <v>11.98</v>
       </c>
       <c r="D145" s="7">
-        <v>42.588</v>
+        <v>38.291</v>
       </c>
       <c r="E145" s="7">
         <v>12</v>
@@ -6680,19 +6718,19 @@
         <v>298</v>
       </c>
       <c r="C146" s="7">
-        <v>16.49</v>
+        <v>119.41</v>
       </c>
       <c r="D146" s="7">
-        <v>60.73</v>
+        <v>354.86</v>
       </c>
       <c r="E146" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F146" s="7">
         <v>1</v>
       </c>
       <c r="G146" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -6705,19 +6743,19 @@
         <v>300</v>
       </c>
       <c r="C147" s="7">
-        <v>5.41</v>
+        <v>24.68</v>
       </c>
       <c r="D147" s="7">
-        <v>19.648</v>
+        <v>64.59399999999999</v>
       </c>
       <c r="E147" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F147" s="7">
         <v>1</v>
       </c>
       <c r="G147" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -6730,13 +6768,13 @@
         <v>302</v>
       </c>
       <c r="C148" s="7">
-        <v>17.33</v>
+        <v>3.58</v>
       </c>
       <c r="D148" s="7">
-        <v>23.7</v>
+        <v>6.6</v>
       </c>
       <c r="E148" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
@@ -6755,19 +6793,19 @@
         <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>28.98</v>
+        <v>11.77</v>
       </c>
       <c r="D149" s="7">
-        <v>102</v>
+        <v>42.588</v>
       </c>
       <c r="E149" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F149" s="7">
         <v>1</v>
       </c>
       <c r="G149" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
@@ -6780,19 +6818,19 @@
         <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>24.87</v>
+        <v>16.49</v>
       </c>
       <c r="D150" s="7">
-        <v>10</v>
+        <v>60.73</v>
       </c>
       <c r="E150" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F150" s="7">
         <v>1</v>
       </c>
       <c r="G150" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -6805,13 +6843,13 @@
         <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>3.7</v>
+        <v>5.41</v>
       </c>
       <c r="D151" s="7">
-        <v>19.078</v>
+        <v>19.648</v>
       </c>
       <c r="E151" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F151" s="7">
         <v>1</v>
@@ -6830,13 +6868,13 @@
         <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>2.45</v>
+        <v>17.33</v>
       </c>
       <c r="D152" s="7">
-        <v>12.8</v>
+        <v>23.7</v>
       </c>
       <c r="E152" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F152" s="7">
         <v>1</v>
@@ -6855,13 +6893,13 @@
         <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>4.43</v>
+        <v>28.98</v>
       </c>
       <c r="D153" s="7">
-        <v>22.741</v>
+        <v>102</v>
       </c>
       <c r="E153" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F153" s="7">
         <v>1</v>
@@ -6880,13 +6918,13 @@
         <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>2.59</v>
+        <v>24.87</v>
       </c>
       <c r="D154" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E154" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F154" s="7">
         <v>1</v>
@@ -6905,10 +6943,10 @@
         <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>15.11</v>
+        <v>3.7</v>
       </c>
       <c r="D155" s="7">
-        <v>71.11799999999999</v>
+        <v>19.078</v>
       </c>
       <c r="E155" s="7">
         <v>10</v>
@@ -6930,10 +6968,10 @@
         <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>7.58</v>
+        <v>2.45</v>
       </c>
       <c r="D156" s="7">
-        <v>38.801</v>
+        <v>12.8</v>
       </c>
       <c r="E156" s="7">
         <v>10</v>
@@ -6955,10 +6993,10 @@
         <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>3.9</v>
+        <v>4.43</v>
       </c>
       <c r="D157" s="7">
-        <v>18</v>
+        <v>22.741</v>
       </c>
       <c r="E157" s="7">
         <v>10</v>
@@ -6980,10 +7018,10 @@
         <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>1.66</v>
+        <v>2.59</v>
       </c>
       <c r="D158" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E158" s="7">
         <v>10</v>
@@ -7005,10 +7043,10 @@
         <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>3.4</v>
+        <v>15.11</v>
       </c>
       <c r="D159" s="7">
-        <v>16.059</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E159" s="7">
         <v>10</v>
@@ -7030,10 +7068,10 @@
         <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>7.59</v>
+        <v>7.58</v>
       </c>
       <c r="D160" s="7">
-        <v>34.112</v>
+        <v>38.801</v>
       </c>
       <c r="E160" s="7">
         <v>10</v>
@@ -7055,10 +7093,10 @@
         <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>8.98</v>
+        <v>3.9</v>
       </c>
       <c r="D161" s="7">
-        <v>19.4</v>
+        <v>18</v>
       </c>
       <c r="E161" s="7">
         <v>10</v>
@@ -7080,7 +7118,7 @@
         <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>2.48</v>
+        <v>1.66</v>
       </c>
       <c r="D162" s="7">
         <v>8</v>
@@ -7105,10 +7143,10 @@
         <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>5.04</v>
+        <v>3.4</v>
       </c>
       <c r="D163" s="7">
-        <v>25.437</v>
+        <v>16.059</v>
       </c>
       <c r="E163" s="7">
         <v>10</v>
@@ -7130,10 +7168,10 @@
         <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>4.29</v>
+        <v>7.59</v>
       </c>
       <c r="D164" s="7">
-        <v>22.7</v>
+        <v>34.112</v>
       </c>
       <c r="E164" s="7">
         <v>10</v>
@@ -7155,10 +7193,10 @@
         <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>1.61</v>
+        <v>8.98</v>
       </c>
       <c r="D165" s="7">
-        <v>8</v>
+        <v>19.4</v>
       </c>
       <c r="E165" s="7">
         <v>10</v>
@@ -7180,10 +7218,10 @@
         <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="D166" s="7">
-        <v>12.718</v>
+        <v>8</v>
       </c>
       <c r="E166" s="7">
         <v>10</v>
@@ -7205,10 +7243,10 @@
         <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>2.51</v>
+        <v>5.04</v>
       </c>
       <c r="D167" s="7">
-        <v>12.718</v>
+        <v>25.437</v>
       </c>
       <c r="E167" s="7">
         <v>10</v>
@@ -7230,10 +7268,10 @@
         <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>3.56</v>
+        <v>4.29</v>
       </c>
       <c r="D168" s="7">
-        <v>12.718</v>
+        <v>22.7</v>
       </c>
       <c r="E168" s="7">
         <v>10</v>
@@ -7255,10 +7293,10 @@
         <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>2.8</v>
+        <v>1.61</v>
       </c>
       <c r="D169" s="7">
-        <v>14.231</v>
+        <v>8</v>
       </c>
       <c r="E169" s="7">
         <v>10</v>
@@ -7280,10 +7318,10 @@
         <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>6.26</v>
+        <v>2.82</v>
       </c>
       <c r="D170" s="7">
-        <v>33.032</v>
+        <v>12.718</v>
       </c>
       <c r="E170" s="7">
         <v>10</v>
@@ -7305,10 +7343,10 @@
         <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>7.37</v>
+        <v>2.51</v>
       </c>
       <c r="D171" s="7">
-        <v>37.601</v>
+        <v>12.718</v>
       </c>
       <c r="E171" s="7">
         <v>10</v>
@@ -7330,10 +7368,10 @@
         <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>9.619999999999999</v>
+        <v>3.56</v>
       </c>
       <c r="D172" s="7">
-        <v>47.263</v>
+        <v>12.718</v>
       </c>
       <c r="E172" s="7">
         <v>10</v>
@@ -7355,10 +7393,10 @@
         <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>6.12</v>
+        <v>2.8</v>
       </c>
       <c r="D173" s="7">
-        <v>31.159</v>
+        <v>14.231</v>
       </c>
       <c r="E173" s="7">
         <v>10</v>
@@ -7380,10 +7418,10 @@
         <v>354</v>
       </c>
       <c r="C174" s="7">
-        <v>2.89</v>
+        <v>6.26</v>
       </c>
       <c r="D174" s="7">
-        <v>14.231</v>
+        <v>33.032</v>
       </c>
       <c r="E174" s="7">
         <v>10</v>
@@ -7405,10 +7443,10 @@
         <v>356</v>
       </c>
       <c r="C175" s="7">
-        <v>9.69</v>
+        <v>7.37</v>
       </c>
       <c r="D175" s="7">
-        <v>50.484</v>
+        <v>37.601</v>
       </c>
       <c r="E175" s="7">
         <v>10</v>
@@ -7430,10 +7468,10 @@
         <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>9.69</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D176" s="7">
-        <v>50.484</v>
+        <v>47.263</v>
       </c>
       <c r="E176" s="7">
         <v>10</v>
@@ -7455,10 +7493,10 @@
         <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>13.27</v>
+        <v>6.12</v>
       </c>
       <c r="D177" s="7">
-        <v>63.368</v>
+        <v>31.159</v>
       </c>
       <c r="E177" s="7">
         <v>10</v>
@@ -7480,13 +7518,13 @@
         <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>0.47</v>
+        <v>2.89</v>
       </c>
       <c r="D178" s="7">
-        <v>1.5</v>
+        <v>14.231</v>
       </c>
       <c r="E178" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F178" s="7">
         <v>1</v>
@@ -7505,13 +7543,13 @@
         <v>364</v>
       </c>
       <c r="C179" s="7">
-        <v>0.5600000000000001</v>
+        <v>9.69</v>
       </c>
       <c r="D179" s="7">
-        <v>1.2</v>
+        <v>50.484</v>
       </c>
       <c r="E179" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F179" s="7">
         <v>1</v>
@@ -7530,19 +7568,19 @@
         <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>15.61</v>
+        <v>9.69</v>
       </c>
       <c r="D180" s="7">
-        <v>58.927</v>
+        <v>50.484</v>
       </c>
       <c r="E180" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F180" s="7">
         <v>1</v>
       </c>
       <c r="G180" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
@@ -7555,10 +7593,10 @@
         <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>5.82</v>
+        <v>13.27</v>
       </c>
       <c r="D181" s="7">
-        <v>22.042</v>
+        <v>63.368</v>
       </c>
       <c r="E181" s="7">
         <v>10</v>
@@ -7567,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
@@ -7580,19 +7618,19 @@
         <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>24.28</v>
+        <v>0.47</v>
       </c>
       <c r="D182" s="7">
-        <v>14.652</v>
+        <v>1.5</v>
       </c>
       <c r="E182" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
       </c>
       <c r="G182" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
@@ -7605,13 +7643,13 @@
         <v>372</v>
       </c>
       <c r="C183" s="7">
-        <v>7.76</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D183" s="7">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="E183" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F183" s="7">
         <v>1</v>
@@ -7630,19 +7668,19 @@
         <v>374</v>
       </c>
       <c r="C184" s="7">
-        <v>16.45</v>
+        <v>15.61</v>
       </c>
       <c r="D184" s="7">
-        <v>49.362</v>
+        <v>58.927</v>
       </c>
       <c r="E184" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F184" s="7">
         <v>1</v>
       </c>
       <c r="G184" s="7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
@@ -7655,19 +7693,19 @@
         <v>376</v>
       </c>
       <c r="C185" s="7">
-        <v>3.59</v>
+        <v>5.82</v>
       </c>
       <c r="D185" s="7">
-        <v>20</v>
+        <v>22.042</v>
       </c>
       <c r="E185" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F185" s="7">
         <v>1</v>
       </c>
       <c r="G185" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
@@ -7680,19 +7718,19 @@
         <v>378</v>
       </c>
       <c r="C186" s="7">
-        <v>21.78</v>
+        <v>24.28</v>
       </c>
       <c r="D186" s="7">
-        <v>12.128</v>
+        <v>14.652</v>
       </c>
       <c r="E186" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F186" s="7">
         <v>1</v>
       </c>
       <c r="G186" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
@@ -7705,10 +7743,10 @@
         <v>380</v>
       </c>
       <c r="C187" s="7">
-        <v>23.37</v>
+        <v>7.76</v>
       </c>
       <c r="D187" s="7">
-        <v>24.4</v>
+        <v>2.2</v>
       </c>
       <c r="E187" s="7">
         <v>25</v>
@@ -7730,10 +7768,10 @@
         <v>382</v>
       </c>
       <c r="C188" s="7">
-        <v>4.12</v>
+        <v>16.45</v>
       </c>
       <c r="D188" s="7">
-        <v>45.8</v>
+        <v>49.362</v>
       </c>
       <c r="E188" s="7">
         <v>12</v>
@@ -7742,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
@@ -7755,13 +7793,13 @@
         <v>384</v>
       </c>
       <c r="C189" s="7">
-        <v>5.03</v>
+        <v>3.59</v>
       </c>
       <c r="D189" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E189" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F189" s="7">
         <v>1</v>
@@ -7780,13 +7818,13 @@
         <v>386</v>
       </c>
       <c r="C190" s="7">
-        <v>1.49</v>
+        <v>21.78</v>
       </c>
       <c r="D190" s="7">
-        <v>7</v>
+        <v>12.128</v>
       </c>
       <c r="E190" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F190" s="7">
         <v>1</v>
@@ -7805,13 +7843,13 @@
         <v>388</v>
       </c>
       <c r="C191" s="7">
-        <v>0.31</v>
+        <v>23.37</v>
       </c>
       <c r="D191" s="7">
-        <v>1.2</v>
+        <v>24.4</v>
       </c>
       <c r="E191" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F191" s="7">
         <v>1</v>
@@ -7830,13 +7868,13 @@
         <v>390</v>
       </c>
       <c r="C192" s="7">
-        <v>7.19</v>
+        <v>4.12</v>
       </c>
       <c r="D192" s="7">
-        <v>9.5</v>
+        <v>45.8</v>
       </c>
       <c r="E192" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F192" s="7">
         <v>1</v>
@@ -7855,19 +7893,19 @@
         <v>392</v>
       </c>
       <c r="C193" s="7">
-        <v>70.06</v>
+        <v>5.03</v>
       </c>
       <c r="D193" s="7">
-        <v>196.686</v>
+        <v>40</v>
       </c>
       <c r="E193" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F193" s="7">
         <v>1</v>
       </c>
       <c r="G193" s="7">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
@@ -7880,19 +7918,19 @@
         <v>394</v>
       </c>
       <c r="C194" s="7">
-        <v>111.05</v>
+        <v>1.49</v>
       </c>
       <c r="D194" s="7">
-        <v>318.558</v>
+        <v>7</v>
       </c>
       <c r="E194" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F194" s="7">
         <v>1</v>
       </c>
       <c r="G194" s="7">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
@@ -7905,19 +7943,19 @@
         <v>396</v>
       </c>
       <c r="C195" s="7">
-        <v>131.62</v>
+        <v>0.31</v>
       </c>
       <c r="D195" s="7">
-        <v>361.925</v>
+        <v>1.2</v>
       </c>
       <c r="E195" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F195" s="7">
         <v>1</v>
       </c>
       <c r="G195" s="7">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
@@ -7930,13 +7968,13 @@
         <v>398</v>
       </c>
       <c r="C196" s="7">
-        <v>54.05</v>
+        <v>7.19</v>
       </c>
       <c r="D196" s="7">
-        <v>170</v>
+        <v>9.5</v>
       </c>
       <c r="E196" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F196" s="7">
         <v>1</v>
@@ -7955,10 +7993,10 @@
         <v>400</v>
       </c>
       <c r="C197" s="7">
-        <v>132.21</v>
+        <v>70.06</v>
       </c>
       <c r="D197" s="7">
-        <v>381</v>
+        <v>196.686</v>
       </c>
       <c r="E197" s="7">
         <v>12</v>
@@ -7967,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
@@ -7980,10 +8018,10 @@
         <v>402</v>
       </c>
       <c r="C198" s="7">
-        <v>104.5</v>
+        <v>111.05</v>
       </c>
       <c r="D198" s="7">
-        <v>300</v>
+        <v>318.558</v>
       </c>
       <c r="E198" s="7">
         <v>12</v>
@@ -7992,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="7">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -8005,19 +8043,19 @@
         <v>404</v>
       </c>
       <c r="C199" s="7">
-        <v>2.21</v>
+        <v>131.62</v>
       </c>
       <c r="D199" s="7">
-        <v>2</v>
+        <v>361.925</v>
       </c>
       <c r="E199" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F199" s="7">
         <v>1</v>
       </c>
       <c r="G199" s="7">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
@@ -8030,13 +8068,13 @@
         <v>406</v>
       </c>
       <c r="C200" s="7">
-        <v>1.76</v>
+        <v>54.05</v>
       </c>
       <c r="D200" s="7">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="E200" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F200" s="7">
         <v>1</v>
@@ -8055,13 +8093,13 @@
         <v>408</v>
       </c>
       <c r="C201" s="7">
-        <v>1.26</v>
+        <v>132.21</v>
       </c>
       <c r="D201" s="7">
-        <v>7</v>
+        <v>381</v>
       </c>
       <c r="E201" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F201" s="7">
         <v>1</v>
@@ -8080,10 +8118,10 @@
         <v>410</v>
       </c>
       <c r="C202" s="7">
-        <v>0.58</v>
+        <v>104.5</v>
       </c>
       <c r="D202" s="7">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="E202" s="7">
         <v>12</v>
@@ -8105,13 +8143,13 @@
         <v>412</v>
       </c>
       <c r="C203" s="7">
-        <v>1.22</v>
+        <v>2.21</v>
       </c>
       <c r="D203" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E203" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F203" s="7">
         <v>1</v>
@@ -8130,13 +8168,13 @@
         <v>414</v>
       </c>
       <c r="C204" s="7">
-        <v>68.98</v>
+        <v>1.76</v>
       </c>
       <c r="D204" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E204" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F204" s="7">
         <v>1</v>
@@ -8155,13 +8193,13 @@
         <v>416</v>
       </c>
       <c r="C205" s="7">
-        <v>2.26</v>
+        <v>1.26</v>
       </c>
       <c r="D205" s="7">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="E205" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F205" s="7">
         <v>1</v>
@@ -8180,19 +8218,19 @@
         <v>418</v>
       </c>
       <c r="C206" s="7">
-        <v>29.52</v>
+        <v>0.58</v>
       </c>
       <c r="D206" s="7">
-        <v>173.871</v>
+        <v>2</v>
       </c>
       <c r="E206" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F206" s="7">
         <v>1</v>
       </c>
       <c r="G206" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
@@ -8205,19 +8243,19 @@
         <v>420</v>
       </c>
       <c r="C207" s="7">
-        <v>22.61</v>
+        <v>1.22</v>
       </c>
       <c r="D207" s="7">
-        <v>20.64</v>
+        <v>1.5</v>
       </c>
       <c r="E207" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F207" s="7">
         <v>1</v>
       </c>
       <c r="G207" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
@@ -8230,19 +8268,19 @@
         <v>422</v>
       </c>
       <c r="C208" s="7">
-        <v>6.14</v>
+        <v>68.98</v>
       </c>
       <c r="D208" s="7">
-        <v>24.5</v>
+        <v>13</v>
       </c>
       <c r="E208" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F208" s="7">
         <v>1</v>
       </c>
       <c r="G208" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
@@ -8255,13 +8293,13 @@
         <v>424</v>
       </c>
       <c r="C209" s="7">
-        <v>8.32</v>
+        <v>2.26</v>
       </c>
       <c r="D209" s="7">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="E209" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F209" s="7">
         <v>1</v>
@@ -8280,19 +8318,19 @@
         <v>426</v>
       </c>
       <c r="C210" s="7">
-        <v>3.77</v>
+        <v>29.52</v>
       </c>
       <c r="D210" s="7">
-        <v>8.800000000000001</v>
+        <v>173.871</v>
       </c>
       <c r="E210" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F210" s="7">
         <v>1</v>
       </c>
       <c r="G210" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
@@ -8305,19 +8343,19 @@
         <v>428</v>
       </c>
       <c r="C211" s="7">
-        <v>74.28</v>
+        <v>22.61</v>
       </c>
       <c r="D211" s="7">
-        <v>347.345</v>
+        <v>20.64</v>
       </c>
       <c r="E211" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F211" s="7">
         <v>1</v>
       </c>
       <c r="G211" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
@@ -8330,19 +8368,19 @@
         <v>430</v>
       </c>
       <c r="C212" s="7">
-        <v>226.02</v>
+        <v>6.14</v>
       </c>
       <c r="D212" s="7">
-        <v>87.117</v>
+        <v>24.5</v>
       </c>
       <c r="E212" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F212" s="7">
         <v>1</v>
       </c>
       <c r="G212" s="7">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
@@ -8355,13 +8393,13 @@
         <v>432</v>
       </c>
       <c r="C213" s="7">
-        <v>4.17</v>
+        <v>8.32</v>
       </c>
       <c r="D213" s="7">
-        <v>20.68</v>
+        <v>5</v>
       </c>
       <c r="E213" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F213" s="7">
         <v>1</v>
@@ -8380,19 +8418,19 @@
         <v>434</v>
       </c>
       <c r="C214" s="7">
-        <v>52.8</v>
+        <v>3.77</v>
       </c>
       <c r="D214" s="7">
-        <v>34.621</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E214" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F214" s="7">
         <v>1</v>
       </c>
       <c r="G214" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
@@ -8405,19 +8443,19 @@
         <v>436</v>
       </c>
       <c r="C215" s="7">
-        <v>0.96</v>
+        <v>74.28</v>
       </c>
       <c r="D215" s="7">
-        <v>3.1</v>
+        <v>347.345</v>
       </c>
       <c r="E215" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F215" s="7">
         <v>1</v>
       </c>
       <c r="G215" s="7">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
@@ -8430,19 +8468,19 @@
         <v>438</v>
       </c>
       <c r="C216" s="7">
-        <v>23.06</v>
+        <v>226.02</v>
       </c>
       <c r="D216" s="7">
-        <v>62.716</v>
+        <v>87.117</v>
       </c>
       <c r="E216" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F216" s="7">
         <v>1</v>
       </c>
       <c r="G216" s="7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
@@ -8455,19 +8493,19 @@
         <v>440</v>
       </c>
       <c r="C217" s="7">
-        <v>21.01</v>
+        <v>4.17</v>
       </c>
       <c r="D217" s="7">
-        <v>59.231</v>
+        <v>20.68</v>
       </c>
       <c r="E217" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F217" s="7">
         <v>1</v>
       </c>
       <c r="G217" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
@@ -8480,19 +8518,19 @@
         <v>442</v>
       </c>
       <c r="C218" s="7">
-        <v>21.62</v>
+        <v>52.8</v>
       </c>
       <c r="D218" s="7">
-        <v>61.646</v>
+        <v>34.621</v>
       </c>
       <c r="E218" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F218" s="7">
         <v>1</v>
       </c>
       <c r="G218" s="7">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
@@ -8505,19 +8543,19 @@
         <v>444</v>
       </c>
       <c r="C219" s="7">
-        <v>25.66</v>
+        <v>0.96</v>
       </c>
       <c r="D219" s="7">
-        <v>70</v>
+        <v>3.1</v>
       </c>
       <c r="E219" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F219" s="7">
         <v>1</v>
       </c>
       <c r="G219" s="7">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
@@ -8530,10 +8568,10 @@
         <v>446</v>
       </c>
       <c r="C220" s="7">
-        <v>23.76</v>
+        <v>23.06</v>
       </c>
       <c r="D220" s="7">
-        <v>66.905</v>
+        <v>62.716</v>
       </c>
       <c r="E220" s="7">
         <v>12</v>
@@ -8555,10 +8593,10 @@
         <v>448</v>
       </c>
       <c r="C221" s="7">
-        <v>22.65</v>
+        <v>21.01</v>
       </c>
       <c r="D221" s="7">
-        <v>64.511</v>
+        <v>59.231</v>
       </c>
       <c r="E221" s="7">
         <v>12</v>
@@ -8580,10 +8618,10 @@
         <v>450</v>
       </c>
       <c r="C222" s="7">
-        <v>27.09</v>
+        <v>21.62</v>
       </c>
       <c r="D222" s="7">
-        <v>76.20999999999999</v>
+        <v>61.646</v>
       </c>
       <c r="E222" s="7">
         <v>12</v>
@@ -8605,10 +8643,10 @@
         <v>452</v>
       </c>
       <c r="C223" s="7">
-        <v>37.52</v>
+        <v>25.66</v>
       </c>
       <c r="D223" s="7">
-        <v>95.16</v>
+        <v>70</v>
       </c>
       <c r="E223" s="7">
         <v>12</v>
@@ -8630,10 +8668,10 @@
         <v>454</v>
       </c>
       <c r="C224" s="7">
-        <v>36.86</v>
+        <v>23.76</v>
       </c>
       <c r="D224" s="7">
-        <v>95.16</v>
+        <v>66.905</v>
       </c>
       <c r="E224" s="7">
         <v>12</v>
@@ -8655,10 +8693,10 @@
         <v>456</v>
       </c>
       <c r="C225" s="7">
-        <v>36.87</v>
+        <v>22.65</v>
       </c>
       <c r="D225" s="7">
-        <v>95.16</v>
+        <v>64.511</v>
       </c>
       <c r="E225" s="7">
         <v>12</v>
@@ -8680,10 +8718,10 @@
         <v>458</v>
       </c>
       <c r="C226" s="7">
-        <v>37.41</v>
+        <v>27.09</v>
       </c>
       <c r="D226" s="7">
-        <v>95.16</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="E226" s="7">
         <v>12</v>
@@ -8705,10 +8743,10 @@
         <v>460</v>
       </c>
       <c r="C227" s="7">
-        <v>13.76</v>
+        <v>37.52</v>
       </c>
       <c r="D227" s="7">
-        <v>79.3</v>
+        <v>95.16</v>
       </c>
       <c r="E227" s="7">
         <v>12</v>
@@ -8730,16 +8768,16 @@
         <v>462</v>
       </c>
       <c r="C228" s="7">
-        <v>5.91</v>
+        <v>36.86</v>
       </c>
       <c r="D228" s="7">
-        <v>31</v>
+        <v>95.16</v>
       </c>
       <c r="E228" s="7">
         <v>12</v>
       </c>
       <c r="F228" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G228" s="7">
         <v>1</v>
@@ -8755,16 +8793,16 @@
         <v>464</v>
       </c>
       <c r="C229" s="7">
-        <v>8.01</v>
+        <v>36.87</v>
       </c>
       <c r="D229" s="7">
-        <v>23.2</v>
+        <v>95.16</v>
       </c>
       <c r="E229" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F229" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G229" s="7">
         <v>1</v>
@@ -8780,13 +8818,13 @@
         <v>466</v>
       </c>
       <c r="C230" s="7">
-        <v>34.17</v>
+        <v>37.41</v>
       </c>
       <c r="D230" s="7">
-        <v>98</v>
+        <v>95.16</v>
       </c>
       <c r="E230" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F230" s="7">
         <v>1</v>
@@ -8805,16 +8843,16 @@
         <v>468</v>
       </c>
       <c r="C231" s="7">
-        <v>64.06999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="D231" s="7">
-        <v>62</v>
+        <v>79.3</v>
       </c>
       <c r="E231" s="7">
         <v>12</v>
       </c>
       <c r="F231" s="7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G231" s="7">
         <v>1</v>
@@ -8830,16 +8868,16 @@
         <v>470</v>
       </c>
       <c r="C232" s="7">
-        <v>0.98</v>
+        <v>5.91</v>
       </c>
       <c r="D232" s="7">
-        <v>4.3</v>
+        <v>31</v>
       </c>
       <c r="E232" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F232" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G232" s="7">
         <v>1</v>
@@ -8855,16 +8893,16 @@
         <v>472</v>
       </c>
       <c r="C233" s="7">
-        <v>1.15</v>
+        <v>8.01</v>
       </c>
       <c r="D233" s="7">
-        <v>5</v>
+        <v>23.2</v>
       </c>
       <c r="E233" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F233" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G233" s="7">
         <v>1</v>
@@ -8880,16 +8918,16 @@
         <v>474</v>
       </c>
       <c r="C234" s="7">
-        <v>3.16</v>
+        <v>34.17</v>
       </c>
       <c r="D234" s="7">
-        <v>11.3</v>
+        <v>98</v>
       </c>
       <c r="E234" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F234" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G234" s="7">
         <v>1</v>
@@ -8905,16 +8943,16 @@
         <v>476</v>
       </c>
       <c r="C235" s="7">
-        <v>4.39</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="D235" s="7">
-        <v>1.8</v>
+        <v>62</v>
       </c>
       <c r="E235" s="7">
         <v>12</v>
       </c>
       <c r="F235" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="G235" s="7">
         <v>1</v>
@@ -8930,16 +8968,16 @@
         <v>478</v>
       </c>
       <c r="C236" s="7">
-        <v>30.63</v>
+        <v>0.98</v>
       </c>
       <c r="D236" s="7">
-        <v>32.6</v>
+        <v>4.3</v>
       </c>
       <c r="E236" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F236" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G236" s="7">
         <v>1</v>
@@ -8955,16 +8993,16 @@
         <v>480</v>
       </c>
       <c r="C237" s="7">
-        <v>57.75</v>
+        <v>1.15</v>
       </c>
       <c r="D237" s="7">
-        <v>53.7</v>
+        <v>5</v>
       </c>
       <c r="E237" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F237" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G237" s="7">
         <v>1</v>
@@ -8980,19 +9018,19 @@
         <v>482</v>
       </c>
       <c r="C238" s="7">
-        <v>4.07</v>
+        <v>3.16</v>
       </c>
       <c r="D238" s="7">
-        <v>4</v>
+        <v>11.3</v>
       </c>
       <c r="E238" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F238" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G238" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H238" s="8"/>
       <c r="I238" s="8"/>
@@ -9005,19 +9043,19 @@
         <v>484</v>
       </c>
       <c r="C239" s="7">
-        <v>7.72</v>
+        <v>4.39</v>
       </c>
       <c r="D239" s="7">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="E239" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F239" s="7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G239" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H239" s="8"/>
       <c r="I239" s="8"/>
@@ -9030,19 +9068,19 @@
         <v>486</v>
       </c>
       <c r="C240" s="7">
-        <v>91.34</v>
+        <v>30.63</v>
       </c>
       <c r="D240" s="7">
-        <v>252</v>
+        <v>32.6</v>
       </c>
       <c r="E240" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F240" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G240" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H240" s="8"/>
       <c r="I240" s="8"/>
@@ -9055,19 +9093,19 @@
         <v>488</v>
       </c>
       <c r="C241" s="7">
-        <v>111.63</v>
+        <v>57.75</v>
       </c>
       <c r="D241" s="7">
-        <v>336</v>
+        <v>53.7</v>
       </c>
       <c r="E241" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F241" s="7">
         <v>1</v>
       </c>
       <c r="G241" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
@@ -9080,19 +9118,19 @@
         <v>490</v>
       </c>
       <c r="C242" s="7">
-        <v>164.8</v>
+        <v>4.07</v>
       </c>
       <c r="D242" s="7">
-        <v>474</v>
+        <v>4</v>
       </c>
       <c r="E242" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F242" s="7">
         <v>1</v>
       </c>
       <c r="G242" s="7">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
@@ -9105,19 +9143,19 @@
         <v>492</v>
       </c>
       <c r="C243" s="7">
-        <v>86.15000000000001</v>
+        <v>7.72</v>
       </c>
       <c r="D243" s="7">
-        <v>249</v>
+        <v>4.6</v>
       </c>
       <c r="E243" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F243" s="7">
         <v>1</v>
       </c>
       <c r="G243" s="7">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
@@ -9130,10 +9168,10 @@
         <v>494</v>
       </c>
       <c r="C244" s="7">
-        <v>135.62</v>
+        <v>91.34</v>
       </c>
       <c r="D244" s="7">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="E244" s="7">
         <v>12</v>
@@ -9142,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="G244" s="7">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H244" s="8"/>
       <c r="I244" s="8"/>
@@ -9155,10 +9193,10 @@
         <v>496</v>
       </c>
       <c r="C245" s="7">
-        <v>81.81</v>
+        <v>111.63</v>
       </c>
       <c r="D245" s="7">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="E245" s="7">
         <v>12</v>
@@ -9167,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
@@ -9180,10 +9218,10 @@
         <v>498</v>
       </c>
       <c r="C246" s="7">
-        <v>180</v>
+        <v>164.8</v>
       </c>
       <c r="D246" s="7">
-        <v>244</v>
+        <v>474</v>
       </c>
       <c r="E246" s="7">
         <v>12</v>
@@ -9192,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="G246" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H246" s="8"/>
       <c r="I246" s="8"/>
@@ -9205,10 +9243,10 @@
         <v>500</v>
       </c>
       <c r="C247" s="7">
-        <v>139.47</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="D247" s="7">
-        <v>402</v>
+        <v>249</v>
       </c>
       <c r="E247" s="7">
         <v>12</v>
@@ -9217,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="8"/>
@@ -9230,10 +9268,10 @@
         <v>502</v>
       </c>
       <c r="C248" s="7">
-        <v>147</v>
+        <v>135.62</v>
       </c>
       <c r="D248" s="7">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="E248" s="7">
         <v>12</v>
@@ -9242,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="7">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
@@ -9255,19 +9293,19 @@
         <v>504</v>
       </c>
       <c r="C249" s="7">
-        <v>6.37</v>
+        <v>81.81</v>
       </c>
       <c r="D249" s="7">
-        <v>18.4</v>
+        <v>81</v>
       </c>
       <c r="E249" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F249" s="7">
         <v>1</v>
       </c>
       <c r="G249" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H249" s="8"/>
       <c r="I249" s="8"/>
@@ -9280,19 +9318,19 @@
         <v>506</v>
       </c>
       <c r="C250" s="7">
-        <v>25.55</v>
+        <v>180</v>
       </c>
       <c r="D250" s="7">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="E250" s="7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F250" s="7">
         <v>1</v>
       </c>
       <c r="G250" s="7">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H250" s="8"/>
       <c r="I250" s="8"/>
@@ -9305,19 +9343,19 @@
         <v>508</v>
       </c>
       <c r="C251" s="7">
-        <v>17.61</v>
+        <v>139.47</v>
       </c>
       <c r="D251" s="7">
-        <v>54</v>
+        <v>402</v>
       </c>
       <c r="E251" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F251" s="7">
         <v>1</v>
       </c>
       <c r="G251" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H251" s="8"/>
       <c r="I251" s="8"/>
@@ -9330,19 +9368,19 @@
         <v>510</v>
       </c>
       <c r="C252" s="7">
-        <v>10.1</v>
+        <v>147</v>
       </c>
       <c r="D252" s="7">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="E252" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F252" s="7">
         <v>1</v>
       </c>
       <c r="G252" s="7">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="H252" s="8"/>
       <c r="I252" s="8"/>
@@ -9355,13 +9393,13 @@
         <v>512</v>
       </c>
       <c r="C253" s="7">
-        <v>21.84</v>
+        <v>6.37</v>
       </c>
       <c r="D253" s="7">
-        <v>5.2</v>
+        <v>18.4</v>
       </c>
       <c r="E253" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F253" s="7">
         <v>1</v>
@@ -9380,19 +9418,19 @@
         <v>514</v>
       </c>
       <c r="C254" s="7">
-        <v>4.85</v>
+        <v>25.55</v>
       </c>
       <c r="D254" s="7">
-        <v>12.3</v>
+        <v>3</v>
       </c>
       <c r="E254" s="7">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F254" s="7">
         <v>1</v>
       </c>
       <c r="G254" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H254" s="8"/>
       <c r="I254" s="8"/>
@@ -9405,19 +9443,19 @@
         <v>516</v>
       </c>
       <c r="C255" s="7">
-        <v>17.98</v>
+        <v>17.61</v>
       </c>
       <c r="D255" s="7">
-        <v>10.8</v>
+        <v>54</v>
       </c>
       <c r="E255" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F255" s="7">
         <v>1</v>
       </c>
       <c r="G255" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H255" s="8"/>
       <c r="I255" s="8"/>
@@ -9430,26 +9468,22 @@
         <v>518</v>
       </c>
       <c r="C256" s="7">
-        <v>167.31</v>
+        <v>10.1</v>
       </c>
       <c r="D256" s="7">
-        <v>485</v>
+        <v>37</v>
       </c>
       <c r="E256" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F256" s="7">
         <v>1</v>
       </c>
       <c r="G256" s="7">
-        <v>2.42</v>
-      </c>
-      <c r="H256" s="7">
-        <v>2.79</v>
-      </c>
-      <c r="I256" s="7">
-        <v>0.37</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
     </row>
     <row r="257" ht="13.55" customHeight="1">
       <c r="A257" t="s" s="6">
@@ -9459,26 +9493,22 @@
         <v>520</v>
       </c>
       <c r="C257" s="7">
-        <v>43.47</v>
+        <v>27.8</v>
       </c>
       <c r="D257" s="7">
-        <v>118.61</v>
+        <v>1012</v>
       </c>
       <c r="E257" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F257" s="7">
         <v>1</v>
       </c>
       <c r="G257" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H257" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="I257" s="7">
-        <v>0.18</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H257" s="8"/>
+      <c r="I257" s="8"/>
     </row>
     <row r="258" ht="13.55" customHeight="1">
       <c r="A258" t="s" s="6">
@@ -9488,26 +9518,22 @@
         <v>522</v>
       </c>
       <c r="C258" s="7">
-        <v>99.67</v>
+        <v>21.84</v>
       </c>
       <c r="D258" s="7">
-        <v>118.61</v>
+        <v>5.2</v>
       </c>
       <c r="E258" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F258" s="7">
         <v>1</v>
       </c>
       <c r="G258" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="H258" s="7">
-        <v>1.67</v>
-      </c>
-      <c r="I258" s="7">
-        <v>1.12</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
     </row>
     <row r="259" ht="13.55" customHeight="1">
       <c r="A259" t="s" s="6">
@@ -9517,10 +9543,10 @@
         <v>524</v>
       </c>
       <c r="C259" s="7">
-        <v>34.58</v>
+        <v>4.85</v>
       </c>
       <c r="D259" s="7">
-        <v>104.31</v>
+        <v>12.3</v>
       </c>
       <c r="E259" s="7">
         <v>12</v>
@@ -9529,14 +9555,10 @@
         <v>1</v>
       </c>
       <c r="G259" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="H259" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I259" s="7">
         <v>0.1</v>
       </c>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
     </row>
     <row r="260" ht="13.55" customHeight="1">
       <c r="A260" t="s" s="6">
@@ -9546,26 +9568,22 @@
         <v>526</v>
       </c>
       <c r="C260" s="7">
-        <v>45.49</v>
+        <v>17.98</v>
       </c>
       <c r="D260" s="7">
-        <v>110</v>
+        <v>10.8</v>
       </c>
       <c r="E260" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F260" s="7">
         <v>1</v>
       </c>
       <c r="G260" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H260" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="I260" s="7">
-        <v>0.26</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H260" s="8"/>
+      <c r="I260" s="8"/>
     </row>
     <row r="261" ht="13.55" customHeight="1">
       <c r="A261" t="s" s="6">
@@ -9575,26 +9593,22 @@
         <v>528</v>
       </c>
       <c r="C261" s="7">
-        <v>194.66</v>
+        <v>29.32</v>
       </c>
       <c r="D261" s="7">
-        <v>561.2</v>
+        <v>86</v>
       </c>
       <c r="E261" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F261" s="7">
         <v>1</v>
       </c>
       <c r="G261" s="7">
-        <v>3</v>
-      </c>
-      <c r="H261" s="7">
-        <v>3.25</v>
-      </c>
-      <c r="I261" s="7">
-        <v>0.25</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H261" s="8"/>
+      <c r="I261" s="8"/>
     </row>
     <row r="262" ht="13.55" customHeight="1">
       <c r="A262" t="s" s="6">
@@ -9604,10 +9618,10 @@
         <v>530</v>
       </c>
       <c r="C262" s="7">
-        <v>321.56</v>
+        <v>167.31</v>
       </c>
       <c r="D262" s="7">
-        <v>850.95</v>
+        <v>485</v>
       </c>
       <c r="E262" s="7">
         <v>12</v>
@@ -9616,13 +9630,13 @@
         <v>1</v>
       </c>
       <c r="G262" s="7">
-        <v>4.24</v>
+        <v>2.42</v>
       </c>
       <c r="H262" s="7">
-        <v>5.36</v>
+        <v>2.79</v>
       </c>
       <c r="I262" s="7">
-        <v>1.12</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="263" ht="13.55" customHeight="1">
@@ -9633,25 +9647,25 @@
         <v>532</v>
       </c>
       <c r="C263" s="7">
-        <v>28.94</v>
+        <v>43.47</v>
       </c>
       <c r="D263" s="7">
-        <v>24.88</v>
+        <v>118.61</v>
       </c>
       <c r="E263" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F263" s="7">
         <v>1</v>
       </c>
       <c r="G263" s="7">
-        <v>0.14</v>
+        <v>0.55</v>
       </c>
       <c r="H263" s="7">
-        <v>0.49</v>
+        <v>0.73</v>
       </c>
       <c r="I263" s="7">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="264" ht="13.55" customHeight="1">
@@ -9662,25 +9676,25 @@
         <v>534</v>
       </c>
       <c r="C264" s="7">
-        <v>43.34</v>
+        <v>99.67</v>
       </c>
       <c r="D264" s="7">
-        <v>24.18</v>
+        <v>118.61</v>
       </c>
       <c r="E264" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F264" s="7">
         <v>1</v>
       </c>
       <c r="G264" s="7">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
       <c r="H264" s="7">
-        <v>0.73</v>
+        <v>1.67</v>
       </c>
       <c r="I264" s="7">
-        <v>0.58</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="265" ht="13.55" customHeight="1">
@@ -9691,25 +9705,25 @@
         <v>536</v>
       </c>
       <c r="C265" s="7">
-        <v>19.21</v>
+        <v>34.58</v>
       </c>
       <c r="D265" s="7">
-        <v>5</v>
+        <v>104.31</v>
       </c>
       <c r="E265" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F265" s="7">
         <v>1</v>
       </c>
       <c r="G265" s="7">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="H265" s="7">
-        <v>0.33</v>
+        <v>0.58</v>
       </c>
       <c r="I265" s="7">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="266" ht="13.55" customHeight="1">
@@ -9720,25 +9734,25 @@
         <v>538</v>
       </c>
       <c r="C266" s="7">
-        <v>195.6</v>
+        <v>45.49</v>
       </c>
       <c r="D266" s="7">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E266" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F266" s="7">
         <v>1</v>
       </c>
       <c r="G266" s="7">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="H266" s="7">
-        <v>3.27</v>
+        <v>0.76</v>
       </c>
       <c r="I266" s="7">
-        <v>3.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="267" ht="13.55" customHeight="1">
@@ -9749,25 +9763,25 @@
         <v>540</v>
       </c>
       <c r="C267" s="7">
-        <v>31.58</v>
+        <v>194.66</v>
       </c>
       <c r="D267" s="7">
-        <v>145.52</v>
+        <v>561.2</v>
       </c>
       <c r="E267" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F267" s="7">
         <v>1</v>
       </c>
       <c r="G267" s="7">
-        <v>6.83</v>
+        <v>3</v>
       </c>
       <c r="H267" s="7">
-        <v>0.53</v>
+        <v>3.25</v>
       </c>
       <c r="I267" s="7">
-        <v>-6.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="268" ht="13.55" customHeight="1">
@@ -9778,25 +9792,25 @@
         <v>542</v>
       </c>
       <c r="C268" s="7">
-        <v>34.53</v>
+        <v>321.56</v>
       </c>
       <c r="D268" s="7">
-        <v>12.17</v>
+        <v>850.95</v>
       </c>
       <c r="E268" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F268" s="7">
         <v>1</v>
       </c>
       <c r="G268" s="7">
-        <v>0.86</v>
+        <v>4.24</v>
       </c>
       <c r="H268" s="7">
-        <v>0.58</v>
+        <v>5.36</v>
       </c>
       <c r="I268" s="7">
-        <v>-0.28</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="269" ht="13.55" customHeight="1">
@@ -9807,22 +9821,196 @@
         <v>544</v>
       </c>
       <c r="C269" s="7">
+        <v>28.94</v>
+      </c>
+      <c r="D269" s="7">
+        <v>24.88</v>
+      </c>
+      <c r="E269" s="7">
+        <v>20</v>
+      </c>
+      <c r="F269" s="7">
+        <v>1</v>
+      </c>
+      <c r="G269" s="7">
+        <v>0.14</v>
+      </c>
+      <c r="H269" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="I269" s="7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="270" ht="13.55" customHeight="1">
+      <c r="A270" t="s" s="6">
+        <v>545</v>
+      </c>
+      <c r="B270" t="s" s="6">
+        <v>546</v>
+      </c>
+      <c r="C270" s="7">
+        <v>43.34</v>
+      </c>
+      <c r="D270" s="7">
+        <v>24.18</v>
+      </c>
+      <c r="E270" s="7">
+        <v>25</v>
+      </c>
+      <c r="F270" s="7">
+        <v>1</v>
+      </c>
+      <c r="G270" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H270" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I270" s="7">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="271" ht="13.55" customHeight="1">
+      <c r="A271" t="s" s="6">
+        <v>547</v>
+      </c>
+      <c r="B271" t="s" s="6">
+        <v>548</v>
+      </c>
+      <c r="C271" s="7">
+        <v>19.21</v>
+      </c>
+      <c r="D271" s="7">
+        <v>5</v>
+      </c>
+      <c r="E271" s="7">
+        <v>32</v>
+      </c>
+      <c r="F271" s="7">
+        <v>1</v>
+      </c>
+      <c r="G271" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H271" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="I271" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="272" ht="13.55" customHeight="1">
+      <c r="A272" t="s" s="6">
+        <v>549</v>
+      </c>
+      <c r="B272" t="s" s="6">
+        <v>550</v>
+      </c>
+      <c r="C272" s="7">
+        <v>195.6</v>
+      </c>
+      <c r="D272" s="7">
+        <v>17</v>
+      </c>
+      <c r="E272" s="7">
+        <v>32</v>
+      </c>
+      <c r="F272" s="7">
+        <v>1</v>
+      </c>
+      <c r="G272" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H272" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="I272" s="7">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="273" ht="13.55" customHeight="1">
+      <c r="A273" t="s" s="6">
+        <v>551</v>
+      </c>
+      <c r="B273" t="s" s="6">
+        <v>552</v>
+      </c>
+      <c r="C273" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="D273" s="7">
+        <v>145.52</v>
+      </c>
+      <c r="E273" s="7">
+        <v>10</v>
+      </c>
+      <c r="F273" s="7">
+        <v>1</v>
+      </c>
+      <c r="G273" s="7">
+        <v>6.83</v>
+      </c>
+      <c r="H273" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I273" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="274" ht="13.55" customHeight="1">
+      <c r="A274" t="s" s="6">
+        <v>553</v>
+      </c>
+      <c r="B274" t="s" s="6">
+        <v>554</v>
+      </c>
+      <c r="C274" s="7">
+        <v>34.53</v>
+      </c>
+      <c r="D274" s="7">
+        <v>12.17</v>
+      </c>
+      <c r="E274" s="7">
+        <v>25</v>
+      </c>
+      <c r="F274" s="7">
+        <v>1</v>
+      </c>
+      <c r="G274" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H274" s="7">
+        <v>0.58</v>
+      </c>
+      <c r="I274" s="7">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="275" ht="13.55" customHeight="1">
+      <c r="A275" t="s" s="6">
+        <v>555</v>
+      </c>
+      <c r="B275" t="s" s="6">
+        <v>556</v>
+      </c>
+      <c r="C275" s="7">
         <v>9.35</v>
       </c>
-      <c r="D269" s="7">
+      <c r="D275" s="7">
         <v>30</v>
       </c>
-      <c r="E269" s="7">
+      <c r="E275" s="7">
         <v>12</v>
       </c>
-      <c r="F269" s="7">
-        <v>1</v>
-      </c>
-      <c r="G269" s="7">
+      <c r="F275" s="7">
+        <v>1</v>
+      </c>
+      <c r="G275" s="7">
         <v>0.6</v>
       </c>
-      <c r="H269" s="8"/>
-      <c r="I269" s="8"/>
+      <c r="H275" s="8"/>
+      <c r="I275" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t>timestamp</t>
   </si>
@@ -52,12 +52,6 @@
     <t>03214.slp</t>
   </si>
   <si>
-    <t>2024-09-05 08:50:02</t>
-  </si>
-  <si>
-    <t>03859.slp</t>
-  </si>
-  <si>
     <t>2024-09-25 09:18:48</t>
   </si>
   <si>
@@ -1568,12 +1562,6 @@
   </si>
   <si>
     <t>L_03909.NC</t>
-  </si>
-  <si>
-    <t>2024-09-23 10:05:40</t>
-  </si>
-  <si>
-    <t>L_04007.NC</t>
   </si>
   <si>
     <t>2024-09-10 14:41:01</t>
@@ -2925,17 +2913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I275"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.4531" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5547" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3026,12 +3010,20 @@
         <v>14</v>
       </c>
       <c r="C4" s="7">
-        <v>4.02</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+        <v>16.33</v>
+      </c>
+      <c r="D4" s="7">
+        <v>33.48</v>
+      </c>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.2</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
@@ -3043,19 +3035,19 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>16.33</v>
+        <v>122.32</v>
       </c>
       <c r="D5" s="7">
-        <v>33.48</v>
+        <v>210.4</v>
       </c>
       <c r="E5" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -3068,22 +3060,26 @@
         <v>18</v>
       </c>
       <c r="C6" s="7">
-        <v>122.32</v>
+        <v>146.86</v>
       </c>
       <c r="D6" s="7">
-        <v>210.4</v>
+        <v>420.79</v>
       </c>
       <c r="E6" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+        <v>1.98</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2.45</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="6">
@@ -3093,10 +3089,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="7">
-        <v>146.86</v>
+        <v>235.62</v>
       </c>
       <c r="D7" s="7">
-        <v>420.79</v>
+        <v>866.7</v>
       </c>
       <c r="E7" s="7">
         <v>12</v>
@@ -3105,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
       <c r="H7" s="7">
-        <v>2.45</v>
+        <v>3.93</v>
       </c>
       <c r="I7" s="7">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
@@ -3122,10 +3118,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="7">
-        <v>235.62</v>
+        <v>330.88</v>
       </c>
       <c r="D8" s="7">
-        <v>866.7</v>
+        <v>971.88</v>
       </c>
       <c r="E8" s="7">
         <v>12</v>
@@ -3134,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="H8" s="7">
-        <v>3.93</v>
+        <v>5.52</v>
       </c>
       <c r="I8" s="7">
-        <v>0.63</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
@@ -3151,25 +3147,25 @@
         <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>330.88</v>
+        <v>14.42</v>
       </c>
       <c r="D9" s="7">
-        <v>971.88</v>
+        <v>67</v>
       </c>
       <c r="E9" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>3.57</v>
+        <v>1.93</v>
       </c>
       <c r="H9" s="7">
-        <v>5.52</v>
+        <v>0.25</v>
       </c>
       <c r="I9" s="7">
-        <v>1.95</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
@@ -3180,10 +3176,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>14.42</v>
+        <v>3.32</v>
       </c>
       <c r="D10" s="7">
-        <v>67</v>
+        <v>6.7</v>
       </c>
       <c r="E10" s="7">
         <v>3</v>
@@ -3192,13 +3188,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>1.93</v>
+        <v>0.02</v>
       </c>
       <c r="H10" s="7">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="I10" s="7">
-        <v>-1.68</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
@@ -3209,25 +3205,25 @@
         <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>3.32</v>
+        <v>0.92</v>
       </c>
       <c r="D11" s="7">
-        <v>6.7</v>
+        <v>3.03</v>
       </c>
       <c r="E11" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="7">
         <v>0.02</v>
       </c>
-      <c r="H11" s="7">
-        <v>0.06</v>
-      </c>
       <c r="I11" s="7">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
@@ -3238,13 +3234,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="D12" s="7">
-        <v>3.03</v>
+        <v>5.59</v>
       </c>
       <c r="E12" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -3267,25 +3263,25 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>1.18</v>
+        <v>158.01</v>
       </c>
       <c r="D13" s="7">
-        <v>5.59</v>
+        <v>456.43</v>
       </c>
       <c r="E13" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
       <c r="G13" s="7">
-        <v>0.01</v>
+        <v>2.67</v>
       </c>
       <c r="H13" s="7">
-        <v>0.02</v>
+        <v>2.64</v>
       </c>
       <c r="I13" s="7">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
@@ -3296,10 +3292,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>158.01</v>
+        <v>209.33</v>
       </c>
       <c r="D14" s="7">
-        <v>456.43</v>
+        <v>937</v>
       </c>
       <c r="E14" s="7">
         <v>12</v>
@@ -3308,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>2.67</v>
+        <v>5.17</v>
       </c>
       <c r="H14" s="7">
-        <v>2.64</v>
+        <v>3.49</v>
       </c>
       <c r="I14" s="7">
-        <v>-0.03</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
@@ -3325,10 +3321,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="7">
-        <v>209.33</v>
+        <v>161.87</v>
       </c>
       <c r="D15" s="7">
-        <v>937</v>
+        <v>451</v>
       </c>
       <c r="E15" s="7">
         <v>12</v>
@@ -3337,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>5.17</v>
+        <v>2.48</v>
       </c>
       <c r="H15" s="7">
-        <v>3.49</v>
+        <v>2.7</v>
       </c>
       <c r="I15" s="7">
-        <v>-1.68</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
@@ -3354,25 +3350,25 @@
         <v>38</v>
       </c>
       <c r="C16" s="7">
-        <v>161.87</v>
+        <v>206.06</v>
       </c>
       <c r="D16" s="7">
-        <v>451</v>
+        <v>193.49</v>
       </c>
       <c r="E16" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>2.48</v>
+        <v>5.8</v>
       </c>
       <c r="H16" s="7">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="I16" s="7">
-        <v>-0.22</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
@@ -3383,10 +3379,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>206.06</v>
+        <v>273.9</v>
       </c>
       <c r="D17" s="7">
-        <v>193.49</v>
+        <v>219.37</v>
       </c>
       <c r="E17" s="7">
         <v>16</v>
@@ -3395,13 +3391,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="7">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H17" s="7">
-        <v>3.44</v>
+        <v>4.57</v>
       </c>
       <c r="I17" s="7">
-        <v>-2.36</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
@@ -3412,25 +3408,25 @@
         <v>42</v>
       </c>
       <c r="C18" s="7">
-        <v>273.9</v>
+        <v>17.87</v>
       </c>
       <c r="D18" s="7">
-        <v>219.37</v>
+        <v>78.2</v>
       </c>
       <c r="E18" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H18" s="7">
-        <v>4.57</v>
+        <v>0.3</v>
       </c>
       <c r="I18" s="7">
-        <v>-2.03</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
@@ -3441,10 +3437,10 @@
         <v>44</v>
       </c>
       <c r="C19" s="7">
-        <v>17.87</v>
+        <v>4.87</v>
       </c>
       <c r="D19" s="7">
-        <v>78.2</v>
+        <v>30</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -3453,13 +3449,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>2.3</v>
+        <v>0.87</v>
       </c>
       <c r="H19" s="7">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="I19" s="7">
-        <v>-2</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
@@ -3470,10 +3466,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>4.87</v>
+        <v>5.55</v>
       </c>
       <c r="D20" s="7">
-        <v>30</v>
+        <v>34.25</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
@@ -3482,13 +3478,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I20" s="7">
-        <v>-0.78</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
@@ -3499,10 +3495,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="7">
-        <v>5.55</v>
+        <v>5.66</v>
       </c>
       <c r="D21" s="7">
-        <v>34.25</v>
+        <v>27.37</v>
       </c>
       <c r="E21" s="7">
         <v>3</v>
@@ -3511,13 +3507,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="7">
         <v>0.1</v>
       </c>
       <c r="I21" s="7">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
@@ -3528,26 +3524,22 @@
         <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>5.66</v>
+        <v>23.69</v>
       </c>
       <c r="D22" s="7">
-        <v>27.37</v>
+        <v>24</v>
       </c>
       <c r="E22" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="H22" s="7">
         <v>0.1</v>
       </c>
-      <c r="I22" s="7">
-        <v>-0.7</v>
-      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="6">
@@ -3557,10 +3549,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="7">
-        <v>23.69</v>
+        <v>10.3</v>
       </c>
       <c r="D23" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E23" s="7">
         <v>10</v>
@@ -3582,22 +3574,26 @@
         <v>54</v>
       </c>
       <c r="C24" s="7">
-        <v>10.3</v>
+        <v>6.17</v>
       </c>
       <c r="D24" s="7">
-        <v>12</v>
+        <v>23.8</v>
       </c>
       <c r="E24" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+        <v>0.13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="I24" s="7">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="6">
@@ -3607,10 +3603,10 @@
         <v>56</v>
       </c>
       <c r="C25" s="7">
-        <v>6.17</v>
+        <v>6.65</v>
       </c>
       <c r="D25" s="7">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="E25" s="7">
         <v>3</v>
@@ -3619,10 +3615,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="H25" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I25" s="7">
         <v>-0.02</v>
@@ -3636,10 +3632,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="7">
-        <v>6.65</v>
+        <v>7.18</v>
       </c>
       <c r="D26" s="7">
-        <v>24.8</v>
+        <v>26.7</v>
       </c>
       <c r="E26" s="7">
         <v>3</v>
@@ -3665,10 +3661,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="7">
-        <v>7.18</v>
+        <v>21.94</v>
       </c>
       <c r="D27" s="7">
-        <v>26.7</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7">
         <v>3</v>
@@ -3677,13 +3673,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="7">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="H27" s="7">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="I27" s="7">
-        <v>-0.02</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
@@ -3694,25 +3690,25 @@
         <v>62</v>
       </c>
       <c r="C28" s="7">
-        <v>21.94</v>
+        <v>30.37</v>
       </c>
       <c r="D28" s="7">
-        <v>9</v>
+        <v>116.8</v>
       </c>
       <c r="E28" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="7">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="I28" s="7">
-        <v>0.32</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
@@ -3723,10 +3719,10 @@
         <v>64</v>
       </c>
       <c r="C29" s="7">
-        <v>30.37</v>
+        <v>19.9</v>
       </c>
       <c r="D29" s="7">
-        <v>116.8</v>
+        <v>69.682</v>
       </c>
       <c r="E29" s="7">
         <v>10</v>
@@ -3735,13 +3731,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="I29" s="7">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
@@ -3752,10 +3748,10 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>19.9</v>
+        <v>15.77</v>
       </c>
       <c r="D30" s="7">
-        <v>69.682</v>
+        <v>27.16</v>
       </c>
       <c r="E30" s="7">
         <v>10</v>
@@ -3764,13 +3760,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="7">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="I30" s="7">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
@@ -3781,25 +3777,25 @@
         <v>68</v>
       </c>
       <c r="C31" s="7">
-        <v>15.77</v>
+        <v>11.26</v>
       </c>
       <c r="D31" s="7">
-        <v>27.16</v>
+        <v>50.5</v>
       </c>
       <c r="E31" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="H31" s="7">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I31" s="7">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
@@ -3810,25 +3806,25 @@
         <v>70</v>
       </c>
       <c r="C32" s="7">
-        <v>11.26</v>
+        <v>3.76</v>
       </c>
       <c r="D32" s="7">
-        <v>50.5</v>
+        <v>19.7</v>
       </c>
       <c r="E32" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="7">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="H32" s="7">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" s="7">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
@@ -3839,25 +3835,25 @@
         <v>72</v>
       </c>
       <c r="C33" s="7">
-        <v>3.76</v>
+        <v>25.79</v>
       </c>
       <c r="D33" s="7">
-        <v>19.7</v>
+        <v>18.9</v>
       </c>
       <c r="E33" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="H33" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="I33" s="7">
-        <v>0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
@@ -3868,25 +3864,25 @@
         <v>74</v>
       </c>
       <c r="C34" s="7">
-        <v>25.79</v>
+        <v>3.77</v>
       </c>
       <c r="D34" s="7">
-        <v>18.9</v>
+        <v>12.5</v>
       </c>
       <c r="E34" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F34" s="7">
         <v>1</v>
       </c>
       <c r="G34" s="7">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="H34" s="7">
-        <v>0.43</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I34" s="7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
@@ -3897,22 +3893,22 @@
         <v>76</v>
       </c>
       <c r="C35" s="7">
-        <v>3.77</v>
+        <v>2.98</v>
       </c>
       <c r="D35" s="7">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="E35" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
       <c r="G35" s="7">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="H35" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I35" s="7">
         <v>0.06</v>
@@ -3926,26 +3922,24 @@
         <v>78</v>
       </c>
       <c r="C36" s="7">
-        <v>2.98</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D36" s="7">
-        <v>13.7</v>
+        <v>2</v>
       </c>
       <c r="E36" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H36" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0.06</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="6">
@@ -3955,13 +3949,13 @@
         <v>80</v>
       </c>
       <c r="C37" s="7">
-        <v>0.5600000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="D37" s="7">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E37" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
@@ -3970,9 +3964,11 @@
         <v>0.01</v>
       </c>
       <c r="H37" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I37" s="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="I37" s="7">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="6">
@@ -3982,13 +3978,13 @@
         <v>82</v>
       </c>
       <c r="C38" s="7">
-        <v>3.48</v>
+        <v>4.16</v>
       </c>
       <c r="D38" s="7">
-        <v>1.2</v>
+        <v>0.33</v>
       </c>
       <c r="E38" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F38" s="7">
         <v>1</v>
@@ -3997,10 +3993,10 @@
         <v>0.01</v>
       </c>
       <c r="H38" s="7">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" s="7">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="39" ht="13.55" customHeight="1">
@@ -4011,13 +4007,13 @@
         <v>84</v>
       </c>
       <c r="C39" s="7">
-        <v>4.16</v>
+        <v>0.39</v>
       </c>
       <c r="D39" s="7">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="E39" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
@@ -4026,10 +4022,10 @@
         <v>0.01</v>
       </c>
       <c r="H39" s="7">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I39" s="7">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
@@ -4040,13 +4036,13 @@
         <v>86</v>
       </c>
       <c r="C40" s="7">
-        <v>0.39</v>
+        <v>1.23</v>
       </c>
       <c r="D40" s="7">
-        <v>3</v>
+        <v>2.428</v>
       </c>
       <c r="E40" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
@@ -4055,10 +4051,10 @@
         <v>0.01</v>
       </c>
       <c r="H40" s="7">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
@@ -4069,26 +4065,24 @@
         <v>88</v>
       </c>
       <c r="C41" s="7">
-        <v>1.23</v>
+        <v>3.13</v>
       </c>
       <c r="D41" s="7">
-        <v>2.428</v>
+        <v>7.3</v>
       </c>
       <c r="E41" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="7">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H41" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="I41" s="7">
-        <v>-0.02</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="6">
@@ -4098,22 +4092,22 @@
         <v>90</v>
       </c>
       <c r="C42" s="7">
-        <v>3.13</v>
+        <v>0.35</v>
       </c>
       <c r="D42" s="7">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7">
         <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="H42" s="7">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I42" s="8"/>
     </row>
@@ -4125,24 +4119,26 @@
         <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>0.35</v>
+        <v>5.83</v>
       </c>
       <c r="D43" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="7">
         <v>0.01</v>
       </c>
-      <c r="H43" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="I43" s="8"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="6">
@@ -4152,25 +4148,25 @@
         <v>94</v>
       </c>
       <c r="C44" s="7">
-        <v>5.83</v>
+        <v>7.43</v>
       </c>
       <c r="D44" s="7">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="E44" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H44" s="7">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I44" s="7">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="45" ht="13.55" customHeight="1">
@@ -4181,25 +4177,25 @@
         <v>96</v>
       </c>
       <c r="C45" s="7">
-        <v>7.43</v>
+        <v>10.63</v>
       </c>
       <c r="D45" s="7">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="E45" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="7">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="H45" s="7">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I45" s="7">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="46" ht="13.55" customHeight="1">
@@ -4210,10 +4206,10 @@
         <v>98</v>
       </c>
       <c r="C46" s="7">
-        <v>10.63</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D46" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="7">
         <v>25</v>
@@ -4222,13 +4218,13 @@
         <v>1</v>
       </c>
       <c r="G46" s="7">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="H46" s="7">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I46" s="7">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="47" ht="13.55" customHeight="1">
@@ -4239,26 +4235,22 @@
         <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>8.880000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="D47" s="7">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="E47" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="I47" s="7">
-        <v>-0.14</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="6">
@@ -4268,19 +4260,19 @@
         <v>102</v>
       </c>
       <c r="C48" s="7">
-        <v>2.71</v>
+        <v>144.21</v>
       </c>
       <c r="D48" s="7">
-        <v>13.7</v>
+        <v>90.3</v>
       </c>
       <c r="E48" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F48" s="7">
         <v>1</v>
       </c>
       <c r="G48" s="7">
-        <v>0.28</v>
+        <v>3</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -4293,19 +4285,19 @@
         <v>104</v>
       </c>
       <c r="C49" s="7">
-        <v>144.21</v>
+        <v>12.15</v>
       </c>
       <c r="D49" s="7">
-        <v>90.3</v>
+        <v>77</v>
       </c>
       <c r="E49" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F49" s="7">
         <v>1</v>
       </c>
       <c r="G49" s="7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -4318,10 +4310,10 @@
         <v>106</v>
       </c>
       <c r="C50" s="7">
-        <v>12.15</v>
+        <v>4.45</v>
       </c>
       <c r="D50" s="7">
-        <v>77</v>
+        <v>17.8</v>
       </c>
       <c r="E50" s="7">
         <v>8</v>
@@ -4330,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="7">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -4343,13 +4335,13 @@
         <v>108</v>
       </c>
       <c r="C51" s="7">
-        <v>4.45</v>
+        <v>3.12</v>
       </c>
       <c r="D51" s="7">
-        <v>17.8</v>
+        <v>11.7</v>
       </c>
       <c r="E51" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F51" s="7">
         <v>1</v>
@@ -4368,19 +4360,19 @@
         <v>110</v>
       </c>
       <c r="C52" s="7">
-        <v>3.12</v>
+        <v>4.28</v>
       </c>
       <c r="D52" s="7">
-        <v>11.7</v>
+        <v>13.5</v>
       </c>
       <c r="E52" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
       </c>
       <c r="G52" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -4393,10 +4385,10 @@
         <v>112</v>
       </c>
       <c r="C53" s="7">
-        <v>4.28</v>
+        <v>3.26</v>
       </c>
       <c r="D53" s="7">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="E53" s="7">
         <v>12</v>
@@ -4418,13 +4410,13 @@
         <v>114</v>
       </c>
       <c r="C54" s="7">
-        <v>3.26</v>
+        <v>15.61</v>
       </c>
       <c r="D54" s="7">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="E54" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F54" s="7">
         <v>1</v>
@@ -4443,19 +4435,19 @@
         <v>116</v>
       </c>
       <c r="C55" s="7">
-        <v>15.61</v>
+        <v>9.58</v>
       </c>
       <c r="D55" s="7">
-        <v>14.3</v>
+        <v>40.2</v>
       </c>
       <c r="E55" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F55" s="7">
         <v>1</v>
       </c>
       <c r="G55" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -4468,19 +4460,19 @@
         <v>118</v>
       </c>
       <c r="C56" s="7">
-        <v>9.58</v>
+        <v>12.55</v>
       </c>
       <c r="D56" s="7">
-        <v>40.2</v>
+        <v>55</v>
       </c>
       <c r="E56" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F56" s="7">
         <v>1</v>
       </c>
       <c r="G56" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -4493,10 +4485,10 @@
         <v>120</v>
       </c>
       <c r="C57" s="7">
-        <v>12.55</v>
+        <v>19.1</v>
       </c>
       <c r="D57" s="7">
-        <v>55</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E57" s="7">
         <v>4</v>
@@ -4518,19 +4510,19 @@
         <v>122</v>
       </c>
       <c r="C58" s="7">
-        <v>19.1</v>
+        <v>24.33</v>
       </c>
       <c r="D58" s="7">
-        <v>90.90000000000001</v>
+        <v>211.504</v>
       </c>
       <c r="E58" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F58" s="7">
         <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -4543,19 +4535,19 @@
         <v>124</v>
       </c>
       <c r="C59" s="7">
-        <v>24.33</v>
+        <v>25.6</v>
       </c>
       <c r="D59" s="7">
-        <v>211.504</v>
+        <v>24.5</v>
       </c>
       <c r="E59" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F59" s="7">
         <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -4568,10 +4560,10 @@
         <v>126</v>
       </c>
       <c r="C60" s="7">
-        <v>25.6</v>
+        <v>156.12</v>
       </c>
       <c r="D60" s="7">
-        <v>24.5</v>
+        <v>242.709</v>
       </c>
       <c r="E60" s="7">
         <v>12</v>
@@ -4580,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -4593,10 +4585,10 @@
         <v>128</v>
       </c>
       <c r="C61" s="7">
-        <v>156.12</v>
+        <v>30.88</v>
       </c>
       <c r="D61" s="7">
-        <v>242.709</v>
+        <v>110.075</v>
       </c>
       <c r="E61" s="7">
         <v>12</v>
@@ -4605,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -4618,10 +4610,10 @@
         <v>130</v>
       </c>
       <c r="C62" s="7">
-        <v>30.88</v>
+        <v>10</v>
       </c>
       <c r="D62" s="7">
-        <v>110.075</v>
+        <v>14.012</v>
       </c>
       <c r="E62" s="7">
         <v>12</v>
@@ -4630,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -4643,19 +4635,19 @@
         <v>132</v>
       </c>
       <c r="C63" s="7">
+        <v>88.03</v>
+      </c>
+      <c r="D63" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="E63" s="7">
         <v>10</v>
       </c>
-      <c r="D63" s="7">
-        <v>14.012</v>
-      </c>
-      <c r="E63" s="7">
-        <v>12</v>
-      </c>
       <c r="F63" s="7">
         <v>1</v>
       </c>
       <c r="G63" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
@@ -4668,10 +4660,10 @@
         <v>134</v>
       </c>
       <c r="C64" s="7">
-        <v>88.03</v>
+        <v>25.66</v>
       </c>
       <c r="D64" s="7">
-        <v>30.4</v>
+        <v>135.2</v>
       </c>
       <c r="E64" s="7">
         <v>10</v>
@@ -4680,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -4693,10 +4685,10 @@
         <v>136</v>
       </c>
       <c r="C65" s="7">
-        <v>25.66</v>
+        <v>20.96</v>
       </c>
       <c r="D65" s="7">
-        <v>135.2</v>
+        <v>118.6</v>
       </c>
       <c r="E65" s="7">
         <v>10</v>
@@ -4718,10 +4710,10 @@
         <v>138</v>
       </c>
       <c r="C66" s="7">
-        <v>20.96</v>
+        <v>24.99</v>
       </c>
       <c r="D66" s="7">
-        <v>118.6</v>
+        <v>135.112</v>
       </c>
       <c r="E66" s="7">
         <v>10</v>
@@ -4743,10 +4735,10 @@
         <v>140</v>
       </c>
       <c r="C67" s="7">
-        <v>24.99</v>
+        <v>25.58</v>
       </c>
       <c r="D67" s="7">
-        <v>135.112</v>
+        <v>135.1</v>
       </c>
       <c r="E67" s="7">
         <v>10</v>
@@ -4768,10 +4760,10 @@
         <v>142</v>
       </c>
       <c r="C68" s="7">
-        <v>25.58</v>
+        <v>60.31</v>
       </c>
       <c r="D68" s="7">
-        <v>135.1</v>
+        <v>313.297</v>
       </c>
       <c r="E68" s="7">
         <v>10</v>
@@ -4780,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -4793,10 +4785,10 @@
         <v>144</v>
       </c>
       <c r="C69" s="7">
-        <v>60.31</v>
+        <v>25.52</v>
       </c>
       <c r="D69" s="7">
-        <v>313.297</v>
+        <v>137</v>
       </c>
       <c r="E69" s="7">
         <v>10</v>
@@ -4818,10 +4810,10 @@
         <v>146</v>
       </c>
       <c r="C70" s="7">
-        <v>25.52</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="D70" s="7">
-        <v>137</v>
+        <v>474.621</v>
       </c>
       <c r="E70" s="7">
         <v>10</v>
@@ -4830,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="7">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -4843,10 +4835,10 @@
         <v>148</v>
       </c>
       <c r="C71" s="7">
-        <v>82.26000000000001</v>
+        <v>14.13</v>
       </c>
       <c r="D71" s="7">
-        <v>474.621</v>
+        <v>34</v>
       </c>
       <c r="E71" s="7">
         <v>10</v>
@@ -4855,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="7">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -4868,10 +4860,10 @@
         <v>150</v>
       </c>
       <c r="C72" s="7">
-        <v>14.13</v>
+        <v>9.57</v>
       </c>
       <c r="D72" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E72" s="7">
         <v>10</v>
@@ -4893,10 +4885,10 @@
         <v>152</v>
       </c>
       <c r="C73" s="7">
-        <v>9.57</v>
+        <v>60.44</v>
       </c>
       <c r="D73" s="7">
-        <v>25</v>
+        <v>81.459</v>
       </c>
       <c r="E73" s="7">
         <v>10</v>
@@ -4918,10 +4910,10 @@
         <v>154</v>
       </c>
       <c r="C74" s="7">
-        <v>60.44</v>
+        <v>49.26</v>
       </c>
       <c r="D74" s="7">
-        <v>81.459</v>
+        <v>183.288</v>
       </c>
       <c r="E74" s="7">
         <v>10</v>
@@ -4930,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -4943,19 +4935,19 @@
         <v>156</v>
       </c>
       <c r="C75" s="7">
-        <v>49.26</v>
+        <v>0.29</v>
       </c>
       <c r="D75" s="7">
-        <v>183.288</v>
+        <v>1.5</v>
       </c>
       <c r="E75" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F75" s="7">
         <v>1</v>
       </c>
       <c r="G75" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
@@ -4968,13 +4960,13 @@
         <v>158</v>
       </c>
       <c r="C76" s="7">
-        <v>0.29</v>
+        <v>37.15</v>
       </c>
       <c r="D76" s="7">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="E76" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F76" s="7">
         <v>1</v>
@@ -4993,13 +4985,13 @@
         <v>160</v>
       </c>
       <c r="C77" s="7">
-        <v>37.15</v>
+        <v>12.76</v>
       </c>
       <c r="D77" s="7">
-        <v>7.5</v>
+        <v>24.919</v>
       </c>
       <c r="E77" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F77" s="7">
         <v>1</v>
@@ -5018,10 +5010,10 @@
         <v>162</v>
       </c>
       <c r="C78" s="7">
-        <v>12.76</v>
+        <v>20.38</v>
       </c>
       <c r="D78" s="7">
-        <v>24.919</v>
+        <v>74.434</v>
       </c>
       <c r="E78" s="7">
         <v>12</v>
@@ -5030,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -5043,10 +5035,10 @@
         <v>164</v>
       </c>
       <c r="C79" s="7">
-        <v>20.38</v>
+        <v>10.35</v>
       </c>
       <c r="D79" s="7">
-        <v>74.434</v>
+        <v>35.091</v>
       </c>
       <c r="E79" s="7">
         <v>12</v>
@@ -5068,10 +5060,10 @@
         <v>166</v>
       </c>
       <c r="C80" s="7">
-        <v>10.35</v>
+        <v>17.77</v>
       </c>
       <c r="D80" s="7">
-        <v>35.091</v>
+        <v>65.682</v>
       </c>
       <c r="E80" s="7">
         <v>12</v>
@@ -5093,10 +5085,10 @@
         <v>168</v>
       </c>
       <c r="C81" s="7">
-        <v>17.77</v>
+        <v>18.06</v>
       </c>
       <c r="D81" s="7">
-        <v>65.682</v>
+        <v>56.867</v>
       </c>
       <c r="E81" s="7">
         <v>12</v>
@@ -5105,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -5118,10 +5110,10 @@
         <v>170</v>
       </c>
       <c r="C82" s="7">
-        <v>18.06</v>
+        <v>10.45</v>
       </c>
       <c r="D82" s="7">
-        <v>56.867</v>
+        <v>35.097</v>
       </c>
       <c r="E82" s="7">
         <v>12</v>
@@ -5130,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -5143,10 +5135,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="7">
-        <v>10.45</v>
+        <v>20.83</v>
       </c>
       <c r="D83" s="7">
-        <v>35.097</v>
+        <v>68.786</v>
       </c>
       <c r="E83" s="7">
         <v>12</v>
@@ -5155,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -5168,10 +5160,10 @@
         <v>174</v>
       </c>
       <c r="C84" s="7">
-        <v>20.83</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D84" s="7">
-        <v>68.786</v>
+        <v>33</v>
       </c>
       <c r="E84" s="7">
         <v>12</v>
@@ -5180,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -5193,10 +5185,10 @@
         <v>176</v>
       </c>
       <c r="C85" s="7">
-        <v>9.119999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="D85" s="7">
-        <v>33</v>
+        <v>33.19</v>
       </c>
       <c r="E85" s="7">
         <v>12</v>
@@ -5218,7 +5210,7 @@
         <v>178</v>
       </c>
       <c r="C86" s="7">
-        <v>9.24</v>
+        <v>9.18</v>
       </c>
       <c r="D86" s="7">
         <v>33.19</v>
@@ -5243,10 +5235,10 @@
         <v>180</v>
       </c>
       <c r="C87" s="7">
-        <v>9.18</v>
+        <v>17.9</v>
       </c>
       <c r="D87" s="7">
-        <v>33.19</v>
+        <v>60.542</v>
       </c>
       <c r="E87" s="7">
         <v>12</v>
@@ -5255,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
@@ -5268,10 +5260,10 @@
         <v>182</v>
       </c>
       <c r="C88" s="7">
-        <v>17.9</v>
+        <v>39.59</v>
       </c>
       <c r="D88" s="7">
-        <v>60.542</v>
+        <v>135.375</v>
       </c>
       <c r="E88" s="7">
         <v>12</v>
@@ -5293,10 +5285,10 @@
         <v>184</v>
       </c>
       <c r="C89" s="7">
-        <v>39.59</v>
+        <v>21.3</v>
       </c>
       <c r="D89" s="7">
-        <v>135.375</v>
+        <v>73.223</v>
       </c>
       <c r="E89" s="7">
         <v>12</v>
@@ -5305,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="7">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
@@ -5318,10 +5310,10 @@
         <v>186</v>
       </c>
       <c r="C90" s="7">
-        <v>21.3</v>
+        <v>8.65</v>
       </c>
       <c r="D90" s="7">
-        <v>73.223</v>
+        <v>28.483</v>
       </c>
       <c r="E90" s="7">
         <v>12</v>
@@ -5330,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
@@ -5343,10 +5335,10 @@
         <v>188</v>
       </c>
       <c r="C91" s="7">
-        <v>8.65</v>
+        <v>10.25</v>
       </c>
       <c r="D91" s="7">
-        <v>28.483</v>
+        <v>36.532</v>
       </c>
       <c r="E91" s="7">
         <v>12</v>
@@ -5368,10 +5360,10 @@
         <v>190</v>
       </c>
       <c r="C92" s="7">
-        <v>10.25</v>
+        <v>12.29</v>
       </c>
       <c r="D92" s="7">
-        <v>36.532</v>
+        <v>38.502</v>
       </c>
       <c r="E92" s="7">
         <v>12</v>
@@ -5380,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -5393,10 +5385,10 @@
         <v>192</v>
       </c>
       <c r="C93" s="7">
-        <v>12.29</v>
+        <v>13.27</v>
       </c>
       <c r="D93" s="7">
-        <v>38.502</v>
+        <v>46</v>
       </c>
       <c r="E93" s="7">
         <v>12</v>
@@ -5405,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
@@ -5418,10 +5410,10 @@
         <v>194</v>
       </c>
       <c r="C94" s="7">
-        <v>13.27</v>
+        <v>3.32</v>
       </c>
       <c r="D94" s="7">
-        <v>46</v>
+        <v>11.6</v>
       </c>
       <c r="E94" s="7">
         <v>12</v>
@@ -5430,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
@@ -5443,10 +5435,10 @@
         <v>196</v>
       </c>
       <c r="C95" s="7">
-        <v>3.32</v>
+        <v>9.5</v>
       </c>
       <c r="D95" s="7">
-        <v>11.6</v>
+        <v>33.457</v>
       </c>
       <c r="E95" s="7">
         <v>12</v>
@@ -5455,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
@@ -5468,10 +5460,10 @@
         <v>198</v>
       </c>
       <c r="C96" s="7">
-        <v>9.5</v>
+        <v>5.32</v>
       </c>
       <c r="D96" s="7">
-        <v>33.457</v>
+        <v>19.7</v>
       </c>
       <c r="E96" s="7">
         <v>12</v>
@@ -5480,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
@@ -5493,10 +5485,10 @@
         <v>200</v>
       </c>
       <c r="C97" s="7">
-        <v>5.32</v>
+        <v>10.58</v>
       </c>
       <c r="D97" s="7">
-        <v>19.7</v>
+        <v>37.2</v>
       </c>
       <c r="E97" s="7">
         <v>12</v>
@@ -5505,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
@@ -5518,10 +5510,10 @@
         <v>202</v>
       </c>
       <c r="C98" s="7">
-        <v>10.58</v>
+        <v>12.29</v>
       </c>
       <c r="D98" s="7">
-        <v>37.2</v>
+        <v>56.8</v>
       </c>
       <c r="E98" s="7">
         <v>12</v>
@@ -5530,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
@@ -5543,10 +5535,10 @@
         <v>204</v>
       </c>
       <c r="C99" s="7">
-        <v>12.29</v>
+        <v>30.09</v>
       </c>
       <c r="D99" s="7">
-        <v>56.8</v>
+        <v>84.102</v>
       </c>
       <c r="E99" s="7">
         <v>12</v>
@@ -5555,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="G99" s="7">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -5568,10 +5560,10 @@
         <v>206</v>
       </c>
       <c r="C100" s="7">
-        <v>30.09</v>
+        <v>42.54</v>
       </c>
       <c r="D100" s="7">
-        <v>84.102</v>
+        <v>122</v>
       </c>
       <c r="E100" s="7">
         <v>12</v>
@@ -5593,7 +5585,7 @@
         <v>208</v>
       </c>
       <c r="C101" s="7">
-        <v>42.54</v>
+        <v>42.62</v>
       </c>
       <c r="D101" s="7">
         <v>122</v>
@@ -5605,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="7">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -5618,10 +5610,10 @@
         <v>210</v>
       </c>
       <c r="C102" s="7">
-        <v>42.62</v>
+        <v>32.67</v>
       </c>
       <c r="D102" s="7">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E102" s="7">
         <v>12</v>
@@ -5630,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="7">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -5643,10 +5635,10 @@
         <v>212</v>
       </c>
       <c r="C103" s="7">
-        <v>32.67</v>
+        <v>69.61</v>
       </c>
       <c r="D103" s="7">
-        <v>107</v>
+        <v>248.201</v>
       </c>
       <c r="E103" s="7">
         <v>12</v>
@@ -5655,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="7">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -5668,7 +5660,7 @@
         <v>214</v>
       </c>
       <c r="C104" s="7">
-        <v>69.61</v>
+        <v>84.97</v>
       </c>
       <c r="D104" s="7">
         <v>248.201</v>
@@ -5693,7 +5685,7 @@
         <v>216</v>
       </c>
       <c r="C105" s="7">
-        <v>84.97</v>
+        <v>120.91</v>
       </c>
       <c r="D105" s="7">
         <v>248.201</v>
@@ -5718,10 +5710,10 @@
         <v>218</v>
       </c>
       <c r="C106" s="7">
-        <v>120.91</v>
+        <v>130.17</v>
       </c>
       <c r="D106" s="7">
-        <v>248.201</v>
+        <v>207</v>
       </c>
       <c r="E106" s="7">
         <v>12</v>
@@ -5743,10 +5735,10 @@
         <v>220</v>
       </c>
       <c r="C107" s="7">
-        <v>130.17</v>
+        <v>11.85</v>
       </c>
       <c r="D107" s="7">
-        <v>207</v>
+        <v>34.5</v>
       </c>
       <c r="E107" s="7">
         <v>12</v>
@@ -5755,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="7">
-        <v>3</v>
+        <v>0.53</v>
       </c>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
@@ -5768,10 +5760,10 @@
         <v>222</v>
       </c>
       <c r="C108" s="7">
-        <v>11.85</v>
+        <v>17.89</v>
       </c>
       <c r="D108" s="7">
-        <v>34.5</v>
+        <v>48.7</v>
       </c>
       <c r="E108" s="7">
         <v>12</v>
@@ -5780,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
@@ -5793,10 +5785,10 @@
         <v>224</v>
       </c>
       <c r="C109" s="7">
-        <v>17.89</v>
+        <v>21.89</v>
       </c>
       <c r="D109" s="7">
-        <v>48.7</v>
+        <v>24</v>
       </c>
       <c r="E109" s="7">
         <v>12</v>
@@ -5805,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -5818,19 +5810,19 @@
         <v>226</v>
       </c>
       <c r="C110" s="7">
-        <v>21.89</v>
+        <v>0.49</v>
       </c>
       <c r="D110" s="7">
-        <v>24</v>
+        <v>2.234</v>
       </c>
       <c r="E110" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F110" s="7">
         <v>1</v>
       </c>
       <c r="G110" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
@@ -5843,19 +5835,19 @@
         <v>228</v>
       </c>
       <c r="C111" s="7">
-        <v>0.49</v>
+        <v>68.42</v>
       </c>
       <c r="D111" s="7">
-        <v>2.234</v>
+        <v>216.554</v>
       </c>
       <c r="E111" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F111" s="7">
         <v>1</v>
       </c>
       <c r="G111" s="7">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
@@ -5868,10 +5860,10 @@
         <v>230</v>
       </c>
       <c r="C112" s="7">
-        <v>68.42</v>
+        <v>216.38</v>
       </c>
       <c r="D112" s="7">
-        <v>216.554</v>
+        <v>450.756</v>
       </c>
       <c r="E112" s="7">
         <v>12</v>
@@ -5880,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="7">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -5893,10 +5885,10 @@
         <v>232</v>
       </c>
       <c r="C113" s="7">
-        <v>216.38</v>
+        <v>22.31</v>
       </c>
       <c r="D113" s="7">
-        <v>450.756</v>
+        <v>45</v>
       </c>
       <c r="E113" s="7">
         <v>12</v>
@@ -5918,13 +5910,13 @@
         <v>234</v>
       </c>
       <c r="C114" s="7">
-        <v>22.31</v>
+        <v>1.38</v>
       </c>
       <c r="D114" s="7">
-        <v>45</v>
+        <v>5.475</v>
       </c>
       <c r="E114" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F114" s="7">
         <v>1</v>
@@ -5943,13 +5935,13 @@
         <v>236</v>
       </c>
       <c r="C115" s="7">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="D115" s="7">
-        <v>5.475</v>
+        <v>5.493</v>
       </c>
       <c r="E115" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F115" s="7">
         <v>1</v>
@@ -5968,13 +5960,13 @@
         <v>238</v>
       </c>
       <c r="C116" s="7">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="D116" s="7">
-        <v>5.493</v>
+        <v>5.6</v>
       </c>
       <c r="E116" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F116" s="7">
         <v>1</v>
@@ -5993,13 +5985,13 @@
         <v>240</v>
       </c>
       <c r="C117" s="7">
-        <v>1.42</v>
+        <v>0.49</v>
       </c>
       <c r="D117" s="7">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="E117" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F117" s="7">
         <v>1</v>
@@ -6018,13 +6010,13 @@
         <v>242</v>
       </c>
       <c r="C118" s="7">
-        <v>0.49</v>
+        <v>6.32</v>
       </c>
       <c r="D118" s="7">
-        <v>1.7</v>
+        <v>32.054</v>
       </c>
       <c r="E118" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F118" s="7">
         <v>1</v>
@@ -6043,13 +6035,13 @@
         <v>244</v>
       </c>
       <c r="C119" s="7">
-        <v>6.32</v>
+        <v>26.16</v>
       </c>
       <c r="D119" s="7">
-        <v>32.054</v>
+        <v>26.938</v>
       </c>
       <c r="E119" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F119" s="7">
         <v>1</v>
@@ -6068,10 +6060,10 @@
         <v>246</v>
       </c>
       <c r="C120" s="7">
-        <v>26.16</v>
+        <v>5.38</v>
       </c>
       <c r="D120" s="7">
-        <v>26.938</v>
+        <v>13</v>
       </c>
       <c r="E120" s="7">
         <v>16</v>
@@ -6093,19 +6085,19 @@
         <v>248</v>
       </c>
       <c r="C121" s="7">
-        <v>5.38</v>
+        <v>42.82</v>
       </c>
       <c r="D121" s="7">
-        <v>13</v>
+        <v>152.431</v>
       </c>
       <c r="E121" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F121" s="7">
         <v>1</v>
       </c>
       <c r="G121" s="7">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -6118,7 +6110,7 @@
         <v>250</v>
       </c>
       <c r="C122" s="7">
-        <v>42.82</v>
+        <v>43.29</v>
       </c>
       <c r="D122" s="7">
         <v>152.431</v>
@@ -6130,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
@@ -6143,10 +6135,10 @@
         <v>252</v>
       </c>
       <c r="C123" s="7">
-        <v>43.29</v>
+        <v>48.75</v>
       </c>
       <c r="D123" s="7">
-        <v>152.431</v>
+        <v>175.457</v>
       </c>
       <c r="E123" s="7">
         <v>6</v>
@@ -6155,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -6168,10 +6160,10 @@
         <v>254</v>
       </c>
       <c r="C124" s="7">
-        <v>48.75</v>
+        <v>49.12</v>
       </c>
       <c r="D124" s="7">
-        <v>175.457</v>
+        <v>201.645</v>
       </c>
       <c r="E124" s="7">
         <v>6</v>
@@ -6193,10 +6185,10 @@
         <v>256</v>
       </c>
       <c r="C125" s="7">
-        <v>49.12</v>
+        <v>25.04</v>
       </c>
       <c r="D125" s="7">
-        <v>201.645</v>
+        <v>143.961</v>
       </c>
       <c r="E125" s="7">
         <v>6</v>
@@ -6205,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="G125" s="7">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -6218,7 +6210,7 @@
         <v>258</v>
       </c>
       <c r="C126" s="7">
-        <v>25.04</v>
+        <v>21.26</v>
       </c>
       <c r="D126" s="7">
         <v>143.961</v>
@@ -6230,7 +6222,7 @@
         <v>1</v>
       </c>
       <c r="G126" s="7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -6243,10 +6235,10 @@
         <v>260</v>
       </c>
       <c r="C127" s="7">
-        <v>21.26</v>
+        <v>39.51</v>
       </c>
       <c r="D127" s="7">
-        <v>143.961</v>
+        <v>219.134</v>
       </c>
       <c r="E127" s="7">
         <v>6</v>
@@ -6255,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="7">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -6268,10 +6260,10 @@
         <v>262</v>
       </c>
       <c r="C128" s="7">
-        <v>39.51</v>
+        <v>17.11</v>
       </c>
       <c r="D128" s="7">
-        <v>219.134</v>
+        <v>96.729</v>
       </c>
       <c r="E128" s="7">
         <v>6</v>
@@ -6280,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="7">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -6293,10 +6285,10 @@
         <v>264</v>
       </c>
       <c r="C129" s="7">
-        <v>17.11</v>
+        <v>14.78</v>
       </c>
       <c r="D129" s="7">
-        <v>96.729</v>
+        <v>84.5</v>
       </c>
       <c r="E129" s="7">
         <v>6</v>
@@ -6305,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -6318,10 +6310,10 @@
         <v>266</v>
       </c>
       <c r="C130" s="7">
-        <v>14.78</v>
+        <v>20.9</v>
       </c>
       <c r="D130" s="7">
-        <v>84.5</v>
+        <v>122.054</v>
       </c>
       <c r="E130" s="7">
         <v>6</v>
@@ -6330,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -6343,10 +6335,10 @@
         <v>268</v>
       </c>
       <c r="C131" s="7">
-        <v>20.9</v>
+        <v>15.95</v>
       </c>
       <c r="D131" s="7">
-        <v>122.054</v>
+        <v>93.88800000000001</v>
       </c>
       <c r="E131" s="7">
         <v>6</v>
@@ -6368,10 +6360,10 @@
         <v>270</v>
       </c>
       <c r="C132" s="7">
-        <v>15.95</v>
+        <v>5.62</v>
       </c>
       <c r="D132" s="7">
-        <v>93.88800000000001</v>
+        <v>18.015</v>
       </c>
       <c r="E132" s="7">
         <v>6</v>
@@ -6380,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -6393,10 +6385,10 @@
         <v>272</v>
       </c>
       <c r="C133" s="7">
-        <v>5.62</v>
+        <v>2.65</v>
       </c>
       <c r="D133" s="7">
-        <v>18.015</v>
+        <v>15.648</v>
       </c>
       <c r="E133" s="7">
         <v>6</v>
@@ -6418,10 +6410,10 @@
         <v>274</v>
       </c>
       <c r="C134" s="7">
-        <v>2.65</v>
+        <v>22</v>
       </c>
       <c r="D134" s="7">
-        <v>15.648</v>
+        <v>138.225</v>
       </c>
       <c r="E134" s="7">
         <v>6</v>
@@ -6430,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -6443,10 +6435,10 @@
         <v>276</v>
       </c>
       <c r="C135" s="7">
-        <v>22</v>
+        <v>22.93</v>
       </c>
       <c r="D135" s="7">
-        <v>138.225</v>
+        <v>143.961</v>
       </c>
       <c r="E135" s="7">
         <v>6</v>
@@ -6455,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="7">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
@@ -6468,10 +6460,10 @@
         <v>278</v>
       </c>
       <c r="C136" s="7">
-        <v>22.93</v>
+        <v>6.75</v>
       </c>
       <c r="D136" s="7">
-        <v>143.961</v>
+        <v>38.128</v>
       </c>
       <c r="E136" s="7">
         <v>6</v>
@@ -6480,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -6493,10 +6485,10 @@
         <v>280</v>
       </c>
       <c r="C137" s="7">
-        <v>6.75</v>
+        <v>10.37</v>
       </c>
       <c r="D137" s="7">
-        <v>38.128</v>
+        <v>59.462</v>
       </c>
       <c r="E137" s="7">
         <v>6</v>
@@ -6518,10 +6510,10 @@
         <v>282</v>
       </c>
       <c r="C138" s="7">
-        <v>10.37</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D138" s="7">
-        <v>59.462</v>
+        <v>55.892</v>
       </c>
       <c r="E138" s="7">
         <v>6</v>
@@ -6543,10 +6535,10 @@
         <v>284</v>
       </c>
       <c r="C139" s="7">
-        <v>9.470000000000001</v>
+        <v>33.05</v>
       </c>
       <c r="D139" s="7">
-        <v>55.892</v>
+        <v>157.109</v>
       </c>
       <c r="E139" s="7">
         <v>6</v>
@@ -6555,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -6568,19 +6560,19 @@
         <v>286</v>
       </c>
       <c r="C140" s="7">
-        <v>33.05</v>
+        <v>20.82</v>
       </c>
       <c r="D140" s="7">
-        <v>157.109</v>
+        <v>45.773</v>
       </c>
       <c r="E140" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F140" s="7">
         <v>1</v>
       </c>
       <c r="G140" s="7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -6593,10 +6585,10 @@
         <v>288</v>
       </c>
       <c r="C141" s="7">
-        <v>20.82</v>
+        <v>3.79</v>
       </c>
       <c r="D141" s="7">
-        <v>45.773</v>
+        <v>19.428</v>
       </c>
       <c r="E141" s="7">
         <v>10</v>
@@ -6605,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="7">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -6618,19 +6610,19 @@
         <v>290</v>
       </c>
       <c r="C142" s="7">
-        <v>3.79</v>
+        <v>15.37</v>
       </c>
       <c r="D142" s="7">
-        <v>19.428</v>
+        <v>73.333</v>
       </c>
       <c r="E142" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F142" s="7">
         <v>1</v>
       </c>
       <c r="G142" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -6643,19 +6635,19 @@
         <v>292</v>
       </c>
       <c r="C143" s="7">
-        <v>15.37</v>
+        <v>0.34</v>
       </c>
       <c r="D143" s="7">
-        <v>73.333</v>
+        <v>0.3</v>
       </c>
       <c r="E143" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F143" s="7">
         <v>1</v>
       </c>
       <c r="G143" s="7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -6668,19 +6660,19 @@
         <v>294</v>
       </c>
       <c r="C144" s="7">
-        <v>0.34</v>
+        <v>11.98</v>
       </c>
       <c r="D144" s="7">
-        <v>0.3</v>
+        <v>38.291</v>
       </c>
       <c r="E144" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F144" s="7">
         <v>1</v>
       </c>
       <c r="G144" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
@@ -6693,19 +6685,19 @@
         <v>296</v>
       </c>
       <c r="C145" s="7">
-        <v>11.98</v>
+        <v>119.41</v>
       </c>
       <c r="D145" s="7">
-        <v>38.291</v>
+        <v>354.86</v>
       </c>
       <c r="E145" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F145" s="7">
         <v>1</v>
       </c>
       <c r="G145" s="7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -6718,10 +6710,10 @@
         <v>298</v>
       </c>
       <c r="C146" s="7">
-        <v>119.41</v>
+        <v>24.68</v>
       </c>
       <c r="D146" s="7">
-        <v>354.86</v>
+        <v>64.59399999999999</v>
       </c>
       <c r="E146" s="7">
         <v>10</v>
@@ -6730,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="7">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
@@ -6743,10 +6735,10 @@
         <v>300</v>
       </c>
       <c r="C147" s="7">
-        <v>24.68</v>
+        <v>3.58</v>
       </c>
       <c r="D147" s="7">
-        <v>64.59399999999999</v>
+        <v>6.6</v>
       </c>
       <c r="E147" s="7">
         <v>10</v>
@@ -6755,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="7">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
@@ -6768,19 +6760,19 @@
         <v>302</v>
       </c>
       <c r="C148" s="7">
-        <v>3.58</v>
+        <v>11.77</v>
       </c>
       <c r="D148" s="7">
-        <v>6.6</v>
+        <v>42.588</v>
       </c>
       <c r="E148" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F148" s="7">
         <v>1</v>
       </c>
       <c r="G148" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
@@ -6793,10 +6785,10 @@
         <v>304</v>
       </c>
       <c r="C149" s="7">
-        <v>11.77</v>
+        <v>16.49</v>
       </c>
       <c r="D149" s="7">
-        <v>42.588</v>
+        <v>60.73</v>
       </c>
       <c r="E149" s="7">
         <v>12</v>
@@ -6818,10 +6810,10 @@
         <v>306</v>
       </c>
       <c r="C150" s="7">
-        <v>16.49</v>
+        <v>5.41</v>
       </c>
       <c r="D150" s="7">
-        <v>60.73</v>
+        <v>19.648</v>
       </c>
       <c r="E150" s="7">
         <v>12</v>
@@ -6830,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -6843,13 +6835,13 @@
         <v>308</v>
       </c>
       <c r="C151" s="7">
-        <v>5.41</v>
+        <v>17.33</v>
       </c>
       <c r="D151" s="7">
-        <v>19.648</v>
+        <v>23.7</v>
       </c>
       <c r="E151" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F151" s="7">
         <v>1</v>
@@ -6868,13 +6860,13 @@
         <v>310</v>
       </c>
       <c r="C152" s="7">
-        <v>17.33</v>
+        <v>28.98</v>
       </c>
       <c r="D152" s="7">
-        <v>23.7</v>
+        <v>102</v>
       </c>
       <c r="E152" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F152" s="7">
         <v>1</v>
@@ -6893,13 +6885,13 @@
         <v>312</v>
       </c>
       <c r="C153" s="7">
-        <v>28.98</v>
+        <v>24.87</v>
       </c>
       <c r="D153" s="7">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E153" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F153" s="7">
         <v>1</v>
@@ -6918,13 +6910,13 @@
         <v>314</v>
       </c>
       <c r="C154" s="7">
-        <v>24.87</v>
+        <v>3.7</v>
       </c>
       <c r="D154" s="7">
+        <v>19.078</v>
+      </c>
+      <c r="E154" s="7">
         <v>10</v>
-      </c>
-      <c r="E154" s="7">
-        <v>6</v>
       </c>
       <c r="F154" s="7">
         <v>1</v>
@@ -6943,10 +6935,10 @@
         <v>316</v>
       </c>
       <c r="C155" s="7">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="D155" s="7">
-        <v>19.078</v>
+        <v>12.8</v>
       </c>
       <c r="E155" s="7">
         <v>10</v>
@@ -6968,10 +6960,10 @@
         <v>318</v>
       </c>
       <c r="C156" s="7">
-        <v>2.45</v>
+        <v>4.43</v>
       </c>
       <c r="D156" s="7">
-        <v>12.8</v>
+        <v>22.741</v>
       </c>
       <c r="E156" s="7">
         <v>10</v>
@@ -6993,10 +6985,10 @@
         <v>320</v>
       </c>
       <c r="C157" s="7">
-        <v>4.43</v>
+        <v>2.59</v>
       </c>
       <c r="D157" s="7">
-        <v>22.741</v>
+        <v>13</v>
       </c>
       <c r="E157" s="7">
         <v>10</v>
@@ -7018,10 +7010,10 @@
         <v>322</v>
       </c>
       <c r="C158" s="7">
-        <v>2.59</v>
+        <v>15.11</v>
       </c>
       <c r="D158" s="7">
-        <v>13</v>
+        <v>71.11799999999999</v>
       </c>
       <c r="E158" s="7">
         <v>10</v>
@@ -7043,10 +7035,10 @@
         <v>324</v>
       </c>
       <c r="C159" s="7">
-        <v>15.11</v>
+        <v>7.58</v>
       </c>
       <c r="D159" s="7">
-        <v>71.11799999999999</v>
+        <v>38.801</v>
       </c>
       <c r="E159" s="7">
         <v>10</v>
@@ -7068,10 +7060,10 @@
         <v>326</v>
       </c>
       <c r="C160" s="7">
-        <v>7.58</v>
+        <v>3.9</v>
       </c>
       <c r="D160" s="7">
-        <v>38.801</v>
+        <v>18</v>
       </c>
       <c r="E160" s="7">
         <v>10</v>
@@ -7093,10 +7085,10 @@
         <v>328</v>
       </c>
       <c r="C161" s="7">
-        <v>3.9</v>
+        <v>1.66</v>
       </c>
       <c r="D161" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E161" s="7">
         <v>10</v>
@@ -7118,10 +7110,10 @@
         <v>330</v>
       </c>
       <c r="C162" s="7">
-        <v>1.66</v>
+        <v>3.4</v>
       </c>
       <c r="D162" s="7">
-        <v>8</v>
+        <v>16.059</v>
       </c>
       <c r="E162" s="7">
         <v>10</v>
@@ -7143,10 +7135,10 @@
         <v>332</v>
       </c>
       <c r="C163" s="7">
-        <v>3.4</v>
+        <v>7.59</v>
       </c>
       <c r="D163" s="7">
-        <v>16.059</v>
+        <v>34.112</v>
       </c>
       <c r="E163" s="7">
         <v>10</v>
@@ -7168,10 +7160,10 @@
         <v>334</v>
       </c>
       <c r="C164" s="7">
-        <v>7.59</v>
+        <v>8.98</v>
       </c>
       <c r="D164" s="7">
-        <v>34.112</v>
+        <v>19.4</v>
       </c>
       <c r="E164" s="7">
         <v>10</v>
@@ -7193,10 +7185,10 @@
         <v>336</v>
       </c>
       <c r="C165" s="7">
-        <v>8.98</v>
+        <v>2.48</v>
       </c>
       <c r="D165" s="7">
-        <v>19.4</v>
+        <v>8</v>
       </c>
       <c r="E165" s="7">
         <v>10</v>
@@ -7218,10 +7210,10 @@
         <v>338</v>
       </c>
       <c r="C166" s="7">
-        <v>2.48</v>
+        <v>5.04</v>
       </c>
       <c r="D166" s="7">
-        <v>8</v>
+        <v>25.437</v>
       </c>
       <c r="E166" s="7">
         <v>10</v>
@@ -7243,10 +7235,10 @@
         <v>340</v>
       </c>
       <c r="C167" s="7">
-        <v>5.04</v>
+        <v>4.29</v>
       </c>
       <c r="D167" s="7">
-        <v>25.437</v>
+        <v>22.7</v>
       </c>
       <c r="E167" s="7">
         <v>10</v>
@@ -7268,10 +7260,10 @@
         <v>342</v>
       </c>
       <c r="C168" s="7">
-        <v>4.29</v>
+        <v>1.61</v>
       </c>
       <c r="D168" s="7">
-        <v>22.7</v>
+        <v>8</v>
       </c>
       <c r="E168" s="7">
         <v>10</v>
@@ -7293,10 +7285,10 @@
         <v>344</v>
       </c>
       <c r="C169" s="7">
-        <v>1.61</v>
+        <v>2.82</v>
       </c>
       <c r="D169" s="7">
-        <v>8</v>
+        <v>12.718</v>
       </c>
       <c r="E169" s="7">
         <v>10</v>
@@ -7318,7 +7310,7 @@
         <v>346</v>
       </c>
       <c r="C170" s="7">
-        <v>2.82</v>
+        <v>2.51</v>
       </c>
       <c r="D170" s="7">
         <v>12.718</v>
@@ -7343,7 +7335,7 @@
         <v>348</v>
       </c>
       <c r="C171" s="7">
-        <v>2.51</v>
+        <v>3.56</v>
       </c>
       <c r="D171" s="7">
         <v>12.718</v>
@@ -7368,10 +7360,10 @@
         <v>350</v>
       </c>
       <c r="C172" s="7">
-        <v>3.56</v>
+        <v>2.8</v>
       </c>
       <c r="D172" s="7">
-        <v>12.718</v>
+        <v>14.231</v>
       </c>
       <c r="E172" s="7">
         <v>10</v>
@@ -7393,10 +7385,10 @@
         <v>352</v>
       </c>
       <c r="C173" s="7">
-        <v>2.8</v>
+        <v>6.26</v>
       </c>
       <c r="D173" s="7">
-        <v>14.231</v>
+        <v>33.032</v>
       </c>
       <c r="E173" s="7">
         <v>10</v>
@@ -7418,10 +7410,10 @@
         <v>354</v>
       </c>
       <c r="C174" s="7">
-        <v>6.26</v>
+        <v>7.37</v>
       </c>
       <c r="D174" s="7">
-        <v>33.032</v>
+        <v>37.601</v>
       </c>
       <c r="E174" s="7">
         <v>10</v>
@@ -7443,10 +7435,10 @@
         <v>356</v>
       </c>
       <c r="C175" s="7">
-        <v>7.37</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D175" s="7">
-        <v>37.601</v>
+        <v>47.263</v>
       </c>
       <c r="E175" s="7">
         <v>10</v>
@@ -7468,10 +7460,10 @@
         <v>358</v>
       </c>
       <c r="C176" s="7">
-        <v>9.619999999999999</v>
+        <v>6.12</v>
       </c>
       <c r="D176" s="7">
-        <v>47.263</v>
+        <v>31.159</v>
       </c>
       <c r="E176" s="7">
         <v>10</v>
@@ -7493,10 +7485,10 @@
         <v>360</v>
       </c>
       <c r="C177" s="7">
-        <v>6.12</v>
+        <v>2.89</v>
       </c>
       <c r="D177" s="7">
-        <v>31.159</v>
+        <v>14.231</v>
       </c>
       <c r="E177" s="7">
         <v>10</v>
@@ -7518,10 +7510,10 @@
         <v>362</v>
       </c>
       <c r="C178" s="7">
-        <v>2.89</v>
+        <v>9.69</v>
       </c>
       <c r="D178" s="7">
-        <v>14.231</v>
+        <v>50.484</v>
       </c>
       <c r="E178" s="7">
         <v>10</v>
@@ -7568,10 +7560,10 @@
         <v>366</v>
       </c>
       <c r="C180" s="7">
-        <v>9.69</v>
+        <v>13.27</v>
       </c>
       <c r="D180" s="7">
-        <v>50.484</v>
+        <v>63.368</v>
       </c>
       <c r="E180" s="7">
         <v>10</v>
@@ -7593,13 +7585,13 @@
         <v>368</v>
       </c>
       <c r="C181" s="7">
-        <v>13.27</v>
+        <v>0.47</v>
       </c>
       <c r="D181" s="7">
-        <v>63.368</v>
+        <v>1.5</v>
       </c>
       <c r="E181" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F181" s="7">
         <v>1</v>
@@ -7618,13 +7610,13 @@
         <v>370</v>
       </c>
       <c r="C182" s="7">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D182" s="7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E182" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F182" s="7">
         <v>1</v>
@@ -7643,19 +7635,19 @@
         <v>372</v>
       </c>
       <c r="C183" s="7">
-        <v>0.5600000000000001</v>
+        <v>15.61</v>
       </c>
       <c r="D183" s="7">
-        <v>1.2</v>
+        <v>58.927</v>
       </c>
       <c r="E183" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F183" s="7">
         <v>1</v>
       </c>
       <c r="G183" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
@@ -7668,19 +7660,19 @@
         <v>374</v>
       </c>
       <c r="C184" s="7">
-        <v>15.61</v>
+        <v>5.82</v>
       </c>
       <c r="D184" s="7">
-        <v>58.927</v>
+        <v>22.042</v>
       </c>
       <c r="E184" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F184" s="7">
         <v>1</v>
       </c>
       <c r="G184" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
@@ -7693,19 +7685,19 @@
         <v>376</v>
       </c>
       <c r="C185" s="7">
-        <v>5.82</v>
+        <v>24.28</v>
       </c>
       <c r="D185" s="7">
-        <v>22.042</v>
+        <v>14.652</v>
       </c>
       <c r="E185" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F185" s="7">
         <v>1</v>
       </c>
       <c r="G185" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
@@ -7718,19 +7710,19 @@
         <v>378</v>
       </c>
       <c r="C186" s="7">
-        <v>24.28</v>
+        <v>7.76</v>
       </c>
       <c r="D186" s="7">
-        <v>14.652</v>
+        <v>2.2</v>
       </c>
       <c r="E186" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F186" s="7">
         <v>1</v>
       </c>
       <c r="G186" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
@@ -7743,19 +7735,19 @@
         <v>380</v>
       </c>
       <c r="C187" s="7">
-        <v>7.76</v>
+        <v>16.45</v>
       </c>
       <c r="D187" s="7">
-        <v>2.2</v>
+        <v>49.362</v>
       </c>
       <c r="E187" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F187" s="7">
         <v>1</v>
       </c>
       <c r="G187" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
@@ -7768,19 +7760,19 @@
         <v>382</v>
       </c>
       <c r="C188" s="7">
-        <v>16.45</v>
+        <v>3.59</v>
       </c>
       <c r="D188" s="7">
-        <v>49.362</v>
+        <v>20</v>
       </c>
       <c r="E188" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F188" s="7">
         <v>1</v>
       </c>
       <c r="G188" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
@@ -7793,13 +7785,13 @@
         <v>384</v>
       </c>
       <c r="C189" s="7">
-        <v>3.59</v>
+        <v>21.78</v>
       </c>
       <c r="D189" s="7">
-        <v>20</v>
+        <v>12.128</v>
       </c>
       <c r="E189" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F189" s="7">
         <v>1</v>
@@ -7818,10 +7810,10 @@
         <v>386</v>
       </c>
       <c r="C190" s="7">
-        <v>21.78</v>
+        <v>23.37</v>
       </c>
       <c r="D190" s="7">
-        <v>12.128</v>
+        <v>24.4</v>
       </c>
       <c r="E190" s="7">
         <v>25</v>
@@ -7843,13 +7835,13 @@
         <v>388</v>
       </c>
       <c r="C191" s="7">
-        <v>23.37</v>
+        <v>4.12</v>
       </c>
       <c r="D191" s="7">
-        <v>24.4</v>
+        <v>45.8</v>
       </c>
       <c r="E191" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F191" s="7">
         <v>1</v>
@@ -7868,13 +7860,13 @@
         <v>390</v>
       </c>
       <c r="C192" s="7">
-        <v>4.12</v>
+        <v>5.03</v>
       </c>
       <c r="D192" s="7">
-        <v>45.8</v>
+        <v>40</v>
       </c>
       <c r="E192" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F192" s="7">
         <v>1</v>
@@ -7893,10 +7885,10 @@
         <v>392</v>
       </c>
       <c r="C193" s="7">
-        <v>5.03</v>
+        <v>1.49</v>
       </c>
       <c r="D193" s="7">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E193" s="7">
         <v>6</v>
@@ -7918,13 +7910,13 @@
         <v>394</v>
       </c>
       <c r="C194" s="7">
-        <v>1.49</v>
+        <v>0.31</v>
       </c>
       <c r="D194" s="7">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="E194" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F194" s="7">
         <v>1</v>
@@ -7943,13 +7935,13 @@
         <v>396</v>
       </c>
       <c r="C195" s="7">
-        <v>0.31</v>
+        <v>7.19</v>
       </c>
       <c r="D195" s="7">
-        <v>1.2</v>
+        <v>9.5</v>
       </c>
       <c r="E195" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F195" s="7">
         <v>1</v>
@@ -7968,19 +7960,19 @@
         <v>398</v>
       </c>
       <c r="C196" s="7">
-        <v>7.19</v>
+        <v>70.06</v>
       </c>
       <c r="D196" s="7">
-        <v>9.5</v>
+        <v>196.686</v>
       </c>
       <c r="E196" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F196" s="7">
         <v>1</v>
       </c>
       <c r="G196" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
@@ -7993,10 +7985,10 @@
         <v>400</v>
       </c>
       <c r="C197" s="7">
-        <v>70.06</v>
+        <v>111.05</v>
       </c>
       <c r="D197" s="7">
-        <v>196.686</v>
+        <v>318.558</v>
       </c>
       <c r="E197" s="7">
         <v>12</v>
@@ -8005,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
@@ -8018,10 +8010,10 @@
         <v>402</v>
       </c>
       <c r="C198" s="7">
-        <v>111.05</v>
+        <v>131.62</v>
       </c>
       <c r="D198" s="7">
-        <v>318.558</v>
+        <v>361.925</v>
       </c>
       <c r="E198" s="7">
         <v>12</v>
@@ -8030,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -8043,10 +8035,10 @@
         <v>404</v>
       </c>
       <c r="C199" s="7">
-        <v>131.62</v>
+        <v>54.05</v>
       </c>
       <c r="D199" s="7">
-        <v>361.925</v>
+        <v>170</v>
       </c>
       <c r="E199" s="7">
         <v>12</v>
@@ -8055,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="7">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
@@ -8068,10 +8060,10 @@
         <v>406</v>
       </c>
       <c r="C200" s="7">
-        <v>54.05</v>
+        <v>132.21</v>
       </c>
       <c r="D200" s="7">
-        <v>170</v>
+        <v>381</v>
       </c>
       <c r="E200" s="7">
         <v>12</v>
@@ -8093,10 +8085,10 @@
         <v>408</v>
       </c>
       <c r="C201" s="7">
-        <v>132.21</v>
+        <v>104.5</v>
       </c>
       <c r="D201" s="7">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="E201" s="7">
         <v>12</v>
@@ -8118,13 +8110,13 @@
         <v>410</v>
       </c>
       <c r="C202" s="7">
-        <v>104.5</v>
+        <v>2.21</v>
       </c>
       <c r="D202" s="7">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E202" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F202" s="7">
         <v>1</v>
@@ -8143,13 +8135,13 @@
         <v>412</v>
       </c>
       <c r="C203" s="7">
-        <v>2.21</v>
+        <v>1.76</v>
       </c>
       <c r="D203" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E203" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F203" s="7">
         <v>1</v>
@@ -8168,13 +8160,13 @@
         <v>414</v>
       </c>
       <c r="C204" s="7">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="D204" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E204" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F204" s="7">
         <v>1</v>
@@ -8193,13 +8185,13 @@
         <v>416</v>
       </c>
       <c r="C205" s="7">
-        <v>1.26</v>
+        <v>0.58</v>
       </c>
       <c r="D205" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E205" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F205" s="7">
         <v>1</v>
@@ -8218,13 +8210,13 @@
         <v>418</v>
       </c>
       <c r="C206" s="7">
-        <v>0.58</v>
+        <v>1.22</v>
       </c>
       <c r="D206" s="7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E206" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F206" s="7">
         <v>1</v>
@@ -8243,13 +8235,13 @@
         <v>420</v>
       </c>
       <c r="C207" s="7">
-        <v>1.22</v>
+        <v>68.98</v>
       </c>
       <c r="D207" s="7">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="E207" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F207" s="7">
         <v>1</v>
@@ -8268,13 +8260,13 @@
         <v>422</v>
       </c>
       <c r="C208" s="7">
-        <v>68.98</v>
+        <v>2.26</v>
       </c>
       <c r="D208" s="7">
-        <v>13</v>
+        <v>0.4</v>
       </c>
       <c r="E208" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F208" s="7">
         <v>1</v>
@@ -8293,19 +8285,19 @@
         <v>424</v>
       </c>
       <c r="C209" s="7">
-        <v>2.26</v>
+        <v>29.52</v>
       </c>
       <c r="D209" s="7">
-        <v>0.4</v>
+        <v>173.871</v>
       </c>
       <c r="E209" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F209" s="7">
         <v>1</v>
       </c>
       <c r="G209" s="7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
@@ -8318,19 +8310,19 @@
         <v>426</v>
       </c>
       <c r="C210" s="7">
-        <v>29.52</v>
+        <v>22.61</v>
       </c>
       <c r="D210" s="7">
-        <v>173.871</v>
+        <v>20.64</v>
       </c>
       <c r="E210" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F210" s="7">
         <v>1</v>
       </c>
       <c r="G210" s="7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
@@ -8343,19 +8335,19 @@
         <v>428</v>
       </c>
       <c r="C211" s="7">
-        <v>22.61</v>
+        <v>6.14</v>
       </c>
       <c r="D211" s="7">
-        <v>20.64</v>
+        <v>24.5</v>
       </c>
       <c r="E211" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F211" s="7">
         <v>1</v>
       </c>
       <c r="G211" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8"/>
@@ -8368,19 +8360,19 @@
         <v>430</v>
       </c>
       <c r="C212" s="7">
-        <v>6.14</v>
+        <v>8.32</v>
       </c>
       <c r="D212" s="7">
-        <v>24.5</v>
+        <v>5</v>
       </c>
       <c r="E212" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F212" s="7">
         <v>1</v>
       </c>
       <c r="G212" s="7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
@@ -8393,13 +8385,13 @@
         <v>432</v>
       </c>
       <c r="C213" s="7">
-        <v>8.32</v>
+        <v>3.77</v>
       </c>
       <c r="D213" s="7">
-        <v>5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E213" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F213" s="7">
         <v>1</v>
@@ -8418,19 +8410,19 @@
         <v>434</v>
       </c>
       <c r="C214" s="7">
-        <v>3.77</v>
+        <v>74.28</v>
       </c>
       <c r="D214" s="7">
-        <v>8.800000000000001</v>
+        <v>347.345</v>
       </c>
       <c r="E214" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F214" s="7">
         <v>1</v>
       </c>
       <c r="G214" s="7">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
@@ -8443,19 +8435,19 @@
         <v>436</v>
       </c>
       <c r="C215" s="7">
-        <v>74.28</v>
+        <v>226.02</v>
       </c>
       <c r="D215" s="7">
-        <v>347.345</v>
+        <v>87.117</v>
       </c>
       <c r="E215" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F215" s="7">
         <v>1</v>
       </c>
       <c r="G215" s="7">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H215" s="8"/>
       <c r="I215" s="8"/>
@@ -8468,19 +8460,19 @@
         <v>438</v>
       </c>
       <c r="C216" s="7">
-        <v>226.02</v>
+        <v>4.17</v>
       </c>
       <c r="D216" s="7">
-        <v>87.117</v>
+        <v>20.68</v>
       </c>
       <c r="E216" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F216" s="7">
         <v>1</v>
       </c>
       <c r="G216" s="7">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
@@ -8493,19 +8485,19 @@
         <v>440</v>
       </c>
       <c r="C217" s="7">
-        <v>4.17</v>
+        <v>52.8</v>
       </c>
       <c r="D217" s="7">
-        <v>20.68</v>
+        <v>34.621</v>
       </c>
       <c r="E217" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F217" s="7">
         <v>1</v>
       </c>
       <c r="G217" s="7">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H217" s="8"/>
       <c r="I217" s="8"/>
@@ -8518,19 +8510,19 @@
         <v>442</v>
       </c>
       <c r="C218" s="7">
-        <v>52.8</v>
+        <v>0.96</v>
       </c>
       <c r="D218" s="7">
-        <v>34.621</v>
+        <v>3.1</v>
       </c>
       <c r="E218" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F218" s="7">
         <v>1</v>
       </c>
       <c r="G218" s="7">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
@@ -8543,19 +8535,19 @@
         <v>444</v>
       </c>
       <c r="C219" s="7">
-        <v>0.96</v>
+        <v>23.06</v>
       </c>
       <c r="D219" s="7">
-        <v>3.1</v>
+        <v>62.716</v>
       </c>
       <c r="E219" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F219" s="7">
         <v>1</v>
       </c>
       <c r="G219" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
@@ -8568,10 +8560,10 @@
         <v>446</v>
       </c>
       <c r="C220" s="7">
-        <v>23.06</v>
+        <v>21.01</v>
       </c>
       <c r="D220" s="7">
-        <v>62.716</v>
+        <v>59.231</v>
       </c>
       <c r="E220" s="7">
         <v>12</v>
@@ -8593,10 +8585,10 @@
         <v>448</v>
       </c>
       <c r="C221" s="7">
-        <v>21.01</v>
+        <v>21.62</v>
       </c>
       <c r="D221" s="7">
-        <v>59.231</v>
+        <v>61.646</v>
       </c>
       <c r="E221" s="7">
         <v>12</v>
@@ -8618,10 +8610,10 @@
         <v>450</v>
       </c>
       <c r="C222" s="7">
-        <v>21.62</v>
+        <v>25.66</v>
       </c>
       <c r="D222" s="7">
-        <v>61.646</v>
+        <v>70</v>
       </c>
       <c r="E222" s="7">
         <v>12</v>
@@ -8643,10 +8635,10 @@
         <v>452</v>
       </c>
       <c r="C223" s="7">
-        <v>25.66</v>
+        <v>23.76</v>
       </c>
       <c r="D223" s="7">
-        <v>70</v>
+        <v>66.905</v>
       </c>
       <c r="E223" s="7">
         <v>12</v>
@@ -8668,10 +8660,10 @@
         <v>454</v>
       </c>
       <c r="C224" s="7">
-        <v>23.76</v>
+        <v>22.65</v>
       </c>
       <c r="D224" s="7">
-        <v>66.905</v>
+        <v>64.511</v>
       </c>
       <c r="E224" s="7">
         <v>12</v>
@@ -8693,10 +8685,10 @@
         <v>456</v>
       </c>
       <c r="C225" s="7">
-        <v>22.65</v>
+        <v>27.09</v>
       </c>
       <c r="D225" s="7">
-        <v>64.511</v>
+        <v>76.20999999999999</v>
       </c>
       <c r="E225" s="7">
         <v>12</v>
@@ -8718,10 +8710,10 @@
         <v>458</v>
       </c>
       <c r="C226" s="7">
-        <v>27.09</v>
+        <v>37.52</v>
       </c>
       <c r="D226" s="7">
-        <v>76.20999999999999</v>
+        <v>95.16</v>
       </c>
       <c r="E226" s="7">
         <v>12</v>
@@ -8743,7 +8735,7 @@
         <v>460</v>
       </c>
       <c r="C227" s="7">
-        <v>37.52</v>
+        <v>36.86</v>
       </c>
       <c r="D227" s="7">
         <v>95.16</v>
@@ -8768,7 +8760,7 @@
         <v>462</v>
       </c>
       <c r="C228" s="7">
-        <v>36.86</v>
+        <v>36.87</v>
       </c>
       <c r="D228" s="7">
         <v>95.16</v>
@@ -8793,7 +8785,7 @@
         <v>464</v>
       </c>
       <c r="C229" s="7">
-        <v>36.87</v>
+        <v>37.41</v>
       </c>
       <c r="D229" s="7">
         <v>95.16</v>
@@ -8818,10 +8810,10 @@
         <v>466</v>
       </c>
       <c r="C230" s="7">
-        <v>37.41</v>
+        <v>13.76</v>
       </c>
       <c r="D230" s="7">
-        <v>95.16</v>
+        <v>79.3</v>
       </c>
       <c r="E230" s="7">
         <v>12</v>
@@ -8843,10 +8835,10 @@
         <v>468</v>
       </c>
       <c r="C231" s="7">
-        <v>13.76</v>
+        <v>5.91</v>
       </c>
       <c r="D231" s="7">
-        <v>79.3</v>
+        <v>31</v>
       </c>
       <c r="E231" s="7">
         <v>12</v>
@@ -8868,16 +8860,16 @@
         <v>470</v>
       </c>
       <c r="C232" s="7">
-        <v>5.91</v>
+        <v>8.01</v>
       </c>
       <c r="D232" s="7">
-        <v>31</v>
+        <v>23.2</v>
       </c>
       <c r="E232" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F232" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G232" s="7">
         <v>1</v>
@@ -8893,16 +8885,16 @@
         <v>472</v>
       </c>
       <c r="C233" s="7">
-        <v>8.01</v>
+        <v>34.17</v>
       </c>
       <c r="D233" s="7">
-        <v>23.2</v>
+        <v>98</v>
       </c>
       <c r="E233" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F233" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G233" s="7">
         <v>1</v>
@@ -8918,13 +8910,13 @@
         <v>474</v>
       </c>
       <c r="C234" s="7">
-        <v>34.17</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="D234" s="7">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E234" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F234" s="7">
         <v>1</v>
@@ -8943,16 +8935,16 @@
         <v>476</v>
       </c>
       <c r="C235" s="7">
-        <v>64.06999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="D235" s="7">
-        <v>62</v>
+        <v>4.3</v>
       </c>
       <c r="E235" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F235" s="7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G235" s="7">
         <v>1</v>
@@ -8968,16 +8960,16 @@
         <v>478</v>
       </c>
       <c r="C236" s="7">
-        <v>0.98</v>
+        <v>1.15</v>
       </c>
       <c r="D236" s="7">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="E236" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F236" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G236" s="7">
         <v>1</v>
@@ -8993,16 +8985,16 @@
         <v>480</v>
       </c>
       <c r="C237" s="7">
-        <v>1.15</v>
+        <v>3.16</v>
       </c>
       <c r="D237" s="7">
-        <v>5</v>
+        <v>11.3</v>
       </c>
       <c r="E237" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F237" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G237" s="7">
         <v>1</v>
@@ -9018,16 +9010,16 @@
         <v>482</v>
       </c>
       <c r="C238" s="7">
-        <v>3.16</v>
+        <v>4.39</v>
       </c>
       <c r="D238" s="7">
-        <v>11.3</v>
+        <v>1.8</v>
       </c>
       <c r="E238" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F238" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G238" s="7">
         <v>1</v>
@@ -9043,16 +9035,16 @@
         <v>484</v>
       </c>
       <c r="C239" s="7">
-        <v>4.39</v>
+        <v>30.63</v>
       </c>
       <c r="D239" s="7">
-        <v>1.8</v>
+        <v>32.6</v>
       </c>
       <c r="E239" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F239" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G239" s="7">
         <v>1</v>
@@ -9068,16 +9060,16 @@
         <v>486</v>
       </c>
       <c r="C240" s="7">
-        <v>30.63</v>
+        <v>57.75</v>
       </c>
       <c r="D240" s="7">
-        <v>32.6</v>
+        <v>53.7</v>
       </c>
       <c r="E240" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F240" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G240" s="7">
         <v>1</v>
@@ -9093,19 +9085,19 @@
         <v>488</v>
       </c>
       <c r="C241" s="7">
-        <v>57.75</v>
+        <v>4.07</v>
       </c>
       <c r="D241" s="7">
-        <v>53.7</v>
+        <v>4</v>
       </c>
       <c r="E241" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F241" s="7">
         <v>1</v>
       </c>
       <c r="G241" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H241" s="8"/>
       <c r="I241" s="8"/>
@@ -9118,13 +9110,13 @@
         <v>490</v>
       </c>
       <c r="C242" s="7">
-        <v>4.07</v>
+        <v>7.72</v>
       </c>
       <c r="D242" s="7">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="E242" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F242" s="7">
         <v>1</v>
@@ -9143,19 +9135,19 @@
         <v>492</v>
       </c>
       <c r="C243" s="7">
-        <v>7.72</v>
+        <v>91.34</v>
       </c>
       <c r="D243" s="7">
-        <v>4.6</v>
+        <v>252</v>
       </c>
       <c r="E243" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F243" s="7">
         <v>1</v>
       </c>
       <c r="G243" s="7">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H243" s="8"/>
       <c r="I243" s="8"/>
@@ -9168,10 +9160,10 @@
         <v>494</v>
       </c>
       <c r="C244" s="7">
-        <v>91.34</v>
+        <v>111.63</v>
       </c>
       <c r="D244" s="7">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="E244" s="7">
         <v>12</v>
@@ -9193,10 +9185,10 @@
         <v>496</v>
       </c>
       <c r="C245" s="7">
-        <v>111.63</v>
+        <v>164.8</v>
       </c>
       <c r="D245" s="7">
-        <v>336</v>
+        <v>474</v>
       </c>
       <c r="E245" s="7">
         <v>12</v>
@@ -9205,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="G245" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H245" s="8"/>
       <c r="I245" s="8"/>
@@ -9218,10 +9210,10 @@
         <v>498</v>
       </c>
       <c r="C246" s="7">
-        <v>164.8</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="D246" s="7">
-        <v>474</v>
+        <v>249</v>
       </c>
       <c r="E246" s="7">
         <v>12</v>
@@ -9230,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="G246" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H246" s="8"/>
       <c r="I246" s="8"/>
@@ -9243,10 +9235,10 @@
         <v>500</v>
       </c>
       <c r="C247" s="7">
-        <v>86.15000000000001</v>
+        <v>135.62</v>
       </c>
       <c r="D247" s="7">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="E247" s="7">
         <v>12</v>
@@ -9255,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="7">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="8"/>
@@ -9268,10 +9260,10 @@
         <v>502</v>
       </c>
       <c r="C248" s="7">
-        <v>135.62</v>
+        <v>81.81</v>
       </c>
       <c r="D248" s="7">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="E248" s="7">
         <v>12</v>
@@ -9280,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="7">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="8"/>
@@ -9293,10 +9285,10 @@
         <v>504</v>
       </c>
       <c r="C249" s="7">
-        <v>81.81</v>
+        <v>180</v>
       </c>
       <c r="D249" s="7">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="E249" s="7">
         <v>12</v>
@@ -9305,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="G249" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H249" s="8"/>
       <c r="I249" s="8"/>
@@ -9318,10 +9310,10 @@
         <v>506</v>
       </c>
       <c r="C250" s="7">
-        <v>180</v>
+        <v>139.47</v>
       </c>
       <c r="D250" s="7">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="E250" s="7">
         <v>12</v>
@@ -9330,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="G250" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H250" s="8"/>
       <c r="I250" s="8"/>
@@ -9343,10 +9335,10 @@
         <v>508</v>
       </c>
       <c r="C251" s="7">
-        <v>139.47</v>
+        <v>147</v>
       </c>
       <c r="D251" s="7">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="E251" s="7">
         <v>12</v>
@@ -9355,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="G251" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H251" s="8"/>
       <c r="I251" s="8"/>
@@ -9368,19 +9360,19 @@
         <v>510</v>
       </c>
       <c r="C252" s="7">
-        <v>147</v>
+        <v>6.37</v>
       </c>
       <c r="D252" s="7">
-        <v>445</v>
+        <v>18.4</v>
       </c>
       <c r="E252" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F252" s="7">
         <v>1</v>
       </c>
       <c r="G252" s="7">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="H252" s="8"/>
       <c r="I252" s="8"/>
@@ -9393,13 +9385,13 @@
         <v>512</v>
       </c>
       <c r="C253" s="7">
-        <v>6.37</v>
+        <v>25.55</v>
       </c>
       <c r="D253" s="7">
-        <v>18.4</v>
+        <v>3</v>
       </c>
       <c r="E253" s="7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F253" s="7">
         <v>1</v>
@@ -9418,19 +9410,19 @@
         <v>514</v>
       </c>
       <c r="C254" s="7">
-        <v>25.55</v>
+        <v>17.61</v>
       </c>
       <c r="D254" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E254" s="7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F254" s="7">
         <v>1</v>
       </c>
       <c r="G254" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H254" s="8"/>
       <c r="I254" s="8"/>
@@ -9443,10 +9435,10 @@
         <v>516</v>
       </c>
       <c r="C255" s="7">
-        <v>17.61</v>
+        <v>10.1</v>
       </c>
       <c r="D255" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E255" s="7">
         <v>10</v>
@@ -9455,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H255" s="8"/>
       <c r="I255" s="8"/>
@@ -9468,13 +9460,13 @@
         <v>518</v>
       </c>
       <c r="C256" s="7">
-        <v>10.1</v>
+        <v>21.84</v>
       </c>
       <c r="D256" s="7">
-        <v>37</v>
+        <v>5.2</v>
       </c>
       <c r="E256" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F256" s="7">
         <v>1</v>
@@ -9493,19 +9485,19 @@
         <v>520</v>
       </c>
       <c r="C257" s="7">
-        <v>27.8</v>
+        <v>4.85</v>
       </c>
       <c r="D257" s="7">
-        <v>1012</v>
+        <v>12.3</v>
       </c>
       <c r="E257" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F257" s="7">
         <v>1</v>
       </c>
       <c r="G257" s="7">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="H257" s="8"/>
       <c r="I257" s="8"/>
@@ -9518,19 +9510,19 @@
         <v>522</v>
       </c>
       <c r="C258" s="7">
-        <v>21.84</v>
+        <v>17.98</v>
       </c>
       <c r="D258" s="7">
-        <v>5.2</v>
+        <v>10.8</v>
       </c>
       <c r="E258" s="7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F258" s="7">
         <v>1</v>
       </c>
       <c r="G258" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H258" s="8"/>
       <c r="I258" s="8"/>
@@ -9543,13 +9535,13 @@
         <v>524</v>
       </c>
       <c r="C259" s="7">
-        <v>4.85</v>
+        <v>29.32</v>
       </c>
       <c r="D259" s="7">
-        <v>12.3</v>
+        <v>86</v>
       </c>
       <c r="E259" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F259" s="7">
         <v>1</v>
@@ -9568,22 +9560,26 @@
         <v>526</v>
       </c>
       <c r="C260" s="7">
-        <v>17.98</v>
+        <v>167.31</v>
       </c>
       <c r="D260" s="7">
-        <v>10.8</v>
+        <v>485</v>
       </c>
       <c r="E260" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F260" s="7">
         <v>1</v>
       </c>
       <c r="G260" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H260" s="8"/>
-      <c r="I260" s="8"/>
+        <v>2.42</v>
+      </c>
+      <c r="H260" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="I260" s="7">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="261" ht="13.55" customHeight="1">
       <c r="A261" t="s" s="6">
@@ -9593,22 +9589,26 @@
         <v>528</v>
       </c>
       <c r="C261" s="7">
-        <v>29.32</v>
+        <v>43.47</v>
       </c>
       <c r="D261" s="7">
-        <v>86</v>
+        <v>118.61</v>
       </c>
       <c r="E261" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F261" s="7">
         <v>1</v>
       </c>
       <c r="G261" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H261" s="8"/>
-      <c r="I261" s="8"/>
+        <v>0.55</v>
+      </c>
+      <c r="H261" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="I261" s="7">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="262" ht="13.55" customHeight="1">
       <c r="A262" t="s" s="6">
@@ -9618,10 +9618,10 @@
         <v>530</v>
       </c>
       <c r="C262" s="7">
-        <v>167.31</v>
+        <v>99.67</v>
       </c>
       <c r="D262" s="7">
-        <v>485</v>
+        <v>118.61</v>
       </c>
       <c r="E262" s="7">
         <v>12</v>
@@ -9630,13 +9630,13 @@
         <v>1</v>
       </c>
       <c r="G262" s="7">
-        <v>2.42</v>
+        <v>0.55</v>
       </c>
       <c r="H262" s="7">
-        <v>2.79</v>
+        <v>1.67</v>
       </c>
       <c r="I262" s="7">
-        <v>0.37</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="263" ht="13.55" customHeight="1">
@@ -9647,10 +9647,10 @@
         <v>532</v>
       </c>
       <c r="C263" s="7">
-        <v>43.47</v>
+        <v>34.58</v>
       </c>
       <c r="D263" s="7">
-        <v>118.61</v>
+        <v>104.31</v>
       </c>
       <c r="E263" s="7">
         <v>12</v>
@@ -9659,13 +9659,13 @@
         <v>1</v>
       </c>
       <c r="G263" s="7">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="H263" s="7">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="I263" s="7">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="264" ht="13.55" customHeight="1">
@@ -9676,10 +9676,10 @@
         <v>534</v>
       </c>
       <c r="C264" s="7">
-        <v>99.67</v>
+        <v>45.49</v>
       </c>
       <c r="D264" s="7">
-        <v>118.61</v>
+        <v>110</v>
       </c>
       <c r="E264" s="7">
         <v>12</v>
@@ -9688,13 +9688,13 @@
         <v>1</v>
       </c>
       <c r="G264" s="7">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="H264" s="7">
-        <v>1.67</v>
+        <v>0.76</v>
       </c>
       <c r="I264" s="7">
-        <v>1.12</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="265" ht="13.55" customHeight="1">
@@ -9705,10 +9705,10 @@
         <v>536</v>
       </c>
       <c r="C265" s="7">
-        <v>34.58</v>
+        <v>194.66</v>
       </c>
       <c r="D265" s="7">
-        <v>104.31</v>
+        <v>561.2</v>
       </c>
       <c r="E265" s="7">
         <v>12</v>
@@ -9717,13 +9717,13 @@
         <v>1</v>
       </c>
       <c r="G265" s="7">
-        <v>0.48</v>
+        <v>3</v>
       </c>
       <c r="H265" s="7">
-        <v>0.58</v>
+        <v>3.25</v>
       </c>
       <c r="I265" s="7">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="266" ht="13.55" customHeight="1">
@@ -9734,10 +9734,10 @@
         <v>538</v>
       </c>
       <c r="C266" s="7">
-        <v>45.49</v>
+        <v>321.56</v>
       </c>
       <c r="D266" s="7">
-        <v>110</v>
+        <v>850.95</v>
       </c>
       <c r="E266" s="7">
         <v>12</v>
@@ -9746,13 +9746,13 @@
         <v>1</v>
       </c>
       <c r="G266" s="7">
-        <v>0.5</v>
+        <v>4.24</v>
       </c>
       <c r="H266" s="7">
-        <v>0.76</v>
+        <v>5.36</v>
       </c>
       <c r="I266" s="7">
-        <v>0.26</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="267" ht="13.55" customHeight="1">
@@ -9763,25 +9763,25 @@
         <v>540</v>
       </c>
       <c r="C267" s="7">
-        <v>194.66</v>
+        <v>28.94</v>
       </c>
       <c r="D267" s="7">
-        <v>561.2</v>
+        <v>24.88</v>
       </c>
       <c r="E267" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F267" s="7">
         <v>1</v>
       </c>
       <c r="G267" s="7">
-        <v>3</v>
+        <v>0.14</v>
       </c>
       <c r="H267" s="7">
-        <v>3.25</v>
+        <v>0.49</v>
       </c>
       <c r="I267" s="7">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="268" ht="13.55" customHeight="1">
@@ -9792,25 +9792,25 @@
         <v>542</v>
       </c>
       <c r="C268" s="7">
-        <v>321.56</v>
+        <v>43.34</v>
       </c>
       <c r="D268" s="7">
-        <v>850.95</v>
+        <v>24.18</v>
       </c>
       <c r="E268" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F268" s="7">
         <v>1</v>
       </c>
       <c r="G268" s="7">
-        <v>4.24</v>
+        <v>0.15</v>
       </c>
       <c r="H268" s="7">
-        <v>5.36</v>
+        <v>0.73</v>
       </c>
       <c r="I268" s="7">
-        <v>1.12</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="269" ht="13.55" customHeight="1">
@@ -9821,25 +9821,25 @@
         <v>544</v>
       </c>
       <c r="C269" s="7">
-        <v>28.94</v>
+        <v>19.21</v>
       </c>
       <c r="D269" s="7">
-        <v>24.88</v>
+        <v>5</v>
       </c>
       <c r="E269" s="7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F269" s="7">
         <v>1</v>
       </c>
       <c r="G269" s="7">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="H269" s="7">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="I269" s="7">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="270" ht="13.55" customHeight="1">
@@ -9850,25 +9850,25 @@
         <v>546</v>
       </c>
       <c r="C270" s="7">
-        <v>43.34</v>
+        <v>195.6</v>
       </c>
       <c r="D270" s="7">
-        <v>24.18</v>
+        <v>17</v>
       </c>
       <c r="E270" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F270" s="7">
         <v>1</v>
       </c>
       <c r="G270" s="7">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="H270" s="7">
-        <v>0.73</v>
+        <v>3.27</v>
       </c>
       <c r="I270" s="7">
-        <v>0.58</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="271" ht="13.55" customHeight="1">
@@ -9879,25 +9879,25 @@
         <v>548</v>
       </c>
       <c r="C271" s="7">
-        <v>19.21</v>
+        <v>31.58</v>
       </c>
       <c r="D271" s="7">
-        <v>5</v>
+        <v>145.52</v>
       </c>
       <c r="E271" s="7">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F271" s="7">
         <v>1</v>
       </c>
       <c r="G271" s="7">
-        <v>0.3</v>
+        <v>6.83</v>
       </c>
       <c r="H271" s="7">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="I271" s="7">
-        <v>0.03</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="272" ht="13.55" customHeight="1">
@@ -9908,25 +9908,25 @@
         <v>550</v>
       </c>
       <c r="C272" s="7">
-        <v>195.6</v>
+        <v>34.53</v>
       </c>
       <c r="D272" s="7">
-        <v>17</v>
+        <v>12.17</v>
       </c>
       <c r="E272" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F272" s="7">
         <v>1</v>
       </c>
       <c r="G272" s="7">
-        <v>0.11</v>
+        <v>0.86</v>
       </c>
       <c r="H272" s="7">
-        <v>3.27</v>
+        <v>0.58</v>
       </c>
       <c r="I272" s="7">
-        <v>3.16</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="273" ht="13.55" customHeight="1">
@@ -9937,80 +9937,22 @@
         <v>552</v>
       </c>
       <c r="C273" s="7">
-        <v>31.58</v>
+        <v>9.35</v>
       </c>
       <c r="D273" s="7">
-        <v>145.52</v>
+        <v>30</v>
       </c>
       <c r="E273" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F273" s="7">
         <v>1</v>
       </c>
       <c r="G273" s="7">
-        <v>6.83</v>
-      </c>
-      <c r="H273" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="I273" s="7">
-        <v>-6.3</v>
-      </c>
-    </row>
-    <row r="274" ht="13.55" customHeight="1">
-      <c r="A274" t="s" s="6">
-        <v>553</v>
-      </c>
-      <c r="B274" t="s" s="6">
-        <v>554</v>
-      </c>
-      <c r="C274" s="7">
-        <v>34.53</v>
-      </c>
-      <c r="D274" s="7">
-        <v>12.17</v>
-      </c>
-      <c r="E274" s="7">
-        <v>25</v>
-      </c>
-      <c r="F274" s="7">
-        <v>1</v>
-      </c>
-      <c r="G274" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="H274" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="I274" s="7">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="275" ht="13.55" customHeight="1">
-      <c r="A275" t="s" s="6">
-        <v>555</v>
-      </c>
-      <c r="B275" t="s" s="6">
-        <v>556</v>
-      </c>
-      <c r="C275" s="7">
-        <v>9.35</v>
-      </c>
-      <c r="D275" s="7">
-        <v>30</v>
-      </c>
-      <c r="E275" s="7">
-        <v>12</v>
-      </c>
-      <c r="F275" s="7">
-        <v>1</v>
-      </c>
-      <c r="G275" s="7">
         <v>0.6</v>
       </c>
-      <c r="H275" s="8"/>
-      <c r="I275" s="8"/>
+      <c r="H273" s="8"/>
+      <c r="I273" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="730">
   <si>
     <t>timestamp</t>
   </si>
@@ -1585,6 +1585,270 @@
     <t>L_04488.NC</t>
   </si>
   <si>
+    <t>2024-10-07 12:01:21</t>
+  </si>
+  <si>
+    <t>L_04616.NC</t>
+  </si>
+  <si>
+    <t>2024-10-07 09:53:48</t>
+  </si>
+  <si>
+    <t>L_04617.NC</t>
+  </si>
+  <si>
+    <t>2024-10-07 10:19:59</t>
+  </si>
+  <si>
+    <t>L_04619.NC</t>
+  </si>
+  <si>
+    <t>2024-10-07 12:14:04</t>
+  </si>
+  <si>
+    <t>L_04620.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 12:57:45</t>
+  </si>
+  <si>
+    <t>L_04621.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 12:31:44</t>
+  </si>
+  <si>
+    <t>L_04622.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 00:08:13</t>
+  </si>
+  <si>
+    <t>L_04623.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 10:29:55</t>
+  </si>
+  <si>
+    <t>L_04624.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 00:15:07</t>
+  </si>
+  <si>
+    <t>L_04625.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 00:57:11</t>
+  </si>
+  <si>
+    <t>L_04626.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:13:01</t>
+  </si>
+  <si>
+    <t>L_04627.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:39:53</t>
+  </si>
+  <si>
+    <t>L_04629.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 00:43:48</t>
+  </si>
+  <si>
+    <t>L_04630.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:10:43</t>
+  </si>
+  <si>
+    <t>L_04631.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 12:59:41</t>
+  </si>
+  <si>
+    <t>L_04632.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:18:35</t>
+  </si>
+  <si>
+    <t>L_04633.NC</t>
+  </si>
+  <si>
+    <t>2024-10-07 10:33:31</t>
+  </si>
+  <si>
+    <t>L_04634.NC</t>
+  </si>
+  <si>
+    <t>2024-10-07 12:22:01</t>
+  </si>
+  <si>
+    <t>L_04635.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:41:53</t>
+  </si>
+  <si>
+    <t>L_04636.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 01:34:21</t>
+  </si>
+  <si>
+    <t>L_04637.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:25:57</t>
+  </si>
+  <si>
+    <t>L_04638.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 08:28:14</t>
+  </si>
+  <si>
+    <t>L_04648.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 11:29:15</t>
+  </si>
+  <si>
+    <t>L_04650.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 08:15:18</t>
+  </si>
+  <si>
+    <t>L_04655.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 12:38:31</t>
+  </si>
+  <si>
+    <t>L_04657.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 11:19:43</t>
+  </si>
+  <si>
+    <t>L_04658.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 05:03:46</t>
+  </si>
+  <si>
+    <t>L_04659.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 09:47:48</t>
+  </si>
+  <si>
+    <t>L_04660.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 04:47:01</t>
+  </si>
+  <si>
+    <t>L_04663.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:06:39</t>
+  </si>
+  <si>
+    <t>L_04666.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 02:57:46</t>
+  </si>
+  <si>
+    <t>L_04670.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 03:17:38</t>
+  </si>
+  <si>
+    <t>L_04672.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 10:06:27</t>
+  </si>
+  <si>
+    <t>L_04674.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 12:49:53</t>
+  </si>
+  <si>
+    <t>L_04676.NC</t>
+  </si>
+  <si>
+    <t>2024-10-11 02:45:28</t>
+  </si>
+  <si>
+    <t>L_04694.NC</t>
+  </si>
+  <si>
+    <t>2024-10-11 10:51:01</t>
+  </si>
+  <si>
+    <t>L_04695.NC</t>
+  </si>
+  <si>
+    <t>2024-10-09 08:25:08</t>
+  </si>
+  <si>
+    <t>L_04698.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 01:49:52</t>
+  </si>
+  <si>
+    <t>L_04699.NC</t>
+  </si>
+  <si>
+    <t>2024-10-11 00:07:15</t>
+  </si>
+  <si>
+    <t>L_04700.NC</t>
+  </si>
+  <si>
+    <t>2024-10-10 11:43:58</t>
+  </si>
+  <si>
+    <t>L_04701.NC</t>
+  </si>
+  <si>
+    <t>2024-10-11 01:42:30</t>
+  </si>
+  <si>
+    <t>L_04702.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 00:54:50</t>
+  </si>
+  <si>
+    <t>L_04765.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 22:54:41</t>
+  </si>
+  <si>
+    <t>L_04766.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 03:32:12</t>
+  </si>
+  <si>
+    <t>L_04767.NC</t>
+  </si>
+  <si>
     <t>2024-10-03 11:59:32</t>
   </si>
   <si>
@@ -1639,12 +1903,48 @@
     <t>L_04793.NC</t>
   </si>
   <si>
+    <t>2024-10-10 13:32:32</t>
+  </si>
+  <si>
+    <t>L_04808.NC</t>
+  </si>
+  <si>
+    <t>2024-10-08 21:25:28</t>
+  </si>
+  <si>
+    <t>L_04813.NC</t>
+  </si>
+  <si>
+    <t>2024-10-09 03:57:45</t>
+  </si>
+  <si>
+    <t>L_04814.NC</t>
+  </si>
+  <si>
     <t>2024-10-04 15:59:06</t>
   </si>
   <si>
     <t>L_04815.NC</t>
   </si>
   <si>
+    <t>2024-10-04 16:03:50</t>
+  </si>
+  <si>
+    <t>L_04816.NC</t>
+  </si>
+  <si>
+    <t>2024-10-08 01:59:42</t>
+  </si>
+  <si>
+    <t>L_04817.NC</t>
+  </si>
+  <si>
+    <t>2024-10-10 03:07:03</t>
+  </si>
+  <si>
+    <t>L_04818.NC</t>
+  </si>
+  <si>
     <t>2024-10-06 21:23:47</t>
   </si>
   <si>
@@ -1657,6 +1957,12 @@
     <t>L_04820.NC</t>
   </si>
   <si>
+    <t>2024-10-08 16:05:33</t>
+  </si>
+  <si>
+    <t>L_04821.NC</t>
+  </si>
+  <si>
     <t>2024-10-04 14:31:54</t>
   </si>
   <si>
@@ -1669,6 +1975,12 @@
     <t>L_04823.NC</t>
   </si>
   <si>
+    <t>2024-10-09 15:34:39</t>
+  </si>
+  <si>
+    <t>L_04825.NC</t>
+  </si>
+  <si>
     <t>2024-10-07 22:17:42</t>
   </si>
   <si>
@@ -1729,10 +2041,82 @@
     <t>L_04856.NC</t>
   </si>
   <si>
+    <t>2024-10-14 15:37:12</t>
+  </si>
+  <si>
+    <t>L_04859.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 21:05:10</t>
+  </si>
+  <si>
+    <t>L_04861.NC</t>
+  </si>
+  <si>
+    <t>2024-10-13 22:29:18</t>
+  </si>
+  <si>
+    <t>L_04863.NC</t>
+  </si>
+  <si>
     <t>2024-10-07 21:40:58</t>
   </si>
   <si>
     <t>L_04868.NC</t>
+  </si>
+  <si>
+    <t>2024-10-10 14:49:03</t>
+  </si>
+  <si>
+    <t>L_04914.NC</t>
+  </si>
+  <si>
+    <t>2024-10-10 15:09:12</t>
+  </si>
+  <si>
+    <t>L_04915.NC</t>
+  </si>
+  <si>
+    <t>2024-10-10 16:59:50</t>
+  </si>
+  <si>
+    <t>L_04990.NC</t>
+  </si>
+  <si>
+    <t>2024-10-11 12:31:18</t>
+  </si>
+  <si>
+    <t>L_04991.NC</t>
+  </si>
+  <si>
+    <t>2024-10-10 13:54:52</t>
+  </si>
+  <si>
+    <t>L_05019.NC</t>
+  </si>
+  <si>
+    <t>2024-10-10 14:23:15</t>
+  </si>
+  <si>
+    <t>L_05020.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 02:18:41</t>
+  </si>
+  <si>
+    <t>L_05021.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 15:59:34</t>
+  </si>
+  <si>
+    <t>L_05114.NC</t>
+  </si>
+  <si>
+    <t>2024-10-13 21:42:22</t>
+  </si>
+  <si>
+    <t>L_05119.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -1932,16 +2316,16 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2113,9 +2497,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2195,7 +2579,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2223,10 +2607,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2482,9 +2866,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -2772,7 +3156,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2800,10 +3184,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3054,16 +3438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F363"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.0625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.0391" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3516" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8275,13 +8658,13 @@
         <v>525</v>
       </c>
       <c r="C261" s="6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D261" s="6">
-        <v>21.3</v>
+        <v>26</v>
       </c>
       <c r="E261" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F261" s="6">
         <v>1</v>
@@ -8295,13 +8678,13 @@
         <v>527</v>
       </c>
       <c r="C262" s="6">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D262" s="6">
-        <v>35.3</v>
+        <v>26</v>
       </c>
       <c r="E262" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F262" s="6">
         <v>1</v>
@@ -8315,13 +8698,13 @@
         <v>529</v>
       </c>
       <c r="C263" s="6">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D263" s="6">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E263" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F263" s="6">
         <v>1</v>
@@ -8335,13 +8718,13 @@
         <v>531</v>
       </c>
       <c r="C264" s="6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D264" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E264" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F264" s="6">
         <v>1</v>
@@ -8355,13 +8738,13 @@
         <v>533</v>
       </c>
       <c r="C265" s="6">
+        <v>4</v>
+      </c>
+      <c r="D265" s="6">
         <v>26</v>
       </c>
-      <c r="D265" s="6">
-        <v>25.1</v>
-      </c>
       <c r="E265" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F265" s="6">
         <v>1</v>
@@ -8375,13 +8758,13 @@
         <v>535</v>
       </c>
       <c r="C266" s="6">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D266" s="6">
-        <v>48.4</v>
+        <v>26</v>
       </c>
       <c r="E266" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F266" s="6">
         <v>1</v>
@@ -8395,13 +8778,13 @@
         <v>537</v>
       </c>
       <c r="C267" s="6">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D267" s="6">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E267" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F267" s="6">
         <v>1</v>
@@ -8415,13 +8798,13 @@
         <v>539</v>
       </c>
       <c r="C268" s="6">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D268" s="6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E268" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F268" s="6">
         <v>1</v>
@@ -8435,13 +8818,13 @@
         <v>541</v>
       </c>
       <c r="C269" s="6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D269" s="6">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E269" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F269" s="6">
         <v>1</v>
@@ -8455,13 +8838,13 @@
         <v>543</v>
       </c>
       <c r="C270" s="6">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D270" s="6">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="E270" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F270" s="6">
         <v>1</v>
@@ -8475,13 +8858,13 @@
         <v>545</v>
       </c>
       <c r="C271" s="6">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="D271" s="6">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E271" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F271" s="6">
         <v>1</v>
@@ -8495,13 +8878,13 @@
         <v>547</v>
       </c>
       <c r="C272" s="6">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="D272" s="6">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E272" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F272" s="6">
         <v>1</v>
@@ -8515,13 +8898,13 @@
         <v>549</v>
       </c>
       <c r="C273" s="6">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D273" s="6">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E273" s="6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F273" s="6">
         <v>1</v>
@@ -8535,13 +8918,13 @@
         <v>551</v>
       </c>
       <c r="C274" s="6">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="D274" s="6">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E274" s="6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F274" s="6">
         <v>1</v>
@@ -8555,13 +8938,13 @@
         <v>553</v>
       </c>
       <c r="C275" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D275" s="6">
-        <v>3.8</v>
+        <v>25.4</v>
       </c>
       <c r="E275" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F275" s="6">
         <v>1</v>
@@ -8575,13 +8958,13 @@
         <v>555</v>
       </c>
       <c r="C276" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D276" s="6">
-        <v>0.7</v>
+        <v>26</v>
       </c>
       <c r="E276" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F276" s="6">
         <v>1</v>
@@ -8595,13 +8978,13 @@
         <v>557</v>
       </c>
       <c r="C277" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D277" s="6">
-        <v>4.7</v>
+        <v>25.4</v>
       </c>
       <c r="E277" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F277" s="6">
         <v>1</v>
@@ -8615,13 +8998,13 @@
         <v>559</v>
       </c>
       <c r="C278" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D278" s="6">
-        <v>5.4</v>
+        <v>25.4</v>
       </c>
       <c r="E278" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F278" s="6">
         <v>1</v>
@@ -8635,13 +9018,13 @@
         <v>561</v>
       </c>
       <c r="C279" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D279" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E279" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F279" s="6">
         <v>1</v>
@@ -8655,13 +9038,13 @@
         <v>563</v>
       </c>
       <c r="C280" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D280" s="6">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E280" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F280" s="6">
         <v>1</v>
@@ -8675,13 +9058,13 @@
         <v>565</v>
       </c>
       <c r="C281" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D281" s="6">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E281" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F281" s="6">
         <v>1</v>
@@ -8695,13 +9078,13 @@
         <v>567</v>
       </c>
       <c r="C282" s="6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D282" s="6">
-        <v>13</v>
+        <v>25.5</v>
       </c>
       <c r="E282" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F282" s="6">
         <v>1</v>
@@ -8715,13 +9098,13 @@
         <v>569</v>
       </c>
       <c r="C283" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D283" s="6">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E283" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F283" s="6">
         <v>1</v>
@@ -8735,13 +9118,13 @@
         <v>571</v>
       </c>
       <c r="C284" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D284" s="6">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E284" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F284" s="6">
         <v>1</v>
@@ -8755,13 +9138,13 @@
         <v>573</v>
       </c>
       <c r="C285" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D285" s="6">
-        <v>0.6</v>
+        <v>44</v>
       </c>
       <c r="E285" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F285" s="6">
         <v>1</v>
@@ -8775,13 +9158,13 @@
         <v>575</v>
       </c>
       <c r="C286" s="6">
-        <v>167.31</v>
+        <v>7</v>
       </c>
       <c r="D286" s="6">
-        <v>485</v>
+        <v>44</v>
       </c>
       <c r="E286" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F286" s="6">
         <v>1</v>
@@ -8795,13 +9178,13 @@
         <v>577</v>
       </c>
       <c r="C287" s="6">
-        <v>43.47</v>
+        <v>7</v>
       </c>
       <c r="D287" s="6">
-        <v>118.61</v>
+        <v>44</v>
       </c>
       <c r="E287" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F287" s="6">
         <v>1</v>
@@ -8815,13 +9198,13 @@
         <v>579</v>
       </c>
       <c r="C288" s="6">
-        <v>99.67</v>
+        <v>7</v>
       </c>
       <c r="D288" s="6">
-        <v>118.61</v>
+        <v>44</v>
       </c>
       <c r="E288" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F288" s="6">
         <v>1</v>
@@ -8835,13 +9218,13 @@
         <v>581</v>
       </c>
       <c r="C289" s="6">
-        <v>34.58</v>
+        <v>7</v>
       </c>
       <c r="D289" s="6">
-        <v>104.31</v>
+        <v>44</v>
       </c>
       <c r="E289" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F289" s="6">
         <v>1</v>
@@ -8855,13 +9238,13 @@
         <v>583</v>
       </c>
       <c r="C290" s="6">
-        <v>45.49</v>
+        <v>7</v>
       </c>
       <c r="D290" s="6">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="E290" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F290" s="6">
         <v>1</v>
@@ -8875,13 +9258,13 @@
         <v>585</v>
       </c>
       <c r="C291" s="6">
-        <v>194.66</v>
+        <v>6</v>
       </c>
       <c r="D291" s="6">
-        <v>561.2</v>
+        <v>31.4</v>
       </c>
       <c r="E291" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F291" s="6">
         <v>1</v>
@@ -8895,13 +9278,13 @@
         <v>587</v>
       </c>
       <c r="C292" s="6">
-        <v>321.56</v>
+        <v>9</v>
       </c>
       <c r="D292" s="6">
-        <v>850.95</v>
+        <v>31.3</v>
       </c>
       <c r="E292" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F292" s="6">
         <v>1</v>
@@ -8915,13 +9298,13 @@
         <v>589</v>
       </c>
       <c r="C293" s="6">
-        <v>28.94</v>
+        <v>6</v>
       </c>
       <c r="D293" s="6">
-        <v>24.88</v>
+        <v>31.3</v>
       </c>
       <c r="E293" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F293" s="6">
         <v>1</v>
@@ -8935,13 +9318,13 @@
         <v>591</v>
       </c>
       <c r="C294" s="6">
-        <v>43.34</v>
+        <v>6</v>
       </c>
       <c r="D294" s="6">
-        <v>24.18</v>
+        <v>31.3</v>
       </c>
       <c r="E294" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F294" s="6">
         <v>1</v>
@@ -8955,13 +9338,13 @@
         <v>593</v>
       </c>
       <c r="C295" s="6">
-        <v>19.21</v>
+        <v>94</v>
       </c>
       <c r="D295" s="6">
-        <v>5</v>
+        <v>428.3</v>
       </c>
       <c r="E295" s="6">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F295" s="6">
         <v>1</v>
@@ -8975,13 +9358,13 @@
         <v>595</v>
       </c>
       <c r="C296" s="6">
-        <v>195.6</v>
+        <v>56</v>
       </c>
       <c r="D296" s="6">
-        <v>17</v>
+        <v>222.6</v>
       </c>
       <c r="E296" s="6">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F296" s="6">
         <v>1</v>
@@ -8995,13 +9378,13 @@
         <v>597</v>
       </c>
       <c r="C297" s="6">
-        <v>31.58</v>
+        <v>68</v>
       </c>
       <c r="D297" s="6">
-        <v>145.52</v>
+        <v>71.5</v>
       </c>
       <c r="E297" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F297" s="6">
         <v>1</v>
@@ -9015,13 +9398,13 @@
         <v>599</v>
       </c>
       <c r="C298" s="6">
-        <v>34.53</v>
+        <v>22</v>
       </c>
       <c r="D298" s="6">
-        <v>12.17</v>
+        <v>10</v>
       </c>
       <c r="E298" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F298" s="6">
         <v>1</v>
@@ -9035,15 +9418,1295 @@
         <v>601</v>
       </c>
       <c r="C299" s="6">
+        <v>50</v>
+      </c>
+      <c r="D299" s="6">
+        <v>40</v>
+      </c>
+      <c r="E299" s="6">
+        <v>18</v>
+      </c>
+      <c r="F299" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" ht="13.55" customHeight="1">
+      <c r="A300" t="s" s="5">
+        <v>602</v>
+      </c>
+      <c r="B300" t="s" s="5">
+        <v>603</v>
+      </c>
+      <c r="C300" s="6">
+        <v>17</v>
+      </c>
+      <c r="D300" s="6">
+        <v>16</v>
+      </c>
+      <c r="E300" s="6">
+        <v>20</v>
+      </c>
+      <c r="F300" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" ht="13.55" customHeight="1">
+      <c r="A301" t="s" s="5">
+        <v>604</v>
+      </c>
+      <c r="B301" t="s" s="5">
+        <v>605</v>
+      </c>
+      <c r="C301" s="6">
+        <v>20</v>
+      </c>
+      <c r="D301" s="6">
+        <v>6</v>
+      </c>
+      <c r="E301" s="6">
+        <v>28</v>
+      </c>
+      <c r="F301" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" ht="13.55" customHeight="1">
+      <c r="A302" t="s" s="5">
+        <v>606</v>
+      </c>
+      <c r="B302" t="s" s="5">
+        <v>607</v>
+      </c>
+      <c r="C302" s="6">
+        <v>24</v>
+      </c>
+      <c r="D302" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="E302" s="6">
+        <v>16</v>
+      </c>
+      <c r="F302" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" ht="13.55" customHeight="1">
+      <c r="A303" t="s" s="5">
+        <v>608</v>
+      </c>
+      <c r="B303" t="s" s="5">
+        <v>609</v>
+      </c>
+      <c r="C303" s="6">
+        <v>10</v>
+      </c>
+      <c r="D303" s="6">
+        <v>6</v>
+      </c>
+      <c r="E303" s="6">
+        <v>20</v>
+      </c>
+      <c r="F303" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" ht="13.55" customHeight="1">
+      <c r="A304" t="s" s="5">
+        <v>610</v>
+      </c>
+      <c r="B304" t="s" s="5">
+        <v>611</v>
+      </c>
+      <c r="C304" s="6">
+        <v>22</v>
+      </c>
+      <c r="D304" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E304" s="6">
+        <v>32</v>
+      </c>
+      <c r="F304" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" ht="13.55" customHeight="1">
+      <c r="A305" t="s" s="5">
+        <v>612</v>
+      </c>
+      <c r="B305" t="s" s="5">
+        <v>613</v>
+      </c>
+      <c r="C305" s="6">
+        <v>20</v>
+      </c>
+      <c r="D305" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="E305" s="6">
+        <v>16</v>
+      </c>
+      <c r="F305" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" ht="13.55" customHeight="1">
+      <c r="A306" t="s" s="5">
+        <v>614</v>
+      </c>
+      <c r="B306" t="s" s="5">
+        <v>615</v>
+      </c>
+      <c r="C306" s="6">
+        <v>32</v>
+      </c>
+      <c r="D306" s="6">
+        <v>35.3</v>
+      </c>
+      <c r="E306" s="6">
+        <v>16</v>
+      </c>
+      <c r="F306" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" ht="13.55" customHeight="1">
+      <c r="A307" t="s" s="5">
+        <v>616</v>
+      </c>
+      <c r="B307" t="s" s="5">
+        <v>617</v>
+      </c>
+      <c r="C307" s="6">
+        <v>25</v>
+      </c>
+      <c r="D307" s="6">
+        <v>17</v>
+      </c>
+      <c r="E307" s="6">
+        <v>16</v>
+      </c>
+      <c r="F307" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" ht="13.55" customHeight="1">
+      <c r="A308" t="s" s="5">
+        <v>618</v>
+      </c>
+      <c r="B308" t="s" s="5">
+        <v>619</v>
+      </c>
+      <c r="C308" s="6">
+        <v>17</v>
+      </c>
+      <c r="D308" s="6">
+        <v>20</v>
+      </c>
+      <c r="E308" s="6">
+        <v>16</v>
+      </c>
+      <c r="F308" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" ht="13.55" customHeight="1">
+      <c r="A309" t="s" s="5">
+        <v>620</v>
+      </c>
+      <c r="B309" t="s" s="5">
+        <v>621</v>
+      </c>
+      <c r="C309" s="6">
+        <v>26</v>
+      </c>
+      <c r="D309" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="E309" s="6">
+        <v>16</v>
+      </c>
+      <c r="F309" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" ht="13.55" customHeight="1">
+      <c r="A310" t="s" s="5">
+        <v>622</v>
+      </c>
+      <c r="B310" t="s" s="5">
+        <v>623</v>
+      </c>
+      <c r="C310" s="6">
+        <v>36</v>
+      </c>
+      <c r="D310" s="6">
+        <v>48.4</v>
+      </c>
+      <c r="E310" s="6">
+        <v>16</v>
+      </c>
+      <c r="F310" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" ht="13.55" customHeight="1">
+      <c r="A311" t="s" s="5">
+        <v>624</v>
+      </c>
+      <c r="B311" t="s" s="5">
+        <v>625</v>
+      </c>
+      <c r="C311" s="6">
+        <v>36</v>
+      </c>
+      <c r="D311" s="6">
+        <v>38</v>
+      </c>
+      <c r="E311" s="6">
+        <v>16</v>
+      </c>
+      <c r="F311" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" ht="13.55" customHeight="1">
+      <c r="A312" t="s" s="5">
+        <v>626</v>
+      </c>
+      <c r="B312" t="s" s="5">
+        <v>627</v>
+      </c>
+      <c r="C312" s="6">
+        <v>27</v>
+      </c>
+      <c r="D312" s="6">
+        <v>30</v>
+      </c>
+      <c r="E312" s="6">
+        <v>16</v>
+      </c>
+      <c r="F312" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" ht="13.55" customHeight="1">
+      <c r="A313" t="s" s="5">
+        <v>628</v>
+      </c>
+      <c r="B313" t="s" s="5">
+        <v>629</v>
+      </c>
+      <c r="C313" s="6">
+        <v>20</v>
+      </c>
+      <c r="D313" s="6">
+        <v>6</v>
+      </c>
+      <c r="E313" s="6">
+        <v>16</v>
+      </c>
+      <c r="F313" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" ht="13.55" customHeight="1">
+      <c r="A314" t="s" s="5">
+        <v>630</v>
+      </c>
+      <c r="B314" t="s" s="5">
+        <v>631</v>
+      </c>
+      <c r="C314" s="6">
+        <v>13</v>
+      </c>
+      <c r="D314" s="6">
+        <v>60</v>
+      </c>
+      <c r="E314" s="6">
+        <v>6</v>
+      </c>
+      <c r="F314" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" ht="13.55" customHeight="1">
+      <c r="A315" t="s" s="5">
+        <v>632</v>
+      </c>
+      <c r="B315" t="s" s="5">
+        <v>633</v>
+      </c>
+      <c r="C315" s="6">
+        <v>220</v>
+      </c>
+      <c r="D315" s="6">
+        <v>124.5</v>
+      </c>
+      <c r="E315" s="6">
+        <v>14</v>
+      </c>
+      <c r="F315" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" ht="13.55" customHeight="1">
+      <c r="A316" t="s" s="5">
+        <v>634</v>
+      </c>
+      <c r="B316" t="s" s="5">
+        <v>635</v>
+      </c>
+      <c r="C316" s="6">
+        <v>126</v>
+      </c>
+      <c r="D316" s="6">
+        <v>25</v>
+      </c>
+      <c r="E316" s="6">
+        <v>14</v>
+      </c>
+      <c r="F316" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" ht="13.55" customHeight="1">
+      <c r="A317" t="s" s="5">
+        <v>636</v>
+      </c>
+      <c r="B317" t="s" s="5">
+        <v>637</v>
+      </c>
+      <c r="C317" s="6">
+        <v>34</v>
+      </c>
+      <c r="D317" s="6">
+        <v>77</v>
+      </c>
+      <c r="E317" s="6">
+        <v>18</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" ht="13.55" customHeight="1">
+      <c r="A318" t="s" s="5">
+        <v>638</v>
+      </c>
+      <c r="B318" t="s" s="5">
+        <v>639</v>
+      </c>
+      <c r="C318" s="6">
+        <v>203</v>
+      </c>
+      <c r="D318" s="6">
+        <v>76</v>
+      </c>
+      <c r="E318" s="6">
+        <v>18</v>
+      </c>
+      <c r="F318" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" ht="13.55" customHeight="1">
+      <c r="A319" t="s" s="5">
+        <v>640</v>
+      </c>
+      <c r="B319" t="s" s="5">
+        <v>641</v>
+      </c>
+      <c r="C319" s="6">
+        <v>181</v>
+      </c>
+      <c r="D319" s="6">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E319" s="6">
+        <v>18</v>
+      </c>
+      <c r="F319" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" ht="13.55" customHeight="1">
+      <c r="A320" t="s" s="5">
+        <v>642</v>
+      </c>
+      <c r="B320" t="s" s="5">
+        <v>643</v>
+      </c>
+      <c r="C320" s="6">
+        <v>220</v>
+      </c>
+      <c r="D320" s="6">
+        <v>59.4</v>
+      </c>
+      <c r="E320" s="6">
+        <v>18</v>
+      </c>
+      <c r="F320" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" ht="13.55" customHeight="1">
+      <c r="A321" t="s" s="5">
+        <v>644</v>
+      </c>
+      <c r="B321" t="s" s="5">
+        <v>645</v>
+      </c>
+      <c r="C321" s="6">
+        <v>188</v>
+      </c>
+      <c r="D321" s="6">
+        <v>52</v>
+      </c>
+      <c r="E321" s="6">
+        <v>18</v>
+      </c>
+      <c r="F321" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" ht="13.55" customHeight="1">
+      <c r="A322" t="s" s="5">
+        <v>646</v>
+      </c>
+      <c r="B322" t="s" s="5">
+        <v>647</v>
+      </c>
+      <c r="C322" s="6">
+        <v>138</v>
+      </c>
+      <c r="D322" s="6">
+        <v>52</v>
+      </c>
+      <c r="E322" s="6">
+        <v>18</v>
+      </c>
+      <c r="F322" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" ht="13.55" customHeight="1">
+      <c r="A323" t="s" s="5">
+        <v>648</v>
+      </c>
+      <c r="B323" t="s" s="5">
+        <v>649</v>
+      </c>
+      <c r="C323" s="6">
+        <v>29</v>
+      </c>
+      <c r="D323" s="6">
+        <v>22</v>
+      </c>
+      <c r="E323" s="6">
+        <v>20</v>
+      </c>
+      <c r="F323" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" ht="13.55" customHeight="1">
+      <c r="A324" t="s" s="5">
+        <v>650</v>
+      </c>
+      <c r="B324" t="s" s="5">
+        <v>651</v>
+      </c>
+      <c r="C324" s="6">
+        <v>69</v>
+      </c>
+      <c r="D324" s="6">
+        <v>51</v>
+      </c>
+      <c r="E324" s="6">
+        <v>22</v>
+      </c>
+      <c r="F324" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" ht="13.55" customHeight="1">
+      <c r="A325" t="s" s="5">
+        <v>652</v>
+      </c>
+      <c r="B325" t="s" s="5">
+        <v>653</v>
+      </c>
+      <c r="C325" s="6">
+        <v>90</v>
+      </c>
+      <c r="D325" s="6">
+        <v>76</v>
+      </c>
+      <c r="E325" s="6">
+        <v>22</v>
+      </c>
+      <c r="F325" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" ht="13.55" customHeight="1">
+      <c r="A326" t="s" s="5">
+        <v>654</v>
+      </c>
+      <c r="B326" t="s" s="5">
+        <v>655</v>
+      </c>
+      <c r="C326" s="6">
+        <v>66</v>
+      </c>
+      <c r="D326" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="E326" s="6">
+        <v>22</v>
+      </c>
+      <c r="F326" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" ht="13.55" customHeight="1">
+      <c r="A327" t="s" s="5">
+        <v>656</v>
+      </c>
+      <c r="B327" t="s" s="5">
+        <v>657</v>
+      </c>
+      <c r="C327" s="6">
+        <v>1</v>
+      </c>
+      <c r="D327" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="E327" s="6">
+        <v>4</v>
+      </c>
+      <c r="F327" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" ht="13.55" customHeight="1">
+      <c r="A328" t="s" s="5">
+        <v>658</v>
+      </c>
+      <c r="B328" t="s" s="5">
+        <v>659</v>
+      </c>
+      <c r="C328" s="6">
+        <v>1</v>
+      </c>
+      <c r="D328" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E328" s="6">
+        <v>14</v>
+      </c>
+      <c r="F328" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" ht="13.55" customHeight="1">
+      <c r="A329" t="s" s="5">
+        <v>660</v>
+      </c>
+      <c r="B329" t="s" s="5">
+        <v>661</v>
+      </c>
+      <c r="C329" s="6">
+        <v>1</v>
+      </c>
+      <c r="D329" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E329" s="6">
+        <v>6</v>
+      </c>
+      <c r="F329" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" ht="13.55" customHeight="1">
+      <c r="A330" t="s" s="5">
+        <v>662</v>
+      </c>
+      <c r="B330" t="s" s="5">
+        <v>663</v>
+      </c>
+      <c r="C330" s="6">
+        <v>1</v>
+      </c>
+      <c r="D330" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E330" s="6">
+        <v>8</v>
+      </c>
+      <c r="F330" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" ht="13.55" customHeight="1">
+      <c r="A331" t="s" s="5">
+        <v>664</v>
+      </c>
+      <c r="B331" t="s" s="5">
+        <v>665</v>
+      </c>
+      <c r="C331" s="6">
+        <v>7</v>
+      </c>
+      <c r="D331" s="6">
+        <v>27</v>
+      </c>
+      <c r="E331" s="6">
+        <v>10</v>
+      </c>
+      <c r="F331" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" ht="13.55" customHeight="1">
+      <c r="A332" t="s" s="5">
+        <v>666</v>
+      </c>
+      <c r="B332" t="s" s="5">
+        <v>667</v>
+      </c>
+      <c r="C332" s="6">
+        <v>1</v>
+      </c>
+      <c r="D332" s="6">
+        <v>2</v>
+      </c>
+      <c r="E332" s="6">
+        <v>12</v>
+      </c>
+      <c r="F332" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" ht="13.55" customHeight="1">
+      <c r="A333" t="s" s="5">
+        <v>668</v>
+      </c>
+      <c r="B333" t="s" s="5">
+        <v>669</v>
+      </c>
+      <c r="C333" s="6">
+        <v>11</v>
+      </c>
+      <c r="D333" s="6">
+        <v>11</v>
+      </c>
+      <c r="E333" s="6">
+        <v>16</v>
+      </c>
+      <c r="F333" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" ht="13.55" customHeight="1">
+      <c r="A334" t="s" s="5">
+        <v>670</v>
+      </c>
+      <c r="B334" t="s" s="5">
+        <v>671</v>
+      </c>
+      <c r="C334" s="6">
+        <v>18</v>
+      </c>
+      <c r="D334" s="6">
+        <v>13</v>
+      </c>
+      <c r="E334" s="6">
+        <v>20</v>
+      </c>
+      <c r="F334" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" ht="13.55" customHeight="1">
+      <c r="A335" t="s" s="5">
+        <v>672</v>
+      </c>
+      <c r="B335" t="s" s="5">
+        <v>673</v>
+      </c>
+      <c r="C335" s="6">
+        <v>16</v>
+      </c>
+      <c r="D335" s="6">
+        <v>8</v>
+      </c>
+      <c r="E335" s="6">
+        <v>25</v>
+      </c>
+      <c r="F335" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" ht="13.55" customHeight="1">
+      <c r="A336" t="s" s="5">
+        <v>674</v>
+      </c>
+      <c r="B336" t="s" s="5">
+        <v>675</v>
+      </c>
+      <c r="C336" s="6">
+        <v>8</v>
+      </c>
+      <c r="D336" s="6">
+        <v>4</v>
+      </c>
+      <c r="E336" s="6">
+        <v>25</v>
+      </c>
+      <c r="F336" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" ht="13.55" customHeight="1">
+      <c r="A337" t="s" s="5">
+        <v>676</v>
+      </c>
+      <c r="B337" t="s" s="5">
+        <v>677</v>
+      </c>
+      <c r="C337" s="6">
+        <v>1</v>
+      </c>
+      <c r="D337" s="6">
+        <v>4</v>
+      </c>
+      <c r="E337" s="6">
+        <v>6</v>
+      </c>
+      <c r="F337" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" ht="13.55" customHeight="1">
+      <c r="A338" t="s" s="5">
+        <v>678</v>
+      </c>
+      <c r="B338" t="s" s="5">
+        <v>679</v>
+      </c>
+      <c r="C338" s="6">
+        <v>1</v>
+      </c>
+      <c r="D338" s="6">
+        <v>3</v>
+      </c>
+      <c r="E338" s="6">
+        <v>8</v>
+      </c>
+      <c r="F338" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" ht="13.55" customHeight="1">
+      <c r="A339" t="s" s="5">
+        <v>680</v>
+      </c>
+      <c r="B339" t="s" s="5">
+        <v>681</v>
+      </c>
+      <c r="C339" s="6">
+        <v>22</v>
+      </c>
+      <c r="D339" s="6">
+        <v>65</v>
+      </c>
+      <c r="E339" s="6">
+        <v>10</v>
+      </c>
+      <c r="F339" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" ht="13.55" customHeight="1">
+      <c r="A340" t="s" s="5">
+        <v>682</v>
+      </c>
+      <c r="B340" t="s" s="5">
+        <v>683</v>
+      </c>
+      <c r="C340" s="6">
+        <v>2</v>
+      </c>
+      <c r="D340" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E340" s="6">
+        <v>25</v>
+      </c>
+      <c r="F340" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" ht="13.55" customHeight="1">
+      <c r="A341" t="s" s="5">
+        <v>684</v>
+      </c>
+      <c r="B341" t="s" s="5">
+        <v>685</v>
+      </c>
+      <c r="C341" s="6">
+        <v>3</v>
+      </c>
+      <c r="D341" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="E341" s="6">
+        <v>10</v>
+      </c>
+      <c r="F341" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" ht="13.55" customHeight="1">
+      <c r="A342" t="s" s="5">
+        <v>686</v>
+      </c>
+      <c r="B342" t="s" s="5">
+        <v>687</v>
+      </c>
+      <c r="C342" s="6">
+        <v>14</v>
+      </c>
+      <c r="D342" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="E342" s="6">
+        <v>16</v>
+      </c>
+      <c r="F342" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" ht="13.55" customHeight="1">
+      <c r="A343" t="s" s="5">
+        <v>688</v>
+      </c>
+      <c r="B343" t="s" s="5">
+        <v>689</v>
+      </c>
+      <c r="C343" s="6">
+        <v>153</v>
+      </c>
+      <c r="D343" s="6">
+        <v>410</v>
+      </c>
+      <c r="E343" s="6">
+        <v>12</v>
+      </c>
+      <c r="F343" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" ht="13.55" customHeight="1">
+      <c r="A344" t="s" s="5">
+        <v>690</v>
+      </c>
+      <c r="B344" t="s" s="5">
+        <v>691</v>
+      </c>
+      <c r="C344" s="6">
+        <v>4</v>
+      </c>
+      <c r="D344" s="6">
+        <v>11</v>
+      </c>
+      <c r="E344" s="6">
+        <v>12</v>
+      </c>
+      <c r="F344" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" ht="13.55" customHeight="1">
+      <c r="A345" t="s" s="5">
+        <v>692</v>
+      </c>
+      <c r="B345" t="s" s="5">
+        <v>693</v>
+      </c>
+      <c r="C345" s="6">
+        <v>3</v>
+      </c>
+      <c r="D345" s="6">
+        <v>10</v>
+      </c>
+      <c r="E345" s="6">
+        <v>6</v>
+      </c>
+      <c r="F345" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" ht="13.55" customHeight="1">
+      <c r="A346" t="s" s="5">
+        <v>694</v>
+      </c>
+      <c r="B346" t="s" s="5">
+        <v>695</v>
+      </c>
+      <c r="C346" s="6">
+        <v>5</v>
+      </c>
+      <c r="D346" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E346" s="6">
+        <v>10</v>
+      </c>
+      <c r="F346" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" ht="13.55" customHeight="1">
+      <c r="A347" t="s" s="5">
+        <v>696</v>
+      </c>
+      <c r="B347" t="s" s="5">
+        <v>697</v>
+      </c>
+      <c r="C347" s="6">
+        <v>39</v>
+      </c>
+      <c r="D347" s="6">
+        <v>33.2</v>
+      </c>
+      <c r="E347" s="6">
+        <v>16</v>
+      </c>
+      <c r="F347" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" ht="13.55" customHeight="1">
+      <c r="A348" t="s" s="5">
+        <v>698</v>
+      </c>
+      <c r="B348" t="s" s="5">
+        <v>699</v>
+      </c>
+      <c r="C348" s="6">
+        <v>4</v>
+      </c>
+      <c r="D348" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="E348" s="6">
+        <v>6</v>
+      </c>
+      <c r="F348" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" ht="13.55" customHeight="1">
+      <c r="A349" t="s" s="5">
+        <v>700</v>
+      </c>
+      <c r="B349" t="s" s="5">
+        <v>701</v>
+      </c>
+      <c r="C349" s="6">
+        <v>37</v>
+      </c>
+      <c r="D349" s="6">
+        <v>155</v>
+      </c>
+      <c r="E349" s="6">
+        <v>10</v>
+      </c>
+      <c r="F349" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" ht="13.55" customHeight="1">
+      <c r="A350" t="s" s="5">
+        <v>702</v>
+      </c>
+      <c r="B350" t="s" s="5">
+        <v>703</v>
+      </c>
+      <c r="C350" s="6">
+        <v>167.31</v>
+      </c>
+      <c r="D350" s="6">
+        <v>485</v>
+      </c>
+      <c r="E350" s="6">
+        <v>12</v>
+      </c>
+      <c r="F350" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" ht="13.55" customHeight="1">
+      <c r="A351" t="s" s="5">
+        <v>704</v>
+      </c>
+      <c r="B351" t="s" s="5">
+        <v>705</v>
+      </c>
+      <c r="C351" s="6">
+        <v>43.47</v>
+      </c>
+      <c r="D351" s="6">
+        <v>118.61</v>
+      </c>
+      <c r="E351" s="6">
+        <v>12</v>
+      </c>
+      <c r="F351" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" ht="13.55" customHeight="1">
+      <c r="A352" t="s" s="5">
+        <v>706</v>
+      </c>
+      <c r="B352" t="s" s="5">
+        <v>707</v>
+      </c>
+      <c r="C352" s="6">
+        <v>99.67</v>
+      </c>
+      <c r="D352" s="6">
+        <v>118.61</v>
+      </c>
+      <c r="E352" s="6">
+        <v>12</v>
+      </c>
+      <c r="F352" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" ht="13.55" customHeight="1">
+      <c r="A353" t="s" s="5">
+        <v>708</v>
+      </c>
+      <c r="B353" t="s" s="5">
+        <v>709</v>
+      </c>
+      <c r="C353" s="6">
+        <v>34.58</v>
+      </c>
+      <c r="D353" s="6">
+        <v>104.31</v>
+      </c>
+      <c r="E353" s="6">
+        <v>12</v>
+      </c>
+      <c r="F353" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" ht="13.55" customHeight="1">
+      <c r="A354" t="s" s="5">
+        <v>710</v>
+      </c>
+      <c r="B354" t="s" s="5">
+        <v>711</v>
+      </c>
+      <c r="C354" s="6">
+        <v>45.49</v>
+      </c>
+      <c r="D354" s="6">
+        <v>110</v>
+      </c>
+      <c r="E354" s="6">
+        <v>12</v>
+      </c>
+      <c r="F354" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" ht="13.55" customHeight="1">
+      <c r="A355" t="s" s="5">
+        <v>712</v>
+      </c>
+      <c r="B355" t="s" s="5">
+        <v>713</v>
+      </c>
+      <c r="C355" s="6">
+        <v>194.66</v>
+      </c>
+      <c r="D355" s="6">
+        <v>561.2</v>
+      </c>
+      <c r="E355" s="6">
+        <v>12</v>
+      </c>
+      <c r="F355" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" ht="13.55" customHeight="1">
+      <c r="A356" t="s" s="5">
+        <v>714</v>
+      </c>
+      <c r="B356" t="s" s="5">
+        <v>715</v>
+      </c>
+      <c r="C356" s="6">
+        <v>321.56</v>
+      </c>
+      <c r="D356" s="6">
+        <v>850.95</v>
+      </c>
+      <c r="E356" s="6">
+        <v>12</v>
+      </c>
+      <c r="F356" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" ht="13.55" customHeight="1">
+      <c r="A357" t="s" s="5">
+        <v>716</v>
+      </c>
+      <c r="B357" t="s" s="5">
+        <v>717</v>
+      </c>
+      <c r="C357" s="6">
+        <v>28.94</v>
+      </c>
+      <c r="D357" s="6">
+        <v>24.88</v>
+      </c>
+      <c r="E357" s="6">
+        <v>20</v>
+      </c>
+      <c r="F357" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" ht="13.55" customHeight="1">
+      <c r="A358" t="s" s="5">
+        <v>718</v>
+      </c>
+      <c r="B358" t="s" s="5">
+        <v>719</v>
+      </c>
+      <c r="C358" s="6">
+        <v>43.34</v>
+      </c>
+      <c r="D358" s="6">
+        <v>24.18</v>
+      </c>
+      <c r="E358" s="6">
+        <v>25</v>
+      </c>
+      <c r="F358" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" ht="13.55" customHeight="1">
+      <c r="A359" t="s" s="5">
+        <v>720</v>
+      </c>
+      <c r="B359" t="s" s="5">
+        <v>721</v>
+      </c>
+      <c r="C359" s="6">
+        <v>19.21</v>
+      </c>
+      <c r="D359" s="6">
+        <v>5</v>
+      </c>
+      <c r="E359" s="6">
+        <v>32</v>
+      </c>
+      <c r="F359" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" ht="13.55" customHeight="1">
+      <c r="A360" t="s" s="5">
+        <v>722</v>
+      </c>
+      <c r="B360" t="s" s="5">
+        <v>723</v>
+      </c>
+      <c r="C360" s="6">
+        <v>195.6</v>
+      </c>
+      <c r="D360" s="6">
+        <v>17</v>
+      </c>
+      <c r="E360" s="6">
+        <v>32</v>
+      </c>
+      <c r="F360" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" ht="13.55" customHeight="1">
+      <c r="A361" t="s" s="5">
+        <v>724</v>
+      </c>
+      <c r="B361" t="s" s="5">
+        <v>725</v>
+      </c>
+      <c r="C361" s="6">
+        <v>31.58</v>
+      </c>
+      <c r="D361" s="6">
+        <v>145.52</v>
+      </c>
+      <c r="E361" s="6">
+        <v>10</v>
+      </c>
+      <c r="F361" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" ht="13.55" customHeight="1">
+      <c r="A362" t="s" s="5">
+        <v>726</v>
+      </c>
+      <c r="B362" t="s" s="5">
+        <v>727</v>
+      </c>
+      <c r="C362" s="6">
+        <v>34.53</v>
+      </c>
+      <c r="D362" s="6">
+        <v>12.17</v>
+      </c>
+      <c r="E362" s="6">
+        <v>25</v>
+      </c>
+      <c r="F362" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" ht="13.55" customHeight="1">
+      <c r="A363" t="s" s="5">
+        <v>728</v>
+      </c>
+      <c r="B363" t="s" s="5">
+        <v>729</v>
+      </c>
+      <c r="C363" s="6">
         <v>9.35</v>
       </c>
-      <c r="D299" s="6">
+      <c r="D363" s="6">
         <v>30</v>
       </c>
-      <c r="E299" s="6">
+      <c r="E363" s="6">
         <v>12</v>
       </c>
-      <c r="F299" s="6">
+      <c r="F363" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
   <si>
     <t>timestamp</t>
   </si>
@@ -1573,6 +1573,12 @@
     <t>L_04021.NC</t>
   </si>
   <si>
+    <t>2024-10-10 12:09:22</t>
+  </si>
+  <si>
+    <t>L_0416.slp</t>
+  </si>
+  <si>
     <t>2024-09-25 14:49:38</t>
   </si>
   <si>
@@ -1651,6 +1657,12 @@
     <t>L_04627.NC</t>
   </si>
   <si>
+    <t>2024-10-15 00:49:53</t>
+  </si>
+  <si>
+    <t>L_04628.NC</t>
+  </si>
+  <si>
     <t>2024-10-15 02:39:53</t>
   </si>
   <si>
@@ -1711,18 +1723,90 @@
     <t>L_04638.NC</t>
   </si>
   <si>
+    <t>2024-10-16 14:30:52</t>
+  </si>
+  <si>
+    <t>L_04639.NC</t>
+  </si>
+  <si>
+    <t>2024-10-14 09:47:25</t>
+  </si>
+  <si>
+    <t>L_04640.NC</t>
+  </si>
+  <si>
+    <t>2024-10-17 22:55:16</t>
+  </si>
+  <si>
+    <t>L_04641.NC</t>
+  </si>
+  <si>
+    <t>2024-10-17 21:57:32</t>
+  </si>
+  <si>
+    <t>L_04642.NC</t>
+  </si>
+  <si>
+    <t>2024-10-17 23:02:37</t>
+  </si>
+  <si>
+    <t>L_04643.NC</t>
+  </si>
+  <si>
+    <t>2024-10-17 22:48:17</t>
+  </si>
+  <si>
+    <t>L_04644.NC</t>
+  </si>
+  <si>
+    <t>2024-10-17 23:26:53</t>
+  </si>
+  <si>
+    <t>L_04645.NC</t>
+  </si>
+  <si>
+    <t>2024-10-16 14:21:12</t>
+  </si>
+  <si>
+    <t>L_04646.NC</t>
+  </si>
+  <si>
+    <t>2024-10-16 10:58:09</t>
+  </si>
+  <si>
+    <t>L_04647.NC</t>
+  </si>
+  <si>
     <t>2024-10-15 08:28:14</t>
   </si>
   <si>
     <t>L_04648.NC</t>
   </si>
   <si>
+    <t>2024-10-16 10:48:43</t>
+  </si>
+  <si>
+    <t>L_04649.NC</t>
+  </si>
+  <si>
     <t>2024-10-15 11:29:15</t>
   </si>
   <si>
     <t>L_04650.NC</t>
   </si>
   <si>
+    <t>2024-10-16 10:40:06</t>
+  </si>
+  <si>
+    <t>L_04651.NC</t>
+  </si>
+  <si>
+    <t>2024-10-17 22:12:25</t>
+  </si>
+  <si>
+    <t>L_04652.NC</t>
+  </si>
+  <si>
     <t>2024-10-15 08:15:18</t>
   </si>
   <si>
@@ -1753,6 +1837,18 @@
     <t>L_04660.NC</t>
   </si>
   <si>
+    <t>2024-10-18 01:36:57</t>
+  </si>
+  <si>
+    <t>L_04661.NC</t>
+  </si>
+  <si>
+    <t>2024-10-16 11:46:51</t>
+  </si>
+  <si>
+    <t>L_04662.NC</t>
+  </si>
+  <si>
     <t>2024-10-15 04:47:01</t>
   </si>
   <si>
@@ -1771,24 +1867,72 @@
     <t>L_04670.NC</t>
   </si>
   <si>
+    <t>2024-10-16 11:58:42</t>
+  </si>
+  <si>
+    <t>L_04671.NC</t>
+  </si>
+  <si>
     <t>2024-10-15 03:17:38</t>
   </si>
   <si>
     <t>L_04672.NC</t>
   </si>
   <si>
+    <t>2024-10-16 14:38:35</t>
+  </si>
+  <si>
+    <t>L_04673.NC</t>
+  </si>
+  <si>
     <t>2024-10-14 10:06:27</t>
   </si>
   <si>
     <t>L_04674.NC</t>
   </si>
   <si>
+    <t>2024-10-16 12:07:08</t>
+  </si>
+  <si>
+    <t>L_04675.NC</t>
+  </si>
+  <si>
     <t>2024-10-14 12:49:53</t>
   </si>
   <si>
     <t>L_04676.NC</t>
   </si>
   <si>
+    <t>2024-10-17 23:34:10</t>
+  </si>
+  <si>
+    <t>L_04677.NC</t>
+  </si>
+  <si>
+    <t>2024-10-17 23:41:48</t>
+  </si>
+  <si>
+    <t>L_04678.NC</t>
+  </si>
+  <si>
+    <t>2024-10-18 01:25:10</t>
+  </si>
+  <si>
+    <t>L_04679.NC</t>
+  </si>
+  <si>
+    <t>2024-10-18 01:17:36</t>
+  </si>
+  <si>
+    <t>L_04680.NC</t>
+  </si>
+  <si>
+    <t>2024-10-18 02:04:17</t>
+  </si>
+  <si>
+    <t>L_04681.NC</t>
+  </si>
+  <si>
     <t>2024-10-11 02:45:28</t>
   </si>
   <si>
@@ -2117,6 +2261,180 @@
   </si>
   <si>
     <t>L_05119.NC</t>
+  </si>
+  <si>
+    <t>2024-10-16 05:44:41</t>
+  </si>
+  <si>
+    <t>L_05168.NC</t>
+  </si>
+  <si>
+    <t>2024-10-18 02:51:38</t>
+  </si>
+  <si>
+    <t>L_05176.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 08:51:14</t>
+  </si>
+  <si>
+    <t>L_05177.NC</t>
+  </si>
+  <si>
+    <t>2024-10-18 03:29:56</t>
+  </si>
+  <si>
+    <t>L_05178.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 22:35:46</t>
+  </si>
+  <si>
+    <t>L_05208.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 15:02:49</t>
+  </si>
+  <si>
+    <t>L_05209.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 12:45:01</t>
+  </si>
+  <si>
+    <t>L_05210.NC</t>
+  </si>
+  <si>
+    <t>2024-10-15 11:41:01</t>
+  </si>
+  <si>
+    <t>L_05211.NC</t>
+  </si>
+  <si>
+    <t>2024-10-16 16:21:12</t>
+  </si>
+  <si>
+    <t>L_05249.NC</t>
+  </si>
+  <si>
+    <t>2024-10-18 10:07:35</t>
+  </si>
+  <si>
+    <t>L_05257.NC</t>
+  </si>
+  <si>
+    <t>2024-10-18 02:44:37</t>
+  </si>
+  <si>
+    <t>L_05258.slp</t>
+  </si>
+  <si>
+    <t>2024-10-18 08:29:53</t>
+  </si>
+  <si>
+    <t>L_05259.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 08:30:14</t>
+  </si>
+  <si>
+    <t>L_05260.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 15:45:27</t>
+  </si>
+  <si>
+    <t>L_05297.NC</t>
+  </si>
+  <si>
+    <t>2024-10-22 10:57:52</t>
+  </si>
+  <si>
+    <t>L_05298.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 09:51:13</t>
+  </si>
+  <si>
+    <t>L_05304.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 11:29:50</t>
+  </si>
+  <si>
+    <t>L_05305.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 10:33:12</t>
+  </si>
+  <si>
+    <t>L_05306.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 08:56:00</t>
+  </si>
+  <si>
+    <t>L_05307.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 12:53:54</t>
+  </si>
+  <si>
+    <t>L_05308.NC</t>
+  </si>
+  <si>
+    <t>2024-10-21 13:25:35</t>
+  </si>
+  <si>
+    <t>L_05309.NC</t>
+  </si>
+  <si>
+    <t>2024-10-22 14:28:07</t>
+  </si>
+  <si>
+    <t>L_05466.NC</t>
+  </si>
+  <si>
+    <t>2024-10-22 14:29:17</t>
+  </si>
+  <si>
+    <t>L_05467.NC</t>
+  </si>
+  <si>
+    <t>2024-10-23 11:04:12</t>
+  </si>
+  <si>
+    <t>L_05566.NC</t>
+  </si>
+  <si>
+    <t>2024-10-23 13:57:18</t>
+  </si>
+  <si>
+    <t>L_05567.NC</t>
+  </si>
+  <si>
+    <t>2024-10-23 12:20:53</t>
+  </si>
+  <si>
+    <t>L_05569.NC</t>
+  </si>
+  <si>
+    <t>2024-10-23 14:29:51</t>
+  </si>
+  <si>
+    <t>L_05570.NC</t>
+  </si>
+  <si>
+    <t>2024-10-23 09:09:52</t>
+  </si>
+  <si>
+    <t>L_05629.NC</t>
+  </si>
+  <si>
+    <t>2024-10-23 16:33:57</t>
+  </si>
+  <si>
+    <t>L_05682.NC</t>
   </si>
   <si>
     <t>2024-06-12 08:57:56</t>
@@ -2306,7 +2624,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2316,16 +2634,19 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2497,9 +2818,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2579,7 +2900,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2607,10 +2928,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2866,9 +3187,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
+              <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -3156,7 +3477,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3184,10 +3505,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3438,15 +3759,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:F416"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.9297" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.2344" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.2109" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5078" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8618,13 +8942,13 @@
         <v>521</v>
       </c>
       <c r="C259" s="6">
-        <v>29.32</v>
+        <v>4</v>
       </c>
       <c r="D259" s="6">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E259" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F259" s="6">
         <v>1</v>
@@ -8638,13 +8962,13 @@
         <v>523</v>
       </c>
       <c r="C260" s="6">
-        <v>496</v>
+        <v>29.32</v>
       </c>
       <c r="D260" s="6">
-        <v>939</v>
+        <v>86</v>
       </c>
       <c r="E260" s="6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F260" s="6">
         <v>1</v>
@@ -8658,13 +8982,13 @@
         <v>525</v>
       </c>
       <c r="C261" s="6">
-        <v>4</v>
+        <v>496</v>
       </c>
       <c r="D261" s="6">
-        <v>26</v>
+        <v>939</v>
       </c>
       <c r="E261" s="6">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F261" s="6">
         <v>1</v>
@@ -8918,7 +9242,7 @@
         <v>551</v>
       </c>
       <c r="C274" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D274" s="6">
         <v>26</v>
@@ -8938,10 +9262,10 @@
         <v>553</v>
       </c>
       <c r="C275" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D275" s="6">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="E275" s="6">
         <v>3</v>
@@ -8958,7 +9282,7 @@
         <v>555</v>
       </c>
       <c r="C276" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D276" s="6">
         <v>26</v>
@@ -9001,7 +9325,7 @@
         <v>5</v>
       </c>
       <c r="D278" s="6">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="E278" s="6">
         <v>3</v>
@@ -9018,10 +9342,10 @@
         <v>561</v>
       </c>
       <c r="C279" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D279" s="6">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="E279" s="6">
         <v>3</v>
@@ -9041,7 +9365,7 @@
         <v>5</v>
       </c>
       <c r="D280" s="6">
-        <v>26</v>
+        <v>25.4</v>
       </c>
       <c r="E280" s="6">
         <v>3</v>
@@ -9081,7 +9405,7 @@
         <v>5</v>
       </c>
       <c r="D282" s="6">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="E282" s="6">
         <v>3</v>
@@ -9118,10 +9442,10 @@
         <v>571</v>
       </c>
       <c r="C284" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D284" s="6">
-        <v>44</v>
+        <v>25.4</v>
       </c>
       <c r="E284" s="6">
         <v>3</v>
@@ -9138,10 +9462,10 @@
         <v>573</v>
       </c>
       <c r="C285" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D285" s="6">
-        <v>44</v>
+        <v>25.4</v>
       </c>
       <c r="E285" s="6">
         <v>3</v>
@@ -9158,10 +9482,10 @@
         <v>575</v>
       </c>
       <c r="C286" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D286" s="6">
-        <v>44</v>
+        <v>25.4</v>
       </c>
       <c r="E286" s="6">
         <v>3</v>
@@ -9178,10 +9502,10 @@
         <v>577</v>
       </c>
       <c r="C287" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D287" s="6">
-        <v>44</v>
+        <v>25.4</v>
       </c>
       <c r="E287" s="6">
         <v>3</v>
@@ -9198,10 +9522,10 @@
         <v>579</v>
       </c>
       <c r="C288" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D288" s="6">
-        <v>44</v>
+        <v>25.4</v>
       </c>
       <c r="E288" s="6">
         <v>3</v>
@@ -9218,10 +9542,10 @@
         <v>581</v>
       </c>
       <c r="C289" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D289" s="6">
-        <v>44</v>
+        <v>25.4</v>
       </c>
       <c r="E289" s="6">
         <v>3</v>
@@ -9238,10 +9562,10 @@
         <v>583</v>
       </c>
       <c r="C290" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D290" s="6">
-        <v>40</v>
+        <v>25.4</v>
       </c>
       <c r="E290" s="6">
         <v>3</v>
@@ -9258,10 +9582,10 @@
         <v>585</v>
       </c>
       <c r="C291" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D291" s="6">
-        <v>31.4</v>
+        <v>25.4</v>
       </c>
       <c r="E291" s="6">
         <v>3</v>
@@ -9278,10 +9602,10 @@
         <v>587</v>
       </c>
       <c r="C292" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D292" s="6">
-        <v>31.3</v>
+        <v>25.4</v>
       </c>
       <c r="E292" s="6">
         <v>3</v>
@@ -9298,10 +9622,10 @@
         <v>589</v>
       </c>
       <c r="C293" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D293" s="6">
-        <v>31.3</v>
+        <v>25.5</v>
       </c>
       <c r="E293" s="6">
         <v>3</v>
@@ -9318,10 +9642,10 @@
         <v>591</v>
       </c>
       <c r="C294" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D294" s="6">
-        <v>31.3</v>
+        <v>25.4</v>
       </c>
       <c r="E294" s="6">
         <v>3</v>
@@ -9338,13 +9662,13 @@
         <v>593</v>
       </c>
       <c r="C295" s="6">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="D295" s="6">
-        <v>428.3</v>
+        <v>26</v>
       </c>
       <c r="E295" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F295" s="6">
         <v>1</v>
@@ -9358,13 +9682,13 @@
         <v>595</v>
       </c>
       <c r="C296" s="6">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D296" s="6">
-        <v>222.6</v>
+        <v>25.4</v>
       </c>
       <c r="E296" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F296" s="6">
         <v>1</v>
@@ -9378,13 +9702,13 @@
         <v>597</v>
       </c>
       <c r="C297" s="6">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D297" s="6">
-        <v>71.5</v>
+        <v>25.4</v>
       </c>
       <c r="E297" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F297" s="6">
         <v>1</v>
@@ -9398,13 +9722,13 @@
         <v>599</v>
       </c>
       <c r="C298" s="6">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D298" s="6">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E298" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F298" s="6">
         <v>1</v>
@@ -9418,13 +9742,13 @@
         <v>601</v>
       </c>
       <c r="C299" s="6">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D299" s="6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E299" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F299" s="6">
         <v>1</v>
@@ -9438,13 +9762,13 @@
         <v>603</v>
       </c>
       <c r="C300" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D300" s="6">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E300" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F300" s="6">
         <v>1</v>
@@ -9458,13 +9782,13 @@
         <v>605</v>
       </c>
       <c r="C301" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D301" s="6">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E301" s="6">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F301" s="6">
         <v>1</v>
@@ -9478,13 +9802,13 @@
         <v>607</v>
       </c>
       <c r="C302" s="6">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D302" s="6">
-        <v>31.3</v>
+        <v>44</v>
       </c>
       <c r="E302" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F302" s="6">
         <v>1</v>
@@ -9498,13 +9822,13 @@
         <v>609</v>
       </c>
       <c r="C303" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D303" s="6">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E303" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F303" s="6">
         <v>1</v>
@@ -9518,13 +9842,13 @@
         <v>611</v>
       </c>
       <c r="C304" s="6">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D304" s="6">
-        <v>5.5</v>
+        <v>44</v>
       </c>
       <c r="E304" s="6">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F304" s="6">
         <v>1</v>
@@ -9538,13 +9862,13 @@
         <v>613</v>
       </c>
       <c r="C305" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D305" s="6">
-        <v>21.3</v>
+        <v>44</v>
       </c>
       <c r="E305" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F305" s="6">
         <v>1</v>
@@ -9558,13 +9882,13 @@
         <v>615</v>
       </c>
       <c r="C306" s="6">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D306" s="6">
-        <v>35.3</v>
+        <v>40</v>
       </c>
       <c r="E306" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F306" s="6">
         <v>1</v>
@@ -9578,13 +9902,13 @@
         <v>617</v>
       </c>
       <c r="C307" s="6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D307" s="6">
-        <v>17</v>
+        <v>31.4</v>
       </c>
       <c r="E307" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F307" s="6">
         <v>1</v>
@@ -9598,13 +9922,13 @@
         <v>619</v>
       </c>
       <c r="C308" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D308" s="6">
-        <v>20</v>
+        <v>31.3</v>
       </c>
       <c r="E308" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F308" s="6">
         <v>1</v>
@@ -9618,13 +9942,13 @@
         <v>621</v>
       </c>
       <c r="C309" s="6">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D309" s="6">
-        <v>25.1</v>
+        <v>31.3</v>
       </c>
       <c r="E309" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F309" s="6">
         <v>1</v>
@@ -9638,13 +9962,13 @@
         <v>623</v>
       </c>
       <c r="C310" s="6">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D310" s="6">
-        <v>48.4</v>
+        <v>31.3</v>
       </c>
       <c r="E310" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F310" s="6">
         <v>1</v>
@@ -9658,13 +9982,13 @@
         <v>625</v>
       </c>
       <c r="C311" s="6">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D311" s="6">
-        <v>38</v>
+        <v>31.3</v>
       </c>
       <c r="E311" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F311" s="6">
         <v>1</v>
@@ -9678,13 +10002,13 @@
         <v>627</v>
       </c>
       <c r="C312" s="6">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D312" s="6">
-        <v>30</v>
+        <v>31.3</v>
       </c>
       <c r="E312" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F312" s="6">
         <v>1</v>
@@ -9698,13 +10022,13 @@
         <v>629</v>
       </c>
       <c r="C313" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D313" s="6">
-        <v>6</v>
+        <v>31.3</v>
       </c>
       <c r="E313" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F313" s="6">
         <v>1</v>
@@ -9718,13 +10042,13 @@
         <v>631</v>
       </c>
       <c r="C314" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D314" s="6">
-        <v>60</v>
+        <v>31.3</v>
       </c>
       <c r="E314" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F314" s="6">
         <v>1</v>
@@ -9738,13 +10062,13 @@
         <v>633</v>
       </c>
       <c r="C315" s="6">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="D315" s="6">
-        <v>124.5</v>
+        <v>31.3</v>
       </c>
       <c r="E315" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F315" s="6">
         <v>1</v>
@@ -9758,13 +10082,13 @@
         <v>635</v>
       </c>
       <c r="C316" s="6">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="D316" s="6">
-        <v>25</v>
+        <v>31.3</v>
       </c>
       <c r="E316" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F316" s="6">
         <v>1</v>
@@ -9778,13 +10102,13 @@
         <v>637</v>
       </c>
       <c r="C317" s="6">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D317" s="6">
-        <v>77</v>
+        <v>31.3</v>
       </c>
       <c r="E317" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F317" s="6">
         <v>1</v>
@@ -9798,13 +10122,13 @@
         <v>639</v>
       </c>
       <c r="C318" s="6">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="D318" s="6">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="E318" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F318" s="6">
         <v>1</v>
@@ -9818,13 +10142,13 @@
         <v>641</v>
       </c>
       <c r="C319" s="6">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="D319" s="6">
-        <v>75.59999999999999</v>
+        <v>428.3</v>
       </c>
       <c r="E319" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F319" s="6">
         <v>1</v>
@@ -9838,13 +10162,13 @@
         <v>643</v>
       </c>
       <c r="C320" s="6">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="D320" s="6">
-        <v>59.4</v>
+        <v>222.6</v>
       </c>
       <c r="E320" s="6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F320" s="6">
         <v>1</v>
@@ -9858,13 +10182,13 @@
         <v>645</v>
       </c>
       <c r="C321" s="6">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="D321" s="6">
-        <v>52</v>
+        <v>71.5</v>
       </c>
       <c r="E321" s="6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F321" s="6">
         <v>1</v>
@@ -9878,13 +10202,13 @@
         <v>647</v>
       </c>
       <c r="C322" s="6">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="D322" s="6">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E322" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F322" s="6">
         <v>1</v>
@@ -9898,13 +10222,13 @@
         <v>649</v>
       </c>
       <c r="C323" s="6">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D323" s="6">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E323" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F323" s="6">
         <v>1</v>
@@ -9918,13 +10242,13 @@
         <v>651</v>
       </c>
       <c r="C324" s="6">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D324" s="6">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E324" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F324" s="6">
         <v>1</v>
@@ -9938,13 +10262,13 @@
         <v>653</v>
       </c>
       <c r="C325" s="6">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D325" s="6">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E325" s="6">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F325" s="6">
         <v>1</v>
@@ -9958,13 +10282,13 @@
         <v>655</v>
       </c>
       <c r="C326" s="6">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D326" s="6">
-        <v>50.4</v>
+        <v>31.3</v>
       </c>
       <c r="E326" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F326" s="6">
         <v>1</v>
@@ -9978,13 +10302,13 @@
         <v>657</v>
       </c>
       <c r="C327" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D327" s="6">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="E327" s="6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F327" s="6">
         <v>1</v>
@@ -9998,13 +10322,13 @@
         <v>659</v>
       </c>
       <c r="C328" s="6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D328" s="6">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="E328" s="6">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F328" s="6">
         <v>1</v>
@@ -10018,13 +10342,13 @@
         <v>661</v>
       </c>
       <c r="C329" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D329" s="6">
-        <v>4.7</v>
+        <v>21.3</v>
       </c>
       <c r="E329" s="6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F329" s="6">
         <v>1</v>
@@ -10038,13 +10362,13 @@
         <v>663</v>
       </c>
       <c r="C330" s="6">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D330" s="6">
-        <v>5.4</v>
+        <v>35.3</v>
       </c>
       <c r="E330" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F330" s="6">
         <v>1</v>
@@ -10058,13 +10382,13 @@
         <v>665</v>
       </c>
       <c r="C331" s="6">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D331" s="6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E331" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F331" s="6">
         <v>1</v>
@@ -10078,13 +10402,13 @@
         <v>667</v>
       </c>
       <c r="C332" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D332" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E332" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F332" s="6">
         <v>1</v>
@@ -10098,10 +10422,10 @@
         <v>669</v>
       </c>
       <c r="C333" s="6">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D333" s="6">
-        <v>11</v>
+        <v>25.1</v>
       </c>
       <c r="E333" s="6">
         <v>16</v>
@@ -10118,13 +10442,13 @@
         <v>671</v>
       </c>
       <c r="C334" s="6">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D334" s="6">
-        <v>13</v>
+        <v>48.4</v>
       </c>
       <c r="E334" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F334" s="6">
         <v>1</v>
@@ -10138,13 +10462,13 @@
         <v>673</v>
       </c>
       <c r="C335" s="6">
+        <v>36</v>
+      </c>
+      <c r="D335" s="6">
+        <v>38</v>
+      </c>
+      <c r="E335" s="6">
         <v>16</v>
-      </c>
-      <c r="D335" s="6">
-        <v>8</v>
-      </c>
-      <c r="E335" s="6">
-        <v>25</v>
       </c>
       <c r="F335" s="6">
         <v>1</v>
@@ -10158,13 +10482,13 @@
         <v>675</v>
       </c>
       <c r="C336" s="6">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D336" s="6">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E336" s="6">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F336" s="6">
         <v>1</v>
@@ -10178,13 +10502,13 @@
         <v>677</v>
       </c>
       <c r="C337" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D337" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E337" s="6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F337" s="6">
         <v>1</v>
@@ -10198,13 +10522,13 @@
         <v>679</v>
       </c>
       <c r="C338" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D338" s="6">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E338" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F338" s="6">
         <v>1</v>
@@ -10218,13 +10542,13 @@
         <v>681</v>
       </c>
       <c r="C339" s="6">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="D339" s="6">
-        <v>65</v>
+        <v>124.5</v>
       </c>
       <c r="E339" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F339" s="6">
         <v>1</v>
@@ -10238,13 +10562,13 @@
         <v>683</v>
       </c>
       <c r="C340" s="6">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="D340" s="6">
-        <v>0.6</v>
+        <v>25</v>
       </c>
       <c r="E340" s="6">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F340" s="6">
         <v>1</v>
@@ -10258,13 +10582,13 @@
         <v>685</v>
       </c>
       <c r="C341" s="6">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D341" s="6">
-        <v>15.8</v>
+        <v>77</v>
       </c>
       <c r="E341" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F341" s="6">
         <v>1</v>
@@ -10278,13 +10602,13 @@
         <v>687</v>
       </c>
       <c r="C342" s="6">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="D342" s="6">
-        <v>14.3</v>
+        <v>76</v>
       </c>
       <c r="E342" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F342" s="6">
         <v>1</v>
@@ -10298,13 +10622,13 @@
         <v>689</v>
       </c>
       <c r="C343" s="6">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D343" s="6">
-        <v>410</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E343" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F343" s="6">
         <v>1</v>
@@ -10318,13 +10642,13 @@
         <v>691</v>
       </c>
       <c r="C344" s="6">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="D344" s="6">
-        <v>11</v>
+        <v>59.4</v>
       </c>
       <c r="E344" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F344" s="6">
         <v>1</v>
@@ -10338,13 +10662,13 @@
         <v>693</v>
       </c>
       <c r="C345" s="6">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D345" s="6">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E345" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F345" s="6">
         <v>1</v>
@@ -10358,13 +10682,13 @@
         <v>695</v>
       </c>
       <c r="C346" s="6">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D346" s="6">
-        <v>15.5</v>
+        <v>52</v>
       </c>
       <c r="E346" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F346" s="6">
         <v>1</v>
@@ -10378,13 +10702,13 @@
         <v>697</v>
       </c>
       <c r="C347" s="6">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D347" s="6">
-        <v>33.2</v>
+        <v>22</v>
       </c>
       <c r="E347" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F347" s="6">
         <v>1</v>
@@ -10398,13 +10722,13 @@
         <v>699</v>
       </c>
       <c r="C348" s="6">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D348" s="6">
-        <v>26.2</v>
+        <v>51</v>
       </c>
       <c r="E348" s="6">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F348" s="6">
         <v>1</v>
@@ -10418,13 +10742,13 @@
         <v>701</v>
       </c>
       <c r="C349" s="6">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D349" s="6">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="E349" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F349" s="6">
         <v>1</v>
@@ -10438,13 +10762,13 @@
         <v>703</v>
       </c>
       <c r="C350" s="6">
-        <v>167.31</v>
+        <v>66</v>
       </c>
       <c r="D350" s="6">
-        <v>485</v>
+        <v>50.4</v>
       </c>
       <c r="E350" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F350" s="6">
         <v>1</v>
@@ -10458,13 +10782,13 @@
         <v>705</v>
       </c>
       <c r="C351" s="6">
-        <v>43.47</v>
+        <v>1</v>
       </c>
       <c r="D351" s="6">
-        <v>118.61</v>
+        <v>3.8</v>
       </c>
       <c r="E351" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F351" s="6">
         <v>1</v>
@@ -10478,13 +10802,13 @@
         <v>707</v>
       </c>
       <c r="C352" s="6">
-        <v>99.67</v>
+        <v>1</v>
       </c>
       <c r="D352" s="6">
-        <v>118.61</v>
+        <v>0.7</v>
       </c>
       <c r="E352" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F352" s="6">
         <v>1</v>
@@ -10498,13 +10822,13 @@
         <v>709</v>
       </c>
       <c r="C353" s="6">
-        <v>34.58</v>
+        <v>1</v>
       </c>
       <c r="D353" s="6">
-        <v>104.31</v>
+        <v>4.7</v>
       </c>
       <c r="E353" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F353" s="6">
         <v>1</v>
@@ -10518,13 +10842,13 @@
         <v>711</v>
       </c>
       <c r="C354" s="6">
-        <v>45.49</v>
+        <v>1</v>
       </c>
       <c r="D354" s="6">
-        <v>110</v>
+        <v>5.4</v>
       </c>
       <c r="E354" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F354" s="6">
         <v>1</v>
@@ -10538,13 +10862,13 @@
         <v>713</v>
       </c>
       <c r="C355" s="6">
-        <v>194.66</v>
+        <v>7</v>
       </c>
       <c r="D355" s="6">
-        <v>561.2</v>
+        <v>27</v>
       </c>
       <c r="E355" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F355" s="6">
         <v>1</v>
@@ -10558,10 +10882,10 @@
         <v>715</v>
       </c>
       <c r="C356" s="6">
-        <v>321.56</v>
+        <v>1</v>
       </c>
       <c r="D356" s="6">
-        <v>850.95</v>
+        <v>2</v>
       </c>
       <c r="E356" s="6">
         <v>12</v>
@@ -10578,13 +10902,13 @@
         <v>717</v>
       </c>
       <c r="C357" s="6">
-        <v>28.94</v>
+        <v>11</v>
       </c>
       <c r="D357" s="6">
-        <v>24.88</v>
+        <v>11</v>
       </c>
       <c r="E357" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F357" s="6">
         <v>1</v>
@@ -10598,13 +10922,13 @@
         <v>719</v>
       </c>
       <c r="C358" s="6">
-        <v>43.34</v>
+        <v>18</v>
       </c>
       <c r="D358" s="6">
-        <v>24.18</v>
+        <v>13</v>
       </c>
       <c r="E358" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F358" s="6">
         <v>1</v>
@@ -10618,13 +10942,13 @@
         <v>721</v>
       </c>
       <c r="C359" s="6">
-        <v>19.21</v>
+        <v>16</v>
       </c>
       <c r="D359" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E359" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F359" s="6">
         <v>1</v>
@@ -10638,13 +10962,13 @@
         <v>723</v>
       </c>
       <c r="C360" s="6">
-        <v>195.6</v>
+        <v>8</v>
       </c>
       <c r="D360" s="6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E360" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F360" s="6">
         <v>1</v>
@@ -10658,13 +10982,13 @@
         <v>725</v>
       </c>
       <c r="C361" s="6">
-        <v>31.58</v>
+        <v>1</v>
       </c>
       <c r="D361" s="6">
-        <v>145.52</v>
+        <v>4</v>
       </c>
       <c r="E361" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F361" s="6">
         <v>1</v>
@@ -10678,13 +11002,13 @@
         <v>727</v>
       </c>
       <c r="C362" s="6">
-        <v>34.53</v>
+        <v>1</v>
       </c>
       <c r="D362" s="6">
-        <v>12.17</v>
+        <v>3</v>
       </c>
       <c r="E362" s="6">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F362" s="6">
         <v>1</v>
@@ -10698,15 +11022,1073 @@
         <v>729</v>
       </c>
       <c r="C363" s="6">
+        <v>22</v>
+      </c>
+      <c r="D363" s="6">
+        <v>65</v>
+      </c>
+      <c r="E363" s="6">
+        <v>10</v>
+      </c>
+      <c r="F363" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" ht="13.55" customHeight="1">
+      <c r="A364" t="s" s="5">
+        <v>730</v>
+      </c>
+      <c r="B364" t="s" s="5">
+        <v>731</v>
+      </c>
+      <c r="C364" s="6">
+        <v>2</v>
+      </c>
+      <c r="D364" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E364" s="6">
+        <v>25</v>
+      </c>
+      <c r="F364" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" ht="13.55" customHeight="1">
+      <c r="A365" t="s" s="5">
+        <v>732</v>
+      </c>
+      <c r="B365" t="s" s="5">
+        <v>733</v>
+      </c>
+      <c r="C365" s="6">
+        <v>3</v>
+      </c>
+      <c r="D365" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="E365" s="6">
+        <v>10</v>
+      </c>
+      <c r="F365" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" ht="13.55" customHeight="1">
+      <c r="A366" t="s" s="5">
+        <v>734</v>
+      </c>
+      <c r="B366" t="s" s="5">
+        <v>735</v>
+      </c>
+      <c r="C366" s="6">
+        <v>14</v>
+      </c>
+      <c r="D366" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="E366" s="6">
+        <v>16</v>
+      </c>
+      <c r="F366" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" ht="13.55" customHeight="1">
+      <c r="A367" t="s" s="5">
+        <v>736</v>
+      </c>
+      <c r="B367" t="s" s="5">
+        <v>737</v>
+      </c>
+      <c r="C367" s="6">
+        <v>153</v>
+      </c>
+      <c r="D367" s="6">
+        <v>410</v>
+      </c>
+      <c r="E367" s="6">
+        <v>12</v>
+      </c>
+      <c r="F367" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" ht="13.55" customHeight="1">
+      <c r="A368" t="s" s="5">
+        <v>738</v>
+      </c>
+      <c r="B368" t="s" s="5">
+        <v>739</v>
+      </c>
+      <c r="C368" s="6">
+        <v>4</v>
+      </c>
+      <c r="D368" s="6">
+        <v>11</v>
+      </c>
+      <c r="E368" s="6">
+        <v>12</v>
+      </c>
+      <c r="F368" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" ht="13.55" customHeight="1">
+      <c r="A369" t="s" s="5">
+        <v>740</v>
+      </c>
+      <c r="B369" t="s" s="5">
+        <v>741</v>
+      </c>
+      <c r="C369" s="6">
+        <v>3</v>
+      </c>
+      <c r="D369" s="6">
+        <v>10</v>
+      </c>
+      <c r="E369" s="6">
+        <v>6</v>
+      </c>
+      <c r="F369" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" ht="13.55" customHeight="1">
+      <c r="A370" t="s" s="5">
+        <v>742</v>
+      </c>
+      <c r="B370" t="s" s="5">
+        <v>743</v>
+      </c>
+      <c r="C370" s="6">
+        <v>5</v>
+      </c>
+      <c r="D370" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E370" s="6">
+        <v>10</v>
+      </c>
+      <c r="F370" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" ht="13.55" customHeight="1">
+      <c r="A371" t="s" s="5">
+        <v>744</v>
+      </c>
+      <c r="B371" t="s" s="5">
+        <v>745</v>
+      </c>
+      <c r="C371" s="6">
+        <v>39</v>
+      </c>
+      <c r="D371" s="6">
+        <v>33.2</v>
+      </c>
+      <c r="E371" s="6">
+        <v>16</v>
+      </c>
+      <c r="F371" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" ht="13.55" customHeight="1">
+      <c r="A372" t="s" s="5">
+        <v>746</v>
+      </c>
+      <c r="B372" t="s" s="5">
+        <v>747</v>
+      </c>
+      <c r="C372" s="6">
+        <v>4</v>
+      </c>
+      <c r="D372" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="E372" s="6">
+        <v>6</v>
+      </c>
+      <c r="F372" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" ht="13.55" customHeight="1">
+      <c r="A373" t="s" s="5">
+        <v>748</v>
+      </c>
+      <c r="B373" t="s" s="5">
+        <v>749</v>
+      </c>
+      <c r="C373" s="6">
+        <v>37</v>
+      </c>
+      <c r="D373" s="6">
+        <v>155</v>
+      </c>
+      <c r="E373" s="6">
+        <v>10</v>
+      </c>
+      <c r="F373" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" ht="13.55" customHeight="1">
+      <c r="A374" t="s" s="5">
+        <v>750</v>
+      </c>
+      <c r="B374" t="s" s="5">
+        <v>751</v>
+      </c>
+      <c r="C374" s="6">
+        <v>9</v>
+      </c>
+      <c r="D374" s="6">
+        <v>115</v>
+      </c>
+      <c r="E374" s="6">
+        <v>10</v>
+      </c>
+      <c r="F374" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" ht="13.55" customHeight="1">
+      <c r="A375" t="s" s="5">
+        <v>752</v>
+      </c>
+      <c r="B375" t="s" s="5">
+        <v>753</v>
+      </c>
+      <c r="C375" s="6">
+        <v>1</v>
+      </c>
+      <c r="D375" s="6">
+        <v>2</v>
+      </c>
+      <c r="E375" s="6">
+        <v>8</v>
+      </c>
+      <c r="F375" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" ht="13.55" customHeight="1">
+      <c r="A376" t="s" s="5">
+        <v>754</v>
+      </c>
+      <c r="B376" t="s" s="5">
+        <v>755</v>
+      </c>
+      <c r="C376" s="6">
+        <v>1</v>
+      </c>
+      <c r="D376" s="6">
+        <v>1</v>
+      </c>
+      <c r="E376" s="6">
+        <v>14</v>
+      </c>
+      <c r="F376" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" ht="13.55" customHeight="1">
+      <c r="A377" t="s" s="5">
+        <v>756</v>
+      </c>
+      <c r="B377" t="s" s="5">
+        <v>757</v>
+      </c>
+      <c r="C377" s="6">
+        <v>5</v>
+      </c>
+      <c r="D377" s="6">
+        <v>4</v>
+      </c>
+      <c r="E377" s="6">
+        <v>16</v>
+      </c>
+      <c r="F377" s="7"/>
+    </row>
+    <row r="378" ht="13.55" customHeight="1">
+      <c r="A378" t="s" s="5">
+        <v>758</v>
+      </c>
+      <c r="B378" t="s" s="5">
+        <v>759</v>
+      </c>
+      <c r="C378" s="6">
+        <v>404</v>
+      </c>
+      <c r="D378" s="6">
+        <v>214.3</v>
+      </c>
+      <c r="E378" s="6">
+        <v>25</v>
+      </c>
+      <c r="F378" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" ht="13.55" customHeight="1">
+      <c r="A379" t="s" s="5">
+        <v>760</v>
+      </c>
+      <c r="B379" t="s" s="5">
+        <v>761</v>
+      </c>
+      <c r="C379" s="6">
+        <v>202</v>
+      </c>
+      <c r="D379" s="6">
+        <v>108</v>
+      </c>
+      <c r="E379" s="6">
+        <v>25</v>
+      </c>
+      <c r="F379" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" ht="13.55" customHeight="1">
+      <c r="A380" t="s" s="5">
+        <v>762</v>
+      </c>
+      <c r="B380" t="s" s="5">
+        <v>763</v>
+      </c>
+      <c r="C380" s="6">
+        <v>82</v>
+      </c>
+      <c r="D380" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="E380" s="6">
+        <v>25</v>
+      </c>
+      <c r="F380" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" ht="13.55" customHeight="1">
+      <c r="A381" t="s" s="5">
+        <v>764</v>
+      </c>
+      <c r="B381" t="s" s="5">
+        <v>765</v>
+      </c>
+      <c r="C381" s="6">
+        <v>27</v>
+      </c>
+      <c r="D381" s="6">
+        <v>20</v>
+      </c>
+      <c r="E381" s="6">
+        <v>25</v>
+      </c>
+      <c r="F381" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" ht="13.55" customHeight="1">
+      <c r="A382" t="s" s="5">
+        <v>766</v>
+      </c>
+      <c r="B382" t="s" s="5">
+        <v>767</v>
+      </c>
+      <c r="C382" s="6">
+        <v>890</v>
+      </c>
+      <c r="D382" s="6">
+        <v>545</v>
+      </c>
+      <c r="E382" s="6">
+        <v>25</v>
+      </c>
+      <c r="F382" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" ht="13.55" customHeight="1">
+      <c r="A383" t="s" s="5">
+        <v>768</v>
+      </c>
+      <c r="B383" t="s" s="5">
+        <v>769</v>
+      </c>
+      <c r="C383" s="6">
+        <v>7</v>
+      </c>
+      <c r="D383" s="6">
+        <v>42.3</v>
+      </c>
+      <c r="E383" s="6">
+        <v>6</v>
+      </c>
+      <c r="F383" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" ht="13.55" customHeight="1">
+      <c r="A384" t="s" s="5">
+        <v>770</v>
+      </c>
+      <c r="B384" t="s" s="5">
+        <v>771</v>
+      </c>
+      <c r="C384" s="6">
+        <v>2</v>
+      </c>
+      <c r="D384" s="6">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E384" s="6">
+        <v>8</v>
+      </c>
+      <c r="F384" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" ht="13.55" customHeight="1">
+      <c r="A385" t="s" s="5">
+        <v>772</v>
+      </c>
+      <c r="B385" t="s" s="5">
+        <v>773</v>
+      </c>
+      <c r="C385" s="6">
+        <v>1</v>
+      </c>
+      <c r="D385" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E385" s="6">
+        <v>10</v>
+      </c>
+      <c r="F385" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" ht="13.55" customHeight="1">
+      <c r="A386" t="s" s="5">
+        <v>774</v>
+      </c>
+      <c r="B386" t="s" s="5">
+        <v>775</v>
+      </c>
+      <c r="C386" s="6">
+        <v>1</v>
+      </c>
+      <c r="D386" s="6">
+        <v>2.3</v>
+      </c>
+      <c r="E386" s="6">
+        <v>12</v>
+      </c>
+      <c r="F386" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" ht="13.55" customHeight="1">
+      <c r="A387" t="s" s="5">
+        <v>776</v>
+      </c>
+      <c r="B387" t="s" s="5">
+        <v>777</v>
+      </c>
+      <c r="C387" s="6">
+        <v>74</v>
+      </c>
+      <c r="D387" s="6">
+        <v>604</v>
+      </c>
+      <c r="E387" s="6">
+        <v>12</v>
+      </c>
+      <c r="F387" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" ht="13.55" customHeight="1">
+      <c r="A388" t="s" s="5">
+        <v>778</v>
+      </c>
+      <c r="B388" t="s" s="5">
+        <v>779</v>
+      </c>
+      <c r="C388" s="6">
+        <v>156</v>
+      </c>
+      <c r="D388" s="6">
+        <v>371</v>
+      </c>
+      <c r="E388" s="6">
+        <v>12</v>
+      </c>
+      <c r="F388" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" ht="13.55" customHeight="1">
+      <c r="A389" t="s" s="5">
+        <v>780</v>
+      </c>
+      <c r="B389" t="s" s="5">
+        <v>781</v>
+      </c>
+      <c r="C389" s="6">
+        <v>15</v>
+      </c>
+      <c r="D389" s="6">
+        <v>59</v>
+      </c>
+      <c r="E389" s="6">
+        <v>6</v>
+      </c>
+      <c r="F389" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" ht="13.55" customHeight="1">
+      <c r="A390" t="s" s="5">
+        <v>782</v>
+      </c>
+      <c r="B390" t="s" s="5">
+        <v>783</v>
+      </c>
+      <c r="C390" s="6">
+        <v>18</v>
+      </c>
+      <c r="D390" s="6">
+        <v>64</v>
+      </c>
+      <c r="E390" s="6">
+        <v>8</v>
+      </c>
+      <c r="F390" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" ht="13.55" customHeight="1">
+      <c r="A391" t="s" s="5">
+        <v>784</v>
+      </c>
+      <c r="B391" t="s" s="5">
+        <v>785</v>
+      </c>
+      <c r="C391" s="6">
+        <v>8</v>
+      </c>
+      <c r="D391" s="6">
+        <v>32</v>
+      </c>
+      <c r="E391" s="6">
+        <v>10</v>
+      </c>
+      <c r="F391" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" ht="13.55" customHeight="1">
+      <c r="A392" t="s" s="5">
+        <v>786</v>
+      </c>
+      <c r="B392" t="s" s="5">
+        <v>787</v>
+      </c>
+      <c r="C392" s="6">
+        <v>2</v>
+      </c>
+      <c r="D392" s="6">
+        <v>4</v>
+      </c>
+      <c r="E392" s="6">
+        <v>12</v>
+      </c>
+      <c r="F392" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" ht="13.55" customHeight="1">
+      <c r="A393" t="s" s="5">
+        <v>788</v>
+      </c>
+      <c r="B393" t="s" s="5">
+        <v>789</v>
+      </c>
+      <c r="C393" s="6">
+        <v>10</v>
+      </c>
+      <c r="D393" s="6">
+        <v>6</v>
+      </c>
+      <c r="E393" s="6">
+        <v>20</v>
+      </c>
+      <c r="F393" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" ht="13.55" customHeight="1">
+      <c r="A394" t="s" s="5">
+        <v>790</v>
+      </c>
+      <c r="B394" t="s" s="5">
+        <v>791</v>
+      </c>
+      <c r="C394" s="6">
+        <v>14</v>
+      </c>
+      <c r="D394" s="6">
+        <v>5</v>
+      </c>
+      <c r="E394" s="6">
+        <v>32</v>
+      </c>
+      <c r="F394" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" ht="13.55" customHeight="1">
+      <c r="A395" t="s" s="5">
+        <v>792</v>
+      </c>
+      <c r="B395" t="s" s="5">
+        <v>793</v>
+      </c>
+      <c r="C395" s="6">
+        <v>120</v>
+      </c>
+      <c r="D395" s="6">
+        <v>345</v>
+      </c>
+      <c r="E395" s="6">
+        <v>12</v>
+      </c>
+      <c r="F395" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" ht="13.55" customHeight="1">
+      <c r="A396" t="s" s="5">
+        <v>794</v>
+      </c>
+      <c r="B396" t="s" s="5">
+        <v>795</v>
+      </c>
+      <c r="C396" s="6">
+        <v>34</v>
+      </c>
+      <c r="D396" s="6">
+        <v>98</v>
+      </c>
+      <c r="E396" s="6">
+        <v>12</v>
+      </c>
+      <c r="F396" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" ht="13.55" customHeight="1">
+      <c r="A397" t="s" s="5">
+        <v>796</v>
+      </c>
+      <c r="B397" t="s" s="5">
+        <v>797</v>
+      </c>
+      <c r="C397" s="6">
+        <v>2</v>
+      </c>
+      <c r="D397" s="6">
+        <v>8</v>
+      </c>
+      <c r="E397" s="6">
+        <v>6</v>
+      </c>
+      <c r="F397" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" ht="13.55" customHeight="1">
+      <c r="A398" t="s" s="5">
+        <v>798</v>
+      </c>
+      <c r="B398" t="s" s="5">
+        <v>799</v>
+      </c>
+      <c r="C398" s="6">
+        <v>12</v>
+      </c>
+      <c r="D398" s="6">
+        <v>74</v>
+      </c>
+      <c r="E398" s="6">
+        <v>8</v>
+      </c>
+      <c r="F398" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" ht="13.55" customHeight="1">
+      <c r="A399" t="s" s="5">
+        <v>800</v>
+      </c>
+      <c r="B399" t="s" s="5">
+        <v>801</v>
+      </c>
+      <c r="C399" s="6">
+        <v>3</v>
+      </c>
+      <c r="D399" s="6">
+        <v>12</v>
+      </c>
+      <c r="E399" s="6">
+        <v>12</v>
+      </c>
+      <c r="F399" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" ht="13.55" customHeight="1">
+      <c r="A400" t="s" s="5">
+        <v>802</v>
+      </c>
+      <c r="B400" t="s" s="5">
+        <v>803</v>
+      </c>
+      <c r="C400" s="6">
+        <v>20</v>
+      </c>
+      <c r="D400" s="6">
+        <v>20</v>
+      </c>
+      <c r="E400" s="6">
+        <v>12</v>
+      </c>
+      <c r="F400" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" ht="13.55" customHeight="1">
+      <c r="A401" t="s" s="5">
+        <v>804</v>
+      </c>
+      <c r="B401" t="s" s="5">
+        <v>805</v>
+      </c>
+      <c r="C401" s="6">
+        <v>1</v>
+      </c>
+      <c r="D401" s="6">
+        <v>4</v>
+      </c>
+      <c r="E401" s="6">
+        <v>8</v>
+      </c>
+      <c r="F401" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" ht="13.55" customHeight="1">
+      <c r="A402" t="s" s="5">
+        <v>806</v>
+      </c>
+      <c r="B402" t="s" s="5">
+        <v>807</v>
+      </c>
+      <c r="C402" s="6">
+        <v>29</v>
+      </c>
+      <c r="D402" s="6">
+        <v>1</v>
+      </c>
+      <c r="E402" s="6">
+        <v>14</v>
+      </c>
+      <c r="F402" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" ht="13.55" customHeight="1">
+      <c r="A403" t="s" s="5">
+        <v>808</v>
+      </c>
+      <c r="B403" t="s" s="5">
+        <v>809</v>
+      </c>
+      <c r="C403" s="6">
+        <v>167.31</v>
+      </c>
+      <c r="D403" s="6">
+        <v>485</v>
+      </c>
+      <c r="E403" s="6">
+        <v>12</v>
+      </c>
+      <c r="F403" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" ht="13.55" customHeight="1">
+      <c r="A404" t="s" s="5">
+        <v>810</v>
+      </c>
+      <c r="B404" t="s" s="5">
+        <v>811</v>
+      </c>
+      <c r="C404" s="6">
+        <v>43.47</v>
+      </c>
+      <c r="D404" s="6">
+        <v>118.61</v>
+      </c>
+      <c r="E404" s="6">
+        <v>12</v>
+      </c>
+      <c r="F404" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" ht="13.55" customHeight="1">
+      <c r="A405" t="s" s="5">
+        <v>812</v>
+      </c>
+      <c r="B405" t="s" s="5">
+        <v>813</v>
+      </c>
+      <c r="C405" s="6">
+        <v>99.67</v>
+      </c>
+      <c r="D405" s="6">
+        <v>118.61</v>
+      </c>
+      <c r="E405" s="6">
+        <v>12</v>
+      </c>
+      <c r="F405" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" ht="13.55" customHeight="1">
+      <c r="A406" t="s" s="5">
+        <v>814</v>
+      </c>
+      <c r="B406" t="s" s="5">
+        <v>815</v>
+      </c>
+      <c r="C406" s="6">
+        <v>34.58</v>
+      </c>
+      <c r="D406" s="6">
+        <v>104.31</v>
+      </c>
+      <c r="E406" s="6">
+        <v>12</v>
+      </c>
+      <c r="F406" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" ht="13.55" customHeight="1">
+      <c r="A407" t="s" s="5">
+        <v>816</v>
+      </c>
+      <c r="B407" t="s" s="5">
+        <v>817</v>
+      </c>
+      <c r="C407" s="6">
+        <v>45.49</v>
+      </c>
+      <c r="D407" s="6">
+        <v>110</v>
+      </c>
+      <c r="E407" s="6">
+        <v>12</v>
+      </c>
+      <c r="F407" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" ht="13.55" customHeight="1">
+      <c r="A408" t="s" s="5">
+        <v>818</v>
+      </c>
+      <c r="B408" t="s" s="5">
+        <v>819</v>
+      </c>
+      <c r="C408" s="6">
+        <v>194.66</v>
+      </c>
+      <c r="D408" s="6">
+        <v>561.2</v>
+      </c>
+      <c r="E408" s="6">
+        <v>12</v>
+      </c>
+      <c r="F408" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" ht="13.55" customHeight="1">
+      <c r="A409" t="s" s="5">
+        <v>820</v>
+      </c>
+      <c r="B409" t="s" s="5">
+        <v>821</v>
+      </c>
+      <c r="C409" s="6">
+        <v>321.56</v>
+      </c>
+      <c r="D409" s="6">
+        <v>850.95</v>
+      </c>
+      <c r="E409" s="6">
+        <v>12</v>
+      </c>
+      <c r="F409" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" ht="13.55" customHeight="1">
+      <c r="A410" t="s" s="5">
+        <v>822</v>
+      </c>
+      <c r="B410" t="s" s="5">
+        <v>823</v>
+      </c>
+      <c r="C410" s="6">
+        <v>28.94</v>
+      </c>
+      <c r="D410" s="6">
+        <v>24.88</v>
+      </c>
+      <c r="E410" s="6">
+        <v>20</v>
+      </c>
+      <c r="F410" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" ht="13.55" customHeight="1">
+      <c r="A411" t="s" s="5">
+        <v>824</v>
+      </c>
+      <c r="B411" t="s" s="5">
+        <v>825</v>
+      </c>
+      <c r="C411" s="6">
+        <v>43.34</v>
+      </c>
+      <c r="D411" s="6">
+        <v>24.18</v>
+      </c>
+      <c r="E411" s="6">
+        <v>25</v>
+      </c>
+      <c r="F411" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" ht="13.55" customHeight="1">
+      <c r="A412" t="s" s="5">
+        <v>826</v>
+      </c>
+      <c r="B412" t="s" s="5">
+        <v>827</v>
+      </c>
+      <c r="C412" s="6">
+        <v>19.21</v>
+      </c>
+      <c r="D412" s="6">
+        <v>5</v>
+      </c>
+      <c r="E412" s="6">
+        <v>32</v>
+      </c>
+      <c r="F412" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" ht="13.55" customHeight="1">
+      <c r="A413" t="s" s="5">
+        <v>828</v>
+      </c>
+      <c r="B413" t="s" s="5">
+        <v>829</v>
+      </c>
+      <c r="C413" s="6">
+        <v>195.6</v>
+      </c>
+      <c r="D413" s="6">
+        <v>17</v>
+      </c>
+      <c r="E413" s="6">
+        <v>32</v>
+      </c>
+      <c r="F413" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" ht="13.55" customHeight="1">
+      <c r="A414" t="s" s="5">
+        <v>830</v>
+      </c>
+      <c r="B414" t="s" s="5">
+        <v>831</v>
+      </c>
+      <c r="C414" s="6">
+        <v>31.58</v>
+      </c>
+      <c r="D414" s="6">
+        <v>145.52</v>
+      </c>
+      <c r="E414" s="6">
+        <v>10</v>
+      </c>
+      <c r="F414" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" ht="13.55" customHeight="1">
+      <c r="A415" t="s" s="5">
+        <v>832</v>
+      </c>
+      <c r="B415" t="s" s="5">
+        <v>833</v>
+      </c>
+      <c r="C415" s="6">
+        <v>34.53</v>
+      </c>
+      <c r="D415" s="6">
+        <v>12.17</v>
+      </c>
+      <c r="E415" s="6">
+        <v>25</v>
+      </c>
+      <c r="F415" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" ht="13.55" customHeight="1">
+      <c r="A416" t="s" s="5">
+        <v>834</v>
+      </c>
+      <c r="B416" t="s" s="5">
+        <v>835</v>
+      </c>
+      <c r="C416" s="6">
         <v>9.35</v>
       </c>
-      <c r="D363" s="6">
+      <c r="D416" s="6">
         <v>30</v>
       </c>
-      <c r="E363" s="6">
+      <c r="E416" s="6">
         <v>12</v>
       </c>
-      <c r="F363" s="6">
+      <c r="F416" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="890">
   <si>
     <t>timestamp</t>
   </si>
@@ -2519,6 +2519,168 @@
   </si>
   <si>
     <t>bisel de forma 02.slp</t>
+  </si>
+  <si>
+    <t>2024-10-24 09:07:43</t>
+  </si>
+  <si>
+    <t>L_05631.NC</t>
+  </si>
+  <si>
+    <t>2024-10-24 11:11:40</t>
+  </si>
+  <si>
+    <t>L_05558.NC</t>
+  </si>
+  <si>
+    <t>2024-10-24 11:30:46</t>
+  </si>
+  <si>
+    <t>L_05559.NC</t>
+  </si>
+  <si>
+    <t>2024-10-24 11:53:49</t>
+  </si>
+  <si>
+    <t>L_05555.NC</t>
+  </si>
+  <si>
+    <t>2024-10-24 12:31:41</t>
+  </si>
+  <si>
+    <t>L_05556.NC</t>
+  </si>
+  <si>
+    <t>2024-10-24 13:31:28</t>
+  </si>
+  <si>
+    <t>L_05557.NC</t>
+  </si>
+  <si>
+    <t>2024-10-24 13:39:52</t>
+  </si>
+  <si>
+    <t>L_05640.NC</t>
+  </si>
+  <si>
+    <t>2024-10-24 15:53:33</t>
+  </si>
+  <si>
+    <t>L_05647.NC</t>
+  </si>
+  <si>
+    <t>2024-10-25 07:56:20</t>
+  </si>
+  <si>
+    <t>L_05644.NC</t>
+  </si>
+  <si>
+    <t>2024-10-25 11:27:24</t>
+  </si>
+  <si>
+    <t>L_05613.NC</t>
+  </si>
+  <si>
+    <t>2024-10-25 11:36:59</t>
+  </si>
+  <si>
+    <t>L_05616.NC</t>
+  </si>
+  <si>
+    <t>2024-10-25 12:14:50</t>
+  </si>
+  <si>
+    <t>L_05617.NC</t>
+  </si>
+  <si>
+    <t>2024-10-25 14:42:01</t>
+  </si>
+  <si>
+    <t>L_05611.NC</t>
+  </si>
+  <si>
+    <t>2024-10-25 15:59:50</t>
+  </si>
+  <si>
+    <t>L_05609.NC</t>
+  </si>
+  <si>
+    <t>2024-10-28 09:31:17</t>
+  </si>
+  <si>
+    <t>L_05610.NC</t>
+  </si>
+  <si>
+    <t>2024-10-28 10:40:13</t>
+  </si>
+  <si>
+    <t>L_05612.NC</t>
+  </si>
+  <si>
+    <t>2024-10-28 12:45:48</t>
+  </si>
+  <si>
+    <t>L_05618.NC</t>
+  </si>
+  <si>
+    <t>2024-10-28 12:46:42</t>
+  </si>
+  <si>
+    <t>L_05615.NC</t>
+  </si>
+  <si>
+    <t>2024-10-28 13:54:36</t>
+  </si>
+  <si>
+    <t>L_15435.NC</t>
+  </si>
+  <si>
+    <t>2024-10-28 15:40:04</t>
+  </si>
+  <si>
+    <t>L_15427.NC</t>
+  </si>
+  <si>
+    <t>2024-10-29 11:52:36</t>
+  </si>
+  <si>
+    <t>L_05614.NC</t>
+  </si>
+  <si>
+    <t>2024-10-29 14:28:57</t>
+  </si>
+  <si>
+    <t>020130.NC</t>
+  </si>
+  <si>
+    <t>2024-10-29 14:39:55</t>
+  </si>
+  <si>
+    <t>020134.NC</t>
+  </si>
+  <si>
+    <t>2024-10-29 14:51:54</t>
+  </si>
+  <si>
+    <t>020131.NC</t>
+  </si>
+  <si>
+    <t>2024-10-29 14:54:20</t>
+  </si>
+  <si>
+    <t>020133.NC</t>
+  </si>
+  <si>
+    <t>2024-10-29 15:12:04</t>
+  </si>
+  <si>
+    <t>020132.NC</t>
+  </si>
+  <si>
+    <t>2024-10-30 14:48:38</t>
+  </si>
+  <si>
+    <t>020216.NC</t>
   </si>
 </sst>
 </file>
@@ -2624,7 +2786,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2644,9 +2806,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -3759,18 +3918,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F416"/>
+  <dimension ref="A1:F443"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.9297" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.2344" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.2109" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5078" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5859" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.9688" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11310,7 +11466,9 @@
       <c r="E377" s="6">
         <v>16</v>
       </c>
-      <c r="F377" s="7"/>
+      <c r="F377" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="378" ht="13.55" customHeight="1">
       <c r="A378" t="s" s="5">
@@ -12089,6 +12247,546 @@
         <v>12</v>
       </c>
       <c r="F416" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" ht="13.55" customHeight="1">
+      <c r="A417" t="s" s="5">
+        <v>836</v>
+      </c>
+      <c r="B417" t="s" s="5">
+        <v>837</v>
+      </c>
+      <c r="C417" s="6">
+        <v>25</v>
+      </c>
+      <c r="D417" s="6">
+        <v>110</v>
+      </c>
+      <c r="E417" s="6">
+        <v>10</v>
+      </c>
+      <c r="F417" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" ht="13.55" customHeight="1">
+      <c r="A418" t="s" s="5">
+        <v>838</v>
+      </c>
+      <c r="B418" t="s" s="5">
+        <v>839</v>
+      </c>
+      <c r="C418" s="6">
+        <v>4</v>
+      </c>
+      <c r="D418" s="6">
+        <v>29</v>
+      </c>
+      <c r="E418" s="6">
+        <v>6</v>
+      </c>
+      <c r="F418" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" ht="13.55" customHeight="1">
+      <c r="A419" t="s" s="5">
+        <v>840</v>
+      </c>
+      <c r="B419" t="s" s="5">
+        <v>841</v>
+      </c>
+      <c r="C419" s="6">
+        <v>2</v>
+      </c>
+      <c r="D419" s="6">
+        <v>6</v>
+      </c>
+      <c r="E419" s="6">
+        <v>10</v>
+      </c>
+      <c r="F419" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" ht="13.55" customHeight="1">
+      <c r="A420" t="s" s="5">
+        <v>842</v>
+      </c>
+      <c r="B420" t="s" s="5">
+        <v>843</v>
+      </c>
+      <c r="C420" s="6">
+        <v>4</v>
+      </c>
+      <c r="D420" s="6">
+        <v>17</v>
+      </c>
+      <c r="E420" s="6">
+        <v>4</v>
+      </c>
+      <c r="F420" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" ht="13.55" customHeight="1">
+      <c r="A421" t="s" s="5">
+        <v>844</v>
+      </c>
+      <c r="B421" t="s" s="5">
+        <v>845</v>
+      </c>
+      <c r="C421" s="6">
+        <v>8</v>
+      </c>
+      <c r="D421" s="6">
+        <v>39</v>
+      </c>
+      <c r="E421" s="6">
+        <v>5</v>
+      </c>
+      <c r="F421" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" ht="13.55" customHeight="1">
+      <c r="A422" t="s" s="5">
+        <v>846</v>
+      </c>
+      <c r="B422" t="s" s="5">
+        <v>847</v>
+      </c>
+      <c r="C422" s="6">
+        <v>2</v>
+      </c>
+      <c r="D422" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E422" s="6">
+        <v>5</v>
+      </c>
+      <c r="F422" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" ht="13.55" customHeight="1">
+      <c r="A423" t="s" s="5">
+        <v>848</v>
+      </c>
+      <c r="B423" t="s" s="5">
+        <v>849</v>
+      </c>
+      <c r="C423" s="6">
+        <v>9</v>
+      </c>
+      <c r="D423" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="E423" s="6">
+        <v>12</v>
+      </c>
+      <c r="F423" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" ht="13.55" customHeight="1">
+      <c r="A424" t="s" s="5">
+        <v>850</v>
+      </c>
+      <c r="B424" t="s" s="5">
+        <v>851</v>
+      </c>
+      <c r="C424" s="6">
+        <v>21</v>
+      </c>
+      <c r="D424" s="6">
+        <v>16</v>
+      </c>
+      <c r="E424" s="6">
+        <v>20</v>
+      </c>
+      <c r="F424" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" ht="13.55" customHeight="1">
+      <c r="A425" t="s" s="5">
+        <v>852</v>
+      </c>
+      <c r="B425" t="s" s="5">
+        <v>853</v>
+      </c>
+      <c r="C425" s="6">
+        <v>32</v>
+      </c>
+      <c r="D425" s="6">
+        <v>30</v>
+      </c>
+      <c r="E425" s="6">
+        <v>18</v>
+      </c>
+      <c r="F425" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" ht="13.55" customHeight="1">
+      <c r="A426" t="s" s="5">
+        <v>854</v>
+      </c>
+      <c r="B426" t="s" s="5">
+        <v>855</v>
+      </c>
+      <c r="C426" s="6">
+        <v>9</v>
+      </c>
+      <c r="D426" s="6">
+        <v>23</v>
+      </c>
+      <c r="E426" s="6">
+        <v>10</v>
+      </c>
+      <c r="F426" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" ht="13.55" customHeight="1">
+      <c r="A427" t="s" s="5">
+        <v>856</v>
+      </c>
+      <c r="B427" t="s" s="5">
+        <v>857</v>
+      </c>
+      <c r="C427" s="6">
+        <v>19</v>
+      </c>
+      <c r="D427" s="6">
+        <v>18</v>
+      </c>
+      <c r="E427" s="6">
+        <v>16</v>
+      </c>
+      <c r="F427" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" ht="13.55" customHeight="1">
+      <c r="A428" t="s" s="5">
+        <v>858</v>
+      </c>
+      <c r="B428" t="s" s="5">
+        <v>859</v>
+      </c>
+      <c r="C428" s="6">
+        <v>5</v>
+      </c>
+      <c r="D428" s="6">
+        <v>4</v>
+      </c>
+      <c r="E428" s="6">
+        <v>18</v>
+      </c>
+      <c r="F428" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" ht="13.55" customHeight="1">
+      <c r="A429" t="s" s="5">
+        <v>860</v>
+      </c>
+      <c r="B429" t="s" s="5">
+        <v>861</v>
+      </c>
+      <c r="C429" s="6">
+        <v>18</v>
+      </c>
+      <c r="D429" s="6">
+        <v>28</v>
+      </c>
+      <c r="E429" s="6">
+        <v>6</v>
+      </c>
+      <c r="F429" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" ht="13.55" customHeight="1">
+      <c r="A430" t="s" s="5">
+        <v>862</v>
+      </c>
+      <c r="B430" t="s" s="5">
+        <v>863</v>
+      </c>
+      <c r="C430" s="6">
+        <v>12</v>
+      </c>
+      <c r="D430" s="6">
+        <v>62</v>
+      </c>
+      <c r="E430" s="6">
+        <v>6</v>
+      </c>
+      <c r="F430" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" ht="13.55" customHeight="1">
+      <c r="A431" t="s" s="5">
+        <v>864</v>
+      </c>
+      <c r="B431" t="s" s="5">
+        <v>865</v>
+      </c>
+      <c r="C431" s="6">
+        <v>3</v>
+      </c>
+      <c r="D431" s="6">
+        <v>29</v>
+      </c>
+      <c r="E431" s="6">
+        <v>6</v>
+      </c>
+      <c r="F431" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" ht="13.55" customHeight="1">
+      <c r="A432" t="s" s="5">
+        <v>866</v>
+      </c>
+      <c r="B432" t="s" s="5">
+        <v>867</v>
+      </c>
+      <c r="C432" s="6">
+        <v>19</v>
+      </c>
+      <c r="D432" s="6">
+        <v>97</v>
+      </c>
+      <c r="E432" s="6">
+        <v>8</v>
+      </c>
+      <c r="F432" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" ht="13.55" customHeight="1">
+      <c r="A433" t="s" s="5">
+        <v>868</v>
+      </c>
+      <c r="B433" t="s" s="5">
+        <v>869</v>
+      </c>
+      <c r="C433" s="6">
+        <v>16</v>
+      </c>
+      <c r="D433" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E433" s="6">
+        <v>32</v>
+      </c>
+      <c r="F433" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" ht="13.55" customHeight="1">
+      <c r="A434" t="s" s="5">
+        <v>870</v>
+      </c>
+      <c r="B434" t="s" s="5">
+        <v>871</v>
+      </c>
+      <c r="C434" s="6">
+        <v>1</v>
+      </c>
+      <c r="D434" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E434" s="6">
+        <v>14</v>
+      </c>
+      <c r="F434" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" ht="13.55" customHeight="1">
+      <c r="A435" t="s" s="5">
+        <v>872</v>
+      </c>
+      <c r="B435" t="s" s="5">
+        <v>873</v>
+      </c>
+      <c r="C435" s="6">
+        <v>30</v>
+      </c>
+      <c r="D435" s="6">
+        <v>24</v>
+      </c>
+      <c r="E435" s="6">
+        <v>20</v>
+      </c>
+      <c r="F435" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" ht="13.55" customHeight="1">
+      <c r="A436" t="s" s="5">
+        <v>874</v>
+      </c>
+      <c r="B436" t="s" s="5">
+        <v>875</v>
+      </c>
+      <c r="C436" s="6">
+        <v>9</v>
+      </c>
+      <c r="D436" s="6">
+        <v>68</v>
+      </c>
+      <c r="E436" s="6">
+        <v>3</v>
+      </c>
+      <c r="F436" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" ht="13.55" customHeight="1">
+      <c r="A437" t="s" s="5">
+        <v>876</v>
+      </c>
+      <c r="B437" t="s" s="5">
+        <v>877</v>
+      </c>
+      <c r="C437" s="6">
+        <v>14</v>
+      </c>
+      <c r="D437" s="6">
+        <v>38</v>
+      </c>
+      <c r="E437" s="6">
+        <v>12</v>
+      </c>
+      <c r="F437" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" ht="13.55" customHeight="1">
+      <c r="A438" t="s" s="5">
+        <v>878</v>
+      </c>
+      <c r="B438" t="s" s="5">
+        <v>879</v>
+      </c>
+      <c r="C438" s="6">
+        <v>3</v>
+      </c>
+      <c r="D438" s="6">
+        <v>11</v>
+      </c>
+      <c r="E438" s="6">
+        <v>12</v>
+      </c>
+      <c r="F438" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" ht="13.55" customHeight="1">
+      <c r="A439" t="s" s="5">
+        <v>880</v>
+      </c>
+      <c r="B439" t="s" s="5">
+        <v>881</v>
+      </c>
+      <c r="C439" s="6">
+        <v>4</v>
+      </c>
+      <c r="D439" s="6">
+        <v>12</v>
+      </c>
+      <c r="E439" s="6">
+        <v>12</v>
+      </c>
+      <c r="F439" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" ht="13.55" customHeight="1">
+      <c r="A440" t="s" s="5">
+        <v>882</v>
+      </c>
+      <c r="B440" t="s" s="5">
+        <v>883</v>
+      </c>
+      <c r="C440" s="6">
+        <v>2</v>
+      </c>
+      <c r="D440" s="6">
+        <v>8</v>
+      </c>
+      <c r="E440" s="6">
+        <v>10</v>
+      </c>
+      <c r="F440" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" ht="13.55" customHeight="1">
+      <c r="A441" t="s" s="5">
+        <v>884</v>
+      </c>
+      <c r="B441" t="s" s="5">
+        <v>885</v>
+      </c>
+      <c r="C441" s="6">
+        <v>3</v>
+      </c>
+      <c r="D441" s="6">
+        <v>10</v>
+      </c>
+      <c r="E441" s="6">
+        <v>10</v>
+      </c>
+      <c r="F441" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" ht="13.55" customHeight="1">
+      <c r="A442" t="s" s="5">
+        <v>886</v>
+      </c>
+      <c r="B442" t="s" s="5">
+        <v>887</v>
+      </c>
+      <c r="C442" s="6">
+        <v>1</v>
+      </c>
+      <c r="D442" s="6">
+        <v>4</v>
+      </c>
+      <c r="E442" s="6">
+        <v>6</v>
+      </c>
+      <c r="F442" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" ht="13.55" customHeight="1">
+      <c r="A443" t="s" s="5">
+        <v>888</v>
+      </c>
+      <c r="B443" t="s" s="5">
+        <v>889</v>
+      </c>
+      <c r="C443" s="6">
+        <v>1</v>
+      </c>
+      <c r="D443" s="6">
+        <v>2</v>
+      </c>
+      <c r="E443" s="6">
+        <v>6</v>
+      </c>
+      <c r="F443" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="910">
   <si>
     <t>timestamp</t>
   </si>
@@ -2681,6 +2681,66 @@
   </si>
   <si>
     <t>020216.NC</t>
+  </si>
+  <si>
+    <t>2024-11-04 13:26:13</t>
+  </si>
+  <si>
+    <t>020263.NC</t>
+  </si>
+  <si>
+    <t>2024-11-04 14:22:09</t>
+  </si>
+  <si>
+    <t>020236.NC</t>
+  </si>
+  <si>
+    <t>2024-11-04 16:10:12</t>
+  </si>
+  <si>
+    <t>020239.NC</t>
+  </si>
+  <si>
+    <t>2024-11-05 08:52:00</t>
+  </si>
+  <si>
+    <t>020238.NC</t>
+  </si>
+  <si>
+    <t>2024-11-05 10:01:15</t>
+  </si>
+  <si>
+    <t>020237.NC</t>
+  </si>
+  <si>
+    <t>2024-11-05 12:24:03</t>
+  </si>
+  <si>
+    <t>L_15430.NC</t>
+  </si>
+  <si>
+    <t>2024-11-05 14:01:46</t>
+  </si>
+  <si>
+    <t>L_15431.NC</t>
+  </si>
+  <si>
+    <t>2024-11-06 07:59:18</t>
+  </si>
+  <si>
+    <t>L_15433.NC</t>
+  </si>
+  <si>
+    <t>2024-11-06 10:22:03</t>
+  </si>
+  <si>
+    <t>L_15432.NC</t>
+  </si>
+  <si>
+    <t>2024-11-06 14:14:22</t>
+  </si>
+  <si>
+    <t>020084.NC</t>
   </si>
 </sst>
 </file>
@@ -3918,15 +3978,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F443"/>
+  <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5859" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.9688" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12787,6 +12845,206 @@
         <v>6</v>
       </c>
       <c r="F443" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" ht="13.55" customHeight="1">
+      <c r="A444" t="s" s="5">
+        <v>890</v>
+      </c>
+      <c r="B444" t="s" s="5">
+        <v>891</v>
+      </c>
+      <c r="C444" s="6">
+        <v>6</v>
+      </c>
+      <c r="D444" s="6">
+        <v>19</v>
+      </c>
+      <c r="E444" s="6">
+        <v>12</v>
+      </c>
+      <c r="F444" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" ht="13.55" customHeight="1">
+      <c r="A445" t="s" s="5">
+        <v>892</v>
+      </c>
+      <c r="B445" t="s" s="5">
+        <v>893</v>
+      </c>
+      <c r="C445" s="6">
+        <v>10</v>
+      </c>
+      <c r="D445" s="6">
+        <v>50</v>
+      </c>
+      <c r="E445" s="6">
+        <v>3</v>
+      </c>
+      <c r="F445" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" ht="13.55" customHeight="1">
+      <c r="A446" t="s" s="5">
+        <v>894</v>
+      </c>
+      <c r="B446" t="s" s="5">
+        <v>895</v>
+      </c>
+      <c r="C446" s="6">
+        <v>45</v>
+      </c>
+      <c r="D446" s="6">
+        <v>31</v>
+      </c>
+      <c r="E446" s="6">
+        <v>20</v>
+      </c>
+      <c r="F446" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" ht="13.55" customHeight="1">
+      <c r="A447" t="s" s="5">
+        <v>896</v>
+      </c>
+      <c r="B447" t="s" s="5">
+        <v>897</v>
+      </c>
+      <c r="C447" s="6">
+        <v>6</v>
+      </c>
+      <c r="D447" s="6">
+        <v>7</v>
+      </c>
+      <c r="E447" s="6">
+        <v>16</v>
+      </c>
+      <c r="F447" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" ht="13.55" customHeight="1">
+      <c r="A448" t="s" s="5">
+        <v>898</v>
+      </c>
+      <c r="B448" t="s" s="5">
+        <v>899</v>
+      </c>
+      <c r="C448" s="6">
+        <v>5</v>
+      </c>
+      <c r="D448" s="6">
+        <v>18</v>
+      </c>
+      <c r="E448" s="6">
+        <v>8</v>
+      </c>
+      <c r="F448" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" ht="13.55" customHeight="1">
+      <c r="A449" t="s" s="5">
+        <v>900</v>
+      </c>
+      <c r="B449" t="s" s="5">
+        <v>901</v>
+      </c>
+      <c r="C449" s="6">
+        <v>1</v>
+      </c>
+      <c r="D449" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E449" s="6">
+        <v>8</v>
+      </c>
+      <c r="F449" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" ht="13.55" customHeight="1">
+      <c r="A450" t="s" s="5">
+        <v>902</v>
+      </c>
+      <c r="B450" t="s" s="5">
+        <v>903</v>
+      </c>
+      <c r="C450" s="6">
+        <v>5</v>
+      </c>
+      <c r="D450" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E450" s="6">
+        <v>10</v>
+      </c>
+      <c r="F450" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" ht="13.55" customHeight="1">
+      <c r="A451" t="s" s="5">
+        <v>904</v>
+      </c>
+      <c r="B451" t="s" s="5">
+        <v>905</v>
+      </c>
+      <c r="C451" s="6">
+        <v>29</v>
+      </c>
+      <c r="D451" s="6">
+        <v>143</v>
+      </c>
+      <c r="E451" s="6">
+        <v>10</v>
+      </c>
+      <c r="F451" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" ht="13.55" customHeight="1">
+      <c r="A452" t="s" s="5">
+        <v>906</v>
+      </c>
+      <c r="B452" t="s" s="5">
+        <v>907</v>
+      </c>
+      <c r="C452" s="6">
+        <v>26</v>
+      </c>
+      <c r="D452" s="6">
+        <v>91</v>
+      </c>
+      <c r="E452" s="6">
+        <v>10</v>
+      </c>
+      <c r="F452" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" ht="13.55" customHeight="1">
+      <c r="A453" t="s" s="5">
+        <v>908</v>
+      </c>
+      <c r="B453" t="s" s="5">
+        <v>909</v>
+      </c>
+      <c r="C453" s="6">
+        <v>8</v>
+      </c>
+      <c r="D453" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="E453" s="6">
+        <v>6</v>
+      </c>
+      <c r="F453" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="982">
   <si>
     <t>timestamp</t>
   </si>
@@ -2741,6 +2741,222 @@
   </si>
   <si>
     <t>020084.NC</t>
+  </si>
+  <si>
+    <t>2024-11-07 09:50:44</t>
+  </si>
+  <si>
+    <t>020071.NC</t>
+  </si>
+  <si>
+    <t>2024-11-11 15:54:01</t>
+  </si>
+  <si>
+    <t>020146.NC</t>
+  </si>
+  <si>
+    <t>2024-11-12 14:14:47</t>
+  </si>
+  <si>
+    <t>020090.slp</t>
+  </si>
+  <si>
+    <t>2024-11-13 11:37:59</t>
+  </si>
+  <si>
+    <t>020249.NC</t>
+  </si>
+  <si>
+    <t>2024-11-13 12:25:13</t>
+  </si>
+  <si>
+    <t>020275.NC</t>
+  </si>
+  <si>
+    <t>2024-11-13 13:30:47</t>
+  </si>
+  <si>
+    <t>020272.NC</t>
+  </si>
+  <si>
+    <t>2024-11-14 10:02:01</t>
+  </si>
+  <si>
+    <t>020314.NC</t>
+  </si>
+  <si>
+    <t>2024-11-14 10:14:23</t>
+  </si>
+  <si>
+    <t>020289.NC</t>
+  </si>
+  <si>
+    <t>2024-11-14 15:42:03</t>
+  </si>
+  <si>
+    <t>020360.NC</t>
+  </si>
+  <si>
+    <t>2024-11-14 15:52:34</t>
+  </si>
+  <si>
+    <t>020345.NC</t>
+  </si>
+  <si>
+    <t>2024-11-18 15:32:28</t>
+  </si>
+  <si>
+    <t>020521.NC</t>
+  </si>
+  <si>
+    <t>2024-11-19 13:26:14</t>
+  </si>
+  <si>
+    <t>020507.NC</t>
+  </si>
+  <si>
+    <t>2024-11-20 07:54:21</t>
+  </si>
+  <si>
+    <t>020496.NC</t>
+  </si>
+  <si>
+    <t>2024-11-20 11:43:15</t>
+  </si>
+  <si>
+    <t>020505.NC</t>
+  </si>
+  <si>
+    <t>2024-11-20 14:37:55</t>
+  </si>
+  <si>
+    <t>020503.NC</t>
+  </si>
+  <si>
+    <t>2024-11-07 11:06:01</t>
+  </si>
+  <si>
+    <t>020105.NC</t>
+  </si>
+  <si>
+    <t>2024-11-20 17:27:26</t>
+  </si>
+  <si>
+    <t>020501.NC</t>
+  </si>
+  <si>
+    <t>2024-11-20 21:01:32</t>
+  </si>
+  <si>
+    <t>020908.NC</t>
+  </si>
+  <si>
+    <t>2024-11-21 19:57:12</t>
+  </si>
+  <si>
+    <t>020509.NC</t>
+  </si>
+  <si>
+    <t>2024-11-22 02:47:57</t>
+  </si>
+  <si>
+    <t>020490.NC</t>
+  </si>
+  <si>
+    <t>2024-11-25 17:07:02</t>
+  </si>
+  <si>
+    <t>020508.NC</t>
+  </si>
+  <si>
+    <t>2024-11-25 21:08:54</t>
+  </si>
+  <si>
+    <t>020494.NC</t>
+  </si>
+  <si>
+    <t>2024-11-25 23:36:32</t>
+  </si>
+  <si>
+    <t>020917.NC</t>
+  </si>
+  <si>
+    <t>2024-11-26 15:57:14</t>
+  </si>
+  <si>
+    <t>020867.NC</t>
+  </si>
+  <si>
+    <t>2024-11-26 16:20:02</t>
+  </si>
+  <si>
+    <t>021137.NC</t>
+  </si>
+  <si>
+    <t>2024-11-26 16:59:00</t>
+  </si>
+  <si>
+    <t>021059.NC</t>
+  </si>
+  <si>
+    <t>2024-11-26 17:02:41</t>
+  </si>
+  <si>
+    <t>020870.NC</t>
+  </si>
+  <si>
+    <t>2024-11-26 19:49:30</t>
+  </si>
+  <si>
+    <t>020869.NC</t>
+  </si>
+  <si>
+    <t>2024-11-27 02:29:57</t>
+  </si>
+  <si>
+    <t>020909.NC</t>
+  </si>
+  <si>
+    <t>2024-11-28 03:38:50</t>
+  </si>
+  <si>
+    <t>021058.NC</t>
+  </si>
+  <si>
+    <t>2024-11-28 05:27:21</t>
+  </si>
+  <si>
+    <t>021057.NC</t>
+  </si>
+  <si>
+    <t>2024-11-28 09:25:12</t>
+  </si>
+  <si>
+    <t>021054.NC</t>
+  </si>
+  <si>
+    <t>2024-11-28 12:10:00</t>
+  </si>
+  <si>
+    <t>020030.NC</t>
+  </si>
+  <si>
+    <t>2024-11-28 15:43:19</t>
+  </si>
+  <si>
+    <t>021424.NC</t>
+  </si>
+  <si>
+    <t>2024-11-28 19:26:51</t>
+  </si>
+  <si>
+    <t>021425.NC</t>
+  </si>
+  <si>
+    <t>2024-11-28 22:48:20</t>
+  </si>
+  <si>
+    <t>020910.NC</t>
   </si>
 </sst>
 </file>
@@ -3978,13 +4194,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:F489"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7812" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13045,6 +13263,726 @@
         <v>6</v>
       </c>
       <c r="F453" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" ht="13.55" customHeight="1">
+      <c r="A454" t="s" s="5">
+        <v>910</v>
+      </c>
+      <c r="B454" t="s" s="5">
+        <v>911</v>
+      </c>
+      <c r="C454" s="6">
+        <v>20</v>
+      </c>
+      <c r="D454" s="6">
+        <v>12</v>
+      </c>
+      <c r="E454" s="6">
+        <v>25</v>
+      </c>
+      <c r="F454" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" ht="13.55" customHeight="1">
+      <c r="A455" t="s" s="5">
+        <v>912</v>
+      </c>
+      <c r="B455" t="s" s="5">
+        <v>913</v>
+      </c>
+      <c r="C455" s="6">
+        <v>1</v>
+      </c>
+      <c r="D455" s="6">
+        <v>2</v>
+      </c>
+      <c r="E455" s="6">
+        <v>12</v>
+      </c>
+      <c r="F455" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" ht="13.55" customHeight="1">
+      <c r="A456" t="s" s="5">
+        <v>914</v>
+      </c>
+      <c r="B456" t="s" s="5">
+        <v>915</v>
+      </c>
+      <c r="C456" s="6">
+        <v>14</v>
+      </c>
+      <c r="D456" s="6">
+        <v>208</v>
+      </c>
+      <c r="E456" s="6">
+        <v>5</v>
+      </c>
+      <c r="F456" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" ht="13.55" customHeight="1">
+      <c r="A457" t="s" s="5">
+        <v>916</v>
+      </c>
+      <c r="B457" t="s" s="5">
+        <v>917</v>
+      </c>
+      <c r="C457" s="6">
+        <v>24</v>
+      </c>
+      <c r="D457" s="6">
+        <v>73</v>
+      </c>
+      <c r="E457" s="6">
+        <v>10</v>
+      </c>
+      <c r="F457" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" ht="13.55" customHeight="1">
+      <c r="A458" t="s" s="5">
+        <v>918</v>
+      </c>
+      <c r="B458" t="s" s="5">
+        <v>919</v>
+      </c>
+      <c r="C458" s="6">
+        <v>41</v>
+      </c>
+      <c r="D458" s="6">
+        <v>34</v>
+      </c>
+      <c r="E458" s="6">
+        <v>20</v>
+      </c>
+      <c r="F458" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" ht="13.55" customHeight="1">
+      <c r="A459" t="s" s="5">
+        <v>920</v>
+      </c>
+      <c r="B459" t="s" s="5">
+        <v>921</v>
+      </c>
+      <c r="C459" s="6">
+        <v>13</v>
+      </c>
+      <c r="D459" s="6">
+        <v>11</v>
+      </c>
+      <c r="E459" s="6">
+        <v>20</v>
+      </c>
+      <c r="F459" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" ht="13.55" customHeight="1">
+      <c r="A460" t="s" s="5">
+        <v>922</v>
+      </c>
+      <c r="B460" t="s" s="5">
+        <v>923</v>
+      </c>
+      <c r="C460" s="6">
+        <v>44</v>
+      </c>
+      <c r="D460" s="6">
+        <v>264</v>
+      </c>
+      <c r="E460" s="6">
+        <v>8</v>
+      </c>
+      <c r="F460" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" ht="13.55" customHeight="1">
+      <c r="A461" t="s" s="5">
+        <v>924</v>
+      </c>
+      <c r="B461" t="s" s="5">
+        <v>925</v>
+      </c>
+      <c r="C461" s="6">
+        <v>30</v>
+      </c>
+      <c r="D461" s="6">
+        <v>14</v>
+      </c>
+      <c r="E461" s="6">
+        <v>2</v>
+      </c>
+      <c r="F461" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" ht="13.55" customHeight="1">
+      <c r="A462" t="s" s="5">
+        <v>926</v>
+      </c>
+      <c r="B462" t="s" s="5">
+        <v>927</v>
+      </c>
+      <c r="C462" s="6">
+        <v>1</v>
+      </c>
+      <c r="D462" s="6">
+        <v>5</v>
+      </c>
+      <c r="E462" s="6">
+        <v>5</v>
+      </c>
+      <c r="F462" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" ht="13.55" customHeight="1">
+      <c r="A463" t="s" s="5">
+        <v>928</v>
+      </c>
+      <c r="B463" t="s" s="5">
+        <v>929</v>
+      </c>
+      <c r="C463" s="6">
+        <v>47</v>
+      </c>
+      <c r="D463" s="6">
+        <v>145</v>
+      </c>
+      <c r="E463" s="6">
+        <v>8</v>
+      </c>
+      <c r="F463" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" ht="13.55" customHeight="1">
+      <c r="A464" t="s" s="5">
+        <v>930</v>
+      </c>
+      <c r="B464" t="s" s="5">
+        <v>931</v>
+      </c>
+      <c r="C464" s="6">
+        <v>33</v>
+      </c>
+      <c r="D464" s="6">
+        <v>18</v>
+      </c>
+      <c r="E464" s="6">
+        <v>16</v>
+      </c>
+      <c r="F464" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" ht="13.55" customHeight="1">
+      <c r="A465" t="s" s="5">
+        <v>932</v>
+      </c>
+      <c r="B465" t="s" s="5">
+        <v>933</v>
+      </c>
+      <c r="C465" s="6">
+        <v>71</v>
+      </c>
+      <c r="D465" s="6">
+        <v>500</v>
+      </c>
+      <c r="E465" s="6">
+        <v>6</v>
+      </c>
+      <c r="F465" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" ht="13.55" customHeight="1">
+      <c r="A466" t="s" s="5">
+        <v>934</v>
+      </c>
+      <c r="B466" t="s" s="5">
+        <v>935</v>
+      </c>
+      <c r="C466" s="6">
+        <v>72</v>
+      </c>
+      <c r="D466" s="6">
+        <v>500</v>
+      </c>
+      <c r="E466" s="6">
+        <v>6</v>
+      </c>
+      <c r="F466" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" ht="13.55" customHeight="1">
+      <c r="A467" t="s" s="5">
+        <v>936</v>
+      </c>
+      <c r="B467" t="s" s="5">
+        <v>937</v>
+      </c>
+      <c r="C467" s="6">
+        <v>72</v>
+      </c>
+      <c r="D467" s="6">
+        <v>500</v>
+      </c>
+      <c r="E467" s="6">
+        <v>6</v>
+      </c>
+      <c r="F467" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" ht="13.55" customHeight="1">
+      <c r="A468" t="s" s="5">
+        <v>938</v>
+      </c>
+      <c r="B468" t="s" s="5">
+        <v>939</v>
+      </c>
+      <c r="C468" s="6">
+        <v>71</v>
+      </c>
+      <c r="D468" s="6">
+        <v>500</v>
+      </c>
+      <c r="E468" s="6">
+        <v>6</v>
+      </c>
+      <c r="F468" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" ht="13.55" customHeight="1">
+      <c r="A469" t="s" s="5">
+        <v>940</v>
+      </c>
+      <c r="B469" t="s" s="5">
+        <v>941</v>
+      </c>
+      <c r="C469" s="6">
+        <v>1116</v>
+      </c>
+      <c r="D469" s="6">
+        <v>824.4</v>
+      </c>
+      <c r="E469" s="6">
+        <v>25</v>
+      </c>
+      <c r="F469" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" ht="13.55" customHeight="1">
+      <c r="A470" t="s" s="5">
+        <v>942</v>
+      </c>
+      <c r="B470" t="s" s="5">
+        <v>943</v>
+      </c>
+      <c r="C470" s="6">
+        <v>72</v>
+      </c>
+      <c r="D470" s="6">
+        <v>500</v>
+      </c>
+      <c r="E470" s="6">
+        <v>6</v>
+      </c>
+      <c r="F470" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" ht="13.55" customHeight="1">
+      <c r="A471" t="s" s="5">
+        <v>944</v>
+      </c>
+      <c r="B471" t="s" s="5">
+        <v>945</v>
+      </c>
+      <c r="C471" s="6">
+        <v>576</v>
+      </c>
+      <c r="D471" s="6">
+        <v>158</v>
+      </c>
+      <c r="E471" s="6">
+        <v>32</v>
+      </c>
+      <c r="F471" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" ht="13.55" customHeight="1">
+      <c r="A472" t="s" s="5">
+        <v>946</v>
+      </c>
+      <c r="B472" t="s" s="5">
+        <v>947</v>
+      </c>
+      <c r="C472" s="6">
+        <v>86</v>
+      </c>
+      <c r="D472" s="6">
+        <v>594</v>
+      </c>
+      <c r="E472" s="6">
+        <v>6</v>
+      </c>
+      <c r="F472" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" ht="13.55" customHeight="1">
+      <c r="A473" t="s" s="5">
+        <v>948</v>
+      </c>
+      <c r="B473" t="s" s="5">
+        <v>949</v>
+      </c>
+      <c r="C473" s="6">
+        <v>71</v>
+      </c>
+      <c r="D473" s="6">
+        <v>500</v>
+      </c>
+      <c r="E473" s="6">
+        <v>6</v>
+      </c>
+      <c r="F473" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" ht="13.55" customHeight="1">
+      <c r="A474" t="s" s="5">
+        <v>950</v>
+      </c>
+      <c r="B474" t="s" s="5">
+        <v>951</v>
+      </c>
+      <c r="C474" s="6">
+        <v>78</v>
+      </c>
+      <c r="D474" s="6">
+        <v>529</v>
+      </c>
+      <c r="E474" s="6">
+        <v>6</v>
+      </c>
+      <c r="F474" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" ht="13.55" customHeight="1">
+      <c r="A475" t="s" s="5">
+        <v>952</v>
+      </c>
+      <c r="B475" t="s" s="5">
+        <v>953</v>
+      </c>
+      <c r="C475" s="6">
+        <v>77</v>
+      </c>
+      <c r="D475" s="6">
+        <v>529</v>
+      </c>
+      <c r="E475" s="6">
+        <v>6</v>
+      </c>
+      <c r="F475" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" ht="13.55" customHeight="1">
+      <c r="A476" t="s" s="5">
+        <v>954</v>
+      </c>
+      <c r="B476" t="s" s="5">
+        <v>955</v>
+      </c>
+      <c r="C476" s="6">
+        <v>661</v>
+      </c>
+      <c r="D476" s="6">
+        <v>207</v>
+      </c>
+      <c r="E476" s="6">
+        <v>32</v>
+      </c>
+      <c r="F476" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" ht="13.55" customHeight="1">
+      <c r="A477" t="s" s="5">
+        <v>956</v>
+      </c>
+      <c r="B477" t="s" s="5">
+        <v>957</v>
+      </c>
+      <c r="C477" s="6">
+        <v>16</v>
+      </c>
+      <c r="D477" s="6">
+        <v>133</v>
+      </c>
+      <c r="E477" s="6">
+        <v>6</v>
+      </c>
+      <c r="F477" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" ht="13.55" customHeight="1">
+      <c r="A478" t="s" s="5">
+        <v>958</v>
+      </c>
+      <c r="B478" t="s" s="5">
+        <v>959</v>
+      </c>
+      <c r="C478" s="6">
+        <v>3</v>
+      </c>
+      <c r="D478" s="6">
+        <v>12</v>
+      </c>
+      <c r="E478" s="6">
+        <v>6</v>
+      </c>
+      <c r="F478" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" ht="13.55" customHeight="1">
+      <c r="A479" t="s" s="5">
+        <v>960</v>
+      </c>
+      <c r="B479" t="s" s="5">
+        <v>961</v>
+      </c>
+      <c r="C479" s="6">
+        <v>9</v>
+      </c>
+      <c r="D479" s="6">
+        <v>35</v>
+      </c>
+      <c r="E479" s="6">
+        <v>6</v>
+      </c>
+      <c r="F479" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" ht="13.55" customHeight="1">
+      <c r="A480" t="s" s="5">
+        <v>962</v>
+      </c>
+      <c r="B480" t="s" s="5">
+        <v>963</v>
+      </c>
+      <c r="C480" s="6">
+        <v>30</v>
+      </c>
+      <c r="D480" s="6">
+        <v>122</v>
+      </c>
+      <c r="E480" s="6">
+        <v>10</v>
+      </c>
+      <c r="F480" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" ht="13.55" customHeight="1">
+      <c r="A481" t="s" s="5">
+        <v>964</v>
+      </c>
+      <c r="B481" t="s" s="5">
+        <v>965</v>
+      </c>
+      <c r="C481" s="6">
+        <v>79</v>
+      </c>
+      <c r="D481" s="6">
+        <v>385</v>
+      </c>
+      <c r="E481" s="6">
+        <v>10</v>
+      </c>
+      <c r="F481" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" ht="13.55" customHeight="1">
+      <c r="A482" t="s" s="5">
+        <v>966</v>
+      </c>
+      <c r="B482" t="s" s="5">
+        <v>967</v>
+      </c>
+      <c r="C482" s="6">
+        <v>506</v>
+      </c>
+      <c r="D482" s="6">
+        <v>155</v>
+      </c>
+      <c r="E482" s="6">
+        <v>32</v>
+      </c>
+      <c r="F482" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" ht="13.55" customHeight="1">
+      <c r="A483" t="s" s="5">
+        <v>968</v>
+      </c>
+      <c r="B483" t="s" s="5">
+        <v>969</v>
+      </c>
+      <c r="C483" s="6">
+        <v>24</v>
+      </c>
+      <c r="D483" s="6">
+        <v>122</v>
+      </c>
+      <c r="E483" s="6">
+        <v>6</v>
+      </c>
+      <c r="F483" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" ht="13.55" customHeight="1">
+      <c r="A484" t="s" s="5">
+        <v>970</v>
+      </c>
+      <c r="B484" t="s" s="5">
+        <v>971</v>
+      </c>
+      <c r="C484" s="6">
+        <v>24</v>
+      </c>
+      <c r="D484" s="6">
+        <v>122</v>
+      </c>
+      <c r="E484" s="6">
+        <v>6</v>
+      </c>
+      <c r="F484" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" ht="13.55" customHeight="1">
+      <c r="A485" t="s" s="5">
+        <v>972</v>
+      </c>
+      <c r="B485" t="s" s="5">
+        <v>973</v>
+      </c>
+      <c r="C485" s="6">
+        <v>55</v>
+      </c>
+      <c r="D485" s="6">
+        <v>257</v>
+      </c>
+      <c r="E485" s="6">
+        <v>6</v>
+      </c>
+      <c r="F485" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" ht="13.55" customHeight="1">
+      <c r="A486" t="s" s="5">
+        <v>974</v>
+      </c>
+      <c r="B486" t="s" s="5">
+        <v>975</v>
+      </c>
+      <c r="C486" s="6">
+        <v>41</v>
+      </c>
+      <c r="D486" s="6">
+        <v>195</v>
+      </c>
+      <c r="E486" s="6">
+        <v>6</v>
+      </c>
+      <c r="F486" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" ht="13.55" customHeight="1">
+      <c r="A487" t="s" s="5">
+        <v>976</v>
+      </c>
+      <c r="B487" t="s" s="5">
+        <v>977</v>
+      </c>
+      <c r="C487" s="6">
+        <v>99</v>
+      </c>
+      <c r="D487" s="6">
+        <v>466</v>
+      </c>
+      <c r="E487" s="6">
+        <v>6</v>
+      </c>
+      <c r="F487" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" ht="13.55" customHeight="1">
+      <c r="A488" t="s" s="5">
+        <v>978</v>
+      </c>
+      <c r="B488" t="s" s="5">
+        <v>979</v>
+      </c>
+      <c r="C488" s="6">
+        <v>49</v>
+      </c>
+      <c r="D488" s="6">
+        <v>242</v>
+      </c>
+      <c r="E488" s="6">
+        <v>6</v>
+      </c>
+      <c r="F488" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" ht="13.55" customHeight="1">
+      <c r="A489" t="s" s="5">
+        <v>980</v>
+      </c>
+      <c r="B489" t="s" s="5">
+        <v>981</v>
+      </c>
+      <c r="C489" s="6">
+        <v>673</v>
+      </c>
+      <c r="D489" s="6">
+        <v>177</v>
+      </c>
+      <c r="E489" s="6">
+        <v>32</v>
+      </c>
+      <c r="F489" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="992">
   <si>
     <t>timestamp</t>
   </si>
@@ -2957,6 +2957,36 @@
   </si>
   <si>
     <t>020910.NC</t>
+  </si>
+  <si>
+    <t>2024-11-21 01:17:43</t>
+  </si>
+  <si>
+    <t>020915.NC</t>
+  </si>
+  <si>
+    <t>2024-11-21 22:58:51</t>
+  </si>
+  <si>
+    <t>020504.NC</t>
+  </si>
+  <si>
+    <t>2024-11-22 01:08:59</t>
+  </si>
+  <si>
+    <t>020502.NC</t>
+  </si>
+  <si>
+    <t>2024-11-22 04:53:45</t>
+  </si>
+  <si>
+    <t>020500.NC</t>
+  </si>
+  <si>
+    <t>2024-11-22 12:19:13</t>
+  </si>
+  <si>
+    <t>020916.NC</t>
   </si>
 </sst>
 </file>
@@ -4194,15 +4224,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F489"/>
+  <dimension ref="A1:F494"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7812" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13314,7 +13342,7 @@
         <v>915</v>
       </c>
       <c r="C456" s="6">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D456" s="6">
         <v>208</v>
@@ -13983,6 +14011,106 @@
         <v>32</v>
       </c>
       <c r="F489" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" ht="13.55" customHeight="1">
+      <c r="A490" t="s" s="5">
+        <v>982</v>
+      </c>
+      <c r="B490" t="s" s="5">
+        <v>983</v>
+      </c>
+      <c r="C490" s="6">
+        <v>269</v>
+      </c>
+      <c r="D490" s="6">
+        <v>202</v>
+      </c>
+      <c r="E490" s="6">
+        <v>32</v>
+      </c>
+      <c r="F490" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" ht="13.55" customHeight="1">
+      <c r="A491" t="s" s="5">
+        <v>984</v>
+      </c>
+      <c r="B491" t="s" s="5">
+        <v>985</v>
+      </c>
+      <c r="C491" s="6">
+        <v>76</v>
+      </c>
+      <c r="D491" s="6">
+        <v>500</v>
+      </c>
+      <c r="E491" s="6">
+        <v>6</v>
+      </c>
+      <c r="F491" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" ht="13.55" customHeight="1">
+      <c r="A492" t="s" s="5">
+        <v>986</v>
+      </c>
+      <c r="B492" t="s" s="5">
+        <v>987</v>
+      </c>
+      <c r="C492" s="6">
+        <v>66</v>
+      </c>
+      <c r="D492" s="6">
+        <v>500</v>
+      </c>
+      <c r="E492" s="6">
+        <v>6</v>
+      </c>
+      <c r="F492" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" ht="13.55" customHeight="1">
+      <c r="A493" t="s" s="5">
+        <v>988</v>
+      </c>
+      <c r="B493" t="s" s="5">
+        <v>989</v>
+      </c>
+      <c r="C493" s="6">
+        <v>71</v>
+      </c>
+      <c r="D493" s="6">
+        <v>500</v>
+      </c>
+      <c r="E493" s="6">
+        <v>6</v>
+      </c>
+      <c r="F493" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" ht="13.55" customHeight="1">
+      <c r="A494" t="s" s="5">
+        <v>990</v>
+      </c>
+      <c r="B494" t="s" s="5">
+        <v>991</v>
+      </c>
+      <c r="C494" s="6">
+        <v>630</v>
+      </c>
+      <c r="D494" s="6">
+        <v>199</v>
+      </c>
+      <c r="E494" s="6">
+        <v>32</v>
+      </c>
+      <c r="F494" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1044">
   <si>
     <t>timestamp</t>
   </si>
@@ -2987,6 +2987,162 @@
   </si>
   <si>
     <t>020916.NC</t>
+  </si>
+  <si>
+    <t>2024-12-02 01:14:20</t>
+  </si>
+  <si>
+    <t>021267.NC</t>
+  </si>
+  <si>
+    <t>2024-12-03 08:57:56</t>
+  </si>
+  <si>
+    <t>21455.NC</t>
+  </si>
+  <si>
+    <t>2024-12-03 09:51:02</t>
+  </si>
+  <si>
+    <t>021461.NC</t>
+  </si>
+  <si>
+    <t>2024-12-03 10:22:09</t>
+  </si>
+  <si>
+    <t>021499.NC</t>
+  </si>
+  <si>
+    <t>2024-12-04 15:13:47</t>
+  </si>
+  <si>
+    <t>021522.NC</t>
+  </si>
+  <si>
+    <t>2024-12-04 16:38:03</t>
+  </si>
+  <si>
+    <t>021547.NC</t>
+  </si>
+  <si>
+    <t>2024-12-04 17:41:04</t>
+  </si>
+  <si>
+    <t>020922.NC</t>
+  </si>
+  <si>
+    <t>2024-12-05 10:52:40</t>
+  </si>
+  <si>
+    <t>021665.NC</t>
+  </si>
+  <si>
+    <t>2024-12-05 11:34:40</t>
+  </si>
+  <si>
+    <t>021666.NC</t>
+  </si>
+  <si>
+    <t>2024-12-05 12:30:07</t>
+  </si>
+  <si>
+    <t>021667.NC</t>
+  </si>
+  <si>
+    <t>2024-12-05 13:26:26</t>
+  </si>
+  <si>
+    <t>021670.NC</t>
+  </si>
+  <si>
+    <t>2024-12-05 14:11:46</t>
+  </si>
+  <si>
+    <t>021668.NC</t>
+  </si>
+  <si>
+    <t>2024-12-05 14:44:26</t>
+  </si>
+  <si>
+    <t>021669.NC</t>
+  </si>
+  <si>
+    <t>2024-12-05 15:47:17</t>
+  </si>
+  <si>
+    <t>020920.NC</t>
+  </si>
+  <si>
+    <t>2024-12-05 16:09:58</t>
+  </si>
+  <si>
+    <t>020919.NC</t>
+  </si>
+  <si>
+    <t>2024-12-06 08:06:34</t>
+  </si>
+  <si>
+    <t>020918.NC</t>
+  </si>
+  <si>
+    <t>2024-12-09 16:36:33</t>
+  </si>
+  <si>
+    <t>020921.NC</t>
+  </si>
+  <si>
+    <t>2024-12-10 11:10:49</t>
+  </si>
+  <si>
+    <t>020911.NC</t>
+  </si>
+  <si>
+    <t>2024-12-11 03:52:57</t>
+  </si>
+  <si>
+    <t>020912.NC</t>
+  </si>
+  <si>
+    <t>2024-12-12 00:45:31</t>
+  </si>
+  <si>
+    <t>021907.NC</t>
+  </si>
+  <si>
+    <t>2024-12-12 01:08:04</t>
+  </si>
+  <si>
+    <t>021825.NC</t>
+  </si>
+  <si>
+    <t>2024-12-12 02:23:21</t>
+  </si>
+  <si>
+    <t>020914.NC</t>
+  </si>
+  <si>
+    <t>2024-12-02 13:31:32</t>
+  </si>
+  <si>
+    <t>020923.NC</t>
+  </si>
+  <si>
+    <t>2024-12-03 08:46:46</t>
+  </si>
+  <si>
+    <t>021532.NC</t>
+  </si>
+  <si>
+    <t>2024-12-03 16:45:04</t>
+  </si>
+  <si>
+    <t>020924.NC</t>
+  </si>
+  <si>
+    <t>2024-12-04 08:57:31</t>
+  </si>
+  <si>
+    <t>020925.NC</t>
   </si>
 </sst>
 </file>
@@ -4224,13 +4380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F494"/>
+  <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.0391" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7734" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14111,6 +14269,526 @@
         <v>32</v>
       </c>
       <c r="F494" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" ht="13.55" customHeight="1">
+      <c r="A495" t="s" s="5">
+        <v>992</v>
+      </c>
+      <c r="B495" t="s" s="5">
+        <v>993</v>
+      </c>
+      <c r="C495" s="6">
+        <v>221</v>
+      </c>
+      <c r="D495" s="6">
+        <v>191</v>
+      </c>
+      <c r="E495" s="6">
+        <v>14</v>
+      </c>
+      <c r="F495" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" ht="13.55" customHeight="1">
+      <c r="A496" t="s" s="5">
+        <v>994</v>
+      </c>
+      <c r="B496" t="s" s="5">
+        <v>995</v>
+      </c>
+      <c r="C496" s="6">
+        <v>13</v>
+      </c>
+      <c r="D496" s="6">
+        <v>8</v>
+      </c>
+      <c r="E496" s="6">
+        <v>20</v>
+      </c>
+      <c r="F496" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" ht="13.55" customHeight="1">
+      <c r="A497" t="s" s="5">
+        <v>996</v>
+      </c>
+      <c r="B497" t="s" s="5">
+        <v>997</v>
+      </c>
+      <c r="C497" s="6">
+        <v>9</v>
+      </c>
+      <c r="D497" s="6">
+        <v>4</v>
+      </c>
+      <c r="E497" s="6">
+        <v>25</v>
+      </c>
+      <c r="F497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" ht="13.55" customHeight="1">
+      <c r="A498" t="s" s="5">
+        <v>998</v>
+      </c>
+      <c r="B498" t="s" s="5">
+        <v>999</v>
+      </c>
+      <c r="C498" s="6">
+        <v>20</v>
+      </c>
+      <c r="D498" s="6">
+        <v>127</v>
+      </c>
+      <c r="E498" s="6">
+        <v>20</v>
+      </c>
+      <c r="F498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" ht="13.55" customHeight="1">
+      <c r="A499" t="s" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B499" t="s" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C499" s="6">
+        <v>23</v>
+      </c>
+      <c r="D499" s="6">
+        <v>153</v>
+      </c>
+      <c r="E499" s="6">
+        <v>10</v>
+      </c>
+      <c r="F499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" ht="13.55" customHeight="1">
+      <c r="A500" t="s" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B500" t="s" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C500" s="6">
+        <v>9</v>
+      </c>
+      <c r="D500" s="6">
+        <v>248</v>
+      </c>
+      <c r="E500" s="6">
+        <v>12</v>
+      </c>
+      <c r="F500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" ht="13.55" customHeight="1">
+      <c r="A501" t="s" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B501" t="s" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C501" s="6">
+        <v>361</v>
+      </c>
+      <c r="D501" s="6">
+        <v>51</v>
+      </c>
+      <c r="E501" s="6">
+        <v>21</v>
+      </c>
+      <c r="F501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" ht="13.55" customHeight="1">
+      <c r="A502" t="s" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B502" t="s" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C502" s="6">
+        <v>3</v>
+      </c>
+      <c r="D502" s="6">
+        <v>9</v>
+      </c>
+      <c r="E502" s="6">
+        <v>12</v>
+      </c>
+      <c r="F502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" ht="13.55" customHeight="1">
+      <c r="A503" t="s" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B503" t="s" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C503" s="6">
+        <v>41</v>
+      </c>
+      <c r="D503" s="6">
+        <v>125</v>
+      </c>
+      <c r="E503" s="6">
+        <v>2</v>
+      </c>
+      <c r="F503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" ht="13.55" customHeight="1">
+      <c r="A504" t="s" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B504" t="s" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C504" s="6">
+        <v>44</v>
+      </c>
+      <c r="D504" s="6">
+        <v>125</v>
+      </c>
+      <c r="E504" s="6">
+        <v>2</v>
+      </c>
+      <c r="F504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" ht="13.55" customHeight="1">
+      <c r="A505" t="s" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B505" t="s" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C505" s="6">
+        <v>40</v>
+      </c>
+      <c r="D505" s="6">
+        <v>120</v>
+      </c>
+      <c r="E505" s="6">
+        <v>2</v>
+      </c>
+      <c r="F505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" ht="13.55" customHeight="1">
+      <c r="A506" t="s" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B506" t="s" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C506" s="6">
+        <v>20</v>
+      </c>
+      <c r="D506" s="6">
+        <v>88</v>
+      </c>
+      <c r="E506" s="6">
+        <v>2</v>
+      </c>
+      <c r="F506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" ht="13.55" customHeight="1">
+      <c r="A507" t="s" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B507" t="s" s="5">
+        <v>1017</v>
+      </c>
+      <c r="C507" s="6">
+        <v>11</v>
+      </c>
+      <c r="D507" s="6">
+        <v>36</v>
+      </c>
+      <c r="E507" s="6">
+        <v>2</v>
+      </c>
+      <c r="F507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" ht="13.55" customHeight="1">
+      <c r="A508" t="s" s="5">
+        <v>1018</v>
+      </c>
+      <c r="B508" t="s" s="5">
+        <v>1019</v>
+      </c>
+      <c r="C508" s="6">
+        <v>596</v>
+      </c>
+      <c r="D508" s="6">
+        <v>183</v>
+      </c>
+      <c r="E508" s="6">
+        <v>32</v>
+      </c>
+      <c r="F508" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" ht="13.55" customHeight="1">
+      <c r="A509" t="s" s="5">
+        <v>1020</v>
+      </c>
+      <c r="B509" t="s" s="5">
+        <v>1021</v>
+      </c>
+      <c r="C509" s="6">
+        <v>559</v>
+      </c>
+      <c r="D509" s="6">
+        <v>167</v>
+      </c>
+      <c r="E509" s="6">
+        <v>32</v>
+      </c>
+      <c r="F509" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" ht="13.55" customHeight="1">
+      <c r="A510" t="s" s="5">
+        <v>1022</v>
+      </c>
+      <c r="B510" t="s" s="5">
+        <v>1023</v>
+      </c>
+      <c r="C510" s="6">
+        <v>398</v>
+      </c>
+      <c r="D510" s="6">
+        <v>195</v>
+      </c>
+      <c r="E510" s="6">
+        <v>32</v>
+      </c>
+      <c r="F510" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" ht="13.55" customHeight="1">
+      <c r="A511" t="s" s="5">
+        <v>1024</v>
+      </c>
+      <c r="B511" t="s" s="5">
+        <v>1025</v>
+      </c>
+      <c r="C511" s="6">
+        <v>451</v>
+      </c>
+      <c r="D511" s="6">
+        <v>170</v>
+      </c>
+      <c r="E511" s="6">
+        <v>32</v>
+      </c>
+      <c r="F511" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" ht="13.55" customHeight="1">
+      <c r="A512" t="s" s="5">
+        <v>1026</v>
+      </c>
+      <c r="B512" t="s" s="5">
+        <v>1027</v>
+      </c>
+      <c r="C512" s="6">
+        <v>531</v>
+      </c>
+      <c r="D512" s="6">
+        <v>155</v>
+      </c>
+      <c r="E512" s="6">
+        <v>32</v>
+      </c>
+      <c r="F512" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" ht="13.55" customHeight="1">
+      <c r="A513" t="s" s="5">
+        <v>1028</v>
+      </c>
+      <c r="B513" t="s" s="5">
+        <v>1029</v>
+      </c>
+      <c r="C513" s="6">
+        <v>589</v>
+      </c>
+      <c r="D513" s="6">
+        <v>160</v>
+      </c>
+      <c r="E513" s="6">
+        <v>32</v>
+      </c>
+      <c r="F513" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" ht="13.55" customHeight="1">
+      <c r="A514" t="s" s="5">
+        <v>1030</v>
+      </c>
+      <c r="B514" t="s" s="5">
+        <v>1031</v>
+      </c>
+      <c r="C514" s="6">
+        <v>8</v>
+      </c>
+      <c r="D514" s="6">
+        <v>15</v>
+      </c>
+      <c r="E514" s="6">
+        <v>10</v>
+      </c>
+      <c r="F514" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" ht="13.55" customHeight="1">
+      <c r="A515" t="s" s="5">
+        <v>1032</v>
+      </c>
+      <c r="B515" t="s" s="5">
+        <v>1033</v>
+      </c>
+      <c r="C515" s="6">
+        <v>10</v>
+      </c>
+      <c r="D515" s="6">
+        <v>122</v>
+      </c>
+      <c r="E515" s="6">
+        <v>6</v>
+      </c>
+      <c r="F515" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" ht="13.55" customHeight="1">
+      <c r="A516" t="s" s="5">
+        <v>1034</v>
+      </c>
+      <c r="B516" t="s" s="5">
+        <v>1035</v>
+      </c>
+      <c r="C516" s="6">
+        <v>576</v>
+      </c>
+      <c r="D516" s="6">
+        <v>163</v>
+      </c>
+      <c r="E516" s="6">
+        <v>32</v>
+      </c>
+      <c r="F516" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" ht="13.55" customHeight="1">
+      <c r="A517" t="s" s="5">
+        <v>1036</v>
+      </c>
+      <c r="B517" t="s" s="5">
+        <v>1037</v>
+      </c>
+      <c r="C517" s="6">
+        <v>616</v>
+      </c>
+      <c r="D517" s="6">
+        <v>170</v>
+      </c>
+      <c r="E517" s="6">
+        <v>38</v>
+      </c>
+      <c r="F517" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" ht="13.55" customHeight="1">
+      <c r="A518" t="s" s="5">
+        <v>1038</v>
+      </c>
+      <c r="B518" t="s" s="5">
+        <v>1039</v>
+      </c>
+      <c r="C518" s="6">
+        <v>12</v>
+      </c>
+      <c r="D518" s="6">
+        <v>27</v>
+      </c>
+      <c r="E518" s="6">
+        <v>12</v>
+      </c>
+      <c r="F518" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" ht="13.55" customHeight="1">
+      <c r="A519" t="s" s="5">
+        <v>1040</v>
+      </c>
+      <c r="B519" t="s" s="5">
+        <v>1041</v>
+      </c>
+      <c r="C519" s="6">
+        <v>559</v>
+      </c>
+      <c r="D519" s="6">
+        <v>155</v>
+      </c>
+      <c r="E519" s="6">
+        <v>38</v>
+      </c>
+      <c r="F519" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" ht="13.55" customHeight="1">
+      <c r="A520" t="s" s="5">
+        <v>1042</v>
+      </c>
+      <c r="B520" t="s" s="5">
+        <v>1043</v>
+      </c>
+      <c r="C520" s="6">
+        <v>314</v>
+      </c>
+      <c r="D520" s="6">
+        <v>87</v>
+      </c>
+      <c r="E520" s="6">
+        <v>38</v>
+      </c>
+      <c r="F520" s="6">
         <v>1</v>
       </c>
     </row>

--- a/data/tiempo_final.xlsx
+++ b/data/tiempo_final.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1092">
   <si>
     <t>timestamp</t>
   </si>
@@ -3143,6 +3143,150 @@
   </si>
   <si>
     <t>020925.NC</t>
+  </si>
+  <si>
+    <t>2024-12-12 23:22:54</t>
+  </si>
+  <si>
+    <t>021862.NC</t>
+  </si>
+  <si>
+    <t>2024-12-17 09:50:32</t>
+  </si>
+  <si>
+    <t>022048.NC</t>
+  </si>
+  <si>
+    <t>2024-12-18 08:46:33</t>
+  </si>
+  <si>
+    <t>021978.NC</t>
+  </si>
+  <si>
+    <t>2024-12-18 11:55:54</t>
+  </si>
+  <si>
+    <t>021954.NC</t>
+  </si>
+  <si>
+    <t>2024-12-18 12:08:47</t>
+  </si>
+  <si>
+    <t>021955.NC</t>
+  </si>
+  <si>
+    <t>2024-12-18 12:34:39</t>
+  </si>
+  <si>
+    <t>021874.NC</t>
+  </si>
+  <si>
+    <t>2024-12-18 13:39:05</t>
+  </si>
+  <si>
+    <t>022061.NC</t>
+  </si>
+  <si>
+    <t>2024-12-18 15:39:58</t>
+  </si>
+  <si>
+    <t>022019.NC</t>
+  </si>
+  <si>
+    <t>2024-12-19 13:10:56</t>
+  </si>
+  <si>
+    <t>022020.NC</t>
+  </si>
+  <si>
+    <t>2024-12-19 16:50:33</t>
+  </si>
+  <si>
+    <t>022203.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 10:43:11</t>
+  </si>
+  <si>
+    <t>022087.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 11:47:17</t>
+  </si>
+  <si>
+    <t>022110.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 12:10:03</t>
+  </si>
+  <si>
+    <t>022123.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 12:26:12</t>
+  </si>
+  <si>
+    <t>022133.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 13:00:44</t>
+  </si>
+  <si>
+    <t>022095.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 13:17:21</t>
+  </si>
+  <si>
+    <t>022086.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 13:28:30</t>
+  </si>
+  <si>
+    <t>022094.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 13:49:34</t>
+  </si>
+  <si>
+    <t>022093.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 14:58:26</t>
+  </si>
+  <si>
+    <t>022089.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 15:12:20</t>
+  </si>
+  <si>
+    <t>022092.NC</t>
+  </si>
+  <si>
+    <t>2024-12-20 15:51:20</t>
+  </si>
+  <si>
+    <t>022090.NC</t>
+  </si>
+  <si>
+    <t>2024-12-23 09:20:09</t>
+  </si>
+  <si>
+    <t>022096.NC</t>
+  </si>
+  <si>
+    <t>2024-12-23 10:26:46</t>
+  </si>
+  <si>
+    <t>022135.NC</t>
+  </si>
+  <si>
+    <t>2024-12-23 10:35:17</t>
+  </si>
+  <si>
+    <t>022136.NC</t>
   </si>
 </sst>
 </file>
@@ -4380,15 +4524,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F520"/>
+  <dimension ref="A1:F544"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.0391" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7734" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7734" style="1" customWidth="1"/>
+    <col min="2" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14303,7 +14446,7 @@
         <v>13</v>
       </c>
       <c r="D496" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E496" s="6">
         <v>20</v>
@@ -14340,7 +14483,7 @@
         <v>999</v>
       </c>
       <c r="C498" s="6">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D498" s="6">
         <v>127</v>
@@ -14380,7 +14523,7 @@
         <v>1003</v>
       </c>
       <c r="C500" s="6">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D500" s="6">
         <v>248</v>
@@ -14740,7 +14883,7 @@
         <v>1039</v>
       </c>
       <c r="C518" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D518" s="6">
         <v>27</v>
@@ -14789,6 +14932,486 @@
         <v>38</v>
       </c>
       <c r="F520" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" ht="13.55" customHeight="1">
+      <c r="A521" t="s" s="5">
+        <v>1044</v>
+      </c>
+      <c r="B521" t="s" s="5">
+        <v>1045</v>
+      </c>
+      <c r="C521" s="6">
+        <v>100</v>
+      </c>
+      <c r="D521" s="6">
+        <v>24</v>
+      </c>
+      <c r="E521" s="6">
+        <v>38</v>
+      </c>
+      <c r="F521" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" ht="13.55" customHeight="1">
+      <c r="A522" t="s" s="5">
+        <v>1046</v>
+      </c>
+      <c r="B522" t="s" s="5">
+        <v>1047</v>
+      </c>
+      <c r="C522" s="6">
+        <v>253</v>
+      </c>
+      <c r="D522" s="6">
+        <v>133</v>
+      </c>
+      <c r="E522" s="6">
+        <v>25</v>
+      </c>
+      <c r="F522" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" ht="13.55" customHeight="1">
+      <c r="A523" t="s" s="5">
+        <v>1048</v>
+      </c>
+      <c r="B523" t="s" s="5">
+        <v>1049</v>
+      </c>
+      <c r="C523" s="6">
+        <v>11</v>
+      </c>
+      <c r="D523" s="6">
+        <v>25</v>
+      </c>
+      <c r="E523" s="6">
+        <v>12</v>
+      </c>
+      <c r="F523" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" ht="13.55" customHeight="1">
+      <c r="A524" t="s" s="5">
+        <v>1050</v>
+      </c>
+      <c r="B524" t="s" s="5">
+        <v>1051</v>
+      </c>
+      <c r="C524" s="6">
+        <v>6</v>
+      </c>
+      <c r="D524" s="6">
+        <v>9</v>
+      </c>
+      <c r="E524" s="6">
+        <v>2</v>
+      </c>
+      <c r="F524" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" ht="13.55" customHeight="1">
+      <c r="A525" t="s" s="5">
+        <v>1052</v>
+      </c>
+      <c r="B525" t="s" s="5">
+        <v>1053</v>
+      </c>
+      <c r="C525" s="6">
+        <v>6</v>
+      </c>
+      <c r="D525" s="6">
+        <v>9</v>
+      </c>
+      <c r="E525" s="6">
+        <v>2</v>
+      </c>
+      <c r="F525" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" ht="13.55" customHeight="1">
+      <c r="A526" t="s" s="5">
+        <v>1054</v>
+      </c>
+      <c r="B526" t="s" s="5">
+        <v>1055</v>
+      </c>
+      <c r="C526" s="6">
+        <v>92</v>
+      </c>
+      <c r="D526" s="6">
+        <v>363</v>
+      </c>
+      <c r="E526" s="6">
+        <v>6</v>
+      </c>
+      <c r="F526" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" ht="13.55" customHeight="1">
+      <c r="A527" t="s" s="5">
+        <v>1056</v>
+      </c>
+      <c r="B527" t="s" s="5">
+        <v>1057</v>
+      </c>
+      <c r="C527" s="6">
+        <v>10</v>
+      </c>
+      <c r="D527" s="6">
+        <v>47</v>
+      </c>
+      <c r="E527" s="6">
+        <v>6</v>
+      </c>
+      <c r="F527" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" ht="13.55" customHeight="1">
+      <c r="A528" t="s" s="5">
+        <v>1058</v>
+      </c>
+      <c r="B528" t="s" s="5">
+        <v>1059</v>
+      </c>
+      <c r="C528" s="6">
+        <v>88</v>
+      </c>
+      <c r="D528" s="6">
+        <v>420</v>
+      </c>
+      <c r="E528" s="6">
+        <v>10</v>
+      </c>
+      <c r="F528" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" ht="13.55" customHeight="1">
+      <c r="A529" t="s" s="5">
+        <v>1060</v>
+      </c>
+      <c r="B529" t="s" s="5">
+        <v>1061</v>
+      </c>
+      <c r="C529" s="6">
+        <v>16</v>
+      </c>
+      <c r="D529" s="6">
+        <v>56</v>
+      </c>
+      <c r="E529" s="6">
+        <v>10</v>
+      </c>
+      <c r="F529" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" ht="13.55" customHeight="1">
+      <c r="A530" t="s" s="5">
+        <v>1062</v>
+      </c>
+      <c r="B530" t="s" s="5">
+        <v>1063</v>
+      </c>
+      <c r="C530" s="6">
+        <v>2</v>
+      </c>
+      <c r="D530" s="6">
+        <v>10</v>
+      </c>
+      <c r="E530" s="6">
+        <v>6</v>
+      </c>
+      <c r="F530" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" ht="13.55" customHeight="1">
+      <c r="A531" t="s" s="5">
+        <v>1064</v>
+      </c>
+      <c r="B531" t="s" s="5">
+        <v>1065</v>
+      </c>
+      <c r="C531" s="6">
+        <v>3</v>
+      </c>
+      <c r="D531" s="6">
+        <v>17</v>
+      </c>
+      <c r="E531" s="6">
+        <v>2</v>
+      </c>
+      <c r="F531" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" ht="13.55" customHeight="1">
+      <c r="A532" t="s" s="5">
+        <v>1066</v>
+      </c>
+      <c r="B532" t="s" s="5">
+        <v>1067</v>
+      </c>
+      <c r="C532" s="6">
+        <v>2</v>
+      </c>
+      <c r="D532" s="6">
+        <v>7</v>
+      </c>
+      <c r="E532" s="6">
+        <v>2</v>
+      </c>
+      <c r="F532" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" ht="13.55" customHeight="1">
+      <c r="A533" t="s" s="5">
+        <v>1068</v>
+      </c>
+      <c r="B533" t="s" s="5">
+        <v>1069</v>
+      </c>
+      <c r="C533" s="6">
+        <v>1</v>
+      </c>
+      <c r="D533" s="6">
+        <v>6</v>
+      </c>
+      <c r="E533" s="6">
+        <v>2</v>
+      </c>
+      <c r="F533" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" ht="13.55" customHeight="1">
+      <c r="A534" t="s" s="5">
+        <v>1070</v>
+      </c>
+      <c r="B534" t="s" s="5">
+        <v>1071</v>
+      </c>
+      <c r="C534" s="6">
+        <v>1</v>
+      </c>
+      <c r="D534" s="6">
+        <v>11</v>
+      </c>
+      <c r="E534" s="6">
+        <v>2</v>
+      </c>
+      <c r="F534" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" ht="13.55" customHeight="1">
+      <c r="A535" t="s" s="5">
+        <v>1072</v>
+      </c>
+      <c r="B535" t="s" s="5">
+        <v>1073</v>
+      </c>
+      <c r="C535" s="6">
+        <v>2</v>
+      </c>
+      <c r="D535" s="6">
+        <v>17</v>
+      </c>
+      <c r="E535" s="6">
+        <v>2</v>
+      </c>
+      <c r="F535" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" ht="13.55" customHeight="1">
+      <c r="A536" t="s" s="5">
+        <v>1074</v>
+      </c>
+      <c r="B536" t="s" s="5">
+        <v>1075</v>
+      </c>
+      <c r="C536" s="6">
+        <v>2</v>
+      </c>
+      <c r="D536" s="6">
+        <v>17</v>
+      </c>
+      <c r="E536" s="6">
+        <v>2</v>
+      </c>
+      <c r="F536" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" ht="13.55" customHeight="1">
+      <c r="A537" t="s" s="5">
+        <v>1076</v>
+      </c>
+      <c r="B537" t="s" s="5">
+        <v>1077</v>
+      </c>
+      <c r="C537" s="6">
+        <v>3</v>
+      </c>
+      <c r="D537" s="6">
+        <v>17</v>
+      </c>
+      <c r="E537" s="6">
+        <v>2</v>
+      </c>
+      <c r="F537" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" ht="13.55" customHeight="1">
+      <c r="A538" t="s" s="5">
+        <v>1078</v>
+      </c>
+      <c r="B538" t="s" s="5">
+        <v>1079</v>
+      </c>
+      <c r="C538" s="6">
+        <v>1</v>
+      </c>
+      <c r="D538" s="6">
+        <v>17</v>
+      </c>
+      <c r="E538" s="6">
+        <v>2</v>
+      </c>
+      <c r="F538" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" ht="13.55" customHeight="1">
+      <c r="A539" t="s" s="5">
+        <v>1080</v>
+      </c>
+      <c r="B539" t="s" s="5">
+        <v>1081</v>
+      </c>
+      <c r="C539" s="6">
+        <v>3</v>
+      </c>
+      <c r="D539" s="6">
+        <v>17</v>
+      </c>
+      <c r="E539" s="6">
+        <v>2</v>
+      </c>
+      <c r="F539" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" ht="13.55" customHeight="1">
+      <c r="A540" t="s" s="5">
+        <v>1082</v>
+      </c>
+      <c r="B540" t="s" s="5">
+        <v>1083</v>
+      </c>
+      <c r="C540" s="6">
+        <v>4</v>
+      </c>
+      <c r="D540" s="6">
+        <v>17</v>
+      </c>
+      <c r="E540" s="6">
+        <v>2</v>
+      </c>
+      <c r="F540" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" ht="13.55" customHeight="1">
+      <c r="A541" t="s" s="5">
+        <v>1084</v>
+      </c>
+      <c r="B541" t="s" s="5">
+        <v>1085</v>
+      </c>
+      <c r="C541" s="6">
+        <v>3</v>
+      </c>
+      <c r="D541" s="6">
+        <v>17</v>
+      </c>
+      <c r="E541" s="6">
+        <v>2</v>
+      </c>
+      <c r="F541" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" ht="13.55" customHeight="1">
+      <c r="A542" t="s" s="5">
+        <v>1086</v>
+      </c>
+      <c r="B542" t="s" s="5">
+        <v>1087</v>
+      </c>
+      <c r="C542" s="6">
+        <v>4</v>
+      </c>
+      <c r="D542" s="6">
+        <v>18</v>
+      </c>
+      <c r="E542" s="6">
+        <v>2</v>
+      </c>
+      <c r="F542" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" ht="13.55" customHeight="1">
+      <c r="A543" t="s" s="5">
+        <v>1088</v>
+      </c>
+      <c r="B543" t="s" s="5">
+        <v>1089</v>
+      </c>
+      <c r="C543" s="6">
+        <v>1</v>
+      </c>
+      <c r="D543" s="6">
+        <v>9</v>
+      </c>
+      <c r="E543" s="6">
+        <v>2</v>
+      </c>
+      <c r="F543" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" ht="13.55" customHeight="1">
+      <c r="A544" t="s" s="5">
+        <v>1090</v>
+      </c>
+      <c r="B544" t="s" s="5">
+        <v>1091</v>
+      </c>
+      <c r="C544" s="6">
+        <v>2</v>
+      </c>
+      <c r="D544" s="6">
+        <v>15</v>
+      </c>
+      <c r="E544" s="6">
+        <v>2</v>
+      </c>
+      <c r="F544" s="6">
         <v>1</v>
       </c>
     </row>
